--- a/data/02_intermediate/cleaned_Guy2Bezbar_songs.xlsx
+++ b/data/02_intermediate/cleaned_Guy2Bezbar_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ah oui oui, ah oui oui Jungle jungle Ah non c'est terrible bien sûr, bien sûr Brrrrr skurt skurt skurt Ah non c'est terrible Tu poucaves et tu viens faire le mec de tess ? Ah non c'est terrible Ah oui oui, ouiii Ah non c'est terrible oui Ton poto t'a laissé pour une petite paire de fesses, tu perds l'équilibre ah tu perds l'équilibre Kalash ! Ah non c'est terrible, Ah non c'est terrible squad, squad, squad Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible ah oui oui, ah oui oui J'ouvre le bal, rafale dans ta mère, ouais mon gars on a la dalle Moi je ne suce pas de bites comme tes gars sûr, ah bien sûr fuck les pédales Igo c'est parti, j'ai pas peur j'te l'ai dit, tu vois bien ça part vite C'est la jungle c'est la jungle, Bezbar secteur là où moi j'habite Qu'est-ce que tu crois ? Oui, mon 'soss c'est la hess dans ma destinée Ça fume à dix piges, les vrais favelas se trouvent dans mon quartier J'mets l'paquet comme mon grand koli, la vie d'ma race j'vais tous les baiser Ne passe pas par ici, Jungle squad, tu vas t'faire froisser Ils croyaient pas en moi, sans tiess, tu vois Tisse-mé, blonde, yeux bridés, ma femme c'est comme ça qu'je la vois J'bombarde sur l'autoroute, est-ce que tu vois ? Là tu m'écoutes, les vrais savent et reconnaissent eux-mêmes le son des vrais youvoi Un flow direct de Kinshasa, les bâtards nous on n'aime pas ça Tu peux faire le bonhomme au téléphone comme en vrai faire la lope-sa Du beef on est tous des dique-sa, pour mon gars Kecha love sosa Si tu fais l'fou j't'allume au mortier et ça va t'brûler comme d'la harissa You might also like Manny, j'suis trop nerveux que même ma bite passe des rapports J'tire les cheveux d'ta racli, j'la cabre en i elle crie encore plus fort ! skirt skirt Avant, j'ai bien charbonné, j'ai mis tout l'beef dans le coffre-fort Poto, la street on la connaît, maintenant dans l'rap on va péter le score On a tout ce qu'il faut dans le bando, des armes de guerre comme Rambo Il y a de la pure comme Pablo, scientifiques qui bossent dans le labo' Ah non c'est terrible Négro Deep, B marsien, JNR, c'est trop terrible Dans vos oreilles ce sera horrible bang bang Contrôler le business, mon négro c'est possible Succès bitches Bitches sucé Vu qu'c'est la merde chez nous, on est obligé de percer Ta pétasse nous regarde chelou, dans sa bouche j'vais tout verser Deux, trois, quatre kilos d'fe-chnou j'fais monter la côte comme au tiercé Bicar' dans la casserole, des boloss qui en raffolent Fais bouger l'cul à quelques petites folles twerk, twerk Puis sous ma weed elles décollent Compter des sommes, j'l'ai appris à l'école Pendant toutes mes heures de colle Passe le pacte mais j'vise le pactole Tu m'approches j'te ferai goûter l'sol let's get it ! Brrrrr skurt skurt skurt Ah non c'est terrible Tu poucaves et tu viens faire le mec de tess ? Ah non c'est terrible Ah oui oui, ouiii Ah non c'est terrible oui Ton poto t'a laissé pour une petite paire de fesses, tu perds l'équilibre ah tu perds l'équilibre Kalash ! Ah non c'est terrible, Ah non c'est terrible squad, squad, squad Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible ah oui oui, ah oui oui Eh, va taffer ou vends d'la drogue connard, nique la brigade des STUP, la brigade financière Le ministre des finances, il est pénard bâtard, j'vends du textile en Charo dans toute la france entière money Zifu Coro c'est le boss Donc les groupies veulent me faire des gosses putain de merde Allô Omzo et Marlo Avant que les keuf nous pètent, faut liquider des kilos Négro, dans la rue bah c'est pas compliqué Pour tout niquer, fais des sous breliqué Un t-shirt charo sur une dominicaine Niska a percé, allez do mini kai J'te nique ta mère et j'fume de l'herbe après C'est vrai qu'ta guez elle graille mais c'est un prêt Tu t'apprêtes à faire ton helel, mais t'apprends c'est qu'une grosse pute ah non c'est terrible Tu t'lèves tous les matins pour chercher du taf mais personne recrute ah non c'est terrible Tu pètes les plombs, tu gamberges, tu'eux tout braquer quitte à prendre 10 ans Tu deviens turbulent, insolent, oui RenoiMenaçant Cagoulé, ganté, tu prends le T-Max à la recherche d'un plavon T'as tapé ceci, t'as tapé cela, vive l'argent Vive l'argent, et là tu te dis vive l'argent Perquisition, 6H du matin chez monsieur l'agent Garde-à-vue dépôt igo, et te voilà en prison En direct d'la jungle, allô poto oui j't'appelle de Fleury C'est la sère-mi, zebi j'ai même pas d'quoi acheter du riz Faut payer l'avocat, faut voyer la pe-sa, faut voyer l'fe-bee Mon négro, mon négro, mon négro, envoie le yoyo Mon négro, mon négro, mon négro, mets du bédo Comme disent les mecs de Fleury, la prison c'est dur Comme disent les mecs de Fleury, la sortie c'est sûr Brrrrr skurt skurt skurt Ah non c'est terrible bendo Tu poucaves et tu viens faire le mec de tess ? Ah non c'est terrible Ah oui oui, ouiii Ah non c'est terrible oui Ton poto t'a laissé pour une petite paire de fesses, tu perds l'équilibre ah tu perds l'équilibre Kalash ! Ah non c'est terrible, Ah non c'est terrible squad, squad, squad Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible ah oui oui, ah oui oui Monte sur Paname, Paname, Charo dans la cabessa Bibi, Brigui, Enes Pablo Il y a ta go qui zieutte mes pectoraux Bendo, bendo, gravon, danse pas l'kotazo Adios, on côtoie la violence, sippin' every day Cargaison de Meuda', ravitaille le tiek's ! Bibi tous les jours, mogo faut qu'ça paye Gova en cavale, j'vois la route du hebs8</t>
+          <t>Ah oui oui, ah oui oui Jungle jungle Ah non c'est terrible bien sûr, bien sûr Brrrrr skurt skurt skurt Ah non c'est terrible Tu poucaves et tu viens faire le mec de tess ? Ah non c'est terrible Ah oui oui, ouiii Ah non c'est terrible oui Ton poto t'a laissé pour une petite paire de fesses, tu perds l'équilibre ah tu perds l'équilibre Kalash ! Ah non c'est terrible, Ah non c'est terrible squad, squad, squad Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible ah oui oui, ah oui oui J'ouvre le bal, rafale dans ta mère, ouais mon gars on a la dalle Moi je ne suce pas de bites comme tes gars sûr, ah bien sûr fuck les pédales Igo c'est parti, j'ai pas peur j'te l'ai dit, tu vois bien ça part vite C'est la jungle c'est la jungle, Bezbar secteur là où moi j'habite Qu'est-ce que tu crois ? Oui, mon 'soss c'est la hess dans ma destinée Ça fume à dix piges, les vrais favelas se trouvent dans mon quartier J'mets l'paquet comme mon grand koli, la vie d'ma race j'vais tous les baiser Ne passe pas par ici, Jungle squad, tu vas t'faire froisser Ils croyaient pas en moi, sans tiess, tu vois Tisse-mé, blonde, yeux bridés, ma femme c'est comme ça qu'je la vois J'bombarde sur l'autoroute, est-ce que tu vois ? Là tu m'écoutes, les vrais savent et reconnaissent eux-mêmes le son des vrais youvoi Un flow direct de Kinshasa, les bâtards nous on n'aime pas ça Tu peux faire le bonhomme au téléphone comme en vrai faire la lope-sa Du beef on est tous des dique-sa, pour mon gars Kecha love sosa Si tu fais l'fou j't'allume au mortier et ça va t'brûler comme d'la harissa Manny, j'suis trop nerveux que même ma bite passe des rapports J'tire les cheveux d'ta racli, j'la cabre en i elle crie encore plus fort ! skirt skirt Avant, j'ai bien charbonné, j'ai mis tout l'beef dans le coffre-fort Poto, la street on la connaît, maintenant dans l'rap on va péter le score On a tout ce qu'il faut dans le bando, des armes de guerre comme Rambo Il y a de la pure comme Pablo, scientifiques qui bossent dans le labo' Ah non c'est terrible Négro Deep, B marsien, JNR, c'est trop terrible Dans vos oreilles ce sera horrible bang bang Contrôler le business, mon négro c'est possible Succès bitches Bitches sucé Vu qu'c'est la merde chez nous, on est obligé de percer Ta pétasse nous regarde chelou, dans sa bouche j'vais tout verser Deux, trois, quatre kilos d'fe-chnou j'fais monter la côte comme au tiercé Bicar' dans la casserole, des boloss qui en raffolent Fais bouger l'cul à quelques petites folles twerk, twerk Puis sous ma weed elles décollent Compter des sommes, j'l'ai appris à l'école Pendant toutes mes heures de colle Passe le pacte mais j'vise le pactole Tu m'approches j'te ferai goûter l'sol let's get it ! Brrrrr skurt skurt skurt Ah non c'est terrible Tu poucaves et tu viens faire le mec de tess ? Ah non c'est terrible Ah oui oui, ouiii Ah non c'est terrible oui Ton poto t'a laissé pour une petite paire de fesses, tu perds l'équilibre ah tu perds l'équilibre Kalash ! Ah non c'est terrible, Ah non c'est terrible squad, squad, squad Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible ah oui oui, ah oui oui Eh, va taffer ou vends d'la drogue connard, nique la brigade des STUP, la brigade financière Le ministre des finances, il est pénard bâtard, j'vends du textile en Charo dans toute la france entière money Zifu Coro c'est le boss Donc les groupies veulent me faire des gosses putain de merde Allô Omzo et Marlo Avant que les keuf nous pètent, faut liquider des kilos Négro, dans la rue bah c'est pas compliqué Pour tout niquer, fais des sous breliqué Un t-shirt charo sur une dominicaine Niska a percé, allez do mini kai J'te nique ta mère et j'fume de l'herbe après C'est vrai qu'ta guez elle graille mais c'est un prêt Tu t'apprêtes à faire ton helel, mais t'apprends c'est qu'une grosse pute ah non c'est terrible Tu t'lèves tous les matins pour chercher du taf mais personne recrute ah non c'est terrible Tu pètes les plombs, tu gamberges, tu'eux tout braquer quitte à prendre 10 ans Tu deviens turbulent, insolent, oui RenoiMenaçant Cagoulé, ganté, tu prends le T-Max à la recherche d'un plavon T'as tapé ceci, t'as tapé cela, vive l'argent Vive l'argent, et là tu te dis vive l'argent Perquisition, 6H du matin chez monsieur l'agent Garde-à-vue dépôt igo, et te voilà en prison En direct d'la jungle, allô poto oui j't'appelle de Fleury C'est la sère-mi, zebi j'ai même pas d'quoi acheter du riz Faut payer l'avocat, faut voyer la pe-sa, faut voyer l'fe-bee Mon négro, mon négro, mon négro, envoie le yoyo Mon négro, mon négro, mon négro, mets du bédo Comme disent les mecs de Fleury, la prison c'est dur Comme disent les mecs de Fleury, la sortie c'est sûr Brrrrr skurt skurt skurt Ah non c'est terrible bendo Tu poucaves et tu viens faire le mec de tess ? Ah non c'est terrible Ah oui oui, ouiii Ah non c'est terrible oui Ton poto t'a laissé pour une petite paire de fesses, tu perds l'équilibre ah tu perds l'équilibre Kalash ! Ah non c'est terrible, Ah non c'est terrible squad, squad, squad Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible Ah non c'est terrible, Ah non c'est terrible ah oui oui, ah oui oui Monte sur Paname, Paname, Charo dans la cabessa Bibi, Brigui, Enes Pablo Il y a ta go qui zieutte mes pectoraux Bendo, bendo, gravon, danse pas l'kotazo Adios, on côtoie la violence, sippin' every day Cargaison de Meuda', ravitaille le tiek's ! Bibi tous les jours, mogo faut qu'ça paye Gova en cavale, j'vois la route du hebs8</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ouais, c'est nous qu'tu croises à l'épicerie, qu'tu croises pas loin d'la gare P'tit filou, tu l'as échappé belle, si on t'choppe, on t'hagar Et en c'moment, y a d'la promo' à mort, y a des masses et des go À cause d'mon ex, mes putes m'ont remonté mais pas grave, j'ai la cote J'te pousse dix pièces, envoie la moitié, ouais, si j't'avance, j'peux plus t'arranger Elle bronze à max, elle bronze à max, elle veut me montrer son décolleté, eh J'prnds ma cons' à la Caste', j'ai une villa pas loin d'Fréjus pas loin d'Fréjus Fonce-dé sur la pénich mais quand on tire, on fait mouche Cagoulé, ça cache la plaque, fais pas l'voyou, un showcase, tu rejoins 2Pac De un bats les couilles d'faire la star, de deux bats les couilles d'faire des streams De trois j'veux deux-trois RS4 ou 5, et un pe-pom ou un 6 J'suis trop rapide comme CR7, j'fais l'signe JuL, là, j'suis dans l'R8 Passements d'jambes, tu glisses comme R9 et comme Ronnie, j'suis numéro dix Si j'sors le onze, tu peux ranger ton douze, comme Zizou, j'viens du 13 Faut qu'tu t'pousses, on est bouillants comme la braise A7, fond d'sept, j'rentre pété vrr, en Christian, Giuseppe eh, eh Tout baiser, c'est mon métier, Parc des Princes, Vélodrome, on a l'double des clés Baissez les cagoules, allumez l'moteur, chargez les machins chargez les machins Le son des mahbouls qui s'en battent les couilles, qui braquent le 'gasin ouh, oui Pas la peine de faire le fou, ici, on sait qui fait les trucs, j'ai fait la stup', moi, j'ai jamais fait d'études Avec le temps, les gens, ils changent, ouais, les gens, ils font les putes Jul envoie la balle, c'est Polak devant le but Ouais, la choupetta, là, j'suis pété là, j'suis pété, j'suis sous pétard, j'vais tourner dans l'Sud tout l'été Khabat, j'ai l'bob sur la tête, j'me coupe un bloc sur la 'quette Jamais j'oublierai la tête du premier condé qui m'a pète You might also like En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Han, Squadra Azzurra, que la bûche et la pura, multirécidiviste ah S'brouncha dans le 4x4, demi-tour devant les bleus Campione del mundo, Cîroc red berry, Hermès, côté maroquinerie Disque est platinum, full sept, aluminium Vers là, ça coupe à la lactose, baby, plus rien n'est gratos Full à 100, c'est 710 et deux-trois guitares électriques Lunettés dans la loge, mathafack han Ils ont pas un, ça les énerve, la vérité hey, hey Faudra plus qu'un sopalin si un d'tes gars s'fait charcler plus qu'un sopalin Le coffre est plein, j'dis Hamdoullah, c'est mérité te-ma la kichta Cette bitches veut câlins, j'le fais pour voir son fessier hey, hey, eh D'or et de platine wah, faut que partout, ça éclate tout ça éclate Tes là pour tartine, dort, on te piétine, ouais, ça t'éclate boum, boum Sur le pécule, des palots ouh et en cellule, j'suis khabat en cellule, j'suis khabat On dit Les chats n'aiment pas l'eau, pourtant, j'ai fait mouiller des ch- miouh Envoie ta ppe-f' sur Snapchat, tu veux faire comme nous, essaye, essaye, essaye Tu connais nos villes, Paris-Marseille, 'seille, 'seille On les côtoie pas, c'est que des bouffons déguisés En BSB gang, j'pull up en bande organisée Eh, yo, sur le taro, on t'arrache eh mais si tu prends bon, on t'arrange Goûtes de sueur perlées sur le front bam, bam entre le Boulou et le Madam's ouh Petrouchka, zumba caféw, connu jusqu'à Santa Few Yo, moi, je rappe pour tout l'monde couscous, mafé, figatew Comme une plaque 13 sur la Tour Eiffel ou 93 sur la Canebière Ça fait des sons club mais les clubs ferment, j'pense re-jober, TP la semaine ah Lean back slide et j'danse comme Bobby devant le bât' ouh Et j'danse comme Bobby devant le bât' ouh, et je cavale sec quand je vois la BAC Lean back slide et j'danse comme Bobby devant le bât' Et j'danse comme Bobby devant le bât', et je cavale sec quand je vois la BAC En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état T'as des armes de guerre et des flingues tout neufs, j'ai les mêmes en mieux Santé Bonheur Si tu m'aimes, tant mieux, si tu m'aimes pas, tant mieux Millionnaire, flingue pour la mif', flingue pour la guerre la vie d'ma mère On n'a peur de R, on va te niquer ta mère la keh pah, pah, pah, pah C'est le Classico, la pure pour les toxicos, les armes viennent de Mexico pah, pah, pah, pah Le game, on lui casse les cotes, c'est la faute du Corsico pah, pah, pah, pah Oh, oh, Maria, j'te connais même pas, tu veux te marier hein Oh, oh, Maria, te monte pas avec moi, j'vais te balayer Eh-eh-eh-eh, frère, c'est nous les nouveaux vaillants C'est nous le COVID-19, c'est nous le nouveau variant Attends Coco, attends Jojo, attends un peu, le sang ton gars Coco Attends Coco, attends Jojo, attends un peu c'est fort !, le sang mmh-mmh, mmh-mmh, mmh-mmh, ah, ah, ah, Jojo, Jo' Demande à Lass', Ibrahimovic, on perd pas l'Nord, on dépense, c'est comme ça tous les week-end ah wah Tous les week-end, tous les week-end, tous les week-end faut bosser, ouh Nous, c'est la Ligue 1, ma voiture à 200, j'te sors un pe-pom si t'es menaçant G2B, pi-pi-pi-pi-pi, Bezbar puissanci Dis-leur qu'on est là, j'suis pas pressé nan, c'est nous la cité dans RS6 dans RS6 Mais qu'est-ce tu sais ? Numéro 10, Maradona, Zizou Arrache la piste, on tue ça, c'est tout, l'avant 'gari, pète, pète et le moteur, pète, pète Côt-côté passager, mon pote, c'était moi en moto ouh oui Nous, c'est les sales gueules, qu'ils veulent ou pas même en chuchotant, j'baise tout La Blancpain un crush, nageuse en norme, Bugatti Divo C'est quelqu'un, c'est quelque chose, c'est ma jolie, elle, c'est trop ma go' Elle calcule même pas mon buzz, elle m'dit Reste pas trop dans le bendo J'vais passer l'hiver aux Caraïbes, un gros jet-pack avec le bédo okay Là, tu crois qu'j'ai un jnoun, hein, mais j'conduis du genou okay J'veux la Chopard hérisson et le moteur qui fait vroum-vroum okay Elle a mis ses talons, elle est sous ballon Elle veut un rappeur ou un joueur de ballon En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état</t>
+          <t>Ouais, c'est nous qu'tu croises à l'épicerie, qu'tu croises pas loin d'la gare P'tit filou, tu l'as échappé belle, si on t'choppe, on t'hagar Et en c'moment, y a d'la promo' à mort, y a des masses et des go À cause d'mon ex, mes putes m'ont remonté mais pas grave, j'ai la cote J'te pousse dix pièces, envoie la moitié, ouais, si j't'avance, j'peux plus t'arranger Elle bronze à max, elle bronze à max, elle veut me montrer son décolleté, eh J'prnds ma cons' à la Caste', j'ai une villa pas loin d'Fréjus pas loin d'Fréjus Fonce-dé sur la pénich mais quand on tire, on fait mouche Cagoulé, ça cache la plaque, fais pas l'voyou, un showcase, tu rejoins 2Pac De un bats les couilles d'faire la star, de deux bats les couilles d'faire des streams De trois j'veux deux-trois RS4 ou 5, et un pe-pom ou un 6 J'suis trop rapide comme CR7, j'fais l'signe JuL, là, j'suis dans l'R8 Passements d'jambes, tu glisses comme R9 et comme Ronnie, j'suis numéro dix Si j'sors le onze, tu peux ranger ton douze, comme Zizou, j'viens du 13 Faut qu'tu t'pousses, on est bouillants comme la braise A7, fond d'sept, j'rentre pété vrr, en Christian, Giuseppe eh, eh Tout baiser, c'est mon métier, Parc des Princes, Vélodrome, on a l'double des clés Baissez les cagoules, allumez l'moteur, chargez les machins chargez les machins Le son des mahbouls qui s'en battent les couilles, qui braquent le 'gasin ouh, oui Pas la peine de faire le fou, ici, on sait qui fait les trucs, j'ai fait la stup', moi, j'ai jamais fait d'études Avec le temps, les gens, ils changent, ouais, les gens, ils font les putes Jul envoie la balle, c'est Polak devant le but Ouais, la choupetta, là, j'suis pété là, j'suis pété, j'suis sous pétard, j'vais tourner dans l'Sud tout l'été Khabat, j'ai l'bob sur la tête, j'me coupe un bloc sur la 'quette Jamais j'oublierai la tête du premier condé qui m'a pète En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Han, Squadra Azzurra, que la bûche et la pura, multirécidiviste ah S'brouncha dans le 4x4, demi-tour devant les bleus Campione del mundo, Cîroc red berry, Hermès, côté maroquinerie Disque est platinum, full sept, aluminium Vers là, ça coupe à la lactose, baby, plus rien n'est gratos Full à 100, c'est 710 et deux-trois guitares électriques Lunettés dans la loge, mathafack han Ils ont pas un, ça les énerve, la vérité hey, hey Faudra plus qu'un sopalin si un d'tes gars s'fait charcler plus qu'un sopalin Le coffre est plein, j'dis Hamdoullah, c'est mérité te-ma la kichta Cette bitches veut câlins, j'le fais pour voir son fessier hey, hey, eh D'or et de platine wah, faut que partout, ça éclate tout ça éclate Tes là pour tartine, dort, on te piétine, ouais, ça t'éclate boum, boum Sur le pécule, des palots ouh et en cellule, j'suis khabat en cellule, j'suis khabat On dit Les chats n'aiment pas l'eau, pourtant, j'ai fait mouiller des ch- miouh Envoie ta ppe-f' sur Snapchat, tu veux faire comme nous, essaye, essaye, essaye Tu connais nos villes, Paris-Marseille, 'seille, 'seille On les côtoie pas, c'est que des bouffons déguisés En BSB gang, j'pull up en bande organisée Eh, yo, sur le taro, on t'arrache eh mais si tu prends bon, on t'arrange Goûtes de sueur perlées sur le front bam, bam entre le Boulou et le Madam's ouh Petrouchka, zumba caféw, connu jusqu'à Santa Few Yo, moi, je rappe pour tout l'monde couscous, mafé, figatew Comme une plaque 13 sur la Tour Eiffel ou 93 sur la Canebière Ça fait des sons club mais les clubs ferment, j'pense re-jober, TP la semaine ah Lean back slide et j'danse comme Bobby devant le bât' ouh Et j'danse comme Bobby devant le bât' ouh, et je cavale sec quand je vois la BAC Lean back slide et j'danse comme Bobby devant le bât' Et j'danse comme Bobby devant le bât', et je cavale sec quand je vois la BAC En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état T'as des armes de guerre et des flingues tout neufs, j'ai les mêmes en mieux Santé Bonheur Si tu m'aimes, tant mieux, si tu m'aimes pas, tant mieux Millionnaire, flingue pour la mif', flingue pour la guerre la vie d'ma mère On n'a peur de R, on va te niquer ta mère la keh pah, pah, pah, pah C'est le Classico, la pure pour les toxicos, les armes viennent de Mexico pah, pah, pah, pah Le game, on lui casse les cotes, c'est la faute du Corsico pah, pah, pah, pah Oh, oh, Maria, j'te connais même pas, tu veux te marier hein Oh, oh, Maria, te monte pas avec moi, j'vais te balayer Eh-eh-eh-eh, frère, c'est nous les nouveaux vaillants C'est nous le COVID-19, c'est nous le nouveau variant Attends Coco, attends Jojo, attends un peu, le sang ton gars Coco Attends Coco, attends Jojo, attends un peu c'est fort !, le sang mmh-mmh, mmh-mmh, mmh-mmh, ah, ah, ah, Jojo, Jo' Demande à Lass', Ibrahimovic, on perd pas l'Nord, on dépense, c'est comme ça tous les week-end ah wah Tous les week-end, tous les week-end, tous les week-end faut bosser, ouh Nous, c'est la Ligue 1, ma voiture à 200, j'te sors un pe-pom si t'es menaçant G2B, pi-pi-pi-pi-pi, Bezbar puissanci Dis-leur qu'on est là, j'suis pas pressé nan, c'est nous la cité dans RS6 dans RS6 Mais qu'est-ce tu sais ? Numéro 10, Maradona, Zizou Arrache la piste, on tue ça, c'est tout, l'avant 'gari, pète, pète et le moteur, pète, pète Côt-côté passager, mon pote, c'était moi en moto ouh oui Nous, c'est les sales gueules, qu'ils veulent ou pas même en chuchotant, j'baise tout La Blancpain un crush, nageuse en norme, Bugatti Divo C'est quelqu'un, c'est quelque chose, c'est ma jolie, elle, c'est trop ma go' Elle calcule même pas mon buzz, elle m'dit Reste pas trop dans le bendo J'vais passer l'hiver aux Caraïbes, un gros jet-pack avec le bédo okay Là, tu crois qu'j'ai un jnoun, hein, mais j'conduis du genou okay J'veux la Chopard hérisson et le moteur qui fait vroum-vroum okay Elle a mis ses talons, elle est sous ballon Elle veut un rappeur ou un joueur de ballon En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Too Lucky Too Lucky Ah, ah, rah, rah Ekip, ekip, ekip Ah, ah, ah, ah Paw, ah, ah, paw, paw, paw Coco Jojo, c'est moi, depitcho R9, ouh Paw, pah, paw, ouh, ouh Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Rah, rah Libérez mes négros à lombre Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie lSeigneur dès que ça tombe, ekip Cliki, cliki, cliki rah, gros billets dans mon Dickis paw, bitchies, bitchies Dans la calle, j'fais ds bêtises, pas des négros qui disent des sottises Demande à Gazo Les bonbonnes sont remplies de cocaïne, baw Un zéro, deux zéros, trois zéros, tu peux mourir, tout l'monde connaît mon réseau Ici, c'est la calle, impact de balles dans le mur comme un graffiti Omar s'fait buter par un p'tit déter' de la taille à Mimie Mathy raw, ah, ah Eh, wey, Barksdale, Stringer, Wee-Bey, calibre, chargeur, bye, bye Personne voulait m'aider quand jétais seul dans la calle, calle My nig, my nig', ça fait pah, pah, tous les ennemis sont dans la sauce ils sont dans la sauce Les galeries me connaissent que des chop que j'ai acheté, j'dois faire une pause Millimétré et j'arrose brr, brr, pa-paw, rah, rah, rah You might also like Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à lombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip Corleone, G2 ekip, au-dessus, B2 shh Concu', P2, avance, aka deux T2 cash 667, CMF ekip, ekip, ekip, paw Black Mafia, BMF han, il faut des milliards comme la GMF paw SO l'18, SO la calle ekip, ekip, ekip, han Depuis, j'ai rempli v'là d'cahiers han, pour mes négros, faut v'là à grailler Tu peux mourir, TPM pa-pa-paw Ils sont obsolètes comme BBM, scam, scam, VPN cash Négro, t'es dépassé, tu vas finir comme MC Hammer ah, ah Faut qu'j'fasse rentrer plus de cash dans la N26 que dix scammers cash, cash, ekip Big drip comme Fivio Foreign paw Incha'Allah à 20-30, Dakar comme Pakistan avec 10 grosses foreigns brr, ekip rah, rah, rah Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip</t>
+          <t>Too Lucky Too Lucky Ah, ah, rah, rah Ekip, ekip, ekip Ah, ah, ah, ah Paw, ah, ah, paw, paw, paw Coco Jojo, c'est moi, depitcho R9, ouh Paw, pah, paw, ouh, ouh Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Rah, rah Libérez mes négros à lombre Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie lSeigneur dès que ça tombe, ekip Cliki, cliki, cliki rah, gros billets dans mon Dickis paw, bitchies, bitchies Dans la calle, j'fais ds bêtises, pas des négros qui disent des sottises Demande à Gazo Les bonbonnes sont remplies de cocaïne, baw Un zéro, deux zéros, trois zéros, tu peux mourir, tout l'monde connaît mon réseau Ici, c'est la calle, impact de balles dans le mur comme un graffiti Omar s'fait buter par un p'tit déter' de la taille à Mimie Mathy raw, ah, ah Eh, wey, Barksdale, Stringer, Wee-Bey, calibre, chargeur, bye, bye Personne voulait m'aider quand jétais seul dans la calle, calle My nig, my nig', ça fait pah, pah, tous les ennemis sont dans la sauce ils sont dans la sauce Les galeries me connaissent que des chop que j'ai acheté, j'dois faire une pause Millimétré et j'arrose brr, brr, pa-paw, rah, rah, rah Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à lombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip Corleone, G2 ekip, au-dessus, B2 shh Concu', P2, avance, aka deux T2 cash 667, CMF ekip, ekip, ekip, paw Black Mafia, BMF han, il faut des milliards comme la GMF paw SO l'18, SO la calle ekip, ekip, ekip, han Depuis, j'ai rempli v'là d'cahiers han, pour mes négros, faut v'là à grailler Tu peux mourir, TPM pa-pa-paw Ils sont obsolètes comme BBM, scam, scam, VPN cash Négro, t'es dépassé, tu vas finir comme MC Hammer ah, ah Faut qu'j'fasse rentrer plus de cash dans la N26 que dix scammers cash, cash, ekip Big drip comme Fivio Foreign paw Incha'Allah à 20-30, Dakar comme Pakistan avec 10 grosses foreigns brr, ekip rah, rah, rah Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yeah, yeah Poh, poh, poh, poh G2Binks Bah, c'est la rre-gue A-A-AriBeatz Te mets pas dedans, on fumera ton grand frère, tu verras par toi-même qu'la street, c'est du réel J'ai la chair de poule, j'suis comme un fou, j'vois les choses en grands, les pensées du style Gustave Eiffel Nous, c'est les fou de la jungle, osez défier et tous ces rapaces bizarres, j'me suis méfié Fais-moi confiance, ta tâche, tu peux m'la confier, on gonflera l'bénef' et ça va bien monter Ils sont pas comme nous, j'les laisse entre eux Non, j'crois pas en la chance, je n'fais pas de vux T'inquiète pas, j'vais leur en mettre plein les yeux, ecartons les traitres et tout ira mieux Poto, j'ai cassé des tes-por, j'ai bicrave, j'ai fais des coups d'crasses pour m'en sortir sans dormir Ça s'est fini en coups d'shlass, fonce-dé sous flash, des fois, quand ça partait, fallait faire le pire Et j'dis pas qu'ça fait 'si-sir Non, nan, j'vais pas vous mentir Ah-ah Si j'te donne ma confiance, n'y pense même pas, faut même pas m'trahir J'dis pas qu'ça fait 'si-sir Non, non, je n'souhaite que m'en sortir T'es pas dans l'monde des Bisounours, tout l'monde est quelqu'un, ça, faut qu'tu leur dises T'as le pilote qui bombarde En T-Max collé, t'as l'co-pilote qui canarde Poto, on est venu à deux À deux, kalashé pour mettre des strikes Le but, c'est tous les mettre à terre pas un debout Pas un debout J'réfléchis pas quand faut y aller, j'vais jusqu'au bout Strike Strike, strike Strike, strike, strike, strike Strike Strike, strike G2Binks Strike Strike, strike Strike Strike Ah-ah, strike You might also like J'ai des principes, j'suis pas comme eux, j'respecte grands et petits Ouais Si j'parle avec toi, c'est pas pour rien, c'est rempli d'mecs chelou, je t'avertis Ma haine prend l'dessus, moi, j'peux rien y faire Non, mettre une croix sur des gens, moi, j'ai su le faire Ouais J'ai la te-tê très dure comme une barre de fer Ouais et je n'fais pas confiance même au plus sincère Bowling, c'est une histoire de strike, j'veux les voir à terre, j'mets pas de lean dans l'Sprite C'est pas mon délire, frère, j'préfère qu'on m'parle de white Ça m'rend d'jà plus déter', de charbonner même la night, jungle Jungle On s'ra toujours devant eux, t'inquiète pas, y aura pas d'problèmes Y en aura pas J'préfère les laisser entre eux, de moi, t'inquiète pas, ils s'en souviennent Ah, bien sûr, ah, bien sûr, ouais De moi, t'inquiète pas, ils s'en souviennent Skrt, skrt, skrt J'préfère les laisser entre eux T'as le pilote qui bombarde En T-Max collé, t'as l'co-pilote qui canarde Poto, on est venu à deux À deux, kalashé pour mettre des strikes Le but, c'est tous les mettre à terre pas un debout Pas un debout J'réfléchis pas quand faut y aller, j'vais jusqu'au bout Strike Strike, strike Strike, strike, strike, strike Strike Strike, strike G2Binks Strike Strike, strike Strike Strike Ah-ah, strike</t>
+          <t>Yeah, yeah Poh, poh, poh, poh G2Binks Bah, c'est la rre-gue A-A-AriBeatz Te mets pas dedans, on fumera ton grand frère, tu verras par toi-même qu'la street, c'est du réel J'ai la chair de poule, j'suis comme un fou, j'vois les choses en grands, les pensées du style Gustave Eiffel Nous, c'est les fou de la jungle, osez défier et tous ces rapaces bizarres, j'me suis méfié Fais-moi confiance, ta tâche, tu peux m'la confier, on gonflera l'bénef' et ça va bien monter Ils sont pas comme nous, j'les laisse entre eux Non, j'crois pas en la chance, je n'fais pas de vux T'inquiète pas, j'vais leur en mettre plein les yeux, ecartons les traitres et tout ira mieux Poto, j'ai cassé des tes-por, j'ai bicrave, j'ai fais des coups d'crasses pour m'en sortir sans dormir Ça s'est fini en coups d'shlass, fonce-dé sous flash, des fois, quand ça partait, fallait faire le pire Et j'dis pas qu'ça fait 'si-sir Non, nan, j'vais pas vous mentir Ah-ah Si j'te donne ma confiance, n'y pense même pas, faut même pas m'trahir J'dis pas qu'ça fait 'si-sir Non, non, je n'souhaite que m'en sortir T'es pas dans l'monde des Bisounours, tout l'monde est quelqu'un, ça, faut qu'tu leur dises T'as le pilote qui bombarde En T-Max collé, t'as l'co-pilote qui canarde Poto, on est venu à deux À deux, kalashé pour mettre des strikes Le but, c'est tous les mettre à terre pas un debout Pas un debout J'réfléchis pas quand faut y aller, j'vais jusqu'au bout Strike Strike, strike Strike, strike, strike, strike Strike Strike, strike G2Binks Strike Strike, strike Strike Strike Ah-ah, strike J'ai des principes, j'suis pas comme eux, j'respecte grands et petits Ouais Si j'parle avec toi, c'est pas pour rien, c'est rempli d'mecs chelou, je t'avertis Ma haine prend l'dessus, moi, j'peux rien y faire Non, mettre une croix sur des gens, moi, j'ai su le faire Ouais J'ai la te-tê très dure comme une barre de fer Ouais et je n'fais pas confiance même au plus sincère Bowling, c'est une histoire de strike, j'veux les voir à terre, j'mets pas de lean dans l'Sprite C'est pas mon délire, frère, j'préfère qu'on m'parle de white Ça m'rend d'jà plus déter', de charbonner même la night, jungle Jungle On s'ra toujours devant eux, t'inquiète pas, y aura pas d'problèmes Y en aura pas J'préfère les laisser entre eux, de moi, t'inquiète pas, ils s'en souviennent Ah, bien sûr, ah, bien sûr, ouais De moi, t'inquiète pas, ils s'en souviennent Skrt, skrt, skrt J'préfère les laisser entre eux T'as le pilote qui bombarde En T-Max collé, t'as l'co-pilote qui canarde Poto, on est venu à deux À deux, kalashé pour mettre des strikes Le but, c'est tous les mettre à terre pas un debout Pas un debout J'réfléchis pas quand faut y aller, j'vais jusqu'au bout Strike Strike, strike Strike, strike, strike, strike Strike Strike, strike G2Binks Strike Strike, strike Strike Strike Ah-ah, strike</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oh my god Moi, en fait, dans le game, j'arrive en furtif Dans tous les cas, tout domaine Je sais pas combien j'veux tant qu'il y aura du biff Eh, eh C'est ma bitch qui m'fait bouffer mon cheese Braah Matin, midi, soir, le charbon, c'est mon kiff J'suis pas l'même après quatre, cinq, six verres de tise, waka Ramène papiers, j'concrétise, tu donnes ton numéro, j'te prends d'jà pour acquise Moi, tous ces figurants dans l'binks me font balise Pah, pah Pili-pili, j'mets du pili-pili juste un peu, dans leur vie Petit, bi-bi, bi-bi Pah, laisse ceux qui suck des dicki, dicki Big up Richie, Richie, ça sent très bon comme le chicken Tikka, j'vais créer quelque chose de mauvais Ouh Remets ça là, petit, c'pas un jouet, work, le milli', c'est plus qu'un souhait, wah J'ai grandi comme toi, coup de fouet Oh, fallait bien qu'on se fasse secouer Le matin, j'me wake up, elle finit son make up, j'allume mon Merco, j'appuie sur start up Pah Fous-moi des cut, cut, fous en dans l'red cup Quand j'suis dans l'pick up, j'suis comme une star d'la pop J'suis comme une star d'la pop Pare-balles est le gilet, j'y vais, mode guerre activé Ils parlent de ce qu'ils n'ont jamais touché, dealé J'fais qué-cro les filons même s'ils pensent m'enculer Le regard en dit long, personne va s'en tirer You might also like C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah J'suis pas tout seul, mon négro, faut faire belek Tu m'payes dans les temps ou j'appuie sur la sélect Piou, piou, ah-ah-ah-ah, ah-ah-ah-ah, ah-ah J'suis un crack Crack, oh-oh Ouh, GP800 dans leur tess, c'est comme ça qu'on les braque Brr Devant l'proc', c'est l'baveux qui parle Oh-oh, j'peux plus les faire croquer Tu veux savoir, porque ? Ils attendent qu'on passe pour attaquer Qui baisent tous leurs mères, j'suis pas une folle L'équipe m'a dit Giffle-les, biffle-les, biffle-les tous, j'finis l'match au fond des filets, écoute Rah Pour tout ça, j'ai aucun doute Nan, c'est pareil, même avec les gue-sh' Casse un tour et r'viens avec le prix qu'ça coûte, c'est plus moi qui brille, c'est mes poches Moi, en fait, dans l'game, j'arrive en furtif, cherche pas à savoir d'où il vient mon biff Analyse, réalise, plus un jeu, vu que j'les paralyse Pare-balles est le gilet, j'y vais, mode guerre activé Ils parlent de ce qu'ils n'ont jamais touché, dealé J'fais qué-cro les filons même s'ils pensent m'enculer Le regard en dit long, personne va s'en tirer C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah2</t>
+          <t>Oh my god Moi, en fait, dans le game, j'arrive en furtif Dans tous les cas, tout domaine Je sais pas combien j'veux tant qu'il y aura du biff Eh, eh C'est ma bitch qui m'fait bouffer mon cheese Braah Matin, midi, soir, le charbon, c'est mon kiff J'suis pas l'même après quatre, cinq, six verres de tise, waka Ramène papiers, j'concrétise, tu donnes ton numéro, j'te prends d'jà pour acquise Moi, tous ces figurants dans l'binks me font balise Pah, pah Pili-pili, j'mets du pili-pili juste un peu, dans leur vie Petit, bi-bi, bi-bi Pah, laisse ceux qui suck des dicki, dicki Big up Richie, Richie, ça sent très bon comme le chicken Tikka, j'vais créer quelque chose de mauvais Ouh Remets ça là, petit, c'pas un jouet, work, le milli', c'est plus qu'un souhait, wah J'ai grandi comme toi, coup de fouet Oh, fallait bien qu'on se fasse secouer Le matin, j'me wake up, elle finit son make up, j'allume mon Merco, j'appuie sur start up Pah Fous-moi des cut, cut, fous en dans l'red cup Quand j'suis dans l'pick up, j'suis comme une star d'la pop J'suis comme une star d'la pop Pare-balles est le gilet, j'y vais, mode guerre activé Ils parlent de ce qu'ils n'ont jamais touché, dealé J'fais qué-cro les filons même s'ils pensent m'enculer Le regard en dit long, personne va s'en tirer C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah J'suis pas tout seul, mon négro, faut faire belek Tu m'payes dans les temps ou j'appuie sur la sélect Piou, piou, ah-ah-ah-ah, ah-ah-ah-ah, ah-ah J'suis un crack Crack, oh-oh Ouh, GP800 dans leur tess, c'est comme ça qu'on les braque Brr Devant l'proc', c'est l'baveux qui parle Oh-oh, j'peux plus les faire croquer Tu veux savoir, porque ? Ils attendent qu'on passe pour attaquer Qui baisent tous leurs mères, j'suis pas une folle L'équipe m'a dit Giffle-les, biffle-les, biffle-les tous, j'finis l'match au fond des filets, écoute Rah Pour tout ça, j'ai aucun doute Nan, c'est pareil, même avec les gue-sh' Casse un tour et r'viens avec le prix qu'ça coûte, c'est plus moi qui brille, c'est mes poches Moi, en fait, dans l'game, j'arrive en furtif, cherche pas à savoir d'où il vient mon biff Analyse, réalise, plus un jeu, vu que j'les paralyse Pare-balles est le gilet, j'y vais, mode guerre activé Ils parlent de ce qu'ils n'ont jamais touché, dealé J'fais qué-cro les filons même s'ils pensent m'enculer Le regard en dit long, personne va s'en tirer C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah C'est Cracklanders, on donne le sourire vraiment à tous les junkies Frappe de Mark Landers, dis-leur d'attendre, on pèse tout sur la pookie Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah Ah-ah-ah-ah, ah-ah-ah-ah, ah-ah-ah-ah2</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SHABZBEATZ Mmh, mmh, mmh, ah, ah, ah, ah Quel bail ? Eh, Stork C'est fort, wouh, awa C'est ton gars Coco Jojo Eh, eh, eh, eh Oui Ça flingue Méchant, méchant La petite sait que j'm'appelle Jojo Jojo, ouh, que ça sent bon comme mon parfum C'est fort, c'est fort, okay La bitchies sait que c'est Zifukoro De la B, elle veut mon bonbon dès le matin J'arrive en balle, en pack M, bitchies a les yeux sur ma Patek Philippe Tous les jours, j'pars au charbon, bâtard, se lever pour du papel Cash Aller-retour, j'visser ls clients jusqu'à Porte d'la Chapell Chapelle Équipe méchante, tirage d'alarme, c'est comme ça qu'on t'accueille Jojo, ouh, ouh Toque, boum, porte s'ouvre, évident qu'j'pénètre, par ici, fenêtre Grosse foule, gros boule, j'la regarde tirer Ouh, ouh Chauds les gars J'suis au tier-quar, mets les gaz Jojo, que du flinguage, c'est la base Oh le Jojo Toleka, on rate pas l'occas', dans tous les cas Laisse Attends, Jojo, là, j'vais les blesser Brr, méchant, méchant, tu t'sens agressé Que du Y a pas d'flocko, nous, c'est la cité De la B, ah bon ? T'es chaud ? Bah, ça va péter Ouh Et ça va péter, woh, ça va commencer ici Beretta toujours sur moi, c'est mon Bébé, que du papier d'monday à Sunday, méchant, méchant, c'est fort You might also like Ce soir, personne va séparer, ce soir, personne va séparer Avec son cur, j'ai cartonné, bébé, c'est mort, c'est RSV Jojo C'est cassé, j'peux plus réparer Jamais, jamais, donc laisse-moi, laisse-moi, laisse-moi La petite a refait son pétard Son cul, j'ai fait mon retour comme Benzema Ah Allez les bleus Ah, brr, ah De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ouh, j'ai le butin Sale De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ah, ah La petite a refait son pétard C'est fort, j'ai fait mon retour comme Benzema Paw, okay, c'est ton gars Coco Jojo, ça flingue, Jojo T'as même pas d'ticket, tout l'monde me dit que Ouais tu parles aux chickens, viens même pas m'checker C'est pour my G qui restent authentiques, nous, c'est Blue Magic Han, han, les plus impliqués Han, han Charlie Delta Charlie, Charlie Delta Charlie, oui J'arrive pour viser la tête Oui ou bien, pour vider le coffre Tou-tou-tou-touh Ça commence par donner conseil Han, han, ça finit par t'gratter des clopes On comprend plus Arrête d'faire le gros, personne nous effraye, va niquer ta mère Si c'est pas d'jà fait J'sais pas combien j'ai ou combien j'ai fait mais tout c'que je sais, c'est qu'j'vais plus taffer Jamais T'sais combien on achète, on refourgue, hein, j'me sens bien quand j'ai fait mes contours, hein La bitchies a kiffé nos méthodes, hein, G2B, Zifuko', c'est la Ligue 1 T'sais combien on achète, on refourgue, hein, j'me sens bien quand j'ai fait mes contours, hein La bitchies a kiffé nos méthodes, hein, G2B, Zifuko', c'est la Ligue 1 Méchant, méchant Ce soir, personne va séparer, ce soir, personne va séparer Nan Avec son cur, j'ai cartonné, bébé, c'est mort, c'est RSV Ouh, c'est Coco Jojo C'est cassé, j'peux plus réparer Jamais, jamais, jamais, jamais, donc laisse-moi, laisse-moi, laisse-moi La petite a refait son pétard Ouh, son cul, j'ai fait mon retour comme Benzema Ah, allez les bleus Ah, brr, ouh De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ah, j'ai le butin Sale De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ah, ah La petite a refait son pétard C'est fort, j'ai fait mon retour comme Benzema La petite a refait son pétard, j'ai fait mon retour comme Benzema</t>
+          <t>SHABZBEATZ Mmh, mmh, mmh, ah, ah, ah, ah Quel bail ? Eh, Stork C'est fort, wouh, awa C'est ton gars Coco Jojo Eh, eh, eh, eh Oui Ça flingue Méchant, méchant La petite sait que j'm'appelle Jojo Jojo, ouh, que ça sent bon comme mon parfum C'est fort, c'est fort, okay La bitchies sait que c'est Zifukoro De la B, elle veut mon bonbon dès le matin J'arrive en balle, en pack M, bitchies a les yeux sur ma Patek Philippe Tous les jours, j'pars au charbon, bâtard, se lever pour du papel Cash Aller-retour, j'visser ls clients jusqu'à Porte d'la Chapell Chapelle Équipe méchante, tirage d'alarme, c'est comme ça qu'on t'accueille Jojo, ouh, ouh Toque, boum, porte s'ouvre, évident qu'j'pénètre, par ici, fenêtre Grosse foule, gros boule, j'la regarde tirer Ouh, ouh Chauds les gars J'suis au tier-quar, mets les gaz Jojo, que du flinguage, c'est la base Oh le Jojo Toleka, on rate pas l'occas', dans tous les cas Laisse Attends, Jojo, là, j'vais les blesser Brr, méchant, méchant, tu t'sens agressé Que du Y a pas d'flocko, nous, c'est la cité De la B, ah bon ? T'es chaud ? Bah, ça va péter Ouh Et ça va péter, woh, ça va commencer ici Beretta toujours sur moi, c'est mon Bébé, que du papier d'monday à Sunday, méchant, méchant, c'est fort Ce soir, personne va séparer, ce soir, personne va séparer Avec son cur, j'ai cartonné, bébé, c'est mort, c'est RSV Jojo C'est cassé, j'peux plus réparer Jamais, jamais, donc laisse-moi, laisse-moi, laisse-moi La petite a refait son pétard Son cul, j'ai fait mon retour comme Benzema Ah Allez les bleus Ah, brr, ah De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ouh, j'ai le butin Sale De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ah, ah La petite a refait son pétard C'est fort, j'ai fait mon retour comme Benzema Paw, okay, c'est ton gars Coco Jojo, ça flingue, Jojo T'as même pas d'ticket, tout l'monde me dit que Ouais tu parles aux chickens, viens même pas m'checker C'est pour my G qui restent authentiques, nous, c'est Blue Magic Han, han, les plus impliqués Han, han Charlie Delta Charlie, Charlie Delta Charlie, oui J'arrive pour viser la tête Oui ou bien, pour vider le coffre Tou-tou-tou-touh Ça commence par donner conseil Han, han, ça finit par t'gratter des clopes On comprend plus Arrête d'faire le gros, personne nous effraye, va niquer ta mère Si c'est pas d'jà fait J'sais pas combien j'ai ou combien j'ai fait mais tout c'que je sais, c'est qu'j'vais plus taffer Jamais T'sais combien on achète, on refourgue, hein, j'me sens bien quand j'ai fait mes contours, hein La bitchies a kiffé nos méthodes, hein, G2B, Zifuko', c'est la Ligue 1 T'sais combien on achète, on refourgue, hein, j'me sens bien quand j'ai fait mes contours, hein La bitchies a kiffé nos méthodes, hein, G2B, Zifuko', c'est la Ligue 1 Méchant, méchant Ce soir, personne va séparer, ce soir, personne va séparer Nan Avec son cur, j'ai cartonné, bébé, c'est mort, c'est RSV Ouh, c'est Coco Jojo C'est cassé, j'peux plus réparer Jamais, jamais, jamais, jamais, donc laisse-moi, laisse-moi, laisse-moi La petite a refait son pétard Ouh, son cul, j'ai fait mon retour comme Benzema Ah, allez les bleus Ah, brr, ouh De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ah, j'ai le butin Sale De bon matin Que du, pendant qu'elle dort Que du, j'encaisse encore Ah, ah La petite a refait son pétard C'est fort, j'ai fait mon retour comme Benzema La petite a refait son pétard, j'ai fait mon retour comme Benzema</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dave Le Coco Jojo Ok Yeah, yeah Yeah, yeah S.A.N.K.H.A, jamais sous la barre des 30K Copilote, une fimbi dans l'RS3, biberon, sirote Jack au miel La pétasse danse sur mon goro Fort comme si j'étais attaquant au PSG J'suis avec Coco Jojo Jojo, on va niquer le salaire d'un PDG Niquer le salaire d'un PDG, en faisant la gestu' à Bebeto Allez Allez, suivez la chorée en harmo' avec les bruits des métaux Fort J'peux tirer sur nimporte qui, en faisant le sourire à Dadinho Graah Tu m'verras jamais avec n'importe qui Non, non, équipe solide au cas-où ça devient chaud La go La go, c'est une chaudasse, veux qu'on fasse des bails salasses Ok Premier coup de reins en colère Oui, impoli, j'la cata en godasse Yeah, yeah Fogo, fogo, yeah, yeah Yeah, yeah j'entends tout l'monde crier la gimmick Ah, flinguage.fr, pes-sa qui vaut chère comme un Audi N26, j'suis dans coups là, biff' dans PCS J'vais pas finir au PMU, donc j'suis dans sale affaire Dix-huitième arrondissement, sept, seven-eight J'suis dans tout c'qui n'est pas permis, j'suis dans des mauvais dièses You might also like Ça flingue Flingue, ça canarde Bow, j'ai un benga sous l'anorak Papa Mélo, Coco Jojo, Ligue 1, Adriano, Seleção C'est fort Kichta Ah, boukaka, balèze comme Bouka' Après compter, j'pars au tel-hô, gros pétard qui danse sur mon goro C'est Coco Jojo depitcho R9 Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' C'est Coco Jojo, Ligue 1 et Bolémvn Woh Ah, hein-hein, nous, c'est les tricolores cheveux comme Grizou, bisous, mouah Hum, hum J'termine le tche-ma d'un ciseaux, awa, faut bosser, hein J'envoie billets, va chercher de quoi tiser, nous, c'est Ligue 1, chez nous, c'est fort, tu sais Côté passager, que des ch'veux lissés, ah, ah, ah, ah Sur la voie d'gauche, j'suis déjà plus là-bas Cortège de bagnoles, bougnoule tu crois qu'c'est un mariage ? C'est fort, hum J'arrive dans les parages en cagoule, tout roule à cent à l'heure pour prendre les virages Pow Coco et Papa Mélo, sse-lia d'oseille, cello', cello' Oseille Ça va tout droit l'appart', vélo, tché, on va t'chercher même en République Tchèque C'est chaud ou pas ? Tchek Et les big, big ass twerkent Big liasses vertes Skem, c'est chaud ou pas ? Ça flingue N26, j'suis dans coups là, biff' dans PCS J'vais pas finir au PMU, donc j'suis dans sale affaire Dix-huitième arrondissement, sept, seven-eight J'suis dans tout c'qui n'est pas permis, j'suis dans des mauvais dièses Ça flingue Flingue, ça canarde Bow, j'ai un benga sous l'anorak Papa Mélo, Coco Jojo, Ligue 1, Adriano, Seleção C'est fort Kichta Ah, boukaka, balèze comme Bouka' Après compter, j'pars au tel-hô, gros pétard qui danse sur mon goro C'est Coco Jojo depitcho R9 Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro, avec plus de biff', on est heureux Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro, avec plus de biff', on est heureux Mets les gazs, on esquive gyro'2</t>
+          <t>Dave Le Coco Jojo Ok Yeah, yeah Yeah, yeah S.A.N.K.H.A, jamais sous la barre des 30K Copilote, une fimbi dans l'RS3, biberon, sirote Jack au miel La pétasse danse sur mon goro Fort comme si j'étais attaquant au PSG J'suis avec Coco Jojo Jojo, on va niquer le salaire d'un PDG Niquer le salaire d'un PDG, en faisant la gestu' à Bebeto Allez Allez, suivez la chorée en harmo' avec les bruits des métaux Fort J'peux tirer sur nimporte qui, en faisant le sourire à Dadinho Graah Tu m'verras jamais avec n'importe qui Non, non, équipe solide au cas-où ça devient chaud La go La go, c'est une chaudasse, veux qu'on fasse des bails salasses Ok Premier coup de reins en colère Oui, impoli, j'la cata en godasse Yeah, yeah Fogo, fogo, yeah, yeah Yeah, yeah j'entends tout l'monde crier la gimmick Ah, flinguage.fr, pes-sa qui vaut chère comme un Audi N26, j'suis dans coups là, biff' dans PCS J'vais pas finir au PMU, donc j'suis dans sale affaire Dix-huitième arrondissement, sept, seven-eight J'suis dans tout c'qui n'est pas permis, j'suis dans des mauvais dièses Ça flingue Flingue, ça canarde Bow, j'ai un benga sous l'anorak Papa Mélo, Coco Jojo, Ligue 1, Adriano, Seleção C'est fort Kichta Ah, boukaka, balèze comme Bouka' Après compter, j'pars au tel-hô, gros pétard qui danse sur mon goro C'est Coco Jojo depitcho R9 Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' C'est Coco Jojo, Ligue 1 et Bolémvn Woh Ah, hein-hein, nous, c'est les tricolores cheveux comme Grizou, bisous, mouah Hum, hum J'termine le tche-ma d'un ciseaux, awa, faut bosser, hein J'envoie billets, va chercher de quoi tiser, nous, c'est Ligue 1, chez nous, c'est fort, tu sais Côté passager, que des ch'veux lissés, ah, ah, ah, ah Sur la voie d'gauche, j'suis déjà plus là-bas Cortège de bagnoles, bougnoule tu crois qu'c'est un mariage ? C'est fort, hum J'arrive dans les parages en cagoule, tout roule à cent à l'heure pour prendre les virages Pow Coco et Papa Mélo, sse-lia d'oseille, cello', cello' Oseille Ça va tout droit l'appart', vélo, tché, on va t'chercher même en République Tchèque C'est chaud ou pas ? Tchek Et les big, big ass twerkent Big liasses vertes Skem, c'est chaud ou pas ? Ça flingue N26, j'suis dans coups là, biff' dans PCS J'vais pas finir au PMU, donc j'suis dans sale affaire Dix-huitième arrondissement, sept, seven-eight J'suis dans tout c'qui n'est pas permis, j'suis dans des mauvais dièses Ça flingue Flingue, ça canarde Bow, j'ai un benga sous l'anorak Papa Mélo, Coco Jojo, Ligue 1, Adriano, Seleção C'est fort Kichta Ah, boukaka, balèze comme Bouka' Après compter, j'pars au tel-hô, gros pétard qui danse sur mon goro C'est Coco Jojo depitcho R9 Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro Coco, avec plus de biff', on est heureux Jojo Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro, avec plus de biff', on est heureux Mets les gazs, on esquive gyro' Grosse pétasse assise sur mon goro, avec plus de biff', on est heureux Mets les gazs, on esquive gyro'2</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eh, eh, Gatti Gatti Three, three, Gatti, hein Is I got you, wait All of my niggas for real that shit Three Ouais J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit Brrah Les bullets volent, y en a plus que dans mes spaghettis Hey Hey, un peu d'codéïna han dans mon Fanta et ça pétille Ouh Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit pow Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Verratti han Maserati, tchipie Nion, on va régler l'affaire à la Joe Pesci, Han Isch, les bullets volent, y en a plus que dans mes spaghttis Grrah, hey Mes spaghettis Hy, mouah, bon appétit Enfermé, sans le pécule, j'ai des palots, hey, hey Ouais On m'avait dit que les chats n'aimaient pas l'eau mais pourtant, bizarrement, j'fais mouiller des chattes Han, han, han, han En guise de illes-cou, négro, j'ai des calots, hey, hey Pah J'revends la che-blan, ouais, té-ma la skalape, petit peut l'étaler, elle arrive jusqu'à là Brr Elle a vu les vues et elle veut que le Gazo la touche Yeah Hier, j'étais sur la touche et aujourd'hui, j'lui dis de s'toucher la tte-ch' Touche Et si tu veux, ramène ton reuf, on l'attache Tâche, t'sais que l'AK fait des tâches Smoke De la rue, je me détache car plus je la ken et plus elle s'attache, comme d'hab', j'cale mon demi-tour, slide, hey Hey You might also like J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit le monde est p'tit Les bullets volent, y en a plus que dans mes spaghettis Hey Ouh, un peu d'codéïna dans mon Fanta et ça pétille La mala est gangx Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit Gang, gang, gang, gang Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Verratti han Maserati, tchipie On va régler l'affaire à la Joe Pesci Isch, les bullets volent, y en a plus que dans mes spaghettis Double time Mes spaghettis, mouah, bon appétit Ouh Nous, c'est la big Ligue 1 Ouh, brr, c'est fort, c'est fort Tchin, Tchin, tchin, c'est fort, c'est fort Tchin, Tchin tchin, tchin, la jungle cest fort, ok Arrête de faire le tough, dans mon dressing, y a pas qu'les Jordan Off White Off White Dis-leur qu'c'est moi le prof' qui flingue tocards Ouh, on investit mille Toka' Pah, Coco Jojo Le fric de Sosa, Sosa, dans l'fer, ça chupa wow, suce, suce Hey, brr, coup d'fil, plusieurs collab', grr, j'rafale avec zo-Ga Sauce God, regarde un peu, que du vrai gold Ouais Donc bitches me collent de partout, elles croient qu'c'est un séminaire brrr, La mala est gangx Mais c'est mort, si elles meurent, j'vais dans faits divers han, han J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit le Monde est petit, Hey, hey Les bullets volent, y en a plus que dans mes spaghettis Hey, hey, hey Hey, un peu d'codéïna dans mon Fanta et ça pétille Han Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit Guy, Guy, han, han Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Veratti Maserati, tchipie On va régler l'affaire à la Joe Pesci, han Isch, les bullets volent, y en a plus que dans mes spaghettis Grrah Mes spaghettis, mouah, bon appétit Gang, gang, gang, gang Yeah, 'tit, 'tit, il veut la guerre, miskine La mala est gangx Ah, ça shoote, pourtant, j'ai même pas l'permis d'kill Pah, pah, pah, pah J'suis avec une tchoin, elle a un gosier irrésistible La tchoin, bitch T'es un fils de tain-p', toi et moi, on n'est pas compatibles Hey, jamais Let's get it, let's get it, let's get it, let's get it, let's get it Hey C'est Sauce God, Gazo, Guy', ça va les mêler, han Té-ma les La cause, c'est que la moula, pas les p'tites Grr, que la moula Et si y a une la3ba, directement, rien qu'j'envoie les p'tits Han, han J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit le monde est p'tit Les bullets volent, y en a plus que dans mes spaghettis Hey, hey, hey Hey, un peu d'codéïna dans mon Fanta et ça pétille Oui Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Verratti Maserati, tchipie On va régler l'affaire à la Joe Pesci Isch, les bullets volent, y en a plus que dans mes spaghettis Mes spaghettis, mouah, bon appétit La mala est gangx, wow All of, all of, all of Shout out, shout out, shout out Shout out my fucking guys Gaz', Sauce God, Guy2Bezbar Is I got you All of Minimum three, three, three, three, three, three, three Is I got you2</t>
+          <t>Eh, eh, Gatti Gatti Three, three, Gatti, hein Is I got you, wait All of my niggas for real that shit Three Ouais J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit Brrah Les bullets volent, y en a plus que dans mes spaghettis Hey Hey, un peu d'codéïna han dans mon Fanta et ça pétille Ouh Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit pow Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Verratti han Maserati, tchipie Nion, on va régler l'affaire à la Joe Pesci, Han Isch, les bullets volent, y en a plus que dans mes spaghttis Grrah, hey Mes spaghettis Hy, mouah, bon appétit Enfermé, sans le pécule, j'ai des palots, hey, hey Ouais On m'avait dit que les chats n'aimaient pas l'eau mais pourtant, bizarrement, j'fais mouiller des chattes Han, han, han, han En guise de illes-cou, négro, j'ai des calots, hey, hey Pah J'revends la che-blan, ouais, té-ma la skalape, petit peut l'étaler, elle arrive jusqu'à là Brr Elle a vu les vues et elle veut que le Gazo la touche Yeah Hier, j'étais sur la touche et aujourd'hui, j'lui dis de s'toucher la tte-ch' Touche Et si tu veux, ramène ton reuf, on l'attache Tâche, t'sais que l'AK fait des tâches Smoke De la rue, je me détache car plus je la ken et plus elle s'attache, comme d'hab', j'cale mon demi-tour, slide, hey Hey J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit le monde est p'tit Les bullets volent, y en a plus que dans mes spaghettis Hey Ouh, un peu d'codéïna dans mon Fanta et ça pétille La mala est gangx Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit Gang, gang, gang, gang Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Verratti han Maserati, tchipie On va régler l'affaire à la Joe Pesci Isch, les bullets volent, y en a plus que dans mes spaghettis Double time Mes spaghettis, mouah, bon appétit Ouh Nous, c'est la big Ligue 1 Ouh, brr, c'est fort, c'est fort Tchin, Tchin, tchin, c'est fort, c'est fort Tchin, Tchin tchin, tchin, la jungle cest fort, ok Arrête de faire le tough, dans mon dressing, y a pas qu'les Jordan Off White Off White Dis-leur qu'c'est moi le prof' qui flingue tocards Ouh, on investit mille Toka' Pah, Coco Jojo Le fric de Sosa, Sosa, dans l'fer, ça chupa wow, suce, suce Hey, brr, coup d'fil, plusieurs collab', grr, j'rafale avec zo-Ga Sauce God, regarde un peu, que du vrai gold Ouais Donc bitches me collent de partout, elles croient qu'c'est un séminaire brrr, La mala est gangx Mais c'est mort, si elles meurent, j'vais dans faits divers han, han J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit le Monde est petit, Hey, hey Les bullets volent, y en a plus que dans mes spaghettis Hey, hey, hey Hey, un peu d'codéïna dans mon Fanta et ça pétille Han Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit Guy, Guy, han, han Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Veratti Maserati, tchipie On va régler l'affaire à la Joe Pesci, han Isch, les bullets volent, y en a plus que dans mes spaghettis Grrah Mes spaghettis, mouah, bon appétit Gang, gang, gang, gang Yeah, 'tit, 'tit, il veut la guerre, miskine La mala est gangx Ah, ça shoote, pourtant, j'ai même pas l'permis d'kill Pah, pah, pah, pah J'suis avec une tchoin, elle a un gosier irrésistible La tchoin, bitch T'es un fils de tain-p', toi et moi, on n'est pas compatibles Hey, jamais Let's get it, let's get it, let's get it, let's get it, let's get it Hey C'est Sauce God, Gazo, Guy', ça va les mêler, han Té-ma les La cause, c'est que la moula, pas les p'tites Grr, que la moula Et si y a une la3ba, directement, rien qu'j'envoie les p'tits Han, han J's'rai à ton enterrement pour t'montrer à quel point le monde est p'tit le monde est p'tit Les bullets volent, y en a plus que dans mes spaghettis Hey, hey, hey Hey, un peu d'codéïna dans mon Fanta et ça pétille Oui Ils sont venus car ils ont faim, j'ai shooté en disant Bon appétit Bon appétit, bon appétit, on m'prend pas la balle, j'suis comme Verratti Maserati, tchipie On va régler l'affaire à la Joe Pesci Isch, les bullets volent, y en a plus que dans mes spaghettis Mes spaghettis, mouah, bon appétit La mala est gangx, wow All of, all of, all of Shout out, shout out, shout out Shout out my fucking guys Gaz', Sauce God, Guy2Bezbar Is I got you All of Minimum three, three, three, three, three, three, three Is I got you2</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Junior Alaprod, zanmi Oh Ouh, ouh, eh, eh, eh Y a pas d'patron dans la Calle Dans la Calle mais y a des couilles Ouh, oh J'arrive dans l'hôtel, j'détaille un kil' Un kil', gros, vers minuit, j'me taille Ouh, oh Avec une tain-p', claire, cheveux lissés ou curly mais un gros cul Gros cul Nique sa mère l'corona, les showcases Ah, on s'refait dans la drogue On s'refait Oh sa mère, c'est qu'du matériel, je casse, j'achète un autre Un autre J'suis à 200 en quatre secondes, j'me touche le front, j'suis plus d'ce monde Elle m'suce la bite, j'sens plus mon cur Psch, psch, psch, j'crois qu'j'ai fait trop d'ballons Grinta Records, on gère le bail, pourcentages élevés sur l'contrat Bye, bye, bye, bye, bye, bye C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon You might also like Ouais, ouais, j'ai jamais bandé sur le délire Amérique Non, non J'ai connu la hess, j'me sens bien dans un jean Amiri Ou dans un survêt' Gucci, gros, flex Jalouse pas sur nous, gros, tout c'qu'on a, on mérite Ouais, ouais D'abord, j'agis, après, je médite Ouh, j'entends concu' crier mayday Arriba, arriba, arri', ocho À quatre sur un mafé Ouh, à deux sur un T-MAX, un qui tient l'arme à feu Grrah Précision parfaite ouh, SDM, cent moins huit aka Draco Malfoy Ocho De la frappe qui se tord Ouh, des ients-cli qui s'étonnent Ouh Plus j'avance, plus j'ai le bras qui se tend Ouh, ouh, ouh, ouh, ouh Koba, G2, SDM, donc tu sais que y a du sale qui se trame Ocho C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Liasses de billets dans l'sac-à-dos Hermès C'est fort My G, que des vrais négros qui pè-pèsent Ça flingue C'est fort, j'réveille les tanasses, c'est pas petit boucan J'arrive à te bloquer, Glocker comme un Chicas Ah, ah Sous Chivas, j'la ramène, tu sais que c'est piquant Mmh, mmh, putain, les baiser, c'est kiffant My G Ok, j'dors sur les Champs Élysées Visite ma suite, elle est grande comme Disney Ouh, paw J'lui mets trois coups, j'suis épuisé J'me rajoute un fond d'tise, pour investir, j'ai pas b'soin qu'on cotise Jojo, Jojo Donc arrête tes sottises Yo Y a pas qu'toi qui veut Ah, patiente juste un peu Ah Massa, pilon, beuh Ah, je te crache du feu Jojo, Jojo Jojo, Jojo Le Coco Jojo, ah, ah, Jojo, Jojo C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Han, han, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Oh, oh, oh, oh On tue ça, tue ça, tu sais Oh, oh, oh, oh On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais1</t>
+          <t>Junior Alaprod, zanmi Oh Ouh, ouh, eh, eh, eh Y a pas d'patron dans la Calle Dans la Calle mais y a des couilles Ouh, oh J'arrive dans l'hôtel, j'détaille un kil' Un kil', gros, vers minuit, j'me taille Ouh, oh Avec une tain-p', claire, cheveux lissés ou curly mais un gros cul Gros cul Nique sa mère l'corona, les showcases Ah, on s'refait dans la drogue On s'refait Oh sa mère, c'est qu'du matériel, je casse, j'achète un autre Un autre J'suis à 200 en quatre secondes, j'me touche le front, j'suis plus d'ce monde Elle m'suce la bite, j'sens plus mon cur Psch, psch, psch, j'crois qu'j'ai fait trop d'ballons Grinta Records, on gère le bail, pourcentages élevés sur l'contrat Bye, bye, bye, bye, bye, bye C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Ouais, ouais, j'ai jamais bandé sur le délire Amérique Non, non J'ai connu la hess, j'me sens bien dans un jean Amiri Ou dans un survêt' Gucci, gros, flex Jalouse pas sur nous, gros, tout c'qu'on a, on mérite Ouais, ouais D'abord, j'agis, après, je médite Ouh, j'entends concu' crier mayday Arriba, arriba, arri', ocho À quatre sur un mafé Ouh, à deux sur un T-MAX, un qui tient l'arme à feu Grrah Précision parfaite ouh, SDM, cent moins huit aka Draco Malfoy Ocho De la frappe qui se tord Ouh, des ients-cli qui s'étonnent Ouh Plus j'avance, plus j'ai le bras qui se tend Ouh, ouh, ouh, ouh, ouh Koba, G2, SDM, donc tu sais que y a du sale qui se trame Ocho C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Liasses de billets dans l'sac-à-dos Hermès C'est fort My G, que des vrais négros qui pè-pèsent Ça flingue C'est fort, j'réveille les tanasses, c'est pas petit boucan J'arrive à te bloquer, Glocker comme un Chicas Ah, ah Sous Chivas, j'la ramène, tu sais que c'est piquant Mmh, mmh, putain, les baiser, c'est kiffant My G Ok, j'dors sur les Champs Élysées Visite ma suite, elle est grande comme Disney Ouh, paw J'lui mets trois coups, j'suis épuisé J'me rajoute un fond d'tise, pour investir, j'ai pas b'soin qu'on cotise Jojo, Jojo Donc arrête tes sottises Yo Y a pas qu'toi qui veut Ah, patiente juste un peu Ah Massa, pilon, beuh Ah, je te crache du feu Jojo, Jojo Jojo, Jojo Le Coco Jojo, ah, ah, Jojo, Jojo C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Han, han, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Oh, oh, oh, oh On tue ça, tue ça, tu sais Oh, oh, oh, oh On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Is this a Swifta Beats Eh-eh-eh-eh-eh-eh-eh-eh Jojo Ouh Attention Uh-uh, uh-uh, uh-uh, uh-uh Rah, Anakin Dans vos oreilles Eyah, Jojo Jackson Re-sta, NLE Choppa Ouh, combien j'ai fait ? J'sais pas À London, j'fais du shopping, viseur laser pour te chopper Eh-eh, pah J'finis dans sa che-bou, brolique sous la che-dou Ah, rah, rah J'sais qu'ils vont pas ger-bou, j'sais qu'on va les cher-cou Pah, rah, ah-ah-ah-ah Tiki-tiki-tiki, bang-bang Ouh, j'suis un dique-sa Ouh, j'les prends tous en gang-bang Ouh Sur le BPM comme le Wu-Tang, on peut perdre la vie pour le gang, gang Hey On peut perdre la vie pour le gang, gang, pour ls affaires, je parle pas au phon-tél' Nan À part si ça parle en million d'euros cash, moi, tu sais, c'est ça qu'j'aime Fuck ton opinion, t'es même pas de taille, je suis un mec mortel Ah-ah-ah-ah J'suis au fond de sa chatte et quand ça shoote, ils ont chaud dans ton tieks Pa-pah Nous, c'est la vie de 2Pac, on est dans le flouze, la drogue et le sexe, ah-ah Nous, c'est la vie de 2Pac, on négocie pour empocher les chèques, ah You might also like En mode Chief Keef, Love Sosa, Love Sosa Mmh J'te sors une lame, j'te fais zouker, tous les week-ends qu'on est bookés En mode Chief Keef, Love Sosa, dans la trap house à Chicago J'ai l'flow des Dipset, pas B2K, toi, t'as fauté donc t'as sauté Ouh-ouh J'allume un joint, j'allume un ennemi en pleine après-midi Ah-ah-ah-ah, ouh, boom Attends, attends, attends, c'est un peu trop fort c'que tu proposes là, répète pour voir Ah J'ai dit J'allume un joint, j'allume un ennemi en pleine après-midi Ah-ah-ah, poh On a fini par faire tout c'qu'on s'était dit, travailler, récompenses, tout était prédit Eh J'ai le même Sharingan que Itachi, les ennemis, je les graille comme des sushis, hey Fais-moi confiance, pas de soucis, babe, everyday, c'est le jour de paye Partout où je vais, c'est la foule, je paye, pour mon respect, mon honneur, j'peux die Pour mon honneur, mon respect, j'peux die, c'est die, c'est mort, c'est dead, brr, rah Ouh-ouh En mode Chief Keef, Love Sosa, Love Sosa Eh-eh-eh-eh J'te sors une lame, j'te fais zouker, tous les week-ends qu'on est bookés En mode Chief Keef, Love Sosa, dans la trap house à Chicago J'ai l'flow des Dipset, pas B2K, toi, t'as fauté donc t'as sauté Ah-ah-ah Allumez le feu, allumez les keufs Han, allumez la peuf Han J'allume un joint Han, j'allume un ennemi Han en pleine après-midi Han-han C'est plus la même chose, maintenant, ça propose, elle écarte les sses-f' Ah-ah-ah-ah En mode Chief Keef, Love Sosa, Love Sosa Love Sosa Elle suck ma dick, dick Eh, fais la taille d'la mèche de Titeuf Eh, eh, ah-ah-ah-ah, eh, eh, t'es une galère Eh, eh, eh On se fait des kiffs, kiffs Ouh, à deux-cent cinquante, gros cortège Ouh Jo' chez Mercedes Skrt, skrt, skrt, skrt, c'est fort En mode Chief Keef, Love Sosa, Love Sosa Eh-eh-eh-eh J'te sors une lame, j'te fais zouker, tous les week-ends qu'on est bookés En mode Chief Keef, Love Sosa, dans la trap house à Chicago J'ai l'flow des Dipset, pas B2K, toi, t'as fauté donc t'as sauté Pou-pou-pouh Ayo It's finish</t>
+          <t>Is this a Swifta Beats Eh-eh-eh-eh-eh-eh-eh-eh Jojo Ouh Attention Uh-uh, uh-uh, uh-uh, uh-uh Rah, Anakin Dans vos oreilles Eyah, Jojo Jackson Re-sta, NLE Choppa Ouh, combien j'ai fait ? J'sais pas À London, j'fais du shopping, viseur laser pour te chopper Eh-eh, pah J'finis dans sa che-bou, brolique sous la che-dou Ah, rah, rah J'sais qu'ils vont pas ger-bou, j'sais qu'on va les cher-cou Pah, rah, ah-ah-ah-ah Tiki-tiki-tiki, bang-bang Ouh, j'suis un dique-sa Ouh, j'les prends tous en gang-bang Ouh Sur le BPM comme le Wu-Tang, on peut perdre la vie pour le gang, gang Hey On peut perdre la vie pour le gang, gang, pour ls affaires, je parle pas au phon-tél' Nan À part si ça parle en million d'euros cash, moi, tu sais, c'est ça qu'j'aime Fuck ton opinion, t'es même pas de taille, je suis un mec mortel Ah-ah-ah-ah J'suis au fond de sa chatte et quand ça shoote, ils ont chaud dans ton tieks Pa-pah Nous, c'est la vie de 2Pac, on est dans le flouze, la drogue et le sexe, ah-ah Nous, c'est la vie de 2Pac, on négocie pour empocher les chèques, ah En mode Chief Keef, Love Sosa, Love Sosa Mmh J'te sors une lame, j'te fais zouker, tous les week-ends qu'on est bookés En mode Chief Keef, Love Sosa, dans la trap house à Chicago J'ai l'flow des Dipset, pas B2K, toi, t'as fauté donc t'as sauté Ouh-ouh J'allume un joint, j'allume un ennemi en pleine après-midi Ah-ah-ah-ah, ouh, boom Attends, attends, attends, c'est un peu trop fort c'que tu proposes là, répète pour voir Ah J'ai dit J'allume un joint, j'allume un ennemi en pleine après-midi Ah-ah-ah, poh On a fini par faire tout c'qu'on s'était dit, travailler, récompenses, tout était prédit Eh J'ai le même Sharingan que Itachi, les ennemis, je les graille comme des sushis, hey Fais-moi confiance, pas de soucis, babe, everyday, c'est le jour de paye Partout où je vais, c'est la foule, je paye, pour mon respect, mon honneur, j'peux die Pour mon honneur, mon respect, j'peux die, c'est die, c'est mort, c'est dead, brr, rah Ouh-ouh En mode Chief Keef, Love Sosa, Love Sosa Eh-eh-eh-eh J'te sors une lame, j'te fais zouker, tous les week-ends qu'on est bookés En mode Chief Keef, Love Sosa, dans la trap house à Chicago J'ai l'flow des Dipset, pas B2K, toi, t'as fauté donc t'as sauté Ah-ah-ah Allumez le feu, allumez les keufs Han, allumez la peuf Han J'allume un joint Han, j'allume un ennemi Han en pleine après-midi Han-han C'est plus la même chose, maintenant, ça propose, elle écarte les sses-f' Ah-ah-ah-ah En mode Chief Keef, Love Sosa, Love Sosa Love Sosa Elle suck ma dick, dick Eh, fais la taille d'la mèche de Titeuf Eh, eh, ah-ah-ah-ah, eh, eh, t'es une galère Eh, eh, eh On se fait des kiffs, kiffs Ouh, à deux-cent cinquante, gros cortège Ouh Jo' chez Mercedes Skrt, skrt, skrt, skrt, c'est fort En mode Chief Keef, Love Sosa, Love Sosa Eh-eh-eh-eh J'te sors une lame, j'te fais zouker, tous les week-ends qu'on est bookés En mode Chief Keef, Love Sosa, dans la trap house à Chicago J'ai l'flow des Dipset, pas B2K, toi, t'as fauté donc t'as sauté Pou-pou-pouh Ayo It's finish</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Le coco jojo Rrah, binks, rrah, binks J'suis dans la calle, la calle, calle J'suis dans la calle, la calle, calle Paow, paow, le coco jojo Coco jojo Toc-toc, boom, boom, on défonce ta porte comme le 36 Toc-toc, boom, boom, on défonce ta porte comme le 36 Toc-toc, boom, boom, on défonce ta porte comme le 36 La callé c'est fort, c'est fort, Bezbar c'est Baltimore ok C'est pour la tess, c'est pour la tess, on fait ça que pour la tess Sse-lia épaisse, j'suis dans la caisse, j'bois du rosé, toi tu voudrais des roses Ce que t'as fait, ce que t'as fait, on n'en parle pas mais t'as tout dit des faits Moi, j'ai jamais dit que j'avais tout fait, j'ai d'la panure que tu peux pas trouver Si on t'invite salope, c'est juste pour voir ton boule bouger Nous ça va vite, galope, chargé pe-pom, tiré, touché Touché, touché, touché, touché, touché, touché Charbon, money, après tout ça j'pourrai m'coucher Le coco jojo depitcho R9 Bebeto, bebeto, ah bebeto, ah bebeto On gère le toss', on gère le toss' Des fois, j'ai envie d'crier juste comme ça Bebeto, bebeto, ah bebeto, ah bebeto On gère le toss', on gère le toss' Moi j'ai pas choisi, gros c'est comme ça You might also like Là c'est la calle, calle, là c'est la calle, calle Nous c'est la Ligue 1 Conforama Ligue 1 Conforama, Ligue 1 Conforama Mec on va gé-char l'automa'-ma' gé-char l'automa'-ma' Demande à Doumama demande à Doumama Nous c'est la Ligue 1 Conforama, serein j'ai pas besoin d'être armé Hein, t'étais pas là quand j'étais en chien vas-y, pousse-toi pousse-toi T'es un ouf toi, on fait ça pour sauver nos vies on fait ça pour les ous-s' quoi Fais passer Bezbar on est cent-dix mille, tu nous connais mon reuf on veut que des kich' J'fume la oya j'suis dans le 45, j'arrive vite telle une balle d'AK-47 Poto, poto j'suis dans bail noir, un peu normal qu'avec moi tu puisses pas voir J'regarde la concu', font pitié ces bâtards, j'descends dans l'Sud, sans mi-per rempli de gent-ar C'est fabuleux, fabuleux, j'vis ma vie comme si j'avais le contrat d'un footeux Mais crois pas ces choses, j'y vais comme Wee-Bey Fais l'taff en taf-taff, paf, on est venu à deux Pas d'dièse 31 dièse, c'est fini amigo c'est fini amigo, c'est fini amigo Y'a des nouvelles manières de donner l'go sans bigo Le coco jojo depitcho R9 Bebeto, bebeto, ah bebeto, ah bebeto On gère le toss', on gère le toss' Des fois, j'ai envie d'crier juste comme ça Bebeto, bebeto, ah bebeto, ah bebeto On gère le doss', on gère le doss' Moi j'ai pas choisi, gros c'est comme ça Là c'est la calle, calle, là c'est la calle, calle Nous c'est la Ligue 1 Conforama Ligue 1 Conforama, Ligue 1 Conforama</t>
+          <t>Le coco jojo Rrah, binks, rrah, binks J'suis dans la calle, la calle, calle J'suis dans la calle, la calle, calle Paow, paow, le coco jojo Coco jojo Toc-toc, boom, boom, on défonce ta porte comme le 36 Toc-toc, boom, boom, on défonce ta porte comme le 36 Toc-toc, boom, boom, on défonce ta porte comme le 36 La callé c'est fort, c'est fort, Bezbar c'est Baltimore ok C'est pour la tess, c'est pour la tess, on fait ça que pour la tess Sse-lia épaisse, j'suis dans la caisse, j'bois du rosé, toi tu voudrais des roses Ce que t'as fait, ce que t'as fait, on n'en parle pas mais t'as tout dit des faits Moi, j'ai jamais dit que j'avais tout fait, j'ai d'la panure que tu peux pas trouver Si on t'invite salope, c'est juste pour voir ton boule bouger Nous ça va vite, galope, chargé pe-pom, tiré, touché Touché, touché, touché, touché, touché, touché Charbon, money, après tout ça j'pourrai m'coucher Le coco jojo depitcho R9 Bebeto, bebeto, ah bebeto, ah bebeto On gère le toss', on gère le toss' Des fois, j'ai envie d'crier juste comme ça Bebeto, bebeto, ah bebeto, ah bebeto On gère le toss', on gère le toss' Moi j'ai pas choisi, gros c'est comme ça Là c'est la calle, calle, là c'est la calle, calle Nous c'est la Ligue 1 Conforama Ligue 1 Conforama, Ligue 1 Conforama Mec on va gé-char l'automa'-ma' gé-char l'automa'-ma' Demande à Doumama demande à Doumama Nous c'est la Ligue 1 Conforama, serein j'ai pas besoin d'être armé Hein, t'étais pas là quand j'étais en chien vas-y, pousse-toi pousse-toi T'es un ouf toi, on fait ça pour sauver nos vies on fait ça pour les ous-s' quoi Fais passer Bezbar on est cent-dix mille, tu nous connais mon reuf on veut que des kich' J'fume la oya j'suis dans le 45, j'arrive vite telle une balle d'AK-47 Poto, poto j'suis dans bail noir, un peu normal qu'avec moi tu puisses pas voir J'regarde la concu', font pitié ces bâtards, j'descends dans l'Sud, sans mi-per rempli de gent-ar C'est fabuleux, fabuleux, j'vis ma vie comme si j'avais le contrat d'un footeux Mais crois pas ces choses, j'y vais comme Wee-Bey Fais l'taff en taf-taff, paf, on est venu à deux Pas d'dièse 31 dièse, c'est fini amigo c'est fini amigo, c'est fini amigo Y'a des nouvelles manières de donner l'go sans bigo Le coco jojo depitcho R9 Bebeto, bebeto, ah bebeto, ah bebeto On gère le toss', on gère le toss' Des fois, j'ai envie d'crier juste comme ça Bebeto, bebeto, ah bebeto, ah bebeto On gère le doss', on gère le doss' Moi j'ai pas choisi, gros c'est comme ça Là c'est la calle, calle, là c'est la calle, calle Nous c'est la Ligue 1 Conforama Ligue 1 Conforama, Ligue 1 Conforama</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hum, Hum, Hum Rires Yaw, yaw, yaw, yaaaw Paw c'est la rre-gué, j'sais que j'vais regretter Paw c'est la rre-gué Jungl-e, Jungl-e, Jungl-e Ow-Ow, Oh-Ow, Oh-Oh-ow Verre de vodka pour mes gavas tu connais Sk, Sku, Sku Oh-ow, oh-ow, oh-oh-oh Niggas of Paris c'est clair et certifié Ooh-ooh-ooh Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-mé Brrrrrrllll Elle t'a rendu fou d'elle Jungl-e, Jungl-e Elle t'a brûlé les aîles Elle m'aimait et j'faisais l'affaire Jungl-e, Jungl-e L'argent me fait perdre la tête Skwa, Skwa Ma lady, ma lady, ma lady, ma lady, ma lady mélodie J'suis dans le futur depuis très longtemps Pourquoi mes gars te l'ont pas dit Je sais que j'ai décollé-déconné J'ai fais jouer ma fierté comme un gros bonnet J'arrêterais pas tant que mon heure n'a pas sonnée Et quand j'aurais plus rien à dire Jungle PAW, c'est la rre-gué hey Je sais que t'es belle, t'es un paquet hey Tisse-mé blonde aux yeux bridés hey Olà buenos dias hey Estoy bièn gracias hey T'es ma plus grosse bombasse hey Pourquoi avoir des pétasses hey J'calcule pas ces chaudasses hey A part quand minuit passe Haha, nan sérieux On avait rien, on avait nada Boom-paw La roue a tournée j'mets du Versace, Balenciaga FerrAgamo, Vuitton, Prada Dans un gamos, avec Madame Skurrlllll Boom boom paw Tu rayes ma loks j'te monte en l'air comme JCVD J'suis le plus gros des connards Square Jamais je f'rais le canard Paw Jungilitouka je stoppe tous les faux pas Appelle-moi Julio César Skur! J'laisse parler tu me connais Un BG comme Mister Fresh Paw,paw,paw,paw De l'argent il va neiger Aussi des paires de fesses Jungle You might also like Ow-Ow, Oh-Ow, Oh-Oh-ow Verre de vodka pour mes gavas tu connais Sk, Sku, Sku Oh-ow, oh-ow, oh-oh-oh Niggas of Paris c'est clair et certifié Ooh-ooh-ooh Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-mé Brrrrrrllll Elle t'a rendu fou d'elle Jungl-e, Jungl-e Elle t'a brûlé les aîles Elle m'aimait et j'faisais l'affaire Jungl-e, Jungl-e L'argent me fait perdre la tête Skwa, Skwa Elle me demande qu'est ce tu fais tous les jours Moi mon passe temps miss c'est de compter des sous Ouh! Thug love fuck love pas d'amour Nan! Avec d'autres bitchs j'me mets en foule ouh On fait d'largent anormalement yan Pour certains j'ai du style d'autres des cal-mant yan Le but c'est d'finir calmement yan Que l'bruit du moteur il soit allemand brrrll Elle m'a donné son coeur je l'ai brisé Belle, teint clair, cheveux frisés elle avait bien les yeux bridés Pour mes refrés je l'ai quitté Pour faire du cash je l'ai quitté Pour la musique je l'ai quitté Thug love bébé c'est du réel Thug love bébé c'est pour de vrai En quelques scentes j'ai aut' chose à faire hey, hey Qu'on me laisse remplir mes poches, gérer mes affaires C'est vrai j'apprécie beaucoup ma bitch Je préfère mon frère J'me console avec le biff que j'ai fais la veille Ma lady mélodie, mentalité de youvoi vie de bandit J'lui en ai fais voir d'toutes les couleurs Comme les bouteilles de roxy Ma lady mélodie Thug, Love Ow-Ow, Oh-Ow, Oh-Oh-ow Verre de vodka pour mes gavas tu connais Sk, Sku, Sku Oh-ow, oh-ow, oh-oh-oh Niggas of Paris c'est clair et certifié Ooh-ooh-ooh Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-mé Brrrrrrllll Elle t'a rendu fou d'elle Jungl-e, Jungl-e Elle t'a brûlé les aîles Elle m'aimait et j'faisais l'affaire Jungl-e, Jungl-e L'argent me fait perdre la tête Skwa, Skwa</t>
+          <t>Hum, Hum, Hum Rires Yaw, yaw, yaw, yaaaw Paw c'est la rre-gué, j'sais que j'vais regretter Paw c'est la rre-gué Jungl-e, Jungl-e, Jungl-e Ow-Ow, Oh-Ow, Oh-Oh-ow Verre de vodka pour mes gavas tu connais Sk, Sku, Sku Oh-ow, oh-ow, oh-oh-oh Niggas of Paris c'est clair et certifié Ooh-ooh-ooh Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-mé Brrrrrrllll Elle t'a rendu fou d'elle Jungl-e, Jungl-e Elle t'a brûlé les aîles Elle m'aimait et j'faisais l'affaire Jungl-e, Jungl-e L'argent me fait perdre la tête Skwa, Skwa Ma lady, ma lady, ma lady, ma lady, ma lady mélodie J'suis dans le futur depuis très longtemps Pourquoi mes gars te l'ont pas dit Je sais que j'ai décollé-déconné J'ai fais jouer ma fierté comme un gros bonnet J'arrêterais pas tant que mon heure n'a pas sonnée Et quand j'aurais plus rien à dire Jungle PAW, c'est la rre-gué hey Je sais que t'es belle, t'es un paquet hey Tisse-mé blonde aux yeux bridés hey Olà buenos dias hey Estoy bièn gracias hey T'es ma plus grosse bombasse hey Pourquoi avoir des pétasses hey J'calcule pas ces chaudasses hey A part quand minuit passe Haha, nan sérieux On avait rien, on avait nada Boom-paw La roue a tournée j'mets du Versace, Balenciaga FerrAgamo, Vuitton, Prada Dans un gamos, avec Madame Skurrlllll Boom boom paw Tu rayes ma loks j'te monte en l'air comme JCVD J'suis le plus gros des connards Square Jamais je f'rais le canard Paw Jungilitouka je stoppe tous les faux pas Appelle-moi Julio César Skur! J'laisse parler tu me connais Un BG comme Mister Fresh Paw,paw,paw,paw De l'argent il va neiger Aussi des paires de fesses Jungle Ow-Ow, Oh-Ow, Oh-Oh-ow Verre de vodka pour mes gavas tu connais Sk, Sku, Sku Oh-ow, oh-ow, oh-oh-oh Niggas of Paris c'est clair et certifié Ooh-ooh-ooh Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-mé Brrrrrrllll Elle t'a rendu fou d'elle Jungl-e, Jungl-e Elle t'a brûlé les aîles Elle m'aimait et j'faisais l'affaire Jungl-e, Jungl-e L'argent me fait perdre la tête Skwa, Skwa Elle me demande qu'est ce tu fais tous les jours Moi mon passe temps miss c'est de compter des sous Ouh! Thug love fuck love pas d'amour Nan! Avec d'autres bitchs j'me mets en foule ouh On fait d'largent anormalement yan Pour certains j'ai du style d'autres des cal-mant yan Le but c'est d'finir calmement yan Que l'bruit du moteur il soit allemand brrrll Elle m'a donné son coeur je l'ai brisé Belle, teint clair, cheveux frisés elle avait bien les yeux bridés Pour mes refrés je l'ai quitté Pour faire du cash je l'ai quitté Pour la musique je l'ai quitté Thug love bébé c'est du réel Thug love bébé c'est pour de vrai En quelques scentes j'ai aut' chose à faire hey, hey Qu'on me laisse remplir mes poches, gérer mes affaires C'est vrai j'apprécie beaucoup ma bitch Je préfère mon frère J'me console avec le biff que j'ai fais la veille Ma lady mélodie, mentalité de youvoi vie de bandit J'lui en ai fais voir d'toutes les couleurs Comme les bouteilles de roxy Ma lady mélodie Thug, Love Ow-Ow, Oh-Ow, Oh-Oh-ow Verre de vodka pour mes gavas tu connais Sk, Sku, Sku Oh-ow, oh-ow, oh-oh-oh Niggas of Paris c'est clair et certifié Ooh-ooh-ooh Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-mé Brrrrrrllll Elle t'a rendu fou d'elle Jungl-e, Jungl-e Elle t'a brûlé les aîles Elle m'aimait et j'faisais l'affaire Jungl-e, Jungl-e L'argent me fait perdre la tête Skwa, Skwa</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bellek track Laisse-moi claquer tout cet oseille jour et nuit c'est fort, c'est fort Tout ça dure qu'un temps donc j'irai loin d'ici tu sais, tu sais, tu sais La money, money cash est tout c'que j'apprécie J'ai plus leur temps, ouh, ouh, ouh Allô ma babe, j't'attends, j'ai pris du Hennessy J'ai pris d'la coca' toka Avenue Montaigne, Prada, tu sais qu'on flingue ici, c'est fort, c'est fort Allô ma babe, j't'attends, j'ai pris du Hennessy G, my G, my G G, my G, my G ouh Ils essaient, mais bof, ça marche pas Tu le sais, les boss on passe partout On flingue, flingue comme ds re-sta On smoke, smoke comm des rastas Sans parler, on a d'la prestation mes calculs sont toujours aussi bons Ça jactait devant l'addition, hmm hmm hmm hmm ok Tu sais qu'on est pénard, dans un Range Velar T'as même pas d'quoi ouvrir ta gueule On tape des barres, on claque des balles, on fuck le soir du mauvais il You know, grosse coupure dans le portefeuille You might also like Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter c'est fort, c'est fort okay Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter rah Laisse-moi claquer tout cet oseille jour et nuit c'est fort, c'est fort Tout ça dure qu'un temps donc j'irai loin d'ici tu sais, tu sais, tu sais La money, money cash est tout c'que j'apprécie J'ai plus leur temps, ouh, ouh, ouh Allô ma babe, j't'attends, j'ai pris du Hennessy J'ai pris d'la coca' toka Avenue Montaigne, Prada, tu sais qu'on flingue ici, c'est fort, c'est fort Allô ma babe, j't'attends, j'ai pris du Hennessy G, my G, my G G, my G, my G ouh Bienvenue chez les flingueurs, dans les beaux coins tu sais qu'on crèche Dix balles, tapis chez Dior, Coco jamais sans Mister Fresh Tu sais qu'ils s'ennuient, qu'ils regardent nos vies Je sais qu'ils s'ennuient, qu'ils regardent nos vies Je sais qu'ils m'envient, qu'ils essaient de me mettre des bâtonnets même si ça se fait pas On aura tout vu mais c'est toujours Coco Jojo, ton gars Pitcho qui tue ça Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter c'est fort, c'est fort okay Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter rah Laisse-moi claquer tout cet oseille jour et nuit c'est fort, c'est fort Tout ça dure qu'un temps donc j'irai loin d'ici tu sais, tu sais, tu sais La money, money cash est tout c'que j'apprécie J'ai plus leur temps, ouh, ouh, ouh Allô ma babe, j't'attends, j'ai pris du Hennessy J'ai pris d'la coca' toka Avenue Montaigne, Prada, tu sais qu'on flingue ici, c'est fort, c'est fort Allô ma babe, j't'attends, j'ai pris du Hennessy G, my G, my G G, my G, my G ouh Je sais qu'ils m'envient, qu'ils essaient de me mettre des bâtonnets même si ça se fait pas On aura tout vu mais c'est toujours ton gars Coco Jojo Pitcho qui tue ça, tue ça, tu sais Ah, ah, ah, ah, ah, ah, ah</t>
+          <t>Bellek track Laisse-moi claquer tout cet oseille jour et nuit c'est fort, c'est fort Tout ça dure qu'un temps donc j'irai loin d'ici tu sais, tu sais, tu sais La money, money cash est tout c'que j'apprécie J'ai plus leur temps, ouh, ouh, ouh Allô ma babe, j't'attends, j'ai pris du Hennessy J'ai pris d'la coca' toka Avenue Montaigne, Prada, tu sais qu'on flingue ici, c'est fort, c'est fort Allô ma babe, j't'attends, j'ai pris du Hennessy G, my G, my G G, my G, my G ouh Ils essaient, mais bof, ça marche pas Tu le sais, les boss on passe partout On flingue, flingue comme ds re-sta On smoke, smoke comm des rastas Sans parler, on a d'la prestation mes calculs sont toujours aussi bons Ça jactait devant l'addition, hmm hmm hmm hmm ok Tu sais qu'on est pénard, dans un Range Velar T'as même pas d'quoi ouvrir ta gueule On tape des barres, on claque des balles, on fuck le soir du mauvais il You know, grosse coupure dans le portefeuille Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter c'est fort, c'est fort okay Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter rah Laisse-moi claquer tout cet oseille jour et nuit c'est fort, c'est fort Tout ça dure qu'un temps donc j'irai loin d'ici tu sais, tu sais, tu sais La money, money cash est tout c'que j'apprécie J'ai plus leur temps, ouh, ouh, ouh Allô ma babe, j't'attends, j'ai pris du Hennessy J'ai pris d'la coca' toka Avenue Montaigne, Prada, tu sais qu'on flingue ici, c'est fort, c'est fort Allô ma babe, j't'attends, j'ai pris du Hennessy G, my G, my G G, my G, my G ouh Bienvenue chez les flingueurs, dans les beaux coins tu sais qu'on crèche Dix balles, tapis chez Dior, Coco jamais sans Mister Fresh Tu sais qu'ils s'ennuient, qu'ils regardent nos vies Je sais qu'ils s'ennuient, qu'ils regardent nos vies Je sais qu'ils m'envient, qu'ils essaient de me mettre des bâtonnets même si ça se fait pas On aura tout vu mais c'est toujours Coco Jojo, ton gars Pitcho qui tue ça Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter c'est fort, c'est fort okay Suck my dick, on sait même pas qui t'es Oh my dick OG, oh my dick OG, tu sais très bien qu'elle peut pas m'quitter rah Laisse-moi claquer tout cet oseille jour et nuit c'est fort, c'est fort Tout ça dure qu'un temps donc j'irai loin d'ici tu sais, tu sais, tu sais La money, money cash est tout c'que j'apprécie J'ai plus leur temps, ouh, ouh, ouh Allô ma babe, j't'attends, j'ai pris du Hennessy J'ai pris d'la coca' toka Avenue Montaigne, Prada, tu sais qu'on flingue ici, c'est fort, c'est fort Allô ma babe, j't'attends, j'ai pris du Hennessy G, my G, my G G, my G, my G ouh Je sais qu'ils m'envient, qu'ils essaient de me mettre des bâtonnets même si ça se fait pas On aura tout vu mais c'est toujours ton gars Coco Jojo Pitcho qui tue ça, tue ça, tu sais Ah, ah, ah, ah, ah, ah, ah</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ah-ah-ah-ah-ah, c'est fort C'est ton gars Coco Jojo, Jojo, Jojo Josman, gros, J.O.S Bériz, bitch Oh On descend d'la capitale comme il faut Oh Comme il se doit, my G Pouh, yeah Vaut mieux pas qu'on t'attrape my nigga Yeah Pop, on est dans l'bloc, mes négros pop, mes négros pop Yeah Mec, on baise les keufs, on baise les keufs, on baisse jamais nos frocs Yeah Que des real OG, fume la OG kush, on baise les fakes, okay Gross fucka de kush, gorgée de potion, j'prépare un coup Han Braquer l'industrie comme Danny Ocean, j'ai les yeux rougs, j'vois en slow motion Eh J'ai les yeux rougs, j'vois en slow motion J'vois tout en vert, j'ai beaucoup de beuh, j'vois tout en bleu, partout y a les bleus Ouh J'ai les yeux noirs Ouh, j'vois tout en noir Woah, j'suis tout en noir, j'suis tout en Alyx Alyx, yeah J'ai des bonnes connexions et une bonne collection d'khaliss Yeah J'fais que des merveilles, j'fais que des merveilles, la chatte à Alice Fuck Ils ont du vice, j'ai de la malice, les jaloux palissent, l'argent est sale Les mains se salissent, j'remplis mes poches, j'remplis la valise Yeah J'me sens comme Tupac Amaru dans cette bitch Yeah J'me sens comme Usman Kamaru dans cette bitch Bitch, ah-ah J'me sens comme Big Mike Tyson dans cette bitch Yeah J'me sens comme Who's Bad ?, Jackson dans cette bitch Ouh Stick au bec, j'me sens comme Gainsbarre La nuit, j'choppe une catin, dès l'matin, j'attends qu'elle s'barre J'suis toujours dans la zone, Paris-Nord, pas loin d'Bezbar J'suis toujours dans la zone, Paris-Nord, pas loin d'Bezbar Po-po-po, ouh You might also like Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, on baise les fakes, okay Rah Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, c'est que des fakes, okay Poh, ah-ah-ah-ah On est plus qu'cinq, my nigga, y a plus besoin qu'on vend, on est pile dans mon Q5, my nigga Brr, rah Moi, j'suis tellement chaud, ça pète, j'les entends tous dire C'est amazing, c'est les meilleurs Wouh, c'est fort J'm'occupe de mes dièses, j'ai pas assez prouvé mais c'est déjà super que j'suis la surprise Wouh et qu'on m'appelle en guest Wouh Un, deux, trois, quatre-zéro c'est l'score Wouh, un, deux, trois, quatre bastos dans l'pec' Touah-touah-touah Cocaïne, vente d'héro', c'est gore Pah-pah, j'ai pas la même vie qu'tous ces fakes Brr, rah C'est pas la même histoire Ah-ah-ah, un, deux, trois, quatre zéros sur l'chèque Grr, ouh-ouh C'est pas la même vie qu'toi Qu'toi, c'est pas les mêmes victoires Rah, ah-ah, Coco Et dans l'avion, j'me fais l'hôtesse 'tesse, ouh, on arrive à toute vitesse 'tesse À 200 à l'heure dans le Merco Benz Hey, ouh et ouais, j'profite de ma jeunesse Ah-ah-ah Que j'voyage en classe business Business, OG Gangsta, tu sais qu'on les baise On rafale pa-pah, fuck la fitness Mon gars Coco Jojo, ah-ah, brr, rah Moi, j'suis tellement chaud, ça pète Yeah, ils ont tous peur d'se faire éteindre, my nigga Yeah J'me sens comme Tupac Amaru dans cette bitch Yeah J'me sens comme Usman Kamaru dans cette bitch Bitch, ah-ah J'me sens comme Big Mike Tyson dans cette bitch Yeah, c'est Coco de Pitcho, R9 J'me sens comme Who's Bad ?, Jackson dans cette bitch Ouh Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, on baise les fakes, okay Rah Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, c'est que des fakes, okay Yeah Ah-ah-ah Yeah Pop, on est dans l'bloc, mes négros pop, on est dans l'bloc, nigga Pop-pop-pop, nigga, what ? Yeah Bériz, bitch JS, JS, JS, man Oh, han-han, han-han Oh, oh, oh, oh, oh, oh, oh</t>
+          <t>Ah-ah-ah-ah-ah, c'est fort C'est ton gars Coco Jojo, Jojo, Jojo Josman, gros, J.O.S Bériz, bitch Oh On descend d'la capitale comme il faut Oh Comme il se doit, my G Pouh, yeah Vaut mieux pas qu'on t'attrape my nigga Yeah Pop, on est dans l'bloc, mes négros pop, mes négros pop Yeah Mec, on baise les keufs, on baise les keufs, on baisse jamais nos frocs Yeah Que des real OG, fume la OG kush, on baise les fakes, okay Gross fucka de kush, gorgée de potion, j'prépare un coup Han Braquer l'industrie comme Danny Ocean, j'ai les yeux rougs, j'vois en slow motion Eh J'ai les yeux rougs, j'vois en slow motion J'vois tout en vert, j'ai beaucoup de beuh, j'vois tout en bleu, partout y a les bleus Ouh J'ai les yeux noirs Ouh, j'vois tout en noir Woah, j'suis tout en noir, j'suis tout en Alyx Alyx, yeah J'ai des bonnes connexions et une bonne collection d'khaliss Yeah J'fais que des merveilles, j'fais que des merveilles, la chatte à Alice Fuck Ils ont du vice, j'ai de la malice, les jaloux palissent, l'argent est sale Les mains se salissent, j'remplis mes poches, j'remplis la valise Yeah J'me sens comme Tupac Amaru dans cette bitch Yeah J'me sens comme Usman Kamaru dans cette bitch Bitch, ah-ah J'me sens comme Big Mike Tyson dans cette bitch Yeah J'me sens comme Who's Bad ?, Jackson dans cette bitch Ouh Stick au bec, j'me sens comme Gainsbarre La nuit, j'choppe une catin, dès l'matin, j'attends qu'elle s'barre J'suis toujours dans la zone, Paris-Nord, pas loin d'Bezbar J'suis toujours dans la zone, Paris-Nord, pas loin d'Bezbar Po-po-po, ouh Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, on baise les fakes, okay Rah Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, c'est que des fakes, okay Poh, ah-ah-ah-ah On est plus qu'cinq, my nigga, y a plus besoin qu'on vend, on est pile dans mon Q5, my nigga Brr, rah Moi, j'suis tellement chaud, ça pète, j'les entends tous dire C'est amazing, c'est les meilleurs Wouh, c'est fort J'm'occupe de mes dièses, j'ai pas assez prouvé mais c'est déjà super que j'suis la surprise Wouh et qu'on m'appelle en guest Wouh Un, deux, trois, quatre-zéro c'est l'score Wouh, un, deux, trois, quatre bastos dans l'pec' Touah-touah-touah Cocaïne, vente d'héro', c'est gore Pah-pah, j'ai pas la même vie qu'tous ces fakes Brr, rah C'est pas la même histoire Ah-ah-ah, un, deux, trois, quatre zéros sur l'chèque Grr, ouh-ouh C'est pas la même vie qu'toi Qu'toi, c'est pas les mêmes victoires Rah, ah-ah, Coco Et dans l'avion, j'me fais l'hôtesse 'tesse, ouh, on arrive à toute vitesse 'tesse À 200 à l'heure dans le Merco Benz Hey, ouh et ouais, j'profite de ma jeunesse Ah-ah-ah Que j'voyage en classe business Business, OG Gangsta, tu sais qu'on les baise On rafale pa-pah, fuck la fitness Mon gars Coco Jojo, ah-ah, brr, rah Moi, j'suis tellement chaud, ça pète Yeah, ils ont tous peur d'se faire éteindre, my nigga Yeah J'me sens comme Tupac Amaru dans cette bitch Yeah J'me sens comme Usman Kamaru dans cette bitch Bitch, ah-ah J'me sens comme Big Mike Tyson dans cette bitch Yeah, c'est Coco de Pitcho, R9 J'me sens comme Who's Bad ?, Jackson dans cette bitch Ouh Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, on baise les fakes, okay Rah Vaut mieux pas qu'on t'attrape my nigga Ouh, 'trape my nigga Pop, on est dans l'bloc, mes négros pop, mes négros pop Po-po-po-pop, brr Mec, on baise les keufs, on baise les keufs Ouh, on baisse jamais nos frocs Ouh Que des real OG Ouh, fume la OG kush, c'est que des fakes, okay Yeah Ah-ah-ah Yeah Pop, on est dans l'bloc, mes négros pop, on est dans l'bloc, nigga Pop-pop-pop, nigga, what ? Yeah Bériz, bitch JS, JS, JS, man Oh, han-han, han-han Oh, oh, oh, oh, oh, oh, oh</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ah-ah Jojo Ronaldo Junior Alaprod, zanmi Ouh-ouh Daddy, c'est my G, mon G, awa Ah, sale enfoiré, ah-ah Awa Tu t'rappelles de moi, sale chien ? J'arrive ganté, tout en Quechua Grr, rah, paw Tu t'rappelles de moi, sale chien ? J'arrive ganté, tout en Quechua Ouh-ouh, Depitcho Tu t'rappelles de moi, sale chien ? J'arrive ganté, tout en Quechua Ouh-ouh J'vais t'faire une boucherie devant tes potes, ils vont même pas bouger pour toi, sale flocko, ah-ah-ah Sale flocko, sale flocko Awa, fais-nous la passe Awa, on va flinguer Moi c'est Coco, Guy2Barbèse C'est fort, moi c'est Coco, Guy2Barbèse Encore Né qu'pour le khaliss, le khaliss La maille, au quartier, les keufs nous font balise C'est fort Uniquement le cash dans la valise La mallette, c'est chacun son chacun sur Bériz Paw On sait qui t'es même si tu t'déguises Tu sais, c'est pas depuis Bebeto qu'on maîtrise Awa Et depuis, c'est pas petit boucan Chaud, dans les deux sens qu'on les fait zouker Uh-uh J'ai tout c'qu'il m'faut, j'ai tout c'qu'il m'faut J'fais tout c'qui m'plaît J'fais tout c'qui m'plaît, j'les baise, villa à Santo Domingo, República Dominicana Ah-ah T'as fini solo comme Antho Citigo Te plains pas C'est les tanas Sale flocko, sale flocko, fais-nous la passe Tu sais qu'on sait qu'ils ont du flair Fort Et c'que t'as fait, on le saura C'est fort, et c'que t'as fait, on le fera en mieux You might also like Oh, Maria, elle voudrait qu'on se marie Laisse-moi l'temps, Maria, j'ai même pas fini d'm'habiller Attends, attends, attends Des ennemis, j'en ai par milliers Laisse-moi l'temps, Maria C'est Coco Jojo Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs C'est Coco Jojo Beretta chargé, flingue à toute heure Beretta, toujours Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs Beretta chargé, flingue à tout va Beretta chargé, flingue à toute heure Beretta, toujours, c'est Coco Jojo, ah-ah-ah, ça va commencer ici Eh-eh-eh-eh, vide ton Burbe' Comme les chicanos, c'est libertà, on dépense le salaire d'un joueur de Ligue 2 Oh On est là comme on est Si vous êtes les meilleurs, soyez les meilleurs Nous, on est là comme on est Chaud, nous, on est là pour la money Chaud T'as fait ci, t'as fait ça, t'as braqué On s'en bat les, les, les, les On t'a carotte dans son gamos, t'as posé traqueur On s'en bat les, les, les, les T'as tout fait mais la p'tite a quand même fini par t'briser l'cur On s'en bat les, les, les, les Ah, Maria, c'est pas comme ça Oh, Maria, elle voudrait qu'on se marie Laisse-moi l'temps, Maria, j'ai même pas fini d'm'habiller Attends, attends, attends Des ennemis, j'en ai par milliers Laisse-moi l'temps, Maria C'est Coco Jojo Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs C'est Coco Jojo Beretta chargé, flingue à toute heure Beretta, toujours Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs Beretta chargé, flingue à tout va Beretta chargé, flingue à toute heure C'est Coco Jojo</t>
+          <t>Ah-ah Jojo Ronaldo Junior Alaprod, zanmi Ouh-ouh Daddy, c'est my G, mon G, awa Ah, sale enfoiré, ah-ah Awa Tu t'rappelles de moi, sale chien ? J'arrive ganté, tout en Quechua Grr, rah, paw Tu t'rappelles de moi, sale chien ? J'arrive ganté, tout en Quechua Ouh-ouh, Depitcho Tu t'rappelles de moi, sale chien ? J'arrive ganté, tout en Quechua Ouh-ouh J'vais t'faire une boucherie devant tes potes, ils vont même pas bouger pour toi, sale flocko, ah-ah-ah Sale flocko, sale flocko Awa, fais-nous la passe Awa, on va flinguer Moi c'est Coco, Guy2Barbèse C'est fort, moi c'est Coco, Guy2Barbèse Encore Né qu'pour le khaliss, le khaliss La maille, au quartier, les keufs nous font balise C'est fort Uniquement le cash dans la valise La mallette, c'est chacun son chacun sur Bériz Paw On sait qui t'es même si tu t'déguises Tu sais, c'est pas depuis Bebeto qu'on maîtrise Awa Et depuis, c'est pas petit boucan Chaud, dans les deux sens qu'on les fait zouker Uh-uh J'ai tout c'qu'il m'faut, j'ai tout c'qu'il m'faut J'fais tout c'qui m'plaît J'fais tout c'qui m'plaît, j'les baise, villa à Santo Domingo, República Dominicana Ah-ah T'as fini solo comme Antho Citigo Te plains pas C'est les tanas Sale flocko, sale flocko, fais-nous la passe Tu sais qu'on sait qu'ils ont du flair Fort Et c'que t'as fait, on le saura C'est fort, et c'que t'as fait, on le fera en mieux Oh, Maria, elle voudrait qu'on se marie Laisse-moi l'temps, Maria, j'ai même pas fini d'm'habiller Attends, attends, attends Des ennemis, j'en ai par milliers Laisse-moi l'temps, Maria C'est Coco Jojo Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs C'est Coco Jojo Beretta chargé, flingue à toute heure Beretta, toujours Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs Beretta chargé, flingue à tout va Beretta chargé, flingue à toute heure Beretta, toujours, c'est Coco Jojo, ah-ah-ah, ça va commencer ici Eh-eh-eh-eh, vide ton Burbe' Comme les chicanos, c'est libertà, on dépense le salaire d'un joueur de Ligue 2 Oh On est là comme on est Si vous êtes les meilleurs, soyez les meilleurs Nous, on est là comme on est Chaud, nous, on est là pour la money Chaud T'as fait ci, t'as fait ça, t'as braqué On s'en bat les, les, les, les On t'a carotte dans son gamos, t'as posé traqueur On s'en bat les, les, les, les T'as tout fait mais la p'tite a quand même fini par t'briser l'cur On s'en bat les, les, les, les Ah, Maria, c'est pas comme ça Oh, Maria, elle voudrait qu'on se marie Laisse-moi l'temps, Maria, j'ai même pas fini d'm'habiller Attends, attends, attends Des ennemis, j'en ai par milliers Laisse-moi l'temps, Maria C'est Coco Jojo Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs C'est Coco Jojo Beretta chargé, flingue à toute heure Beretta, toujours Beretta toujours sur mes shooteurs Ouh Beretta chargé, flingue à toute heure Beretta chargé, flingue à tout va Beretta toujours sur mes shooteurs Beretta chargé, flingue à tout va Beretta chargé, flingue à toute heure C'est Coco Jojo</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo Alors ma baby veut devenir mama, avaler toute ma maille j'ai même pas fait Miami, les aînés disent que c'est l'karma J'ai laissé ma bouteille au frais, j'remonte dans l'cabrio, j'suis frais, que des proprios, refré, que d'l'oseille, c'est ça qu'on fait Paname, paname, brille comme moi Va chercher ta gow en thug, bien sapé l'jean mais pas l'caleçon Fais peter mon son dans l'club, dans la gov, jusqu'à la maison On s'en fout qu't'ais raison, tant qu'on flingue toutes les saisons C'est fort Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Alors on sort, full black, Dior Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Que tous les mecs gangs mettent le verre en l'air, que toutes les meufs gangs mettent le verre en l'air Parfumé avec la cannelle pour mieux savourer mon punch, dans la rue je crèche, elle aime ça, j'suis son crush Junguyly, junguyly, junguyly, junguyly, jungle, un milli, deux milli, trois milli, il faut qu'ça jump Jour et nuit, tu sais j'repars avec butin en poche, on a jamais loupé le coche C'est fort Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Alors on sort, full black, Dior Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort You might also like Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo</t>
+          <t>Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo Alors ma baby veut devenir mama, avaler toute ma maille j'ai même pas fait Miami, les aînés disent que c'est l'karma J'ai laissé ma bouteille au frais, j'remonte dans l'cabrio, j'suis frais, que des proprios, refré, que d'l'oseille, c'est ça qu'on fait Paname, paname, brille comme moi Va chercher ta gow en thug, bien sapé l'jean mais pas l'caleçon Fais peter mon son dans l'club, dans la gov, jusqu'à la maison On s'en fout qu't'ais raison, tant qu'on flingue toutes les saisons C'est fort Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Alors on sort, full black, Dior Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Que tous les mecs gangs mettent le verre en l'air, que toutes les meufs gangs mettent le verre en l'air Parfumé avec la cannelle pour mieux savourer mon punch, dans la rue je crèche, elle aime ça, j'suis son crush Junguyly, junguyly, junguyly, junguyly, jungle, un milli, deux milli, trois milli, il faut qu'ça jump Jour et nuit, tu sais j'repars avec butin en poche, on a jamais loupé le coche C'est fort Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Alors on sort, full black, Dior Là c'est pour les OGs, ceux qui flinguent fort, RS est le Audi, crois-pas qu'on dort, que pour les OGs, ceux qui flinguent fort Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ooooh Bam, bam G2 Binks Guizi Ouzou YW, blé mafia Wesh Dimam'z GP Ganster'zs Guy2Binks, partout je vais, gros, la street est derrière mon dos On va tirer les ch'veux, dans ma jungle on casse tous les dos Amigo, amigo, amigo, m'cherche pas partout, j'suis dans le bando Tu m'appelles mais j'ai plusieurs bigos, on charbonne comme X pour être gosse beau Y'a qui pour la gue-gue-guerre ? Shuut, j'crois qu'ils sont tous cachés On déboule en fe-fe-fer, j'pense à ces bâtards j'ai du mal à mâcher Igo, hess, crack, bédo, j'suis dans l'espace Négro, Guy2, Bez', j'déboule, je pèse trop grave, c'est trop Ça va chier des gros billets, la tête de mes pom-pom-pom D'jà qu'ils le disent ça va, rien qu'ils pom-pom-pompent Te mets pas à côté de moi si tu pompes, pompes, pompes H-A-B-mafia ils sortent le pompe, pompe, pompe You might also like Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet J'ai vu mes ennemis me regarder en face comme si j'avais niquer leurs mères J'ai rodé toute la nuit, j'ai vidé mon pocheton, j'suis pété je n'ai plus d'repère Je sais c'que ça fait d's'endormir avec le ventre vide J'veux prendre le biff Et si ces bâtards veulent me bloquer, j'repartirais vendre le shit Je magouille et je baraude Des cagoules et des cassos J'suis parti en sucette Et ma mère croit que c'est de sa faute Coller, coller, coller, coller, coller la massa Allumer le pétard et fumer la gandja Tu verras que c'est la NASA 9 millimètre et le glock est de préférence On va t'allumer ton trou d'balle, ça f'ra du taf' pour le révérend Qui joue les fous à bès-Bar ou à Villeneuve ? Ta mère te cherche pendant trois jours, t'étais dans la cave d'un immeuble Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet</t>
+          <t>Ooooh Bam, bam G2 Binks Guizi Ouzou YW, blé mafia Wesh Dimam'z GP Ganster'zs Guy2Binks, partout je vais, gros, la street est derrière mon dos On va tirer les ch'veux, dans ma jungle on casse tous les dos Amigo, amigo, amigo, m'cherche pas partout, j'suis dans le bando Tu m'appelles mais j'ai plusieurs bigos, on charbonne comme X pour être gosse beau Y'a qui pour la gue-gue-guerre ? Shuut, j'crois qu'ils sont tous cachés On déboule en fe-fe-fer, j'pense à ces bâtards j'ai du mal à mâcher Igo, hess, crack, bédo, j'suis dans l'espace Négro, Guy2, Bez', j'déboule, je pèse trop grave, c'est trop Ça va chier des gros billets, la tête de mes pom-pom-pom D'jà qu'ils le disent ça va, rien qu'ils pom-pom-pompent Te mets pas à côté de moi si tu pompes, pompes, pompes H-A-B-mafia ils sortent le pompe, pompe, pompe Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet J'ai vu mes ennemis me regarder en face comme si j'avais niquer leurs mères J'ai rodé toute la nuit, j'ai vidé mon pocheton, j'suis pété je n'ai plus d'repère Je sais c'que ça fait d's'endormir avec le ventre vide J'veux prendre le biff Et si ces bâtards veulent me bloquer, j'repartirais vendre le shit Je magouille et je baraude Des cagoules et des cassos J'suis parti en sucette Et ma mère croit que c'est de sa faute Coller, coller, coller, coller, coller la massa Allumer le pétard et fumer la gandja Tu verras que c'est la NASA 9 millimètre et le glock est de préférence On va t'allumer ton trou d'balle, ça f'ra du taf' pour le révérend Qui joue les fous à bès-Bar ou à Villeneuve ? Ta mère te cherche pendant trois jours, t'étais dans la cave d'un immeuble Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eh, fech ah, ah, ah, ah On fech, On fech personne regarde de travers On fech, On fech Bellek track, regard de travers, nan, mais nan Fech oh, fech oh personne regarde Three, Three yeah, yeah Is I got you, all of my nigga for real, that shit Woah woah, Coco Jojo Ok On parle pas avec les chickens nan, c'est dans la zine qu'on kitchen pah J'ai lconfort pour tes chicas chicas, taxi G7, pas heetch oh J'régale, Chivas, j'ouvre ma guette-bra eh, mon chibre eh, tu kiffes eh, eh Le Coco fait du chiffre, ma coco donne les tripes hey Moi, mon poto c'est Toto, Toretto, matte la pano', eh, eh Paye nous ton amende, on t'éclate vite comme Rocky Balbo' Oh, oh, oh, oh, oh, oh, oh, oh Un, deux, trois, quatre balles, mec, on paye cash, un, deux, trois, quatre bastos et on tourne la page OG, OG, OG, OG Kush Kush, OG Gangsta, nique sa mère les porcs ? des meufs, entre dans la fiesta Lo Coco Jojo Depitcho R9, ok Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ça parle en monnaie Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ok You might also like Coco Jojo, Ligue 1, Ouchini, ça flingue La calle, calle, zone six, Blue Magic, ça flingue encore CMF, Rapi Sati, I got you, ça flingue Tu peux mourir, TPM essaye, essaye, essaye, on est partout, ça flingue stop Que des brigantés, tu connais ma jungle est mouvementé Si t'es pas sûr de toi, reste à la baraque, sur la bécane, jsuis déjà plus dans les parages On prend la monnaie, juste après, on sarrache, on prend la monnaie, juste après, on s'arrache, ah, ah Allez, pleure, ta gueule, même à 6 contre 100, on recule pas On la fait crier, dis-leur quta pétasse, on la fait crier Dis-leur le gamos, on l'a fait crier Nique sa mère briller, le thème, on l'a créé le thème, on l'a créé, le thème, on la créé J'me suis fait tout seul, j'suis un crackito, on remercie Dieu car c'est lui qui donne J't'avais dit remontada, on t'a pas mytho ouh, ok Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ça parle en monnaie Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ok Coco Jojo, Ligue 1, Ouchini, ça flingue La calle, calle, zone six, Blue Magic, ça flingue encore CMF, Rapi Sati, I got you, ça flingue Tu peux mourir, TPM, on est partout, ça flingue Coco Jojo, ah, ah, ah Coco Jojo, ah, ah, ah</t>
+          <t>Eh, fech ah, ah, ah, ah On fech, On fech personne regarde de travers On fech, On fech Bellek track, regard de travers, nan, mais nan Fech oh, fech oh personne regarde Three, Three yeah, yeah Is I got you, all of my nigga for real, that shit Woah woah, Coco Jojo Ok On parle pas avec les chickens nan, c'est dans la zine qu'on kitchen pah J'ai lconfort pour tes chicas chicas, taxi G7, pas heetch oh J'régale, Chivas, j'ouvre ma guette-bra eh, mon chibre eh, tu kiffes eh, eh Le Coco fait du chiffre, ma coco donne les tripes hey Moi, mon poto c'est Toto, Toretto, matte la pano', eh, eh Paye nous ton amende, on t'éclate vite comme Rocky Balbo' Oh, oh, oh, oh, oh, oh, oh, oh Un, deux, trois, quatre balles, mec, on paye cash, un, deux, trois, quatre bastos et on tourne la page OG, OG, OG, OG Kush Kush, OG Gangsta, nique sa mère les porcs ? des meufs, entre dans la fiesta Lo Coco Jojo Depitcho R9, ok Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ça parle en monnaie Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ok Coco Jojo, Ligue 1, Ouchini, ça flingue La calle, calle, zone six, Blue Magic, ça flingue encore CMF, Rapi Sati, I got you, ça flingue Tu peux mourir, TPM essaye, essaye, essaye, on est partout, ça flingue stop Que des brigantés, tu connais ma jungle est mouvementé Si t'es pas sûr de toi, reste à la baraque, sur la bécane, jsuis déjà plus dans les parages On prend la monnaie, juste après, on sarrache, on prend la monnaie, juste après, on s'arrache, ah, ah Allez, pleure, ta gueule, même à 6 contre 100, on recule pas On la fait crier, dis-leur quta pétasse, on la fait crier Dis-leur le gamos, on l'a fait crier Nique sa mère briller, le thème, on l'a créé le thème, on l'a créé, le thème, on la créé J'me suis fait tout seul, j'suis un crackito, on remercie Dieu car c'est lui qui donne J't'avais dit remontada, on t'a pas mytho ouh, ok Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ça parle en monnaie Oh, papi Chulo, la capitale nous connaît la capitale nous connaît Oh, papi Chulo, maintenant, ça parle en monnaie ok Coco Jojo, Ligue 1, Ouchini, ça flingue La calle, calle, zone six, Blue Magic, ça flingue encore CMF, Rapi Sati, I got you, ça flingue Tu peux mourir, TPM, on est partout, ça flingue Coco Jojo, ah, ah, ah Coco Jojo, ah, ah, ah</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Si Pah, pah, pah YoungK, ta prod' parle mal, j'vais la kicker Woh Shit, woh Yah, woh Shit, woh Ah Woh Brr, woh Ouais, woh, woh Pah, pah, pah, pah Aïe, aïe, aïe Ok, j'vais envoyer, là Position Position, position d'départ, prêts, feu, partez All of, hey Petit pont Petit pont, wouh, si tu t'pointes avec les jambes écartées R.A.S R.A.S, aucune nouvelle de mes opposants Nan, nan, nan Woh, woh, YoungK, ta prod' parle mal, c'est pesant Eh Abusé Hey, all of, j'ai vu mes ancêtres dans un musée, ça m'a pas amusé Ça m'a pas amusé Moi, j'suis pas prédestiné à lusine Faut pas qu'j'commence à psychoter, wesh, comment ça, sous-coté ? Wesh Alors qu'tu brûles ça sur ton tél', même ta copine tâche son pantalon Y a pas faute, j'ai touché l ballon, pendant qu'eux, ils touchaient l banc J'ai l'volume de course dun étalon noir, on sait tous que cest des talles, woh All of my niggas for real that shit Essaye, Essaye, Essaye You might also like Nous, on n'attend pas le go, nous, on n'attend pas le coach pour creuser l'écart Rapi Sat', Coco Jojo Ça flingue Ça, cest pour exploser les charts Is I got you Prêts, feu, partez, prêts, feu, partez, prêts, feu, partez Rapi Sati, Coco Jojo, on a vu ton jeu, tu peux poser les cartes Jécris d'la frappe, j'ai de lor au bout d'mes doigts Tchipie Les mains faites pour l'or mais elles sont dans la drogua J'me retourne, frappe, shoot, shoot Hey comme Didier Drogba Woah C'est pour les voleurs comme Arsène Lupin Hey, les trafiquants comme El Chapo Minimum three, three, three Minimum, j'leur mets que des coups du chapeau All of, three On rate pas l'occas' Oui, oui, on a la classe même devant la cage Cest l'ambition qui fait quon tient, continue d'les flinguer, le reste, j'm'en charge Oh, whey J'ai plus de flow que Coca Essaye, nouvelle arrivage de coca' All of, whey J'ai pris des ballons, d'la vodka, j'm'en vais rejoindre Tchikita J'pète une cigar' Jojo, Jojo avant que les keufs m'arrêtent Jojo, Jojo J'pète une cigarette Ouais, c'est Coco, Jojo avant que les keufs marrêtent Jojo, Jojo J'pète une cigar' Jojo, Jojo avant que les keufs marrêtent Le Coco Jojo depitcho R9 C'est fort comme une balle, de sang-froid, quon a foutue à Manny Ça flingue, ça flingue, ça flingue, ça flingue Woh Mec de Paris, que du VV, futur milli', milli' Milli', milli', milli' Nous, on n'attend pas le go, nous, on n'attend pas le coach pour creuser l'écart Rapi Sat', Coco Jojo Ça flingue Ça, cest pour exploser les charts Is I got you Prêts, feu, partez, prêts, feu, partez, prêts, feu, partez Rapi Sati, Coco Jojo, on a vu ton jeu, tu peux poser les cartes Courir après les sous, ça fait les jambes Pour une poignée deuros, ça fait les gens La quali' en quantité, ça, cest le job J'veux pas mourir jeune, même si ça fait légende Rosé, tu sais que je bois que ça, billets violets, je ne vois que ça Ça fait épargner des bras cassés, on veut plus rien savoir et tout ramasser Cooking Is I got you Attends, attends, laisse moi faire Orrh Hey Got you, for got you Woh, woh, woh Got you, got' Is I got you Got you, for got you Woh, woh, woh Got you, for got' Is I got you Got you, for got you Woh, woh, woh Got you, got' Is I got you Got you, for got you Woh, woh, woh Got you, for got' Is I got you</t>
+          <t>Si Pah, pah, pah YoungK, ta prod' parle mal, j'vais la kicker Woh Shit, woh Yah, woh Shit, woh Ah Woh Brr, woh Ouais, woh, woh Pah, pah, pah, pah Aïe, aïe, aïe Ok, j'vais envoyer, là Position Position, position d'départ, prêts, feu, partez All of, hey Petit pont Petit pont, wouh, si tu t'pointes avec les jambes écartées R.A.S R.A.S, aucune nouvelle de mes opposants Nan, nan, nan Woh, woh, YoungK, ta prod' parle mal, c'est pesant Eh Abusé Hey, all of, j'ai vu mes ancêtres dans un musée, ça m'a pas amusé Ça m'a pas amusé Moi, j'suis pas prédestiné à lusine Faut pas qu'j'commence à psychoter, wesh, comment ça, sous-coté ? Wesh Alors qu'tu brûles ça sur ton tél', même ta copine tâche son pantalon Y a pas faute, j'ai touché l ballon, pendant qu'eux, ils touchaient l banc J'ai l'volume de course dun étalon noir, on sait tous que cest des talles, woh All of my niggas for real that shit Essaye, Essaye, Essaye Nous, on n'attend pas le go, nous, on n'attend pas le coach pour creuser l'écart Rapi Sat', Coco Jojo Ça flingue Ça, cest pour exploser les charts Is I got you Prêts, feu, partez, prêts, feu, partez, prêts, feu, partez Rapi Sati, Coco Jojo, on a vu ton jeu, tu peux poser les cartes Jécris d'la frappe, j'ai de lor au bout d'mes doigts Tchipie Les mains faites pour l'or mais elles sont dans la drogua J'me retourne, frappe, shoot, shoot Hey comme Didier Drogba Woah C'est pour les voleurs comme Arsène Lupin Hey, les trafiquants comme El Chapo Minimum three, three, three Minimum, j'leur mets que des coups du chapeau All of, three On rate pas l'occas' Oui, oui, on a la classe même devant la cage Cest l'ambition qui fait quon tient, continue d'les flinguer, le reste, j'm'en charge Oh, whey J'ai plus de flow que Coca Essaye, nouvelle arrivage de coca' All of, whey J'ai pris des ballons, d'la vodka, j'm'en vais rejoindre Tchikita J'pète une cigar' Jojo, Jojo avant que les keufs m'arrêtent Jojo, Jojo J'pète une cigarette Ouais, c'est Coco, Jojo avant que les keufs marrêtent Jojo, Jojo J'pète une cigar' Jojo, Jojo avant que les keufs marrêtent Le Coco Jojo depitcho R9 C'est fort comme une balle, de sang-froid, quon a foutue à Manny Ça flingue, ça flingue, ça flingue, ça flingue Woh Mec de Paris, que du VV, futur milli', milli' Milli', milli', milli' Nous, on n'attend pas le go, nous, on n'attend pas le coach pour creuser l'écart Rapi Sat', Coco Jojo Ça flingue Ça, cest pour exploser les charts Is I got you Prêts, feu, partez, prêts, feu, partez, prêts, feu, partez Rapi Sati, Coco Jojo, on a vu ton jeu, tu peux poser les cartes Courir après les sous, ça fait les jambes Pour une poignée deuros, ça fait les gens La quali' en quantité, ça, cest le job J'veux pas mourir jeune, même si ça fait légende Rosé, tu sais que je bois que ça, billets violets, je ne vois que ça Ça fait épargner des bras cassés, on veut plus rien savoir et tout ramasser Cooking Is I got you Attends, attends, laisse moi faire Orrh Hey Got you, for got you Woh, woh, woh Got you, got' Is I got you Got you, for got you Woh, woh, woh Got you, for got' Is I got you Got you, for got you Woh, woh, woh Got you, got' Is I got you Got you, for got you Woh, woh, woh Got you, for got' Is I got you</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Partie I Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Dans les rues d'Paris, t'achètes l'amour Dans les rues d'ma ville, t'achètes la mort J'me d'mande même plus si j'suis une bonne personne Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Partie II Yeah, yeah Potos prennent du cash, potos prennent du ferme J'te parle de bédo, j'te parle de zipette J'te parle de T-MAX, j'te parle de visière J'te parle de kichta, négro, t'es du-per Yeah, yeah, Ah, ah yeah, yeah C'est Coco Jojo, poh J'te parle de T-MAX, j'te parle de visière, eh, poto, dis-leur, que ce n'est plus gang J'te parle de kichta, négro, t'es du-per, eux, c'est les cartouches vides comme bouteilles C'est fort, c'est fort You might also like La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo La Kalash' change ton destin Woh, ah, ah, on t'allume, mec, on t'éteint Woh, hein, hein La Kalash' change ton destin Woh, tchoa, on t'allume, mec, on t'éteint J'suis que dans l'biff' donc plavon, gent-ar Coco, hein, hein, Coco, hein, hein Toujours sse-cla même dans mon tier-quar Eux, c'est la Ligue 1, la voiture à 200, tchoa, tchoa Maintenant, je serre, elle m'appelle le matin, midi, soir, elle peut pas se passer de Coco Jo Jo Tu connais déjà la fin d'l'histoire Tchoa, t'inquiète, j'étais pas méchant Jeune et pétasse dans le carré Oui, j'ai le gamos dur à garer Oui J'ai le billet, j'ai le carré d'as, ils ont les guitares, on a les basses Piou, piou, piou On fait le cash, amigo Mmh, y a pas de matchs amicaux Mmh-mmh J'ai pas de pass Navigo Mmh-mmh, moi, j'ai le quatre sorties dpot Mon bébé veut monter dans l'Urus, veut monter dans lLambo' Mon bébé veut qu'j'la prenne dans les bras, j'ai trop d'couteaux dans l'dos Une puce Lebara, bara et ça crie akha, akha ! Ma pute vient d'Madrid quand elle rit, elle fait que jaja, jaja Elle sait qu'j'suis tressé comme Iverson, que je veux mmh-mmh, mi corazón Que j'ai le hm, hm comme Mike Jackson, que j'ai le mmh-mmh de Mike Tyson C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo Woh, ah, ah Woh, ah, ah, ah, ah, tchoa Woh, tchoa</t>
+          <t>Partie I Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Dans les rues d'Paris, t'achètes l'amour Dans les rues d'ma ville, t'achètes la mort J'me d'mande même plus si j'suis une bonne personne Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Partie II Yeah, yeah Potos prennent du cash, potos prennent du ferme J'te parle de bédo, j'te parle de zipette J'te parle de T-MAX, j'te parle de visière J'te parle de kichta, négro, t'es du-per Yeah, yeah, Ah, ah yeah, yeah C'est Coco Jojo, poh J'te parle de T-MAX, j'te parle de visière, eh, poto, dis-leur, que ce n'est plus gang J'te parle de kichta, négro, t'es du-per, eux, c'est les cartouches vides comme bouteilles C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo La Kalash' change ton destin Woh, ah, ah, on t'allume, mec, on t'éteint Woh, hein, hein La Kalash' change ton destin Woh, tchoa, on t'allume, mec, on t'éteint J'suis que dans l'biff' donc plavon, gent-ar Coco, hein, hein, Coco, hein, hein Toujours sse-cla même dans mon tier-quar Eux, c'est la Ligue 1, la voiture à 200, tchoa, tchoa Maintenant, je serre, elle m'appelle le matin, midi, soir, elle peut pas se passer de Coco Jo Jo Tu connais déjà la fin d'l'histoire Tchoa, t'inquiète, j'étais pas méchant Jeune et pétasse dans le carré Oui, j'ai le gamos dur à garer Oui J'ai le billet, j'ai le carré d'as, ils ont les guitares, on a les basses Piou, piou, piou On fait le cash, amigo Mmh, y a pas de matchs amicaux Mmh-mmh J'ai pas de pass Navigo Mmh-mmh, moi, j'ai le quatre sorties dpot Mon bébé veut monter dans l'Urus, veut monter dans lLambo' Mon bébé veut qu'j'la prenne dans les bras, j'ai trop d'couteaux dans l'dos Une puce Lebara, bara et ça crie akha, akha ! Ma pute vient d'Madrid quand elle rit, elle fait que jaja, jaja Elle sait qu'j'suis tressé comme Iverson, que je veux mmh-mmh, mi corazón Que j'ai le hm, hm comme Mike Jackson, que j'ai le mmh-mmh de Mike Tyson C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo Woh, ah, ah Woh, ah, ah, ah, ah, tchoa Woh, tchoa</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Shabzbeats Le Coco Jojo depitcho R9, wow, wow Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Brrra Kichta balaise Kichta balaise, ah, jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie My G, my, my, my G Jai tllement cassé la lucarne, jsuis Adriano dans Pro Evolution Soccr 6 Numéro un dans le show biz, on retourne la capi', cest fort Tout le monde le voit, voit, voit Ah, ah, ah, la callé en cur comme les choristes Ça flingue, rahh Autrement dit, entre bandits comme Jimmy Deux Fois, je gère la contre-bande On mapplaudie Clap, clap, clap, là, cest les bandits, que des billets qui rentrent cest Mozart Capitaine Jackson Jsuis la frappe de CR7 Cristiano, quand on encaisse dans le hall, cest la fête La peuf Ça empeste le biff quand jarrive Bah oui, pétasse me suce dans le Range Rover Jviens de la cité, moi, jsuis pas un loveur, cest Mozart, Capitaine, Jackson Five Michael Ennemi, jélimine, y a pas dobstacle Toh, toh, badaboum, badaboum, cest le spectacle Badaboum Je la baise, je la baise, je suis bestial Je la baise comme un acteur porno Cest Mozart, Capitaine, Jackson Five Michael, ennemi, jélimine, y a pas dobstacle Cest fort, cest fort You might also like Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname, Double Bang Jsuis en bas, jsuis en place dans le cartel Cartel, elle écarte ses bes-j' devant Captaine Bah oui Opinel 12 dans ta gorge Charcle, mes cartouches qui ricochent et te couche Toh, toh Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Bloc Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Ça pue J'vais les taper comme papa qui est fâché Wouh, jfais le tour des cités mais ils se sont tous cachés Ouais Tu crois qucest fini, sale merde, cest Bezbar en vrai, comme dhab', on revient pour tout gâcher Cest fort Jveux retourner la Tour Eiffel Retourner la Tour Eiffel, j'envoie biacths dans le bendo G7 Cest toujours moi qui tire les pénos Ok, ouistiti, on fait la photo sous calibre Han han, han han, han han Billets jaunes, jantes chromées, tes pas dans un film babe, cest les parisiens au feu des Dipset Machette pour la recette, merci beaucoup pour l'écoute, cétait l'dix-huit et le dix-sept Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco JojoBrrra Kichta balaise Kichta balaise, ah jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie</t>
+          <t>Shabzbeats Le Coco Jojo depitcho R9, wow, wow Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Brrra Kichta balaise Kichta balaise, ah, jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie My G, my, my, my G Jai tllement cassé la lucarne, jsuis Adriano dans Pro Evolution Soccr 6 Numéro un dans le show biz, on retourne la capi', cest fort Tout le monde le voit, voit, voit Ah, ah, ah, la callé en cur comme les choristes Ça flingue, rahh Autrement dit, entre bandits comme Jimmy Deux Fois, je gère la contre-bande On mapplaudie Clap, clap, clap, là, cest les bandits, que des billets qui rentrent cest Mozart Capitaine Jackson Jsuis la frappe de CR7 Cristiano, quand on encaisse dans le hall, cest la fête La peuf Ça empeste le biff quand jarrive Bah oui, pétasse me suce dans le Range Rover Jviens de la cité, moi, jsuis pas un loveur, cest Mozart, Capitaine, Jackson Five Michael Ennemi, jélimine, y a pas dobstacle Toh, toh, badaboum, badaboum, cest le spectacle Badaboum Je la baise, je la baise, je suis bestial Je la baise comme un acteur porno Cest Mozart, Capitaine, Jackson Five Michael, ennemi, jélimine, y a pas dobstacle Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname, Double Bang Jsuis en bas, jsuis en place dans le cartel Cartel, elle écarte ses bes-j' devant Captaine Bah oui Opinel 12 dans ta gorge Charcle, mes cartouches qui ricochent et te couche Toh, toh Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Bloc Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Ça pue J'vais les taper comme papa qui est fâché Wouh, jfais le tour des cités mais ils se sont tous cachés Ouais Tu crois qucest fini, sale merde, cest Bezbar en vrai, comme dhab', on revient pour tout gâcher Cest fort Jveux retourner la Tour Eiffel Retourner la Tour Eiffel, j'envoie biacths dans le bendo G7 Cest toujours moi qui tire les pénos Ok, ouistiti, on fait la photo sous calibre Han han, han han, han han Billets jaunes, jantes chromées, tes pas dans un film babe, cest les parisiens au feu des Dipset Machette pour la recette, merci beaucoup pour l'écoute, cétait l'dix-huit et le dix-sept Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco JojoBrrra Kichta balaise Kichta balaise, ah jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, c'est Bebeto là Wah, wah, wah Hun, hun, hun, hun, hun, hun ah, ah, ah Hun, hun, hun, hun, hun, hun Hé G2, fais la un peu plus subtile, tu vois c'que j'veux dire ? Monte un peu l', tu vois ? Fais le hun, hun, hun, hun, hun, hun un peu plus calme, tu vois ? En mode Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Remontada comme l'Inter Milan, j'veux voir c'que tu rapportes, on s'en fout qu'tu vendes J'prête du she-ca, j'suis pas sûr qu'on m'rende, mais j'suis sûr d'allumer jusqu'au Pakistan 'stan Ranch han, han, j'm'écoute dans la caisse, j'ai des frissons oh J'suis l'négro qui ressort fuck J'donne de la force comme un bissap Et puisqu'ils m'ont pas tendu la main, pourquoi j'vais faire ami, amigo ? J'ai du style, ma tête fait mouiller les filles biens, j'peux même plus noter numb dans mon bigo You might also like Hun, hun, hun, hun, hun, hun, hun, hun Moi, c'est Bebeto wah, faut se lever tôt wah Là-bas, qu'il fait beau wah, jump dans le bateau le bateau Mon cas est , les yeux comme Sur Paris, les tits-pe me voient comme un héro Derrière le poteau, fais partir de l'héro' de l'héro' Hijo de puta toh, ou sors les joujoux mais on joue pas Et ça va pas commencer là-bas brr, viens, ça va commencer ici Et ça va péter péter, péter péter, on fait le taff avant de fêter Mais frime pas avec c'qu'on t'a prêté nan On achète des fringues, gros, des CD brr Hey, hey, hey, hey, hey, c'est Bebeto là rah, rah Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Comme l'Inter Milan Comme l'Inter Milan Jusqu'au Pakistan Comme l'Inter Milan On s'en fout qu'tu vendes J'suis pas sûr qu'on m'rende Jusqu'au Pakistan</t>
+          <t>Hey, hey, hey, c'est Bebeto là Wah, wah, wah Hun, hun, hun, hun, hun, hun ah, ah, ah Hun, hun, hun, hun, hun, hun Hé G2, fais la un peu plus subtile, tu vois c'que j'veux dire ? Monte un peu l', tu vois ? Fais le hun, hun, hun, hun, hun, hun un peu plus calme, tu vois ? En mode Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Remontada comme l'Inter Milan, j'veux voir c'que tu rapportes, on s'en fout qu'tu vendes J'prête du she-ca, j'suis pas sûr qu'on m'rende, mais j'suis sûr d'allumer jusqu'au Pakistan 'stan Ranch han, han, j'm'écoute dans la caisse, j'ai des frissons oh J'suis l'négro qui ressort fuck J'donne de la force comme un bissap Et puisqu'ils m'ont pas tendu la main, pourquoi j'vais faire ami, amigo ? J'ai du style, ma tête fait mouiller les filles biens, j'peux même plus noter numb dans mon bigo Hun, hun, hun, hun, hun, hun, hun, hun Moi, c'est Bebeto wah, faut se lever tôt wah Là-bas, qu'il fait beau wah, jump dans le bateau le bateau Mon cas est , les yeux comme Sur Paris, les tits-pe me voient comme un héro Derrière le poteau, fais partir de l'héro' de l'héro' Hijo de puta toh, ou sors les joujoux mais on joue pas Et ça va pas commencer là-bas brr, viens, ça va commencer ici Et ça va péter péter, péter péter, on fait le taff avant de fêter Mais frime pas avec c'qu'on t'a prêté nan On achète des fringues, gros, des CD brr Hey, hey, hey, hey, hey, c'est Bebeto là rah, rah Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Comme l'Inter Milan Comme l'Inter Milan Jusqu'au Pakistan Comme l'Inter Milan On s'en fout qu'tu vendes J'suis pas sûr qu'on m'rende Jusqu'au Pakistan</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Belek Track 2024, y a plus de papel, j'décroche de la vie, normal, j'décroche même plus les appels Elle m'attend au tel-hô, jambes écartées, habillée comme une putana du Cartel Manque de bol, guetteur a pas r'gardé, l'frérot tombe, il s'fait poucave par le tel J'suis avec Guydos, on barode comme des Vatos, appelle si tu veux l'matos La ppe-fra, elle tape plus vite que la muertada, ux ils pourraient dead pour la dose Dmande à mes assoc', on a des poignards, l'équipe est plus nia, on bosse Pour mettre bien la madre mia, qu'elle aille mieux, elle fait des phases Et rien qu'ça whipin' dans ma tête J'dois cogiter, y a la lumière au-dessus d'nous, faut qu'on l'a respecte, faut profiter Ouais Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant You might also like Tous les jours, tu t'demandes comment on fait, on félicite biff propre, illicite avec une En gros, j'ai tout coffré La réussite, , c'est mon dernier re-frè On est précis, vise bien, j'élimine poh, poh Deux-cents fils de mmh à taire à peu près Si j'en suis ravi ? Oui, ça me plaît, c'est comme baqueux, ça dezingue à la Play' J'finirai trahi comme Tupac Shakur, OPÉRATION DRAGON, AMBITION, ouais ça court Laisse, on s'en fout dis, c'est la folie C'est fort So Houdi, là, c'est le hoodie Faut du gaz et du pétrole, former les plus p'tits La mental' à Poutine, épargne-moi tes broutilles Là, c'est les cailles-ra t'façon, façon Brooklyn Jojo Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant</t>
+          <t>Belek Track 2024, y a plus de papel, j'décroche de la vie, normal, j'décroche même plus les appels Elle m'attend au tel-hô, jambes écartées, habillée comme une putana du Cartel Manque de bol, guetteur a pas r'gardé, l'frérot tombe, il s'fait poucave par le tel J'suis avec Guydos, on barode comme des Vatos, appelle si tu veux l'matos La ppe-fra, elle tape plus vite que la muertada, ux ils pourraient dead pour la dose Dmande à mes assoc', on a des poignards, l'équipe est plus nia, on bosse Pour mettre bien la madre mia, qu'elle aille mieux, elle fait des phases Et rien qu'ça whipin' dans ma tête J'dois cogiter, y a la lumière au-dessus d'nous, faut qu'on l'a respecte, faut profiter Ouais Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant Tous les jours, tu t'demandes comment on fait, on félicite biff propre, illicite avec une En gros, j'ai tout coffré La réussite, , c'est mon dernier re-frè On est précis, vise bien, j'élimine poh, poh Deux-cents fils de mmh à taire à peu près Si j'en suis ravi ? Oui, ça me plaît, c'est comme baqueux, ça dezingue à la Play' J'finirai trahi comme Tupac Shakur, OPÉRATION DRAGON, AMBITION, ouais ça court Laisse, on s'en fout dis, c'est la folie C'est fort So Houdi, là, c'est le hoodie Faut du gaz et du pétrole, former les plus p'tits La mental' à Poutine, épargne-moi tes broutilles Là, c'est les cailles-ra t'façon, façon Brooklyn Jojo Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Han, Han Ouais Woah, wouah Jojo, Jojo, Jojo woah, woah Jojo, Jojo, woah, woah Sku Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo On roule sur le périphérique, magnifique est le cortege magnifiqu sont les rides, nigga Je sais qu'lle pourra jamais s'passer de moi comme Chanel sur l'avenue Montaigne ah ouais c'est moi qui rince, Jojo, Jojo Parisien comme bâtiment haussmannien, j'ai la pure Cocaine J'al la pure cocaine Tu es plombé par la rythme mais j'me sens mieux ailleurs, viens que je t'emmène fly Un simple regard, j'te fume dans l'encart, et non, ça ment pas Avant d'être star, on est dans la street, on vend la coca c'est fort, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigg Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo You might also like Flingue dans la bijouterie, babe, j'te parfume avec de l'oseille j'te parfume avec ma money J'motive la team à frôler ce putain d'million, voir en grand comme Ricky Rosey Proche autant que tu le pourras, ne te perds pas dans cette sphère Prends tout ce qu'il y a à prendre Prends tout Tout n'est pas éternel Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo</t>
+          <t>Han, Han Ouais Woah, wouah Jojo, Jojo, Jojo woah, woah Jojo, Jojo, woah, woah Sku Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo On roule sur le périphérique, magnifique est le cortege magnifiqu sont les rides, nigga Je sais qu'lle pourra jamais s'passer de moi comme Chanel sur l'avenue Montaigne ah ouais c'est moi qui rince, Jojo, Jojo Parisien comme bâtiment haussmannien, j'ai la pure Cocaine J'al la pure cocaine Tu es plombé par la rythme mais j'me sens mieux ailleurs, viens que je t'emmène fly Un simple regard, j'te fume dans l'encart, et non, ça ment pas Avant d'être star, on est dans la street, on vend la coca c'est fort, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigg Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Flingue dans la bijouterie, babe, j'te parfume avec de l'oseille j'te parfume avec ma money J'motive la team à frôler ce putain d'million, voir en grand comme Ricky Rosey Proche autant que tu le pourras, ne te perds pas dans cette sphère Prends tout ce qu'il y a à prendre Prends tout Tout n'est pas éternel Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Papito cha' Hey On a la drogue, le cash et les armes Han Anakin Ouh J'ai un putain d'flow, un putain d'flingue Ouh, tu n'as qu'une seule vie, tu n'as aucune chance J'ai un putain d'flow, un putain d'flingue, tu n'as qu'une seule vie, tu n'as aucune chance Nan, nan, nan G2, G2, G2, on ira tous les chercher chez eux Ouh T'appelles 22, j'suis déjà dans les airs, comme Félix, j'benda en deux-deux Benda Boum, boum, boum, boum Boum, dans la voiture, on est trois Boum, boum On dirait qu'j'habite à Détroit, trois points, Jordan, numéro vingt-trois Switch, eh-eh La Cadi-Cadillac, 4x4 4x4, les aider ces bâtards ? J'préfère qu'on m'enterre Skrt, skrt, skrt Aller vers Rotterdam avec madame, j'fais cracher la bae Ouh, go, go C'est Jackson 5, dans mon moteur, des chevaux, y en a cinq-cents Rostah Des défenseurs, j'en mets cinq pour dégoûter ton dégoutter ton vieil attaquant Ah-ah Hey, maman qui voit Coco sur M6 Coco, toi, tu forces trop et rien qu't'insistes 'sistes Remballe ta mère, ta vieille dope et ton flow qui pue la pisse Qui pue Code 1.8.7, 1.7 mais pas les schmitts, ça vend du shit tous les sept mètres J'peux poser sept points sur ta tête Sept points sur ta tête Et tranquille, nous, c'est 18, 18, après le mauvais temps, viendra le caviar Okay Et sans doute, les huîtres Okay, sur Paris Okay, les balades en R8 Okay, han Sur Paris, les balades en RR Skrt, Rolex RR, j'les amende et y a R Vont tous rien faire, que des comédiens, j'les invite à prendre la fuite Merci Devant les buts, je suis R9 Neuf, tu sais que mon cur n'est plus tout neuf Baw On a grandi que dans les bad news Rostah, neuf meufs dans mon bedroom Neuf, han Porsche 911, t'es pas Fifty j'te mets neuf balles, t'es mort Tou-tou-tou-tou-tou-tou-touah T'entends ? Baw T'es pas Fifty Baw j'te mets neuf balles, t'es mort Baw Y a ceux qui font la guerre, ceux qui sont peace, y a ceux qui sur le corner vendent des dix Dix Solides et puissants, les chaînes, on les brise Han-han, han-han, han-han Tu sais bien, la calle porte numéro dix Baw You might also like 1.7 Un, 1.8 1.8, 1.7 Sept, 1.8 Ouais, va là-bas 1.7, 1.8 1.8, 1.7 Sept, 1.8 C'est fort, ouh-ouh 1.7 Ça flingue, 1.8 Uh-uh, 1.7, 1.8 Gra-gra-gra-grah 1.7, 1.8 Calle, calle là, 1.7 Brr, brr, 1.8 C'est Porte de Saint-Ouen, là</t>
+          <t>Papito cha' Hey On a la drogue, le cash et les armes Han Anakin Ouh J'ai un putain d'flow, un putain d'flingue Ouh, tu n'as qu'une seule vie, tu n'as aucune chance J'ai un putain d'flow, un putain d'flingue, tu n'as qu'une seule vie, tu n'as aucune chance Nan, nan, nan G2, G2, G2, on ira tous les chercher chez eux Ouh T'appelles 22, j'suis déjà dans les airs, comme Félix, j'benda en deux-deux Benda Boum, boum, boum, boum Boum, dans la voiture, on est trois Boum, boum On dirait qu'j'habite à Détroit, trois points, Jordan, numéro vingt-trois Switch, eh-eh La Cadi-Cadillac, 4x4 4x4, les aider ces bâtards ? J'préfère qu'on m'enterre Skrt, skrt, skrt Aller vers Rotterdam avec madame, j'fais cracher la bae Ouh, go, go C'est Jackson 5, dans mon moteur, des chevaux, y en a cinq-cents Rostah Des défenseurs, j'en mets cinq pour dégoûter ton dégoutter ton vieil attaquant Ah-ah Hey, maman qui voit Coco sur M6 Coco, toi, tu forces trop et rien qu't'insistes 'sistes Remballe ta mère, ta vieille dope et ton flow qui pue la pisse Qui pue Code 1.8.7, 1.7 mais pas les schmitts, ça vend du shit tous les sept mètres J'peux poser sept points sur ta tête Sept points sur ta tête Et tranquille, nous, c'est 18, 18, après le mauvais temps, viendra le caviar Okay Et sans doute, les huîtres Okay, sur Paris Okay, les balades en R8 Okay, han Sur Paris, les balades en RR Skrt, Rolex RR, j'les amende et y a R Vont tous rien faire, que des comédiens, j'les invite à prendre la fuite Merci Devant les buts, je suis R9 Neuf, tu sais que mon cur n'est plus tout neuf Baw On a grandi que dans les bad news Rostah, neuf meufs dans mon bedroom Neuf, han Porsche 911, t'es pas Fifty j'te mets neuf balles, t'es mort Tou-tou-tou-tou-tou-tou-touah T'entends ? Baw T'es pas Fifty Baw j'te mets neuf balles, t'es mort Baw Y a ceux qui font la guerre, ceux qui sont peace, y a ceux qui sur le corner vendent des dix Dix Solides et puissants, les chaînes, on les brise Han-han, han-han, han-han Tu sais bien, la calle porte numéro dix Baw 1.7 Un, 1.8 1.8, 1.7 Sept, 1.8 Ouais, va là-bas 1.7, 1.8 1.8, 1.7 Sept, 1.8 C'est fort, ouh-ouh 1.7 Ça flingue, 1.8 Uh-uh, 1.7, 1.8 Gra-gra-gra-grah 1.7, 1.8 Calle, calle là, 1.7 Brr, brr, 1.8 C'est Porte de Saint-Ouen, là</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Le Coco Jojo On retourne la capi', tout l'monde le voit Jojo, voit, voit, voit Jojo, Jojo, ouais La pussy m'aime, j'suis dans le trafic, j'finis cul sec et puis, ça pique trop Oh Les liasses dansent la macarena Grr, le guetteur nous dit Arthéna Qu'est-ce qu'ils vont faire à part pénave ? C'est des ah Coco Jojo Bitchies, eh, cotana, Mazera'-ra' Arrête tes bêtises, han, j'bombarde à cent à l'heure, j'arrive vers Marais J'vais ramener le trophée comme Mahrez, ell pé-pom, elle pé-pom, ça m'apaise L cocon, le pe-pom est balaise, pas pitié, pour les suceurs, j'ai pas d'pitié Grr, rah Oh, elle suce, d'mande à Chief Keef Ah-ah, on t'a juste maladixius Pour les flinguer, c'est par là, toi t'as vert Venezuela Bâtard, bâtard, bâtard, bâtard, mets le pare-balles Pah Tu vois pas qu'c'est chaud ou quoi dehors ? Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh, hey gros You might also like J'ai fait des bébés dans l'rap jeu mais c'est pas ceux qu'j'ai placé chez la nourrice Opinel 12 et une arme à feu, au cas où ça vient me prendre pour un touriste Shoo, shoo, shoo J'effacerai sec ton prix, j'suis l'GOAT, téflon en militaire full, j'suis l'GOAT R.I.P Cookies, c'était un bon J'connais pourris comme Alpha Lima Pedro, Miguel Pauleta, la voiture est pée-ta, la tiper est gainée Tiper est gainée Nuebe quatro uno ocho, De Pitcho, R9, Ronaldinho, Gaúcho Elle m'a d'jà vu sous les projos, elle m'voit jamais sur les réseaux, elle m'dit Lima, t'es un baisé Ça débite, ça débite, ça débite, million d'euros suffit pas pour aider toute la famille Ça débite, ça débite, ça débite, j'les fait flipper, ça les arrange de dire qu'j'suis un crâneur Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh</t>
+          <t>Le Coco Jojo On retourne la capi', tout l'monde le voit Jojo, voit, voit, voit Jojo, Jojo, ouais La pussy m'aime, j'suis dans le trafic, j'finis cul sec et puis, ça pique trop Oh Les liasses dansent la macarena Grr, le guetteur nous dit Arthéna Qu'est-ce qu'ils vont faire à part pénave ? C'est des ah Coco Jojo Bitchies, eh, cotana, Mazera'-ra' Arrête tes bêtises, han, j'bombarde à cent à l'heure, j'arrive vers Marais J'vais ramener le trophée comme Mahrez, ell pé-pom, elle pé-pom, ça m'apaise L cocon, le pe-pom est balaise, pas pitié, pour les suceurs, j'ai pas d'pitié Grr, rah Oh, elle suce, d'mande à Chief Keef Ah-ah, on t'a juste maladixius Pour les flinguer, c'est par là, toi t'as vert Venezuela Bâtard, bâtard, bâtard, bâtard, mets le pare-balles Pah Tu vois pas qu'c'est chaud ou quoi dehors ? Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh, hey gros J'ai fait des bébés dans l'rap jeu mais c'est pas ceux qu'j'ai placé chez la nourrice Opinel 12 et une arme à feu, au cas où ça vient me prendre pour un touriste Shoo, shoo, shoo J'effacerai sec ton prix, j'suis l'GOAT, téflon en militaire full, j'suis l'GOAT R.I.P Cookies, c'était un bon J'connais pourris comme Alpha Lima Pedro, Miguel Pauleta, la voiture est pée-ta, la tiper est gainée Tiper est gainée Nuebe quatro uno ocho, De Pitcho, R9, Ronaldinho, Gaúcho Elle m'a d'jà vu sous les projos, elle m'voit jamais sur les réseaux, elle m'dit Lima, t'es un baisé Ça débite, ça débite, ça débite, million d'euros suffit pas pour aider toute la famille Ça débite, ça débite, ça débite, j'les fait flipper, ça les arrange de dire qu'j'suis un crâneur Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jo-Jojo AWA the mafia, my n J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie C'est fort J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus qu ça, my love Coco Je sais Je sais, qu tu sais Que tu sais, donc nous Nous savons, on se sait De Monday Lundi à Sunday Dimanche à fiesta Nous faisons, les 4 poches, bien pleines Balaise Toutes les toute la saisons ODF Prince Jojo Coco, anti fake et flocko Okay J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie You know, you know, you know You might also like J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh Tu restes sans arrêt dans ma tête Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh, Jojo Je sais même plus pourquoi je fête, mais fuck Tequila, j'en n'aurai pas marre d'cette vie-là Jamais Non-stop, juste moi et le gang on fait le job job, job Non-stop, juste moi et toi, baby, loin des opps non-stop J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Hahaha, on fait ça, my G C'est fort, c'est Kore Let's go, pour la vida Garde bien plus Garde-moi ça Billets billets violets violets, toute l'année</t>
+          <t>Jo-Jojo AWA the mafia, my n J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie C'est fort J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus qu ça, my love Coco Je sais Je sais, qu tu sais Que tu sais, donc nous Nous savons, on se sait De Monday Lundi à Sunday Dimanche à fiesta Nous faisons, les 4 poches, bien pleines Balaise Toutes les toute la saisons ODF Prince Jojo Coco, anti fake et flocko Okay J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie You know, you know, you know J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh Tu restes sans arrêt dans ma tête Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh, Jojo Je sais même plus pourquoi je fête, mais fuck Tequila, j'en n'aurai pas marre d'cette vie-là Jamais Non-stop, juste moi et le gang on fait le job job, job Non-stop, juste moi et toi, baby, loin des opps non-stop J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Hahaha, on fait ça, my G C'est fort, c'est Kore Let's go, pour la vida Garde bien plus Garde-moi ça Billets billets violets violets, toute l'année</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Oh my god Ouh hein, hein, hein, hein hein, hein, c'est ton gars Coco Jojo, 404 J'sais qu'ils m'aiment pas mais j'me gare devant eux, ces fils de, flingueurs, sur Champs-Élysées qu'on s'coiffe flingue Depuis qu'on est là, pas de flop, flop nan, j'envoie texto fort, mange au resto han J'gare la Tesla frais, j'fume un joint, joint, joint, couleur pesto kush Et hop, hop, hop, majeur en l'air comme ses jambes ah, han, fuck les cops, cops, cops han En pétard, en pétard, en pétard, en pétard comme Ivar le Désossé violnt, avec que des OG's qu'on s'associ Hein-hein, hein-hein, hein ah, ah, hein-hein-hein, hein-hein-hein On va casser la bouteille sur ta tête, enfoiré pah, t'as l'air un peu trop costaud t'as l'air un peu trop costaud, ouh, ouh T'as l'air un peu trop costaud, tout l'monde sait bien que partout, j'ai riposté brrah J'en ai fait dormir à l'hosto pah, on faisait peur à tous ceux qu'tu détestais ah, ah, ah, ah Mythic ou my G, c'est ton gars Coco Jojo Jo et 404 quatre Grosse réunion flingueur ici pah, quand on tire, on vise pas les pattes mmh, mmh Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh You might also like On rêve de Rolls Royce, de VVS VVS, la peau d'leurs culs sous mes BBS ouh, ouh Tu dis qu'tu nous connais, on dit Qui est-ce ?, fais pas trop l'fan, j'suis pas BTS non, non On connaît pas l'bénévolat, G, c'est comment ? C'est comment my G ? J'arrive à Bezbar oui, on leur laisse aucun espoir hey, hey, Guy, c'est comment ? Flex comme Weezy ou Jeezy, marathonien comme Nipsey, oui, oui Moi, j'oublie rien, c'est physique, ici hey, on m'a fouetté dans l'Mississipi Vas-y, gare-toi d'vant eux, G vroum, vroum, j'encule les envieux, gros, j'encule les envieux j'encule les envieux, gros On encule les envieux on encule les envieux, hey, hey, hey, le bruit d'la mort sort d'un silencieux piou, piou, piou Et ça fait plaisir comme le sang d'un keuf eh, eh, elle veut l'resto, j'l'emmène au 129 fort Salope, choisis ton cheese choisis ton cheese, salope, choisis ton cheese ton cheese Je sais qu'le pain attire les mouettes hein, au studio, p'tite bouteille de Moët han, han On flingue, il n'y aura pas d'SOS non, non, on flingue, il n'y aura pas d'SOS non, non Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh</t>
+          <t>Oh my god Ouh hein, hein, hein, hein hein, hein, c'est ton gars Coco Jojo, 404 J'sais qu'ils m'aiment pas mais j'me gare devant eux, ces fils de, flingueurs, sur Champs-Élysées qu'on s'coiffe flingue Depuis qu'on est là, pas de flop, flop nan, j'envoie texto fort, mange au resto han J'gare la Tesla frais, j'fume un joint, joint, joint, couleur pesto kush Et hop, hop, hop, majeur en l'air comme ses jambes ah, han, fuck les cops, cops, cops han En pétard, en pétard, en pétard, en pétard comme Ivar le Désossé violnt, avec que des OG's qu'on s'associ Hein-hein, hein-hein, hein ah, ah, hein-hein-hein, hein-hein-hein On va casser la bouteille sur ta tête, enfoiré pah, t'as l'air un peu trop costaud t'as l'air un peu trop costaud, ouh, ouh T'as l'air un peu trop costaud, tout l'monde sait bien que partout, j'ai riposté brrah J'en ai fait dormir à l'hosto pah, on faisait peur à tous ceux qu'tu détestais ah, ah, ah, ah Mythic ou my G, c'est ton gars Coco Jojo Jo et 404 quatre Grosse réunion flingueur ici pah, quand on tire, on vise pas les pattes mmh, mmh Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh On rêve de Rolls Royce, de VVS VVS, la peau d'leurs culs sous mes BBS ouh, ouh Tu dis qu'tu nous connais, on dit Qui est-ce ?, fais pas trop l'fan, j'suis pas BTS non, non On connaît pas l'bénévolat, G, c'est comment ? C'est comment my G ? J'arrive à Bezbar oui, on leur laisse aucun espoir hey, hey, Guy, c'est comment ? Flex comme Weezy ou Jeezy, marathonien comme Nipsey, oui, oui Moi, j'oublie rien, c'est physique, ici hey, on m'a fouetté dans l'Mississipi Vas-y, gare-toi d'vant eux, G vroum, vroum, j'encule les envieux, gros, j'encule les envieux j'encule les envieux, gros On encule les envieux on encule les envieux, hey, hey, hey, le bruit d'la mort sort d'un silencieux piou, piou, piou Et ça fait plaisir comme le sang d'un keuf eh, eh, elle veut l'resto, j'l'emmène au 129 fort Salope, choisis ton cheese choisis ton cheese, salope, choisis ton cheese ton cheese Je sais qu'le pain attire les mouettes hein, au studio, p'tite bouteille de Moët han, han On flingue, il n'y aura pas d'SOS non, non, on flingue, il n'y aura pas d'SOS non, non Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chek my G, t'es mort direct Wouh J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh J'ai flow américain, ils ont la boca J'ai hant' comme un pélican sans vie de délinquant Refait sa pédicure, pété dans la voiture J'écoute du Guapa à fond dans mes deux tympans Tu sais que j'ai du répondant Équipe de bâtards, j'sais pas c'que c'est d'être perdant C'est tout pour le gang, tout pour mon Wu-Tang Tu sais pour nous tout baigne quand j'envoie les bouteilles Le boss d'Avenue Montaigne, Coco c'est que d'la pure cocaine Le bras long de Dalsim est costaud comme Popeye Le retour des flingueurs, j'ai repris le totem Non ça va pas l'faire, eh poto là, ça va pas l'faire J'te menace, tu parles pas comme si j't'étais ton grand frère C'est comme ça qu'ça s'passe mais c'est tout You might also like J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Opération dragon c'est pas pour les minots J'représente les bavons, j'représente les bavons Man, c'est plié d'office Y'a que des fils mais reste 2-3 gravons Chek, nous c'est vraiment pas pareil qu'eux Ils passent leur time à sucer des queues On s'est fait tout seul, t'as trop l'seum Et ça fait plais' qu'on fasse plus la queue Partout on part, partout où j'mets les pieds Partout on flingue, on nous regarde j't'aime dans le car Eux c'est pas mérité en vrai ça schlingue J'propose des bâtards gros t'es malin Avant de décoller je suis dans le business lounge Han-han et jatterris, Range J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Ah-ah-ah, que pour les mecs stylés my g C'est ton gars Coco Jojo, papito charme On ramène la drogue, le cash et les armes Huh Huh Jojo, Jojo, Jojo</t>
+          <t>Chek my G, t'es mort direct Wouh J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh J'ai flow américain, ils ont la boca J'ai hant' comme un pélican sans vie de délinquant Refait sa pédicure, pété dans la voiture J'écoute du Guapa à fond dans mes deux tympans Tu sais que j'ai du répondant Équipe de bâtards, j'sais pas c'que c'est d'être perdant C'est tout pour le gang, tout pour mon Wu-Tang Tu sais pour nous tout baigne quand j'envoie les bouteilles Le boss d'Avenue Montaigne, Coco c'est que d'la pure cocaine Le bras long de Dalsim est costaud comme Popeye Le retour des flingueurs, j'ai repris le totem Non ça va pas l'faire, eh poto là, ça va pas l'faire J'te menace, tu parles pas comme si j't'étais ton grand frère C'est comme ça qu'ça s'passe mais c'est tout J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Opération dragon c'est pas pour les minots J'représente les bavons, j'représente les bavons Man, c'est plié d'office Y'a que des fils mais reste 2-3 gravons Chek, nous c'est vraiment pas pareil qu'eux Ils passent leur time à sucer des queues On s'est fait tout seul, t'as trop l'seum Et ça fait plais' qu'on fasse plus la queue Partout on part, partout où j'mets les pieds Partout on flingue, on nous regarde j't'aime dans le car Eux c'est pas mérité en vrai ça schlingue J'propose des bâtards gros t'es malin Avant de décoller je suis dans le business lounge Han-han et jatterris, Range J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Ah-ah-ah, que pour les mecs stylés my g C'est ton gars Coco Jojo, papito charme On ramène la drogue, le cash et les armes Huh Huh Jojo, Jojo, Jojo</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Je n'sait que faire apart wiping wiping wiping vi-ser la coca Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de lvel up J'ai souvent pris les mauvais dcision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider Rien qui parle pour rien, rien qui parle pour rien C que des vaus rien qui vale pas ........ Chui sur le terrain rien qu'on casse des rains Que j'encaisse les qu'un c la big league un On vas pas terra ca c dans t'es reve J vais courir sera sur tous qui m'ennerve On vas nique t'as race si jamais je pers la vus ton coeur on t' arache Je fait tous qui me plais je fait tout ce qui m'arrange Pas un bell homme si tu fait pas aun bell homme comme moi j'arrive ganter tout en quechua On est pas plus que dix dix pendent le convois You might also likeJOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider</t>
+          <t>JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Je n'sait que faire apart wiping wiping wiping vi-ser la coca Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de lvel up J'ai souvent pris les mauvais dcision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider Rien qui parle pour rien, rien qui parle pour rien C que des vaus rien qui vale pas ........ Chui sur le terrain rien qu'on casse des rains Que j'encaisse les qu'un c la big league un On vas pas terra ca c dans t'es reve J vais courir sera sur tous qui m'ennerve On vas nique t'as race si jamais je pers la vus ton coeur on t' arache Je fait tous qui me plais je fait tout ce qui m'arrange Pas un bell homme si tu fait pas aun bell homme comme moi j'arrive ganter tout en quechua On est pas plus que dix dix pendent le convois JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vint Son booty fait vay vay vay Elle sait que j'ai la vibe, vib, vibes Avant qu'on minterpelle, j'suis déjà parti Renseigne-toi bien sur le gang On naime pas les playboy au quartier J'aurais pu m'en aller loin dici Mais bon, jsuis toujours au quartier J'aurais pu men aller loin d'ici Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes You might also like Tu penses à quoi quand tu penses à moi? Faut que jrentre dans ton rêve et te prenne en doogie style Tu demandes comment on fait C'est le paquet d'oseille qui nous donne le smile Cinq étoiles, gamos étoilé la vie de Jojo On shine, on a toujours du style Donc elle a le booty qui fait vay vay vay, vay vay vay Eeeeh On presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, c'est rempli dimposteurs Woh, woh, woh, woh, woh American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Avant quon m'interpelle, jsuis déjà parti</t>
+          <t>Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vint Son booty fait vay vay vay Elle sait que j'ai la vibe, vib, vibes Avant qu'on minterpelle, j'suis déjà parti Renseigne-toi bien sur le gang On naime pas les playboy au quartier J'aurais pu m'en aller loin dici Mais bon, jsuis toujours au quartier J'aurais pu men aller loin d'ici Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Tu penses à quoi quand tu penses à moi? Faut que jrentre dans ton rêve et te prenne en doogie style Tu demandes comment on fait C'est le paquet d'oseille qui nous donne le smile Cinq étoiles, gamos étoilé la vie de Jojo On shine, on a toujours du style Donc elle a le booty qui fait vay vay vay, vay vay vay Eeeeh On presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, c'est rempli dimposteurs Woh, woh, woh, woh, woh American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Avant quon m'interpelle, jsuis déjà parti</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>De ma vie t'es fascinée J'ai pris les gun mais envoie les fleurs C'est pour ma dulciné Être le meilleur, affronter mes peurs C'est bien pour ça qu'j'suis né J'veux mon oseille en temps et en heure Sinon tu finis calciné Sinon tu finis calciné Attends, attends, attends, my G, pas si vite Écoute un peu la merveille que Ritchie m'a faite C'est ton putain d'boss à coco, Jojo Tu sais déjà comment ça s'passe, c'est toujours OTF Only the flingueurs, OTF Only the family, a vision, practice J'ai les flingueurs, pas de cinéma Louis Vuitton, Marni, Prada Dans le dressing, my G, j'sais pas c'que j'ai pas Shut the fuck up, j'ai déjà tout, tout Des barres à Harlem, bad boy KO porte flingue comme cow-boy Parce que portefeuille prend trop d'place de la guerre Moi j'ai jamais ras-le-bol Ah, ah, ah, only la big fa-fa Que ça bara bara, parking info, 3-4, fé-fé Ah, ah, ah, toujours dans les fa-fa Tu crois qu'j'ai intérêt Parce que j'compte finir, jéfé You might also like Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Let's go I need you, baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, j'vais sur les miens comme Jamie Qu'en penses-tu ma baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing Ouais, dans la tchème et les bâtards veulent que j'passe inaperçu comme Michael Owen Écoutez c'qu'ils racontent, j'préfère me fonce-der au champi et chanter la bohème C'est pas qu'j'suis égoïste mais d'où je sors, j'pourrais pas finir deuxième C'est comme si j'étais en altitude, quand je parle j'suis toujours un peu dans l'extrême Avec charisme et attitude que j'ai mes fins à tous les dilemmes C'est coco Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Oh ouais I need you, baby, baby Viens vers moi, l'heure est sur ma AP I want you, baby Mais j'suis dans la tess, j'mets sur les miens comme Jamie Propose-tu ma baby, baby Viens vers moi, l'heure est ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing</t>
+          <t>De ma vie t'es fascinée J'ai pris les gun mais envoie les fleurs C'est pour ma dulciné Être le meilleur, affronter mes peurs C'est bien pour ça qu'j'suis né J'veux mon oseille en temps et en heure Sinon tu finis calciné Sinon tu finis calciné Attends, attends, attends, my G, pas si vite Écoute un peu la merveille que Ritchie m'a faite C'est ton putain d'boss à coco, Jojo Tu sais déjà comment ça s'passe, c'est toujours OTF Only the flingueurs, OTF Only the family, a vision, practice J'ai les flingueurs, pas de cinéma Louis Vuitton, Marni, Prada Dans le dressing, my G, j'sais pas c'que j'ai pas Shut the fuck up, j'ai déjà tout, tout Des barres à Harlem, bad boy KO porte flingue comme cow-boy Parce que portefeuille prend trop d'place de la guerre Moi j'ai jamais ras-le-bol Ah, ah, ah, only la big fa-fa Que ça bara bara, parking info, 3-4, fé-fé Ah, ah, ah, toujours dans les fa-fa Tu crois qu'j'ai intérêt Parce que j'compte finir, jéfé Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Let's go I need you, baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, j'vais sur les miens comme Jamie Qu'en penses-tu ma baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing Ouais, dans la tchème et les bâtards veulent que j'passe inaperçu comme Michael Owen Écoutez c'qu'ils racontent, j'préfère me fonce-der au champi et chanter la bohème C'est pas qu'j'suis égoïste mais d'où je sors, j'pourrais pas finir deuxième C'est comme si j'étais en altitude, quand je parle j'suis toujours un peu dans l'extrême Avec charisme et attitude que j'ai mes fins à tous les dilemmes C'est coco Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Oh ouais I need you, baby, baby Viens vers moi, l'heure est sur ma AP I want you, baby Mais j'suis dans la tess, j'mets sur les miens comme Jamie Propose-tu ma baby, baby Viens vers moi, l'heure est ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>I-Icarios Ah, ah, ah, ah Make it again Éteignez tout mais vraiment tout, beaucoup d'ripoux qui nous écoutent Pour tout voyou, pour tous voyou, sous num d'écrou, ça part en couille, ça part en foule, perds pas tes couilles si il pleut des douilles, pah, pah Solo, j'les baise, Guy2bez', beaucoup d'gens derrière moi J'prends des t-oph', cramé dans l'RS3, j'ai pardonné mais c'est la dernière fois Ils me demandèrent Qui suis-je ? et ce qu'on a fait Comment on a fait mais j'ai rien dit, en effet Baltimore Rrr, binks On vit dans l'trafic de coca' et touts les pédales sont choquées, vins faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer des boca Baltimore Han, Baltimore Han, flingue, han, Jojo, han, Jojo On a repris les commandes depuis qu'les humains croyaient qu'on était rassasiés Han, c'est fort, awa Vroum, vroum, soulève la bécane, nous, c'est Paris Ouais, y a qu'aux vrais O.G qu'on rendra la pareille, eh J'm'arrête pas de compter, j'mets sur le côté qu'on finisse en beauté T'es-t'es qu'un sale bâtard, on prends pas tes patins, jeune incapable On m'appelle Mbata, nous, c'est la Ligue 1, la voiture à 200 J'm'arrête pas quand j'me laisse emporter, c'est que maintenant qu'ils viennent nous accoster On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle, pah, pah Ne dis jamais qu'c'est impossible, ne dis jamais qu'c'est impossible Té-ma les plugs Tiens ta go, on vise à la chance, tiens ta go, on vise à la gencive C'est important Ah, changer d'pourboire, en partant Ouais Si j'suis pas convié dans la party Hein ? Flinguage à bout portant Wouh You might also like Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Fuck un corps-à-corps Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Rrr, binks Baltimore, c'est chez nous, serein comme McGregor Serein comme McGregor Baltimore, c'est chez nous Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore Han, Baltimore J'vois les p'tits, en i sur l'allée comme à Balti' Tellement d'neige au tier-quar qu'on patine, transactions rapides dans un parking J'suis pas serein, c'matin, j'dors que d'un il comme tous les mardi Sur l'terrain, j'fais oublier l'titulaire, Mauro Icardi Rrr, binks Car cellulaire, serrés comme des sardines, moi qui m'voyais comme un requin J'f'rais des millions avec des centimes, ça, c'est mon côté marocain Liasse colorée comme Arlequin, j'enfile les gants pour déguster J'ai grave soif de vengeance, donc si tu m'vises, faut bien m'ajuster Rrr, binks Vainqueur solide car jeu musclé, tu fais qu'aboyer, sale chien muselé Elle était tellement flinguée, j'm'en rappelle même plus qui m'a dépucelé Ça t'soulève dès l'sbah, du N.V.R à Bezbar Depuis l'départ, on est déter', fais un écart, j'fais l'nécessaire Baltimore La calle, c'est risqué, y a celui qui s'noie, celui qui prend l'eau Toute la zone est pistée, les pes-tu' on l'barreau, ils vont s'branler J'suis rempli d'projets dans la tête, c'est pas l'moment Faut plus d'aliments dans l'assiette, tu vois comment ? Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore han, Baltimore</t>
+          <t>I-Icarios Ah, ah, ah, ah Make it again Éteignez tout mais vraiment tout, beaucoup d'ripoux qui nous écoutent Pour tout voyou, pour tous voyou, sous num d'écrou, ça part en couille, ça part en foule, perds pas tes couilles si il pleut des douilles, pah, pah Solo, j'les baise, Guy2bez', beaucoup d'gens derrière moi J'prends des t-oph', cramé dans l'RS3, j'ai pardonné mais c'est la dernière fois Ils me demandèrent Qui suis-je ? et ce qu'on a fait Comment on a fait mais j'ai rien dit, en effet Baltimore Rrr, binks On vit dans l'trafic de coca' et touts les pédales sont choquées, vins faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer des boca Baltimore Han, Baltimore Han, flingue, han, Jojo, han, Jojo On a repris les commandes depuis qu'les humains croyaient qu'on était rassasiés Han, c'est fort, awa Vroum, vroum, soulève la bécane, nous, c'est Paris Ouais, y a qu'aux vrais O.G qu'on rendra la pareille, eh J'm'arrête pas de compter, j'mets sur le côté qu'on finisse en beauté T'es-t'es qu'un sale bâtard, on prends pas tes patins, jeune incapable On m'appelle Mbata, nous, c'est la Ligue 1, la voiture à 200 J'm'arrête pas quand j'me laisse emporter, c'est que maintenant qu'ils viennent nous accoster On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle, pah, pah Ne dis jamais qu'c'est impossible, ne dis jamais qu'c'est impossible Té-ma les plugs Tiens ta go, on vise à la chance, tiens ta go, on vise à la gencive C'est important Ah, changer d'pourboire, en partant Ouais Si j'suis pas convié dans la party Hein ? Flinguage à bout portant Wouh Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Fuck un corps-à-corps Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Rrr, binks Baltimore, c'est chez nous, serein comme McGregor Serein comme McGregor Baltimore, c'est chez nous Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore Han, Baltimore J'vois les p'tits, en i sur l'allée comme à Balti' Tellement d'neige au tier-quar qu'on patine, transactions rapides dans un parking J'suis pas serein, c'matin, j'dors que d'un il comme tous les mardi Sur l'terrain, j'fais oublier l'titulaire, Mauro Icardi Rrr, binks Car cellulaire, serrés comme des sardines, moi qui m'voyais comme un requin J'f'rais des millions avec des centimes, ça, c'est mon côté marocain Liasse colorée comme Arlequin, j'enfile les gants pour déguster J'ai grave soif de vengeance, donc si tu m'vises, faut bien m'ajuster Rrr, binks Vainqueur solide car jeu musclé, tu fais qu'aboyer, sale chien muselé Elle était tellement flinguée, j'm'en rappelle même plus qui m'a dépucelé Ça t'soulève dès l'sbah, du N.V.R à Bezbar Depuis l'départ, on est déter', fais un écart, j'fais l'nécessaire Baltimore La calle, c'est risqué, y a celui qui s'noie, celui qui prend l'eau Toute la zone est pistée, les pes-tu' on l'barreau, ils vont s'branler J'suis rempli d'projets dans la tête, c'est pas l'moment Faut plus d'aliments dans l'assiette, tu vois comment ? Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore han, Baltimore</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu You might also like Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
+          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ft Graya Oh oh Oh oh yeah yeah yeah Oh oh Oh oh yeah yeah yeah Moi je lai vu passer, je lai regardé de haut alors quelle croyait que jétais blindé dans ma poche il ny avait pas un franc, mon ami ma dit cette femme te fera tomber de haut mais jai préféré ne pas lécouter elle ma fait gronder Cest réel je suis tombé dans son piège jai tout fait je me suis condamné, jai perdu la femme qui maimait pour moi elle aurait tout donné, elle était belle les choses sans même que je lui dise un mot Je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh Eh comment texpliquer une journée dans mon quartier, ya ceux qui Rage tu mignores,dune caisse, dune tasse et de bombarder, faudra sans doute quon se mettent daccord, calmer les choses ne men veut pas encore, regarde régner faudra péter le score encore et puis encore Elle voulait plus de toi tas pas su bien faire les choses bien faire les choses, tes revenu plusieurs fois, comme dirait sans diez quon régner des roses combien de vouv sont amoureux, combien de vouv cache bien leur jeu, et ceux qui parle cest des re-rageur, elle veulent ta go depuis tout ti-pe On est pas couronné On est pas couronné, mec on est grillé ah oui oui oui, mes frères sont condamnés mes frères sont condamnés, de Paname à la casté my nigga On est pas couronné On est pas couronné, mec on est grillé mec on est grillé , mes frères sont condamnés mes frères sont condamnés, de Paname à la casté de Paname à la casté Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle ohYou might also like</t>
+          <t>ft Graya Oh oh Oh oh yeah yeah yeah Oh oh Oh oh yeah yeah yeah Moi je lai vu passer, je lai regardé de haut alors quelle croyait que jétais blindé dans ma poche il ny avait pas un franc, mon ami ma dit cette femme te fera tomber de haut mais jai préféré ne pas lécouter elle ma fait gronder Cest réel je suis tombé dans son piège jai tout fait je me suis condamné, jai perdu la femme qui maimait pour moi elle aurait tout donné, elle était belle les choses sans même que je lui dise un mot Je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh Eh comment texpliquer une journée dans mon quartier, ya ceux qui Rage tu mignores,dune caisse, dune tasse et de bombarder, faudra sans doute quon se mettent daccord, calmer les choses ne men veut pas encore, regarde régner faudra péter le score encore et puis encore Elle voulait plus de toi tas pas su bien faire les choses bien faire les choses, tes revenu plusieurs fois, comme dirait sans diez quon régner des roses combien de vouv sont amoureux, combien de vouv cache bien leur jeu, et ceux qui parle cest des re-rageur, elle veulent ta go depuis tout ti-pe On est pas couronné On est pas couronné, mec on est grillé ah oui oui oui, mes frères sont condamnés mes frères sont condamnés, de Paname à la casté my nigga On est pas couronné On est pas couronné, mec on est grillé mec on est grillé , mes frères sont condamnés mes frères sont condamnés, de Paname à la casté de Paname à la casté Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J'ai coupé le Montale avec du h-, on peut pas tout dire Je découpe après le showcase, elle me dit Garde mon keuss en souvenir J'me mets en 4-4-2 comme si les 22 voulaient m'interpelle pour un sac de beuh dans la caille pour finir au J'savoure, repos sur transat, cocktail saveur litchi-i-i Litchi On trinque à ceux qui m'en veulent Coco, Lujipeka, tchin tchin Demande à Fresh, c'est mon sept chevaux qui les agresse J'ai les quatre poches pleines de pesos, j't'ai dit, les quatre poches pleines de pesos Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle You might also like Mon p'tit cur, j'ai passé l'million d'auditeurs ah En bodega au Lidl C'est à notre table qu'à l'plus de liqueur C'est à notre table qu'à l'plus de liqueur Ça rappe depuis l'époque du Blackberry Curve J'ai perdu v'là les potes, mais j'm'en bats les couilles héhéhé J't'inviterai qu'au Chicken Waffles comme PnB Rock Ma vie est un long fleuve tranquille, laissez-moi seul sur ma pirogue T'aurais pas grand-chose à dire dans ta disstrack Avec tes larmes, je m'hydrate Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle</t>
+          <t>J'ai coupé le Montale avec du h-, on peut pas tout dire Je découpe après le showcase, elle me dit Garde mon keuss en souvenir J'me mets en 4-4-2 comme si les 22 voulaient m'interpelle pour un sac de beuh dans la caille pour finir au J'savoure, repos sur transat, cocktail saveur litchi-i-i Litchi On trinque à ceux qui m'en veulent Coco, Lujipeka, tchin tchin Demande à Fresh, c'est mon sept chevaux qui les agresse J'ai les quatre poches pleines de pesos, j't'ai dit, les quatre poches pleines de pesos Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle Mon p'tit cur, j'ai passé l'million d'auditeurs ah En bodega au Lidl C'est à notre table qu'à l'plus de liqueur C'est à notre table qu'à l'plus de liqueur Ça rappe depuis l'époque du Blackberry Curve J'ai perdu v'là les potes, mais j'm'en bats les couilles héhéhé J't'inviterai qu'au Chicken Waffles comme PnB Rock Ma vie est un long fleuve tranquille, laissez-moi seul sur ma pirogue T'aurais pas grand-chose à dire dans ta disstrack Avec tes larmes, je m'hydrate Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ouais Flingue, flingue boh Ekomata, ekomata bien niquel Awa, awa Ekomata, ekomata bien ok Coco Jojo, ebandi Ebandi , c'est parti J't'assure qu'on fait ça bien en vrai, j'parfume mon cou dans l'Viano J't'assure qu'on fait ça bien ça flingue, j'lui pète le cul dans un an On en reparle, ça t'fait du bien ah, billets couleur Fiorentina tout ça Compte ça, j'ai beaucoup d'dinars, j'recompte ça, beaucoup d'dineros Si tu donnes ça bien, mmh, mmh tu montes dans Tesla tu restes jusqu'au matin Autour du cou, cou, sur les poignets, y a que du roro roro, roro J'remonte sur un coup, coup plavon parce qu'on m'dit qu'y en a beaucoup ébélé Trois fois filtré minimum, c'est la substance quand t'allumes le 'boro three On monte l'échelle en forme, là, tu sais qu'on monte l'échelle encore Qu'on s'fait courser par ces chiennes toujours et nos sapes ne viennent pas d'Chine, hein nan, nan Et nos sapes ne viennent pas d'Chine, hein nan, là, dans mes poches, y a l'prix d'ma chaîne 10K J'vois les humains, faire que d'aboyer, si c'est comme ça, j'préfère mon chien rrh Si c'est comme ça, chacun son pain c'est la life, sous crépuscule, j'savoure le vin J'aime prendre du recul pour mieux débouler car mon auto' n'a pas de frein Grosses pêches de Rocky boh, si c'est comme ça, chacun son ch'min c'est la vie T'as vu qu'on est tous partis de rien, chacun son mektoub, chacun ses biens orh J't'ai dis qu'j'achète, j'ai pas demandé c'est bien-com, proposer des options, c'est pas con ouh, ouh En plus de ça, j'te jette pourboir du fric, en plus de ça, montre les autres, juste pour voir mmh Ça, j'aime pas, ça, j'aime pas, j'aime pas j'aime pas, ramène tout c'qui flingue en taille M Ça m'gène pas, j'habite à ris-Pa, si c'est beau, j'la place dans l'Cayenne rrh, rrh You might also like Titi koti les cotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Titi koti les kotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Ça flingue même plus, ça fusille Dédicace FC Flingueurs Mmh, mmh, mmh, mmh, mmh Le Coco Jojo, ah, ah Titi koti ékoti, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh</t>
+          <t>Ouais Flingue, flingue boh Ekomata, ekomata bien niquel Awa, awa Ekomata, ekomata bien ok Coco Jojo, ebandi Ebandi , c'est parti J't'assure qu'on fait ça bien en vrai, j'parfume mon cou dans l'Viano J't'assure qu'on fait ça bien ça flingue, j'lui pète le cul dans un an On en reparle, ça t'fait du bien ah, billets couleur Fiorentina tout ça Compte ça, j'ai beaucoup d'dinars, j'recompte ça, beaucoup d'dineros Si tu donnes ça bien, mmh, mmh tu montes dans Tesla tu restes jusqu'au matin Autour du cou, cou, sur les poignets, y a que du roro roro, roro J'remonte sur un coup, coup plavon parce qu'on m'dit qu'y en a beaucoup ébélé Trois fois filtré minimum, c'est la substance quand t'allumes le 'boro three On monte l'échelle en forme, là, tu sais qu'on monte l'échelle encore Qu'on s'fait courser par ces chiennes toujours et nos sapes ne viennent pas d'Chine, hein nan, nan Et nos sapes ne viennent pas d'Chine, hein nan, là, dans mes poches, y a l'prix d'ma chaîne 10K J'vois les humains, faire que d'aboyer, si c'est comme ça, j'préfère mon chien rrh Si c'est comme ça, chacun son pain c'est la life, sous crépuscule, j'savoure le vin J'aime prendre du recul pour mieux débouler car mon auto' n'a pas de frein Grosses pêches de Rocky boh, si c'est comme ça, chacun son ch'min c'est la vie T'as vu qu'on est tous partis de rien, chacun son mektoub, chacun ses biens orh J't'ai dis qu'j'achète, j'ai pas demandé c'est bien-com, proposer des options, c'est pas con ouh, ouh En plus de ça, j'te jette pourboir du fric, en plus de ça, montre les autres, juste pour voir mmh Ça, j'aime pas, ça, j'aime pas, j'aime pas j'aime pas, ramène tout c'qui flingue en taille M Ça m'gène pas, j'habite à ris-Pa, si c'est beau, j'la place dans l'Cayenne rrh, rrh Titi koti les cotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Titi koti les kotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Ça flingue même plus, ça fusille Dédicace FC Flingueurs Mmh, mmh, mmh, mmh, mmh Le Coco Jojo, ah, ah Titi koti ékoti, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets vrts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'st Coco Jojo Everyday, j'fais du plata Eh, fais-moi un peu d'place, y a beaucoup d'monde dans le wagon ouais Nous, c'est fort, c'est la fumée du dragon ouh, ouh, crr, on frotte la bavette, sol est lisse comme du savon yes C'est des bavons mais dans ffaires-a, sont pas bons Découpe la prod' pour mes shabs et mes javons, être loyal premier truc que nous savons Depuis avant, j'reste lucide et pas con, pardon ? Ouh Moi, j'ai besoin de faire un carton, ah bon ? Ah bon ? C'est moi qu'on cherche ? J'arrive, j'défonce la porte avec FACOM baw, et fais pas comme nous Ceux qui ramassent les sommes, c'est nous, ceux qui tabassent pour sommes, c'est nous Qui grognent, c'est nous, qui cognent, c'est nous pa-paw On va contrôler l'bizi comme Sosa, j'mets la distance, hein, t'es pas mon sossa, eh J'perds du time là, déshabille-toi là, qu'on crache dans sa tte-ch' couleur rosa J'ouvre ma gueule même si je n'ai pas raison, on fait du fric sans arrêt, toutes les saisons J'sais qu'y a l'she-ca sous l'canap' d'la maison, rajoute volume dans la gov', faut qu'ça résonne rrah You might also like Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata C'est pour tout les p'tits qu'on prend patins On propose un teum rempli d'putains, sors le pe-pom, y a un pépin, j'entends pim-pom, oh putain, eh J'suis encore là, c'est inquiétant, ça sent le milli' tant qu'on n'est pas distants J'ai de la prestance, je ne me présente plus, j'suis l'homme qui prend souvent des risques oh merde On fait la guerre, j'les prends par centaines, fils de chienne, on vise la tête G2B, Clark Kent paw, on fout tes grands par terre On fout les gants, c'est nous le big cartel, tu pisses le sang, on règle tout au tél', j'suis très puissant J'm'en fous d'ton gang, pendant qu'tu parles, j'roule un gros benga, gros benga Tu connais les codes, fais pas l'grand écart, venez chez nous, noir est le décor On agit pour toi, gros, c'est bon, t'as plus b'soin d'ler-par, plus d'marche arrière, mec, on fuck les porcs paw, paw, rrah On vous rejoint sans beaucoup tarder D'un avis extérieur, elles disent qu'on est beaucoup, qu'il faut pas nous répondre, on est tartés rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata</t>
+          <t>Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets vrts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'st Coco Jojo Everyday, j'fais du plata Eh, fais-moi un peu d'place, y a beaucoup d'monde dans le wagon ouais Nous, c'est fort, c'est la fumée du dragon ouh, ouh, crr, on frotte la bavette, sol est lisse comme du savon yes C'est des bavons mais dans ffaires-a, sont pas bons Découpe la prod' pour mes shabs et mes javons, être loyal premier truc que nous savons Depuis avant, j'reste lucide et pas con, pardon ? Ouh Moi, j'ai besoin de faire un carton, ah bon ? Ah bon ? C'est moi qu'on cherche ? J'arrive, j'défonce la porte avec FACOM baw, et fais pas comme nous Ceux qui ramassent les sommes, c'est nous, ceux qui tabassent pour sommes, c'est nous Qui grognent, c'est nous, qui cognent, c'est nous pa-paw On va contrôler l'bizi comme Sosa, j'mets la distance, hein, t'es pas mon sossa, eh J'perds du time là, déshabille-toi là, qu'on crache dans sa tte-ch' couleur rosa J'ouvre ma gueule même si je n'ai pas raison, on fait du fric sans arrêt, toutes les saisons J'sais qu'y a l'she-ca sous l'canap' d'la maison, rajoute volume dans la gov', faut qu'ça résonne rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata C'est pour tout les p'tits qu'on prend patins On propose un teum rempli d'putains, sors le pe-pom, y a un pépin, j'entends pim-pom, oh putain, eh J'suis encore là, c'est inquiétant, ça sent le milli' tant qu'on n'est pas distants J'ai de la prestance, je ne me présente plus, j'suis l'homme qui prend souvent des risques oh merde On fait la guerre, j'les prends par centaines, fils de chienne, on vise la tête G2B, Clark Kent paw, on fout tes grands par terre On fout les gants, c'est nous le big cartel, tu pisses le sang, on règle tout au tél', j'suis très puissant J'm'en fous d'ton gang, pendant qu'tu parles, j'roule un gros benga, gros benga Tu connais les codes, fais pas l'grand écart, venez chez nous, noir est le décor On agit pour toi, gros, c'est bon, t'as plus b'soin d'ler-par, plus d'marche arrière, mec, on fuck les porcs paw, paw, rrah On vous rejoint sans beaucoup tarder D'un avis extérieur, elles disent qu'on est beaucoup, qu'il faut pas nous répondre, on est tartés rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Jojo Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Han-han Posé dans l'4Matic Ouais, j'récupère le biff de la journée, tout est cello' J'm'amuse comme un tit-pe, j'fous le zbeul au Shangri-La Nan Ayo ma bella Eh, moi, j'ai tout pour moi, classe bizi, Marbella Fort Si t'as une fellation à faire, bitch, fais-la Fais-la, si t'as un truc à faire, négro, vite fais-le Brr Elle aime quand ça fait Boum, boum dans la carcasse Ah Quand le gamos fait vroum-vroum et puis, j'en passe Tequila, Champs-Élysées, viens qu'on visit en tac-tac Avec moi, tout est autorisé sauf l téléphone quand on fait crack-crack Pah, c'est Jojo Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Un peu folle Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Vie de bandit, loin de la Sorbonne Ah-ah-ah, au final, j'ai fini beaucoup plus près Ouh, ah-ah-ah-ah You might also like Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Mon chouchou Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo, ah-ah-ah-ah Ah ouais, ouais, ouais, moi, t'es mon chouchou Hun, moi, t'es ma vida Hun J'suis pas là que pour tchuku Nan, même si j'suis un peu busy Ouais J'm'occupe de mes business Fort avec mes potes, sans stress, c'est la mentale Barbès Pour toi, j'éteins la bougie, pour toi, je sors le joujou Boum Faut tirer sur le bout d'shit, elle m'a rendu te-bê À moi, Coco2B Ah, j'suis comme un p'tit bébé Ah Dans ses bras, t'imagines pas Ah Tequila, Champs-Élysées, viens qu'on visite en tac-tac On va swing Avec moi, tout est autorisé sauf le téléphone quand on fait crack-crack C'est fort Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Oui-hi Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Jojo Vie de bandit, loin de la Sorbonne, au final, j'ai fini beaucoup plus près C'est fort, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Je suis désolé Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo</t>
+          <t>Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Jojo Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Han-han Posé dans l'4Matic Ouais, j'récupère le biff de la journée, tout est cello' J'm'amuse comme un tit-pe, j'fous le zbeul au Shangri-La Nan Ayo ma bella Eh, moi, j'ai tout pour moi, classe bizi, Marbella Fort Si t'as une fellation à faire, bitch, fais-la Fais-la, si t'as un truc à faire, négro, vite fais-le Brr Elle aime quand ça fait Boum, boum dans la carcasse Ah Quand le gamos fait vroum-vroum et puis, j'en passe Tequila, Champs-Élysées, viens qu'on visit en tac-tac Avec moi, tout est autorisé sauf l téléphone quand on fait crack-crack Pah, c'est Jojo Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Un peu folle Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Vie de bandit, loin de la Sorbonne Ah-ah-ah, au final, j'ai fini beaucoup plus près Ouh, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Mon chouchou Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo, ah-ah-ah-ah Ah ouais, ouais, ouais, moi, t'es mon chouchou Hun, moi, t'es ma vida Hun J'suis pas là que pour tchuku Nan, même si j'suis un peu busy Ouais J'm'occupe de mes business Fort avec mes potes, sans stress, c'est la mentale Barbès Pour toi, j'éteins la bougie, pour toi, je sors le joujou Boum Faut tirer sur le bout d'shit, elle m'a rendu te-bê À moi, Coco2B Ah, j'suis comme un p'tit bébé Ah Dans ses bras, t'imagines pas Ah Tequila, Champs-Élysées, viens qu'on visite en tac-tac On va swing Avec moi, tout est autorisé sauf le téléphone quand on fait crack-crack C'est fort Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Oui-hi Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Jojo Vie de bandit, loin de la Sorbonne, au final, j'ai fini beaucoup plus près C'est fort, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Je suis désolé Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oh my god Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Everyday, j'fais du plata, plata, pourquoi donner ta chatta ? Chatta Full my nigga sont là-bas full my nigga sont là-bas, là-bas, là-bas Réel, toujours dans l'trap house trap house Défonce ta porte comme 36 pou-pouh, trop de frères, j'pense à Jackma brr Fuck la BAC mobile, dans le périph' à 200 dans le périph' à 200 Qui veut jouer aux billes ? Des balles, j'en ai plus d'300 ah non, non, non Flaque de sang, c'est comme si t'as pas tiré si t'as raté raté Flaque de sang, c'est comme si t'as pas tiré si t'as raté rrah, ouh Calibré qu'on s'fait masser masser, pendant qu'elle suce, j'me fais chasser chasser Le bigo j'l'ai déjà cassé han, han, han, han han, han Nouvelle géné', vécu d'an-ien-c' bleh C'est pas nous qu'tu vas voir en ien-ch' le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay You might also like Tanins, tanins, c'est des tanins, tanins, son cavu, c'est la ligue uno uno C'est là, c'est là, c'est là, c'est là, j'suis dans la chambre, j'fais le boulot ah Jack au miel dans le Q7 Q7, Jack au miel dans le Q7 Q7 Jack au miel dans le Q7 Q7, si on casse, on la rachète wah, wah, wah On fume la moula, eh boy wah, wah, eh, boy, j'suis dans le bizi comme les Peaky Blinders Peaky Blinders Si j'suis dans le bizi, c'est pour finir blindé venir chiffrer J'suis dans le bizi, matte le coffre est blindé le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay le Coco Jojo, ah, ah</t>
+          <t>Oh my god Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Everyday, j'fais du plata, plata, pourquoi donner ta chatta ? Chatta Full my nigga sont là-bas full my nigga sont là-bas, là-bas, là-bas Réel, toujours dans l'trap house trap house Défonce ta porte comme 36 pou-pouh, trop de frères, j'pense à Jackma brr Fuck la BAC mobile, dans le périph' à 200 dans le périph' à 200 Qui veut jouer aux billes ? Des balles, j'en ai plus d'300 ah non, non, non Flaque de sang, c'est comme si t'as pas tiré si t'as raté raté Flaque de sang, c'est comme si t'as pas tiré si t'as raté rrah, ouh Calibré qu'on s'fait masser masser, pendant qu'elle suce, j'me fais chasser chasser Le bigo j'l'ai déjà cassé han, han, han, han han, han Nouvelle géné', vécu d'an-ien-c' bleh C'est pas nous qu'tu vas voir en ien-ch' le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Tanins, tanins, c'est des tanins, tanins, son cavu, c'est la ligue uno uno C'est là, c'est là, c'est là, c'est là, j'suis dans la chambre, j'fais le boulot ah Jack au miel dans le Q7 Q7, Jack au miel dans le Q7 Q7 Jack au miel dans le Q7 Q7, si on casse, on la rachète wah, wah, wah On fume la moula, eh boy wah, wah, eh, boy, j'suis dans le bizi comme les Peaky Blinders Peaky Blinders Si j'suis dans le bizi, c'est pour finir blindé venir chiffrer J'suis dans le bizi, matte le coffre est blindé le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay le Coco Jojo, ah, ah</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Le Coco Jojo, ah, ah, ah C'est fort, c'est fort, c'est Coco Jojo Là, c'est pas un hasard, regarde les bâtards ne sont plus bavards woh, woh Gère le re-fou comme un p'tit frère qui veut la paye à Pavard qui veut la paye à Pavard Junior Alaprod, zanmé Concessionnaire, on est frais de chaussette à la casquette à la casquette Que des sacs, Manny, que des sacs, Manny, que des sacs, Manny Minimum three baba Rempli de sappes, rempli de sappes, rempli de sappes, Manny ça flingue, ok On choque la primaire, j'envoie salaire aux pieds de Bebeto ouh, ouh, rah Et Bebeto mange des cookies ouh, pendant ce temps, j'fume un cône Mes gars sont cagoulés, tu connais, ça cooking c'est fort, c'est fort T'occupes pas d'ma réussite et d'ailleurs, fuck ton rendez-vous qui sert à rien, dis-leur que j'ai la grippe j'suis malade Très visionnaire, j'sais qu'il va tenter si jamais tu la quittes si jamais tu la quittes Mes potos font partir des cassettes, j'm'occupe de ramener le disque Et pour ceux qui tapent le vice, si tu m'connais bien, tu sais qu'j'ai d'jà brouiller les pistes Han, han T'as cru qu'j'étais con ou quoi là ? Là avant même que j'arrive, on m'a déjà dit Tombes pas là-bas c'est mort Donc on s'balade, ça m'arrange tant qu'c'est pas moi qui demande à faire la paix c'est fort Et d'ailleurs, j'ai mis quintuplés l'été , c'était moi, prends ton stylo J'rajoute des zéros, j'fais danser les bébés, tu captes la logique ? Donc faudrait qu'on parle milliers d'euros, et, j'peux l'refaire Si c'est ça qui t'effraie, c'est du pipi d'chat J't'en fais 10 000 et celui-là, c'est offert brrr You might also like J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto Ligue 1 C'est minimum three, baba, que tu kiffes ou pas three, three Même si t'as vu, on espère qu'tu diras pas, que tu diras pas que tu fermes ta gueule Le speaker qui crie mon blase comme si j'étais Douk Saga, j'jette les billets J'achète, j'achète et j'pars en full, j'achète, j'achète et j'pars en full Ma caisse, ma caisse, elle est flingue de ouf, ma caisse, ma caisse, elle flingue de ouf c'est Coco Jojo J'fais du cash, c'est une maladie ouais, mets-toi sur l'té-c' si t'es pas d'la partie Sous la cagoule -goule, c'est Coco Jojo qui t'allume ton boule Si tu veux pas qu'on t'en-, quand tu t'frottes à ma table, il faut rester cool J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto1</t>
+          <t>Le Coco Jojo, ah, ah, ah C'est fort, c'est fort, c'est Coco Jojo Là, c'est pas un hasard, regarde les bâtards ne sont plus bavards woh, woh Gère le re-fou comme un p'tit frère qui veut la paye à Pavard qui veut la paye à Pavard Junior Alaprod, zanmé Concessionnaire, on est frais de chaussette à la casquette à la casquette Que des sacs, Manny, que des sacs, Manny, que des sacs, Manny Minimum three baba Rempli de sappes, rempli de sappes, rempli de sappes, Manny ça flingue, ok On choque la primaire, j'envoie salaire aux pieds de Bebeto ouh, ouh, rah Et Bebeto mange des cookies ouh, pendant ce temps, j'fume un cône Mes gars sont cagoulés, tu connais, ça cooking c'est fort, c'est fort T'occupes pas d'ma réussite et d'ailleurs, fuck ton rendez-vous qui sert à rien, dis-leur que j'ai la grippe j'suis malade Très visionnaire, j'sais qu'il va tenter si jamais tu la quittes si jamais tu la quittes Mes potos font partir des cassettes, j'm'occupe de ramener le disque Et pour ceux qui tapent le vice, si tu m'connais bien, tu sais qu'j'ai d'jà brouiller les pistes Han, han T'as cru qu'j'étais con ou quoi là ? Là avant même que j'arrive, on m'a déjà dit Tombes pas là-bas c'est mort Donc on s'balade, ça m'arrange tant qu'c'est pas moi qui demande à faire la paix c'est fort Et d'ailleurs, j'ai mis quintuplés l'été , c'était moi, prends ton stylo J'rajoute des zéros, j'fais danser les bébés, tu captes la logique ? Donc faudrait qu'on parle milliers d'euros, et, j'peux l'refaire Si c'est ça qui t'effraie, c'est du pipi d'chat J't'en fais 10 000 et celui-là, c'est offert brrr J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto Ligue 1 C'est minimum three, baba, que tu kiffes ou pas three, three Même si t'as vu, on espère qu'tu diras pas, que tu diras pas que tu fermes ta gueule Le speaker qui crie mon blase comme si j'étais Douk Saga, j'jette les billets J'achète, j'achète et j'pars en full, j'achète, j'achète et j'pars en full Ma caisse, ma caisse, elle est flingue de ouf, ma caisse, ma caisse, elle flingue de ouf c'est Coco Jojo J'fais du cash, c'est une maladie ouais, mets-toi sur l'té-c' si t'es pas d'la partie Sous la cagoule -goule, c'est Coco Jojo qui t'allume ton boule Si tu veux pas qu'on t'en-, quand tu t'frottes à ma table, il faut rester cool J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Perpète ou les îles 2, ça flingue C'est Coco Jojo Han han, han han, han han Han han, han han Depitcho R9 M'emmène pas là-bas, j'ai fait une kakala woah, percée du tur-fu à la Kaka Ma bitch a les mêmes yeux que Lala ça flingue ASB, Bezbar, machettes en l'air, ça découpe lagga, lagga Tu flingues pas, t'es flingué minimum, aubergine dans ses jambes écartées Écartées comme Tour Eiffel ou foot arqué skurt La zone est quadrillée, j'suis au milieu de l'équerre ah, ah, ah, paw Ça m'attire si t'as tous les critères han, han Parisien, dégaine de baisé, j'fais peur au commissaire Les fans s'accumulent, j'peux plus visser nan, nan, Ligue 1 Nan, écoute pas on dit dla D écoute, j'parle de bitchs et de ma débrouille C'est plus rentable quand les tits-pe gèrent tout C'est ma comptable qui m'fait placer mes sous oh, oh J'coupe au Coca pour pas finir très saoul, je sais qu'j'ai tué quand j'vérifie l'pouls pouh, pouh, pouh, woah, woah, woah Pour nous, j'récupère tout, tout pendant le coup Tout pour le crew okay, j'récupère tout, tout, j'laisse aucun sous Boom, boom, bas' dans le cou okay, le Coco Jojo, ah You might also like Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six ASB, Barbès gang, la concurrence, on la baise L'Ice'O Lator m'apaise ah, liasses ébènes épaisses C'est la calle, c'est la tess hey 9.3, 7.5.0.1.8, ça vend d'la coke, du crack et d'la weed Coup d'gyrophare, coup d'pêche, course poursuite Coups d'schlass, c'est l'coût d'la violence gratuite rrah C'est Goulag et l'Coco Jojo, 0.9 coupée au dilaudid Hermès, Chanel, Coco, Dior, Dior, sombre est la mélodie D'mande à Rapi Féchaux, féchaux, ça découpe comme Obi-Wan Kenobi Grrrah, j'te monte en l'air, hey, tu tombes de haut comme Kobe Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr, paw Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six</t>
+          <t>Perpète ou les îles 2, ça flingue C'est Coco Jojo Han han, han han, han han Han han, han han Depitcho R9 M'emmène pas là-bas, j'ai fait une kakala woah, percée du tur-fu à la Kaka Ma bitch a les mêmes yeux que Lala ça flingue ASB, Bezbar, machettes en l'air, ça découpe lagga, lagga Tu flingues pas, t'es flingué minimum, aubergine dans ses jambes écartées Écartées comme Tour Eiffel ou foot arqué skurt La zone est quadrillée, j'suis au milieu de l'équerre ah, ah, ah, paw Ça m'attire si t'as tous les critères han, han Parisien, dégaine de baisé, j'fais peur au commissaire Les fans s'accumulent, j'peux plus visser nan, nan, Ligue 1 Nan, écoute pas on dit dla D écoute, j'parle de bitchs et de ma débrouille C'est plus rentable quand les tits-pe gèrent tout C'est ma comptable qui m'fait placer mes sous oh, oh J'coupe au Coca pour pas finir très saoul, je sais qu'j'ai tué quand j'vérifie l'pouls pouh, pouh, pouh, woah, woah, woah Pour nous, j'récupère tout, tout pendant le coup Tout pour le crew okay, j'récupère tout, tout, j'laisse aucun sous Boom, boom, bas' dans le cou okay, le Coco Jojo, ah Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six ASB, Barbès gang, la concurrence, on la baise L'Ice'O Lator m'apaise ah, liasses ébènes épaisses C'est la calle, c'est la tess hey 9.3, 7.5.0.1.8, ça vend d'la coke, du crack et d'la weed Coup d'gyrophare, coup d'pêche, course poursuite Coups d'schlass, c'est l'coût d'la violence gratuite rrah C'est Goulag et l'Coco Jojo, 0.9 coupée au dilaudid Hermès, Chanel, Coco, Dior, Dior, sombre est la mélodie D'mande à Rapi Féchaux, féchaux, ça découpe comme Obi-Wan Kenobi Grrrah, j'te monte en l'air, hey, tu tombes de haut comme Kobe Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr, paw Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Jhabite à Paris Tout le monde est pressé Faut du cardio Minimum Dans ta bitches Je la fé-chaud I got you Elle est bonne avec tous ses tattoos Jhabite à Paris Tout le monde est pressé Faut du cardio Téléphone booking, téléphone uber Comme ça quon pecho Tous les jours J'suis dans les trafics Cest Coco Jojo E.T. Téléphone Maison Parce que c'est la meilleure Jhabite à Paris Tout le monde est pressé Faut du cardio cash cash cash cash quartier Cest nous la On fuck ta baby Cest nous les Vikings Mort aux pookies Mort aux pookies La main, la rétin Jai le calibre si il faut ready Et bin moi j'suis dans la party J'suis au milieu comme Verratti You might also likeOn fait la moula qui est certifiée Tu fumes de la moula qui est plastifiée Y'a que ton qui est plastifié Tes bon quà kouma, quà Plaquettes de shit et de beuh Une fois passées je rigole, jappelle baveux Je dépense chez qui je veux Jsais pas Prada, Louis Vuitton, Dior, Burbe Elle veut minimum maxi big ligue 1 Flingue automatique sur AA-7 flingue, flingue, flingue, flingue I got you c'est fort, hmm Jhabite à Paris Tout le monde est pressé Faut du cardio scam, scam, scam Ollo my nigg for real that shit Dis moi c'est combien le prix jachète C'est coco jojo depitcho R9 Hmm, cest fabuleux My G I got you My G I got you scam, scam, scam</t>
+          <t>Jhabite à Paris Tout le monde est pressé Faut du cardio Minimum Dans ta bitches Je la fé-chaud I got you Elle est bonne avec tous ses tattoos Jhabite à Paris Tout le monde est pressé Faut du cardio Téléphone booking, téléphone uber Comme ça quon pecho Tous les jours J'suis dans les trafics Cest Coco Jojo E.T. Téléphone Maison Parce que c'est la meilleure Jhabite à Paris Tout le monde est pressé Faut du cardio cash cash cash cash quartier Cest nous la On fuck ta baby Cest nous les Vikings Mort aux pookies Mort aux pookies La main, la rétin Jai le calibre si il faut ready Et bin moi j'suis dans la party J'suis au milieu comme Verratti On fait la moula qui est certifiée Tu fumes de la moula qui est plastifiée Y'a que ton qui est plastifié Tes bon quà kouma, quà Plaquettes de shit et de beuh Une fois passées je rigole, jappelle baveux Je dépense chez qui je veux Jsais pas Prada, Louis Vuitton, Dior, Burbe Elle veut minimum maxi big ligue 1 Flingue automatique sur AA-7 flingue, flingue, flingue, flingue I got you c'est fort, hmm Jhabite à Paris Tout le monde est pressé Faut du cardio scam, scam, scam Ollo my nigg for real that shit Dis moi c'est combien le prix jachète C'est coco jojo depitcho R9 Hmm, cest fabuleux My G I got you My G I got you scam, scam, scam</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char ça commence ici Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char c'est fort Et j'm'en bats les couilles moi Eh bellek, bellek, bellek, bellek, c'est chaud là-bas Ouais, ouais, ouais, ouais, ouais, ouais, ouais Ouais, ouais Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Et j'm'en bats les couilles moi Ça commence ici ça va commencer ici, ça va jusqu'à là-bas Flingu sur les Champs-Ély' sur les Champs-Ély', s'il y a, j'suis à deux pas Ta bitchs à quatre pattes trop chic, pour la gachette j'ai les gilets pare-balles De Paname, on tabasse, faut que la Ligue 1, des big ass Dans ton pire cauchemar, j'ai la fa-face, c'est la calle, des kilos dans l'trap house C'est la calle, des kilos dans l'trap house, c'est pas mon équipe que tu vois à la ramasse C'est pas mon équipe que tu vois à la ramasse, nous c'est la calle, des kilos dans l'trap house Jojo On t'appelait, tu dormais on t'appelait, tu dormais Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Arrête de jouer les gros bonnets arrête Dans tout Paname on nous connaît la capi' nous connaît Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie You might also like Bah ouais laisse tomber poto, fréro ça fait longtemps il est là fréro Ah ouais, c'est là fréro tu flingues c't'année fréro Dans la capi', de retour frère et tout l'monde le voit La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison La capitale, ça flingue c'est fort, c'est fort La capitale, la capitale La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison Depitcho, R9, OK Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça</t>
+          <t>Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char ça commence ici Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char c'est fort Et j'm'en bats les couilles moi Eh bellek, bellek, bellek, bellek, c'est chaud là-bas Ouais, ouais, ouais, ouais, ouais, ouais, ouais Ouais, ouais Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Et j'm'en bats les couilles moi Ça commence ici ça va commencer ici, ça va jusqu'à là-bas Flingu sur les Champs-Ély' sur les Champs-Ély', s'il y a, j'suis à deux pas Ta bitchs à quatre pattes trop chic, pour la gachette j'ai les gilets pare-balles De Paname, on tabasse, faut que la Ligue 1, des big ass Dans ton pire cauchemar, j'ai la fa-face, c'est la calle, des kilos dans l'trap house C'est la calle, des kilos dans l'trap house, c'est pas mon équipe que tu vois à la ramasse C'est pas mon équipe que tu vois à la ramasse, nous c'est la calle, des kilos dans l'trap house Jojo On t'appelait, tu dormais on t'appelait, tu dormais Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Arrête de jouer les gros bonnets arrête Dans tout Paname on nous connaît la capi' nous connaît Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Bah ouais laisse tomber poto, fréro ça fait longtemps il est là fréro Ah ouais, c'est là fréro tu flingues c't'année fréro Dans la capi', de retour frère et tout l'monde le voit La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison La capitale, ça flingue c'est fort, c'est fort La capitale, la capitale La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison Depitcho, R9, OK Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G2Binks Skuuurt Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma mif parce que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Elle me fait des crises de jalousie quand je rép' pas au tél' Ça c'est ma gow Elle me dit va te faire enculer, va baiser toutes tes putes à lhôtel Ça c'est ma gow Je m'énerve on se prend la tête, c'est comme ça avec elle Ça c'est ma gow Elle me dit baratineur, tu dis à un million de meufs je t'aime Ça c'est ma gow Elle a du charisme, elle a du flow Ça c'est ma gow Quand je sors avec elle, paraît qu'on est beau Ça c'est ma gow L'argent est rentré, je me tire au resto, avec ma gow Le soir au téléphone je lui propose de se casser sous les tropicaux Bah ouais négro Quand je la vois sur snap, je me dis quel avion Ça c'est ma gow Je suis le roi c'est ma reine Quelle chance nous avons, moi et ma gow Ici, y a trop de haineux c'est pour ça que tous les jours nous prions, moi et ma gow Des fois je suis en tort, je range ma fierté je dis bébé pardon Ça c'est ma gow Elle aime les petits câlins, un vrai chaton Ça c'est ma gow Elle s'réveille le matin et c'est pas un tho Ça c'est ma gow Elle t'assume au chtar putain je pète un plomb Ça c'est ma gow Elle s'inquiète pour toi pire que ta famille, ta daronne et ton daron Ça c'est ma gow You might also like x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Quant à moi mon frère, avec un soce, ça c'est le bédo Je suis dans mon quartier, avec mes assoc' dans le bendo J'aime trop les filles, filles, filles, filles Ah ouais mon soce ? Putain t'es chaud Je les pique en plein dans le mille Ah ouais mon soce ? Putain t'es chaud Je l'emmène faire les magasins mais pas comme un canard J'suis un négro Quand je mate des meufs elle me crame, pire qu'un radar Putain c'est chaud Elle dit reste pas avec Torreto, il t'influence ce connard Ça c'est ma gow Mais jsuis un niggaz of Paris c'est clair, j'suis un fêtard Bah ouais ma gow Je suis avec Brams et sa meuf, on va boire un verre avec ma gow Quand elle sort dans ses teufs, ça me fout les nerfs Arrêtez les gow Elle parle avec sa pine-co, des barres sur oi-m Ça c'est ma gow Des une semaine sans se parler mais bon toujours c'est oim Arrêtez les gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Ça c'est ma gow Hey Ça c'est ma gow Hey Ça c'est ma gow</t>
+          <t>G2Binks Skuuurt Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma mif parce que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Elle me fait des crises de jalousie quand je rép' pas au tél' Ça c'est ma gow Elle me dit va te faire enculer, va baiser toutes tes putes à lhôtel Ça c'est ma gow Je m'énerve on se prend la tête, c'est comme ça avec elle Ça c'est ma gow Elle me dit baratineur, tu dis à un million de meufs je t'aime Ça c'est ma gow Elle a du charisme, elle a du flow Ça c'est ma gow Quand je sors avec elle, paraît qu'on est beau Ça c'est ma gow L'argent est rentré, je me tire au resto, avec ma gow Le soir au téléphone je lui propose de se casser sous les tropicaux Bah ouais négro Quand je la vois sur snap, je me dis quel avion Ça c'est ma gow Je suis le roi c'est ma reine Quelle chance nous avons, moi et ma gow Ici, y a trop de haineux c'est pour ça que tous les jours nous prions, moi et ma gow Des fois je suis en tort, je range ma fierté je dis bébé pardon Ça c'est ma gow Elle aime les petits câlins, un vrai chaton Ça c'est ma gow Elle s'réveille le matin et c'est pas un tho Ça c'est ma gow Elle t'assume au chtar putain je pète un plomb Ça c'est ma gow Elle s'inquiète pour toi pire que ta famille, ta daronne et ton daron Ça c'est ma gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Quant à moi mon frère, avec un soce, ça c'est le bédo Je suis dans mon quartier, avec mes assoc' dans le bendo J'aime trop les filles, filles, filles, filles Ah ouais mon soce ? Putain t'es chaud Je les pique en plein dans le mille Ah ouais mon soce ? Putain t'es chaud Je l'emmène faire les magasins mais pas comme un canard J'suis un négro Quand je mate des meufs elle me crame, pire qu'un radar Putain c'est chaud Elle dit reste pas avec Torreto, il t'influence ce connard Ça c'est ma gow Mais jsuis un niggaz of Paris c'est clair, j'suis un fêtard Bah ouais ma gow Je suis avec Brams et sa meuf, on va boire un verre avec ma gow Quand elle sort dans ses teufs, ça me fout les nerfs Arrêtez les gow Elle parle avec sa pine-co, des barres sur oi-m Ça c'est ma gow Des une semaine sans se parler mais bon toujours c'est oim Arrêtez les gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Ça c'est ma gow Hey Ça c'est ma gow Hey Ça c'est ma gow</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jojo Papito joga bonito, ouais Tu baisses un peu ma voix s'te plaît my G ? Pour les mecs stylés là Le salaire de Neymar en Arabie Saou', on ramènera quand même la calle au cas où J'la fais monter, ciel étoilé dans le r, elle guette et dit j'avoue mais pour moi c'est pas lourd Pour ceux qui m'envient, sachez c'est que d'la zik, zik, zik, zik, et puis tenez ma dick, dick, dick, dick Méritent que ça, Coco Pitcho, bah ouais G my, j'les baise mec, ça fait dix ans qu'j'les mitraille On t'explique, rgarde le Prada mec, on t'xplique Amigo roule un stick, traîne avec nous man, c'est fantastique Eh yo Saamou, dis-leur nous c'est fort, en vrai eux, c'est pas nous Pourront parler sur nous fumant leur Kaloud, mais vont se taire aussi vite devant l'FAMAS On t'explique, regarde mes poches, elles sont remplies d'fric Baby j'en ai des briques et j'suis pas très romantique Go, go, go, go, go, go, Jojo c'est parti, go, beaucoup de DM sur le bigo Mais c'est les flingueurs, c'est pas Migos J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Avec G2 j'les fume comme un P2, Opération Dragon, personne pourra t'aider Sur l'chemin j'fais que de croiser des haineux, maman prie pour que j'finisse fortuné J'fais rentrer du cash enculé, range ton iPhone, j'prends des photos au drone Les pes-sa d'Italie, le pétard on chrome, tu sais qu'c'est ma bitches que si il est gros Remonte des affaires du Montenegro, comme Kolo Muani j'peux montrer mes crocs J'fais pas d'clash, j't'envoie mes shooters pro, pas d'clash, j't'envoie deux shooters pro J'veux couper l'gâteau que avec mes bros, j'me suis juré qu'maman n'prendra plus le métro Non, non, j'me suis juré qu'maman n'prendra plus le métro Ils ont pas d'loves donc ils sont jaloux d'c'qu'on achète J'ai cassé la porte maintenant il faut qu'j'les achève J'découpe la prod avec une machette, coffre fort en banque, le reste est dans ma cachette J'cherche mes opps, j'les vois pas, ils sont cachés Ils savent tous qu'la mort ça coûte pas cher J'fais que d'encaisser des cachets J'récupère des broliques en affaire x2 J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Opération Dragon Nous c'est la TH Nous c'est la calle Gang, gang, gang, gangYou might also like</t>
+          <t>Jojo Papito joga bonito, ouais Tu baisses un peu ma voix s'te plaît my G ? Pour les mecs stylés là Le salaire de Neymar en Arabie Saou', on ramènera quand même la calle au cas où J'la fais monter, ciel étoilé dans le r, elle guette et dit j'avoue mais pour moi c'est pas lourd Pour ceux qui m'envient, sachez c'est que d'la zik, zik, zik, zik, et puis tenez ma dick, dick, dick, dick Méritent que ça, Coco Pitcho, bah ouais G my, j'les baise mec, ça fait dix ans qu'j'les mitraille On t'explique, rgarde le Prada mec, on t'xplique Amigo roule un stick, traîne avec nous man, c'est fantastique Eh yo Saamou, dis-leur nous c'est fort, en vrai eux, c'est pas nous Pourront parler sur nous fumant leur Kaloud, mais vont se taire aussi vite devant l'FAMAS On t'explique, regarde mes poches, elles sont remplies d'fric Baby j'en ai des briques et j'suis pas très romantique Go, go, go, go, go, go, Jojo c'est parti, go, beaucoup de DM sur le bigo Mais c'est les flingueurs, c'est pas Migos J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Avec G2 j'les fume comme un P2, Opération Dragon, personne pourra t'aider Sur l'chemin j'fais que de croiser des haineux, maman prie pour que j'finisse fortuné J'fais rentrer du cash enculé, range ton iPhone, j'prends des photos au drone Les pes-sa d'Italie, le pétard on chrome, tu sais qu'c'est ma bitches que si il est gros Remonte des affaires du Montenegro, comme Kolo Muani j'peux montrer mes crocs J'fais pas d'clash, j't'envoie mes shooters pro, pas d'clash, j't'envoie deux shooters pro J'veux couper l'gâteau que avec mes bros, j'me suis juré qu'maman n'prendra plus le métro Non, non, j'me suis juré qu'maman n'prendra plus le métro Ils ont pas d'loves donc ils sont jaloux d'c'qu'on achète J'ai cassé la porte maintenant il faut qu'j'les achève J'découpe la prod avec une machette, coffre fort en banque, le reste est dans ma cachette J'cherche mes opps, j'les vois pas, ils sont cachés Ils savent tous qu'la mort ça coûte pas cher J'fais que d'encaisser des cachets J'récupère des broliques en affaire x2 J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Opération Dragon Nous c'est la TH Nous c'est la calle Gang, gang, gang, gang</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Passe à la reugé, DJ BELLEK Yoka ma mélodie, yoka ma yoka ma mélodie Passe à la reugé, Chily de dingue J'ai le jeu, j'ai le jeu Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Elle regarde mes peu-sa , ma pano Fumé nocive dans le Viano On viendra si elle sont toutes canons On dira pas non non non non J'arrive en floco comme djodjo Ils ferment la boca , ils savent qu'on est beaucoup Uno , rajoute un ocho c'est nous gros On viser la coco c'est tout gros boum Don'pé , gamos , Full Ya , Racli , Touka from Pays-Bas O.C.B feuille , j'ai fonsdée la racli des gens Sache qu'on est très méchant J'ai perdu la notion du temps mon négro Bezbar Chez nous la cailasse c'est réel Tu sais le calbar on le baisse pas Plus de billets couleur Purple On maîtrise le bail, on maîtrise le bail Au moindre détail, Au moindre détail T'es pas prêt, décale on est la pour les talles Chily ma dis que t'es con quoi la Veulent de mes nouvelles mais j'suis plus la Maintenant c'est nous les gros bonnets You might also like Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o La peu-stu n'est qu'un overdose , tu va canner Voyou de la calla, a du tant batailler Des fois le teu-shi , des fois la zipette Des fois les tass , many j'suis équipée J'fais partis des leaders de la troupe J'suis pas dans la bicrave j'suis dans l'oseille J'suis pas dans la bicrave , jsuis dans l'oseille moi,moi J'l'ai ai tapé , tapé , dans ma jeunesse Parlent de moi , sa prouve qu'ils me connaissent On n'fais pas de baston de regard Si t'as l'oseille viens on fais la re-geu On à de quoi te troué le brava Mon gava je t'en prie pas de bavure Face à la juge l'antidote c'est le baveux Sois pas distrait par un cavu Elle à vu les liasses du bénef de la dope Et depuis ce jour elle m'apporte le coke Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Tournage de beuh Ça c'est jeu de jeu Pépite c'est normal Tournage de jeu Ça c'est jeu de beuh Pépite c'est normal tokei zua</t>
+          <t>Passe à la reugé, DJ BELLEK Yoka ma mélodie, yoka ma yoka ma mélodie Passe à la reugé, Chily de dingue J'ai le jeu, j'ai le jeu Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Elle regarde mes peu-sa , ma pano Fumé nocive dans le Viano On viendra si elle sont toutes canons On dira pas non non non non J'arrive en floco comme djodjo Ils ferment la boca , ils savent qu'on est beaucoup Uno , rajoute un ocho c'est nous gros On viser la coco c'est tout gros boum Don'pé , gamos , Full Ya , Racli , Touka from Pays-Bas O.C.B feuille , j'ai fonsdée la racli des gens Sache qu'on est très méchant J'ai perdu la notion du temps mon négro Bezbar Chez nous la cailasse c'est réel Tu sais le calbar on le baisse pas Plus de billets couleur Purple On maîtrise le bail, on maîtrise le bail Au moindre détail, Au moindre détail T'es pas prêt, décale on est la pour les talles Chily ma dis que t'es con quoi la Veulent de mes nouvelles mais j'suis plus la Maintenant c'est nous les gros bonnets Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o La peu-stu n'est qu'un overdose , tu va canner Voyou de la calla, a du tant batailler Des fois le teu-shi , des fois la zipette Des fois les tass , many j'suis équipée J'fais partis des leaders de la troupe J'suis pas dans la bicrave j'suis dans l'oseille J'suis pas dans la bicrave , jsuis dans l'oseille moi,moi J'l'ai ai tapé , tapé , dans ma jeunesse Parlent de moi , sa prouve qu'ils me connaissent On n'fais pas de baston de regard Si t'as l'oseille viens on fais la re-geu On à de quoi te troué le brava Mon gava je t'en prie pas de bavure Face à la juge l'antidote c'est le baveux Sois pas distrait par un cavu Elle à vu les liasses du bénef de la dope Et depuis ce jour elle m'apporte le coke Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Tournage de beuh Ça c'est jeu de jeu Pépite c'est normal Tournage de jeu Ça c'est jeu de beuh Pépite c'est normal tokei zua</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Le Yoski de Yoski, Yoski Le Yoski de Yoski, Yoski Le Yoski de Yoski, eh Yoski 2.4.0. S C'est Coco Jojo Hun, hun, hun Hun, hun, hun Chacun son tour ah ahah, ahah, ahah, ahah Chacun, chacun, chac-chacun son tour ça va commencer ici Le matin j'me réveille, j'vais direct chez Christian Dior La vendeuse sait très bien qu'on flingue à mort Tu connais déjà ton gars Coco Souvent dans les para', matin, midi, soir j'fais mes affaires Et quand j'peux, j'vais claquer mon bénef' chez Prada Ah hun hun, ah hun hun Jojo oh, on vend la frappe, on vend la mort oh oh oh On fait monter biatch à mort oh oh oh, oh oh oh Tchak, tch-tchak, on prend des photos Le charme de 2Pac Amaru Shakur On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber You might also like C'est pas le ghetto qui m'a tué, c'est juste la salope qui m'a eu Y'a que le guetteur qui crie pu, t'es venu, t'as vu, tu l'as su Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Hun hun, j'dois remonter de la coco, hun hun, avant d'le faire j'parle à Jojo J'ai fait tout ça pour le magot ça flingue, que des leaders sur la photo c'est fort Interdit d'avoir la boco, j'm'arrête pour mettre le coco J't'en ferais pas cadeau, on part lui casser son dos On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber Chaque semaine un nouveau bolide, on frime devant la police Mademoiselle traverse, est jolie, elle m'dit que j'suis impoli Avec on sort l'Audi black, m'envoie des mélodies noires J'ai calé le tarpé dans le tiroir, au cas où ça veut me faire chez moi Huhuhun, t'as touché, faut qu'tu l'payes Huhuhun, j't'avais prévenu tu sais Huhuhun, Gucci, Louis Vui pas de fake Huhuhun, la copine me dit que j'sens l'oseille On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est puissant, c'est puissant Yoski de Yoski Yoski de Yoski C'est puissant, c'est puissant</t>
+          <t>Le Yoski de Yoski, Yoski Le Yoski de Yoski, Yoski Le Yoski de Yoski, eh Yoski 2.4.0. S C'est Coco Jojo Hun, hun, hun Hun, hun, hun Chacun son tour ah ahah, ahah, ahah, ahah Chacun, chacun, chac-chacun son tour ça va commencer ici Le matin j'me réveille, j'vais direct chez Christian Dior La vendeuse sait très bien qu'on flingue à mort Tu connais déjà ton gars Coco Souvent dans les para', matin, midi, soir j'fais mes affaires Et quand j'peux, j'vais claquer mon bénef' chez Prada Ah hun hun, ah hun hun Jojo oh, on vend la frappe, on vend la mort oh oh oh On fait monter biatch à mort oh oh oh, oh oh oh Tchak, tch-tchak, on prend des photos Le charme de 2Pac Amaru Shakur On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est pas le ghetto qui m'a tué, c'est juste la salope qui m'a eu Y'a que le guetteur qui crie pu, t'es venu, t'as vu, tu l'as su Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Hun hun, j'dois remonter de la coco, hun hun, avant d'le faire j'parle à Jojo J'ai fait tout ça pour le magot ça flingue, que des leaders sur la photo c'est fort Interdit d'avoir la boco, j'm'arrête pour mettre le coco J't'en ferais pas cadeau, on part lui casser son dos On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber Chaque semaine un nouveau bolide, on frime devant la police Mademoiselle traverse, est jolie, elle m'dit que j'suis impoli Avec on sort l'Audi black, m'envoie des mélodies noires J'ai calé le tarpé dans le tiroir, au cas où ça veut me faire chez moi Huhuhun, t'as touché, faut qu'tu l'payes Huhuhun, j't'avais prévenu tu sais Huhuhun, Gucci, Louis Vui pas de fake Huhuhun, la copine me dit que j'sens l'oseille On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est puissant, c'est puissant Yoski de Yoski Yoski de Yoski C'est puissant, c'est puissant</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>On fait monter la pression on fait monter la pression C'est pour la nation c'est pour la calle C'est Coco et Landy, on est dans l'Audi Eux c'est des maudits eux c'est des flokos Nous c'est les O.G ok Serein comme coach Ancelotti Au Réal de Madrid On arrive en full Hayabusa Tous armés comme des Yakuzas J'suis mal garé, le SUV est balèze Comme baleine sous Hennessy Cané sur les champs c'est Coco T'occupe et mets-toi à l'aise Nous c'est la calle, tiens goûte un échant' Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Elle veut un raclo qui fait d'l'espèce J'suis dans l'carré, j'prends tout l'espace C'est l'9-3, c'est pas les states Dix lourds, American Express You might also likeLe hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Nique sa grand-mère l'officier J'ai rien vu, n'a rien bité Armes de l'est c'est Sarajevo, trop vénère j'vais lui casser l'dos Ba bang bang j'récupère la coupe En deux deux ça me coups du marteau Y a trop d'dineros, trop d'plata Elle m'a pris pour un franc maçon , j'crois bien que j'ai niqué la que-lo Faux vesqui les attaques à midi, j'ai disparu comme Feyaud Y a pas de sous-métiers, que des pirates sur la moto J'suis dedans avec les jefes, j'dois rester fort, devants ces gows Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo</t>
+          <t>On fait monter la pression on fait monter la pression C'est pour la nation c'est pour la calle C'est Coco et Landy, on est dans l'Audi Eux c'est des maudits eux c'est des flokos Nous c'est les O.G ok Serein comme coach Ancelotti Au Réal de Madrid On arrive en full Hayabusa Tous armés comme des Yakuzas J'suis mal garé, le SUV est balèze Comme baleine sous Hennessy Cané sur les champs c'est Coco T'occupe et mets-toi à l'aise Nous c'est la calle, tiens goûte un échant' Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Elle veut un raclo qui fait d'l'espèce J'suis dans l'carré, j'prends tout l'espace C'est l'9-3, c'est pas les states Dix lourds, American Express Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Nique sa grand-mère l'officier J'ai rien vu, n'a rien bité Armes de l'est c'est Sarajevo, trop vénère j'vais lui casser l'dos Ba bang bang j'récupère la coupe En deux deux ça me coups du marteau Y a trop d'dineros, trop d'plata Elle m'a pris pour un franc maçon , j'crois bien que j'ai niqué la que-lo Faux vesqui les attaques à midi, j'ai disparu comme Feyaud Y a pas de sous-métiers, que des pirates sur la moto J'suis dedans avec les jefes, j'dois rester fort, devants ces gows Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jai dit belek à la dose Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callie Chaud Coco Jojo J'mets les billets dans l'c-sa J'mets les billets dans l'e-sa Survêtement neuf, paire d'Air Force One Faut du cardio, faut bosser Les faux négros, faut crossr Mes gars sont dans l'extrême, fum pas de hood Dans l'hood Beaucoup de verte, couleur Werder de Brême but la Ligue 1, but la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'l'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d'l'oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm You might also like Moi j'ai osé Jojo, Jojo, fuck les porcs, fuck la BAC Coco, Coco, Rico, c'qu'on propose c'est pro Même avec moi j'ai Tropico Mais c'est quoi ça? Huh, huh, que les questions que tu poses Mais c'est quoi ça? Huh, huh, que les cautions que j'explose Que les billets que j'expose, que les transacs pour du flouze Attends pause, cause Écoute le gang quand j'te cause Comment oses-tu? Comment oses-tu prendre de haut les quatres qui t'ont fait? C'est fort, c'est fort, c'est fort Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d''oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Hmm hmm, hmm hmm, hmm hmm Faut poser l'oseille Hmm hmm, hmm hmm, hmm hmm On veut que d'l'oseille Hmm hmm, hmm hmm, hmm hmm Poser Hmm hmm, hmm hmm, hmm hmm C'est cool la foule quand c'est pas toi qui sort d''oseille On veut que d''oseille Poser On veut que d''oseille Moi j'ai osé</t>
+          <t>Jai dit belek à la dose Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callie Chaud Coco Jojo J'mets les billets dans l'c-sa J'mets les billets dans l'e-sa Survêtement neuf, paire d'Air Force One Faut du cardio, faut bosser Les faux négros, faut crossr Mes gars sont dans l'extrême, fum pas de hood Dans l'hood Beaucoup de verte, couleur Werder de Brême but la Ligue 1, but la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'l'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d'l'oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Jojo, Jojo, fuck les porcs, fuck la BAC Coco, Coco, Rico, c'qu'on propose c'est pro Même avec moi j'ai Tropico Mais c'est quoi ça? Huh, huh, que les questions que tu poses Mais c'est quoi ça? Huh, huh, que les cautions que j'explose Que les billets que j'expose, que les transacs pour du flouze Attends pause, cause Écoute le gang quand j'te cause Comment oses-tu? Comment oses-tu prendre de haut les quatres qui t'ont fait? C'est fort, c'est fort, c'est fort Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d''oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Hmm hmm, hmm hmm, hmm hmm Faut poser l'oseille Hmm hmm, hmm hmm, hmm hmm On veut que d'l'oseille Hmm hmm, hmm hmm, hmm hmm Poser Hmm hmm, hmm hmm, hmm hmm C'est cool la foule quand c'est pas toi qui sort d''oseille On veut que d''oseille Poser On veut que d''oseille Moi j'ai osé</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jsuis pas trop Audemars Piguet Cartier Santos sur le poignet Pas de répliqué, sous Versace Je viens tchercher, prépare le sachet ??? Sur ta ble-ta jai arrosé Jai du benef à dépenser Chez Saint-Laurent ou bien Dolce Dans tous les diez jsuis là Ou dans le 16e avec la moula Il y a du jaune, de la verte, de la coca Aussi blanche que le cul de Madonna Il y a plus dune ??? dans mon jean Balmain Élastique-ça je fais le même demain Jtaffe à mon compte pas besoin de coup de main Pas dtrahison quand tes seul dans le plan Louis Vuitton faut le monogramme Quatre poches plein de caisses il y a mes grammes Quatre cinq chiffres sur toutes ses sappes ??? dis-leur jpaye pas en card Saint-Laurent ou je porte pas djeans Sur écoute me parle pas ddeal Ballon cache tout dans les poches You might also like Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place Owh Owh comme un arc-en-ciel Mes billets ont beaucoup de couleur Avant de monter léchelle Jai connu léchec, trop senti la douleur Oh Oh Gamos quand jatterris Jmange la bouffe de ton pays cest pas terrible Avec les cops on joue à Tom et Jerry Fefe, Lamborghini, Paris, Saint-Gapour, Miami ??? Prada ??? Jveux le compte en banque à Xavi Ça va vite comme le ??? au frigo pour une famille nombreuse sa mère Tu crois nous parler au téléphone trop marrant en vrai on est juste derrière Free mes n en cellules gros Va faire pire que le 6 gros Vrai de vrai pas de film gros Vrai de vrai pas de bitch gros Pas de snitch gros, que du real gros Que du drip drip full au studio Pas de mytho Yeah Yoh Jfais chauffer la salle comme ma tise gros Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place</t>
+          <t>Jsuis pas trop Audemars Piguet Cartier Santos sur le poignet Pas de répliqué, sous Versace Je viens tchercher, prépare le sachet ??? Sur ta ble-ta jai arrosé Jai du benef à dépenser Chez Saint-Laurent ou bien Dolce Dans tous les diez jsuis là Ou dans le 16e avec la moula Il y a du jaune, de la verte, de la coca Aussi blanche que le cul de Madonna Il y a plus dune ??? dans mon jean Balmain Élastique-ça je fais le même demain Jtaffe à mon compte pas besoin de coup de main Pas dtrahison quand tes seul dans le plan Louis Vuitton faut le monogramme Quatre poches plein de caisses il y a mes grammes Quatre cinq chiffres sur toutes ses sappes ??? dis-leur jpaye pas en card Saint-Laurent ou je porte pas djeans Sur écoute me parle pas ddeal Ballon cache tout dans les poches Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place Owh Owh comme un arc-en-ciel Mes billets ont beaucoup de couleur Avant de monter léchelle Jai connu léchec, trop senti la douleur Oh Oh Gamos quand jatterris Jmange la bouffe de ton pays cest pas terrible Avec les cops on joue à Tom et Jerry Fefe, Lamborghini, Paris, Saint-Gapour, Miami ??? Prada ??? Jveux le compte en banque à Xavi Ça va vite comme le ??? au frigo pour une famille nombreuse sa mère Tu crois nous parler au téléphone trop marrant en vrai on est juste derrière Free mes n en cellules gros Va faire pire que le 6 gros Vrai de vrai pas de film gros Vrai de vrai pas de bitch gros Pas de snitch gros, que du real gros Que du drip drip full au studio Pas de mytho Yeah Yoh Jfais chauffer la salle comme ma tise gros Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler You might also like Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
+          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler You might also like Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
+          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé jaugmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos Jai plus le temps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'est plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qujles déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, cest normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit dEspagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' You might also like Et rajoute d'la tise, j'suis en plein dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a zoom a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en leu mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
+          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé jaugmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos Jai plus le temps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'est plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qujles déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, cest normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit dEspagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' Et rajoute d'la tise, j'suis en plein dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a zoom a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en leu mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé j'augmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos J'ai plus le tmps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'st plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qu'j'les déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, c'est normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit d'Espagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' You might also like Et rajoute d'la tise, j'suis en dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
+          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé j'augmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos J'ai plus le tmps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'st plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qu'j'les déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, c'est normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit d'Espagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' Et rajoute d'la tise, j'suis en dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ouh-ouh C'est fort, Joco C'est Coco Jojo ouais Nga Coco ouais Jojo han, han, han Han-han, han-han, han-han Hermès me va si bien ah, ah Cortège la folie, c'est moi qui viens han, han Tant qu'on y est, reste aux Champs Ely' magnifique Partout où on passe, c'est la follie c'est fort Jojo stylé comme Fally Tokoos Mon mannequin vient de Napoli d'Italie Parait Kinshasa me connait Paris c'est Bandal Okay Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau You might also like Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Aigle Allô, appelle-moi, bébé, quand tu veux c'est bon Nako trouver solution na ba problèmes na ba problèmes ya vie na yo Je suis comme ton ange gardien, je serai toujours là, là han Laisse tomber les faibles, ici il y a des sukali à gogo Quand je débarque, les gars, y a solution trop de charismes La foule acclame, Aigle silisa mpiaka Aigle Mwana Congo, trop d'avance Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han</t>
+          <t>Ouh-ouh C'est fort, Joco C'est Coco Jojo ouais Nga Coco ouais Jojo han, han, han Han-han, han-han, han-han Hermès me va si bien ah, ah Cortège la folie, c'est moi qui viens han, han Tant qu'on y est, reste aux Champs Ely' magnifique Partout où on passe, c'est la follie c'est fort Jojo stylé comme Fally Tokoos Mon mannequin vient de Napoli d'Italie Parait Kinshasa me connait Paris c'est Bandal Okay Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Aigle Allô, appelle-moi, bébé, quand tu veux c'est bon Nako trouver solution na ba problèmes na ba problèmes ya vie na yo Je suis comme ton ange gardien, je serai toujours là, là han Laisse tomber les faibles, ici il y a des sukali à gogo Quand je débarque, les gars, y a solution trop de charismes La foule acclame, Aigle silisa mpiaka Aigle Mwana Congo, trop d'avance Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ah-ah Papito charme, on ramène ladrogue, le cash et les armes Na-Na-Narcos Bou-bou-bou Hadouken Ah-ah-ah-ah, ah-ah, ah-ah-ah Brah Deux ans après, j'finis et j'ai Maison Château Maison Château, remontada, tout l'monde me dis Chapeau Y a pas qu'les bitchies qu'on comportement des Shattas Hum, hum, à dix, on champagne, on s'enfuit pas, pas d'El Chapo Bouh, pah Sa-sa-savages sont mes loups garou Savages sont mes loups ga', nous, c'est seven, cinco, zéro, dix-huit Zéro, dix-huit Jeunesse dorée, ticket gagnant, ah ouh, ah ouh, les p'tits de treize ans t'visser sur un Piwi Piwi Et si ça t'suffit pas, c'est sûremnt sans doutes qu't'as besoin d'nous voir Quoi ? On attends prsonne pour nous dire quoi faire, c'est ça le pouvoir Pah Jaloux parlent, ça m'dérange pas, dans tous les cas, c'est pas moi qui bave Pah, pah C'est pas moi qui rêve d'être dans mon Van Pah, c'est pas moi qu'est en chien, qui tombe en panne Pff J'pète une cigarette 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, ah-ah-ah You might also like Et si on t'aide, on attends rien en retour, pas b'soin d'big up Boh J'suis comme Tommy des Peaky, quand j'les cherche, je marche, j'ai pas b'soin Pick Up Boh Y a pas d'lean mais plutôt, du Hennessy au fond du red cup Buh Eh, oh, ma poule, j'me roule un dernier stick pendant qu'elle m'astique, eh Qu'ils ferment tous leurs bouches, si j'm'énèrve, j'dégaine tout d'suite l'automatique Brr J'suis sûr de tout baisé Pah, face à moi, tu sais très bien qu't'as la côte à dix, j'suis sûr de tout baisé Face à moi, tu sais très bien qu'c'est comme mes fils Comme mes p'tits frères Toujours autant savoureux de voir le coffre rempli d'gents-ar, liquides Buh, 2Pac J'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac Jus-Just me and my girlfriend</t>
+          <t>Ah-ah Papito charme, on ramène ladrogue, le cash et les armes Na-Na-Narcos Bou-bou-bou Hadouken Ah-ah-ah-ah, ah-ah, ah-ah-ah Brah Deux ans après, j'finis et j'ai Maison Château Maison Château, remontada, tout l'monde me dis Chapeau Y a pas qu'les bitchies qu'on comportement des Shattas Hum, hum, à dix, on champagne, on s'enfuit pas, pas d'El Chapo Bouh, pah Sa-sa-savages sont mes loups garou Savages sont mes loups ga', nous, c'est seven, cinco, zéro, dix-huit Zéro, dix-huit Jeunesse dorée, ticket gagnant, ah ouh, ah ouh, les p'tits de treize ans t'visser sur un Piwi Piwi Et si ça t'suffit pas, c'est sûremnt sans doutes qu't'as besoin d'nous voir Quoi ? On attends prsonne pour nous dire quoi faire, c'est ça le pouvoir Pah Jaloux parlent, ça m'dérange pas, dans tous les cas, c'est pas moi qui bave Pah, pah C'est pas moi qui rêve d'être dans mon Van Pah, c'est pas moi qu'est en chien, qui tombe en panne Pff J'pète une cigarette 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, ah-ah-ah Et si on t'aide, on attends rien en retour, pas b'soin d'big up Boh J'suis comme Tommy des Peaky, quand j'les cherche, je marche, j'ai pas b'soin Pick Up Boh Y a pas d'lean mais plutôt, du Hennessy au fond du red cup Buh Eh, oh, ma poule, j'me roule un dernier stick pendant qu'elle m'astique, eh Qu'ils ferment tous leurs bouches, si j'm'énèrve, j'dégaine tout d'suite l'automatique Brr J'suis sûr de tout baisé Pah, face à moi, tu sais très bien qu't'as la côte à dix, j'suis sûr de tout baisé Face à moi, tu sais très bien qu'c'est comme mes fils Comme mes p'tits frères Toujours autant savoureux de voir le coffre rempli d'gents-ar, liquides Buh, 2Pac J'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac Jus-Just me and my girlfriend</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Jsuis dans le bloc gros cest carré on est toujours pépère Parle pas de rue sale enfoiré on soccupe qu des frères Cherch pas à connaître ta vie negro mêle toi de tes affaires B-Mafia empire sans dièse pour toi je vais me refaire Beaucoup mon cherla, beaucoup mon cherla Paraît-il que moi je suis créatif et quma réussite est là Junguily tuka ouais ouais ouais La rue ce nest pas un jouet, jouet, jouet Chicanos, chicanos, chicanos Il cherche toujours à nous cracher dessus Au lieu de kiffer la life, chaque jours des gens moi jsuis toujours déçu La chance je lai commandé mon negro mais je lai toujours pas reçu On déboule en cagoule tout le monde se chie dessus Ça parle, ça parle on met des coups de massue Lady dit moi quelle est ton jeu Je te dirais si je veux jouer Cesse découter tous les rageux Tu verras quon sera soudé Je pense à tous mes frères écroué Pour eux je vais casser la baraque Je te cache pas on va te trouver Jusquà monter dans ta baraque You might also like Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Verre de vodka pour mes gava tu connais Niggas of paris cest clair et certifié Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-me Ma lady, ma lady, ma lady mélodie Ma lady, ma lady, ma lady mélodie Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament</t>
+          <t>Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Jsuis dans le bloc gros cest carré on est toujours pépère Parle pas de rue sale enfoiré on soccupe qu des frères Cherch pas à connaître ta vie negro mêle toi de tes affaires B-Mafia empire sans dièse pour toi je vais me refaire Beaucoup mon cherla, beaucoup mon cherla Paraît-il que moi je suis créatif et quma réussite est là Junguily tuka ouais ouais ouais La rue ce nest pas un jouet, jouet, jouet Chicanos, chicanos, chicanos Il cherche toujours à nous cracher dessus Au lieu de kiffer la life, chaque jours des gens moi jsuis toujours déçu La chance je lai commandé mon negro mais je lai toujours pas reçu On déboule en cagoule tout le monde se chie dessus Ça parle, ça parle on met des coups de massue Lady dit moi quelle est ton jeu Je te dirais si je veux jouer Cesse découter tous les rageux Tu verras quon sera soudé Je pense à tous mes frères écroué Pour eux je vais casser la baraque Je te cache pas on va te trouver Jusquà monter dans ta baraque Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Verre de vodka pour mes gava tu connais Niggas of paris cest clair et certifié Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-me Ma lady, ma lady, ma lady mélodie Ma lady, ma lady, ma lady mélodie Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Intro Jungle Jungle Guy2Bezbar C'est vrai ou pas ? C'est vrai ou pas ? Tu me cherche ? C'est vrai ou pas ? Haha Guy2, Guy2, Jungle Aaaah Couplet unique Simple et efficace, dans la rue négro, il faut pas fauter Jungle et 2k, maintenant qu'il y a haja, lesquels vont rester ? J'ai vu j'ai vécu, non j'fais pas l'ancien mais j'peux te raconter Vécu de PQ, j'raconte pas la suite ça va dégoûter Mais bande de p'tits PD, non vous m'avez lâcher Mon son donne la nausée, et à d'autre l'envie de kalasher J'ai jamais sucé de bite pour avoir du buzz, malgré j'suis fauché Sortez de vos blocs, j'suis venu entendre, parait que vous êtes caché B-Mafia Empire, tu peux pas trahir pour toi elle a compté Crois moi qu'on va agir on bosse comme des chinois et l'argent va rentrer Guy2Bezbar, il touche pas trop les 'tasses sont rap est trop vulgaire J'suis écouté de tout-par dans tout les tiers-quar et cités trop vénère C'est du rap de te-te-tess, message aux vrais négros Les vrais reconnai-nai-naissent, ceux qui racontent du mytho J'suis frais comme un prince, si c'est pas le cas, faudra pas forcer Les keufs te mettent des pinces, m'a dit l'OPJ faudra pas merder Les voyous de ma ville ont tous des problème, casse pas les ille-cou Mais ça part en vrille restez tous chez vous, vous risquez plein les coups Des coups et encore des coups, ce son c'est pas pour vous C'est quand qu'elle tourne la roue ? Tout le monde qui rit sur nous J'm'en bat les ille-cou tant que pète la forme mes re-frè au trou Lucarne dans ta mère, doublé dans ta race qu'est-ce tu m'parles de Giroud A JungiliSquad, tu trouves des chatons quand tu trouves des loups Le vrai des bonhommes c'est celui qui agit et qui fait moins le fou Bande de grosses salopes, je sors de l'ombre, j'viens pas du sixième Comment te le dire ? J'vais niquer ta race ton frère sera le deuxième J'pète mon Jack Daniels pas pour mon anniv' mais plûtot pour mes soucis Comment te le dire quand j'veux tout baisé quand je pense au monde d'Afrique Mais bande de p'tits PD, suceurs de grosses saucisses J'suis là ça sent le roussi et Abou est là aussi Tu sors un brolique, je sors le fusil veux-tu toujours jouer ? J'suis avec chicanos, équipe de chocs et ça va pas changer Bizarrement mon frère, quand c'est la de-mer il n'y a pas de grand frère Ici la vie coûte cher faut tous les faire taire et pas se laisser faire Je compte sur personne à part moi-même Je compte sur personne à part moi-même Je compte sur personne à part moi-même A part moi-même Ouais ouais Je compte sur personne à part moi-même A part moi-même Je compte sur personne à part moi-même Ouais ouaisYou might also like</t>
+          <t>Intro Jungle Jungle Guy2Bezbar C'est vrai ou pas ? C'est vrai ou pas ? Tu me cherche ? C'est vrai ou pas ? Haha Guy2, Guy2, Jungle Aaaah Couplet unique Simple et efficace, dans la rue négro, il faut pas fauter Jungle et 2k, maintenant qu'il y a haja, lesquels vont rester ? J'ai vu j'ai vécu, non j'fais pas l'ancien mais j'peux te raconter Vécu de PQ, j'raconte pas la suite ça va dégoûter Mais bande de p'tits PD, non vous m'avez lâcher Mon son donne la nausée, et à d'autre l'envie de kalasher J'ai jamais sucé de bite pour avoir du buzz, malgré j'suis fauché Sortez de vos blocs, j'suis venu entendre, parait que vous êtes caché B-Mafia Empire, tu peux pas trahir pour toi elle a compté Crois moi qu'on va agir on bosse comme des chinois et l'argent va rentrer Guy2Bezbar, il touche pas trop les 'tasses sont rap est trop vulgaire J'suis écouté de tout-par dans tout les tiers-quar et cités trop vénère C'est du rap de te-te-tess, message aux vrais négros Les vrais reconnai-nai-naissent, ceux qui racontent du mytho J'suis frais comme un prince, si c'est pas le cas, faudra pas forcer Les keufs te mettent des pinces, m'a dit l'OPJ faudra pas merder Les voyous de ma ville ont tous des problème, casse pas les ille-cou Mais ça part en vrille restez tous chez vous, vous risquez plein les coups Des coups et encore des coups, ce son c'est pas pour vous C'est quand qu'elle tourne la roue ? Tout le monde qui rit sur nous J'm'en bat les ille-cou tant que pète la forme mes re-frè au trou Lucarne dans ta mère, doublé dans ta race qu'est-ce tu m'parles de Giroud A JungiliSquad, tu trouves des chatons quand tu trouves des loups Le vrai des bonhommes c'est celui qui agit et qui fait moins le fou Bande de grosses salopes, je sors de l'ombre, j'viens pas du sixième Comment te le dire ? J'vais niquer ta race ton frère sera le deuxième J'pète mon Jack Daniels pas pour mon anniv' mais plûtot pour mes soucis Comment te le dire quand j'veux tout baisé quand je pense au monde d'Afrique Mais bande de p'tits PD, suceurs de grosses saucisses J'suis là ça sent le roussi et Abou est là aussi Tu sors un brolique, je sors le fusil veux-tu toujours jouer ? J'suis avec chicanos, équipe de chocs et ça va pas changer Bizarrement mon frère, quand c'est la de-mer il n'y a pas de grand frère Ici la vie coûte cher faut tous les faire taire et pas se laisser faire Je compte sur personne à part moi-même Je compte sur personne à part moi-même Je compte sur personne à part moi-même A part moi-même Ouais ouais Je compte sur personne à part moi-même A part moi-même Je compte sur personne à part moi-même Ouais ouais</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ouh Ah, ah, ah, ah My nigga Coco Jojo, ah, ah, ah, ah Ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien pa-paw, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien grrah, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins ouh, ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah J'atterris direct dans sa pussy j'atterris dirct dans sa pussy, han J'appelle direct, ça snt le roussi j'appelle direct, ça sent le brr Tous les négros comme nous investissent envoie des cachets, envoie des cachets, han Ouvre la sacoche remplie d'N26 fais-le, pouah You might also like Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet brr, on est clean sheet Si tu donnes ça bien ouais, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien paw, tu restes jusqu'au matin brr Si tu donnes ça bien, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue regarde comment ça flingue, c'est fort, oh Regarde comment ça flingue brrah, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah Envoie des cassettes, envoie des cassettes, envoie des cassettes coupe à la machette J't'envoie ton G7 pah, j't'envoie ton G7, j't'envoie ton G7 appuie sur la gâchette, pah Petit trajet pour un paquet d'argent ouh, moteur allemand, c'est nous les méchants yah, yah Oh, vas-y, répète, oh, vas-y, répète, la calle, c'est fort, c'est fort ouh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet, on est clean sheet ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien c'est Coco Jojo, Coco Jojo R9, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok Bye Havana, regarde comment ça flingue1</t>
+          <t>Ouh Ah, ah, ah, ah My nigga Coco Jojo, ah, ah, ah, ah Ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien pa-paw, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien grrah, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins ouh, ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah J'atterris direct dans sa pussy j'atterris dirct dans sa pussy, han J'appelle direct, ça snt le roussi j'appelle direct, ça sent le brr Tous les négros comme nous investissent envoie des cachets, envoie des cachets, han Ouvre la sacoche remplie d'N26 fais-le, pouah Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet brr, on est clean sheet Si tu donnes ça bien ouais, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien paw, tu restes jusqu'au matin brr Si tu donnes ça bien, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue regarde comment ça flingue, c'est fort, oh Regarde comment ça flingue brrah, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah Envoie des cassettes, envoie des cassettes, envoie des cassettes coupe à la machette J't'envoie ton G7 pah, j't'envoie ton G7, j't'envoie ton G7 appuie sur la gâchette, pah Petit trajet pour un paquet d'argent ouh, moteur allemand, c'est nous les méchants yah, yah Oh, vas-y, répète, oh, vas-y, répète, la calle, c'est fort, c'est fort ouh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet, on est clean sheet ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien c'est Coco Jojo, Coco Jojo R9, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok Bye Havana, regarde comment ça flingue1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Hello Richie Oh my God Po-po-po-po-po-po-poh Tu sais qu'on fait l'nécessaire 'saire, y a les fakes et y a les gens sincères 'cères On protège nos surs Surs et les p'tits frères qui veulent faire comme nous Nous Grandi dans le Nord de ris-Pa Nord, dans les rixes, dans les Ça vient d'où là ? Ça vient d'où là ? C'est pire que j'pensais, j'sais même plus sur quel pied danser No C'est pas facile mais les choses se font dans la grâce de Dieu Pas facile Sauve qui peut, aucune adré' quand je tire sur eux Tou-tou-touh, tou-tou-touh Un tas, ils ont fait tout pour eux Tout, il en faut peu pour être heureux Eh, eh, eh, eh, eh Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-po-poh Mmh-mmh, mmh-mmh, mmh-mmh You might also like Celui qui m'test, je le té-ma, j'allume pas le mortier On va tout wa-tcha-tcha-tcha-tcha M'regardent différemment depuis qu'j'ai l'accès chez Cartier Eh J'vais te rouler d'ssus déjà, t'es pas d'mon quartier Nan Et prends les bonnes décisions car ça pourra t'suivre tout au long d'ta vie On demande la permission, dans sa tte-ch', j'fais en sorte que goûte mon avis Des bâtons dans les roues Han, t'en auras toujours tant qu'il y aura du seille-o Po-po-po-po-po-poh, te laisses pas distraire par une biatch au tel-hô Han-han, han-han, han-han, n'écoutes pas les autres, prends ta direction très vite Han-han, han-han, han-han, si tu peux rester, vite, penses à ta vie Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-poh</t>
+          <t>Hello Richie Oh my God Po-po-po-po-po-po-poh Tu sais qu'on fait l'nécessaire 'saire, y a les fakes et y a les gens sincères 'cères On protège nos surs Surs et les p'tits frères qui veulent faire comme nous Nous Grandi dans le Nord de ris-Pa Nord, dans les rixes, dans les Ça vient d'où là ? Ça vient d'où là ? C'est pire que j'pensais, j'sais même plus sur quel pied danser No C'est pas facile mais les choses se font dans la grâce de Dieu Pas facile Sauve qui peut, aucune adré' quand je tire sur eux Tou-tou-touh, tou-tou-touh Un tas, ils ont fait tout pour eux Tout, il en faut peu pour être heureux Eh, eh, eh, eh, eh Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-po-poh Mmh-mmh, mmh-mmh, mmh-mmh Celui qui m'test, je le té-ma, j'allume pas le mortier On va tout wa-tcha-tcha-tcha-tcha M'regardent différemment depuis qu'j'ai l'accès chez Cartier Eh J'vais te rouler d'ssus déjà, t'es pas d'mon quartier Nan Et prends les bonnes décisions car ça pourra t'suivre tout au long d'ta vie On demande la permission, dans sa tte-ch', j'fais en sorte que goûte mon avis Des bâtons dans les roues Han, t'en auras toujours tant qu'il y aura du seille-o Po-po-po-po-po-poh, te laisses pas distraire par une biatch au tel-hô Han-han, han-han, han-han, n'écoutes pas les autres, prends ta direction très vite Han-han, han-han, han-han, si tu peux rester, vite, penses à ta vie Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-poh</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks C'est fort Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort You might also like Bébé na bébé, j'ai pas de temps devant moi Y a trop d'euros qui m'attendent Faut palper les billets comme Franklin Circulez Fort Des fois j'suis bipolaire, à gauche, à droite comme Dembélé Faut pas m'en vouloir si j'suis populaire, ah dégâts, dégâts Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Ça graille, c'est Bezbar, on dégaine les casques Arai On cherche et t'inquiète on trouve la maille Frappe demi-volée, on fait ça comme Zizou, pas là pour rigoler Poh 243 comme Wissa et Chancel Djodjo On est présent, quand c'est chaud dans la calle Écoute bien, on s'en fout que vous nous croyez ou pas C'est par-balles, on parle pas, tu vois ou pas Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks Junior Alaprod zanmi</t>
+          <t>N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks C'est fort Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Bébé na bébé, j'ai pas de temps devant moi Y a trop d'euros qui m'attendent Faut palper les billets comme Franklin Circulez Fort Des fois j'suis bipolaire, à gauche, à droite comme Dembélé Faut pas m'en vouloir si j'suis populaire, ah dégâts, dégâts Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Ça graille, c'est Bezbar, on dégaine les casques Arai On cherche et t'inquiète on trouve la maille Frappe demi-volée, on fait ça comme Zizou, pas là pour rigoler Poh 243 comme Wissa et Chancel Djodjo On est présent, quand c'est chaud dans la calle Écoute bien, on s'en fout que vous nous croyez ou pas C'est par-balles, on parle pas, tu vois ou pas Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks Junior Alaprod zanmi</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bellek track C'est fort ! On va r'mettre tout en place, mes négros, toujours frais, toujours en place J'enlève ma Moncler, j'me mets prêt du chauffage direct au fond de la classe, direct au fond de la classe hein C.O.C.O Jojo, ouais Va faire un tour dans le parking, tu verras qu'il est beau mon classe A Faire du shopping, c'est mon passe-temps On rafale direct, j'ai plus 15 ans Dans le carré VIP, tu sais qu'on s'installe Mon cur est vide, tu sais bébé Bébé, bébé Donc, on évite de fréquentr tous les humains entêtés 'têté, 'têté Favé papito charme, c'st pour toutes les caillées, caillées, et faudra s'apprêter J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup You might also like Tu peux l'faire aujourd'hui, tu l'remets à demain T'es un flemmard, négro, t'as des sous à perdre J'peux compter sur mes frères, compter sur mes deux mains J'sais qu'au moins ceux-là me laisseront pas à terre J'veux que ta baby m'attrape en sortant d'la te-boî Que j'lui montre un peu tout ce que Favé sait faire J'accélère, faut appuyer ce fer, quand on peut faut appuyer ses frères J'connais ces filles, j'connais les vices J'connais les G, j'connais les risques J'veux du Gucci, pas du Levis Les pe-ssa japprécie, que-mar en plus J'suis dans les sommes, les bénéfices Moi j'suis quun homme, gros, j'ai des fils Un peu focus, sommet je vise Négro, j'veux que ça, billet en plus J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies</t>
+          <t>Bellek track C'est fort ! On va r'mettre tout en place, mes négros, toujours frais, toujours en place J'enlève ma Moncler, j'me mets prêt du chauffage direct au fond de la classe, direct au fond de la classe hein C.O.C.O Jojo, ouais Va faire un tour dans le parking, tu verras qu'il est beau mon classe A Faire du shopping, c'est mon passe-temps On rafale direct, j'ai plus 15 ans Dans le carré VIP, tu sais qu'on s'installe Mon cur est vide, tu sais bébé Bébé, bébé Donc, on évite de fréquentr tous les humains entêtés 'têté, 'têté Favé papito charme, c'st pour toutes les caillées, caillées, et faudra s'apprêter J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Tu peux l'faire aujourd'hui, tu l'remets à demain T'es un flemmard, négro, t'as des sous à perdre J'peux compter sur mes frères, compter sur mes deux mains J'sais qu'au moins ceux-là me laisseront pas à terre J'veux que ta baby m'attrape en sortant d'la te-boî Que j'lui montre un peu tout ce que Favé sait faire J'accélère, faut appuyer ce fer, quand on peut faut appuyer ses frères J'connais ces filles, j'connais les vices J'connais les G, j'connais les risques J'veux du Gucci, pas du Levis Les pe-ssa japprécie, que-mar en plus J'suis dans les sommes, les bénéfices Moi j'suis quun homme, gros, j'ai des fils Un peu focus, sommet je vise Négro, j'veux que ça, billet en plus J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Woh, woh, ola C'est Coco Jojo Depitcho R9, mon gars C'est Coco Jojo, ah C'est fort, c'est fort, ouh DJ Babs Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel essentiel Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay 'sace, minimum trois bocks, d'la money, Netflix, quatre pattes Coco Jojo, tu vas plus en boîte mais Bebeto tourne en Pack 4 combo G2B tu tue ça, neuf balles, fifty, typé M, Kiki, ça c'est notre kiff, ça diki, diki, diki Tranquille, tu veux mon kiki ici, y a que des dicksa tu lahsa, casse-toi Ici, les flics, ici, les flics savent que la caille réplique on fire Mec on t'explique, c'est du plastique, on en veut pas d'tes piques que du no-fake, que du real, mec Briques, y a peut-être quinze mille, cest peut-être cinquante ou peut-être deux mille, petit imbécile ah, ah You might also like J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, j'allume comme Lucky woh, woh Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel c'est essentiel, ouh Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay Dikidi, dikidi, dikidi Diki, dikidi, dikidi, dikidi Dikidi, dikidi, dikidi, eh C'est DJ Babs et le Coco Jojo Dikidi, dikidi, dikidi, grr, paw Dikidi, dikidi, dikidi, ah, ah</t>
+          <t>Woh, woh, ola C'est Coco Jojo Depitcho R9, mon gars C'est Coco Jojo, ah C'est fort, c'est fort, ouh DJ Babs Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel essentiel Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay 'sace, minimum trois bocks, d'la money, Netflix, quatre pattes Coco Jojo, tu vas plus en boîte mais Bebeto tourne en Pack 4 combo G2B tu tue ça, neuf balles, fifty, typé M, Kiki, ça c'est notre kiff, ça diki, diki, diki Tranquille, tu veux mon kiki ici, y a que des dicksa tu lahsa, casse-toi Ici, les flics, ici, les flics savent que la caille réplique on fire Mec on t'explique, c'est du plastique, on en veut pas d'tes piques que du no-fake, que du real, mec Briques, y a peut-être quinze mille, cest peut-être cinquante ou peut-être deux mille, petit imbécile ah, ah J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, j'allume comme Lucky woh, woh Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel c'est essentiel, ouh Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay Dikidi, dikidi, dikidi Diki, dikidi, dikidi, dikidi Dikidi, dikidi, dikidi, eh C'est DJ Babs et le Coco Jojo Dikidi, dikidi, dikidi, grr, paw Dikidi, dikidi, dikidi, ah, ah</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Il y a un plavon, j'y vais, je le fais jcours, j'cours, j'cours, jcours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets Y a intérêt qu'on finisse R-O-I-S On va faire ça propre, t'as la finesse Tequila Bentley, état d'ivresse On est tous calme, mais ça roule en vitesse Fais la foule, vla quest le Jaguar dragon, dragon C'est plus la même cadence, tu vois très bin quon a plus rien à voir Qu'on a plus rien à avoir skeu, sku, skeu Y a trop de gars, on dirait c'est pas équilibré Et en vrai, on s'en balec, plus rien à perdre, on est calibré J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro C'est fort eh, prrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets You might also like Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets On fait du fric, on est gang, on est célèbre, célèbre Y a que mes bro dans le fer y a que mes kho dans le Bentley C'est nous les boss dans le terre, terre Les princes d'la calle, les princes d'la calle On en a plus rien à faire, on fait nos affaires été comme hiver, hiver Tous ceux qui m'aiment pas sont par terre rien qu'ils sont tous éteints, c'est dur L'gang il est vrai, zéro fake OTF, only the flingueurs, only the family Toujours un métal sous le Nike Tech J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro Eh, prrrrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets</t>
+          <t>Il y a un plavon, j'y vais, je le fais jcours, j'cours, j'cours, jcours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets Y a intérêt qu'on finisse R-O-I-S On va faire ça propre, t'as la finesse Tequila Bentley, état d'ivresse On est tous calme, mais ça roule en vitesse Fais la foule, vla quest le Jaguar dragon, dragon C'est plus la même cadence, tu vois très bin quon a plus rien à voir Qu'on a plus rien à avoir skeu, sku, skeu Y a trop de gars, on dirait c'est pas équilibré Et en vrai, on s'en balec, plus rien à perdre, on est calibré J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro C'est fort eh, prrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets On fait du fric, on est gang, on est célèbre, célèbre Y a que mes bro dans le fer y a que mes kho dans le Bentley C'est nous les boss dans le terre, terre Les princes d'la calle, les princes d'la calle On en a plus rien à faire, on fait nos affaires été comme hiver, hiver Tous ceux qui m'aiment pas sont par terre rien qu'ils sont tous éteints, c'est dur L'gang il est vrai, zéro fake OTF, only the flingueurs, only the family Toujours un métal sous le Nike Tech J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro Eh, prrrrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Han-han-han-han, han-han-han-han Junior Alaprod, zanmi Han-han-han-han, han-han-han-han Nardey, c'est chaud, ça, ah-ah Han-han-han-han, han-han-han-han-han Han-han-han-han Jojo, han-han-han-han-han-han-han Ocho Han-han-han-han Ambition, han-han-han-han American Express, comme Air Force, ça passe partout J'fly, j'm'endors dans l'classe Business pendant qu'ils parlent encore de nous Rah D'vant le hanout sans stress, carte ou espèce, c'est moi l'patron La force, j't'la donne si t'es mon boug, on mendie pas un partage Dis-moi, dis-moi, dis-moi si j'sors guitare ou j'prends sur moi ? Quelques billets dans Rimowa Grr, j'distribue comme Robin des Bois Attends, dis-moi, dis-moi, dis-moi si t'as besoin, j'parle pas chinois J'pars de chez moi, j'descends chez eux, gros, maintenant, chez eux, c'est chez moi Ils ont pas un, c'est des menteurs, le pire, c'est qu'on les connaît C'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Ouh, ouh, ouh, ouh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse You might also like Fin fond dans la caisse, pose tes fesses, bisous partout J'suis là pour embellir ta vie, j'suis pas tes ex en carton Eh-eh Envoie-moi ton adresse, j't'emmène loin et sans tabou Tu mérite mieux qu'ces mythos qui s'inventent des vies de voyous Dis-moi, dis-moi, dis-moi mon bébé si tu penses à moi ? J't'envoie un virement, prends sac-à-main, vingt-deux carats, donne-moi ta main, hey Mais dis-moi, dis-moi, dis-moi, j'ai pas l'air de parler chinois J'te rassure avec un calîn, j'veux tout tout d'suite et pas demain À deux cents-vingts, guette le compteur Guette le compteur, j'aime la vitesse, tu m'connais On m'mets sur l'côté mais pas d'sanction car le condé m'reconnaît À deux cents-vingts, guette le compteur Compteur, j'ai un faible pour le Cognac Ah-ah Dis-leur SD', bolide allemand, j'ai comme l'impression d'm'envoler Ils ont pas un, c'est des menteurs Putain, le pire, c'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs C'est des mythos, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Poh, poh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Okay Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Ambition Han-han-han-han-han-han Ah-ah-ah-ah, ah-ah-ah-ah</t>
+          <t>Han-han-han-han, han-han-han-han Junior Alaprod, zanmi Han-han-han-han, han-han-han-han Nardey, c'est chaud, ça, ah-ah Han-han-han-han, han-han-han-han-han Han-han-han-han Jojo, han-han-han-han-han-han-han Ocho Han-han-han-han Ambition, han-han-han-han American Express, comme Air Force, ça passe partout J'fly, j'm'endors dans l'classe Business pendant qu'ils parlent encore de nous Rah D'vant le hanout sans stress, carte ou espèce, c'est moi l'patron La force, j't'la donne si t'es mon boug, on mendie pas un partage Dis-moi, dis-moi, dis-moi si j'sors guitare ou j'prends sur moi ? Quelques billets dans Rimowa Grr, j'distribue comme Robin des Bois Attends, dis-moi, dis-moi, dis-moi si t'as besoin, j'parle pas chinois J'pars de chez moi, j'descends chez eux, gros, maintenant, chez eux, c'est chez moi Ils ont pas un, c'est des menteurs, le pire, c'est qu'on les connaît C'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Ouh, ouh, ouh, ouh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Fin fond dans la caisse, pose tes fesses, bisous partout J'suis là pour embellir ta vie, j'suis pas tes ex en carton Eh-eh Envoie-moi ton adresse, j't'emmène loin et sans tabou Tu mérite mieux qu'ces mythos qui s'inventent des vies de voyous Dis-moi, dis-moi, dis-moi mon bébé si tu penses à moi ? J't'envoie un virement, prends sac-à-main, vingt-deux carats, donne-moi ta main, hey Mais dis-moi, dis-moi, dis-moi, j'ai pas l'air de parler chinois J'te rassure avec un calîn, j'veux tout tout d'suite et pas demain À deux cents-vingts, guette le compteur Guette le compteur, j'aime la vitesse, tu m'connais On m'mets sur l'côté mais pas d'sanction car le condé m'reconnaît À deux cents-vingts, guette le compteur Compteur, j'ai un faible pour le Cognac Ah-ah Dis-leur SD', bolide allemand, j'ai comme l'impression d'm'envoler Ils ont pas un, c'est des menteurs Putain, le pire, c'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs C'est des mythos, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Poh, poh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Okay Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Ambition Han-han-han-han-han-han Ah-ah-ah-ah, ah-ah-ah-ah</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Zone six, smoke crescendo Bellek Track C'est fort J't'ai dit C'est chaud, coño Ah bon ?, j'y vais molo, crescendo Belle doudoune quand il fait pas beau, j'suis seul dans mon mal, frérot Frérot Au fond, tu sais, j'suis pas paro Quoi ? Ça fonce à l'épice' en piwi En piwi Dans le Range, j'écoute du Peewee Du Peewee Discret comme Ace dans Paid In On-on arrive en 4x4, elles finissent à quatre pattes J'ai pété la Black Card Aye, aye, aye, impossible qu'elle passe as-p Skuh J'suis trop dedans Dedans, c'est embêtant 'bêtant J'dois péter une sécu' en béton Ils disent qu'ils me cherchent, ils savent bien où j'habite J'habite là au bâtiment d'à coté, ça bute Elle s'accroche à mon stup', elle s'accroche à mon fut' J'me réveille le matin, j'en veux plus Ils veulent leur dose, ils veulent leur dose, ils m'prennent pour Pablo Escobar Let's go J'suis qu'un escroc, j'suis qu'un escroc Three, j'prends le cash et j'me barre J'viens d'Bezbar et j'rappe avec la barre All of J'écoute nos rivaux, j'me tape des barres Des barres J'écris mes textes dans l'square Dans l'square Look at my racks, ma squad, squad You might also like Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit, hey Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west Tout-tout pour l'dix-huit, j'ai une guitare qui chante Un conseil que j'te donne il faut pas que j'me gante MP40, un chargeur plus de trente Serein dans la ville, gros, c'est moi Lucas Frank Ils m'donnent la force à mon courage Pour l'rap, c'est du bonus, moi, j'suis concentré dans ma trap J'quadrille ma zone, ma gueule, rien ne m'échappe T'as de quoi m'refaire, j't'attacherai comme un shlague Pi-pi-pi-pi-pi Fuck le bendo, j'suis dans l'trap Cuisine le crack comme un super chef Oui J'sors de Bezbar, j'suis pas une star Tout ce succès leur monte à la tête Ah-ah, binks, bordel, j'suis dans l'périmètre SD, piwi, j'suis trop gang, gang Sur ces putas, j'vais faire bang, bang Que du seille-o, que du seille-o, que du seille-o, que du seille-o J'vends la mayo, tout est cello', qui est quoi ? Hum, hum On est règlo' Han-han, Coco Jojo, c'est le neuf comme Anelka On remonte de Rotter', j'ai tout en GLK On passe les rapports, ça pète, pa-pa-pa-pa-pa-pah Allô ? Maman, j'pense à toi de fou malade Quand j'regarde le ciel, j'pense à toi, toutes les balafres J'me sens comme Mitch pendant qu'on s'tape la balade Les dix-huit, les flingueurs qui vous passent le Salam Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west C'est Coco Jojo, Jojo Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou Han-han Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou Grr, paw</t>
+          <t>Zone six, smoke crescendo Bellek Track C'est fort J't'ai dit C'est chaud, coño Ah bon ?, j'y vais molo, crescendo Belle doudoune quand il fait pas beau, j'suis seul dans mon mal, frérot Frérot Au fond, tu sais, j'suis pas paro Quoi ? Ça fonce à l'épice' en piwi En piwi Dans le Range, j'écoute du Peewee Du Peewee Discret comme Ace dans Paid In On-on arrive en 4x4, elles finissent à quatre pattes J'ai pété la Black Card Aye, aye, aye, impossible qu'elle passe as-p Skuh J'suis trop dedans Dedans, c'est embêtant 'bêtant J'dois péter une sécu' en béton Ils disent qu'ils me cherchent, ils savent bien où j'habite J'habite là au bâtiment d'à coté, ça bute Elle s'accroche à mon stup', elle s'accroche à mon fut' J'me réveille le matin, j'en veux plus Ils veulent leur dose, ils veulent leur dose, ils m'prennent pour Pablo Escobar Let's go J'suis qu'un escroc, j'suis qu'un escroc Three, j'prends le cash et j'me barre J'viens d'Bezbar et j'rappe avec la barre All of J'écoute nos rivaux, j'me tape des barres Des barres J'écris mes textes dans l'square Dans l'square Look at my racks, ma squad, squad Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit, hey Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west Tout-tout pour l'dix-huit, j'ai une guitare qui chante Un conseil que j'te donne il faut pas que j'me gante MP40, un chargeur plus de trente Serein dans la ville, gros, c'est moi Lucas Frank Ils m'donnent la force à mon courage Pour l'rap, c'est du bonus, moi, j'suis concentré dans ma trap J'quadrille ma zone, ma gueule, rien ne m'échappe T'as de quoi m'refaire, j't'attacherai comme un shlague Pi-pi-pi-pi-pi Fuck le bendo, j'suis dans l'trap Cuisine le crack comme un super chef Oui J'sors de Bezbar, j'suis pas une star Tout ce succès leur monte à la tête Ah-ah, binks, bordel, j'suis dans l'périmètre SD, piwi, j'suis trop gang, gang Sur ces putas, j'vais faire bang, bang Que du seille-o, que du seille-o, que du seille-o, que du seille-o J'vends la mayo, tout est cello', qui est quoi ? Hum, hum On est règlo' Han-han, Coco Jojo, c'est le neuf comme Anelka On remonte de Rotter', j'ai tout en GLK On passe les rapports, ça pète, pa-pa-pa-pa-pa-pah Allô ? Maman, j'pense à toi de fou malade Quand j'regarde le ciel, j'pense à toi, toutes les balafres J'me sens comme Mitch pendant qu'on s'tape la balade Les dix-huit, les flingueurs qui vous passent le Salam Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west C'est Coco Jojo, Jojo Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou Han-han Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou Grr, paw</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon rre-ve Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolique, j'te sors un fusil j'rafale avec insistance You might also likeRefrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, cane-bé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ça va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste mignon petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrête, faut qu'tu m'enterres Qu'est-ce que tu vas faire-faire? Mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sûr, Ah bien sûr Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid1</t>
+          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon rre-ve Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolique, j'te sors un fusil j'rafale avec insistance Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, cane-bé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ça va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste mignon petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrête, faut qu'tu m'enterres Qu'est-ce que tu vas faire-faire? Mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sûr, Ah bien sûr Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid1</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo T'en fais pas pour ça, je gère le tempo Non, c'est pas tes faux negro qui rapportent que des blèmes-pro c'est fort, c'est fort Droit au but la quand j'enfile les tiempo J'ai parabellum qui vient tout droit d'Jamaique comme Sean Paul C'est Coco Jojo Jojo Tu dit quoi RS, elle boude, elle fait des caprices Fait la jumper dans l'RS Tu vas zapper tes soucis tout oublier La soirée même elle va m'donné sa pussy On va s'enjaillé toute la noche You might also like Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo J'kiffe quand elle m'appelle Sa voix m'apaise J'fais comme si j'avais pas besoin d'elle J'dois finir quelques adresses J'suis dans la tess j'recompte les mapess Me prend pas la tête monte dans la caisse Beaucoup de liasse rien qu'on encaisse c'est fort, c'est fort Rs Coco Jojo on fait pas d'cadeaux Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo</t>
+          <t>Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo T'en fais pas pour ça, je gère le tempo Non, c'est pas tes faux negro qui rapportent que des blèmes-pro c'est fort, c'est fort Droit au but la quand j'enfile les tiempo J'ai parabellum qui vient tout droit d'Jamaique comme Sean Paul C'est Coco Jojo Jojo Tu dit quoi RS, elle boude, elle fait des caprices Fait la jumper dans l'RS Tu vas zapper tes soucis tout oublier La soirée même elle va m'donné sa pussy On va s'enjaillé toute la noche Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo J'kiffe quand elle m'appelle Sa voix m'apaise J'fais comme si j'avais pas besoin d'elle J'dois finir quelques adresses J'suis dans la tess j'recompte les mapess Me prend pas la tête monte dans la caisse Beaucoup de liasse rien qu'on encaisse c'est fort, c'est fort Rs Coco Jojo on fait pas d'cadeaux Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Même de loin, j'te fais d'l'effet comme un Urus qui roule à 220 dans les rues de Paris, oh Oh, mais juste avant, j'casse un tour dans mon barrio yes, yes J'me sens chez moi à plusieurs sous l'festa que près des Parigos On m'a fait trop d'manières étant jeune, ça m'a rendu plus mature ça m'a rendu plus ghetto Maintenant, c'est l'boss de leur grand frère qui s'tourne dans la rue parce qu'on a la même voiture Parce qu'on a la même voiture Mon avenir est sans doute dessiné J'aime fédérer, moi, j'aime donner des idées J'aime pas la police, j'suis qu'un jeune de cité Jojo J'connais qu'les casse-dalles, les cs-gre, les frites yes Là où j'habite, que ça débite fort T'-shi j'effrite, nous c'est la riche Revends la white comme le maillot du Réal snif Terrain push comme le monde à Châtelet-les-Halles ah, ah Belek au signal pow, pow Tout le monde à terre devant le casque intégral Tout le monde à terre devant le casque intégral Parle pas, gros, on va t'éteindre Parle pas, on va t'éteindre Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a osé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton You might also like Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna C'est encore nous hey, hey, hey J'ai mangé, j'suis encore en pétard pow Un bouton, on démarre la bécane Logistique toujours impeccable Ça va commencer ici et ça va péter péter Le USAVG de enfer mom Coco J'suis en esprit, l'arrêt, tu m'embêtes T'as vu le charsime du monsieur en vrai ouh-ouh On fait les OG, elle fait la timp fait la timp Elle aime les voyages, les Chanel, vogues Celui qui donne, on lui rend l'respect Depuis l'arrêt de bus, c'est l'gros sac Eastpak ah, ah, ah J'ai la mental', j'défie l'aspect Quand j'arrive en full, des foules à la cité Ils veulent nous ressembler, on a du goût J'vais en Espagne pour me relaxer C'est l'argent d'la tontine, ils se sont trompés Eux c'est des mendiants eux c'est des mendiants T'as jamais palpé autant d'thunes, me fais pas la morale eh, eh, eh Eh, eh Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton</t>
+          <t>Même de loin, j'te fais d'l'effet comme un Urus qui roule à 220 dans les rues de Paris, oh Oh, mais juste avant, j'casse un tour dans mon barrio yes, yes J'me sens chez moi à plusieurs sous l'festa que près des Parigos On m'a fait trop d'manières étant jeune, ça m'a rendu plus mature ça m'a rendu plus ghetto Maintenant, c'est l'boss de leur grand frère qui s'tourne dans la rue parce qu'on a la même voiture Parce qu'on a la même voiture Mon avenir est sans doute dessiné J'aime fédérer, moi, j'aime donner des idées J'aime pas la police, j'suis qu'un jeune de cité Jojo J'connais qu'les casse-dalles, les cs-gre, les frites yes Là où j'habite, que ça débite fort T'-shi j'effrite, nous c'est la riche Revends la white comme le maillot du Réal snif Terrain push comme le monde à Châtelet-les-Halles ah, ah Belek au signal pow, pow Tout le monde à terre devant le casque intégral Tout le monde à terre devant le casque intégral Parle pas, gros, on va t'éteindre Parle pas, on va t'éteindre Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a osé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna C'est encore nous hey, hey, hey J'ai mangé, j'suis encore en pétard pow Un bouton, on démarre la bécane Logistique toujours impeccable Ça va commencer ici et ça va péter péter Le USAVG de enfer mom Coco J'suis en esprit, l'arrêt, tu m'embêtes T'as vu le charsime du monsieur en vrai ouh-ouh On fait les OG, elle fait la timp fait la timp Elle aime les voyages, les Chanel, vogues Celui qui donne, on lui rend l'respect Depuis l'arrêt de bus, c'est l'gros sac Eastpak ah, ah, ah J'ai la mental', j'défie l'aspect Quand j'arrive en full, des foules à la cité Ils veulent nous ressembler, on a du goût J'vais en Espagne pour me relaxer C'est l'argent d'la tontine, ils se sont trompés Eux c'est des mendiants eux c'est des mendiants T'as jamais palpé autant d'thunes, me fais pas la morale eh, eh, eh Eh, eh Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ouh ouh, ouh, ouh ouh, ouh, ouh ouh, ouh, ouh ouh Wouh, wouh Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds On encaisse et toi vide la caisse, tous les mecs j'agresse, c'est Guy de Barbès, gigot en finesse, et ma bitch, y a qu'moi qui l'a dresse y a qu'moi qui l'a dresse Faux keuf, faux keuf, gros sac de fric, on les effraie, té-ma le drip oh oh, on m'invite je dis pas no no no no En Jordan j'ai toutes les pannos wow, oh wow, oh oh oh, on les serre toutes comme Bowo, oh wow, oh oh oh T'es pas tout seul donc fais d'l'espace, t'es pas le seul qui vise l'espace, t'es pas le seul bébé de Coco Jojo, qui fume des splifs en terrasse Paquets d'argent, paquets d'argent, tout est frais comme le parquet flottant Hmm, c'est fabuleux, j'ai du flow comme Fabolous J'fais les boutiques et j'achète tout tout, tout, évidemment, j'en ai beaucoup beaucoup Guetter les yeux sont tirés sur nous, c'est qu'on est chauds, soyez sûrs de vous You might also like Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Oh Jojo On est bons qu'à ça, on est bons qu'à ça, on va tout casser oh Jojo J'ai besoin d'massa, on fume que d'la frappe, on roule en classe G, woah, woah Big ice, big brr, big ice, big brr oh Jojo On fait comme kassav, on réveille la foule pour les ambiancer oh Jojo Je veux Ciroc toutes les saveurs, toutes les couleurs pour commencer oh la Ligue 1 Fokev, fokev, oublie pas qui je suis, oublie pas qui me fuit Yeah, yeah Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Le Coco Jojo On est pas des mythos</t>
+          <t>Ouh ouh, ouh, ouh ouh, ouh, ouh ouh, ouh, ouh ouh Wouh, wouh Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds On encaisse et toi vide la caisse, tous les mecs j'agresse, c'est Guy de Barbès, gigot en finesse, et ma bitch, y a qu'moi qui l'a dresse y a qu'moi qui l'a dresse Faux keuf, faux keuf, gros sac de fric, on les effraie, té-ma le drip oh oh, on m'invite je dis pas no no no no En Jordan j'ai toutes les pannos wow, oh wow, oh oh oh, on les serre toutes comme Bowo, oh wow, oh oh oh T'es pas tout seul donc fais d'l'espace, t'es pas le seul qui vise l'espace, t'es pas le seul bébé de Coco Jojo, qui fume des splifs en terrasse Paquets d'argent, paquets d'argent, tout est frais comme le parquet flottant Hmm, c'est fabuleux, j'ai du flow comme Fabolous J'fais les boutiques et j'achète tout tout, tout, évidemment, j'en ai beaucoup beaucoup Guetter les yeux sont tirés sur nous, c'est qu'on est chauds, soyez sûrs de vous Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Oh Jojo On est bons qu'à ça, on est bons qu'à ça, on va tout casser oh Jojo J'ai besoin d'massa, on fume que d'la frappe, on roule en classe G, woah, woah Big ice, big brr, big ice, big brr oh Jojo On fait comme kassav, on réveille la foule pour les ambiancer oh Jojo Je veux Ciroc toutes les saveurs, toutes les couleurs pour commencer oh la Ligue 1 Fokev, fokev, oublie pas qui je suis, oublie pas qui me fuit Yeah, yeah Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Le Coco Jojo On est pas des mythos</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Yo Joshy, Joshy Ah Ah-ah Comme un Blues Brothers, Blues Brothers j'bouge et le groove comme moi, t'en trouve pas, hein Bouge, loser, fuck suceur qui veulent que je shoote, donc j'mets coup de pouce, pouce Vrr Allez, ouste, mec Brr, j'fais le taff un peu normal qu'j'ai du flouze, mec Ouh Tu peux pas m'suivre, donc tu t'étouffe, mec, cent-cinquante paires de shoes que j'ai, mec Bang En concert, toujours full, c'est Dieu qui donne Ah, ah-ah-ah Écoute, écoute J'ai foutue Bebeto en l'air dans l'hélico', les jaloux bandent encore sur mes anciennes chicas Ah non, j'ordonne qu'ont leurs foute la loi RICO R9 en attaque, c'est toujours efficace et pas qu'au foot', j'arrive dans un pack M Eh Je regarde quand la petite ti-ssor, tout ça, c'est mon paquet Ouh, ah-ah-ah-ah, t'as trop la rage Elle fais du cash, nous, c'est mériter Ah J'finirais comme Damon Dash, t'as quand-même trop la rage Jojo Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson You might also like Pour transporter mon flow, faut plus qu'un hélicoptère Faut plus qu'un hélico' On t'enterre si t'as sauté l'terr' On t'enterre Que Dieu me pardonne quand j'pêche Que Dieu me pardonne T'es dans l'froid, j'profite du soleil à Marrakech Han-han, han-han Tu vas m'supplier comme un ge-sh' Comme un ge-sh', j'préfère l'ange de droite mais j'écoute celui de gauche J'préfère l'ange de droite Trop d'éloquence, trop de groose quand j'pose, c'est en soum-soum, sous-marin qu'on fait les choses Boum, boum, okay Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique El Rico J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique José J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh1</t>
+          <t>Yo Joshy, Joshy Ah Ah-ah Comme un Blues Brothers, Blues Brothers j'bouge et le groove comme moi, t'en trouve pas, hein Bouge, loser, fuck suceur qui veulent que je shoote, donc j'mets coup de pouce, pouce Vrr Allez, ouste, mec Brr, j'fais le taff un peu normal qu'j'ai du flouze, mec Ouh Tu peux pas m'suivre, donc tu t'étouffe, mec, cent-cinquante paires de shoes que j'ai, mec Bang En concert, toujours full, c'est Dieu qui donne Ah, ah-ah-ah Écoute, écoute J'ai foutue Bebeto en l'air dans l'hélico', les jaloux bandent encore sur mes anciennes chicas Ah non, j'ordonne qu'ont leurs foute la loi RICO R9 en attaque, c'est toujours efficace et pas qu'au foot', j'arrive dans un pack M Eh Je regarde quand la petite ti-ssor, tout ça, c'est mon paquet Ouh, ah-ah-ah-ah, t'as trop la rage Elle fais du cash, nous, c'est mériter Ah J'finirais comme Damon Dash, t'as quand-même trop la rage Jojo Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Pour transporter mon flow, faut plus qu'un hélicoptère Faut plus qu'un hélico' On t'enterre si t'as sauté l'terr' On t'enterre Que Dieu me pardonne quand j'pêche Que Dieu me pardonne T'es dans l'froid, j'profite du soleil à Marrakech Han-han, han-han Tu vas m'supplier comme un ge-sh' Comme un ge-sh', j'préfère l'ange de droite mais j'écoute celui de gauche J'préfère l'ange de droite Trop d'éloquence, trop de groose quand j'pose, c'est en soum-soum, sous-marin qu'on fait les choses Boum, boum, okay Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique El Rico J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique José J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh1</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Chily, Coco, c'est le retour de Chita comme R9 en 2002 Bellek Track Petit connard, petit connard C'est fort Chily, Coco, c'est le retour de Chita comme R9 en 2002 Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Dans ses chaussettes, j'appelle tit-pe, ramène tout la recette Ds palettes, en chaussette Un peu pompette, elle m'appelle en folie pour se faire ma sucette Pour se faire ma Chupa Chups J'ai même pas vraiment débuté Jo-Jojo qu'elle m'appelle midi, soir Midi, soir Tu nous parles de débiter, tu mens, tu mens, ta vie est triste, faut bosser Faut bosser Oh chicanos, Dom Pé' j'envoie tout dans son gosier C'es chaud, gros Oh chicanos C'est fort, à la base, on s'est demandé du temps, c'était c'que j't'ai dis C'était surtout qu't'en avais parler Donc, j'ai pris mon sac à dos, poignée d'oseille dans ma veste Teddy Ah-ah, ah-ah, ah-ah Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion You might also like Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Eux, c'était tout pour la fame La fame, nous, c'était tout pour la famille Famille À pied, j'ai fait des kilomètres Pour manger, j'ai transporté des kilos moi-même S'en bat les couilles de qui la vend, c'est c'lui qui cuisine que l'on veut S'en bat les couilles de qui la vend Maintenant, faut manger, c'est c'lui qui cuisine que l'on veut Pour les los-ki qu'on a très tôt quitté l'école, beaucoup de bénéf' dans l'hall Maintenant, faut manger Parti pour revenir en forme, on te refroidira négro si tu fais l'malin Ah Parti pour revenir en forme, le ghetto m'a dit Continue, car c'est toi l'meilleur Chily, Coco, c'est le retour de Chita comme R9 en 2002 Petit connard, petit connard Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Faut bosser, hein Depitcho, Ronaldo, faut bosser Okay, partout, tu sais qu'on flingue, flingue La pépite, le génie, faut bosser C'est fort, c'est fort, okay, Jojo Depitcho, Ronaldo, faut bosser Umh-umh, umh-umh, umh-umh, umh-umh La pépite, le génie, faut bosser</t>
+          <t>Chily, Coco, c'est le retour de Chita comme R9 en 2002 Bellek Track Petit connard, petit connard C'est fort Chily, Coco, c'est le retour de Chita comme R9 en 2002 Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Dans ses chaussettes, j'appelle tit-pe, ramène tout la recette Ds palettes, en chaussette Un peu pompette, elle m'appelle en folie pour se faire ma sucette Pour se faire ma Chupa Chups J'ai même pas vraiment débuté Jo-Jojo qu'elle m'appelle midi, soir Midi, soir Tu nous parles de débiter, tu mens, tu mens, ta vie est triste, faut bosser Faut bosser Oh chicanos, Dom Pé' j'envoie tout dans son gosier C'es chaud, gros Oh chicanos C'est fort, à la base, on s'est demandé du temps, c'était c'que j't'ai dis C'était surtout qu't'en avais parler Donc, j'ai pris mon sac à dos, poignée d'oseille dans ma veste Teddy Ah-ah, ah-ah, ah-ah Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Eux, c'était tout pour la fame La fame, nous, c'était tout pour la famille Famille À pied, j'ai fait des kilomètres Pour manger, j'ai transporté des kilos moi-même S'en bat les couilles de qui la vend, c'est c'lui qui cuisine que l'on veut S'en bat les couilles de qui la vend Maintenant, faut manger, c'est c'lui qui cuisine que l'on veut Pour les los-ki qu'on a très tôt quitté l'école, beaucoup de bénéf' dans l'hall Maintenant, faut manger Parti pour revenir en forme, on te refroidira négro si tu fais l'malin Ah Parti pour revenir en forme, le ghetto m'a dit Continue, car c'est toi l'meilleur Chily, Coco, c'est le retour de Chita comme R9 en 2002 Petit connard, petit connard Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Faut bosser, hein Depitcho, Ronaldo, faut bosser Okay, partout, tu sais qu'on flingue, flingue La pépite, le génie, faut bosser C'est fort, c'est fort, okay, Jojo Depitcho, Ronaldo, faut bosser Umh-umh, umh-umh, umh-umh, umh-umh La pépite, le génie, faut bosser</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Y'a pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, on devient pas millionnaire avec un seul taff, G2 cest calle, calle, mec on tire dans l'tas mec on tire dans l'tas, pow Ya pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, y'a pas de fumée sans feu, pas de shit sans cas c'est Coco Jojo, wow, on devient pas millionnaire avec un seul taff ok, ok, G2 c'est calle, calle, mec on tire dans l'tas flingue, hun hun, flingue Y'a pas de fumée sans feu, pas de shit sans cash C'est d'carré positif, perçois dès que jvise la tête jai le fugitif La réussite c'est la directive, jm'active j'suis patient j'ai mental de Rubin Carter ok, jconnais l'chez moi, j'ai tout appris par cur c'est fort, c'est fort Ça bouillonne dans tout mon corps c'est chaud, c'est nous la calle Blue Magic Corp calle, calle Jojo Coco, sac de tout cash, j'suis là d'puis longtemps, j'suis pas un rookie krr, paw, charges les tokas, j'donne le go, go, j'éteins la bougie ça flingue C'est fort fo-fo-fo fort, Bèsbar c'est Baltimore, po-po-po pow Je sais où je vais, j'suis pas duper, c'est juste que ton plan il nous sert à tchi hun, hun Au calme, c'qui m'arrive c'est super, cool, de la course, j'fais toujours partie wow, ok C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo Ça caillasse de baisé, ça caillasse de baisé, j'appelle bitchies dans suite hôtel pour m'apaiser, après couper cocaïna faut la peser faut la peser Pas de pression hun hun, pas de pression j'ai pas la pression, on veut même plus savoir si t'as raison pow, on sait juste que t'as quitté la maison Jojo Change de gamos, les condés me questionnent Merco, change de gamos et les condés m'espionnent Feinte de la gova, la pool party, t-shirt Prada sous le bombardier, en vrai de vrai j'suis jamais parti, c'est tout pour Paris, tout pour mon quartier You might also like C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend</t>
+          <t>Y'a pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, on devient pas millionnaire avec un seul taff, G2 cest calle, calle, mec on tire dans l'tas mec on tire dans l'tas, pow Ya pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, y'a pas de fumée sans feu, pas de shit sans cas c'est Coco Jojo, wow, on devient pas millionnaire avec un seul taff ok, ok, G2 c'est calle, calle, mec on tire dans l'tas flingue, hun hun, flingue Y'a pas de fumée sans feu, pas de shit sans cash C'est d'carré positif, perçois dès que jvise la tête jai le fugitif La réussite c'est la directive, jm'active j'suis patient j'ai mental de Rubin Carter ok, jconnais l'chez moi, j'ai tout appris par cur c'est fort, c'est fort Ça bouillonne dans tout mon corps c'est chaud, c'est nous la calle Blue Magic Corp calle, calle Jojo Coco, sac de tout cash, j'suis là d'puis longtemps, j'suis pas un rookie krr, paw, charges les tokas, j'donne le go, go, j'éteins la bougie ça flingue C'est fort fo-fo-fo fort, Bèsbar c'est Baltimore, po-po-po pow Je sais où je vais, j'suis pas duper, c'est juste que ton plan il nous sert à tchi hun, hun Au calme, c'qui m'arrive c'est super, cool, de la course, j'fais toujours partie wow, ok C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo Ça caillasse de baisé, ça caillasse de baisé, j'appelle bitchies dans suite hôtel pour m'apaiser, après couper cocaïna faut la peser faut la peser Pas de pression hun hun, pas de pression j'ai pas la pression, on veut même plus savoir si t'as raison pow, on sait juste que t'as quitté la maison Jojo Change de gamos, les condés me questionnent Merco, change de gamos et les condés m'espionnent Feinte de la gova, la pool party, t-shirt Prada sous le bombardier, en vrai de vrai j'suis jamais parti, c'est tout pour Paris, tout pour mon quartier C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Saydiq Yeah Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, what you want Mais c'est impossible j'me déplace en gang, non, non, non Dix sept à la te-por , canons d'vant les windows, woah, woah Hier plavon, demain plavon, week-end plavon, woah, woah Mon dos tu peux l'rayer, tant qu'le gamos brille, oh, woah, woah J'lui ai donné des roses, elle m'a dit J'veux du Hennessy, woah, woah Elle veut du Fendi, uh, elle veut du Louis, uh Elle veut la Dolce, c'est qu'une groupie, uh oh non Elle veut du Fendi, uh elle veut du Fendi, elle veut du Louis, uh elle veut du Louis Elle veut la Dolce elle veut la dolce vita Jojo Jojo, Sauce God, deux cent guys dans l'binks Jojo Peu m'importe, t'as pas la taille d'mon bed Jojo Louis, Fendi, Comme des Garçons, babe On sait que tu mens, ouais, on sait que tu mens, ouais You might also like Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois Mais c'est impossible, j'me déplace en gang, non, non, non Wah, wah Elle veut un gars doux mais moi, c'est Jojo okay Elle veut un gars doux mais moi, c'est Sauce God c'est fort Elle veut un gars doux mais moi, c'est Jojo hahaha On sait que tu mens, ouais, bitch, on sait que tu mens ouh, ouh, ouh, Ligue 1 On éteint la bougie mm, mm, j'finis la fin comme un bout d'shit mm, mm Le crime paie, oh shit woah Dis moi juste un dernier mot qui pourrait m'caresser l'oreille droite Mom, I love you for life On bosse fort, j'suis le G.O.A.T., ha Ayo, babe, pas si vite, tu vas où là ? Moi, c'est Coco Jojo, toi t'es mon joujou, cul de sac, j'me présente Elle a b'soin d'mon message, juste avant d'se coucher, j'kiffe ça qu'elle se couche, ah le Coco Jojo, haha, wah Toi, moi, c'était pour un one night stand mais tu mens Jojo Tu sais qu'souvent j'ai les mains dans un dièse, doucement ayy, Jojo Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois ayy, Jojo Mais c'est impossible, j'me déplace en gang, non, non, non ayy, Jojo Elle veut un gars doux mais moi, c'est Jojo Elle veut un gars doux mais moi, c'est Sauce God Elle veut un gars doux mais moi, c'est Jojo On sait que tu mens, ouais, bitch, on sait que tu mens ayy, Jojo Coco Jojo, Sauce God, yeah, yeah, yeah Yeah, on sait qu'tu mens, eh On sait qu'tu mens, ouais On sait qu't'as jamais fait c'que tu dis, c'est qu'tu mens, ouais Coco Jojo, Sauce God</t>
+          <t>Saydiq Yeah Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, what you want Mais c'est impossible j'me déplace en gang, non, non, non Dix sept à la te-por , canons d'vant les windows, woah, woah Hier plavon, demain plavon, week-end plavon, woah, woah Mon dos tu peux l'rayer, tant qu'le gamos brille, oh, woah, woah J'lui ai donné des roses, elle m'a dit J'veux du Hennessy, woah, woah Elle veut du Fendi, uh, elle veut du Louis, uh Elle veut la Dolce, c'est qu'une groupie, uh oh non Elle veut du Fendi, uh elle veut du Fendi, elle veut du Louis, uh elle veut du Louis Elle veut la Dolce elle veut la dolce vita Jojo Jojo, Sauce God, deux cent guys dans l'binks Jojo Peu m'importe, t'as pas la taille d'mon bed Jojo Louis, Fendi, Comme des Garçons, babe On sait que tu mens, ouais, on sait que tu mens, ouais Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois Mais c'est impossible, j'me déplace en gang, non, non, non Wah, wah Elle veut un gars doux mais moi, c'est Jojo okay Elle veut un gars doux mais moi, c'est Sauce God c'est fort Elle veut un gars doux mais moi, c'est Jojo hahaha On sait que tu mens, ouais, bitch, on sait que tu mens ouh, ouh, ouh, Ligue 1 On éteint la bougie mm, mm, j'finis la fin comme un bout d'shit mm, mm Le crime paie, oh shit woah Dis moi juste un dernier mot qui pourrait m'caresser l'oreille droite Mom, I love you for life On bosse fort, j'suis le G.O.A.T., ha Ayo, babe, pas si vite, tu vas où là ? Moi, c'est Coco Jojo, toi t'es mon joujou, cul de sac, j'me présente Elle a b'soin d'mon message, juste avant d'se coucher, j'kiffe ça qu'elle se couche, ah le Coco Jojo, haha, wah Toi, moi, c'était pour un one night stand mais tu mens Jojo Tu sais qu'souvent j'ai les mains dans un dièse, doucement ayy, Jojo Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois ayy, Jojo Mais c'est impossible, j'me déplace en gang, non, non, non ayy, Jojo Elle veut un gars doux mais moi, c'est Jojo Elle veut un gars doux mais moi, c'est Sauce God Elle veut un gars doux mais moi, c'est Jojo On sait que tu mens, ouais, bitch, on sait que tu mens ayy, Jojo Coco Jojo, Sauce God, yeah, yeah, yeah Yeah, on sait qu'tu mens, eh On sait qu'tu mens, ouais On sait qu't'as jamais fait c'que tu dis, c'est qu'tu mens, ouais Coco Jojo, Sauce God</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ouh, ouh ! C'est Mozart, Capitaine Jackson C'est fort Five Unh, unh, unh, unh Papito charme Ramène la drogue, le cash et les armes Anakin On va choquer de Paname à Kin' Ouais Ils ont voulu nous la faire à l'envers, c'est dead C'est dead, c'est dead Tellement d'oseille que j'confonds la semaine et le week-end Unh Trop d'sentiments, on est comme Barbie et Ken Ah-ah Le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire ken Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique C'est fort, Papito charme, ouh Tous les soirs, j'suis dans une nouvelle tte-ch' Tte-ch', tous les soirs, j'rentre avec nouvelle kich' Kich', kich' Bouge de là, j'te vire à coup de punch', nous, c'est paquet d'oseille comme au Qatar I make money, j'ai dressing de bâtard, toi, t'as la trentaine, t'sais que parler bagarre T'as la trentaine, t'sais que parler, bagarre, ah-ah Nouveau jean, nouveau chèque, nouvelle collab' Ah-ah-ah, ah-ah-ah, pah Nouveau gamos pendant qu'toi, tu dors mal Ah-ah-ah, ah-ah-ah My G, j'encaisse, je fly, fly, tu parles, t'es pire qu'en hess T'es pire qu'en chien 10K dans poche droite, CC garde sans stress, pendant la rée-s' Pendant la rée-soi Tu bandes sur des mecs qui regardent mon flow, demande mes réfs' C'est Coco Jojo Remplir mes boîtes à chaussures d'billets violets, c'est même plus mon rêve Ça m'fait même plus bander, woh G.O.A.T, c'est nous les GOAT, tu sais qu'on est prêts Tu sais qu'on est prêts, ah-ah-ah Faut même pas les aider, c'est que des bandeurs, qu'ils crèvent Pah You might also like Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Barbie et Ken, ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique Que Dieu nous bénisse face aux épreuves de la vie, j'reste tenace J'reste fort Comme un lion, j'vais rugir, dans ma tête, mes pensées sont noires Umh J'écris dans grimoire, plus je m'enfume, plus je perds la mémoire Dans la sauce, j'suis l'piment, pendant la bagarre, j'sors l'Opinel Charcle, charcle Okay, côté obscur, Anakin Côté obscur, Anakin, Kin', c'est mes origines Kin', c'est mes origines Trop d'sentiments comme Barbie et Ken Comme Barbie et Ken Aucun scrupule, sale opps, j'jette ton corps dans la Seine Touh, touh, touh, touh, touh, touh, touh Tu vas vomir ta graille quand tu vas té-ma la scène Berk Okay Okay, j'empile les kich' J'empile les kich' J'suis Neymar sur l'flanc gauche Neymar sur l'flanc glauche À chaque fois qu't'ouvres ta gueule, petit négro, c'est pour dire de la merde T'es nul J'te tire dessus, la police me cherche, j'suis d'jà de l'autre côté d'la mer Poh Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique</t>
+          <t>Ouh, ouh ! C'est Mozart, Capitaine Jackson C'est fort Five Unh, unh, unh, unh Papito charme Ramène la drogue, le cash et les armes Anakin On va choquer de Paname à Kin' Ouais Ils ont voulu nous la faire à l'envers, c'est dead C'est dead, c'est dead Tellement d'oseille que j'confonds la semaine et le week-end Unh Trop d'sentiments, on est comme Barbie et Ken Ah-ah Le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire ken Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique C'est fort, Papito charme, ouh Tous les soirs, j'suis dans une nouvelle tte-ch' Tte-ch', tous les soirs, j'rentre avec nouvelle kich' Kich', kich' Bouge de là, j'te vire à coup de punch', nous, c'est paquet d'oseille comme au Qatar I make money, j'ai dressing de bâtard, toi, t'as la trentaine, t'sais que parler bagarre T'as la trentaine, t'sais que parler, bagarre, ah-ah Nouveau jean, nouveau chèque, nouvelle collab' Ah-ah-ah, ah-ah-ah, pah Nouveau gamos pendant qu'toi, tu dors mal Ah-ah-ah, ah-ah-ah My G, j'encaisse, je fly, fly, tu parles, t'es pire qu'en hess T'es pire qu'en chien 10K dans poche droite, CC garde sans stress, pendant la rée-s' Pendant la rée-soi Tu bandes sur des mecs qui regardent mon flow, demande mes réfs' C'est Coco Jojo Remplir mes boîtes à chaussures d'billets violets, c'est même plus mon rêve Ça m'fait même plus bander, woh G.O.A.T, c'est nous les GOAT, tu sais qu'on est prêts Tu sais qu'on est prêts, ah-ah-ah Faut même pas les aider, c'est que des bandeurs, qu'ils crèvent Pah Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Barbie et Ken, ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique Que Dieu nous bénisse face aux épreuves de la vie, j'reste tenace J'reste fort Comme un lion, j'vais rugir, dans ma tête, mes pensées sont noires Umh J'écris dans grimoire, plus je m'enfume, plus je perds la mémoire Dans la sauce, j'suis l'piment, pendant la bagarre, j'sors l'Opinel Charcle, charcle Okay, côté obscur, Anakin Côté obscur, Anakin, Kin', c'est mes origines Kin', c'est mes origines Trop d'sentiments comme Barbie et Ken Comme Barbie et Ken Aucun scrupule, sale opps, j'jette ton corps dans la Seine Touh, touh, touh, touh, touh, touh, touh Tu vas vomir ta graille quand tu vas té-ma la scène Berk Okay Okay, j'empile les kich' J'empile les kich' J'suis Neymar sur l'flanc gauche Neymar sur l'flanc glauche À chaque fois qu't'ouvres ta gueule, petit négro, c'est pour dire de la merde T'es nul J'te tire dessus, la police me cherche, j'suis d'jà de l'autre côté d'la mer Poh Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>C'est Baltimore ici hein pour Coco Jojo Hahaha c'est Baltimore ici hein c'est Baltimore ici... hein ZK ZK, pour Coco Jojo depitcho R9 WOOOOOH Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse c'est fort! ah-ha-ah Ma jeunesse en Airness pas en Hermès tchwa Wesh, et quand j'freestyle la concu elle reste graw J'suis leur phobie comme le péage d'Arras bow A c'quip toi tu tires comme au Texas hein T'aurais pu jouer dans la série Dallas haha Et y'a trop d'habitudes qu'il faut que j'délaisse Dis-moi qui n'aime pas compter des liasses ? hein A la main ou à la compteuse wooh Tu suces trop t'auras pas mon deuz On l'fait pas d'une manière honteuse ou j'passerai plus la porte d'chez moi ah ah-ah Les balayettes lasers de mon père me font plus glisser que la patinoire wow On sait bien que tu ne veux pas d'histoires Des mots différents mais au fond j'ai toujours le même discours Clients fidèles, teh en kil', ristourne Les baqueux ces vissieux font 20 fois le tour J'ai fait 20 fois le tri, et mes erreurs j'les paye 20 fois l'prix Eh j'fume plus l'3 fois filtrés hehe Rien de tel que du bon beldi J'ai besoin de moins de stress le mardi et plus de piété le vendredi ça flingue Le vendredi... C'est Baltimore ici, y'a des shlags sur toute la superficie Y'a pas trop d'issues pour qu'on sorte d'ici... BALTIMORE! Ca bicrave des rêves et la mort aussi, aywa aywa G2B dis-leur c'est fort ici C'EST FORT! aha-ah ah-ah ZK ZK, pour Coco Jojo depitcho R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse nan! Wesh Ma jeunesse en Airness pas en Hermès WOOOOOH Wesh Et quand j'freestyle la concu elle reste ha-ah C'est Baltimore ici, toute la cité est écoutée, pistée Les numéros de clients rangés, listés Dès qu'il fait l'appel mets-lui une passe Dé' Avec la bonté j'fais un face-face bow J'te mens pas j'ai pas le cur à Nasdas han, tchwa J'te mens pas j'ai pas le cur à Nasdas bow ZK ZK, pour Coco Jojo depitcho R9R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse Wesh Ma jeunesse en Airness, pas en Hermès nan, nan, jamais! Et quand j'freestyle la concu elle reste aha-ah ZK ZK ouaaais Pour Coco Jojo depitcho R9, dégaine de chef d'orchestre fort! On côtoie pas les clowns de kermesse nan, nan, nan Ma jeunesse en Airness pas en Hermès c'est fort! Wesh Et quand j'freestyle la concu elle reste hahaha C'est Baltimore ici mon pote...You might also like</t>
+          <t>C'est Baltimore ici hein pour Coco Jojo Hahaha c'est Baltimore ici hein c'est Baltimore ici... hein ZK ZK, pour Coco Jojo depitcho R9 WOOOOOH Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse c'est fort! ah-ha-ah Ma jeunesse en Airness pas en Hermès tchwa Wesh, et quand j'freestyle la concu elle reste graw J'suis leur phobie comme le péage d'Arras bow A c'quip toi tu tires comme au Texas hein T'aurais pu jouer dans la série Dallas haha Et y'a trop d'habitudes qu'il faut que j'délaisse Dis-moi qui n'aime pas compter des liasses ? hein A la main ou à la compteuse wooh Tu suces trop t'auras pas mon deuz On l'fait pas d'une manière honteuse ou j'passerai plus la porte d'chez moi ah ah-ah Les balayettes lasers de mon père me font plus glisser que la patinoire wow On sait bien que tu ne veux pas d'histoires Des mots différents mais au fond j'ai toujours le même discours Clients fidèles, teh en kil', ristourne Les baqueux ces vissieux font 20 fois le tour J'ai fait 20 fois le tri, et mes erreurs j'les paye 20 fois l'prix Eh j'fume plus l'3 fois filtrés hehe Rien de tel que du bon beldi J'ai besoin de moins de stress le mardi et plus de piété le vendredi ça flingue Le vendredi... C'est Baltimore ici, y'a des shlags sur toute la superficie Y'a pas trop d'issues pour qu'on sorte d'ici... BALTIMORE! Ca bicrave des rêves et la mort aussi, aywa aywa G2B dis-leur c'est fort ici C'EST FORT! aha-ah ah-ah ZK ZK, pour Coco Jojo depitcho R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse nan! Wesh Ma jeunesse en Airness pas en Hermès WOOOOOH Wesh Et quand j'freestyle la concu elle reste ha-ah C'est Baltimore ici, toute la cité est écoutée, pistée Les numéros de clients rangés, listés Dès qu'il fait l'appel mets-lui une passe Dé' Avec la bonté j'fais un face-face bow J'te mens pas j'ai pas le cur à Nasdas han, tchwa J'te mens pas j'ai pas le cur à Nasdas bow ZK ZK, pour Coco Jojo depitcho R9R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse Wesh Ma jeunesse en Airness, pas en Hermès nan, nan, jamais! Et quand j'freestyle la concu elle reste aha-ah ZK ZK ouaaais Pour Coco Jojo depitcho R9, dégaine de chef d'orchestre fort! On côtoie pas les clowns de kermesse nan, nan, nan Ma jeunesse en Airness pas en Hermès c'est fort! Wesh Et quand j'freestyle la concu elle reste hahaha C'est Baltimore ici mon pote...</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J'pull up dans un quatre roues motrices, tu me fais du bien car j'ai l'amour du risque À la gansta love, à la gangsta love, tes yeux reflètent le ciel de l'Île Maurice Alors on fait comment ? J'ai besoin de toi, on profite d'un instant, juste une fois J'ai comme le sentiment que tu t'en vas, j'ai comme le présentiment que tu t'en vas J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps n temps, en attendant Tout la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Tout va bene, hamdoullah, labess, chérie, mon amour, t'es ma femme, t'es ma fameuse Jamais j'te laisse tomber pour le reste, à la gangsta love, à la gangst à mort Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, ouh Ça fais longtemps, même si toi et moi, des fois, non c'est pas ça Tu veux combien d'enfants ? Jsuis tarpin sérieux quand j'te dis On va faire l'équipe du Barça Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, baw You might also like J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps en temps, en attendant Toute la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah</t>
+          <t>J'pull up dans un quatre roues motrices, tu me fais du bien car j'ai l'amour du risque À la gansta love, à la gangsta love, tes yeux reflètent le ciel de l'Île Maurice Alors on fait comment ? J'ai besoin de toi, on profite d'un instant, juste une fois J'ai comme le sentiment que tu t'en vas, j'ai comme le présentiment que tu t'en vas J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps n temps, en attendant Tout la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Tout va bene, hamdoullah, labess, chérie, mon amour, t'es ma femme, t'es ma fameuse Jamais j'te laisse tomber pour le reste, à la gangsta love, à la gangst à mort Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, ouh Ça fais longtemps, même si toi et moi, des fois, non c'est pas ça Tu veux combien d'enfants ? Jsuis tarpin sérieux quand j'te dis On va faire l'équipe du Barça Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, baw J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps en temps, en attendant Toute la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Junior Alaprod, zanmi Scar Nardey, c'est chaud ça, ah-ah Han-han Au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Moi, j'ai voyagé du Brésil au Mexique en passant par des soirées bien ambiancées, très festives À l'avenir, j'te préviens, les autres, c'est du plexi, de ma vie, n'sont plus là, on peut dire que j'les ai exclu J'répète au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Le temps fait que j'suis toujours bien sapé, de temps en temps, bisou à maman, c'est sacré Ne t'en fais pas, comme toi, j'peux plus m'les saquer, fais toujours attention, sûr de moi, très loin d'être septique Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Elle se demande c'que j'fais dans la vie Life, mon cur fait Boom, mon cur chavire Boom, boom, boom Grosse caisse, champagne, nos bitchs de luxe Mmh, avant ça, c'était petites coupures et la taule Boom, boom, boom Enfant du ghetto fait les pesos dans le hood Enfant du ghetto fait les pesos dans le hood Mmh Boom, boom, boom, en vrai, j'suis parti de rien comme vous Parti de rien comme vous Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Soleil Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire You might also like Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Boom, boom, boom Ça flex, ah-ah-ah Han-han, han-han, t'en fais pas Enfant du ghetto Han-han, han-han, t'en fais pas Papito charme et Leto, han-han-han On a l'sunset de temps en temps, han-han-han On a l'sunset, plus rien à prouver mais tu veux aller où ? Han-han-han J't'explique</t>
+          <t>Junior Alaprod, zanmi Scar Nardey, c'est chaud ça, ah-ah Han-han Au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Moi, j'ai voyagé du Brésil au Mexique en passant par des soirées bien ambiancées, très festives À l'avenir, j'te préviens, les autres, c'est du plexi, de ma vie, n'sont plus là, on peut dire que j'les ai exclu J'répète au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Le temps fait que j'suis toujours bien sapé, de temps en temps, bisou à maman, c'est sacré Ne t'en fais pas, comme toi, j'peux plus m'les saquer, fais toujours attention, sûr de moi, très loin d'être septique Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Elle se demande c'que j'fais dans la vie Life, mon cur fait Boom, mon cur chavire Boom, boom, boom Grosse caisse, champagne, nos bitchs de luxe Mmh, avant ça, c'était petites coupures et la taule Boom, boom, boom Enfant du ghetto fait les pesos dans le hood Enfant du ghetto fait les pesos dans le hood Mmh Boom, boom, boom, en vrai, j'suis parti de rien comme vous Parti de rien comme vous Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Soleil Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Boom, boom, boom Ça flex, ah-ah-ah Han-han, han-han, t'en fais pas Enfant du ghetto Han-han, han-han, t'en fais pas Papito charme et Leto, han-han-han On a l'sunset de temps en temps, han-han-han On a l'sunset, plus rien à prouver mais tu veux aller où ? Han-han-han J't'explique</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ouuuuh, Coco Jojo, Génézio Ouhhh Papito Charme c'est chaud, Touchdown J'suis rentré j'ai fait l'impossible comme cheval de Troie J'me rappelle avant ça disait que c'était pas pour moi Et en bas j'ai tourné, tourné pour trouver ma voie Oooh, j'crois que j'ai fait le bon choix Et laissez-moi dans ma vibe vibe, j'bosse au charbon seulement pour la famille Pourquoi elle veut savoir les quoi ? Ils étaient pas là dans la famine Ça n'aboutit pas quand tu pénaves, on s'en ballay des gens qui est balaise Balaise, malaisant, balaise, je perds du temps Bsoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile t puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens Regarde comment les temps changent, comment les gens changent, comment les gens pensent C'est à triste à dire mais bon, on leur donnera quand même raison Dehors je fais la guérilla pour ramener l'or à la maison Les même qui parlaient sur moi, téléchargent à peu près tous mes sons Jojo, Bouah J'finirai trahi comme Tupac, j'connais la fin du movie par coeur C'est fort J'vis comme si c'était la dernière fois, comme si sur Terre il m'restait qu'un quart d'heure Tchouah, Tchouah, Tchouah, Tchouah, Tchouah Allo allo allo allo, la vie c'est dur mais j'suis solide j'résiste A 2 quatre zéro dans l'bolide, on est pas loin d'la folie C'est fort Mais j'suis tout près du butin Jojo, Touchdown Touchdown, Touchdown You might also like Besoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile et puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens j'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens</t>
+          <t>Ouuuuh, Coco Jojo, Génézio Ouhhh Papito Charme c'est chaud, Touchdown J'suis rentré j'ai fait l'impossible comme cheval de Troie J'me rappelle avant ça disait que c'était pas pour moi Et en bas j'ai tourné, tourné pour trouver ma voie Oooh, j'crois que j'ai fait le bon choix Et laissez-moi dans ma vibe vibe, j'bosse au charbon seulement pour la famille Pourquoi elle veut savoir les quoi ? Ils étaient pas là dans la famine Ça n'aboutit pas quand tu pénaves, on s'en ballay des gens qui est balaise Balaise, malaisant, balaise, je perds du temps Bsoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile t puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens Regarde comment les temps changent, comment les gens changent, comment les gens pensent C'est à triste à dire mais bon, on leur donnera quand même raison Dehors je fais la guérilla pour ramener l'or à la maison Les même qui parlaient sur moi, téléchargent à peu près tous mes sons Jojo, Bouah J'finirai trahi comme Tupac, j'connais la fin du movie par coeur C'est fort J'vis comme si c'était la dernière fois, comme si sur Terre il m'restait qu'un quart d'heure Tchouah, Tchouah, Tchouah, Tchouah, Tchouah Allo allo allo allo, la vie c'est dur mais j'suis solide j'résiste A 2 quatre zéro dans l'bolide, on est pas loin d'la folie C'est fort Mais j'suis tout près du butin Jojo, Touchdown Touchdown, Touchdown Besoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile et puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens j'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Haha This some plus four shit Coco Jojo, Mozart Capitaine Jackson Coco Jojo, Mozart Capitaine Jackson C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto La guerre n'est bonne pour personne, mais pour le sang, je l'a ferai quand même Jojo sort du ghetto D'où je viens, on baissait la garde, n'est pas une solution pour faire régner la paix La nostalgie revient frais comment, te fais croire que c'était mieux avant Toutes les bonnes choses ont une fin Pepito, pepito You might also like C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous Elle pense que ses formes peuvent me rendre fou Mmh Coup de fil, gent-ar, faut qu'j'bouge Mmh, mmh, mmh Ghetto Mmh, mmh, mmh, ghetto J'ai même pas le temps d't'aimer Y aura que le seigneur pour m'aider Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Mmh Ghetto, ghetto, ghetto Mmh Ghetto, ghetto, ghetto Mmh Tu sais comment on fait nous, fait nous, fait nous C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Des sales idées, des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Tu sais pour te combler, pour te combler, pour te combler qui me viennent chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto</t>
+          <t>Haha This some plus four shit Coco Jojo, Mozart Capitaine Jackson Coco Jojo, Mozart Capitaine Jackson C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto La guerre n'est bonne pour personne, mais pour le sang, je l'a ferai quand même Jojo sort du ghetto D'où je viens, on baissait la garde, n'est pas une solution pour faire régner la paix La nostalgie revient frais comment, te fais croire que c'était mieux avant Toutes les bonnes choses ont une fin Pepito, pepito C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous Elle pense que ses formes peuvent me rendre fou Mmh Coup de fil, gent-ar, faut qu'j'bouge Mmh, mmh, mmh Ghetto Mmh, mmh, mmh, ghetto J'ai même pas le temps d't'aimer Y aura que le seigneur pour m'aider Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Mmh Ghetto, ghetto, ghetto Mmh Ghetto, ghetto, ghetto Mmh Tu sais comment on fait nous, fait nous, fait nous C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Des sales idées, des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Tu sais pour te combler, pour te combler, pour te combler qui me viennent chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Intro Paw c'est la rre-gue G2Binks HDS Couplet HDS Ouais il y'en a qui ont la belle vie D'autre qui essaie de l'atteindre Si on rapplique t'es mort Suis-je bien clair sale tain-pe Ça vend la verte c'est l'four Ouais dans le tiek's ça craint Pour nous la nuit c'est le jour J'sais pas ce que c'est le matin x2 J'sais pas ce que c'est le soir Dans mes XXX il reste un peu d'espoir Tu veux le platine mais tu patines Si je te donne ma conf' il faut pas décevoir On veut la vie de rêve demande à Guy2Binks Moi j'ai jamais pensé qu'un jour on les guiderait Si on pouvait tous se refaire sur un coup T'inquiète même pas il y'a plein de truc qu'on éviterait J'sortirai pas sans avoir fait du bruit J'ai charbonné non je ne compte pas m'arrêter ici Non je ne t'ai jamais dit que c'était fini x2 J'suis dans mes plans J'attends que ça pète J'suis dans les temps J'attends un chèque Bah oui je le mérite j'ai pas fait de l'intérim J'pense qu'à mes intérêts lorsque je vais atterrir Mais toi c'est dans tes rêves car sinon tu dérives T'as pris la mauvaise sortie comme sur le périph' You might also likeRefrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff Couplet Guy2Bezbar Hier soir j'ai fait mon bénef, tout pour le business Jungili, 2k les vrais mecs de tess On veut des grosses fesses pas vrai mister Fresh J'rigole devant l'OPJ avec Youssef Tu roules en grosse caisse mais t'as pas de coco Tu veux mon espèce bah donne moi tes lolos Nique ta mère continue à faire le cocorico Mélange dans la cuisine fait moi de la coco Charbonne comme un fou malade bah ouais comme Rico Ces pd, ces pd sont derrière mon bigo Là faudrait quand même que vous libérez Bosko Mathusalem mais tu prends quand même le métro On travaille comme des oufs et on se plaint pas A la recherche de XXX dans tout ris-Pa Y'a rien d'offert mec on a sué J'reste dans le game tant qu'on ne m'a pas tué j'me suis fait tout seul Tout comme Nothorious mon équipe m'a aidé Y'a rien de fabulous à part que j'irai seul dans mon cercueil Parlons projet, parlons de quoi ramasser, parlons biff de quoi manger parce que là y'en a assez J'ai pas de bâtons dans les roues plutôt du ciment Tu parles de moi bien sûr qu'on te goume Leur bouches pique plus que du piment Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff</t>
+          <t>Intro Paw c'est la rre-gue G2Binks HDS Couplet HDS Ouais il y'en a qui ont la belle vie D'autre qui essaie de l'atteindre Si on rapplique t'es mort Suis-je bien clair sale tain-pe Ça vend la verte c'est l'four Ouais dans le tiek's ça craint Pour nous la nuit c'est le jour J'sais pas ce que c'est le matin x2 J'sais pas ce que c'est le soir Dans mes XXX il reste un peu d'espoir Tu veux le platine mais tu patines Si je te donne ma conf' il faut pas décevoir On veut la vie de rêve demande à Guy2Binks Moi j'ai jamais pensé qu'un jour on les guiderait Si on pouvait tous se refaire sur un coup T'inquiète même pas il y'a plein de truc qu'on éviterait J'sortirai pas sans avoir fait du bruit J'ai charbonné non je ne compte pas m'arrêter ici Non je ne t'ai jamais dit que c'était fini x2 J'suis dans mes plans J'attends que ça pète J'suis dans les temps J'attends un chèque Bah oui je le mérite j'ai pas fait de l'intérim J'pense qu'à mes intérêts lorsque je vais atterrir Mais toi c'est dans tes rêves car sinon tu dérives T'as pris la mauvaise sortie comme sur le périph' Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff Couplet Guy2Bezbar Hier soir j'ai fait mon bénef, tout pour le business Jungili, 2k les vrais mecs de tess On veut des grosses fesses pas vrai mister Fresh J'rigole devant l'OPJ avec Youssef Tu roules en grosse caisse mais t'as pas de coco Tu veux mon espèce bah donne moi tes lolos Nique ta mère continue à faire le cocorico Mélange dans la cuisine fait moi de la coco Charbonne comme un fou malade bah ouais comme Rico Ces pd, ces pd sont derrière mon bigo Là faudrait quand même que vous libérez Bosko Mathusalem mais tu prends quand même le métro On travaille comme des oufs et on se plaint pas A la recherche de XXX dans tout ris-Pa Y'a rien d'offert mec on a sué J'reste dans le game tant qu'on ne m'a pas tué j'me suis fait tout seul Tout comme Nothorious mon équipe m'a aidé Y'a rien de fabulous à part que j'irai seul dans mon cercueil Parlons projet, parlons de quoi ramasser, parlons biff de quoi manger parce que là y'en a assez J'ai pas de bâtons dans les roues plutôt du ciment Tu parles de moi bien sûr qu'on te goume Leur bouches pique plus que du piment Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>La calle, calle, là, eh-eh Le quarterback, Papito Charme, c'est chaud Ouais, ouais, ouais, ouais, ouais Touchdown, on rattrape la balle Ah ouais, neuf-un Rajoute un verre de tchapal' dans mon vin Ferme ta gueule, là Jojo Envoie ton numéro, hein, hein, pourquoi pas Nan ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connu de fou comme El Chapo C'est fort, fort D fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah, brr Kodo dinna, il pense à clubber, on pense aux dinars, on pense à jobber Ouh J'ai pas fait beaucoup d'efforts pour en découdre, vers la fin du tche-ma, le gardien, j'ai lobé Lobe Une fois sur l'terrain, tu peux plus nous stopper Nan et jusqu'à présent, j'me suis jamais tromper Ah-ah, ah-ah, ah-ah J'assois ces bâtards à ma table, y a personne qui rappelle comme si c'était papa qui grondait Ah-ah Et c'est pas devant les p'tits qu'ils vont bomber Jamais, c'est pas vrai, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Nan, c'est pas vrai Mon avenir dans un coupé sport, Jojo, ah-ah, ah-ah, ah-ah Et c'est pas devant les p'tits qu'ils vont bomber, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Mon avenir dans un coupé sport, Jojo, Coco, ah-ah, ah-ah You might also like Envoie ton numéro, hein, hein, pourquoi pas Han ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah Wesh, my G, t'es sérieux ? Tu t'es enfermé avec la bitchies, là Ouh J'aime sa pussy, elle m'excite trop Elle m'excite trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro J'aime sa pussy, elle m'excite trop Trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro Woh, rien que ça drip, ça drip Ça drip, woh et pas que dans mes clips, mes clips Mes clips Mon équipe, c'est comme les Peaky, les Peaky, on a toute sorte de dick, dick, dick J'envoie les billets, n'a siliki, siliki, fini ton boulot et j'envoie mon milky Ah-ah-ah Elle nous coupe l'oxygène quand elle passe devant nous en bikini, j'la suis en Moonwalk, un peu pompette, j'danse le Billie Jeans Envoie ton numéro, hein, hein, pourquoi pas Pourquoi pas ? ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Brr Pour les mecs stylés, my G Merci</t>
+          <t>La calle, calle, là, eh-eh Le quarterback, Papito Charme, c'est chaud Ouais, ouais, ouais, ouais, ouais Touchdown, on rattrape la balle Ah ouais, neuf-un Rajoute un verre de tchapal' dans mon vin Ferme ta gueule, là Jojo Envoie ton numéro, hein, hein, pourquoi pas Nan ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connu de fou comme El Chapo C'est fort, fort D fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah, brr Kodo dinna, il pense à clubber, on pense aux dinars, on pense à jobber Ouh J'ai pas fait beaucoup d'efforts pour en découdre, vers la fin du tche-ma, le gardien, j'ai lobé Lobe Une fois sur l'terrain, tu peux plus nous stopper Nan et jusqu'à présent, j'me suis jamais tromper Ah-ah, ah-ah, ah-ah J'assois ces bâtards à ma table, y a personne qui rappelle comme si c'était papa qui grondait Ah-ah Et c'est pas devant les p'tits qu'ils vont bomber Jamais, c'est pas vrai, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Nan, c'est pas vrai Mon avenir dans un coupé sport, Jojo, ah-ah, ah-ah, ah-ah Et c'est pas devant les p'tits qu'ils vont bomber, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Mon avenir dans un coupé sport, Jojo, Coco, ah-ah, ah-ah Envoie ton numéro, hein, hein, pourquoi pas Han ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah Wesh, my G, t'es sérieux ? Tu t'es enfermé avec la bitchies, là Ouh J'aime sa pussy, elle m'excite trop Elle m'excite trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro J'aime sa pussy, elle m'excite trop Trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro Woh, rien que ça drip, ça drip Ça drip, woh et pas que dans mes clips, mes clips Mes clips Mon équipe, c'est comme les Peaky, les Peaky, on a toute sorte de dick, dick, dick J'envoie les billets, n'a siliki, siliki, fini ton boulot et j'envoie mon milky Ah-ah-ah Elle nous coupe l'oxygène quand elle passe devant nous en bikini, j'la suis en Moonwalk, un peu pompette, j'danse le Billie Jeans Envoie ton numéro, hein, hein, pourquoi pas Pourquoi pas ? ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Brr Pour les mecs stylés, my G Merci</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Takeshi-San Ah, Negrito, y a la flicaille, y a la flicaille là ah, ah, ah Y a du bon bédo, y a du bédo, y a du bon bédo, ah, ah C'est Coco Jojo, wah rah, brrah On sortait des gros sacs du sin-gam' pendant qu'tu mettais du eh, eh, eh, eh, eh, eh, eh, eh C'est moi l'jefe, j'sais m'habiller, j'ai des billets, canon scié ouais, tu veux goûter ? Ouais J'sais pas, on dirait woh J'vais m'en tirer hey devant l'officier ah, ah, j'vais m'en tirer ouais mais toi, t'as pas nié sku, sku On défonce ta porte comme le 36, ok brr, paw, paw, t'attends personne, allez, pétasse, jump, jump baw Collé serré, j'la frotte dans l teum-teum sku, tchiki, tchiki, tchiki, bang, bang tchiki Moi, c'est Pijo R9, c'st pas Giroud non, mon guetteur entend l'bruit des gyro' ah, ah, ah Han, han, han, han han, han, han, han, han, han han, han Negri, Coco Coco Jojo Jojo dans le hall dans le hall J'débite skrt, skrt du fric skrt, skrt, snowfall ah ouais ?, Franklin ah, ah Tu nous vois tous les jours dans la calle mais c'est qu'un tremplin le Coco Jojo de Pijo R9, woh, ok brr, rrah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey You might also like Baby, j'veux qu'tu bouges ton boule sur ma bite ouh J'fume pas d'bédo mais j'aime la pipe brr, pah Les p'tits lâchent les stylos Bic, Bic eh, eh, dans l'hall, revendent la zip' okay Olalah, Johnny marque la poisse mais olalah Quand t'es dans la merde, t'es sololo brr, Negri, Coco Jojo, dans ta sonono eh, eh Tu prends ton 10, ton 20 mmh, mmh et tu hors de ma vue mmh, mmh L'amour, ça rend aveugle mmh, mmh, l'argent, ça rend la vue mmh, mmh Igo, j'ai trop la dalle mmh, mmh comme si j'sors d'garde à vue eh Elle m'envoie son cavu hey mais gros, j'la laisse en vue hey, hey G2B, Negrito, validés dans l'ghetto ouh, ouh Pour le blé, on s'lève tôt, ouais, pour le blé, on s'lève tôt hey G2B, Negrito okay, validés dans l'ghetto hey, okay Pour le blé, on s'lève tôt hey, ouais, pour le blé, on s'lève tôt brr, rah, rah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Ibra 50K Game Over Hey, Ibra 50K Game Over, pah, pah Ibra 50K, ah, ah, ah La calle, c'est fort, c'est fort Takeshi-San</t>
+          <t>Takeshi-San Ah, Negrito, y a la flicaille, y a la flicaille là ah, ah, ah Y a du bon bédo, y a du bédo, y a du bon bédo, ah, ah C'est Coco Jojo, wah rah, brrah On sortait des gros sacs du sin-gam' pendant qu'tu mettais du eh, eh, eh, eh, eh, eh, eh, eh C'est moi l'jefe, j'sais m'habiller, j'ai des billets, canon scié ouais, tu veux goûter ? Ouais J'sais pas, on dirait woh J'vais m'en tirer hey devant l'officier ah, ah, j'vais m'en tirer ouais mais toi, t'as pas nié sku, sku On défonce ta porte comme le 36, ok brr, paw, paw, t'attends personne, allez, pétasse, jump, jump baw Collé serré, j'la frotte dans l teum-teum sku, tchiki, tchiki, tchiki, bang, bang tchiki Moi, c'est Pijo R9, c'st pas Giroud non, mon guetteur entend l'bruit des gyro' ah, ah, ah Han, han, han, han han, han, han, han, han, han han, han Negri, Coco Coco Jojo Jojo dans le hall dans le hall J'débite skrt, skrt du fric skrt, skrt, snowfall ah ouais ?, Franklin ah, ah Tu nous vois tous les jours dans la calle mais c'est qu'un tremplin le Coco Jojo de Pijo R9, woh, ok brr, rrah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Baby, j'veux qu'tu bouges ton boule sur ma bite ouh J'fume pas d'bédo mais j'aime la pipe brr, pah Les p'tits lâchent les stylos Bic, Bic eh, eh, dans l'hall, revendent la zip' okay Olalah, Johnny marque la poisse mais olalah Quand t'es dans la merde, t'es sololo brr, Negri, Coco Jojo, dans ta sonono eh, eh Tu prends ton 10, ton 20 mmh, mmh et tu hors de ma vue mmh, mmh L'amour, ça rend aveugle mmh, mmh, l'argent, ça rend la vue mmh, mmh Igo, j'ai trop la dalle mmh, mmh comme si j'sors d'garde à vue eh Elle m'envoie son cavu hey mais gros, j'la laisse en vue hey, hey G2B, Negrito, validés dans l'ghetto ouh, ouh Pour le blé, on s'lève tôt, ouais, pour le blé, on s'lève tôt hey G2B, Negrito okay, validés dans l'ghetto hey, okay Pour le blé, on s'lève tôt hey, ouais, pour le blé, on s'lève tôt brr, rah, rah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Ibra 50K Game Over Hey, Ibra 50K Game Over, pah, pah Ibra 50K, ah, ah, ah La calle, c'est fort, c'est fort Takeshi-San</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>So le flem Junior Alaprod, zanmi C'est qui cette frappe de Rooney ? C'est qui cette frappe de Rooney ? J'la fais monter dans l'bolide Téquila Sunrise tous les jours, tous les jours, tous les jours Petit shot dans la foulée, c'est comme ça qu'j'passe l'enroulée Téquila Sunrise tous les jours Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramèn avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hllo Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah You might also like Quand je la vois ma tête fait ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa J'la garde près de moi comme un glock ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa Le temps me paraît comme sans limite En toi, j'ai percé le mystère On se reverra sans doute Je crois qu'elle a capté le mood Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah La frappe de Samuel Eto'o La frappe de Samuel Eto'o J'voulais le monde j'me suis levé très tôt J'ai encore des reufs dans le ghetto Le roro, les précieux métaux métaux La plata, le réseau Elle veut la belle vie les cadeaux cadeaux Bébé veut goûter le gâteau Elle parle anglais j'lui réponds Hello hello Bisous bisous dans le tel-ho tel-ho Petit dej au lit sur le plateau Puis j'rallume la gelato J'm'introduit dans tes souvenirs Tes sourires et tes soupirs Toi et moi sur le bateau La cerise sur le gâteau Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah J'crois qu'elle a capté le mood oh yeah</t>
+          <t>So le flem Junior Alaprod, zanmi C'est qui cette frappe de Rooney ? C'est qui cette frappe de Rooney ? J'la fais monter dans l'bolide Téquila Sunrise tous les jours, tous les jours, tous les jours Petit shot dans la foulée, c'est comme ça qu'j'passe l'enroulée Téquila Sunrise tous les jours Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramèn avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hllo Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah Quand je la vois ma tête fait ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa J'la garde près de moi comme un glock ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa Le temps me paraît comme sans limite En toi, j'ai percé le mystère On se reverra sans doute Je crois qu'elle a capté le mood Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah La frappe de Samuel Eto'o La frappe de Samuel Eto'o J'voulais le monde j'me suis levé très tôt J'ai encore des reufs dans le ghetto Le roro, les précieux métaux métaux La plata, le réseau Elle veut la belle vie les cadeaux cadeaux Bébé veut goûter le gâteau Elle parle anglais j'lui réponds Hello hello Bisous bisous dans le tel-ho tel-ho Petit dej au lit sur le plateau Puis j'rallume la gelato J'm'introduit dans tes souvenirs Tes sourires et tes soupirs Toi et moi sur le bateau La cerise sur le gâteau Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah J'crois qu'elle a capté le mood oh yeah</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah You might also like Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
+          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Han, han, han, han, han, han Brr, pah, pah Fucked up dans le bendo, j'suis fucked up dans le bendo Gang Fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Han, han, han, han, han, han Grr, R9, RK J'suis comme toi, j'ai des blèmes-pro, dis-leur qu'j'ai un Glock nine sous le manteau J'ai le .44, 4x4 noir mat, flippe pas, tic-tac, hun-hun J'ai le chargeur qui fait des trous Ça flingue T'es mauvais dans ta putain d'vie et quand ça pète, tu dis qu'le bon Dieu t'éprouves Putain, aujourd'hui, le ciel est gris, j'suis en bas, je sais compter, je sais écrire, hun Ah-ah-ah Bien sûr que les temps ont changé, mes contrats, je laisse le baveux les lire Brr, oh Automatique, click-clack, p'tite dédi', j'ai des munitions sous l'clic-clac Paw, paw, paw Y a des p'tits d'la tess à la gare Bâtard, ça ravitaille les ges-sh' de Pâques Les ges-sh' Écarte-toi vite de nous si tu veux pas qu'les balles traversent ton corps On a tellement découpe l'shit Ouh, numéro dix, on débite des ballons d'or Ouh J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale You might also like Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Paris, c'est magique ou bien c'est tragique, demande à Guy, gros, moi, c'est la banlieue Ça revend partout Gang, ça piétine ta mère Gang pour moins d'un salaire ou bien d'un salam, hassoul Rah On est dans ça depuis tout jeune Tout jeune, sur le hazi, j'étais tout seul Tout seul Et au tard-mi, j'étais tout seul, la même paire que quand j'étais bosseur, la putain d'vos surs Grr, pah, pah, pah MIG Moula, RK du 77 et Guy2Bezbar, t'inquiète pas, mon pote, on va t'remonter Gang si t'es une poucave ou si tu hasba Grr J'traîne dans la calle comme tous mes semblables, on fait pas semblant, y a pas d'balles à blanc Pah, pah, pah, rah Gros, c'est pas comme ça, tu veux pas payer cash, tu veux qu'on t'arrange Gang, gang, gang, ouh-ouh, pah, pah J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Attends, attends, attends, ça va partir en couille Ouais, cousin, que des coups d'couteau Hun-hun, Jojo Picho, Ronaldo Hun-hun, Jojo, toujours en attaque, mon gars Hun-hun, Jojo Dis-leur Coco C'est fort boy J'suis pas ccord-d'a, t'as la touche pas potable, bref, j'remets tout au clair, cartes sur table, fin des blagues J'suis en pétard, j'allume portable, ça va plus loin qu'tu l'crois, pas de blocage Ouh-ouh Envoie la foudre, que du sabotageT'entends pas ou quoi ? C'est pas gens qui nous disent quoi faire la calle, on maîtrise direct La zone est sous contrôle, on remet tout l'monde à sa place comme si c'était Tetris Hun-hun, hun-hun, eh-eh-eh Papito charme, on ramène la drogue, le cash et les armes Brr</t>
+          <t>Han, han, han, han, han, han Brr, pah, pah Fucked up dans le bendo, j'suis fucked up dans le bendo Gang Fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Han, han, han, han, han, han Grr, R9, RK J'suis comme toi, j'ai des blèmes-pro, dis-leur qu'j'ai un Glock nine sous le manteau J'ai le .44, 4x4 noir mat, flippe pas, tic-tac, hun-hun J'ai le chargeur qui fait des trous Ça flingue T'es mauvais dans ta putain d'vie et quand ça pète, tu dis qu'le bon Dieu t'éprouves Putain, aujourd'hui, le ciel est gris, j'suis en bas, je sais compter, je sais écrire, hun Ah-ah-ah Bien sûr que les temps ont changé, mes contrats, je laisse le baveux les lire Brr, oh Automatique, click-clack, p'tite dédi', j'ai des munitions sous l'clic-clac Paw, paw, paw Y a des p'tits d'la tess à la gare Bâtard, ça ravitaille les ges-sh' de Pâques Les ges-sh' Écarte-toi vite de nous si tu veux pas qu'les balles traversent ton corps On a tellement découpe l'shit Ouh, numéro dix, on débite des ballons d'or Ouh J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Paris, c'est magique ou bien c'est tragique, demande à Guy, gros, moi, c'est la banlieue Ça revend partout Gang, ça piétine ta mère Gang pour moins d'un salaire ou bien d'un salam, hassoul Rah On est dans ça depuis tout jeune Tout jeune, sur le hazi, j'étais tout seul Tout seul Et au tard-mi, j'étais tout seul, la même paire que quand j'étais bosseur, la putain d'vos surs Grr, pah, pah, pah MIG Moula, RK du 77 et Guy2Bezbar, t'inquiète pas, mon pote, on va t'remonter Gang si t'es une poucave ou si tu hasba Grr J'traîne dans la calle comme tous mes semblables, on fait pas semblant, y a pas d'balles à blanc Pah, pah, pah, rah Gros, c'est pas comme ça, tu veux pas payer cash, tu veux qu'on t'arrange Gang, gang, gang, ouh-ouh, pah, pah J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Attends, attends, attends, ça va partir en couille Ouais, cousin, que des coups d'couteau Hun-hun, Jojo Picho, Ronaldo Hun-hun, Jojo, toujours en attaque, mon gars Hun-hun, Jojo Dis-leur Coco C'est fort boy J'suis pas ccord-d'a, t'as la touche pas potable, bref, j'remets tout au clair, cartes sur table, fin des blagues J'suis en pétard, j'allume portable, ça va plus loin qu'tu l'crois, pas de blocage Ouh-ouh Envoie la foudre, que du sabotageT'entends pas ou quoi ? C'est pas gens qui nous disent quoi faire la calle, on maîtrise direct La zone est sous contrôle, on remet tout l'monde à sa place comme si c'était Tetris Hun-hun, hun-hun, eh-eh-eh Papito charme, on ramène la drogue, le cash et les armes Brr</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Cartier Précis comme my G, j'te passe Tu le veux ton dix, passe L'argent tout d'suite pas d'plus tard J'avance comme Cartier, chez moi je brasse Musicien, j'écris, j'ramasse J'suis , pas b'soin d'khalass J'sais nager, j'bois pas trop d'tasse Maman est rentrée, j'vois plus trop d'tass' maman est rentrée, j'vois plus trop d'tass' Attaquant, j'loupe pas l'occaz J'cours à pattes, pas besoin d'locations Pas besoin d'prouvr qu'j'entasse pas besoin d'prouvr qu'j'entasse Quand j'dépense, j'vais chez l'comptable J'fais des sons et c'est rentable J'tise au boulot même quand j'vais mal Bien trop précis pour eux, j'loupe pas Trop bien sorti quand j'mords la poche Drink avec les potos le soir C'est Roshi le noir donc hors-la-loi Fais ber-tom, j'ramasse J'gratte, pour l'inspi pas b'soin d'molly Parle de sous ou héro, j'cogite You might also like Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave ho ho Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora Dans une plage, j'préfère qu'on bouffe d'la gambas Elle m'dit je t'aime, casse-toi et j'en passe J'en passe, mais j'l'embrasse pas C'est Coco, j'suis là, j'ramasse J'te prends pas au sérieux, on parle de reprendre la ville Mais vous comprenez pas, pas, pas, pas quoi ? Le compte en banque d'Azpilicueta César Si j'bé-tom, j'me lève, j'me lave Parce que par terre c'est sale de geudin Comme la plupart d'mon cash papel Comme la moitié d'tes meufs pétasse Comme la plupart des autres, j'me suis pas fait entièrement tout seul On frappe, on défend comme Luigi Buffon On baise la brigade et tout ses koufars On t'baise, mon gang c'est pas des bouffons C'est les compet' contre les motards Puis tu sais, puis tu sais J'vais te raconter J'achète ici, j'achète là-bas Tout, tout, tout, tout sans compter chez Fendi J'étais sur eux, moi préfère die die comme eux Moi, rafale, bye, bye, bye Moi, mon style c'est fort, ça flingue Mon fort c'est calle, calle, calle, calle Jojo J'suis très précis, yah Dans la cabine, j'chante pour les miens J'conte mes récits, yah J'compte sur mon Dieu, fuck tes reliques Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave ho, ho Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora1</t>
+          <t>Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Cartier Précis comme my G, j'te passe Tu le veux ton dix, passe L'argent tout d'suite pas d'plus tard J'avance comme Cartier, chez moi je brasse Musicien, j'écris, j'ramasse J'suis , pas b'soin d'khalass J'sais nager, j'bois pas trop d'tasse Maman est rentrée, j'vois plus trop d'tass' maman est rentrée, j'vois plus trop d'tass' Attaquant, j'loupe pas l'occaz J'cours à pattes, pas besoin d'locations Pas besoin d'prouvr qu'j'entasse pas besoin d'prouvr qu'j'entasse Quand j'dépense, j'vais chez l'comptable J'fais des sons et c'est rentable J'tise au boulot même quand j'vais mal Bien trop précis pour eux, j'loupe pas Trop bien sorti quand j'mords la poche Drink avec les potos le soir C'est Roshi le noir donc hors-la-loi Fais ber-tom, j'ramasse J'gratte, pour l'inspi pas b'soin d'molly Parle de sous ou héro, j'cogite Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave ho ho Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora Dans une plage, j'préfère qu'on bouffe d'la gambas Elle m'dit je t'aime, casse-toi et j'en passe J'en passe, mais j'l'embrasse pas C'est Coco, j'suis là, j'ramasse J'te prends pas au sérieux, on parle de reprendre la ville Mais vous comprenez pas, pas, pas, pas quoi ? Le compte en banque d'Azpilicueta César Si j'bé-tom, j'me lève, j'me lave Parce que par terre c'est sale de geudin Comme la plupart d'mon cash papel Comme la moitié d'tes meufs pétasse Comme la plupart des autres, j'me suis pas fait entièrement tout seul On frappe, on défend comme Luigi Buffon On baise la brigade et tout ses koufars On t'baise, mon gang c'est pas des bouffons C'est les compet' contre les motards Puis tu sais, puis tu sais J'vais te raconter J'achète ici, j'achète là-bas Tout, tout, tout, tout sans compter chez Fendi J'étais sur eux, moi préfère die die comme eux Moi, rafale, bye, bye, bye Moi, mon style c'est fort, ça flingue Mon fort c'est calle, calle, calle, calle Jojo J'suis très précis, yah Dans la cabine, j'chante pour les miens J'conte mes récits, yah J'compte sur mon Dieu, fuck tes reliques Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave ho, ho Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora1</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Han, c'est pour la call, call' là ? j'ai fait les bails là Faut pousser les shoes avant d'sortir d'la maison Lunettes sur le terrain, paire de quatre saisons jai ma paire de quatre saisons J'ai mon café sugar, café sugar, café sugar Mets moi plus de sucre, de sugar eh, sugar eh, sugar eh Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Y a d'la eh, bon calibre pour les fachots dans le 4Matic J'ai ma kichta au frais dans le 4Matic Que des putains de gros pétards, j'allume mon pétou en ? dans le 4Matic ?, j'fais l'terrain comme Magic Johnson J'ai du fric, c'est là que j'la cartonne Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Oh les bâtards, oh les gamins J'suis dans coaltar, tous les matins Ma caisse est devant, elle est mal garée C'est pour ?, Lacrim et Dingaré On va t'virer du crew car t'es pas carré On règle le problème et personne ne crie Devant ta nana, on va te faire danser le founana 'ser le founana Tu vas danser le founana, tu vas danser le founana devant ta nana Rien qu'on envoit que des ? des zipettes Coco Jojo, R9, 17 c'est le sport ? gang, on est prêt pour la guerre sur la tête du gang Oh les bâtards, oh les gamins Allez, y a d'la hit Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Big up my G, impli' ? y a d'la hit Guy2Bezbar, Coco JojoYou might also like</t>
+          <t>Han, c'est pour la call, call' là ? j'ai fait les bails là Faut pousser les shoes avant d'sortir d'la maison Lunettes sur le terrain, paire de quatre saisons jai ma paire de quatre saisons J'ai mon café sugar, café sugar, café sugar Mets moi plus de sucre, de sugar eh, sugar eh, sugar eh Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Y a d'la eh, bon calibre pour les fachots dans le 4Matic J'ai ma kichta au frais dans le 4Matic Que des putains de gros pétards, j'allume mon pétou en ? dans le 4Matic ?, j'fais l'terrain comme Magic Johnson J'ai du fric, c'est là que j'la cartonne Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Oh les bâtards, oh les gamins J'suis dans coaltar, tous les matins Ma caisse est devant, elle est mal garée C'est pour ?, Lacrim et Dingaré On va t'virer du crew car t'es pas carré On règle le problème et personne ne crie Devant ta nana, on va te faire danser le founana 'ser le founana Tu vas danser le founana, tu vas danser le founana devant ta nana Rien qu'on envoit que des ? des zipettes Coco Jojo, R9, 17 c'est le sport ? gang, on est prêt pour la guerre sur la tête du gang Oh les bâtards, oh les gamins Allez, y a d'la hit Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Big up my G, impli' ? y a d'la hit Guy2Bezbar, Coco Jojo</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Prie dieu pour rester fort tous les jours En vrai t'as même pas idée Sont remplis de jalousie Sont remplis de jalousie Je l'ai fait grâce à dieu Je l'ai fait grâce à dieu Tu peux le faire aussi Hum La musique m'enrichie mais t'imagines pas c'que j'ai enduré T'imagines pas C'est une bénédiction d'm'avoir connu faire ? du tiekson C'est une bénédiction C'est une bénédiction d'm'avoir connu faire ? du tiekson Merci J'allume un joint j'me sers un cup Et j'me rappelle quand tout était sombre Nooo Les suicides, les expulsions Oh-ohh Adrénaline pendant la mission Oh-ohh Tu sais pas c'que j'vis Tu ne sais pas ce que je vis, eh eh Tu sais pas c'que j'vis As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p't-être que j'suis qu'un chanceux P't-être que j'suis qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, j'suo Tu ne sais pas c'que j'vis You might also like J'aime trop mes habits, ce matin mais j'suis ko J'ai bédave la patate hier jusqu'à pas d'heure Pah Rien n'est prévu cette aprem, c'est pas nouveau Donc ma nouvelle pétasse va passer vers 15h Dès le mat n, j'me trouve bg devant la glace Dès le matu, tu, tu ne sais qu'on est les buteurs Les flingueurs Demain tu m'feras la tête si j'pars comme un voleur T'façon c'est devant, t'façon c'est tout droit, d'vant les restaurants pas loin dl'opéra Eh, eh As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p'que j'vaist-être suis qu'un chnceux P't-être que j'su qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, jo Tu ne sais pas c'que j'v</t>
+          <t>Prie dieu pour rester fort tous les jours En vrai t'as même pas idée Sont remplis de jalousie Sont remplis de jalousie Je l'ai fait grâce à dieu Je l'ai fait grâce à dieu Tu peux le faire aussi Hum La musique m'enrichie mais t'imagines pas c'que j'ai enduré T'imagines pas C'est une bénédiction d'm'avoir connu faire ? du tiekson C'est une bénédiction C'est une bénédiction d'm'avoir connu faire ? du tiekson Merci J'allume un joint j'me sers un cup Et j'me rappelle quand tout était sombre Nooo Les suicides, les expulsions Oh-ohh Adrénaline pendant la mission Oh-ohh Tu sais pas c'que j'vis Tu ne sais pas ce que je vis, eh eh Tu sais pas c'que j'vis As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p't-être que j'suis qu'un chanceux P't-être que j'suis qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, j'suo Tu ne sais pas c'que j'vis J'aime trop mes habits, ce matin mais j'suis ko J'ai bédave la patate hier jusqu'à pas d'heure Pah Rien n'est prévu cette aprem, c'est pas nouveau Donc ma nouvelle pétasse va passer vers 15h Dès le mat n, j'me trouve bg devant la glace Dès le matu, tu, tu ne sais qu'on est les buteurs Les flingueurs Demain tu m'feras la tête si j'pars comme un voleur T'façon c'est devant, t'façon c'est tout droit, d'vant les restaurants pas loin dl'opéra Eh, eh As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p'que j'vaist-être suis qu'un chnceux P't-être que j'su qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, jo Tu ne sais pas c'que j'v</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dimanche 3 décembre j'fête pas mon anniv J'écrit mes bangers au labo J'suis plutôt comme Chili mais c'est que l'année La concurrence m'a rendu carbo Sors le hanout même si le temps n'est pas beau J'ai voulu ton coeur je t'ai dit monte dans le bateau Si je suis mauvais ne me fais pas de cadeau Si je suis vrai dis moi longue vie mon frérot Bouyaka bouyaka bouyaka En cas de heja on compte sur le A.K Le vert est baqué Ricardo Kaka Le biff m'a rendu parano mon gars Qui me fait un coup de pute ? Qui me fait un coup de pute ? Wallay je lui pourri sa vie Donc sois avec moi pour la vie On fera la guerre toute notre vie Des braques braques braques braques J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme J'les braque braque braque braque J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme Que de la cam j'fais un plan j'détruis la cam J'ai trop de fierté pour demander Ton son est lourd donc on met Shazam J'ai rien à prouver frérot j'leur baise leur mère un par un Là j'suis en Ze Pequeño, tu m'as trahi t'inquiète pas y'a rien J'suis pas en chien je m'en sors bien J'pense tout les jours à demain, que des vaut rien J'vois les humains s'endetter pour du Balmain Hijo de puta me sert pas la main On sucera jamais personne pour vivre notre vie à l'oeil On sucera jamais personne pour vivre notre vie à l'oeilYou might also like</t>
+          <t>Dimanche 3 décembre j'fête pas mon anniv J'écrit mes bangers au labo J'suis plutôt comme Chili mais c'est que l'année La concurrence m'a rendu carbo Sors le hanout même si le temps n'est pas beau J'ai voulu ton coeur je t'ai dit monte dans le bateau Si je suis mauvais ne me fais pas de cadeau Si je suis vrai dis moi longue vie mon frérot Bouyaka bouyaka bouyaka En cas de heja on compte sur le A.K Le vert est baqué Ricardo Kaka Le biff m'a rendu parano mon gars Qui me fait un coup de pute ? Qui me fait un coup de pute ? Wallay je lui pourri sa vie Donc sois avec moi pour la vie On fera la guerre toute notre vie Des braques braques braques braques J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme J'les braque braque braque braque J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme Que de la cam j'fais un plan j'détruis la cam J'ai trop de fierté pour demander Ton son est lourd donc on met Shazam J'ai rien à prouver frérot j'leur baise leur mère un par un Là j'suis en Ze Pequeño, tu m'as trahi t'inquiète pas y'a rien J'suis pas en chien je m'en sors bien J'pense tout les jours à demain, que des vaut rien J'vois les humains s'endetter pour du Balmain Hijo de puta me sert pas la main On sucera jamais personne pour vivre notre vie à l'oeil On sucera jamais personne pour vivre notre vie à l'oeil</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bitchies si t'as une fellation à faire, vas-y fait la fait la, Les keufs m'ont mis les pinces monsieur l'agent j'ai rien fait là fait là C'est ma chienne lâcher là cher là Verre de Jack à se-lai se-lai Gros llet-bi Marbella bella Là-bas j'vais m'isoler zoler Y'a qu'les putes qui jouent les bellas, J'te dis vrai désolé solé Vie de chien pas hella hella On t'allume pour de money money Jungle Squad on est là n'est là Les p'tits lèvent en ter-scoo volé Dialel va s'occuper d'toi là, Il va pas rigoler goler Bitchies si t'as une fellation à faire vas-y fait là fait là I-cli à gauche les bleus guettent à droite c'est che-la XXXXX Matin midi soir je pense qu'au fric que j'ai à gratter gratter Bande de suceur de bite j'crois bien qu'on vous a trop gâté gâté Tir mais faut pas rater rater Racli passe faut mater mater Ient-cli passe faut placer placer On en aura jamais assez Tout pour lbusiness rien pour tes ptites fesses et jveux pas dbisous bisous Arrête personnes peut nous test on a prit ZizouYou might also like</t>
+          <t>Bitchies si t'as une fellation à faire, vas-y fait la fait la, Les keufs m'ont mis les pinces monsieur l'agent j'ai rien fait là fait là C'est ma chienne lâcher là cher là Verre de Jack à se-lai se-lai Gros llet-bi Marbella bella Là-bas j'vais m'isoler zoler Y'a qu'les putes qui jouent les bellas, J'te dis vrai désolé solé Vie de chien pas hella hella On t'allume pour de money money Jungle Squad on est là n'est là Les p'tits lèvent en ter-scoo volé Dialel va s'occuper d'toi là, Il va pas rigoler goler Bitchies si t'as une fellation à faire vas-y fait là fait là I-cli à gauche les bleus guettent à droite c'est che-la XXXXX Matin midi soir je pense qu'au fric que j'ai à gratter gratter Bande de suceur de bite j'crois bien qu'on vous a trop gâté gâté Tir mais faut pas rater rater Racli passe faut mater mater Ient-cli passe faut placer placer On en aura jamais assez Tout pour lbusiness rien pour tes ptites fesses et jveux pas dbisous bisous Arrête personnes peut nous test on a prit Zizou</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon re-vé Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolic, j'te sors un fusil j'rafale avec XXX You might also likeRefrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, canebé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ca va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste de mignion petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrete, faut qu'tu m'enterres XXX mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sur, Ah bien sur Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid</t>
+          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon re-vé Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolic, j'te sors un fusil j'rafale avec XXX Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, canebé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ca va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste de mignion petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrete, faut qu'tu m'enterres XXX mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sur, Ah bien sur Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mes reufs de bezbar me disent G2 faut plier lgame Mes reufs de Marca me disent G2 faut plier lgame Et libérez mes frères Et libérez mes frères pour eux jvais plier lgame Pour ceux qui croyaient pas Pour ceux qui croyaient pas, wAllah jvais plier lgame Par où commencer Par où commencer Jsuis rentré fonce-dé Jai encore perdu les clés Jai laissé le rosé Va voir dans le fer Elle dit quelle est en couple Pourtant elle coopère Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien You might also like Hé mec cest pas la fête Ramène la recette Tu vas pas mla faire Jai le jeu facile et la gâchette Ramène cque tas, on lachète Parait que jai plusieurs facettes Ils ont tous le mort jles ai wet Jles ramasse avec une brouette Jai mit du feu pour pas quil passe la ligne Ils dépassent wAllah que jles efface binks Moi jveux pas laisser de traces Ils mont fait coups de tass Ils méritent pas de passes Plus rien à perdre Donc on brasse Jsuis monté dans ltrain Et sans mettre de de coup de pass Jai trop la lle-da frère Quand jrentre dans la cabine binks Quel est le judas qui va trahir moi et mes amis Tu sais mes ennemis tu sais mes ennemis Ils aiment trop la vie ils aiment trop la vie Mais comment leur dire Quils devront bientôt la perdre Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Et on fait du fric on sen bat les reins Parle pas chinois Laisse passer tous mes pèlerins Laissez les croire quils sont devant Pendant quon charbonne comme des noirs Sur le terrain Parle nous de kilos Sinon nique ta race Depuis tout minot Jleur mets des balafres Guy2bezbar cest pas pour les gamins Mais tous ceux qui accumulent Le bif et les cadavres Ça pour les M-ZO les SP Très loin dceux qui font les tasse-pé Comment voulez-vous le respect Jusquau bout de la guerre on est restés De la ce-for à ceux qui ont cru en moi Ecoutez bien quand je parle Jsuis très sûr de moi Les refrés, les coups derrière les barreaux Le mental dacier on restera toujours vrais youvois Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien</t>
+          <t>Mes reufs de bezbar me disent G2 faut plier lgame Mes reufs de Marca me disent G2 faut plier lgame Et libérez mes frères Et libérez mes frères pour eux jvais plier lgame Pour ceux qui croyaient pas Pour ceux qui croyaient pas, wAllah jvais plier lgame Par où commencer Par où commencer Jsuis rentré fonce-dé Jai encore perdu les clés Jai laissé le rosé Va voir dans le fer Elle dit quelle est en couple Pourtant elle coopère Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Hé mec cest pas la fête Ramène la recette Tu vas pas mla faire Jai le jeu facile et la gâchette Ramène cque tas, on lachète Parait que jai plusieurs facettes Ils ont tous le mort jles ai wet Jles ramasse avec une brouette Jai mit du feu pour pas quil passe la ligne Ils dépassent wAllah que jles efface binks Moi jveux pas laisser de traces Ils mont fait coups de tass Ils méritent pas de passes Plus rien à perdre Donc on brasse Jsuis monté dans ltrain Et sans mettre de de coup de pass Jai trop la lle-da frère Quand jrentre dans la cabine binks Quel est le judas qui va trahir moi et mes amis Tu sais mes ennemis tu sais mes ennemis Ils aiment trop la vie ils aiment trop la vie Mais comment leur dire Quils devront bientôt la perdre Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Et on fait du fric on sen bat les reins Parle pas chinois Laisse passer tous mes pèlerins Laissez les croire quils sont devant Pendant quon charbonne comme des noirs Sur le terrain Parle nous de kilos Sinon nique ta race Depuis tout minot Jleur mets des balafres Guy2bezbar cest pas pour les gamins Mais tous ceux qui accumulent Le bif et les cadavres Ça pour les M-ZO les SP Très loin dceux qui font les tasse-pé Comment voulez-vous le respect Jusquau bout de la guerre on est restés De la ce-for à ceux qui ont cru en moi Ecoutez bien quand je parle Jsuis très sûr de moi Les refrés, les coups derrière les barreaux Le mental dacier on restera toujours vrais youvois Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Et faut pas nous emmerder Les vitres sont teintées On rafale et sans pitié De les voir seul ça nous fait bander Je n'perds pas de temps, t'as rien à dire devant le gun tu t'tait J'marche solo, dernier des combattants J'ai placé la bombe pour les faire sauter Porter ses couilles et démerder tout seul c'est question d'autonomie Bloquer ses thunes et pas les toucher c'est question juste d'économie Mais quelle folie ! Tu parles du passé que j'ai démoli Ma vie s'est embelli, quand je regarde derrière c'était pas joli You might also like Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Oh merde, parait que j'arriverai jamais au sommet Tenez, niquez vos mères Dis-leurs qu'on arrive et que l'équipe est XXX Où tu vas t'échapper ? Désolé je ne pourrais pas faire la paix J'avance la route est barré, j'défonce cette putain d'barrière On arrive en warrior On arrive en warrior J'arrive éteindre des carrières Assurez bien vos arrières Ils disent que j'suis pas invité, parce-que j'suis trop agité Ma place ils l'ont pas merité Avec eux, moi, je n'aurai jamais d'affinité Vu qu'il y'aura pas d'charité Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt</t>
+          <t>Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Et faut pas nous emmerder Les vitres sont teintées On rafale et sans pitié De les voir seul ça nous fait bander Je n'perds pas de temps, t'as rien à dire devant le gun tu t'tait J'marche solo, dernier des combattants J'ai placé la bombe pour les faire sauter Porter ses couilles et démerder tout seul c'est question d'autonomie Bloquer ses thunes et pas les toucher c'est question juste d'économie Mais quelle folie ! Tu parles du passé que j'ai démoli Ma vie s'est embelli, quand je regarde derrière c'était pas joli Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Oh merde, parait que j'arriverai jamais au sommet Tenez, niquez vos mères Dis-leurs qu'on arrive et que l'équipe est XXX Où tu vas t'échapper ? Désolé je ne pourrais pas faire la paix J'avance la route est barré, j'défonce cette putain d'barrière On arrive en warrior On arrive en warrior J'arrive éteindre des carrières Assurez bien vos arrières Ils disent que j'suis pas invité, parce-que j'suis trop agité Ma place ils l'ont pas merité Avec eux, moi, je n'aurai jamais d'affinité Vu qu'il y'aura pas d'charité Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Oh-ah, oh-ah, oh-ah Oh-ah, oh-ah, oh-oh Okay, faut avoir une mentalité de ouf pour assumer nos vies Pour assumer nos vies Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh Nous on a grandi sans rien, normal qu'on veuille tout Normal qu'on veuille tout Malgré tous les coups durs de la vie tu sais qu'on tient l'coupTu sais qu'on tient l'coup Notre destin est tracé faut juste un peu d'couragejuste un peu d'courage J'ai perdu le chemin d'la maison à la recherche du gent-arrecherche du gent-ar Faut avoir une mentalité de ouf pour assumer nos viespour assumer nos lifes Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles You might also like Bali, c'est noir c'qu'il se passe dans nos tiekson, mais te-tê comme Bali Leur faire la guerre pour nous protéger, se résume ma vie Souffre mais ne pleure pas baby, oh j'vais t'embellir Je les ai porté dans mon cur comme mes frères mais mon blase ils l'ont sali Moi, j'ai décidé d'tout prendre si t'es comme moi viens là qu'on s'allie Ils ont tout fait pour nous voir au sol on peut dire qu'ils ont failli Et je ne louperais pas l'occas' non non, j'peux plus être en faillite Souffre mais ne pleure pas jojo, même si c'est pénible Souffre mais ne pleure pas baby, même si c'est pénible Papito charme j'ai pas encore le pouvoir donc j'me sens pas libre Anga des picho, j'suis encore dans traquenard qui parle en kalib Ouh-ouh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet Jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah</t>
+          <t>Oh-ah, oh-ah, oh-ah Oh-ah, oh-ah, oh-oh Okay, faut avoir une mentalité de ouf pour assumer nos vies Pour assumer nos vies Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh Nous on a grandi sans rien, normal qu'on veuille tout Normal qu'on veuille tout Malgré tous les coups durs de la vie tu sais qu'on tient l'coupTu sais qu'on tient l'coup Notre destin est tracé faut juste un peu d'couragejuste un peu d'courage J'ai perdu le chemin d'la maison à la recherche du gent-arrecherche du gent-ar Faut avoir une mentalité de ouf pour assumer nos viespour assumer nos lifes Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Bali, c'est noir c'qu'il se passe dans nos tiekson, mais te-tê comme Bali Leur faire la guerre pour nous protéger, se résume ma vie Souffre mais ne pleure pas baby, oh j'vais t'embellir Je les ai porté dans mon cur comme mes frères mais mon blase ils l'ont sali Moi, j'ai décidé d'tout prendre si t'es comme moi viens là qu'on s'allie Ils ont tout fait pour nous voir au sol on peut dire qu'ils ont failli Et je ne louperais pas l'occas' non non, j'peux plus être en faillite Souffre mais ne pleure pas jojo, même si c'est pénible Souffre mais ne pleure pas baby, même si c'est pénible Papito charme j'ai pas encore le pouvoir donc j'me sens pas libre Anga des picho, j'suis encore dans traquenard qui parle en kalib Ouh-ouh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet Jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Aveuglés, leur gent-ar part en vacances avec des escorts Vivement que tous ces petits connards s'arrêtent là La balle que mon poto a tiré, c'était pas pour lui mais pour toi x3 Ok, c'est Coco Jojo qu'on appelle le sous-côté On s'la pète, on s'la pète, comme des négros qui avaient déjà tout Ils ont entendu paw paw, mais c'est calme, on y va, on dit pas tout Y'a ceux qui jactent pour rien, qui n'ont rien et qui sont vraiment par terre Et puis y'a nous, jeunes négros affamés, on est gang et prêts à tout J'suis dans le tchop négro, j'suis dans chatte négro, gros j'suis partout J'remplis les sacs négro, je veux tout négro, donc je fais tout J'suis dans la compo en pointe, mais je vois que les autres sont pas d'accord On surine, on décore J'me réveille black dans une ville noire, comme un chat ou mes Vapor Poto c'est hardcore la manière qu'on t'endort Les temps évoluent mais je n'sais toujours quoi dire A part qu'on vaut de l'or et qu'on veut de l'or Y'a du fric, on le prend sans vous mentir Arrête de gigoter tout-par comme si t'allais mourir Et c'est qu'une balle sa mère, ça fait mal, on te l'as mis dans la partie qui t'fait le moins souffrir La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' You might also like Assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool Que tous les mecs de la callé se lèvent, tous unis contre tous, ok merci c'est cool yah Tu m'connais à 6h du matin, j'rentrerais pas tout seul, j'remercie la foule yah Je sais qui m'a dérangé, pendant ma carrière ils m'ont dérangé Bébé mon cur on me l'a arraché, bébé mon cur on me l'a arraché Bebeto, Bebeto, ah Bebeto, Bebeto On gère le toss, on gère le toss Des fois j'ai envie de crier juste comme ça Moi j'ai pas choisi, gros c'est comme ça 13 ans on t'apprend à mélanger comme ça Mais y'a rien à tté-gra, y'a rien à tté-gra, y'a rien à tté-gra La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Tu peux reprendre, la callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' La callé, la call'-call' x41</t>
+          <t>Aveuglés, leur gent-ar part en vacances avec des escorts Vivement que tous ces petits connards s'arrêtent là La balle que mon poto a tiré, c'était pas pour lui mais pour toi x3 Ok, c'est Coco Jojo qu'on appelle le sous-côté On s'la pète, on s'la pète, comme des négros qui avaient déjà tout Ils ont entendu paw paw, mais c'est calme, on y va, on dit pas tout Y'a ceux qui jactent pour rien, qui n'ont rien et qui sont vraiment par terre Et puis y'a nous, jeunes négros affamés, on est gang et prêts à tout J'suis dans le tchop négro, j'suis dans chatte négro, gros j'suis partout J'remplis les sacs négro, je veux tout négro, donc je fais tout J'suis dans la compo en pointe, mais je vois que les autres sont pas d'accord On surine, on décore J'me réveille black dans une ville noire, comme un chat ou mes Vapor Poto c'est hardcore la manière qu'on t'endort Les temps évoluent mais je n'sais toujours quoi dire A part qu'on vaut de l'or et qu'on veut de l'or Y'a du fric, on le prend sans vous mentir Arrête de gigoter tout-par comme si t'allais mourir Et c'est qu'une balle sa mère, ça fait mal, on te l'as mis dans la partie qui t'fait le moins souffrir La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool Que tous les mecs de la callé se lèvent, tous unis contre tous, ok merci c'est cool yah Tu m'connais à 6h du matin, j'rentrerais pas tout seul, j'remercie la foule yah Je sais qui m'a dérangé, pendant ma carrière ils m'ont dérangé Bébé mon cur on me l'a arraché, bébé mon cur on me l'a arraché Bebeto, Bebeto, ah Bebeto, Bebeto On gère le toss, on gère le toss Des fois j'ai envie de crier juste comme ça Moi j'ai pas choisi, gros c'est comme ça 13 ans on t'apprend à mélanger comme ça Mais y'a rien à tté-gra, y'a rien à tté-gra, y'a rien à tté-gra La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Tu peux reprendre, la callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' La callé, la call'-call' x41</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J'peux t'rafaler des deux mains comme Dembélé, droitier, gaucher brr Junior Alaprod, zammi Ah, Jojo, Coco Ça va faire rire à la fin, hein ? Sale Flingue et prends ton flouze, flingue et prends ton flouze Flingue et prends ton flouze, pendant qu'ils regardent nos shoes Flingue et prends ton flouze Regard derrière ma blouse, le dos est criblé d'poissons rouges De base on regarde même pas tout ce qu'ils racontent mais j'vais m'pencher personne Moi, j'traîne avec la calle, les mecs stylés, les mecs branchés Ils oublient tout ce que t'as fait d'bien, ils sont bons qu'à t'reprocher Mais à quoi bon sert de converser avec des envieux fauchés ? J'ai connu l'hiver au tier-quar, jamais d'la vie j'pourrais flancher Nous, c'est 243, 240, j'm'en bats les couilles de m'faire flasher Sur moi, 244, 240 billets violets, le double dans l'sachet Je sens toujours pas l'danger, je finirais bien par trancher J'mérite, j'finirais bien pas manger graille Baratinent que des bitches et ces bâtards disent qu'on a changé jaloux En vérité, encore heureux, si j'peux passer d'la merde au Classe G Ah, des Bicho, les Matty, les bandits, c'est parti J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep , j'suis en 240, c'est une tuerie À 240 dans l'Jeep , j'suis en 240, c'est une tuerie J'dois passer comme Curry, Chanel au pied d'ma chérie Louis Vuitton, Jean Amiri, dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep, j'suis en 240, c'est une tuerie À 240 dans l'Jeep, j'suis en 240, c'est une tuerieYou might also like</t>
+          <t>J'peux t'rafaler des deux mains comme Dembélé, droitier, gaucher brr Junior Alaprod, zammi Ah, Jojo, Coco Ça va faire rire à la fin, hein ? Sale Flingue et prends ton flouze, flingue et prends ton flouze Flingue et prends ton flouze, pendant qu'ils regardent nos shoes Flingue et prends ton flouze Regard derrière ma blouse, le dos est criblé d'poissons rouges De base on regarde même pas tout ce qu'ils racontent mais j'vais m'pencher personne Moi, j'traîne avec la calle, les mecs stylés, les mecs branchés Ils oublient tout ce que t'as fait d'bien, ils sont bons qu'à t'reprocher Mais à quoi bon sert de converser avec des envieux fauchés ? J'ai connu l'hiver au tier-quar, jamais d'la vie j'pourrais flancher Nous, c'est 243, 240, j'm'en bats les couilles de m'faire flasher Sur moi, 244, 240 billets violets, le double dans l'sachet Je sens toujours pas l'danger, je finirais bien par trancher J'mérite, j'finirais bien pas manger graille Baratinent que des bitches et ces bâtards disent qu'on a changé jaloux En vérité, encore heureux, si j'peux passer d'la merde au Classe G Ah, des Bicho, les Matty, les bandits, c'est parti J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep , j'suis en 240, c'est une tuerie À 240 dans l'Jeep , j'suis en 240, c'est une tuerie J'dois passer comme Curry, Chanel au pied d'ma chérie Louis Vuitton, Jean Amiri, dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep, j'suis en 240, c'est une tuerie À 240 dans l'Jeep, j'suis en 240, c'est une tuerie</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>J'peux te rafaler des deux mains comme Dembélé droitier, gaucher Eh yo, eh yo, eh yo Ah Jojo Eh yo Coco Ça va faire rire à la fin Flingue et prends ton flouze Flingue et prends ton flouze Flingue et prends ton flouze bien nos shoes Flingue et prends ton flouze Regarde derrière ma blouse le dos est regarde même pas Tout ce qu'ils racontnt mais j'vais me pencher Moi j'train avec la calle les mecs stylés les mecs branchés Ils oublient tout ce que t'as fait de bien ils sont bons qu'à te reprocher Mais à quoi bon sert de converser avec des envieux fauchés J'ai connu l'hiver au tier-quar jamais de la vie je pourrais flancher Nous c'est 243, 240 j'm'en bats les couilles de me faire flasher Sur moi 244, 240 billets violets le double dans le sachet Je sens toujours pas le danger, je finirais bien par trancher Je mérite, je finirais bien par manger You might also likeBaratinent que des bêtises Et ces bâtards disent qu'on a changé En vérité encore heureux Si j'peux passer de la merde au Class G les bandits c'est parti J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie Shoot un peu c'est comme Curry, Chanel au pied de ma chérie Louis Vuitton, Jean Améry Dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie</t>
+          <t>J'peux te rafaler des deux mains comme Dembélé droitier, gaucher Eh yo, eh yo, eh yo Ah Jojo Eh yo Coco Ça va faire rire à la fin Flingue et prends ton flouze Flingue et prends ton flouze Flingue et prends ton flouze bien nos shoes Flingue et prends ton flouze Regarde derrière ma blouse le dos est regarde même pas Tout ce qu'ils racontnt mais j'vais me pencher Moi j'train avec la calle les mecs stylés les mecs branchés Ils oublient tout ce que t'as fait de bien ils sont bons qu'à te reprocher Mais à quoi bon sert de converser avec des envieux fauchés J'ai connu l'hiver au tier-quar jamais de la vie je pourrais flancher Nous c'est 243, 240 j'm'en bats les couilles de me faire flasher Sur moi 244, 240 billets violets le double dans le sachet Je sens toujours pas le danger, je finirais bien par trancher Je mérite, je finirais bien par manger Baratinent que des bêtises Et ces bâtards disent qu'on a changé En vérité encore heureux Si j'peux passer de la merde au Class G les bandits c'est parti J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie Shoot un peu c'est comme Curry, Chanel au pied de ma chérie Louis Vuitton, Jean Améry Dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle Brr La capitale est sous contrôle Ouais, dans la street, toujours été droit Droit Numéro neuf, toujours eu l'bon rôle Neuf J'pourrais pas couler, toujours en pétard, tout droit et mes frères m'épaulent Toujours Que personne s'invente de life Ah-ah, on sait qui a fait quoi, qui possède le trône Pousse pas la fonte, bâtard, deux-trois coup d'fil, ta cité s'écroule Pah Toujours été dans les traquenards, dehors, toujours été dans la débrouille Peur de Dieu, moi, j'ai pas peur des gens Non mes sales gueules savent bien visées les jambes Pour plavon, j'suis très intelligent, c'est toujours Bezbar, rien n'a gé-chan, c'est toujours Bezbar, rien n'a gé-chan Stringer, The Wire, Franklin Snowfall Pah, nous, la caille-caille, on vient d'en bas Et là, zeb', gros joints bloqués dans l'hall, concerts, showcases, c'est toujours full Touche pas, hun, c'est Dieu qui m'a béni Ouais Cinq étoiles est mon hôtel, cinq étoiles dans ma te-stree Brrah, binks Blue Magic Corp, pure sang, bâtard, Winterfell, c'est l'industrie T'es mort J'irais vers les étoiles, chaud devant, bon courage à ceux qui m'ont trahi Bon courage Bon courage à ceux qui m'ont trahi, grosse force à ceux qui m'ont haït Dans tous les cas, man, c'est fort, prêt pour la guerre comme un vikings Jojo You might also like La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Let's go Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Dans nos ghettos, couteaux, sors ta lame, une nouvelle daronne sèche ses larmes Que Dieu nous pardonne, que Dieu nous guide, Winterfell Mafia, Blue Magic Chaque semaines, faut j'casse ma SIM car le chasseur peut devenir une cible Bouh, bouh Chaque jours, c'est mon cur qui s'abîme car l'humain me déçoit dans cette vie Tou-tou-tou-touh Adrénaline quand j'enfile la cagoule, j'm'introduis J'y vais En vrai, c'est peut-être l'intro du projet de Leto et Guy' Comme ça, comme ça C'est la u-re qu'on retranscris, la fin n'est pas bonne dans ton script Katana, j'fait pas d'escrime et éloquance quand je m'exprime La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Hun-hun Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Double bang, c'est fort La capitale est sous contrôle, La capitale est sous contrôle Okay La capitale est sous contrôle C'est Coco Jojo, les flingueurs, ouh-ouh La capitale est sous contrôle, La capitale est sous contrôle Brr, rah La capitale est sous contrôle Ça a commencer ici, baw</t>
+          <t>La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle Brr La capitale est sous contrôle Ouais, dans la street, toujours été droit Droit Numéro neuf, toujours eu l'bon rôle Neuf J'pourrais pas couler, toujours en pétard, tout droit et mes frères m'épaulent Toujours Que personne s'invente de life Ah-ah, on sait qui a fait quoi, qui possède le trône Pousse pas la fonte, bâtard, deux-trois coup d'fil, ta cité s'écroule Pah Toujours été dans les traquenards, dehors, toujours été dans la débrouille Peur de Dieu, moi, j'ai pas peur des gens Non mes sales gueules savent bien visées les jambes Pour plavon, j'suis très intelligent, c'est toujours Bezbar, rien n'a gé-chan, c'est toujours Bezbar, rien n'a gé-chan Stringer, The Wire, Franklin Snowfall Pah, nous, la caille-caille, on vient d'en bas Et là, zeb', gros joints bloqués dans l'hall, concerts, showcases, c'est toujours full Touche pas, hun, c'est Dieu qui m'a béni Ouais Cinq étoiles est mon hôtel, cinq étoiles dans ma te-stree Brrah, binks Blue Magic Corp, pure sang, bâtard, Winterfell, c'est l'industrie T'es mort J'irais vers les étoiles, chaud devant, bon courage à ceux qui m'ont trahi Bon courage Bon courage à ceux qui m'ont trahi, grosse force à ceux qui m'ont haït Dans tous les cas, man, c'est fort, prêt pour la guerre comme un vikings Jojo La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Let's go Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Dans nos ghettos, couteaux, sors ta lame, une nouvelle daronne sèche ses larmes Que Dieu nous pardonne, que Dieu nous guide, Winterfell Mafia, Blue Magic Chaque semaines, faut j'casse ma SIM car le chasseur peut devenir une cible Bouh, bouh Chaque jours, c'est mon cur qui s'abîme car l'humain me déçoit dans cette vie Tou-tou-tou-touh Adrénaline quand j'enfile la cagoule, j'm'introduis J'y vais En vrai, c'est peut-être l'intro du projet de Leto et Guy' Comme ça, comme ça C'est la u-re qu'on retranscris, la fin n'est pas bonne dans ton script Katana, j'fait pas d'escrime et éloquance quand je m'exprime La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Hun-hun Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Double bang, c'est fort La capitale est sous contrôle, La capitale est sous contrôle Okay La capitale est sous contrôle C'est Coco Jojo, les flingueurs, ouh-ouh La capitale est sous contrôle, La capitale est sous contrôle Brr, rah La capitale est sous contrôle Ça a commencer ici, baw</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ouais, c'est comment ? En léger Ouais G2, ouais G2, ouais G2 Ouais, Coco Jojo, wesh bien ou quoi ? Yo Joshy Joshy Ah, ah, ah, ah, ah, woh Moi, je viens d'la calle, Paris, Barbès, toi tu viens d'ailleurs fort, Coco Jojo, skurt, woh, flingue On dit qu'il faut surmonter toutes épreuves Jojo, Jojo pour être le meilleur Jojo, woh, ah, ah, ah Partout quoi qu'il arrive, quoi qu'ils fassent, on sait garder nos valeurs dans la calle, ouais Souvent, le ciel est gris, les pensées noires, pourtant, mes frères sont d'toutes les couleurs han, han, han, han Le soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Et puis, j'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes tout donné J'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes j'ai déjà tout donné Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme ma paire de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh You might also like On va faire sauter ta place woh, ça vient des fédéraux flingue On parle de gourous, tu peux pas jouer les superhéros c'est fort Hein, hein, hein, hein, ça pouvait pas s'terminer comme a-ç nan, hein, hein, hein, hein J'le fais pour ma calle woh, ma mifa, mon tier-quar, ma cité, mes potos, mes fêtards oh, oh Ma chérie coco coco, coco, coco, ah, ah, ah, oh les bâtards c'est nous, oh les gamins c'est nous C'est la calle ou c'est pas la calle ? C'est la calle C'est la calle ou c'est pas la calle ? C'est nous la calle, ah, ah Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme mes paires de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh1</t>
+          <t>Ouais, c'est comment ? En léger Ouais G2, ouais G2, ouais G2 Ouais, Coco Jojo, wesh bien ou quoi ? Yo Joshy Joshy Ah, ah, ah, ah, ah, woh Moi, je viens d'la calle, Paris, Barbès, toi tu viens d'ailleurs fort, Coco Jojo, skurt, woh, flingue On dit qu'il faut surmonter toutes épreuves Jojo, Jojo pour être le meilleur Jojo, woh, ah, ah, ah Partout quoi qu'il arrive, quoi qu'ils fassent, on sait garder nos valeurs dans la calle, ouais Souvent, le ciel est gris, les pensées noires, pourtant, mes frères sont d'toutes les couleurs han, han, han, han Le soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Et puis, j'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes tout donné J'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes j'ai déjà tout donné Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme ma paire de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh On va faire sauter ta place woh, ça vient des fédéraux flingue On parle de gourous, tu peux pas jouer les superhéros c'est fort Hein, hein, hein, hein, ça pouvait pas s'terminer comme a-ç nan, hein, hein, hein, hein J'le fais pour ma calle woh, ma mifa, mon tier-quar, ma cité, mes potos, mes fêtards oh, oh Ma chérie coco coco, coco, coco, ah, ah, ah, oh les bâtards c'est nous, oh les gamins c'est nous C'est la calle ou c'est pas la calle ? C'est la calle C'est la calle ou c'est pas la calle ? C'est nous la calle, ah, ah Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme mes paires de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh1</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>La vie m'a fait comprendre très vite que je ne suis plus un baby Tous les soirs je suis dans la street parce que j'ai besoin d'un illet-bi Je traîne avec Gibson et Medi, on est devenu alcoolo Flash sur flash, je rentre khapta avec du sang sur l'polo Les grands ils jouent au tiercé, j'écris mes premiers versets Ils disent tout ce que j'vais percer, mais moi j'm'en bats les couilles Je prnds mon RER C, j'veux m'en mettr plein les fouilles, moi Pas tourner dans la cour, gagner la fin du tournoi Cousin j'ai v'là les tourments, j'ai pris le mauvais tournant Mais j'l'avais même pas vu venir, pourtant maman m'a prévenu Je veux pas finir en prévenu, ou comme mon pote qu'a serré A force d'être incarcéré, mais c'est la vie du tiekson Mais c'est la vie du quartier, on aurait dû s'écarter Pas s'laisser tomber par terre, couper la dobe en quartier Jouer à la cité Carter Mais putain qu'est-ce que j'ai fait ? Mais putain qu'est-ce que j'ai fait ? Malgré maman, ses efforts J'suis devenu capitaliste et c'est la rue qui m'a eu Des fois j'transporte des valises, des 400 grammes de chichons Mon cur a besoin d'une dialyse, mon corps a besoin d'un nichon Il est au nord, au Denis, j'rêve d'empiler les devis, j'ai un trop plein d'ambition Rêve Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey hey, mais j'suis toujours bloqué dans la calle You might also like Des fois j'me pointe au lycée, mais de 9 heures à 10 heures J'ai le million dans le viseur, les bleus dans l'rétroviseur Avoir le stress du ghetto, attendre le prochain métro Enchaîner les entraînements, j'croyais que j'finirais pro Surveiller la boîte aux lettres, pour les lettres d'avertissement J'ai des bonnes notes, mais j'aime pas trop les établissements Scolaire, depuis l'collège, j'ai d'la colère J'fais des collages histoire de voyager C'que j'ai voulu imager a fait de moi une machine À diminuer des vrais hommes, j'entends des balles qui résonnent Dans mes cauchemars, j'préfère finir au chtar, que finir clochard Numéro 10 sur l'dossard, certains me courtisent, veulent m'empêcher d'aller tout droit La putain d'sa mère, suis-je vraiment devenu un you-voi ? Ah-ah, ah-ah J'aime le biff, j'trouve pas les mots, mais vraiment j'aime le biff Tu vois, c'est dans ma nature, moi j'la joue comme papa En vrai j'suis pas la que pour t'faire la bise C'est fort Ki-ki-ki-ki-kick Faut pas t'laisser marcher dessus par les gens d'la caille Ah-ah, ah-ah Les écoute pas là, racontent que d'la pisse, leurs légendes c'est que d'la calle Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la caille C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey, hey, mais j'suis toujours bloqué dans la calle Y a plus personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle Ah ah ah</t>
+          <t>La vie m'a fait comprendre très vite que je ne suis plus un baby Tous les soirs je suis dans la street parce que j'ai besoin d'un illet-bi Je traîne avec Gibson et Medi, on est devenu alcoolo Flash sur flash, je rentre khapta avec du sang sur l'polo Les grands ils jouent au tiercé, j'écris mes premiers versets Ils disent tout ce que j'vais percer, mais moi j'm'en bats les couilles Je prnds mon RER C, j'veux m'en mettr plein les fouilles, moi Pas tourner dans la cour, gagner la fin du tournoi Cousin j'ai v'là les tourments, j'ai pris le mauvais tournant Mais j'l'avais même pas vu venir, pourtant maman m'a prévenu Je veux pas finir en prévenu, ou comme mon pote qu'a serré A force d'être incarcéré, mais c'est la vie du tiekson Mais c'est la vie du quartier, on aurait dû s'écarter Pas s'laisser tomber par terre, couper la dobe en quartier Jouer à la cité Carter Mais putain qu'est-ce que j'ai fait ? Mais putain qu'est-ce que j'ai fait ? Malgré maman, ses efforts J'suis devenu capitaliste et c'est la rue qui m'a eu Des fois j'transporte des valises, des 400 grammes de chichons Mon cur a besoin d'une dialyse, mon corps a besoin d'un nichon Il est au nord, au Denis, j'rêve d'empiler les devis, j'ai un trop plein d'ambition Rêve Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey hey, mais j'suis toujours bloqué dans la calle Des fois j'me pointe au lycée, mais de 9 heures à 10 heures J'ai le million dans le viseur, les bleus dans l'rétroviseur Avoir le stress du ghetto, attendre le prochain métro Enchaîner les entraînements, j'croyais que j'finirais pro Surveiller la boîte aux lettres, pour les lettres d'avertissement J'ai des bonnes notes, mais j'aime pas trop les établissements Scolaire, depuis l'collège, j'ai d'la colère J'fais des collages histoire de voyager C'que j'ai voulu imager a fait de moi une machine À diminuer des vrais hommes, j'entends des balles qui résonnent Dans mes cauchemars, j'préfère finir au chtar, que finir clochard Numéro 10 sur l'dossard, certains me courtisent, veulent m'empêcher d'aller tout droit La putain d'sa mère, suis-je vraiment devenu un you-voi ? Ah-ah, ah-ah J'aime le biff, j'trouve pas les mots, mais vraiment j'aime le biff Tu vois, c'est dans ma nature, moi j'la joue comme papa En vrai j'suis pas la que pour t'faire la bise C'est fort Ki-ki-ki-ki-kick Faut pas t'laisser marcher dessus par les gens d'la caille Ah-ah, ah-ah Les écoute pas là, racontent que d'la pisse, leurs légendes c'est que d'la calle Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la caille C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey, hey, mais j'suis toujours bloqué dans la calle Y a plus personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle Ah ah ah</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Eh, c'est rien, cest la rue, mon pote Oh, oh Laissez-moi m'installer, j'pourrais tout faire péter, jai la mentale à Rosa Parks rrah La bitchies en a dans la te-tê, j'l'envoie faire le checking paw, j'ai faim mais les chickens Cherchent a nous coffrer parce qu'on cuisine dans la kitchen, et le week-end oui, et le week-end, on ti-sor le ver-la rrah Ah non, tu sais, le confort nous rend pénard, et c'est fantastique, c'est trop magique Que c'est profond, cest gore ce que jimagine ouais et yah, et yah, et yah Tu veux nous prouver, work, work, si t'envoies des boîtes, tu sais quj'en ai rien à foutre Mais c'est lourd si c'est toi qui gère, gère, pa-paw Et jreviendrais vers toi, j'reviendrais vers toi si y a un truc à faire Rah ouais, poto, rah ouais, poto, les mbilas, si ça marche pas, ils m'verront gérer les tits-pe C'est sur la moto qu'on te fait voir du feu baw, c'est bon signe si mon équipe t'a kiffée rrah C'est bon signe si mon équipe t'a kiffée ouais Igo, igo, allô ? Ils passent, Wiko, Wiko, G2 écrit comme Victor Hugo ouais, je n'parle pas de Boss Hugo P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok You might also like Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Eux c'est des fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser le Coco Jojo de Pijo R9, ok, oh Ils ont des paquets, on a la patate, on aura la Patek, le bénéf' du kamas On fait le taf on v'-esqui le Passat ouh, ouh Eux, c'est des faux types, ils sont pas fautifs grah, grah Trop dans la smokance, j'te rodave depuis yeah J'te demande une massa, j'te laisse mon produit On t'a pas banni ouh, t'en vaux pas la peine Le bigo est balourd, la sse-lia est balaise woh Et y a bien longtemps, très longtemps qu'on n'est plus petit go Les petits ont rêvé en grand bouh, c'est pas la taille qui fait l'petit À qui la faute si ils veulent dormir ? Yeah Les baiser, c'est promis Y a que des bâtards, y a que des vermines, c'est appels de phares ou bien l'anonyme Bien lisse, Bien lisse, Bien lisse Le terrain, c'est pas pour tout l'monde, connard, y a l'intérim boum, yeah, ok, ok Tu sais qu'j'te vois faire le débile 'bile, faire le débile Trop parano, en moi, j'ai un peu d'amour parano, moi, j'ai un peu d'amour Parano, du coup, j'ai très peu d'amis rrah, yeah J'reviens à mains nues yeah, tu vaux pas un 6.35 J'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' yeah Tu vaux pas un 6.35, j'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Tous ces fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser , oh</t>
+          <t>Eh, c'est rien, cest la rue, mon pote Oh, oh Laissez-moi m'installer, j'pourrais tout faire péter, jai la mentale à Rosa Parks rrah La bitchies en a dans la te-tê, j'l'envoie faire le checking paw, j'ai faim mais les chickens Cherchent a nous coffrer parce qu'on cuisine dans la kitchen, et le week-end oui, et le week-end, on ti-sor le ver-la rrah Ah non, tu sais, le confort nous rend pénard, et c'est fantastique, c'est trop magique Que c'est profond, cest gore ce que jimagine ouais et yah, et yah, et yah Tu veux nous prouver, work, work, si t'envoies des boîtes, tu sais quj'en ai rien à foutre Mais c'est lourd si c'est toi qui gère, gère, pa-paw Et jreviendrais vers toi, j'reviendrais vers toi si y a un truc à faire Rah ouais, poto, rah ouais, poto, les mbilas, si ça marche pas, ils m'verront gérer les tits-pe C'est sur la moto qu'on te fait voir du feu baw, c'est bon signe si mon équipe t'a kiffée rrah C'est bon signe si mon équipe t'a kiffée ouais Igo, igo, allô ? Ils passent, Wiko, Wiko, G2 écrit comme Victor Hugo ouais, je n'parle pas de Boss Hugo P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Eux c'est des fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser le Coco Jojo de Pijo R9, ok, oh Ils ont des paquets, on a la patate, on aura la Patek, le bénéf' du kamas On fait le taf on v'-esqui le Passat ouh, ouh Eux, c'est des faux types, ils sont pas fautifs grah, grah Trop dans la smokance, j'te rodave depuis yeah J'te demande une massa, j'te laisse mon produit On t'a pas banni ouh, t'en vaux pas la peine Le bigo est balourd, la sse-lia est balaise woh Et y a bien longtemps, très longtemps qu'on n'est plus petit go Les petits ont rêvé en grand bouh, c'est pas la taille qui fait l'petit À qui la faute si ils veulent dormir ? Yeah Les baiser, c'est promis Y a que des bâtards, y a que des vermines, c'est appels de phares ou bien l'anonyme Bien lisse, Bien lisse, Bien lisse Le terrain, c'est pas pour tout l'monde, connard, y a l'intérim boum, yeah, ok, ok Tu sais qu'j'te vois faire le débile 'bile, faire le débile Trop parano, en moi, j'ai un peu d'amour parano, moi, j'ai un peu d'amour Parano, du coup, j'ai très peu d'amis rrah, yeah J'reviens à mains nues yeah, tu vaux pas un 6.35 J'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' yeah Tu vaux pas un 6.35, j'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Tous ces fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser , oh</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rayane on the beat Le quarterback, c'est moi Papito charme pou-pou-pouh SHK C'est pour les mecs stylé là my G' awah J'récup' deux-trois sacs vers Avenue Montaigne, suis moi parce que dehors y a que des schmeta flocko, dehors y a que des schmeta à mort De l'or au platine, j'm'affole pas, j'investis juste avant de faire la fiesta la fête Au pays des bosseurs, tu bé-tom, on t'relève, c'est parti, on t'demande pas qu'est c't'as Coco J'donnerais plus l'heure au moins cher, qui valent même pas le prix d'une presta' flingueur Tu veux qu'j'te parle en ... ? en quoi ? Tu veux qu'j'te parle en quelle langue ? en quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Et j'me voile la face en vrai même, j'recale les miettes et prendre les restes J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh You might also like Tu veux qu'j'te parle en quelle langue ? Coco, Tu veux qu'j'te parle en quelle langue ? quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Depitcho, Ronaldo, Bezbar, quand j'suis en pétard, personne sépare, quand ca part, okay Hein, y a rien à craindre, en face ca tient pas c'est que tu plexiglass c'est que tu plexiglass J'recule pas meme devant King Kong OG, devant personne qu'on recule J'fais des phrases mec, on parle francais french, et ca devant quiconque J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Ah-, Oh-oh-oh Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir</t>
+          <t>Rayane on the beat Le quarterback, c'est moi Papito charme pou-pou-pouh SHK C'est pour les mecs stylé là my G' awah J'récup' deux-trois sacs vers Avenue Montaigne, suis moi parce que dehors y a que des schmeta flocko, dehors y a que des schmeta à mort De l'or au platine, j'm'affole pas, j'investis juste avant de faire la fiesta la fête Au pays des bosseurs, tu bé-tom, on t'relève, c'est parti, on t'demande pas qu'est c't'as Coco J'donnerais plus l'heure au moins cher, qui valent même pas le prix d'une presta' flingueur Tu veux qu'j'te parle en ... ? en quoi ? Tu veux qu'j'te parle en quelle langue ? en quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Et j'me voile la face en vrai même, j'recale les miettes et prendre les restes J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Tu veux qu'j'te parle en quelle langue ? Coco, Tu veux qu'j'te parle en quelle langue ? quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Depitcho, Ronaldo, Bezbar, quand j'suis en pétard, personne sépare, quand ca part, okay Hein, y a rien à craindre, en face ca tient pas c'est que tu plexiglass c'est que tu plexiglass J'recule pas meme devant King Kong OG, devant personne qu'on recule J'fais des phrases mec, on parle francais french, et ca devant quiconque J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Ah-, Oh-oh-oh Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>The Danger The Danger Jojo, Jojo, Jojo, Jojo Mmh, mmh Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo Bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover okay, t'as qu'à piger, les terrains sont ouverts rrah Depuis tit-pe, jentends les histoires du terrain d mon quartier Jvoulais juste avoir lunetts Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures Jojo, Jojo, Jojo, Jojo, Jojo Que des kil' de cocaïne, j't'envoie les tits-pe si t'as les bras de Popeye Jojo, Jojo, Jojo J'dois m'en aller dans un quart d'heure Jojo, Jojo, Jojo J'ai mes lunettes Cartier, j'suis pas fan du pollen dans le Space Montain, allons voir le soleil Quattro Remplis le sac de Vuitton et Fendi, j'envoie tout ça, la vendeuse me sourit yes Deux-trois kichtas, j'envoie paire de Céline max, deux-trois kichtas, elle perd tous ses principes Tu sais que jamais je baisserai ma culotte, portes tes couilles, négro, fait tout au culot Rêve de très vite d'importer tous ces kilos, peu s'dirigent vers la fortune grâce au pilon Quattro You might also like Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay, la vitesse Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Marlo Bueno J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse brr Minimum three, maximum quattro, quattro le Don, la fusion Coco Jojo Remplis d'finesse donc t'as senti le mojo, double contact, c'est R9 et Robinho, eh paw, paw Lovés, j'pense qu'à faire des lovés, Maybach aux jantes chromés, trois points, j'peux pas louper switch, switch, switch Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures La finesse, la finesse La finesse, la finesse La finesse, la finesse La finesse, la finesse</t>
+          <t>The Danger The Danger Jojo, Jojo, Jojo, Jojo Mmh, mmh Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo Bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover okay, t'as qu'à piger, les terrains sont ouverts rrah Depuis tit-pe, jentends les histoires du terrain d mon quartier Jvoulais juste avoir lunetts Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures Jojo, Jojo, Jojo, Jojo, Jojo Que des kil' de cocaïne, j't'envoie les tits-pe si t'as les bras de Popeye Jojo, Jojo, Jojo J'dois m'en aller dans un quart d'heure Jojo, Jojo, Jojo J'ai mes lunettes Cartier, j'suis pas fan du pollen dans le Space Montain, allons voir le soleil Quattro Remplis le sac de Vuitton et Fendi, j'envoie tout ça, la vendeuse me sourit yes Deux-trois kichtas, j'envoie paire de Céline max, deux-trois kichtas, elle perd tous ses principes Tu sais que jamais je baisserai ma culotte, portes tes couilles, négro, fait tout au culot Rêve de très vite d'importer tous ces kilos, peu s'dirigent vers la fortune grâce au pilon Quattro Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay, la vitesse Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Marlo Bueno J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse brr Minimum three, maximum quattro, quattro le Don, la fusion Coco Jojo Remplis d'finesse donc t'as senti le mojo, double contact, c'est R9 et Robinho, eh paw, paw Lovés, j'pense qu'à faire des lovés, Maybach aux jantes chromés, trois points, j'peux pas louper switch, switch, switch Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures La finesse, la finesse La finesse, la finesse La finesse, la finesse La finesse, la finesse</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Ekip, sans Cartier, Santos Marathon, sans pause Rapi Sati, Blacky Jacky, Corleone, Coco Jojo Ekip J'vois en slow-mo, so Ocho Lin J'les vois comme des Coco Jojo Mafia noire comme B.S.F Dans l'usine on a la sauce comme Ils vont disparaître comme le B.S.FYou might also like</t>
+          <t>Paroles issues d'un extrait Ekip, sans Cartier, Santos Marathon, sans pause Rapi Sati, Blacky Jacky, Corleone, Coco Jojo Ekip J'vois en slow-mo, so Ocho Lin J'les vois comme des Coco Jojo Mafia noire comme B.S.F Dans l'usine on a la sauce comme Ils vont disparaître comme le B.S.F</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Si j'avais su, j'aurai rien donné Mais avec du recul, on finit par pardonner Si j'avais bu, j'aurai laissé mes émotions prendre le dessus Mais j'aurai tout perdu, j'aurai fini déçu Ah mon bébé j'y vais car j'ai pas le choix Pas le choix Coller la tête, je reviendrai sûrement dès l'aube Oh oh oh Tous mes problèmes dans le dos J'lui fais bisou dans le cou, c'est le parfum du ghetto On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo You might also like Mozart Capitaine Jackson J'imaginais pas ma vie putain d'vie sans toi J'imaginais pas ma putain d'vie comme ça Quand tu sors dans le tier-quar ne prends pas ton cur avec toi Quand tu sors dans le tier-quar Ne fais pas le ouf nous quand on shoot on laisse sans voix Tu sors dans le tier-quar J'ai dû batailler tous les jours malgré les coups poto je tiens le coup Dans tous les cas on pense qu'à la tour Dans tous les cas il faut garder le cap Le mal rode ici, chanter comme Roddy Ricch dans les rues de ma ville Ça vend la mort pour survivre On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo</t>
+          <t>On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Si j'avais su, j'aurai rien donné Mais avec du recul, on finit par pardonner Si j'avais bu, j'aurai laissé mes émotions prendre le dessus Mais j'aurai tout perdu, j'aurai fini déçu Ah mon bébé j'y vais car j'ai pas le choix Pas le choix Coller la tête, je reviendrai sûrement dès l'aube Oh oh oh Tous mes problèmes dans le dos J'lui fais bisou dans le cou, c'est le parfum du ghetto On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Mozart Capitaine Jackson J'imaginais pas ma vie putain d'vie sans toi J'imaginais pas ma putain d'vie comme ça Quand tu sors dans le tier-quar ne prends pas ton cur avec toi Quand tu sors dans le tier-quar Ne fais pas le ouf nous quand on shoot on laisse sans voix Tu sors dans le tier-quar J'ai dû batailler tous les jours malgré les coups poto je tiens le coup Dans tous les cas on pense qu'à la tour Dans tous les cas il faut garder le cap Le mal rode ici, chanter comme Roddy Ricch dans les rues de ma ville Ça vend la mort pour survivre On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>En 31 En 31 G2Binks Jungle, passez la rre-guè Cocaina Ah bien sûr, ah bien sûr Mes negros sont déter sur le rain-té gros même s'il pleut Y a de la place pour postuler sur le rain-té gros si tu veux Comme Piccolo j'suis vert, rampez tous bande de vers de terre Joues-la comme Beckham, ou comme moi si tu sais le faire La caution tu laisses ta mère, la potion c'est Belvédère AK-47 planqué dans l'bâtiment on sait tous à quoi ça sert Ici les you-vois ne sont pas loveurs Tu tombes amoureux gros c'est game over Joues pas les Tony elle m'a dit que t'es trop mignon et que t'en as du coeur Niggas of Paris le samedi, flow bicraveur toute la semaine Dimanche je dors en Versace, aux côtés d'une biatch colombienne Y a qu'en gardav' qu'ils t'aiment, alors faut la détester Entouré de mes frères y a que eux que je kiffe en cas de haja vont rester Négro j'arrive je suis méchant je ne côtoie aucun perdant Diplôme de bandit réputé formation pour casser toutes tes dents Elles kiffent les soleils pleins, voyous de ma ville préfèrent le soir J'ai le sourire de joker mais je prépare un gros coup de bâtard là tu vas voir Guy2, Guy2Binks, il était dans le labo il dormait pas J'sors une grosse sse-cai grosse liasse de billet même les grands de chez toi comprennent pas Guy2, Guy2Binks, il était dans le labo il ronflait pas Mes gavas m'ont dit faut les baiser tout en montrant qu'on ne se mélange pas D'Phuket ils fument la beuh, le biff est rentré mais j'ai pas grossi Boulette si y a les bleus, et si les vils-ci sont là cours aussi J'mets les coups de tête donc ferme ta gueule Moi j'suis Zizou t'es Materazzi Tu suces pas de bites t'es pas le seul Allumes ces suceurs Jacques à dit m'a dit You might also like Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage1</t>
+          <t>En 31 En 31 G2Binks Jungle, passez la rre-guè Cocaina Ah bien sûr, ah bien sûr Mes negros sont déter sur le rain-té gros même s'il pleut Y a de la place pour postuler sur le rain-té gros si tu veux Comme Piccolo j'suis vert, rampez tous bande de vers de terre Joues-la comme Beckham, ou comme moi si tu sais le faire La caution tu laisses ta mère, la potion c'est Belvédère AK-47 planqué dans l'bâtiment on sait tous à quoi ça sert Ici les you-vois ne sont pas loveurs Tu tombes amoureux gros c'est game over Joues pas les Tony elle m'a dit que t'es trop mignon et que t'en as du coeur Niggas of Paris le samedi, flow bicraveur toute la semaine Dimanche je dors en Versace, aux côtés d'une biatch colombienne Y a qu'en gardav' qu'ils t'aiment, alors faut la détester Entouré de mes frères y a que eux que je kiffe en cas de haja vont rester Négro j'arrive je suis méchant je ne côtoie aucun perdant Diplôme de bandit réputé formation pour casser toutes tes dents Elles kiffent les soleils pleins, voyous de ma ville préfèrent le soir J'ai le sourire de joker mais je prépare un gros coup de bâtard là tu vas voir Guy2, Guy2Binks, il était dans le labo il dormait pas J'sors une grosse sse-cai grosse liasse de billet même les grands de chez toi comprennent pas Guy2, Guy2Binks, il était dans le labo il ronflait pas Mes gavas m'ont dit faut les baiser tout en montrant qu'on ne se mélange pas D'Phuket ils fument la beuh, le biff est rentré mais j'ai pas grossi Boulette si y a les bleus, et si les vils-ci sont là cours aussi J'mets les coups de tête donc ferme ta gueule Moi j'suis Zizou t'es Materazzi Tu suces pas de bites t'es pas le seul Allumes ces suceurs Jacques à dit m'a dit Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage1</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Finvy, N-N-N, Hadouken Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelquun A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Ouais-ouais cho-cho-cho-cho, ouais-ouais cho-cho-cho-cho C'est la jet-tweet, les jaloux coucou, ca va on fait que bombarder Et ouais c'est festif, mais sur nous que tu bavardes tu fais qu bavarder En plus on dit qu'il aime beaucoup ls palabres faut pas les regarder Et ta vie de fatigué t'as rendu faya faut pas les regarder Nous cest la ligue 1, vie dartiste on fire faut pas les regarder Paris, Dubai, L-A, on leur a fait des frayeurs faut pas les regarder Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, cest mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein You might also like C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Elle est fraiche, elle est potable, on arrose, un fer décapotable, on propose C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui c'est mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein</t>
+          <t>Finvy, N-N-N, Hadouken Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelquun A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Ouais-ouais cho-cho-cho-cho, ouais-ouais cho-cho-cho-cho C'est la jet-tweet, les jaloux coucou, ca va on fait que bombarder Et ouais c'est festif, mais sur nous que tu bavardes tu fais qu bavarder En plus on dit qu'il aime beaucoup ls palabres faut pas les regarder Et ta vie de fatigué t'as rendu faya faut pas les regarder Nous cest la ligue 1, vie dartiste on fire faut pas les regarder Paris, Dubai, L-A, on leur a fait des frayeurs faut pas les regarder Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, cest mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Elle est fraiche, elle est potable, on arrose, un fer décapotable, on propose C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui c'est mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ha ha ha ha Ah ouais frérot Ouais c'est vrai poto Laisse tomber poto, il m'a dit il a fait Même moi on m'a dit il a ait ça frérot oh my gooood ? Même moi j'lai entendu, dinguerie sa mère J'étais branché j'étais sur la 4 Ah poto, arrête il va venir facher, il va pas rigoler W'Allah C'est une galère le coco, w'Allah c'est une galère, t'as capté tu connais son dièse, lui en plus, lui dès qu'il fait les refrains il ambiance toutes les ? qui sont dans la salle x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Les potos vont monter chez toi pour une tentative naantoi-même tu sais Ne t'en fais pas pour moi, pépère, je m'endors aux Maldives oklm Matin midi soir j'suis pas dans la paresse Money je récupère, money je ramasse On roule en gros bolide, les feu-me on caresse Et j'fais rentrer toutes les ti-per dans le palace ?, dis-moi, c'est Coco qui te ? Mon équipe passe sur le corner, on caillasse Que des shooters, que des dealers dans la 'tess Canons sciés fait ce tour dans ta fa-face Si vous êtes les meilleurs, soyez les meilleurs ! Même, on est là comme on est là Personne ici m'a rien donné 22 cocaine pour Money Brassard, numéro 10 Maradonna c'est moi Nous on est là comme on est c'est fort Traine qu'avec des gros bonnets Demande à tes potes ils nous connaissent bien On n'a plus b'soin d'parler d'nous You might also likex2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Peperos, vas-y molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Que des billets dans la calle Devant comme Di Natale On fait du biff dans la calle Devant comme Di Natale Que des billets dans la calle Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos</t>
+          <t>Ha ha ha ha Ah ouais frérot Ouais c'est vrai poto Laisse tomber poto, il m'a dit il a fait Même moi on m'a dit il a ait ça frérot oh my gooood ? Même moi j'lai entendu, dinguerie sa mère J'étais branché j'étais sur la 4 Ah poto, arrête il va venir facher, il va pas rigoler W'Allah C'est une galère le coco, w'Allah c'est une galère, t'as capté tu connais son dièse, lui en plus, lui dès qu'il fait les refrains il ambiance toutes les ? qui sont dans la salle x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Les potos vont monter chez toi pour une tentative naantoi-même tu sais Ne t'en fais pas pour moi, pépère, je m'endors aux Maldives oklm Matin midi soir j'suis pas dans la paresse Money je récupère, money je ramasse On roule en gros bolide, les feu-me on caresse Et j'fais rentrer toutes les ti-per dans le palace ?, dis-moi, c'est Coco qui te ? Mon équipe passe sur le corner, on caillasse Que des shooters, que des dealers dans la 'tess Canons sciés fait ce tour dans ta fa-face Si vous êtes les meilleurs, soyez les meilleurs ! Même, on est là comme on est là Personne ici m'a rien donné 22 cocaine pour Money Brassard, numéro 10 Maradonna c'est moi Nous on est là comme on est c'est fort Traine qu'avec des gros bonnets Demande à tes potes ils nous connaissent bien On n'a plus b'soin d'parler d'nous x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Peperos, vas-y molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Que des billets dans la calle Devant comme Di Natale On fait du biff dans la calle Devant comme Di Natale Que des billets dans la calle Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Le Coco Jojo Ouh, eh, eh, eh Avec un, avec un flingue, flingue, avec un flingue, hey No soft, bitch Avec un flingue, flingue, avec un flingue Coco Jojo, Sauce God Jojo, hey, Sauce, Jojo, hey, okay Mon ice, c'est comme à l'Alaska, han, elle aime les bandits, les lascars, han J'fume la beuh comme un rasta, han, j'veux juste ma money et basta, han Basta, han, et basta, han Jojo, j'suis dans le nord comme Bamba, han Jojo Ma bitch sort tout droit dun manga Jojo, la zone est minée comme Atlanta Cnt bitchies à la casa blow, j'suis en jet privé, pas Lufthansa oh Ic, ice, Holy Water pow, j'suis toujours chaud si y a une dahba Hey, puta madre, c'est du Henny, pas un latté mmh T'as ramené ta biatch dans l'club, ça fait deux heures qu'elle fait qu'me mater hey, wow, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, let's get it Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique C'est fameux, fame, c'est fabuleux, fantastique wow You might also like TPM, bitchies, no, Julo, ah, ah Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi ah, ah Que des briques, et des briques, et des briques, à la P. Diddy tout ça, tout ça Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi tout ça, tout ça J'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Que des briques, et des briques, et des briques, à la P. Diddy Yeah, wow, le gang est actif à différentes échelles, hey On parle peu mais si y a un beef ou un plavon, on dégaine hey Elle veut qu'on link up, link up, link up link up J'suis en mode online-offline, quand j'suis sous les effets d'une liqueur hey, boom Yeah, tu connais le mendem qui tient les ficelles mmh J'suis dans une bad bitch, j'crois qu'c'est la millieme, han Demande à Bebeto, Bebeto à Bebeto On fait chanter les métaux, les métaux les métaux Hey, hey, hey, Heness' j'bois cul sec hey, hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps hey Que ça pète, j'ai mon péc-ule hey, hey, kiki, kiki hey, hey, kiki hey Heness' j'bois cul sec hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps, kiki Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Kiki, kiki, j'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Yeah, les formes à Nicki, ma Becky, eh, comme ça, j'l'emmène dans l'espace hey, wow, wow Sauce God, Sauce God, Sauce God hey, wow Bebeto, Bebeto, wo-wow B.O.B.O.X, Barbès1</t>
+          <t>Le Coco Jojo Ouh, eh, eh, eh Avec un, avec un flingue, flingue, avec un flingue, hey No soft, bitch Avec un flingue, flingue, avec un flingue Coco Jojo, Sauce God Jojo, hey, Sauce, Jojo, hey, okay Mon ice, c'est comme à l'Alaska, han, elle aime les bandits, les lascars, han J'fume la beuh comme un rasta, han, j'veux juste ma money et basta, han Basta, han, et basta, han Jojo, j'suis dans le nord comme Bamba, han Jojo Ma bitch sort tout droit dun manga Jojo, la zone est minée comme Atlanta Cnt bitchies à la casa blow, j'suis en jet privé, pas Lufthansa oh Ic, ice, Holy Water pow, j'suis toujours chaud si y a une dahba Hey, puta madre, c'est du Henny, pas un latté mmh T'as ramené ta biatch dans l'club, ça fait deux heures qu'elle fait qu'me mater hey, wow, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, let's get it Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique C'est fameux, fame, c'est fabuleux, fantastique wow TPM, bitchies, no, Julo, ah, ah Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi ah, ah Que des briques, et des briques, et des briques, à la P. Diddy tout ça, tout ça Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi tout ça, tout ça J'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Que des briques, et des briques, et des briques, à la P. Diddy Yeah, wow, le gang est actif à différentes échelles, hey On parle peu mais si y a un beef ou un plavon, on dégaine hey Elle veut qu'on link up, link up, link up link up J'suis en mode online-offline, quand j'suis sous les effets d'une liqueur hey, boom Yeah, tu connais le mendem qui tient les ficelles mmh J'suis dans une bad bitch, j'crois qu'c'est la millieme, han Demande à Bebeto, Bebeto à Bebeto On fait chanter les métaux, les métaux les métaux Hey, hey, hey, Heness' j'bois cul sec hey, hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps hey Que ça pète, j'ai mon péc-ule hey, hey, kiki, kiki hey, hey, kiki hey Heness' j'bois cul sec hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps, kiki Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Kiki, kiki, j'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Yeah, les formes à Nicki, ma Becky, eh, comme ça, j'l'emmène dans l'espace hey, wow, wow Sauce God, Sauce God, Sauce God hey, wow Bebeto, Bebeto, wo-wow B.O.B.O.X, Barbès1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Son de la crème C'est G le G G2B Oui c'est le G Plata o Plomo J'ai le geste C'est le G Pah pah pah message reçu G2, l'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu J'ai cru que j'allais finir si vite plein les poches J'ai cru que tout était beau mais non c'était moche Wallah j'suis prêt j'peux pas louper le coche On restera toujours tant qu'on les sacoches Et tu me sers à rien si tu bouges pas comme un plan Poto tu t'ahchem c'est un diez t'es pas réglo Faut bien capter mon tel écouter les mélos Au casse tête ou dans la surface je cherche le péno Tire sur la touka t'es dans mon affaire tu le sais faut pas poukave J'ai mis le paquet pour de vrai mon rebeu Lâche un mot de travers on enverra le bazooka Mais pourquoi ? Mais pourquoi ? Parler pour rien faire tu sais que ça sert pas Regardes ces faux you-voi, des saletés qu'on nettoie T'es pas Robien des bois, ici tu fais pas le poids G2 You might also like L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu Tu crois peut-être que c'est la fête ? Tu vas tout payer si t'as des dettes Chez nous facile est la gachette-chette-chette Tu te mangeras une balle dans la tête Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu</t>
+          <t>Son de la crème C'est G le G G2B Oui c'est le G Plata o Plomo J'ai le geste C'est le G Pah pah pah message reçu G2, l'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu J'ai cru que j'allais finir si vite plein les poches J'ai cru que tout était beau mais non c'était moche Wallah j'suis prêt j'peux pas louper le coche On restera toujours tant qu'on les sacoches Et tu me sers à rien si tu bouges pas comme un plan Poto tu t'ahchem c'est un diez t'es pas réglo Faut bien capter mon tel écouter les mélos Au casse tête ou dans la surface je cherche le péno Tire sur la touka t'es dans mon affaire tu le sais faut pas poukave J'ai mis le paquet pour de vrai mon rebeu Lâche un mot de travers on enverra le bazooka Mais pourquoi ? Mais pourquoi ? Parler pour rien faire tu sais que ça sert pas Regardes ces faux you-voi, des saletés qu'on nettoie T'es pas Robien des bois, ici tu fais pas le poids G2 L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu Tu crois peut-être que c'est la fête ? Tu vas tout payer si t'as des dettes Chez nous facile est la gachette-chette-chette Tu te mangeras une balle dans la tête Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Viens parmi nous, tu verras ma foi c'est tellement paisible oui J'ai l'air au premier regard, mais je n'suis pas très accessible On brille de mille feux, les jaloux d'à coté n'peuvent que tchiper Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm J'veux tout avec toi, promets moi seulement de rester loyal J'veux tout avec toi, promets moi d'pas t'enfuir à chaque salade J'veux tout avec toi, promets moi dans le pire dans nos balades Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm Papito Charme Papito Charme, han Papito Charme, les gars j'oublie pas tout ce qu'on s'est dit Verre de Ciroc, p'tit regard, j'suis pas très bavard You might also like Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil, eh N'parle pas beaucoup, dis moi qu'tu m'aimes beaucoup J'te mets ton coup, tout en te serrant le cou Tu sais déjà qui j'suis j'ai pas besoin d'me présenter Kra-kra-kra, j'suis pas là pour plaisanter Toi c'est ta wife, moi c'est ma bitch Quand t'es au boulot, c'est moi dans ton lit Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture J'me ressers un verre Roc-Ci, la soirée continue ok J'suis en feu ok, j'suis en feu J'suis en feu ok, j'suis en feu Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture j'suis en feu J'me ressers un verre Roc-Ci j'suis en feu, la soirée continue ok Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil</t>
+          <t>Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Viens parmi nous, tu verras ma foi c'est tellement paisible oui J'ai l'air au premier regard, mais je n'suis pas très accessible On brille de mille feux, les jaloux d'à coté n'peuvent que tchiper Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm J'veux tout avec toi, promets moi seulement de rester loyal J'veux tout avec toi, promets moi d'pas t'enfuir à chaque salade J'veux tout avec toi, promets moi dans le pire dans nos balades Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm Papito Charme Papito Charme, han Papito Charme, les gars j'oublie pas tout ce qu'on s'est dit Verre de Ciroc, p'tit regard, j'suis pas très bavard Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil, eh N'parle pas beaucoup, dis moi qu'tu m'aimes beaucoup J'te mets ton coup, tout en te serrant le cou Tu sais déjà qui j'suis j'ai pas besoin d'me présenter Kra-kra-kra, j'suis pas là pour plaisanter Toi c'est ta wife, moi c'est ma bitch Quand t'es au boulot, c'est moi dans ton lit Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture J'me ressers un verre Roc-Ci, la soirée continue ok J'suis en feu ok, j'suis en feu J'suis en feu ok, j'suis en feu Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture j'suis en feu J'me ressers un verre Roc-Ci j'suis en feu, la soirée continue ok Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Elle veut son Chanel bag, j'lui dis viens voir Coco Viens voir Coco Tu m'as reconnu au feu rouge, briganté dans le Merco Si tu nous invites, bien sûr on vient, ramène ta clique T'inquiète, on tient, on bloque tout le VIP c'est fort On leur laisse rien, on taille pas d'pipe, tu le sais bien Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Jojo Parle-moi d'oseille, y a que ça qui tourne dans ma tête c'est fort, c'est fort Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la C'est Coco La-la-la-la-la-la, la-la-la-la-la-la yes, c'est fort La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la You might also like Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Jojo Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Yes Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Parle-moi d'oseille, y a que ça qui tourne dans ma tête Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la yes, yes</t>
+          <t>Elle veut son Chanel bag, j'lui dis viens voir Coco Viens voir Coco Tu m'as reconnu au feu rouge, briganté dans le Merco Si tu nous invites, bien sûr on vient, ramène ta clique T'inquiète, on tient, on bloque tout le VIP c'est fort On leur laisse rien, on taille pas d'pipe, tu le sais bien Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Jojo Parle-moi d'oseille, y a que ça qui tourne dans ma tête c'est fort, c'est fort Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la C'est Coco La-la-la-la-la-la, la-la-la-la-la-la yes, c'est fort La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Jojo Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Yes Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Parle-moi d'oseille, y a que ça qui tourne dans ma tête Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la yes, yes</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses C'est comme ça qu'on fait les choses Toi tu t'grattais, bah j't'ai vi-sser une bonne dose J't'ai vi-sser une bonne dose sale chien Paris nord c'est noir, ici la vie n'est pas rose Mes amis vont t'faire devant chez toi pendant que j'guette les Simpson pepelo C'est fort C'est pas rose, on vend du jaune, on fume la verte Brra pour nous tout va bien tout baign C'est fort Tout va bien tout baigne, ux et nous c'est pas pareil J'arrive sappé Dior tout en abeille, quand j'arrive je brille té-ma mes shoes Et c'est comme ça qu'on fait les choses Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir You might also like En face y'a rien d'intéressant ou plutôt moi j'ai peur de personne Ça pète de , man de pitcho Dehors on peut pas perdre, on les fouette comme Yuri Boyka Boh On va tous crever pour notre dignité et notre honneur nous suit jusqu'à la tombe Les flingueurs Dans les diez depuis l'époque d'la Nintendo, pour mon anniv j'me suis acheté l'extendo Sku, sku La monnaie, le respect, le pouvoir, tu bé-tom, tu sors, tu rebé-tom Parisien comme Jay-Jay Okocha, c'est dans les mauvais coins d'la ville que nous vivons Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir</t>
+          <t>Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses C'est comme ça qu'on fait les choses Toi tu t'grattais, bah j't'ai vi-sser une bonne dose J't'ai vi-sser une bonne dose sale chien Paris nord c'est noir, ici la vie n'est pas rose Mes amis vont t'faire devant chez toi pendant que j'guette les Simpson pepelo C'est fort C'est pas rose, on vend du jaune, on fume la verte Brra pour nous tout va bien tout baign C'est fort Tout va bien tout baigne, ux et nous c'est pas pareil J'arrive sappé Dior tout en abeille, quand j'arrive je brille té-ma mes shoes Et c'est comme ça qu'on fait les choses Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir En face y'a rien d'intéressant ou plutôt moi j'ai peur de personne Ça pète de , man de pitcho Dehors on peut pas perdre, on les fouette comme Yuri Boyka Boh On va tous crever pour notre dignité et notre honneur nous suit jusqu'à la tombe Les flingueurs Dans les diez depuis l'époque d'la Nintendo, pour mon anniv j'me suis acheté l'extendo Sku, sku La monnaie, le respect, le pouvoir, tu bé-tom, tu sors, tu rebé-tom Parisien comme Jay-Jay Okocha, c'est dans les mauvais coins d'la ville que nous vivons Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dans le nez dans le nez de tout les profs de français Tu connais tu connais mes negros sont déclassé Biatch je ne connais pas l'echec ah non Mon frere je m'allonge tranquillement a puerto rico Money sur le teco fais pas cramer le bigo J'ai 2 beinks avec tout ces sales migo Cocaina la farine dans tes narine la tout de droit de mexico Ta copine la je la bz dans le lilas si ton marie passe Je lui pete tout ces chico Nigga's off paris c'est clair Partout nous on fais la guerre Coca moula fouilla avec mon gars y'a kotchi nr Ramene les meuf pas les keufs Je pete le champagne dans ta teuf Je revais de gros mili neuf pdt que toi tu regardais titeuf Et j'arrache et j'arrache la piste tu kiffe ma zic Demande a mon grand frelon nitro Ah bien sur x2 moi je fais la diff te diront mes ennemie Dans le metro Pas le meme delire en tout casYou might also like</t>
+          <t>Dans le nez dans le nez de tout les profs de français Tu connais tu connais mes negros sont déclassé Biatch je ne connais pas l'echec ah non Mon frere je m'allonge tranquillement a puerto rico Money sur le teco fais pas cramer le bigo J'ai 2 beinks avec tout ces sales migo Cocaina la farine dans tes narine la tout de droit de mexico Ta copine la je la bz dans le lilas si ton marie passe Je lui pete tout ces chico Nigga's off paris c'est clair Partout nous on fais la guerre Coca moula fouilla avec mon gars y'a kotchi nr Ramene les meuf pas les keufs Je pete le champagne dans ta teuf Je revais de gros mili neuf pdt que toi tu regardais titeuf Et j'arrache et j'arrache la piste tu kiffe ma zic Demande a mon grand frelon nitro Ah bien sur x2 moi je fais la diff te diront mes ennemie Dans le metro Pas le meme delire en tout cas</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait J'ai toujours le mouvement, Soixante a le mouvement AK-47, doucement, tu vas t'faire allumer par mes gars Dis à tes copines que j'suis occupé, que je dois compter, qu'à midi, j'me lève Cortège deYou might also like</t>
+          <t>Paroles issues d'un extrait J'ai toujours le mouvement, Soixante a le mouvement AK-47, doucement, tu vas t'faire allumer par mes gars Dis à tes copines que j'suis occupé, que je dois compter, qu'à midi, j'me lève Cortège de</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ah-ah-ah Oh, oh, oh, oh, oh Le Coco Jojo Ah-ah-ah J'arrive en Bottega, r'tire tes gars sinon j'vais les faire galope Chez nous, c'est Beretta bien gé-char comme le cul d'la salope Poh Coco, Green Monta', on passe un cap et le cash fait que d'monter Ah Cousin et j'suis dans l'Viano Sprinter, ah Prada, Milano Grr, grr, pah, elle voudrait l'anneau Pendant qu'moi, visser en bas d'la came, sirène de po'-po' déjà, fuis Déjà, fuis On parle en kilogrammes, appelle mes potes, c'est toujours fluide Pas très fêtard, pas très bavard, coutau, guitare, roule sans mis-per Voitur, pétard, ganté, trois quart, j'prends tout, j'me coffre chez ta tiper Donne le départ, aucun retard, voisin regarde, y a les p'tits, pète un câble Pah, c'est Coco Jojo Visser en bas d'la came, sirène de po'-po' déjà, fuis Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah You might also like Ces flockos parlent mais n'ont pas d'thune, elle me parle d'affiner ma plume Mmh Nique ta mère j'te le dis à l'avance, fils de pute, rien à m'apprendre Tu dis qu'tu pèses mais qui t'as cru ? Même en vitres teintées, elle m'a vu J'peux plus faire confiance à une tain-p', les baiser, bitch, ça m'paraît simple J'passe pas les rapports dans l'Brabus Brabus S-Mode toujours à fond, j'casse son cul mais j'casse pas ma puce La foule acclame, pourtant, c'est sombre, prends ce flingue et dis-lui À plus Brr Direct dans la bouche, elle veut qu'j'la défonce sous la douche Y a les keufs qui veulent prendre ma paie, hey Négro, j'suis toujours disponible quand l'argent m'appelle, yah NMR Je sens qu't'es faux, Greenzer, Coco Jojo, te baisent Yeah, yeah Nan, sois pas stressée, bébé, j'passe la plupart de mon temps à encaisser Sois pas choquée, deux-trois showcases et j'passe mon temps à encaisser Yeah, yeah, oh Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah</t>
+          <t>Ah-ah-ah Oh, oh, oh, oh, oh Le Coco Jojo Ah-ah-ah J'arrive en Bottega, r'tire tes gars sinon j'vais les faire galope Chez nous, c'est Beretta bien gé-char comme le cul d'la salope Poh Coco, Green Monta', on passe un cap et le cash fait que d'monter Ah Cousin et j'suis dans l'Viano Sprinter, ah Prada, Milano Grr, grr, pah, elle voudrait l'anneau Pendant qu'moi, visser en bas d'la came, sirène de po'-po' déjà, fuis Déjà, fuis On parle en kilogrammes, appelle mes potes, c'est toujours fluide Pas très fêtard, pas très bavard, coutau, guitare, roule sans mis-per Voitur, pétard, ganté, trois quart, j'prends tout, j'me coffre chez ta tiper Donne le départ, aucun retard, voisin regarde, y a les p'tits, pète un câble Pah, c'est Coco Jojo Visser en bas d'la came, sirène de po'-po' déjà, fuis Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah Ces flockos parlent mais n'ont pas d'thune, elle me parle d'affiner ma plume Mmh Nique ta mère j'te le dis à l'avance, fils de pute, rien à m'apprendre Tu dis qu'tu pèses mais qui t'as cru ? Même en vitres teintées, elle m'a vu J'peux plus faire confiance à une tain-p', les baiser, bitch, ça m'paraît simple J'passe pas les rapports dans l'Brabus Brabus S-Mode toujours à fond, j'casse son cul mais j'casse pas ma puce La foule acclame, pourtant, c'est sombre, prends ce flingue et dis-lui À plus Brr Direct dans la bouche, elle veut qu'j'la défonce sous la douche Y a les keufs qui veulent prendre ma paie, hey Négro, j'suis toujours disponible quand l'argent m'appelle, yah NMR Je sens qu't'es faux, Greenzer, Coco Jojo, te baisent Yeah, yeah Nan, sois pas stressée, bébé, j'passe la plupart de mon temps à encaisser Sois pas choquée, deux-trois showcases et j'passe mon temps à encaisser Yeah, yeah, oh Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Junior à la prod zanmi Jai porté mes cojones J'ai déjà mis la daronne à l'abri, maintenant j'dois juste trouver ma Dolores J'ai sorti le gamos, ta khamen parce que c'était pas des plaques polonaises Ils font la prière tous les jours mais j'connais leur cur, ils sont trop mauvais, oh ils sont trop mauvais Des automobiles y en a Des automatiques y en a Jaloux saboteurs y en a Mais la justice de Dieu y en a Des automobiles y en a, coco Des automatiques y en a, c'est faux Jaloux saboteurs y en a, Mais la justice de Dieu y en a Oh, ces fils de pute sont jaloux Mais téma comment on brille Ces fils de putes sont jaloux, oh Ces fils de putes sont jaloux Sont jaloux, jaloux, jaloux, jaloux You might also like Yeah, yeah, yes, yeah, yeah Je suis dans limport export, et les parions sports On na pas le temps de charger le T-Roc On fait la guerre, on est forts et on forme On fait les efforts, cest nous les pirates Envoie le sirop que jai pas fini de siroter Je veux de lor partout, est-ce que cest noté? J'vais te donner Jvais te donner une vraie raison de me haïr Jvais te donner une vraie raison d'me haïr Jvais te, attends, attends, ah sur la vie de ma mère, c'est Coco et Nosdi, c'est faux! Jvais te donner une vraie raison de me haïr Élastiques sur les billets d'cent, j'm'en bats les couilles d'aller au ciel Élastiques sur le billet d'cent Quoi qu'ils disent, on laisse plein de sang Téma nos vies, ils ont R, ils sont jaloux Téma les, ça s'voit qu'ils sont pas comme nous R9, Coco, Nosdi Dinos tout en black dans le rooftop c'est faux! T'es en bas, j'te vois tout petit, c'est les flingueurs que je vois Balenciaga et Prada, ça va pas ensemble, arrêtez d'faire les rappeurs d'la fashion week Confiance qu'au métal comme si j'étais John Wick Carlo Ancelotti, j'veux la Champions League J'arrive comme A-Conne L'époque de Lonely, l'époque de Lottape, l'époque de Convict Ils ont pas un gros, c'est que de bullshit, ils sont pas un gros, c'est que d'conneries L'époque des Dips, c'est l'époque de Max B Il m'faut un Max, bro, il m'faut un Max bro J'regardais Fifty la Kier sur MTV Et j'ai dit, Putain, il m'faut la même, gros Pour nous y a rien qu'y est interdit, j'ramène les bitches, le dîner est servi Petit suis-nous tu vas gerber, ça joue à fond comme si cétait un derby NGolo, fais pas l'parano, les bolos, na-ma-ma-na-yo Frappe de Bergkampf, j'te connais ni d'Adam, ni dEve, ni du Serpent Téma le 4 sortie d'pôt J'réponds pas sur X gros Paris baise pas avec Gizzy, qui c'est, noci-pi-ti On tire ça à des kilomètres, zéro tolérance, Glock dans la Boca Regarde, dis-leur c'est qui le maître, et d'ailleurs, qu'est-ce que j'm'en bats les steaks Ils veulent pas dnous bah j'arrive en snake, opération OP On connaît la deux, on s'est jamais trompé, on est les chi-tous que t'as peur de croiser</t>
+          <t>Junior à la prod zanmi Jai porté mes cojones J'ai déjà mis la daronne à l'abri, maintenant j'dois juste trouver ma Dolores J'ai sorti le gamos, ta khamen parce que c'était pas des plaques polonaises Ils font la prière tous les jours mais j'connais leur cur, ils sont trop mauvais, oh ils sont trop mauvais Des automobiles y en a Des automatiques y en a Jaloux saboteurs y en a Mais la justice de Dieu y en a Des automobiles y en a, coco Des automatiques y en a, c'est faux Jaloux saboteurs y en a, Mais la justice de Dieu y en a Oh, ces fils de pute sont jaloux Mais téma comment on brille Ces fils de putes sont jaloux, oh Ces fils de putes sont jaloux Sont jaloux, jaloux, jaloux, jaloux Yeah, yeah, yes, yeah, yeah Je suis dans limport export, et les parions sports On na pas le temps de charger le T-Roc On fait la guerre, on est forts et on forme On fait les efforts, cest nous les pirates Envoie le sirop que jai pas fini de siroter Je veux de lor partout, est-ce que cest noté? J'vais te donner Jvais te donner une vraie raison de me haïr Jvais te donner une vraie raison d'me haïr Jvais te, attends, attends, ah sur la vie de ma mère, c'est Coco et Nosdi, c'est faux! Jvais te donner une vraie raison de me haïr Élastiques sur les billets d'cent, j'm'en bats les couilles d'aller au ciel Élastiques sur le billet d'cent Quoi qu'ils disent, on laisse plein de sang Téma nos vies, ils ont R, ils sont jaloux Téma les, ça s'voit qu'ils sont pas comme nous R9, Coco, Nosdi Dinos tout en black dans le rooftop c'est faux! T'es en bas, j'te vois tout petit, c'est les flingueurs que je vois Balenciaga et Prada, ça va pas ensemble, arrêtez d'faire les rappeurs d'la fashion week Confiance qu'au métal comme si j'étais John Wick Carlo Ancelotti, j'veux la Champions League J'arrive comme A-Conne L'époque de Lonely, l'époque de Lottape, l'époque de Convict Ils ont pas un gros, c'est que de bullshit, ils sont pas un gros, c'est que d'conneries L'époque des Dips, c'est l'époque de Max B Il m'faut un Max, bro, il m'faut un Max bro J'regardais Fifty la Kier sur MTV Et j'ai dit, Putain, il m'faut la même, gros Pour nous y a rien qu'y est interdit, j'ramène les bitches, le dîner est servi Petit suis-nous tu vas gerber, ça joue à fond comme si cétait un derby NGolo, fais pas l'parano, les bolos, na-ma-ma-na-yo Frappe de Bergkampf, j'te connais ni d'Adam, ni dEve, ni du Serpent Téma le 4 sortie d'pôt J'réponds pas sur X gros Paris baise pas avec Gizzy, qui c'est, noci-pi-ti On tire ça à des kilomètres, zéro tolérance, Glock dans la Boca Regarde, dis-leur c'est qui le maître, et d'ailleurs, qu'est-ce que j'm'en bats les steaks Ils veulent pas dnous bah j'arrive en snake, opération OP On connaît la deux, on s'est jamais trompé, on est les chi-tous que t'as peur de croiser</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Et moi le problème que j'avais Cest que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks Jme sens au dessus sur ça j'vais pas m'attarder Moi le problème que j'avais C'est que j'écoutais pas quand papa parlais Couplet 1 Je sais bien qu'ils aimeraient avoir ma life Je sais bien qu'ils aimeraient se faire ma life Pourtant ya rien dintéressant je ne dors pas la nuit Et le jour comme charo je taff Sur le terrain faut que ça becte plus M ballade partout gars j'me crois au five Jla sntais plus trop, j'ai cassé ma puce Activé le plan B j'ai pas demandé de pass Ma chérie se plein tous les jours Et me dit c'est pas sur moi quil faut rejeter ses nerfs C'est pas ma faute si les gens m'énervent Ma tête est de la couleur de mon billet vert L'autre il me dit c'est pas bien la guerre Mais tu sais même pas pourquoi j'suis en train de la faire Allez, casse toi d'ici Tu veux pas mon bien, toi t'es qu'un chien J'suis la dans ma te-ci Si tu m'cherche vraiment, demain tu viens Maman ne pleure pa Moi je m'en sortirais, bientôt on s'en ira T'inquiète ça va pas durer Quand toi et moi ça ira, j'envois d'la grosse purée Guy2Bezbar tu pourras le retrouver sur les champs Pas loin de chez monsieur Ladurée Quand j'sors la Kalashnikov J'entend ces pédales qui commence à murmurer J'suis dans la rentable Bientôt tu pourras plus me loca' Fuck les motards J'bombarde j'fume un locale You might also like Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block Alors écoute, constitué pour faire mouiller ta femelle C'est triste mais réel on le sait tous sale pute Tu t'es prostitué pour du sang sous ta semelle Pas du tout les mêmes tu le vois bien Regarde t'as des dettes dans ta vie J'augmente chiffre et le level cash, money Pirates me dit faudrait laisser des séquelles Boy, boy, quoi ? Y a quoi ? Ramène mon cash Au plus vite, là tu m'racontes quoi J'les termine comme Chuck Norris J'préfère être seul je n'ai pas d'nourrice Faudrait que j'me canalise J'y vais trop fort faut que je temporise Le passé est mort et je n'y vais pas pour déposer des fleurs Ils m'ont jeté le sort j'ai cherché qui c'était j'ai vu j'ai eu peur J'me suis retrouvé tout seul, t'étais pas là J'écoute plus les consignes on m'prend pour un malade J'veux même plus savoir quand le temps nous sourira J'écoute ce qu'ils racontent c'est rien que des salades Ils ferment les barrières car ils savent que j'suis la bête J'reviens calibré si je perds mon tête à tête Il est bipolaire Guy2Bez' Des fois c'est la bringue des fois c'est fini la fête Eh yo, Fresh, ils savent où on va venir gros Plata o plomo, pur sang, c'est plus que réel Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block</t>
+          <t>Et moi le problème que j'avais Cest que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks Jme sens au dessus sur ça j'vais pas m'attarder Moi le problème que j'avais C'est que j'écoutais pas quand papa parlais Couplet 1 Je sais bien qu'ils aimeraient avoir ma life Je sais bien qu'ils aimeraient se faire ma life Pourtant ya rien dintéressant je ne dors pas la nuit Et le jour comme charo je taff Sur le terrain faut que ça becte plus M ballade partout gars j'me crois au five Jla sntais plus trop, j'ai cassé ma puce Activé le plan B j'ai pas demandé de pass Ma chérie se plein tous les jours Et me dit c'est pas sur moi quil faut rejeter ses nerfs C'est pas ma faute si les gens m'énervent Ma tête est de la couleur de mon billet vert L'autre il me dit c'est pas bien la guerre Mais tu sais même pas pourquoi j'suis en train de la faire Allez, casse toi d'ici Tu veux pas mon bien, toi t'es qu'un chien J'suis la dans ma te-ci Si tu m'cherche vraiment, demain tu viens Maman ne pleure pa Moi je m'en sortirais, bientôt on s'en ira T'inquiète ça va pas durer Quand toi et moi ça ira, j'envois d'la grosse purée Guy2Bezbar tu pourras le retrouver sur les champs Pas loin de chez monsieur Ladurée Quand j'sors la Kalashnikov J'entend ces pédales qui commence à murmurer J'suis dans la rentable Bientôt tu pourras plus me loca' Fuck les motards J'bombarde j'fume un locale Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block Alors écoute, constitué pour faire mouiller ta femelle C'est triste mais réel on le sait tous sale pute Tu t'es prostitué pour du sang sous ta semelle Pas du tout les mêmes tu le vois bien Regarde t'as des dettes dans ta vie J'augmente chiffre et le level cash, money Pirates me dit faudrait laisser des séquelles Boy, boy, quoi ? Y a quoi ? Ramène mon cash Au plus vite, là tu m'racontes quoi J'les termine comme Chuck Norris J'préfère être seul je n'ai pas d'nourrice Faudrait que j'me canalise J'y vais trop fort faut que je temporise Le passé est mort et je n'y vais pas pour déposer des fleurs Ils m'ont jeté le sort j'ai cherché qui c'était j'ai vu j'ai eu peur J'me suis retrouvé tout seul, t'étais pas là J'écoute plus les consignes on m'prend pour un malade J'veux même plus savoir quand le temps nous sourira J'écoute ce qu'ils racontent c'est rien que des salades Ils ferment les barrières car ils savent que j'suis la bête J'reviens calibré si je perds mon tête à tête Il est bipolaire Guy2Bez' Des fois c'est la bringue des fois c'est fini la fête Eh yo, Fresh, ils savent où on va venir gros Plata o plomo, pur sang, c'est plus que réel Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hajima et Majima Boumidjal Haha, ha, haha Ooh, na, nana, na, ooh, na, nana, na Ooh, yeah-yeah, yeah-yeah Mesdames et Messieurs, moi mon nom c'est Jojo Hahaha, ha, woo Si c'est pas pour le cash, alors laisse tomber laisse, laisse J'préfère tourner la page, non, non laisse tomber laisse tomber Si c'est pas pour le cash, alors laisse tomber no way J'préfère tourner la page woo J'ai perdu l'contrôle du navire non J'ai perdu l'chemin d'la maison baow-baow, baow-baow, Coco Jojo Je sais pas où je vais, mais tout me revient quand tu marches près d moi quand tu marches près de moi, quand tu marches près d moi J'ai promis de revenir en forme, peu importe les saisons peu importe Eh, yo, c'est Tayc et Coco Jojo wah, wah, wah, wah On sort les fleurs, les guns sont rangés wah, wah, wah, wah On dépose casque Araï et moto baow, baow-baow, hahaha, Jojo, Jojo, Jojo Eh, yo, c'est Tayc et Coco Jojo eh, yo, c'est Tayc et Coco Jojo, yeah, yeah, yeah, yeah Appelle nous si y a un plan meuf ou plan fric, yeah J'ai mis le succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah J'ai mis mon succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Yeah, yeah, na, nana, na, yeah, j'dois faire du na, nana Yeah, yeah, na, nana, na, j'dois faire du na, nana Yeah, yeah, yeah You might also like Plus y a d'she-ca, j'peux pas le laver c'est Coco Jojo J'dois faire du nana, na c'est Coco Jojo Plus y a d'she-ca, j'peux pas le laver J'lui donnerai ce dont elle a envie Le ciel est rose, comme ton coeur, levée du matin J'vais dans la fosse, j'ai pas peur, je prends tes patins na, nana, na, nana Jojo, Jojo, Jojo, yeah, yeah, yeah-yeah Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Appelle nous si y a un plan meuf ou plan fric, yeah ooh, yeah J'ai mis le succès en repeat oh nana, na Ma femme je dois la combler J'dois faire du na, nana, na, yeah ooh, nana J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah yeah, yeah-yeah J'ai mis mon succès en repeat yeah Ma femme je dois la combler J'dois faire du na, nana, na, yeah j'J'dois faire du na, nana, na J'dois faire du na, nana, na na, nana, na Yeah, yeah, na, nana, na na, nana, na, yeah, j'dois faire du na, nana oh, Jojo Yeah, yeah, na, nana, na ooh, ooh, j'dois faire du na, nana ooh, ooh Yeah, yeah, yeah Haha, ha, haha, ha le Coco Jojo, ooh, ooh-ooh, ooh-ooh Oh, Jojo Ooh, woah, oh Ooh, ooh-ooh, ooh-ooh Yeah, yeah, yeah oh, woah, oh, woah Yeah, yeah, nana, na, nana, nana Nana, na, nana, nana</t>
+          <t>Hajima et Majima Boumidjal Haha, ha, haha Ooh, na, nana, na, ooh, na, nana, na Ooh, yeah-yeah, yeah-yeah Mesdames et Messieurs, moi mon nom c'est Jojo Hahaha, ha, woo Si c'est pas pour le cash, alors laisse tomber laisse, laisse J'préfère tourner la page, non, non laisse tomber laisse tomber Si c'est pas pour le cash, alors laisse tomber no way J'préfère tourner la page woo J'ai perdu l'contrôle du navire non J'ai perdu l'chemin d'la maison baow-baow, baow-baow, Coco Jojo Je sais pas où je vais, mais tout me revient quand tu marches près d moi quand tu marches près de moi, quand tu marches près d moi J'ai promis de revenir en forme, peu importe les saisons peu importe Eh, yo, c'est Tayc et Coco Jojo wah, wah, wah, wah On sort les fleurs, les guns sont rangés wah, wah, wah, wah On dépose casque Araï et moto baow, baow-baow, hahaha, Jojo, Jojo, Jojo Eh, yo, c'est Tayc et Coco Jojo eh, yo, c'est Tayc et Coco Jojo, yeah, yeah, yeah, yeah Appelle nous si y a un plan meuf ou plan fric, yeah J'ai mis le succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah J'ai mis mon succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Yeah, yeah, na, nana, na, yeah, j'dois faire du na, nana Yeah, yeah, na, nana, na, j'dois faire du na, nana Yeah, yeah, yeah Plus y a d'she-ca, j'peux pas le laver c'est Coco Jojo J'dois faire du nana, na c'est Coco Jojo Plus y a d'she-ca, j'peux pas le laver J'lui donnerai ce dont elle a envie Le ciel est rose, comme ton coeur, levée du matin J'vais dans la fosse, j'ai pas peur, je prends tes patins na, nana, na, nana Jojo, Jojo, Jojo, yeah, yeah, yeah-yeah Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Appelle nous si y a un plan meuf ou plan fric, yeah ooh, yeah J'ai mis le succès en repeat oh nana, na Ma femme je dois la combler J'dois faire du na, nana, na, yeah ooh, nana J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah yeah, yeah-yeah J'ai mis mon succès en repeat yeah Ma femme je dois la combler J'dois faire du na, nana, na, yeah j'J'dois faire du na, nana, na J'dois faire du na, nana, na na, nana, na Yeah, yeah, na, nana, na na, nana, na, yeah, j'dois faire du na, nana oh, Jojo Yeah, yeah, na, nana, na ooh, ooh, j'dois faire du na, nana ooh, ooh Yeah, yeah, yeah Haha, ha, haha, ha le Coco Jojo, ooh, ooh-ooh, ooh-ooh Oh, Jojo Ooh, woah, oh Ooh, ooh-ooh, ooh-ooh Yeah, yeah, yeah oh, woah, oh, woah Yeah, yeah, nana, na, nana, nana Nana, na, nana, nana</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LyricsYou might also like</t>
+          <t>Lyrics</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Coco Jojo, R.9., que des liasses de malades d'mandes à Norsacce, c'est fort Depuis tout p'tit, qu'on baigne dans toutes les salades Et reste tranquille ou tu danses le Billie Jean Envoie les p'tits chez l'contact en Martinique c'est fort, c'est fort J'ai ma p'tite, comme j'ai mon calibre c'est ton gars coco J'fais que du cash, mais les keufs font qu'j'me sens pas libre Jojo, Jojo, Jojo À la fin il n'en restera plus qu'un, j'fais du le week-end et ça m'apaise On peut tous les couler comme le Titanic Non, ce n'est pas ta bitch, c'est les liasses qui m'animent oh, oui Partout où on passe, sème la zizanie, c'est fort On les fouette, mais sans trop d'effort, la prod j'agresse, c'est gore Du sale et je m'arrache, tu peux m'trouver comme Obama dans les baraques J'ai dû casser, cacher la Lebara, gars, tu sais qu'on l'fait pour durer comme les balafres Prod assassine, on est trop bouillants, augmente la clim Vrai négro, fait pas l'casting, là pour les choquer tah l'car-jacking Du coup, og donc nous décidons c'est fort Pour quelques jetons, pète un par terre, t'laisse sur l'béton Équipe en béton, j'augmente pendant qu'tu bouffes des tongs Og, jacquet Louis Vuitton, og donc nous décidons Évitons ces ptits cons, y a que Dieu qui sait c'que nous méritons La sacoche a planqué le bifton, on a tout mis les grands, les petits ponts Sacce, Coco Jojo, pas b'soin des six chiffres du loto À fond comme dans l'auto, j'vais l'faire pour moi, pour ceux partis trop tôt You might also like No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l'</t>
+          <t>Coco Jojo, R.9., que des liasses de malades d'mandes à Norsacce, c'est fort Depuis tout p'tit, qu'on baigne dans toutes les salades Et reste tranquille ou tu danses le Billie Jean Envoie les p'tits chez l'contact en Martinique c'est fort, c'est fort J'ai ma p'tite, comme j'ai mon calibre c'est ton gars coco J'fais que du cash, mais les keufs font qu'j'me sens pas libre Jojo, Jojo, Jojo À la fin il n'en restera plus qu'un, j'fais du le week-end et ça m'apaise On peut tous les couler comme le Titanic Non, ce n'est pas ta bitch, c'est les liasses qui m'animent oh, oui Partout où on passe, sème la zizanie, c'est fort On les fouette, mais sans trop d'effort, la prod j'agresse, c'est gore Du sale et je m'arrache, tu peux m'trouver comme Obama dans les baraques J'ai dû casser, cacher la Lebara, gars, tu sais qu'on l'fait pour durer comme les balafres Prod assassine, on est trop bouillants, augmente la clim Vrai négro, fait pas l'casting, là pour les choquer tah l'car-jacking Du coup, og donc nous décidons c'est fort Pour quelques jetons, pète un par terre, t'laisse sur l'béton Équipe en béton, j'augmente pendant qu'tu bouffes des tongs Og, jacquet Louis Vuitton, og donc nous décidons Évitons ces ptits cons, y a que Dieu qui sait c'que nous méritons La sacoche a planqué le bifton, on a tout mis les grands, les petits ponts Sacce, Coco Jojo, pas b'soin des six chiffres du loto À fond comme dans l'auto, j'vais l'faire pour moi, pour ceux partis trop tôt No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l'</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>J'suis dans l'bat j'fais relances à té-co y'a loco y'a n y'a le Coco de Jojo D'la puta d'la vovo, la revendre c'est pas mal, Amiri et Prada wallaye qu'j'm'embourgeoise J'suis tenté, j'suis focus, la bitch a un gros cul je lui laisse 10 minutes Elle m'a vu sur insta, elle m'a vu dans l'brabus, elle veut faire la grosse pute Ca pue la mort, j'suis encore bourré, j'lui dis que j'l'adore Elle c'est une grosse pute qui niquerait sa vie Pour du Versace ou du Christian Dior Hoodbaby comme au state, j'n rallume un balais, j'le fume comm si j'cannais demain J'prends ta pute à une main comme un club relégable là je joue le putain d'maintien C'est facile de faire du fe-bi il faut juste s'impliquer Regarde les dégaines que des négros des têtes fâchées Si tu nous cherches c'est ok, est-ce que t'es prêt pour la rre-gue, ouais mon ami ça coutera cher On a la moula et les cachets, revends la dope en cachette, nique la bac de proximité Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous You might also like Tu fais quoi là sale imbécile, vire ton Absolute, tout l'monde sait que j'bois du ciroc pomme pomme pomme En pleine opération, cash money, tout en black j'ai mon pom-pom-pom Quand ça tire ça fait wa papaw C'est des merdes ceux qui m'aideront pas C'est des merdes ceux qui m'aideront pas Tu tâches ma panoplie c'est pas grave on rachète On remet mais gros ça nous éteint pas Faut du cardio comme Kenya aux Olympiques J'aime quand les pétasses me disent que j'suis authentique Donc on m'invite, j'ai des mails pour assister à des défilées C'est la beuh-tance mon avenir est dessiné Ouais j'sais comment Coyote là faudrait les faire ça fait longtemps qu'ils boycottent Le cercle est mé-fer j'veux pas d'autres potes hop J'reviens par derrière toc toc C'est moi j'finis l'fe-ta en chap chap J'finis ma clope top J'préfère marcher Médaille autour du cou C'est pas du toc toc Changé j'fais du shop C'est rien mais j'les choque choque Les vigiles sucent fort quand ils tema les sacs sacs Ok Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous</t>
+          <t>J'suis dans l'bat j'fais relances à té-co y'a loco y'a n y'a le Coco de Jojo D'la puta d'la vovo, la revendre c'est pas mal, Amiri et Prada wallaye qu'j'm'embourgeoise J'suis tenté, j'suis focus, la bitch a un gros cul je lui laisse 10 minutes Elle m'a vu sur insta, elle m'a vu dans l'brabus, elle veut faire la grosse pute Ca pue la mort, j'suis encore bourré, j'lui dis que j'l'adore Elle c'est une grosse pute qui niquerait sa vie Pour du Versace ou du Christian Dior Hoodbaby comme au state, j'n rallume un balais, j'le fume comm si j'cannais demain J'prends ta pute à une main comme un club relégable là je joue le putain d'maintien C'est facile de faire du fe-bi il faut juste s'impliquer Regarde les dégaines que des négros des têtes fâchées Si tu nous cherches c'est ok, est-ce que t'es prêt pour la rre-gue, ouais mon ami ça coutera cher On a la moula et les cachets, revends la dope en cachette, nique la bac de proximité Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Tu fais quoi là sale imbécile, vire ton Absolute, tout l'monde sait que j'bois du ciroc pomme pomme pomme En pleine opération, cash money, tout en black j'ai mon pom-pom-pom Quand ça tire ça fait wa papaw C'est des merdes ceux qui m'aideront pas C'est des merdes ceux qui m'aideront pas Tu tâches ma panoplie c'est pas grave on rachète On remet mais gros ça nous éteint pas Faut du cardio comme Kenya aux Olympiques J'aime quand les pétasses me disent que j'suis authentique Donc on m'invite, j'ai des mails pour assister à des défilées C'est la beuh-tance mon avenir est dessiné Ouais j'sais comment Coyote là faudrait les faire ça fait longtemps qu'ils boycottent Le cercle est mé-fer j'veux pas d'autres potes hop J'reviens par derrière toc toc C'est moi j'finis l'fe-ta en chap chap J'finis ma clope top J'préfère marcher Médaille autour du cou C'est pas du toc toc Changé j'fais du shop C'est rien mais j'les choque choque Les vigiles sucent fort quand ils tema les sacs sacs Ok Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Big mafia Squa OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush Ra, ramène-moi des putains d'lle-fo Belles avec un p'tis teins claire Bien-sur que moi j'connait B-mafia équipe de you-voi c'est claire On fou la merde même en soirée Gros c'est la guerre reste carré Jungili squad j'fais d'la moula Ramène la tisse-mé avec les yeux bridés OG Kush fume la comme un keuf J'suis Daddy Puff dans mon lit y a que d'la meuf Ah non je rêve que de villa, le salaire à David Villa Putain d'sa race là j'ai le mes reufs en taule Mais qu'elle est vraiment cette fille la ? OG Kush libérez Marlo JNR Sur mon I touch y a des insta avec des meufs trop vé-ner Moulala B-mafia y a que des bg Rohlala je vais chercher ta go en gros AMG Money, money, monney, money On se rejoint sur Jupiter Ma vie, ma vie, ma vie, ma vie Péter des grosses mathusalem Mais oui, mais oui, mais oui, mais oui Dites à mes ennemis que je les aimes Ah non ils sont vraiment stupides Je te baratine mais je veux te ken You might also like x2 OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush</t>
+          <t>Big mafia Squa OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush Ra, ramène-moi des putains d'lle-fo Belles avec un p'tis teins claire Bien-sur que moi j'connait B-mafia équipe de you-voi c'est claire On fou la merde même en soirée Gros c'est la guerre reste carré Jungili squad j'fais d'la moula Ramène la tisse-mé avec les yeux bridés OG Kush fume la comme un keuf J'suis Daddy Puff dans mon lit y a que d'la meuf Ah non je rêve que de villa, le salaire à David Villa Putain d'sa race là j'ai le mes reufs en taule Mais qu'elle est vraiment cette fille la ? OG Kush libérez Marlo JNR Sur mon I touch y a des insta avec des meufs trop vé-ner Moulala B-mafia y a que des bg Rohlala je vais chercher ta go en gros AMG Money, money, monney, money On se rejoint sur Jupiter Ma vie, ma vie, ma vie, ma vie Péter des grosses mathusalem Mais oui, mais oui, mais oui, mais oui Dites à mes ennemis que je les aimes Ah non ils sont vraiment stupides Je te baratine mais je veux te ken x2 OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération Attends, attends, attends, coupe le son, coupe le son, fait rentrer tous mes flingueurs Jojo, c'est fort Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Opération, opé-, opération dragon, appelle moi, j'suis opé, la guerre, je dis pas non Les gars m'ont dit Okay, faut charger les canons, j'continue d'chapoter, étoile sur l'médaillon C'est l'Attaque des Titans, j'contrôle le bataillon, sombre est la mélodie, bre-som le piano Tu dégaines, on dégaine, on remonte dans Viano, appelle moi G2B l'pétard d'Adriano Appelle moi G2B l'pétard d'Adriano, pour tous les vrais OG, full black est la pano' Rappelle toi quand j'avais pas ma place dans l'va-go, j'suis revenu plus fort en opération dragon You might also like Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Tu dégaines, On dégaine, tu dégaines, On dégaine Ils voulaient pas de nous, ils jugeaient nos dégaines Toute ma vie qu'ils m'ont dit travaille la prochaine Je n'sais pas gérer mes émotions comme Eren Ma haine s'amplifie, mes larmes coulent en fontaine Ambition, j'arrête pas, jour et nuit j'm'entraîne Bosser pour réussir, viens donc qu'on s'entraide Même au sommet, jamais j'verrais ma retraite Même au sommet, jamais j'verrais ma retraite J'assume mes propos pendant qu'beaucoup regrette Ça flingue Découper la tête, sans peine, à la machette Impacter le monde, appuyer sur la gâchette Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-o'</t>
+          <t>Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération Attends, attends, attends, coupe le son, coupe le son, fait rentrer tous mes flingueurs Jojo, c'est fort Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Opération, opé-, opération dragon, appelle moi, j'suis opé, la guerre, je dis pas non Les gars m'ont dit Okay, faut charger les canons, j'continue d'chapoter, étoile sur l'médaillon C'est l'Attaque des Titans, j'contrôle le bataillon, sombre est la mélodie, bre-som le piano Tu dégaines, on dégaine, on remonte dans Viano, appelle moi G2B l'pétard d'Adriano Appelle moi G2B l'pétard d'Adriano, pour tous les vrais OG, full black est la pano' Rappelle toi quand j'avais pas ma place dans l'va-go, j'suis revenu plus fort en opération dragon Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Tu dégaines, On dégaine, tu dégaines, On dégaine Ils voulaient pas de nous, ils jugeaient nos dégaines Toute ma vie qu'ils m'ont dit travaille la prochaine Je n'sais pas gérer mes émotions comme Eren Ma haine s'amplifie, mes larmes coulent en fontaine Ambition, j'arrête pas, jour et nuit j'm'entraîne Bosser pour réussir, viens donc qu'on s'entraide Même au sommet, jamais j'verrais ma retraite Même au sommet, jamais j'verrais ma retraite J'assume mes propos pendant qu'beaucoup regrette Ça flingue Découper la tête, sans peine, à la machette Impacter le monde, appuyer sur la gâchette Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-o'</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ouh, ouh Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Ouh Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Brr, brr, brr, brr, brr Ouh, ouh, opération dragon Okay, okay C'est fort Ah-ah, ah-ah-ah Touchdown Chaud, chaud, chaud On est fâchés et méchants, comme si pour nous, c'était fichu, pare-balle est le gilet On fait plus d'descentes, maintenant, les crânes, on les fissure, code 1.8.7 On parle en codé À la Beydin Bieber sur le côté, la prochaine fois, parle-moi en face, ça m'évitera d'venir dans ta tess, j'espère que c'est noté Portez l'il ou pas, on porte des black glass', dans l'avion de chasse, j'ai toujours ma place assise Pour les mecs stylés J'suis un dragon Un dragon, j'suis un dragon en pétard, regarde, rien qu'ils palissent Okay, la vie va vite donc on bombarde dans l'game Boum, on prend d'la place comme Big Poppa On est resté beaux car ils sont remplis d'cocards, j'les baise, ils méritent pas qu'on leur sortent un Toka' J'les baise, ils méritent pas qu'on leur sortent un Toka', dans l'Fe'-Fe', on prend les p'tites routes vers la boca J'm'arrête sur la croisette, pose 10K chez LV mais bébé, j'ai billets qui fusent comme TGV Mon bébé, j'ai billets qui fusent comme TGV, faire plus qu'la veille, tous les jours, c'est mon défi Touchdown J'sais qu'j'suis leur hantise, ils reconnaissent les OG's, ils reconnaissent les bandits Mec, on a grandi, j'suis l'contraire de Gandhi Ouais, dix-huit est floqué sur l'maillot comme Ghandri Toujours On peut plus recommencer, les dés sont d'jà lancés Jamais, une fois sur l'ring qu'il faut tous les faire danser Jojo 80 BPM comme Gervonta Davis Ah, j'suis là pour apporter l'danger Coco Eh, lunette cannelée sur la Rollie Jojo, j'leur ai mis coup d'rein comme si j'étais Ronnie Trop fort J'me suis pas calmé, j'suis encore en roue libre C'est fort, ces bâtards méritent juste qu'on soit grave impoli C'est pour ça On travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille Focus, ambition, tu m'vois jamais déraille mais si tu m'pousses à bout, tu verras qu'des Arai Coco Je n'prends pas de repos, j'ai mis que des cracks affamés dans la compo' Brr Ça finit en Benz, attends, j't'explique le topo, fidèle aux plavons, flingueur le logo Jojo 2.4.3, Congo, j'ai commencé bercé par Franco, quelques années plus tard, j'ai tous pris dans l'ffre-co Ouh Tressé comme Bow Wow, la bécane fait ouin-ouin, tu demandes si c'est fort, on répond tous Ouais, ouais Mais t'es con, c'est pas vrai, ils s'croient dans une série, on l'fait pour de vrai, man, dans pussy j'atterris Coco Big, big rock swing comme Jackson Ouh, j'ai tout pour toi, mi corazón Ouh, ouh Parle pas sur l'Jojo Sur le Coco, même si tu demandes Pardon, on t'assomme Pah J'sais qu'ma vie de cain-ri les fascinent, j'viens d'en bas, pour moi, c'était pas facile Maintenant On fait du fric, on est gang, on est célèbres Okay You might also like Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres On est célèbres, célèbres Han-han, han-han Opération dragon</t>
+          <t>Ouh, ouh Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Ouh Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Brr, brr, brr, brr, brr Ouh, ouh, opération dragon Okay, okay C'est fort Ah-ah, ah-ah-ah Touchdown Chaud, chaud, chaud On est fâchés et méchants, comme si pour nous, c'était fichu, pare-balle est le gilet On fait plus d'descentes, maintenant, les crânes, on les fissure, code 1.8.7 On parle en codé À la Beydin Bieber sur le côté, la prochaine fois, parle-moi en face, ça m'évitera d'venir dans ta tess, j'espère que c'est noté Portez l'il ou pas, on porte des black glass', dans l'avion de chasse, j'ai toujours ma place assise Pour les mecs stylés J'suis un dragon Un dragon, j'suis un dragon en pétard, regarde, rien qu'ils palissent Okay, la vie va vite donc on bombarde dans l'game Boum, on prend d'la place comme Big Poppa On est resté beaux car ils sont remplis d'cocards, j'les baise, ils méritent pas qu'on leur sortent un Toka' J'les baise, ils méritent pas qu'on leur sortent un Toka', dans l'Fe'-Fe', on prend les p'tites routes vers la boca J'm'arrête sur la croisette, pose 10K chez LV mais bébé, j'ai billets qui fusent comme TGV Mon bébé, j'ai billets qui fusent comme TGV, faire plus qu'la veille, tous les jours, c'est mon défi Touchdown J'sais qu'j'suis leur hantise, ils reconnaissent les OG's, ils reconnaissent les bandits Mec, on a grandi, j'suis l'contraire de Gandhi Ouais, dix-huit est floqué sur l'maillot comme Ghandri Toujours On peut plus recommencer, les dés sont d'jà lancés Jamais, une fois sur l'ring qu'il faut tous les faire danser Jojo 80 BPM comme Gervonta Davis Ah, j'suis là pour apporter l'danger Coco Eh, lunette cannelée sur la Rollie Jojo, j'leur ai mis coup d'rein comme si j'étais Ronnie Trop fort J'me suis pas calmé, j'suis encore en roue libre C'est fort, ces bâtards méritent juste qu'on soit grave impoli C'est pour ça On travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille Focus, ambition, tu m'vois jamais déraille mais si tu m'pousses à bout, tu verras qu'des Arai Coco Je n'prends pas de repos, j'ai mis que des cracks affamés dans la compo' Brr Ça finit en Benz, attends, j't'explique le topo, fidèle aux plavons, flingueur le logo Jojo 2.4.3, Congo, j'ai commencé bercé par Franco, quelques années plus tard, j'ai tous pris dans l'ffre-co Ouh Tressé comme Bow Wow, la bécane fait ouin-ouin, tu demandes si c'est fort, on répond tous Ouais, ouais Mais t'es con, c'est pas vrai, ils s'croient dans une série, on l'fait pour de vrai, man, dans pussy j'atterris Coco Big, big rock swing comme Jackson Ouh, j'ai tout pour toi, mi corazón Ouh, ouh Parle pas sur l'Jojo Sur le Coco, même si tu demandes Pardon, on t'assomme Pah J'sais qu'ma vie de cain-ri les fascinent, j'viens d'en bas, pour moi, c'était pas facile Maintenant On fait du fric, on est gang, on est célèbres Okay Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres On est célèbres, célèbres Han-han, han-han Opération dragon</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ouais cest les flingueurs, cest les flingueurs là Pour les mecs stylés ouais Cest Coco Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Jojo, c'est haut, cest haut Jojo Je nettoie mes shoes un peu de patience On est àl à dix heures tapantes Et en vrai jai rien à tapprendre Kouma pour R ils sont bons quà papoter Kouma pour R ils sont bons quà papoter Crois pas que mon blaze ils lont saboté Le R.R. je suis en train de décapoter Jaime quand les bitches me disent quils sont baux tes gars Ah-ah Que du full drip survêtemnt Bottega Ah-ah Jai du cash donc tu baises maintenant Javais le seum mais je suis bien maintenant Maintenant cest fort tu reviens tu reviens Au calme ya rien cest balourd Papito charme opération dragon Ouais cest fort You might also likeAyo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo Ha ha Ya que du cash dans la voiture, ayo Jojo Les poches sont enceintes gros je tassure Mama mia, mama mia Je lui achète son Birkin cest comme ça quelle ferme sa gueule Faut toujours des trucs à dire À la fin vous nous portez lil Rien de perso je te rassure Rien de perso je te rassure On tallume fuck ta carrure Au calme ya rien cest balourd Je pousse des bénefs vers musée du Louvre On ta déjà dit cest nous les poids lourds 62 Charles Aznavour Cest, cest fort On savoure, hôtel collectionneur je séjourne Pompette je fais chier le voiturier toute la soirée Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Cest fort Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Guy2Bezbar le Coco Jojo Pour les mecs stylés hein My G Cest ton gars Coco Jojo Papito charme</t>
+          <t>Ouais cest les flingueurs, cest les flingueurs là Pour les mecs stylés ouais Cest Coco Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Jojo, c'est haut, cest haut Jojo Je nettoie mes shoes un peu de patience On est àl à dix heures tapantes Et en vrai jai rien à tapprendre Kouma pour R ils sont bons quà papoter Kouma pour R ils sont bons quà papoter Crois pas que mon blaze ils lont saboté Le R.R. je suis en train de décapoter Jaime quand les bitches me disent quils sont baux tes gars Ah-ah Que du full drip survêtemnt Bottega Ah-ah Jai du cash donc tu baises maintenant Javais le seum mais je suis bien maintenant Maintenant cest fort tu reviens tu reviens Au calme ya rien cest balourd Papito charme opération dragon Ouais cest fort Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo Ha ha Ya que du cash dans la voiture, ayo Jojo Les poches sont enceintes gros je tassure Mama mia, mama mia Je lui achète son Birkin cest comme ça quelle ferme sa gueule Faut toujours des trucs à dire À la fin vous nous portez lil Rien de perso je te rassure Rien de perso je te rassure On tallume fuck ta carrure Au calme ya rien cest balourd Je pousse des bénefs vers musée du Louvre On ta déjà dit cest nous les poids lourds 62 Charles Aznavour Cest, cest fort On savoure, hôtel collectionneur je séjourne Pompette je fais chier le voiturier toute la soirée Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Cest fort Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Guy2Bezbar le Coco Jojo Pour les mecs stylés hein My G Cest ton gars Coco Jojo Papito charme</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Enfant de bringue Flingue, igo tu connais Tu vas pas nous revoir demain Non, non, tu vas pas nous revoir demain On est sur le terrain de le-lendemain Igo jai failli, tomber, aïe igo Ils ont voulu mbaiser me die, igo Envoie le coca, le light, igo Wesh, igo Qui ta dit qujtire à larc, beleck Ça tire à larme goose gros, tire la lame avant quça tpénètre Ça bicrave sous un arbre, ça tamène sous un abri dbus Pousse toi dlà igo, ça mvénère wesh Oh, oh, oh, oh Jcrois quelle est oh, oh, oh, oh On va les oh, oh, oh, oh todos Fck les oh, oh, oh, oh claquos You might also like Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Mérite quon les attache tous Quon les mette à poil avec gros calibre 12 Cette année jai tellement fait de fausses Braquer lindustrie la prenne en partouze Oh, oh, oh, oh, oh, oh Mec on les shoot on se cache tous en chap-chap Avenue grande armée qua ché-cou mon champ Tinquiète pas moi jsuis jamais seul dans ma chambre Tinquiète pas moi jsuis jamais seul dans mon penthouse Jreste attaché, jamais très loin du bendo Oh, oh, oh, oh, oh, oh Juste histoire de voir quon nest pas loin sur lté-co Sinon wesh my G ça dit quoi ? Toujours à parler des gens, mais tes fou toi oh Moi jai préféré suivre un autre convoi La seule chose quon sait faire écoper, dire au revoir Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh brr</t>
+          <t>Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Enfant de bringue Flingue, igo tu connais Tu vas pas nous revoir demain Non, non, tu vas pas nous revoir demain On est sur le terrain de le-lendemain Igo jai failli, tomber, aïe igo Ils ont voulu mbaiser me die, igo Envoie le coca, le light, igo Wesh, igo Qui ta dit qujtire à larc, beleck Ça tire à larme goose gros, tire la lame avant quça tpénètre Ça bicrave sous un arbre, ça tamène sous un abri dbus Pousse toi dlà igo, ça mvénère wesh Oh, oh, oh, oh Jcrois quelle est oh, oh, oh, oh On va les oh, oh, oh, oh todos Fck les oh, oh, oh, oh claquos Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Mérite quon les attache tous Quon les mette à poil avec gros calibre 12 Cette année jai tellement fait de fausses Braquer lindustrie la prenne en partouze Oh, oh, oh, oh, oh, oh Mec on les shoot on se cache tous en chap-chap Avenue grande armée qua ché-cou mon champ Tinquiète pas moi jsuis jamais seul dans ma chambre Tinquiète pas moi jsuis jamais seul dans mon penthouse Jreste attaché, jamais très loin du bendo Oh, oh, oh, oh, oh, oh Juste histoire de voir quon nest pas loin sur lté-co Sinon wesh my G ça dit quoi ? Toujours à parler des gens, mais tes fou toi oh Moi jai préféré suivre un autre convoi La seule chose quon sait faire écoper, dire au revoir Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh brr</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Écoute et tu fermes ta gueule paix Plata Plata, place à la re-gué G2Binks ya quoi, dehors rien à dire tu vas te taire, jouvre la dégaine de mes reuf sur le rai-té ya quoi je vois ceux qui parler mal finir par terre Mec on était là toi tétais où, Mec on a fait le travail jusquau bout, jétais pas le bon exemple pour le collier, je regardais le prof je voulais lui choir à son collier Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Jai pris de lavance en répétant pendant quil bronzer, comment bien rentabilisé Jy penser, quand les bleus fer font des chaus, je retourne la maison tout façon dit zartek ciné yen à plus assez, me dit tinquiète pas ça va passer, on sauve dargent nous les miettes on ramasser, bezbar nest pas touristique on va rasser Gros merco classais, je veux les dépasser, on ma ouvert les deux portes je suis passé, mec on va brasser il men faut assez jétais tout nouveau jai fini sur classe A Yah on est chaud bouillant gros pour tout casser, je ne vois toujours pas cette concurrence que je déguste comme des crustacés La vécu est réel, va dire à tout ta famille que je la piste matin midi soir, on prend des risques, tas parlé sur moi tu nes donc un fils de, jamais faire confiance et sur ça jinsiste, je suis pas comme eux jattends rien en retour, big up si tu mécoute en bas de la tour regarde autour beaucoup me soutient beaucoup me veulent pas que ça devient au tour Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix, pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras les pieds chez les bleus il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business You might also like Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business</t>
+          <t>Écoute et tu fermes ta gueule paix Plata Plata, place à la re-gué G2Binks ya quoi, dehors rien à dire tu vas te taire, jouvre la dégaine de mes reuf sur le rai-té ya quoi je vois ceux qui parler mal finir par terre Mec on était là toi tétais où, Mec on a fait le travail jusquau bout, jétais pas le bon exemple pour le collier, je regardais le prof je voulais lui choir à son collier Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Jai pris de lavance en répétant pendant quil bronzer, comment bien rentabilisé Jy penser, quand les bleus fer font des chaus, je retourne la maison tout façon dit zartek ciné yen à plus assez, me dit tinquiète pas ça va passer, on sauve dargent nous les miettes on ramasser, bezbar nest pas touristique on va rasser Gros merco classais, je veux les dépasser, on ma ouvert les deux portes je suis passé, mec on va brasser il men faut assez jétais tout nouveau jai fini sur classe A Yah on est chaud bouillant gros pour tout casser, je ne vois toujours pas cette concurrence que je déguste comme des crustacés La vécu est réel, va dire à tout ta famille que je la piste matin midi soir, on prend des risques, tas parlé sur moi tu nes donc un fils de, jamais faire confiance et sur ça jinsiste, je suis pas comme eux jattends rien en retour, big up si tu mécoute en bas de la tour regarde autour beaucoup me soutient beaucoup me veulent pas que ça devient au tour Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix, pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras les pieds chez les bleus il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Mes frères le savent, c'que j'fais c'est très très très lourd Ton fessier, ça moi je tape que si c'est très très très lourd La propagande arrive négro, car vous êtes très très très mous Feat de malade, toi t'es pas là, car t'es très très très nul Négro très très content quand je vois que les traîtres, traîtres périssent Oui, très très tentant toutes ces femmes aux beaux p'tits leggings Quand le biz tourne, oui, j'ai l'sourire J'ai du mal à comprendre ces thos-my Guette, la mala est bien sur le milli' Joli garçon, yes, c'est terrible Me comparer à eux c'est comme si tu compares le guetteur au trafiquant Guette j'suis dans les temps, parisien gros, oui c'est évident Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien You might also like Magicien Houdini, parisien pour la vie Transforme résine en bif', comme si j'fumais un spliff Pas de chichi, pas de na na ni, j'suis en compét' sur l'avenue, breliqué J'avoue, j'suis un peu pompet' mais t'occupe pas d'mon avenir Je porte que du seille-o, pas de produits dérivés Trouer ton pull c'est sûr, j'vais y arriver Allume le feu comme Johnny Halliday J'te vois courir et ton cur palpiter En live de périscope Même dans l'froid, mon teh il s'tord On rentre chez toi quand ton père il dort Et j'ai raison même quand j'ai tort Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien On est pas là pour faire du cinéma, c'est moi le Guy qui mène la danse Ici c'est Paris quoi qu'ils disent, numéro uno quand j'y pense Tu visites la Tour Eiffel, on localise ton appareil photo Non mais de quoi j'me mêle? Parle pas de moi et mes potos Chenguili, chenguili, sois pas trop nerveux Fusille-les, fusille-les tous ces p'tits merdeux Milli-li, milli-li, j'le veux en sérieux Laisse-les parler gros, dans cinq ans, ils sont tous vieux Paname est magique mais les rues sont salaces Toi t'as cassé mon fer mais tinquiètes tu vas khalass J'ai rêvé d'une frappe qui me sert dans le palace Parisien magicien, Guy2Bezbar a trop la classe Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien C'est Bava qui contrôle, ma langue un Berreta J'suis dans la neuvième zone, le flow est véritable La haine c'est mon défaut, parisien irritable On contrôle la Ligue 1, l'illégal, l'élégance, les dégâts, y'en a trop, la dégaine parigo fait débat mais déboîte Et les go rêvent de nous le week-end, oui car elles ont du goût, tous nos MC's découpent On visera toutes les coupes, la France est à l'écoute, d'ailleurs, j'te dédicace Parisien magicien, on a mis au chômage tous les bouts-mara Si on rentre sur le terrain, 3-0 minimum, t'es dans l'embarras Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien4</t>
+          <t>Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Mes frères le savent, c'que j'fais c'est très très très lourd Ton fessier, ça moi je tape que si c'est très très très lourd La propagande arrive négro, car vous êtes très très très mous Feat de malade, toi t'es pas là, car t'es très très très nul Négro très très content quand je vois que les traîtres, traîtres périssent Oui, très très tentant toutes ces femmes aux beaux p'tits leggings Quand le biz tourne, oui, j'ai l'sourire J'ai du mal à comprendre ces thos-my Guette, la mala est bien sur le milli' Joli garçon, yes, c'est terrible Me comparer à eux c'est comme si tu compares le guetteur au trafiquant Guette j'suis dans les temps, parisien gros, oui c'est évident Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Magicien Houdini, parisien pour la vie Transforme résine en bif', comme si j'fumais un spliff Pas de chichi, pas de na na ni, j'suis en compét' sur l'avenue, breliqué J'avoue, j'suis un peu pompet' mais t'occupe pas d'mon avenir Je porte que du seille-o, pas de produits dérivés Trouer ton pull c'est sûr, j'vais y arriver Allume le feu comme Johnny Halliday J'te vois courir et ton cur palpiter En live de périscope Même dans l'froid, mon teh il s'tord On rentre chez toi quand ton père il dort Et j'ai raison même quand j'ai tort Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien On est pas là pour faire du cinéma, c'est moi le Guy qui mène la danse Ici c'est Paris quoi qu'ils disent, numéro uno quand j'y pense Tu visites la Tour Eiffel, on localise ton appareil photo Non mais de quoi j'me mêle? Parle pas de moi et mes potos Chenguili, chenguili, sois pas trop nerveux Fusille-les, fusille-les tous ces p'tits merdeux Milli-li, milli-li, j'le veux en sérieux Laisse-les parler gros, dans cinq ans, ils sont tous vieux Paname est magique mais les rues sont salaces Toi t'as cassé mon fer mais tinquiètes tu vas khalass J'ai rêvé d'une frappe qui me sert dans le palace Parisien magicien, Guy2Bezbar a trop la classe Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien C'est Bava qui contrôle, ma langue un Berreta J'suis dans la neuvième zone, le flow est véritable La haine c'est mon défaut, parisien irritable On contrôle la Ligue 1, l'illégal, l'élégance, les dégâts, y'en a trop, la dégaine parigo fait débat mais déboîte Et les go rêvent de nous le week-end, oui car elles ont du goût, tous nos MC's découpent On visera toutes les coupes, la France est à l'écoute, d'ailleurs, j'te dédicace Parisien magicien, on a mis au chômage tous les bouts-mara Si on rentre sur le terrain, 3-0 minimum, t'es dans l'embarras Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien4</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Eh, eh 6.9.1, mon pote La Champions League, mon pote C'est Coco Jojo, wow, wow La fusée, la fusée La fumée, la fumée Eh, eh Rrah, rrah La frappe, la frappe, la frappe Coco Jojo, rrah, rrah, rrah Okay Gum-gum, remballe ton pétard en gum-gum, phone, phone, tonne, tonne, mets tout chez la bonne Bu-buteur d'la saison Brr, j'suis pas perso, j'fais toujours des passes Bullet Représente les chiens d'la casse Bullet, nous on t'nique ta mère Bullet, que des piafs La F, F, F, j'ai ramené la coupe comme la F.F.F J'suis l'numéro dix de ma tess, tess, tess J'me dis F, F, nique le bénéf', ces bâtards demandent tous la réf' Grr, pah, pah, pah Et, et puis, y a les mecs qu'j'dois cash-out, qu'j'dois pull up, sortir avec le glavock Dans la rue, cherche que des plavons, 6.9.1 doit aller de l'avant Brr So la calle, c'est les bavons, 6.9.1, tu connais, que des braves C'qu'on subit nous, c'est pas marrant, toujours actifs et on nique des mamans Mamans Grosse, grosse 'teille de Rui' Rui', rempli de biatchs, on chill Oui Tu sais quand ça parle en kil', j'suis là même avant midi pile Brr Et puis, c'est la merde en bas d'chez moi, ça recommence pour le kil' Brr Tu sais qu'on est des vrais yous-voi, Tokarev planqué sous le jean Et puis, les kho parlent de bon-char, savent que chez nous, c'est la mine Ouais la mif', c'est les thunes qui donnent la bonne mine Brr, rrah, rrah You might also like Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah J'suis dans les para', c'est nous les parrains, c'est nous les parrains, j'suis sur le terrain Appuie sur R1, brr, brr, ah, ça sonne, on va t'niquer ta mère, y aura personne Personne J'fais trembler le game et ça résonne Résonne remballe ta bitch, elle est pas bonne Ah, ah Billets jaunes couleur cheesy, j'sors du lot, j'ai le trophée Trophée Rare est la paire de Yeezy, suite d'hôtel après bouffer C'est de l'eau, on l'a trop fait Pah, pah, mais c'est de l'eau, on l'a trop fait Plus d'un lourd pour me refaire, plus d'un lourd pour me refaire Mon-mon-mon pote fait vingt ans d'prison, j'suis parti pour vingt ans d'mandat Brr Villeurbanne, c'est gunshot season pour tous ceux qui sont partis d'en bas Ces bâtards veulent goûter la fumée, 9 milli', j'parle pas d'Amsterdam Bullet Les taros sont beaucoup plus bas Bullet, j'vais récup' dans l'sud de l'Espagne Bullet, bullet J'veux v'là les thunes, j'veux v'là les sous pour tous mes khos Air Maxé et T-Maxé, pour l'argent, on est beaucoup trop chauds Faut d'la monnaie, j'le répète, tous les jours, que des pépètes Brr Y a des mecs qui sont zehef, on récup' tout leur bénéf' Brr, brr Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah</t>
+          <t>Eh, eh 6.9.1, mon pote La Champions League, mon pote C'est Coco Jojo, wow, wow La fusée, la fusée La fumée, la fumée Eh, eh Rrah, rrah La frappe, la frappe, la frappe Coco Jojo, rrah, rrah, rrah Okay Gum-gum, remballe ton pétard en gum-gum, phone, phone, tonne, tonne, mets tout chez la bonne Bu-buteur d'la saison Brr, j'suis pas perso, j'fais toujours des passes Bullet Représente les chiens d'la casse Bullet, nous on t'nique ta mère Bullet, que des piafs La F, F, F, j'ai ramené la coupe comme la F.F.F J'suis l'numéro dix de ma tess, tess, tess J'me dis F, F, nique le bénéf', ces bâtards demandent tous la réf' Grr, pah, pah, pah Et, et puis, y a les mecs qu'j'dois cash-out, qu'j'dois pull up, sortir avec le glavock Dans la rue, cherche que des plavons, 6.9.1 doit aller de l'avant Brr So la calle, c'est les bavons, 6.9.1, tu connais, que des braves C'qu'on subit nous, c'est pas marrant, toujours actifs et on nique des mamans Mamans Grosse, grosse 'teille de Rui' Rui', rempli de biatchs, on chill Oui Tu sais quand ça parle en kil', j'suis là même avant midi pile Brr Et puis, c'est la merde en bas d'chez moi, ça recommence pour le kil' Brr Tu sais qu'on est des vrais yous-voi, Tokarev planqué sous le jean Et puis, les kho parlent de bon-char, savent que chez nous, c'est la mine Ouais la mif', c'est les thunes qui donnent la bonne mine Brr, rrah, rrah Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah J'suis dans les para', c'est nous les parrains, c'est nous les parrains, j'suis sur le terrain Appuie sur R1, brr, brr, ah, ça sonne, on va t'niquer ta mère, y aura personne Personne J'fais trembler le game et ça résonne Résonne remballe ta bitch, elle est pas bonne Ah, ah Billets jaunes couleur cheesy, j'sors du lot, j'ai le trophée Trophée Rare est la paire de Yeezy, suite d'hôtel après bouffer C'est de l'eau, on l'a trop fait Pah, pah, mais c'est de l'eau, on l'a trop fait Plus d'un lourd pour me refaire, plus d'un lourd pour me refaire Mon-mon-mon pote fait vingt ans d'prison, j'suis parti pour vingt ans d'mandat Brr Villeurbanne, c'est gunshot season pour tous ceux qui sont partis d'en bas Ces bâtards veulent goûter la fumée, 9 milli', j'parle pas d'Amsterdam Bullet Les taros sont beaucoup plus bas Bullet, j'vais récup' dans l'sud de l'Espagne Bullet, bullet J'veux v'là les thunes, j'veux v'là les sous pour tous mes khos Air Maxé et T-Maxé, pour l'argent, on est beaucoup trop chauds Faut d'la monnaie, j'le répète, tous les jours, que des pépètes Brr Y a des mecs qui sont zehef, on récup' tout leur bénéf' Brr, brr Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ah bien sur , ah bien sur ! Les voyous de ma ville barodent en caisse à la recheche du sheca Les voyous de ma ville t'arrosent en cas de haja dans le veca Jungle pah c'est la regué Plus tard j'sais qu'jv'ais regretter Je sais bien qu'ils me tegué Armé jusqu'au dent demande a Connard la frappe que tu kiff vient du Rocma ! Tôt ou tard pour l'argent je n'aurais pas de retard Comme d'hab' c'est Guy2Bezbar Ouais le p'tit fétard, deuspee comme Pedro et Neymar Au millimètre près je t'arrose et puis s'est trop tard Toi ta meuf elle kiff sur notre style et notre chemar Bang Bang! On frappe à la porte Shit , cagoule , et Glock Ces batards de shmits y en trop ! Ramène de la meuf oui des putins de peuf' qu'ont puisse faire le teuf et niker toutes les soirées Y a du sang neuf là préviens tous tes reuf On vous sort tous un oeuf si vous etes pas trop carré Nous c'est a la haine qu'on est marié ! Mani mani , toi tu suces des bites je peux parier ! Bandits bandits vrais me félicitent Ouais ma biche fait ressortir la street de son nid à ce qui parait You might also like Avec toi je parle de monnaie avec elle ce n'est pas le même délire On préfère la rue, les tarpé, gros t'a capté on aime ce qui empire Pétard dans ta putin de gueule et ta vie oui crois moi qu'j'vais la détruire Tu vas tellement puer le 18 que ta soeur elle va vomir Bandit faut se lever tôt Bonchar meme en Mes ennemis sont sur le rétro Ou bien serré dans le métro Faut faire d'l'a mula oulala oulala d'l'a cheblan du Pablo Escobar Bande de p'tit pd la 3chouma les youvoi de chez nous racontent pas de bobar On reste ensemble toute la journée mais le soir gros c'est pas le même délire Ton mec a toi joue les jnouné avec nous khey c'est pas le même délire Quand on fais la regué contrairement à vous khey c'est pas le même délire B-Mafia vous tegué de près et c'est pas le meme délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le mal délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le même délire JUNGLE, JUNGLE, JUNGLE, JUNGLE !!1</t>
+          <t>Ah bien sur , ah bien sur ! Les voyous de ma ville barodent en caisse à la recheche du sheca Les voyous de ma ville t'arrosent en cas de haja dans le veca Jungle pah c'est la regué Plus tard j'sais qu'jv'ais regretter Je sais bien qu'ils me tegué Armé jusqu'au dent demande a Connard la frappe que tu kiff vient du Rocma ! Tôt ou tard pour l'argent je n'aurais pas de retard Comme d'hab' c'est Guy2Bezbar Ouais le p'tit fétard, deuspee comme Pedro et Neymar Au millimètre près je t'arrose et puis s'est trop tard Toi ta meuf elle kiff sur notre style et notre chemar Bang Bang! On frappe à la porte Shit , cagoule , et Glock Ces batards de shmits y en trop ! Ramène de la meuf oui des putins de peuf' qu'ont puisse faire le teuf et niker toutes les soirées Y a du sang neuf là préviens tous tes reuf On vous sort tous un oeuf si vous etes pas trop carré Nous c'est a la haine qu'on est marié ! Mani mani , toi tu suces des bites je peux parier ! Bandits bandits vrais me félicitent Ouais ma biche fait ressortir la street de son nid à ce qui parait Avec toi je parle de monnaie avec elle ce n'est pas le même délire On préfère la rue, les tarpé, gros t'a capté on aime ce qui empire Pétard dans ta putin de gueule et ta vie oui crois moi qu'j'vais la détruire Tu vas tellement puer le 18 que ta soeur elle va vomir Bandit faut se lever tôt Bonchar meme en Mes ennemis sont sur le rétro Ou bien serré dans le métro Faut faire d'l'a mula oulala oulala d'l'a cheblan du Pablo Escobar Bande de p'tit pd la 3chouma les youvoi de chez nous racontent pas de bobar On reste ensemble toute la journée mais le soir gros c'est pas le même délire Ton mec a toi joue les jnouné avec nous khey c'est pas le même délire Quand on fais la regué contrairement à vous khey c'est pas le même délire B-Mafia vous tegué de près et c'est pas le meme délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le mal délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le même délire JUNGLE, JUNGLE, JUNGLE, JUNGLE !!1</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wow wow, c'est Coco Jojo, Depitcho R9 Wow, c'est fort On fait de l'oseille tu sais bien, que de l'oseille On est pas là pour perdre du temps On fait de l'oseille, appelle on arrive fort On est pas là pour perdre du temps, appelle on arrive fort C'est la calle, c'est fort, c'est fort ok On fait de l'oseille et ça va péter C'est Coco Jojo, ouais on fait de l'oseille C'est ton gars Coco Jojo On st pas là pour perdre du temps, on fait d l'oseille Que j'voyage en classe business On est pas là pour perdre du temps, appelle on arrive fort Chargé, ça flingue, flingue, on fait de l'oseille Le Coco Jojo, c'est fort, c'est fort Nous c'est la qualité, tu peux pas hésiter My G, Cool G, c'est pour l'éternité My G, Cool G, personne va paniquer J'ai ma kichta, ma caisse et mon feu Personne va m'bé-bar, Jojo Jojo C'est bouillant, c'est uno ocho Tous les p'tits couillons vont finir couchés Pop-pop, tou-tou, pop-pop Automatique toute mon auto Beaucoup de flics dans sac à dos Flingues, on en veut plein parce qu'on est plein Posé dans l'trap house window C'est qu'on est bien, on baise ces chiens On dans l'trap house, ok oh oh oh Suck my dick en vrai, y a personne que t'effraies Y a personne que t'impressionnes Toute la mif' au frais, c'est Blue Magic mon frère c'est Blue Magic mon frère Ouais Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort ok Maintenant j'pense à tout niquer You might also like J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Les pépettes, dans ma tête c'est que les pépettes, accélère, t'arrêtes pas Fais-moi la passe, tu verras c'est Coco Jojo On va casser la lucarne comme Adriano Les pépettes, dans ma tête c'est que les pépettes on pète le brassard C'est magique comme Zidane et Ronaldinho Les pépettes, dans ma tête c'est que les pépettes Tout mon passé derrière moi, maintenant j'pense à tout niquer Mes potes sont derrière moi, quoique j'fasse ils vont s'impliquer Là c'est fort, j'ai sorti la tête de l'eau Le temps passe, on améliore le flow On est tous unis, comme la BMF Et le meilleur reste à venir Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort, ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Accélère, t'arrêtes pas</t>
+          <t>Wow wow, c'est Coco Jojo, Depitcho R9 Wow, c'est fort On fait de l'oseille tu sais bien, que de l'oseille On est pas là pour perdre du temps On fait de l'oseille, appelle on arrive fort On est pas là pour perdre du temps, appelle on arrive fort C'est la calle, c'est fort, c'est fort ok On fait de l'oseille et ça va péter C'est Coco Jojo, ouais on fait de l'oseille C'est ton gars Coco Jojo On st pas là pour perdre du temps, on fait d l'oseille Que j'voyage en classe business On est pas là pour perdre du temps, appelle on arrive fort Chargé, ça flingue, flingue, on fait de l'oseille Le Coco Jojo, c'est fort, c'est fort Nous c'est la qualité, tu peux pas hésiter My G, Cool G, c'est pour l'éternité My G, Cool G, personne va paniquer J'ai ma kichta, ma caisse et mon feu Personne va m'bé-bar, Jojo Jojo C'est bouillant, c'est uno ocho Tous les p'tits couillons vont finir couchés Pop-pop, tou-tou, pop-pop Automatique toute mon auto Beaucoup de flics dans sac à dos Flingues, on en veut plein parce qu'on est plein Posé dans l'trap house window C'est qu'on est bien, on baise ces chiens On dans l'trap house, ok oh oh oh Suck my dick en vrai, y a personne que t'effraies Y a personne que t'impressionnes Toute la mif' au frais, c'est Blue Magic mon frère c'est Blue Magic mon frère Ouais Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Les pépettes, dans ma tête c'est que les pépettes, accélère, t'arrêtes pas Fais-moi la passe, tu verras c'est Coco Jojo On va casser la lucarne comme Adriano Les pépettes, dans ma tête c'est que les pépettes on pète le brassard C'est magique comme Zidane et Ronaldinho Les pépettes, dans ma tête c'est que les pépettes Tout mon passé derrière moi, maintenant j'pense à tout niquer Mes potes sont derrière moi, quoique j'fasse ils vont s'impliquer Là c'est fort, j'ai sorti la tête de l'eau Le temps passe, on améliore le flow On est tous unis, comme la BMF Et le meilleur reste à venir Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort, ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Accélère, t'arrêtes pas</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C'est fort ! Hey yo, hey yo, c'est les flingueurs là, my G Zamdane, tu dis quoi ? Bellek track Ahaha Opération dragon, c'est la maison blanche là Let's go Yes Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Donne-moi ton cur j'vais le piloter Han, toi et moi solo dans pilotis Woh Toujours en caillera même menotté Toujours, chante au commissariat tout en Berluti Full Ouais mon G, j'fais des billets, bébé, j'suis pas romantique Nan, nan Fuck la BAC on empile les sacs, faut la que-pla diplomatique J'répète c'est Coco en Berluti Coco, gère la caillé comme Pape et Ancelotti Fort On est gang et tu sais qu'on le sait qu'ils le savent, que vous êtes bons qu'à ramasser le savon Envoie le yo-yo en lancé de javelot, j'récupère Okay, okay J'fais kiffer la street à la bien pour les javons Tranquille You might also like Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Elle m'fait confiance Yes donc elle m'laisse piloter C'est moi qui conduis Le ciel est grand mais moi j'me sens menotté J'me sens toujours pas free Frérot, c'est une dinguerie, comment j'ai changé d'train de vie Mmh, ils ont la haine, mmh, ils ont la haine, j'fume, j'perds des kilogrammes Parce que j'ai qu'une vie, j'cours après mon time Enfant d'Afrique, notre souffrance est continentale À force des décès, du manque et des ratatatas j'deviens sentimental J'deviens sentimental J'deviens sentimental J'deviens sentimental Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo</t>
+          <t>C'est fort ! Hey yo, hey yo, c'est les flingueurs là, my G Zamdane, tu dis quoi ? Bellek track Ahaha Opération dragon, c'est la maison blanche là Let's go Yes Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Donne-moi ton cur j'vais le piloter Han, toi et moi solo dans pilotis Woh Toujours en caillera même menotté Toujours, chante au commissariat tout en Berluti Full Ouais mon G, j'fais des billets, bébé, j'suis pas romantique Nan, nan Fuck la BAC on empile les sacs, faut la que-pla diplomatique J'répète c'est Coco en Berluti Coco, gère la caillé comme Pape et Ancelotti Fort On est gang et tu sais qu'on le sait qu'ils le savent, que vous êtes bons qu'à ramasser le savon Envoie le yo-yo en lancé de javelot, j'récupère Okay, okay J'fais kiffer la street à la bien pour les javons Tranquille Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Elle m'fait confiance Yes donc elle m'laisse piloter C'est moi qui conduis Le ciel est grand mais moi j'me sens menotté J'me sens toujours pas free Frérot, c'est une dinguerie, comment j'ai changé d'train de vie Mmh, ils ont la haine, mmh, ils ont la haine, j'fume, j'perds des kilogrammes Parce que j'ai qu'une vie, j'cours après mon time Enfant d'Afrique, notre souffrance est continentale À force des décès, du manque et des ratatatas j'deviens sentimental J'deviens sentimental J'deviens sentimental J'deviens sentimental Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Enfant du block est devenu un big boss et même ma bitch, c'est une putain d'gangsta Bah Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Bah, oh Pou-pou-pouh Eh, yo, eh, yo, Papito Charme Han-han-han-han-han Pa-pa-pa-pah, c'est fort Jojo Ah, C.O.C.O Ouh J'reste gang mais toujours aussi fashion, dans un Lambo' sur la croisette, on peut pas s'fâcher Nan Ils sont bons qu'a rayer l'parechoc, pendant qu'je ramène billet en banque dans sachet J'me sens comme Jay-Z quand j'écoute Bonny and Clyde, Clyde Et nos vies, c'est pas la PlayStation Nan, devant la station, gros, fait partir en taille-dé, taille-dé Ah-ah Tout Tout pour le Trap House, tout, tout pour la calle, calle Touah Ta vie, c'est d'la merde, t'es bloqué dans l'plis, ta meuf, elle s'ennuie, elle passe son temps à bailler Ah Singapour, Saint-Tropez, Las Vegas, Dubaï, petit Dom Pé', sous chicas, du bateau j'dis Bye, bye Ouh J'suis tellement chaud dans ma vie, j'sais même plus ça fait quoi d'être sous un degré 'gré C'est toujours moi la putain d'Ligue 1, j'regarde les autres, j'vois aucuns progrès Ouais, gang, ah-ah-ah et c'est tout, tout, tout à fait normal Tout On a mis la barre très haute Haute, j'sais qu'ils sont tous, tous dans l'mal Ligue 1, Papito charme, on ramène la drogue, le cash et les armes Enfant du block Gang, gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P You might also like Hey, j'suis dans un strip club à Miami Ouh, j'jette des billets sur ses fesses comme Lil Baby Jackson Elle est guedine, elle m'dit Baby Baby, est-ce que tu peux m'aimer toute la vie ? Non Tu vois pas que ma vie, c'est un film X X, Bumpy Johnson, Malcolm X Ouais D'vant le mic', j'ai la rage d'un pit', on va v'nir te pêcher jusque là où t'habite Là-bas J'ai l'impression qu'on est plusieurs comme Kanye West, t'es à l'ouest, j'suis à l'aise Ah-ah On s'connait pas, j'suis froid comme de la glace Ouh, c'est la u-re avec beaucoup de classe J'suis sur un yacht avec trente-trois chaudasses Combien ?, chemise en soie, comme ça, elle m'trouve beau gosse Donc elle bouge comme ça Comme ça, j'te mets un coup, j'me casse comme ça J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy, Jackson Five J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy Enfant du block Gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P, baw</t>
+          <t>Enfant du block est devenu un big boss et même ma bitch, c'est une putain d'gangsta Bah Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Bah, oh Pou-pou-pouh Eh, yo, eh, yo, Papito Charme Han-han-han-han-han Pa-pa-pa-pah, c'est fort Jojo Ah, C.O.C.O Ouh J'reste gang mais toujours aussi fashion, dans un Lambo' sur la croisette, on peut pas s'fâcher Nan Ils sont bons qu'a rayer l'parechoc, pendant qu'je ramène billet en banque dans sachet J'me sens comme Jay-Z quand j'écoute Bonny and Clyde, Clyde Et nos vies, c'est pas la PlayStation Nan, devant la station, gros, fait partir en taille-dé, taille-dé Ah-ah Tout Tout pour le Trap House, tout, tout pour la calle, calle Touah Ta vie, c'est d'la merde, t'es bloqué dans l'plis, ta meuf, elle s'ennuie, elle passe son temps à bailler Ah Singapour, Saint-Tropez, Las Vegas, Dubaï, petit Dom Pé', sous chicas, du bateau j'dis Bye, bye Ouh J'suis tellement chaud dans ma vie, j'sais même plus ça fait quoi d'être sous un degré 'gré C'est toujours moi la putain d'Ligue 1, j'regarde les autres, j'vois aucuns progrès Ouais, gang, ah-ah-ah et c'est tout, tout, tout à fait normal Tout On a mis la barre très haute Haute, j'sais qu'ils sont tous, tous dans l'mal Ligue 1, Papito charme, on ramène la drogue, le cash et les armes Enfant du block Gang, gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P Hey, j'suis dans un strip club à Miami Ouh, j'jette des billets sur ses fesses comme Lil Baby Jackson Elle est guedine, elle m'dit Baby Baby, est-ce que tu peux m'aimer toute la vie ? Non Tu vois pas que ma vie, c'est un film X X, Bumpy Johnson, Malcolm X Ouais D'vant le mic', j'ai la rage d'un pit', on va v'nir te pêcher jusque là où t'habite Là-bas J'ai l'impression qu'on est plusieurs comme Kanye West, t'es à l'ouest, j'suis à l'aise Ah-ah On s'connait pas, j'suis froid comme de la glace Ouh, c'est la u-re avec beaucoup de classe J'suis sur un yacht avec trente-trois chaudasses Combien ?, chemise en soie, comme ça, elle m'trouve beau gosse Donc elle bouge comme ça Comme ça, j'te mets un coup, j'me casse comme ça J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy, Jackson Five J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy Enfant du block Gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P, baw</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Noxious Noxious Hun, hun, hun , corps pur, cocaine Flingue, Lyca, minimum three baba Appelle plus tard j'suis overbooké Derrière maillot y'a Jojo floqué J'roule en FeFe, j'suis pas un momar Coco Encore, encore my G, G Fais rentrer l'oseille même quand je dors J'fais mouiller la vendeuse de chez Dior J'fais la diff c'est fort Manger nos couilles, tout c'qu'ils méritent Yeah, nous c'est la Ligue 1 Uber Eats Ligue 1 Yeah, j'pars au charbon prends ma paie ça flingue Y'a les ienclis à la pell wouh hun hun, hun hun, hun hun J'arrive en chef à la fêt, liasse de cinq cents sous la s'melle, 450e la paire Fais du sale, j'fais du sale, chez nous c'est pas l'même Minimum syndical, on te nique ta mère Tu nous freines, que tu rages c'est le même Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue yema, yema, yema, yema Popo, popo yeah, yeah, yeah, yeah Popo, popo flingue gra, gra, gra, gra You might also like L'atmosphère est sanglante, ambiance comme Douk Saga popo Balance ton père, j'balance ma paire d'Balenciaga J'viens des bidonvilles personne pour nous guider C'est la vida loca, j'suis avec Guy2 La teille est vidée, j'la casse sur l'videur Point rouge sur ton front, le game dans le viseur Ma caisse est débridée, ma sacoche est blindée Pour le choix d'mes tenues j'me suis jamais trompé Bouteille de Dom P', j'fais que d'recompter, j'fais pas d'pompes Même la popo, peut rien faire j'ai ma compo popo Vire ta gueule, on sip ton flash de popo Sam's et Coco Jojo Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort, okay Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue Popo, popo woh, woh Popo, popo flingue</t>
+          <t>Noxious Noxious Hun, hun, hun , corps pur, cocaine Flingue, Lyca, minimum three baba Appelle plus tard j'suis overbooké Derrière maillot y'a Jojo floqué J'roule en FeFe, j'suis pas un momar Coco Encore, encore my G, G Fais rentrer l'oseille même quand je dors J'fais mouiller la vendeuse de chez Dior J'fais la diff c'est fort Manger nos couilles, tout c'qu'ils méritent Yeah, nous c'est la Ligue 1 Uber Eats Ligue 1 Yeah, j'pars au charbon prends ma paie ça flingue Y'a les ienclis à la pell wouh hun hun, hun hun, hun hun J'arrive en chef à la fêt, liasse de cinq cents sous la s'melle, 450e la paire Fais du sale, j'fais du sale, chez nous c'est pas l'même Minimum syndical, on te nique ta mère Tu nous freines, que tu rages c'est le même Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue yema, yema, yema, yema Popo, popo yeah, yeah, yeah, yeah Popo, popo flingue gra, gra, gra, gra L'atmosphère est sanglante, ambiance comme Douk Saga popo Balance ton père, j'balance ma paire d'Balenciaga J'viens des bidonvilles personne pour nous guider C'est la vida loca, j'suis avec Guy2 La teille est vidée, j'la casse sur l'videur Point rouge sur ton front, le game dans le viseur Ma caisse est débridée, ma sacoche est blindée Pour le choix d'mes tenues j'me suis jamais trompé Bouteille de Dom P', j'fais que d'recompter, j'fais pas d'pompes Même la popo, peut rien faire j'ai ma compo popo Vire ta gueule, on sip ton flash de popo Sam's et Coco Jojo Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort, okay Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue Popo, popo woh, woh Popo, popo flingue</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo Blue Magic Corp que je représente que je représente, my neg' voit les choses comme moi, tous les plans nous tentent tous les plans nous tentent, dégage si t'es pas contente si t'es pas contente J'm'attache pas aux biatchs, ça peut pas matcher matcher, matcher, matcher, et j'vois qu'un voyou prêt à mitrailler quand j'regarde le miroir paw Des flingues, des bastos, ds fringues de partout, des liasss dans le tiroir liasses dans le tiroir Après G.AV, j'remets lacets d'mes Pradas ftt, ftt, ftt, ftt, tu le sais hiver, automne, été, printemps, j'fais du plata A.W.A Avant tu faisais des manies, maintenant tu cours, ok, maintenant tu sais qu'on joue pas dans la même cour, ok J'suis dans ma suite, elle veut qu'j'lui mette, tu mérites même pas d'bouffer mes couilles Coco Jojo ahahaha Jojo s'habille en Prada c'est fabuleux, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada J'utilise 50 en guise de bavoir en guise de bavoir, jamais d'la vie tu t'inventes d'avoir, on sait qu't'as rien mon frère Essaie pas d'tout savoir, pour nous fréquenter faut du savoir, sur le trône du king que je m'assois, j'suis tellement haut, on peut pas s'voir On m'appelle pour faire une belle fête, j'ai liasse de pépettes j'ai liasse de pépettes, on m'appelle pour fermer des becs, shooter les gros pecs paw, aha J'ai la classe hein, même ma biatch, roule en classe A classe A, classe A, classe A, j'ai ma place hein, je ne crains rien, j'suis comme Ragnar j'suis déclassé Allez casse-toi, elle est passée partout, j'la casse pas casse pas, on t'cause pas, t'es pas comme nous tous donc parle pas parle pas, parle pas, parle pas You might also like Jojo s'habille en Prada s'habille en Prada, mh mh, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada</t>
+          <t>Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo Blue Magic Corp que je représente que je représente, my neg' voit les choses comme moi, tous les plans nous tentent tous les plans nous tentent, dégage si t'es pas contente si t'es pas contente J'm'attache pas aux biatchs, ça peut pas matcher matcher, matcher, matcher, et j'vois qu'un voyou prêt à mitrailler quand j'regarde le miroir paw Des flingues, des bastos, ds fringues de partout, des liasss dans le tiroir liasses dans le tiroir Après G.AV, j'remets lacets d'mes Pradas ftt, ftt, ftt, ftt, tu le sais hiver, automne, été, printemps, j'fais du plata A.W.A Avant tu faisais des manies, maintenant tu cours, ok, maintenant tu sais qu'on joue pas dans la même cour, ok J'suis dans ma suite, elle veut qu'j'lui mette, tu mérites même pas d'bouffer mes couilles Coco Jojo ahahaha Jojo s'habille en Prada c'est fabuleux, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada J'utilise 50 en guise de bavoir en guise de bavoir, jamais d'la vie tu t'inventes d'avoir, on sait qu't'as rien mon frère Essaie pas d'tout savoir, pour nous fréquenter faut du savoir, sur le trône du king que je m'assois, j'suis tellement haut, on peut pas s'voir On m'appelle pour faire une belle fête, j'ai liasse de pépettes j'ai liasse de pépettes, on m'appelle pour fermer des becs, shooter les gros pecs paw, aha J'ai la classe hein, même ma biatch, roule en classe A classe A, classe A, classe A, j'ai ma place hein, je ne crains rien, j'suis comme Ragnar j'suis déclassé Allez casse-toi, elle est passée partout, j'la casse pas casse pas, on t'cause pas, t'es pas comme nous tous donc parle pas parle pas, parle pas, parle pas Jojo s'habille en Prada s'habille en Prada, mh mh, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>C'est Coco Jojo, c'est fort Faut l'faire en force, faut l'faire en force gros Depitcho R9 Faut l'faire en force, faut l'faire en force gros Jojo Faut qu'ça déborde gros, my G, j'défonce la porte gros Peu importe tant qu'j'suis au top gros J'récupère virement PayPal, dans la street j'ai mon pare-balle Donc les tiens finissent par-terre, faut qu'les tiens finissent par s'taire To my niggas et Barksdale, ouais Ils veulent manger mon pain, croquer, s'incruster dans tous mes plans Ils vulent manger mon pain, croquer, s'incrustr dans tous mes plans Ouais ça, ouais ça, ouais ça flingue Nous c'est Blue Magic, depuis toujours, frais j'reste authentique C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Le Coco Jojo You might also like Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Ouais, si tu veux qu'on compatisse, qu'on compatisse T'attends, y a du monde qu'est sur la liste Zone à risque, zone à risque, le temps s'écoule j'peux pas tout faire en même temps, donc on fait le travail à plein temps C'est logique que j'ai besoin d'tout maintenant C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout faut l'faire en force, faut l'faire en force gros C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ boss On a fait l'tour en viano, prince de Paris depuis l'bercail boss C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros C'est la Ligue 1, Ligue 1, Ligue 1, Ligue 1 Han, Ligue 1, Ligue 1, Ligue 1, Ligue 1 Slide, slide, wow wow wow wow Coco Jojo, Coco Jojo, Coco Jojo</t>
+          <t>C'est Coco Jojo, c'est fort Faut l'faire en force, faut l'faire en force gros Depitcho R9 Faut l'faire en force, faut l'faire en force gros Jojo Faut qu'ça déborde gros, my G, j'défonce la porte gros Peu importe tant qu'j'suis au top gros J'récupère virement PayPal, dans la street j'ai mon pare-balle Donc les tiens finissent par-terre, faut qu'les tiens finissent par s'taire To my niggas et Barksdale, ouais Ils veulent manger mon pain, croquer, s'incruster dans tous mes plans Ils vulent manger mon pain, croquer, s'incrustr dans tous mes plans Ouais ça, ouais ça, ouais ça flingue Nous c'est Blue Magic, depuis toujours, frais j'reste authentique C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Le Coco Jojo Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Ouais, si tu veux qu'on compatisse, qu'on compatisse T'attends, y a du monde qu'est sur la liste Zone à risque, zone à risque, le temps s'écoule j'peux pas tout faire en même temps, donc on fait le travail à plein temps C'est logique que j'ai besoin d'tout maintenant C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout faut l'faire en force, faut l'faire en force gros C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ boss On a fait l'tour en viano, prince de Paris depuis l'bercail boss C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros C'est la Ligue 1, Ligue 1, Ligue 1, Ligue 1 Han, Ligue 1, Ligue 1, Ligue 1, Ligue 1 Slide, slide, wow wow wow wow Coco Jojo, Coco Jojo, Coco Jojo</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Hey Jo', Jo', Jo', Jo', ouais Han-han, han-han, han-han Le Coco Jojo Jo', Jo', Jo', Jo' C'est fort, c'est fort La muerte Han-han, baw Ça va commencer ici Moi, c'est Papito ou Depitcho Ouais, ah-ah Baw, baw C.O.C.O Jojo C.O.C.O, Ronaldo, ouais Paw, paw C'est la Pépite, c'est normal Van Bommel Les ennemis dorment Oh oui, le gilets, double bang Yo Ignore-la, la nuit Mais t'es con, wallaye, ouh, la la T'inquiète, ma copine, j'ai le permis, sais-tu le kilo que j'ai dû porter ? Tout va bien, la bonbonne est rechargée, tout va bien, le shooter est pétardé J'ai tout bien fait, qui les a rncardés ? Dis-le moi, j'arrive sans plus tarder La go d chez moi, elle est bazardé et moi, j'ai envie de jouer Joint d'olive dès que j'me réveille J'me réveille, tout est levé le matin au réveil Matin au réveil Caroline, toi, quand tu chenef Toi, quand tu chenef Tu t'arrêtes pas, j'ai servi toute la veille Servi toute la veille J'étais dans le bend' du lundi au lundi, ils disent que c'était foutu pour nous Envoi les clés du Audi, j'suis dedans, j'rigole, j'prie pour lui Prends du fric, on prends du ferme, c'est les risques, tant pis pour nous J'suis comme Guy, moi, j'sors le Beretta si j'me sens couillé You might also like Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Papito charmant, ramène la drogue, le cash et les armes Drugs, ça débite Villa tout en marbre, ramène tous tes chicas, y a pas de lézard Demande à La Pépite J'suis tellement en bolide, ça fait longtemps, j'ai plus traversé Sur un coup d'folie, j'peux vider tout l'rayon, j'suis wersé Juste avant d'm'enfuir dans l'New Jersey, c'est Cîroc pêche dans le GLB J'ai tout pour te faire plaisir, mon bébé Birkin ou Kelly Han ouais Choisis, c'est pour moi, cadeau, tout à mes frais, eh Eux, c'est des moches, c'est pas mes frères Quand je me mire, j'me dis C'est qui ce mignon ? Tout beau, rempli de bitchs et pognon A-t-il vraiment tout fait sans filon ? Je sais pas, je sais pas, je sais pas, ah-ah Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Laisse un peu, OCB, roule dans les deux sens du terme, chaud les gars C'est fort Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh</t>
+          <t>Hey Jo', Jo', Jo', Jo', ouais Han-han, han-han, han-han Le Coco Jojo Jo', Jo', Jo', Jo' C'est fort, c'est fort La muerte Han-han, baw Ça va commencer ici Moi, c'est Papito ou Depitcho Ouais, ah-ah Baw, baw C.O.C.O Jojo C.O.C.O, Ronaldo, ouais Paw, paw C'est la Pépite, c'est normal Van Bommel Les ennemis dorment Oh oui, le gilets, double bang Yo Ignore-la, la nuit Mais t'es con, wallaye, ouh, la la T'inquiète, ma copine, j'ai le permis, sais-tu le kilo que j'ai dû porter ? Tout va bien, la bonbonne est rechargée, tout va bien, le shooter est pétardé J'ai tout bien fait, qui les a rncardés ? Dis-le moi, j'arrive sans plus tarder La go d chez moi, elle est bazardé et moi, j'ai envie de jouer Joint d'olive dès que j'me réveille J'me réveille, tout est levé le matin au réveil Matin au réveil Caroline, toi, quand tu chenef Toi, quand tu chenef Tu t'arrêtes pas, j'ai servi toute la veille Servi toute la veille J'étais dans le bend' du lundi au lundi, ils disent que c'était foutu pour nous Envoi les clés du Audi, j'suis dedans, j'rigole, j'prie pour lui Prends du fric, on prends du ferme, c'est les risques, tant pis pour nous J'suis comme Guy, moi, j'sors le Beretta si j'me sens couillé Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Papito charmant, ramène la drogue, le cash et les armes Drugs, ça débite Villa tout en marbre, ramène tous tes chicas, y a pas de lézard Demande à La Pépite J'suis tellement en bolide, ça fait longtemps, j'ai plus traversé Sur un coup d'folie, j'peux vider tout l'rayon, j'suis wersé Juste avant d'm'enfuir dans l'New Jersey, c'est Cîroc pêche dans le GLB J'ai tout pour te faire plaisir, mon bébé Birkin ou Kelly Han ouais Choisis, c'est pour moi, cadeau, tout à mes frais, eh Eux, c'est des moches, c'est pas mes frères Quand je me mire, j'me dis C'est qui ce mignon ? Tout beau, rempli de bitchs et pognon A-t-il vraiment tout fait sans filon ? Je sais pas, je sais pas, je sais pas, ah-ah Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Laisse un peu, OCB, roule dans les deux sens du terme, chaud les gars C'est fort Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la You might also like</t>
+          <t>J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks, jai venu tout prendre sans tour de magie Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks Eh eh Jsuis dans le seven comme à la maison Police on t'encule même si tes pas content You might also like</t>
+          <t>Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks, jai venu tout prendre sans tour de magie Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks Eh eh Jsuis dans le seven comme à la maison Police on t'encule même si tes pas content</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>C'est fort ouh, ouh, Blue Magic J'prépare un album de bâtard, j'veux bien faire écouter okay Mais j'ai plus d'batterie donc j'allume le FeFe quoi ? J'ai juste à m'brancher, t'inquiète, ça va vite T'inquiète, ça va vite, t'inquiète, ça va vite, t'inquiète, ça va vite Jeune et mignon, Coco, G2, ça fait bientôt neuf ans qu'on attend P2 maintenant, il faut tirer Le réconfort c'est bien, quand tu le mérites c'est mieux, jusqu'ici tout va bien, donc on remercie Dieu c'est fort Demain, j'y serais, big up Fresh et P2, mes premiers freestyles en Clio 2 ouh, ouh Oh mama cita, aucun blase j'ai cité, aucune honte à avoir, j'suis passé par Ligue 2 paw, paw, paw Tue ça, tue ça, tu sais depuis l'époque, c'est l'sang métissé, ma vie, c'est pas flocko ah, ah, Rich Porter Faites attention, ça va très, très vite, hein, on pourra vous recroiser, en montant, pendant votre descente à vous Donc je reste clean et persistant, très autonomes sans assistants ça flingue Chaque arrêt d'jeu, faut qu'j'mette un ciseau, j'vais tout droit comme sanglier, c'est fort, c'est puissant paw Et puis, j'fais du jet-ski, pendant qu'dans ton parking, tu t'demandes, combien j'fais rentrer ah, ah Cherche pas à savoir, tu vas tellement compter, t'oublieras d'te marier, ah, ah On est supposés faire couler G2 parce qu'il a fait ci, parce qu'il a fait ça On est supposés faire couler 2B, je sens, je sais tous ceux qui m'maudissent qui m'envient Fais passer l'message paw, j'fais du gent-ar, t'as peur, j'ai la plus bonne des saucisses Paris, c'est chez moi, Bezbar, c'est chez moi, dans cités d'mes frérots, j'suis très bien accueilli niquel, Rich Porter, ça va commencer ici Oublie pas, la calle supporte que la calle, oublie pas, la calle supporte que la famille Oublie pas, la calle, c'est fait que pour mailler ah, ah, avoir des valeurs et beaucoup d'principes hein, hein, hein, hein Dis-leurs, ZK, faudra s'y faire hein, hein, hein, hein, Jo', Jo', Jo' Big up mes potos du 9.3 9.4, 9.2 9.1, 9.5 7.7, 7.8, 5.9, 6.9, 1.3 paw Mes flingueurs paw, mes flingueuses, Lausanne, Genève, BX ouh, ouh Jo', Jo', Jo', c'est fort mmh, mmh, mmh, han, han You might also like Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh - Fais pas des conneries, man, celui qui m'ont pas regardé de travers... Le Coco Jojo qui me doit du fric. Le premier gars jaloux qui fait sa loi de pute avec moi, je lui plombe sa race. T'entends Ace ? Sur la vie d'ma mère, j'te jure, que je lui plombe sa race à c'bâtard. J'en ai rien à foutre de c'qui s'passera après.</t>
+          <t>C'est fort ouh, ouh, Blue Magic J'prépare un album de bâtard, j'veux bien faire écouter okay Mais j'ai plus d'batterie donc j'allume le FeFe quoi ? J'ai juste à m'brancher, t'inquiète, ça va vite T'inquiète, ça va vite, t'inquiète, ça va vite, t'inquiète, ça va vite Jeune et mignon, Coco, G2, ça fait bientôt neuf ans qu'on attend P2 maintenant, il faut tirer Le réconfort c'est bien, quand tu le mérites c'est mieux, jusqu'ici tout va bien, donc on remercie Dieu c'est fort Demain, j'y serais, big up Fresh et P2, mes premiers freestyles en Clio 2 ouh, ouh Oh mama cita, aucun blase j'ai cité, aucune honte à avoir, j'suis passé par Ligue 2 paw, paw, paw Tue ça, tue ça, tu sais depuis l'époque, c'est l'sang métissé, ma vie, c'est pas flocko ah, ah, Rich Porter Faites attention, ça va très, très vite, hein, on pourra vous recroiser, en montant, pendant votre descente à vous Donc je reste clean et persistant, très autonomes sans assistants ça flingue Chaque arrêt d'jeu, faut qu'j'mette un ciseau, j'vais tout droit comme sanglier, c'est fort, c'est puissant paw Et puis, j'fais du jet-ski, pendant qu'dans ton parking, tu t'demandes, combien j'fais rentrer ah, ah Cherche pas à savoir, tu vas tellement compter, t'oublieras d'te marier, ah, ah On est supposés faire couler G2 parce qu'il a fait ci, parce qu'il a fait ça On est supposés faire couler 2B, je sens, je sais tous ceux qui m'maudissent qui m'envient Fais passer l'message paw, j'fais du gent-ar, t'as peur, j'ai la plus bonne des saucisses Paris, c'est chez moi, Bezbar, c'est chez moi, dans cités d'mes frérots, j'suis très bien accueilli niquel, Rich Porter, ça va commencer ici Oublie pas, la calle supporte que la calle, oublie pas, la calle supporte que la famille Oublie pas, la calle, c'est fait que pour mailler ah, ah, avoir des valeurs et beaucoup d'principes hein, hein, hein, hein Dis-leurs, ZK, faudra s'y faire hein, hein, hein, hein, Jo', Jo', Jo' Big up mes potos du 9.3 9.4, 9.2 9.1, 9.5 7.7, 7.8, 5.9, 6.9, 1.3 paw Mes flingueurs paw, mes flingueuses, Lausanne, Genève, BX ouh, ouh Jo', Jo', Jo', c'est fort mmh, mmh, mmh, han, han Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh - Fais pas des conneries, man, celui qui m'ont pas regardé de travers... Le Coco Jojo qui me doit du fric. Le premier gars jaloux qui fait sa loi de pute avec moi, je lui plombe sa race. T'entends Ace ? Sur la vie d'ma mère, j'te jure, que je lui plombe sa race à c'bâtard. J'en ai rien à foutre de c'qui s'passera après.</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Tu vois l'délire ou pas ? Anakin, t'as vu ? Okay C'est des tes-traî, j'me méfie d'ces bâtards, han, paquet d'oseille comme au Qatar, han Ma caisse est devant elle et mon carré, prépare l'équipe, on va pas tarder J'arrive, c'est mon flow qui éclabousse, han, t'es pas frais, normal qu'elle te repousse, han Ils sont bons qu'à kouma, qu'à bavarder, pendant qu'dans la street, on est au haut-gradé Elle est sauvage, t'as cru qu'elle était douce, han, j't'ai niqué, t'as cru qu'on était douze, han Papito charme, le leader des leaders, j'ai le plus chant-mé des dégradés C'est la ola, j'arrive sur la pelouse, han, il paraît qu'vers chez toi, c'est la lose, han On a tellement fait partir la coca' à toute heure qu'on pourrait finir sans doute extradés Okay, okay, okay, eh J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh You might also like Tu voulais t'sauver mais c'est trop tard, j'éclate ta mâchoire sur le trottoir, han Ouh Celui qui veut m'abattre, il est même pas né Han, j'les attends toujours, fume un joint d'amné' Han Tant de res-frè qui sont condamnés, nous, c'est l'agent qui nous contamine Ouh On vend la frappe à Sadio Mané, mets-toi sur le té-c', on va tout t'amener Okay J'ai, j'ai Okay, j'ai Okay même pas l'temps pour tes conneries là Eh Oh, ta ganache est trop cramée comme contrôle sous billets cellophanés Ouh Billets cellophanés jusqu'au plafond, j'espère que t'as capté Au cas où je finirai condamné, ma famille a tout, pas b'soin d'dépanner Okay, okay, okay J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh</t>
+          <t>Tu vois l'délire ou pas ? Anakin, t'as vu ? Okay C'est des tes-traî, j'me méfie d'ces bâtards, han, paquet d'oseille comme au Qatar, han Ma caisse est devant elle et mon carré, prépare l'équipe, on va pas tarder J'arrive, c'est mon flow qui éclabousse, han, t'es pas frais, normal qu'elle te repousse, han Ils sont bons qu'à kouma, qu'à bavarder, pendant qu'dans la street, on est au haut-gradé Elle est sauvage, t'as cru qu'elle était douce, han, j't'ai niqué, t'as cru qu'on était douze, han Papito charme, le leader des leaders, j'ai le plus chant-mé des dégradés C'est la ola, j'arrive sur la pelouse, han, il paraît qu'vers chez toi, c'est la lose, han On a tellement fait partir la coca' à toute heure qu'on pourrait finir sans doute extradés Okay, okay, okay, eh J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh Tu voulais t'sauver mais c'est trop tard, j'éclate ta mâchoire sur le trottoir, han Ouh Celui qui veut m'abattre, il est même pas né Han, j'les attends toujours, fume un joint d'amné' Han Tant de res-frè qui sont condamnés, nous, c'est l'agent qui nous contamine Ouh On vend la frappe à Sadio Mané, mets-toi sur le té-c', on va tout t'amener Okay J'ai, j'ai Okay, j'ai Okay même pas l'temps pour tes conneries là Eh Oh, ta ganache est trop cramée comme contrôle sous billets cellophanés Ouh Billets cellophanés jusqu'au plafond, j'espère que t'as capté Au cas où je finirai condamné, ma famille a tout, pas b'soin d'dépanner Okay, okay, okay J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C'est fort Le coco Jojo C'est fort G maille Hein hein G maille Paw paw paw Hein hein Hein hein Hein hein Oh Jojo Hein hein Hein hein Hein hein Quand c'est les keufs ça flingue flingue tshoua Flingue flingue flingue flingue flingue Rolex présidentielle sur le bras gauche, avant de déguster mon gigot j'remercie le ciel C'est mon gigot, ouais c'est mon gigot Playboy coco Jojo toutes les madames sont agitées Kichta balèse Tshoua, Prada Milano, tshoua tshoua Carpaccio resto, Hennessy Viano You might also like A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort Y luego bailamos bien Acércate bailamos bien Me gusta como bailamos bien Me gusta me gusta me gusta yeah yeah Heeee hooo, ma chérie coco veut rencontrer mes conquêtes Heeee hooo, mais c'est pas possible déjà que j'suis un peu pompette A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Yeah, Coco Jojo na yoki yo This is Serge Ibaka aka Mafuzzy Man 100 pure from the motherland Mr. Avec Classe I do Art Keba keba keba Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort</t>
+          <t>C'est fort Le coco Jojo C'est fort G maille Hein hein G maille Paw paw paw Hein hein Hein hein Hein hein Oh Jojo Hein hein Hein hein Hein hein Quand c'est les keufs ça flingue flingue tshoua Flingue flingue flingue flingue flingue Rolex présidentielle sur le bras gauche, avant de déguster mon gigot j'remercie le ciel C'est mon gigot, ouais c'est mon gigot Playboy coco Jojo toutes les madames sont agitées Kichta balèse Tshoua, Prada Milano, tshoua tshoua Carpaccio resto, Hennessy Viano A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort Y luego bailamos bien Acércate bailamos bien Me gusta como bailamos bien Me gusta me gusta me gusta yeah yeah Heeee hooo, ma chérie coco veut rencontrer mes conquêtes Heeee hooo, mais c'est pas possible déjà que j'suis un peu pompette A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Yeah, Coco Jojo na yoki yo This is Serge Ibaka aka Mafuzzy Man 100 pure from the motherland Mr. Avec Classe I do Art Keba keba keba Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oh My God Rouge et bleu, que j'change, je mets violet, Lakers ah, ah, ah Mes négros sont des shooters wouh Trap, trap, hum, hum, trap, hum Trap, trap, hum, hum, hum, hum Flingue Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shootrs Pendant qu'j'recompte mon osille, j'écoute ma playlist de O.G J'oublie pas qu'tu sors en condi' vrais, poto sors balèze comme Popey Et mes négros fument la O.G kush, à bord du Audi N'écoute pas tout c'qui t'on dit, sur la table, que j'pose les condi' J'habite à Paris, tout l'monde est pressée, faut du cardio faut du cardio Minimum trois balles, y a des kilos si tu cherche quelque chose viens nous voir Mais je grandis fort, pas d'ceux qu'tu verras mendier hum, hum Sous calibre, tout c'que j'répandis, réveiller comme tout les mardi O.G, c'est nous l'quartier You might also like Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters J'ai pas trop d'amigos poto, ma biatch me donne la migraine Pour le coup, j'ai plusieurs bigo tél', pour le coucou, c'est moi qui règne, c'est toi qui gène fort Thug, quoi qui fasse, faut rester thug gang Nous, les vacances, c'est Las Vegas ouais, là-bas, c'est pas tout l'monde qu'on croise ah, ah, ah, y a qu'des plugs J'utilise brosse à dents pour nettoyer mes Force 1 Nike Quand tu rêves, au moins, pense comme nous, vises number one De la à wana, route 66, dans la boîte à gants, toujours ma bricks toujours du fric Toujours un Glock pour flocko qui s'prends pour oi-m Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters La Coco Jojo, ah, ah</t>
+          <t>Oh My God Rouge et bleu, que j'change, je mets violet, Lakers ah, ah, ah Mes négros sont des shooters wouh Trap, trap, hum, hum, trap, hum Trap, trap, hum, hum, hum, hum Flingue Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shootrs Pendant qu'j'recompte mon osille, j'écoute ma playlist de O.G J'oublie pas qu'tu sors en condi' vrais, poto sors balèze comme Popey Et mes négros fument la O.G kush, à bord du Audi N'écoute pas tout c'qui t'on dit, sur la table, que j'pose les condi' J'habite à Paris, tout l'monde est pressée, faut du cardio faut du cardio Minimum trois balles, y a des kilos si tu cherche quelque chose viens nous voir Mais je grandis fort, pas d'ceux qu'tu verras mendier hum, hum Sous calibre, tout c'que j'répandis, réveiller comme tout les mardi O.G, c'est nous l'quartier Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters J'ai pas trop d'amigos poto, ma biatch me donne la migraine Pour le coup, j'ai plusieurs bigo tél', pour le coucou, c'est moi qui règne, c'est toi qui gène fort Thug, quoi qui fasse, faut rester thug gang Nous, les vacances, c'est Las Vegas ouais, là-bas, c'est pas tout l'monde qu'on croise ah, ah, ah, y a qu'des plugs J'utilise brosse à dents pour nettoyer mes Force 1 Nike Quand tu rêves, au moins, pense comme nous, vises number one De la à wana, route 66, dans la boîte à gants, toujours ma bricks toujours du fric Toujours un Glock pour flocko qui s'prends pour oi-m Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters La Coco Jojo, ah, ah</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FREAKEY FREAKEY J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Il m'reste des souvenirs de l'appart' oh, il m'reste des souvenirs, t'en n'as pas idée Le jeune est de taille, il vendra le gramme et f'ra la transac' sans même baliser On a charbonné pour l'avoir oh, oh, pas charbonné pour la palme Jamais Dans la rue, t'y laisses des plumes ou soit t'y laisses des tales J'sais pas comment t'dire tout mon ressenti T'es une maladie, han, t'es une maladie Sidi J'suis là pour un temps, faudra bien t'y faire Bien t'y faire Demain, c'est trop loin, j'me souviens pas d'hier Souviens pas, Sidi T'sais d'jà comment ça s'passe, renoi T'sais d'jà comment ça s'passe Grandi à la dure et on parle pas, renoi J'connais la BAC avant l'bac, renoi J'suis avec G2 et Sauce God, on prend les tales, connasse You might also like J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Okay, on va faire ça en Didi, on va faire ça en Diddy J'ai le flow de Prodigy, j'passe les vitesses, j'appuie sur les palettes Coco, le H et le big 'pee, c'est de la bonne qu'on bi'-bi' Si t'es comme moi, viens tchin-tchin, si t'es comme moi, viens tchin-tchin Si c'est comme ça, j'préfère qu'on arrête de s'checker d'vant les gens pour faire genre J'ai dû pardonner pour la culture mais, au fond, on sait tous que c'est mort On sait tous que c'est mort Et pendant que j'suis dehors, pendant que je m'endors Rien ne s'arrête pour nous, mon frère, ma monnaie tourne encore Ma monnaie tourne encore, tout dans sac à dos Dior Bracelet Fred, lunettes Cartier, chaîne au cou, tout en or Sièges chauffants, Merco Be-Be-Benz, jeune négro dans l'confort Toute l'année qu'on les bai-bai-baise Coco J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire</t>
+          <t>FREAKEY FREAKEY J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Il m'reste des souvenirs de l'appart' oh, il m'reste des souvenirs, t'en n'as pas idée Le jeune est de taille, il vendra le gramme et f'ra la transac' sans même baliser On a charbonné pour l'avoir oh, oh, pas charbonné pour la palme Jamais Dans la rue, t'y laisses des plumes ou soit t'y laisses des tales J'sais pas comment t'dire tout mon ressenti T'es une maladie, han, t'es une maladie Sidi J'suis là pour un temps, faudra bien t'y faire Bien t'y faire Demain, c'est trop loin, j'me souviens pas d'hier Souviens pas, Sidi T'sais d'jà comment ça s'passe, renoi T'sais d'jà comment ça s'passe Grandi à la dure et on parle pas, renoi J'connais la BAC avant l'bac, renoi J'suis avec G2 et Sauce God, on prend les tales, connasse J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Okay, on va faire ça en Didi, on va faire ça en Diddy J'ai le flow de Prodigy, j'passe les vitesses, j'appuie sur les palettes Coco, le H et le big 'pee, c'est de la bonne qu'on bi'-bi' Si t'es comme moi, viens tchin-tchin, si t'es comme moi, viens tchin-tchin Si c'est comme ça, j'préfère qu'on arrête de s'checker d'vant les gens pour faire genre J'ai dû pardonner pour la culture mais, au fond, on sait tous que c'est mort On sait tous que c'est mort Et pendant que j'suis dehors, pendant que je m'endors Rien ne s'arrête pour nous, mon frère, ma monnaie tourne encore Ma monnaie tourne encore, tout dans sac à dos Dior Bracelet Fred, lunettes Cartier, chaîne au cou, tout en or Sièges chauffants, Merco Be-Be-Benz, jeune négro dans l'confort Toute l'année qu'on les bai-bai-baise Coco J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bellek Track Et sur l'banc, hum, hum Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain Ça aurait fait des coups en douce, ça s'que-bra même en boubou, hum La go est tellement bonne qu'elle m'demande de la mougou Hun, hun, hun, hun, woah Faut pas qu'tu t'inquiètes, même si c'est chez chère, bae, dis-moi c'est combien, hun, hun Tout les prix, j'achète, c'est ça qui t'effraie mais pour nous, c'est rien Grr, rraah Fais-moi un bisou Fais-moi un bisou, coup d'boule à Zizou Allez, coup d'boule à Zizou Fais-moi un bisou Bisou, bisou, coup d'boule à Zizou Coup d'boule à Zizou Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain You might also like C'est que des fils à papa, des fils à papa c'est fort, pah, moi, j'lai sent pas, pah-pah, pah-pah Ça part en chasse, comme Chapo gang ah, ah, on se rends pas nous, c'est la Ligue 1 Beaucoup de cocaïne trouvée dans la combine, hi, hi J'vais cramer, sa mère, donc appelle-moi d'la cabine, hi On peut dire que ça pue la beuh, veulent tirer, veulent tirer sur l'Cactus Jack Toka' Pour me défier, tu faits la queue, me parle pas d'eux, j'envoie d'la frappe Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi wouh J'récup' deux-trois sacs vers Avenue Montaigne c'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain ça flingue, wouh Le fait qu'on flingue, c'est évident brr, woah, c'est fort C'est fabuleux okay, hum, jump dans le Space Mountain Hi, hi Jojo Tout comme le prix qu'ça coûtait c'est Coco Jojo Tout comme le prix qu'ça coûtait c'est fort Je ne sais pas tout et je m'en foutais okay Hum, hum, tout comme le prix qu'ça coûtait, hi wouh, woah</t>
+          <t>Bellek Track Et sur l'banc, hum, hum Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain Ça aurait fait des coups en douce, ça s'que-bra même en boubou, hum La go est tellement bonne qu'elle m'demande de la mougou Hun, hun, hun, hun, woah Faut pas qu'tu t'inquiètes, même si c'est chez chère, bae, dis-moi c'est combien, hun, hun Tout les prix, j'achète, c'est ça qui t'effraie mais pour nous, c'est rien Grr, rraah Fais-moi un bisou Fais-moi un bisou, coup d'boule à Zizou Allez, coup d'boule à Zizou Fais-moi un bisou Bisou, bisou, coup d'boule à Zizou Coup d'boule à Zizou Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain C'est que des fils à papa, des fils à papa c'est fort, pah, moi, j'lai sent pas, pah-pah, pah-pah Ça part en chasse, comme Chapo gang ah, ah, on se rends pas nous, c'est la Ligue 1 Beaucoup de cocaïne trouvée dans la combine, hi, hi J'vais cramer, sa mère, donc appelle-moi d'la cabine, hi On peut dire que ça pue la beuh, veulent tirer, veulent tirer sur l'Cactus Jack Toka' Pour me défier, tu faits la queue, me parle pas d'eux, j'envoie d'la frappe Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi wouh J'récup' deux-trois sacs vers Avenue Montaigne c'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain ça flingue, wouh Le fait qu'on flingue, c'est évident brr, woah, c'est fort C'est fabuleux okay, hum, jump dans le Space Mountain Hi, hi Jojo Tout comme le prix qu'ça coûtait c'est Coco Jojo Tout comme le prix qu'ça coûtait c'est fort Je ne sais pas tout et je m'en foutais okay Hum, hum, tout comme le prix qu'ça coûtait, hi wouh, woah</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mozart, Capitaine Jackson Five Aigle, han Hmh, hmh Ouh, ouh, ouh, ouh, ouh Han C'est Coco Jojo, Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Bofenda Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto C'est Mozart, Capitaine Jackson, elle vut qu'j'l'a monte en l'air comme un compèt', c'st sûr qu'j'finis pompette Dans sa ck-schne, faut que je change d'hôtel Woh Elle a un keum mais trouve que j'ai beaucoup plus de chattes Ah bon ? C'est par derrière qu'on s'échappe avec les magots dans le sac Vas là-bas Bouge ton boule, pour les gangsters, vas-y, fait-moi kiffer Avec Oggy et les Cafards, entasser dans un p'tit appart' Tu veux d'l'amour mais j'cours après l'argent, tu veux d'l'amour mais j'cours après l'argent Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han C'est Coco Jojo, Jojo You might also like Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto Jojo, my love, j'pourrais vraiment, tout perdre à force detrop penser au lovés Guy2Bezbar Quand j'sors de chez Dior, j'pense à tout les moments où j'étais éprouvé J'roule vers Avenue Montaigne C'est fort, j'lui prends deux-trois sacs, pour que l'atmosphère se détende Détende, détende On fait les choses, histoire qu'ils s'en souviennent Mais c'est une trace, ils pourront seulement dire qu'on gue-flin Encore du cash, du cash, encore Me dis l'AK-40 Encore du cash, du cash, du cash, encore Elle veut connaître mes sentiments, elle veut savoir c'que je ressens J'suis gentleman, c'est dans le sang C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy C'est fort Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Sang Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Han, han1</t>
+          <t>Mozart, Capitaine Jackson Five Aigle, han Hmh, hmh Ouh, ouh, ouh, ouh, ouh Han C'est Coco Jojo, Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Bofenda Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto C'est Mozart, Capitaine Jackson, elle vut qu'j'l'a monte en l'air comme un compèt', c'st sûr qu'j'finis pompette Dans sa ck-schne, faut que je change d'hôtel Woh Elle a un keum mais trouve que j'ai beaucoup plus de chattes Ah bon ? C'est par derrière qu'on s'échappe avec les magots dans le sac Vas là-bas Bouge ton boule, pour les gangsters, vas-y, fait-moi kiffer Avec Oggy et les Cafards, entasser dans un p'tit appart' Tu veux d'l'amour mais j'cours après l'argent, tu veux d'l'amour mais j'cours après l'argent Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto Jojo, my love, j'pourrais vraiment, tout perdre à force detrop penser au lovés Guy2Bezbar Quand j'sors de chez Dior, j'pense à tout les moments où j'étais éprouvé J'roule vers Avenue Montaigne C'est fort, j'lui prends deux-trois sacs, pour que l'atmosphère se détende Détende, détende On fait les choses, histoire qu'ils s'en souviennent Mais c'est une trace, ils pourront seulement dire qu'on gue-flin Encore du cash, du cash, encore Me dis l'AK-40 Encore du cash, du cash, du cash, encore Elle veut connaître mes sentiments, elle veut savoir c'que je ressens J'suis gentleman, c'est dans le sang C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy C'est fort Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Sang Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Han, han1</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi J'habite à Paris à Paris à Paris Toujours dans l'bario bario bario Chargé le barillet barillet Tu vas sauter comme Mario Mario Mario On sait que fumé le fff fff Flingue de Miami elle est à baidu Envoie les billets les billets j'ai pas l'time À nous de briller là faut qu'on soit partout On fait la money de Shaquille O'Neal Dans la bleuta que des shakira On fait que signer le contrat à 100 kil C'st fort et puissant comme Shakiri Tu vas pas t'en rmettre sale imbécile Torse-nu armé comme tipeu au Brésil Que l'benef sous les cocotiers Tequila tequila Maurice Philippe restaurant 5 étoiles Hôtel bitches Louis Vuitton Ferrari Patek Philippe Visé le mili le mili le mili c'est tout J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi là J'habite à Paris à Paris à ParisYou might also like</t>
+          <t>J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi J'habite à Paris à Paris à Paris Toujours dans l'bario bario bario Chargé le barillet barillet Tu vas sauter comme Mario Mario Mario On sait que fumé le fff fff Flingue de Miami elle est à baidu Envoie les billets les billets j'ai pas l'time À nous de briller là faut qu'on soit partout On fait la money de Shaquille O'Neal Dans la bleuta que des shakira On fait que signer le contrat à 100 kil C'st fort et puissant comme Shakiri Tu vas pas t'en rmettre sale imbécile Torse-nu armé comme tipeu au Brésil Que l'benef sous les cocotiers Tequila tequila Maurice Philippe restaurant 5 étoiles Hôtel bitches Louis Vuitton Ferrari Patek Philippe Visé le mili le mili le mili c'est tout J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi là J'habite à Paris à Paris à Paris</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MCL Tu ressens la force ou pas ? Junior Alaprod, zanmi Ouais, t'as senti la patate, coño ? Ça va commencer ici Anakin Quand j'mélange mon tchapalo, tchapalo, j'suis dans un monde parallèle Quand j'mélange mon tchapalo J'te sors le parabellum devant ton bloc pour t'enlever la life To-to-toh L'instru fait catchou-catchou, j'peux te catch-up pour une kichta Liasse de billets Ton booty-shake, booty-shake, shake, shake, shake pour moi, okay J'la prends en levrette sur du Shatta, j'suis ganté quand j'm'introduis chez toi Han Winterfell Mafia, j'attends les eu' couleurs t-shi quand j'déchire mon couplet Hey Pas bsoin que tu m'dises que tu m'aimes beaucoup Pas besoin, pas besoin, pas besoin, pas besoin Pour que j'sache que t'es un vrai, pas un fake nigga Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous You might also like Eh, faut cracher du feu, fais pas l'che-ri, t'achètes que du faux Du fake Elle s'demande c'que je fais à la tess en train d'compter mon fric Bien soigné Freezer est en colère, ils envoient des 'teilles, endettés ces enculés Gros, c'est réel Leurs carrières au goulag, ils veulent test, le bateau pirate va pas couler Ouais, ouais Dans leurs personnages, à la tess, entrain d'rouler un personnel Ouh Mets l'son, t'es en train d'saigner, t'as une bite dans la bouche, t'es entrain d'signer Ouais, gros, c'est réel J'ai des billets violets, tu reçois carrés violets sur Snapchat Bébé, on va passer la douane, cale moi un ze-dou dans ta grosse chatte Ah-ah-ah-ah-ah Gros la tess, c'est nous, appelle-moi pour du cash, pour un chrome, c'est mort Ouais, ouais, ouais Le président tape dans la blanche, histoire de fou ici-bas, gros, tout est noir Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Un pack M, paquet d'papel Han-han, ça ramène la violence Yah J't'ai dit, Écoute, j'arrive Pépère, on dirait On dirait Mitch Dans Paid In De Paname à dives-Mal, tu sais très bien qu'elle m'appellera quoi qu'il, tous les jours pour tchouku tchouku Elle m'appelle toute Papito charm, dans les poches j'ai beaucoup, beaucoup Recule d'un pas pour mieux quitter, ces bâtards ta life elle est nulle a chier Pour la rre-gue, j'ai la même armée qu'Ragnar On va t'viser les jambes, tu vas plus marcher Tu connais, toujours dans tout c'qui rapporte Eux c'est pas vrai, ces flockos, ça crapote Eux c'est pas vrai, ces flockos, ça crapote Faut les laisser, gros, c'est que d'la papote Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous</t>
+          <t>MCL Tu ressens la force ou pas ? Junior Alaprod, zanmi Ouais, t'as senti la patate, coño ? Ça va commencer ici Anakin Quand j'mélange mon tchapalo, tchapalo, j'suis dans un monde parallèle Quand j'mélange mon tchapalo J'te sors le parabellum devant ton bloc pour t'enlever la life To-to-toh L'instru fait catchou-catchou, j'peux te catch-up pour une kichta Liasse de billets Ton booty-shake, booty-shake, shake, shake, shake pour moi, okay J'la prends en levrette sur du Shatta, j'suis ganté quand j'm'introduis chez toi Han Winterfell Mafia, j'attends les eu' couleurs t-shi quand j'déchire mon couplet Hey Pas bsoin que tu m'dises que tu m'aimes beaucoup Pas besoin, pas besoin, pas besoin, pas besoin Pour que j'sache que t'es un vrai, pas un fake nigga Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Eh, faut cracher du feu, fais pas l'che-ri, t'achètes que du faux Du fake Elle s'demande c'que je fais à la tess en train d'compter mon fric Bien soigné Freezer est en colère, ils envoient des 'teilles, endettés ces enculés Gros, c'est réel Leurs carrières au goulag, ils veulent test, le bateau pirate va pas couler Ouais, ouais Dans leurs personnages, à la tess, entrain d'rouler un personnel Ouh Mets l'son, t'es en train d'saigner, t'as une bite dans la bouche, t'es entrain d'signer Ouais, gros, c'est réel J'ai des billets violets, tu reçois carrés violets sur Snapchat Bébé, on va passer la douane, cale moi un ze-dou dans ta grosse chatte Ah-ah-ah-ah-ah Gros la tess, c'est nous, appelle-moi pour du cash, pour un chrome, c'est mort Ouais, ouais, ouais Le président tape dans la blanche, histoire de fou ici-bas, gros, tout est noir Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Un pack M, paquet d'papel Han-han, ça ramène la violence Yah J't'ai dit, Écoute, j'arrive Pépère, on dirait On dirait Mitch Dans Paid In De Paname à dives-Mal, tu sais très bien qu'elle m'appellera quoi qu'il, tous les jours pour tchouku tchouku Elle m'appelle toute Papito charm, dans les poches j'ai beaucoup, beaucoup Recule d'un pas pour mieux quitter, ces bâtards ta life elle est nulle a chier Pour la rre-gue, j'ai la même armée qu'Ragnar On va t'viser les jambes, tu vas plus marcher Tu connais, toujours dans tout c'qui rapporte Eux c'est pas vrai, ces flockos, ça crapote Eux c'est pas vrai, ces flockos, ça crapote Faut les laisser, gros, c'est que d'la papote Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Hey Keys, whats up? Ayo, what's up Migo? L-F Keys G got the ice, baby Estoy en la Champion' y tu equipo no pudo clasificar Brr Vamos en manada, me llaman líder, como yo Tony Stark Fuck que me quieren parar, bop lo que suelo tirar Yo como puedo acabar, lo que quiere e' demostrar Porque estoy sonando dentro 'e menciones y tiran los lambone' De frente no hay cojone', pleito' se hacen subir tensione' El Beny contra bocones y yo quemando en Ámstrdam Se atreven a amnazar pero solo si es por Instagram Fuck the opps Okay, Zzala Brr Hula hoop Pew-pew, mi girano i soldi intorno Uh Una thot farà finire a puttane il mondo Thot Fanno i boss, sì, però fuori dal web mai visti Mai Sembrano troie dentro una vetrina, Red Light District Ehi, ehi, ehi, ehi Dimelo, mami Dimelo, mami Dammeli giusti o libero i cani Mille di oggi, mille domani Ehi, ehi Ehi, ehi Così poi tolgo il disturbo Mio flow G8, distruggo AMG V8 biturbo Esco col disco, è la fine del mondo Fra', chi se ne fotte dei Maya Quando apro la fotocamera interna dell'iPhone C'è il rapper più forte d'Italia Uh Ti rispondo con una risata Ah Se mi dici il parere degli altri Eh Io e i miei soldi stiamo per sposarci Vissero per sempre felici e contanti Ehi, ehi You might also like Pas d'bizz avec eux j'les sens pas Deux fois qu'eux, c'est puissant comme taureau, j'viens gé-char, les humains c'est mieux tu t'écartes C'est toujours marrant en TP mais j'ai pas l'temps, j'fais C'est Paris, c'est 2B, t'attaches pas à nous si t'aimes vraiment ta meuf c'est combien ta putain Les sapeurs, les flingueurs, on vend du ne-jau couleur mèche de Titeuf c'est fort, hun hun Pas d'bizz avec eux jamais d'la vida, pas d'bizz avec eux j'les sens pas J'ai l'air mais j'suis pas très sympa J'donne l'heure, j'suis toujours bien sapé hun, hun, hun, hun Moi c'est Coco Jojo, nickel, nickel, envoie ton adresse, Viano, hôtel Yuh, ayy, dollar, dollar bill, your Wu-Tang Cocaine-white mein Shoe Game Nein, Bro, ich häng' nicht mit dir Weil wenn ich dich seh', kann es sein, dass mein Mood changed Sie will mich mit Ring'n und Suites seh'n Immer Straight T, Baby, Blue Flame Glaub' mir, ich catch' kein COVID Aber wenn, komm' ich zurück so wie Jordan im Flu Game Nichts ist für immer, deshalb bleib' ich chilled und relaxed Handle Business am iPhone iPhone Niggas sagen Elias so fly, switched er sein Fit, switched auch die Time Zone Time Zone Alles, was ich dropp', ist mind blowin' Mind blowin' Jeder Step von mir ein Milestone Milestone Keine Competition, du bist mein Clone Fuß aufn Tisch, als wär es mein Home Hol' up Ey, die woll'n Smoke, also roll up Pants sind am saggen wie bei O-Dog Ich hab' keine Feelings wie ein Robot Dropp' paar Bars, denn die meinten zu mir, die woll'n ein Feature seh'n Money-Talks, nein, wir werden uns nie versteh'n Gib dir schon die Hand, ich kann nicht tiefer geh'n Bin im Album-Mode, das heißt, Speed aufdreh'n, let's go Ayy, ja, ayy Geen tijd voor een paigan, race 'm, dit is how we workin', neef, no hype Alles Off-White Off-White And I love bad bitches, ik zweer, I ain't got no type Vijftien K op een slow night, met haar, ga ik all night, gyal on sight Yeah, Blueface Rolly, die flow is holy, ben turned als Yke Free up the mandem, link up with gyaldem, we gon' take flight Forever my guys, forever Feis, wij zijn niet alike Ik ghost die ho's en ik hop in die Ghost, that's my poltergeist Ik doe de most en we shoppen nu groot in de mall, ik swipe, ey Je doet 't voor likes, ik doe 't voor de nice omdat ik honger had thuis Mami, fluisterd die dingen in m'n oor Give me some more, want je bent al op huid Je weet wat ik rook, allerlei smoke, we zijn niet op gruis, yeah Gyal is op motion, zij en ik werken als lean met die Sprite In m'n crippers in de pijn, na vijftien jaar glow, is a hell of a life Ik ben op betable's hime, met die flex ben ik ook levels te high Day ones, nog steeds met dezelfde guys Money is clean en m'n hands sanitized, yeah Bank account is maximized, yellow mami mesmerized Bank account is maximized, yellow mami mesmerized</t>
+          <t>Hey Keys, whats up? Ayo, what's up Migo? L-F Keys G got the ice, baby Estoy en la Champion' y tu equipo no pudo clasificar Brr Vamos en manada, me llaman líder, como yo Tony Stark Fuck que me quieren parar, bop lo que suelo tirar Yo como puedo acabar, lo que quiere e' demostrar Porque estoy sonando dentro 'e menciones y tiran los lambone' De frente no hay cojone', pleito' se hacen subir tensione' El Beny contra bocones y yo quemando en Ámstrdam Se atreven a amnazar pero solo si es por Instagram Fuck the opps Okay, Zzala Brr Hula hoop Pew-pew, mi girano i soldi intorno Uh Una thot farà finire a puttane il mondo Thot Fanno i boss, sì, però fuori dal web mai visti Mai Sembrano troie dentro una vetrina, Red Light District Ehi, ehi, ehi, ehi Dimelo, mami Dimelo, mami Dammeli giusti o libero i cani Mille di oggi, mille domani Ehi, ehi Ehi, ehi Così poi tolgo il disturbo Mio flow G8, distruggo AMG V8 biturbo Esco col disco, è la fine del mondo Fra', chi se ne fotte dei Maya Quando apro la fotocamera interna dell'iPhone C'è il rapper più forte d'Italia Uh Ti rispondo con una risata Ah Se mi dici il parere degli altri Eh Io e i miei soldi stiamo per sposarci Vissero per sempre felici e contanti Ehi, ehi Pas d'bizz avec eux j'les sens pas Deux fois qu'eux, c'est puissant comme taureau, j'viens gé-char, les humains c'est mieux tu t'écartes C'est toujours marrant en TP mais j'ai pas l'temps, j'fais C'est Paris, c'est 2B, t'attaches pas à nous si t'aimes vraiment ta meuf c'est combien ta putain Les sapeurs, les flingueurs, on vend du ne-jau couleur mèche de Titeuf c'est fort, hun hun Pas d'bizz avec eux jamais d'la vida, pas d'bizz avec eux j'les sens pas J'ai l'air mais j'suis pas très sympa J'donne l'heure, j'suis toujours bien sapé hun, hun, hun, hun Moi c'est Coco Jojo, nickel, nickel, envoie ton adresse, Viano, hôtel Yuh, ayy, dollar, dollar bill, your Wu-Tang Cocaine-white mein Shoe Game Nein, Bro, ich häng' nicht mit dir Weil wenn ich dich seh', kann es sein, dass mein Mood changed Sie will mich mit Ring'n und Suites seh'n Immer Straight T, Baby, Blue Flame Glaub' mir, ich catch' kein COVID Aber wenn, komm' ich zurück so wie Jordan im Flu Game Nichts ist für immer, deshalb bleib' ich chilled und relaxed Handle Business am iPhone iPhone Niggas sagen Elias so fly, switched er sein Fit, switched auch die Time Zone Time Zone Alles, was ich dropp', ist mind blowin' Mind blowin' Jeder Step von mir ein Milestone Milestone Keine Competition, du bist mein Clone Fuß aufn Tisch, als wär es mein Home Hol' up Ey, die woll'n Smoke, also roll up Pants sind am saggen wie bei O-Dog Ich hab' keine Feelings wie ein Robot Dropp' paar Bars, denn die meinten zu mir, die woll'n ein Feature seh'n Money-Talks, nein, wir werden uns nie versteh'n Gib dir schon die Hand, ich kann nicht tiefer geh'n Bin im Album-Mode, das heißt, Speed aufdreh'n, let's go Ayy, ja, ayy Geen tijd voor een paigan, race 'm, dit is how we workin', neef, no hype Alles Off-White Off-White And I love bad bitches, ik zweer, I ain't got no type Vijftien K op een slow night, met haar, ga ik all night, gyal on sight Yeah, Blueface Rolly, die flow is holy, ben turned als Yke Free up the mandem, link up with gyaldem, we gon' take flight Forever my guys, forever Feis, wij zijn niet alike Ik ghost die ho's en ik hop in die Ghost, that's my poltergeist Ik doe de most en we shoppen nu groot in de mall, ik swipe, ey Je doet 't voor likes, ik doe 't voor de nice omdat ik honger had thuis Mami, fluisterd die dingen in m'n oor Give me some more, want je bent al op huid Je weet wat ik rook, allerlei smoke, we zijn niet op gruis, yeah Gyal is op motion, zij en ik werken als lean met die Sprite In m'n crippers in de pijn, na vijftien jaar glow, is a hell of a life Ik ben op betable's hime, met die flex ben ik ook levels te high Day ones, nog steeds met dezelfde guys Money is clean en m'n hands sanitized, yeah Bank account is maximized, yellow mami mesmerized Bank account is maximized, yellow mami mesmerized</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ah eh, elle a vraiment cru que j'aurais pu tomber dans son putain d'lait chaud Haha, tu connais pas Coco Jojo toi, tu sais qu'ça flingue chez nous Ligue 1, obligé Hahahaha Jojo heyo, ça dit quoi, ça dit quoi bro? En forme ? Vas-y j't'appelle t'à l'heure, reste branché Y a peut-être une foule vers là-bas, okay? Encore un peu ivre de la nuit dernière c'est fort De base elles connaissent rien d'ma ie-v mais bon Vu qu'on médiatise, les yeux sont tirés vers moi Dépense trois, quatr balles, ça m'arrive fort Mais qu'ell essaie d'me distraire pour qu'j'lui mette encore Mais regarde-toi, t'as mis tous ces voyous dans ton Vider leur sang en boite, en vac', en sac et même au resto Il fait chaud, une fois qu'j'suis dedans Donc j'essaie de tenir pour pas lâcher d'temps On peut pas m'avoir même la calle le sait J'suis le mec réveillé qui te rappelle que t'es personne flingue S'ils ont tous échoué, tous perdu, impossible avec moi J'ai le ticket gagnant You might also like Jojo, Jojo, woh j'ai le ticket gagnant, ticket gagnant Jojo, Jojo, c'est fort okay, j'ai le ticket gagnant Impossible avec moi, j'ai le ticket gagnant Parce qu'on est où là? J'sais pas moi, j'ai pas l'impression d'être à ma place Repartir à la base des bases, j'suis pas une star mais qu'un négro Qui vient d'un quartier chaud de Paris nord du genre Crenshaw Si ça propose, on pousse-pousse fort dans la mêlée Si y a quelque chose en bien ou en mal, on va s'en mêler Eh eh eh eh, eh eh eh eh T'en fais pas c'est pour moi, c'est Ligue 1, j'ai l'butin Oh oh, oh oh J'ai le ticket gagnant, j'ai le ticket gagnant Oh oh, oh oh c'est fort Ici y a que des brigands, que des brigands Jojo, Jojo, woh j'ai le ticket gagnant okay, ticket gagnant Jojo, Jojo, c'est fort okay okay j'ai le ticket gagnant ticket gagnant, bébé Impossible avec moi, j'ai le ticket gagnant c'est quoi? Coco Jojo Jojo Coco Jojo han-han, han-han, han-han Coco Jojo Ça flingue en vrai, flingue en vrai Ça flingue, flingue, flingue c'est fort Coco Jojo Fresh Coco Jojo Ça flingue Jojo, Jojo, Jojo</t>
+          <t>Ah eh, elle a vraiment cru que j'aurais pu tomber dans son putain d'lait chaud Haha, tu connais pas Coco Jojo toi, tu sais qu'ça flingue chez nous Ligue 1, obligé Hahahaha Jojo heyo, ça dit quoi, ça dit quoi bro? En forme ? Vas-y j't'appelle t'à l'heure, reste branché Y a peut-être une foule vers là-bas, okay? Encore un peu ivre de la nuit dernière c'est fort De base elles connaissent rien d'ma ie-v mais bon Vu qu'on médiatise, les yeux sont tirés vers moi Dépense trois, quatr balles, ça m'arrive fort Mais qu'ell essaie d'me distraire pour qu'j'lui mette encore Mais regarde-toi, t'as mis tous ces voyous dans ton Vider leur sang en boite, en vac', en sac et même au resto Il fait chaud, une fois qu'j'suis dedans Donc j'essaie de tenir pour pas lâcher d'temps On peut pas m'avoir même la calle le sait J'suis le mec réveillé qui te rappelle que t'es personne flingue S'ils ont tous échoué, tous perdu, impossible avec moi J'ai le ticket gagnant Jojo, Jojo, woh j'ai le ticket gagnant, ticket gagnant Jojo, Jojo, c'est fort okay, j'ai le ticket gagnant Impossible avec moi, j'ai le ticket gagnant Parce qu'on est où là? J'sais pas moi, j'ai pas l'impression d'être à ma place Repartir à la base des bases, j'suis pas une star mais qu'un négro Qui vient d'un quartier chaud de Paris nord du genre Crenshaw Si ça propose, on pousse-pousse fort dans la mêlée Si y a quelque chose en bien ou en mal, on va s'en mêler Eh eh eh eh, eh eh eh eh T'en fais pas c'est pour moi, c'est Ligue 1, j'ai l'butin Oh oh, oh oh J'ai le ticket gagnant, j'ai le ticket gagnant Oh oh, oh oh c'est fort Ici y a que des brigands, que des brigands Jojo, Jojo, woh j'ai le ticket gagnant okay, ticket gagnant Jojo, Jojo, c'est fort okay okay j'ai le ticket gagnant ticket gagnant, bébé Impossible avec moi, j'ai le ticket gagnant c'est quoi? Coco Jojo Jojo Coco Jojo han-han, han-han, han-han Coco Jojo Ça flingue en vrai, flingue en vrai Ça flingue, flingue, flingue c'est fort Coco Jojo Fresh Coco Jojo Ça flingue Jojo, Jojo, Jojo</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit, je tire car jaime pas mes ennemis toi tas rien à voir dedans ma meilleure amie paw paw Je temmènerai vers Bali si tu mérites mais pour ça je dois faire partir vers Calì Prendre des risque et les condé moi jévite, mais tas rien à voir dedans ma meilleure amie Si le temps est compté il faut quon taille vite, jsuis quun Thug est tu sais bien jsuis magique Ma meilleure amie, ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Cest bientôt notre tour jai besoin de mes potes, ma miff et toi ma meilleure amie, smash smash smash Cest vrai je dois quitter le four mais jai besoin de mes potes, ma miff et toi ma meilleure amie paw paw Cest vrai je comptais rester dans le TrapHouse cest vrai je comptais rester dans le Bando Investir pour nous dans une big House paw paw Jélimine les rajeux comme au Pantball brrr Je suis pas fort en amour je sais pas joué le rôle Ma meilleure amie, ma meilleure amie Moi jai dautres problèmes mon négro tu sais my nigga for real Mais comment le dire et le dire à ma meilleure amie paw paw On sest promis des choses mon négro je sais... my nigga for real Investir pour de vrais viser une belle Ferrari grriiing You might also like Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit nuit , je tire car jaime pas mes ennemis mais tas rien à voir dedans ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Je suis quun Thug et je ne veux pas mourir dans le Trap Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun Thug et je ne veux pas mourir dans le Trap... woow Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun thug je ne veux pas mourir dans le Trap Je temmènerai vers Bali si tu le mérites Mais pour ça je dois faire partir à Calì prendre des risques et les Condé moi jévite mais tas rien à voir dedans ma meilleure amie si le temps est compté faut quon taille vite Je suis quun Thug et tu sais bien que je suis magique Ma meilleure amie, ma meilleure amie ma meilleure amie ma meilleure amie ,ma meilleure amie, ma meilleure amie PAW PAW</t>
+          <t>Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit, je tire car jaime pas mes ennemis toi tas rien à voir dedans ma meilleure amie paw paw Je temmènerai vers Bali si tu mérites mais pour ça je dois faire partir vers Calì Prendre des risque et les condé moi jévite, mais tas rien à voir dedans ma meilleure amie Si le temps est compté il faut quon taille vite, jsuis quun Thug est tu sais bien jsuis magique Ma meilleure amie, ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Cest bientôt notre tour jai besoin de mes potes, ma miff et toi ma meilleure amie, smash smash smash Cest vrai je dois quitter le four mais jai besoin de mes potes, ma miff et toi ma meilleure amie paw paw Cest vrai je comptais rester dans le TrapHouse cest vrai je comptais rester dans le Bando Investir pour nous dans une big House paw paw Jélimine les rajeux comme au Pantball brrr Je suis pas fort en amour je sais pas joué le rôle Ma meilleure amie, ma meilleure amie Moi jai dautres problèmes mon négro tu sais my nigga for real Mais comment le dire et le dire à ma meilleure amie paw paw On sest promis des choses mon négro je sais... my nigga for real Investir pour de vrais viser une belle Ferrari grriiing Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit nuit , je tire car jaime pas mes ennemis mais tas rien à voir dedans ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Je suis quun Thug et je ne veux pas mourir dans le Trap Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun Thug et je ne veux pas mourir dans le Trap... woow Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun thug je ne veux pas mourir dans le Trap Je temmènerai vers Bali si tu le mérites Mais pour ça je dois faire partir à Calì prendre des risques et les Condé moi jévite mais tas rien à voir dedans ma meilleure amie si le temps est compté faut quon taille vite Je suis quun Thug et tu sais bien que je suis magique Ma meilleure amie, ma meilleure amie ma meilleure amie ma meilleure amie ,ma meilleure amie, ma meilleure amie PAW PAW</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>C'est Coco Jojo, popopopopo Ça va commencer ici, popopopopo Numéro 9 c'est moi dans le tiekson R9, dès que j'arrive les tits-pe me check ça ça flingue Fais péter les basses faut que ça résonne wou, bitches envoie, donc je lui donne ça bien donc je lui donne ça bien Barre ta bagnole là, ta carcasse tchop, celui qui veut test on le fracasse bow, sous les cocos de mon quartier je fume kamas du filtré Moi c'est Coco Guy de Barbès Bezbar, moi c'est Coco Guy de Barbès lajan Dans les che-po toujours balaise oseille, je fais du re-spo ça m'apaise histoire de C'est comment khoya labess, c'est la calle c'est fort, big up toutes les tess big up toutes les tess, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la caille faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh Tranquille c'est pour moi champagne han, j'tartine j'oublie que j'ai le mis-per 10 000 boite à gants han, 10 000 dans boite à gants, été comme hiver ouh ouh C'est qui ? C'est Coco Jojo, j'encaisse liquide, j'vends la coca hein hein Mhh, ah, mhh, ah, mhh, AWA, faut bosser En ce qui concerne les autres, moi j'ai rien à ajouter, dans l'équipe j'ai le même rôle que Diogo Jota Casses-toi avec nous y'a rien à mijoter, y'a que si ça flingue que j'appelle ma comptable ahahah J'ai ma liasse d'oseille mon toutou, et pour moi weekend c'est tous les jours popopopopo, ok You might also like On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Jojo Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh</t>
+          <t>C'est Coco Jojo, popopopopo Ça va commencer ici, popopopopo Numéro 9 c'est moi dans le tiekson R9, dès que j'arrive les tits-pe me check ça ça flingue Fais péter les basses faut que ça résonne wou, bitches envoie, donc je lui donne ça bien donc je lui donne ça bien Barre ta bagnole là, ta carcasse tchop, celui qui veut test on le fracasse bow, sous les cocos de mon quartier je fume kamas du filtré Moi c'est Coco Guy de Barbès Bezbar, moi c'est Coco Guy de Barbès lajan Dans les che-po toujours balaise oseille, je fais du re-spo ça m'apaise histoire de C'est comment khoya labess, c'est la calle c'est fort, big up toutes les tess big up toutes les tess, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la caille faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh Tranquille c'est pour moi champagne han, j'tartine j'oublie que j'ai le mis-per 10 000 boite à gants han, 10 000 dans boite à gants, été comme hiver ouh ouh C'est qui ? C'est Coco Jojo, j'encaisse liquide, j'vends la coca hein hein Mhh, ah, mhh, ah, mhh, AWA, faut bosser En ce qui concerne les autres, moi j'ai rien à ajouter, dans l'équipe j'ai le même rôle que Diogo Jota Casses-toi avec nous y'a rien à mijoter, y'a que si ça flingue que j'appelle ma comptable ahahah J'ai ma liasse d'oseille mon toutou, et pour moi weekend c'est tous les jours popopopopo, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Jojo Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps On met la cagoule quand y'a les soucis Diamants VVS pour cacher la tristesse J'ai grandi dans le piège, ils t'poursuivent Ici, il t'faut un Uzi Pour tuer l'temps et les soucis, ou pour l'papel J'avais trop d're-frè avant qu'ça rentre Mais la rue n't'aime pas, la rue aime l'argent J'connais trop d'putes qu'ont baisé trop d'genres Et des bons gars qu'ont perdu trop d'sang Un peu parano, j'dviens agressif J'ai fait des millirs, j'rentre à la té-ci J'ai pris des vagues pendant la tempête Seul dans l'bateau, j'pars à la dérive VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt You might also like Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Faut qu'j'reste très loin d'eux Hier encore, j'avais vingt-deux Hier au moins, j'rêvais un peu Là j'chauchemarde dans un GLE À eux j'la mets, tempête Derrière mon sourire, tant d'peine Prendre des sous, ça n'arrange R Problème est revenu quand même En classe business, j'pense à elle avant d'atterrir Mais sous le Prada, j'ai des cicatrices qui vont pas guérir À part le cash, j'ai pas d'attaches avec ces gens Mon argent, c'est mon remontant Mon argent, c'est mon remontant VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps</t>
+          <t>Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps On met la cagoule quand y'a les soucis Diamants VVS pour cacher la tristesse J'ai grandi dans le piège, ils t'poursuivent Ici, il t'faut un Uzi Pour tuer l'temps et les soucis, ou pour l'papel J'avais trop d're-frè avant qu'ça rentre Mais la rue n't'aime pas, la rue aime l'argent J'connais trop d'putes qu'ont baisé trop d'genres Et des bons gars qu'ont perdu trop d'sang Un peu parano, j'dviens agressif J'ai fait des millirs, j'rentre à la té-ci J'ai pris des vagues pendant la tempête Seul dans l'bateau, j'pars à la dérive VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Faut qu'j'reste très loin d'eux Hier encore, j'avais vingt-deux Hier au moins, j'rêvais un peu Là j'chauchemarde dans un GLE À eux j'la mets, tempête Derrière mon sourire, tant d'peine Prendre des sous, ça n'arrange R Problème est revenu quand même En classe business, j'pense à elle avant d'atterrir Mais sous le Prada, j'ai des cicatrices qui vont pas guérir À part le cash, j'ai pas d'attaches avec ces gens Mon argent, c'est mon remontant Mon argent, c'est mon remontant VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wesh Rudyovski Mmh Ouh-ouh Han-han, han-han, han-han Ah-ah-ah S-V4GE made this shit Go, go, go Grr, grr Papito charme On ramène la drogue, le cash et les armes Ah-ah-ah Anakin On va chanter de Paname à Kin' Hey Je la baise, je la baise, je la baise, c'est ma tchakala Ouh, elle trouve que j'ai le même goût que le chocolat han, han J'la mets dans le panier comme Shaquille O'Neal Han, han, switch, toi, quand tu rappes, on dirait qu'c'est un canular T'es nul C'est une calomnie, tu fais perdre du temps à l'ingé' son quand tu rec' ton vieux son Gang J'ai la barre quand tu m'parles de plan sous Woah, j'dois finir au-dessus vu qu'on vient d'en-dessous En haut Avant, j'me lavais avec un seau d'eau, maintenant, je tape les prod' et j'y vais pas cement-dou J'les fuck Tu vas abdiquer même si t'es costaud, quand ça fait Rostoh, il m'supplie d'arrêter Rostoh J'suis le méchant à la fin du movie, j'suis Thanos, Voldemort et toi, t'es qu'une brebis Ah-ah-ah Elle voulait le faire dans mon 4x4, je l'ai mise bien, j'suis avec good pussy Skrt, skrt, skrt J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Thug, tou-tou-tou-tou-tou-tou-touh C'est les fakes négros qu'il faut chasser, je suis sur la chaussée, j'fais partir du machin Bah Je tiens le volant, j'suis dans l'engin, la rue, c'est le parfum, c'est pour ça qu'elle revient Baby 7.5.0.17 Papito charm, 7.5.0.18 You might also like J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh, poh-poh, poh-poh Très loin des accolades Accolades, c'est qu'avec le gang avec qui je ride Quand je picole, j'coupe le Jack au Coca-Cola Cola, ah-ah Brrkté, brrkté, brrkté, j'récupère un nouveau cachet à chaque collab' Flouz Personne me conteste quand j'me place pour tirer le pénalty Boh Et je sais que tu kiffes mon arrogance, j'arrive en Audi, les gars suivent en Maserati Jeune ambitieux respecte que la puissance, jeune ambitieux respecte que la puissance J'peux parler dans ta barbe, poto, c'est la puissance Ouais, ouais Filet Mignon comme Tiakola Ouais, la plus fraîche de toutes, j'lui ai sorti ma dick, elle a kiffé, tout l'monde m'a fait chapeau bas Hum Blague à part, si jamais ça s'arrête, j'me barre à la retraite, j'revends pas les barrettes J'revends pas les barrettes, ton corps dans une charrette, ton corps dans une brouette, j'suis allongé en Crète Papito Charm J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Chanson, boh Toi, t'as fumé ma moula, t'as toussé, y a personne que j'épargne quand ça parle en rançon Brr, brr, brr, brr J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh</t>
+          <t>Wesh Rudyovski Mmh Ouh-ouh Han-han, han-han, han-han Ah-ah-ah S-V4GE made this shit Go, go, go Grr, grr Papito charme On ramène la drogue, le cash et les armes Ah-ah-ah Anakin On va chanter de Paname à Kin' Hey Je la baise, je la baise, je la baise, c'est ma tchakala Ouh, elle trouve que j'ai le même goût que le chocolat han, han J'la mets dans le panier comme Shaquille O'Neal Han, han, switch, toi, quand tu rappes, on dirait qu'c'est un canular T'es nul C'est une calomnie, tu fais perdre du temps à l'ingé' son quand tu rec' ton vieux son Gang J'ai la barre quand tu m'parles de plan sous Woah, j'dois finir au-dessus vu qu'on vient d'en-dessous En haut Avant, j'me lavais avec un seau d'eau, maintenant, je tape les prod' et j'y vais pas cement-dou J'les fuck Tu vas abdiquer même si t'es costaud, quand ça fait Rostoh, il m'supplie d'arrêter Rostoh J'suis le méchant à la fin du movie, j'suis Thanos, Voldemort et toi, t'es qu'une brebis Ah-ah-ah Elle voulait le faire dans mon 4x4, je l'ai mise bien, j'suis avec good pussy Skrt, skrt, skrt J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Thug, tou-tou-tou-tou-tou-tou-touh C'est les fakes négros qu'il faut chasser, je suis sur la chaussée, j'fais partir du machin Bah Je tiens le volant, j'suis dans l'engin, la rue, c'est le parfum, c'est pour ça qu'elle revient Baby 7.5.0.17 Papito charm, 7.5.0.18 J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh, poh-poh, poh-poh Très loin des accolades Accolades, c'est qu'avec le gang avec qui je ride Quand je picole, j'coupe le Jack au Coca-Cola Cola, ah-ah Brrkté, brrkté, brrkté, j'récupère un nouveau cachet à chaque collab' Flouz Personne me conteste quand j'me place pour tirer le pénalty Boh Et je sais que tu kiffes mon arrogance, j'arrive en Audi, les gars suivent en Maserati Jeune ambitieux respecte que la puissance, jeune ambitieux respecte que la puissance J'peux parler dans ta barbe, poto, c'est la puissance Ouais, ouais Filet Mignon comme Tiakola Ouais, la plus fraîche de toutes, j'lui ai sorti ma dick, elle a kiffé, tout l'monde m'a fait chapeau bas Hum Blague à part, si jamais ça s'arrête, j'me barre à la retraite, j'revends pas les barrettes J'revends pas les barrettes, ton corps dans une charrette, ton corps dans une brouette, j'suis allongé en Crète Papito Charm J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Chanson, boh Toi, t'as fumé ma moula, t'as toussé, y a personne que j'épargne quand ça parle en rançon Brr, brr, brr, brr J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Haha, yeah, yeah Haha, this is some plus four shit Coco Jojo, pah-pah-pah, pouh-pouh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Eh yo, eh yo Ah-ah-ah, elle me dit Calme ton cur, Lucky Luke vas-y molo Eh yo, eh yo, y a que des chiens sur terre donc j'finirais solo Eh yo Eh yo, eh yo, j'appelle ma bitches, rejoins, Maldives, j'enfile polo Eh yo, eh yo, tu sais qu'on réplique Pan, pan, pan Qu'on baise les flics Pan, pan, pan, qu'on fait du biff en pagaille Bah ouais Bah ouais, j'combats toujours pour mon pécule Remballe ta merde, personne t'écoute Nous, on est tout permis, nous parle pas d'sécu Nous, on est tout permis, nous parle pas d'sécu Sec, sec, sec, on boit cul sec, sec, sec Donc écoute ma sono qui te pète les tympans Malgré la musique, j'suis encore sous pleins d'plans Ah, ah, ah Les petits reufs sont encore sous TP, font temps plein You might also like Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house On a le fer coffré dans la trap house Mmh, ouh Sexe, drogue, monnaie, trap house Sexe, drogue, monnaie, trap house Faire du le-sa j'ai pas fini, c'est sous vodka je vis Mmh-mmh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, han-han, han-han Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Donne-moi de l'amour, j'suis dans le hood tous les jours On a vécu des drames et on a tenu le coup J'suis pas comme tout tes bougs sans fric J'suis dans le top stream, ta copine monte à bord du bolide Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, ouh, ouh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house</t>
+          <t>Haha, yeah, yeah Haha, this is some plus four shit Coco Jojo, pah-pah-pah, pouh-pouh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Eh yo, eh yo Ah-ah-ah, elle me dit Calme ton cur, Lucky Luke vas-y molo Eh yo, eh yo, y a que des chiens sur terre donc j'finirais solo Eh yo Eh yo, eh yo, j'appelle ma bitches, rejoins, Maldives, j'enfile polo Eh yo, eh yo, tu sais qu'on réplique Pan, pan, pan Qu'on baise les flics Pan, pan, pan, qu'on fait du biff en pagaille Bah ouais Bah ouais, j'combats toujours pour mon pécule Remballe ta merde, personne t'écoute Nous, on est tout permis, nous parle pas d'sécu Nous, on est tout permis, nous parle pas d'sécu Sec, sec, sec, on boit cul sec, sec, sec Donc écoute ma sono qui te pète les tympans Malgré la musique, j'suis encore sous pleins d'plans Ah, ah, ah Les petits reufs sont encore sous TP, font temps plein Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house On a le fer coffré dans la trap house Mmh, ouh Sexe, drogue, monnaie, trap house Sexe, drogue, monnaie, trap house Faire du le-sa j'ai pas fini, c'est sous vodka je vis Mmh-mmh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, han-han, han-han Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Donne-moi de l'amour, j'suis dans le hood tous les jours On a vécu des drames et on a tenu le coup J'suis pas comme tout tes bougs sans fric J'suis dans le top stream, ta copine monte à bord du bolide Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, ouh, ouh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ok Ok Ok, ok Ah, ah, ah, ah, ah, hum Ok C'est fort, j'aime trop Ok, ok Oh, va là-bas Ok Ça va commencer ici, let's go Ok, ok Touah, touah, touah, touah Ok C'est Port de Saint-Ouen, là Ok, ok Wouh, wouh Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok Jojo, Jojo, c'est la cité qui m'a appris à chiffrer, moi, j'connais rien au reste Depuis tout p'tit, toujours été frais, c'est Louis Vuitton pointée sur ma veste Assieds-toi bien, bébé, j'te mets l'siège chauffant dans le Tesla Assieds-toi bien, bébé, pas de trou d'boulettes dans l'intérieur cuir, c'est fort Méchant, y en a plus d'un, j'réponds certif', buzz, hein Ah, ah Bande de bâtards Touah, Leto, Coco Jojo, c'est imbattable J'fais Dubaï-Miami, t'es toujours dans palabre T'es toujours J'ai plus de deux-cents bitchies dans mes contacts, j'ai la même Rolex que portait Tupac Ok You might also like On t'avait dit Ok, ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Tchikita veut plus d'moi, j'ai brisé son corazón Ma tchikita J'ai passé ma jeunesse à donner mon temps pour la zone C'est Porte de Saint-Ouen là La jalousie, ça peut tuer, ah Ah, Parisien comme Mbappé, ah Ah C'est moi, derrière son tigné, là Han, han, han, han mais je me barre dès le tin-ma Oh, wouah Capitaine Jackson Jackson Five et Coco Jojo Normal, merci On dirait des cains-ri Wouah, Offset et Quavo Migos En vrai, c'est pour ça qu'ils portent l'il Nan, on peut mettre ta famille en deuil T'es mort Madame est toujours belle gosse, donc le négro est toujours beau gosse On t'avait dit Ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok</t>
+          <t>Ok Ok Ok, ok Ah, ah, ah, ah, ah, hum Ok C'est fort, j'aime trop Ok, ok Oh, va là-bas Ok Ça va commencer ici, let's go Ok, ok Touah, touah, touah, touah Ok C'est Port de Saint-Ouen, là Ok, ok Wouh, wouh Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok Jojo, Jojo, c'est la cité qui m'a appris à chiffrer, moi, j'connais rien au reste Depuis tout p'tit, toujours été frais, c'est Louis Vuitton pointée sur ma veste Assieds-toi bien, bébé, j'te mets l'siège chauffant dans le Tesla Assieds-toi bien, bébé, pas de trou d'boulettes dans l'intérieur cuir, c'est fort Méchant, y en a plus d'un, j'réponds certif', buzz, hein Ah, ah Bande de bâtards Touah, Leto, Coco Jojo, c'est imbattable J'fais Dubaï-Miami, t'es toujours dans palabre T'es toujours J'ai plus de deux-cents bitchies dans mes contacts, j'ai la même Rolex que portait Tupac Ok On t'avait dit Ok, ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Tchikita veut plus d'moi, j'ai brisé son corazón Ma tchikita J'ai passé ma jeunesse à donner mon temps pour la zone C'est Porte de Saint-Ouen là La jalousie, ça peut tuer, ah Ah, Parisien comme Mbappé, ah Ah C'est moi, derrière son tigné, là Han, han, han, han mais je me barre dès le tin-ma Oh, wouah Capitaine Jackson Jackson Five et Coco Jojo Normal, merci On dirait des cains-ri Wouah, Offset et Quavo Migos En vrai, c'est pour ça qu'ils portent l'il Nan, on peut mettre ta famille en deuil T'es mort Madame est toujours belle gosse, donc le négro est toujours beau gosse On t'avait dit Ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Jsuis passé par des étapes difficiles et tu le sais ça commence ici Je ne sais pas comment donner damour à mes frères pourtant jles aime Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Jojo Petit instant, mon frère la réussite jmen charge, tu sais très bien, dont panic Opération Dragon, bana Kin, jreprésente les tribunes qui sagitent Entre les cris, les bleus, remontada, la réussite fut magique Silence comme Snake, je navigue Opération Dragon Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Le reste est mitigé Jsais pas, jles sens pas, par précaution, obliger dinfliger La famille faut pas toucher Jvais tmontrer qutu peux finir cartouché Ressentir la pression ça fait ni chaud, ni froid Des fautes, mais finir en haut jy crois Jnai quune seule voix Jai quune seule cible qui touche plusieurs proies Jme dois dêtre meilleur que les autres, cest pas ma faute à moi Cest la compétition qui fait quon dirait quon persiste Face à mes ennemis jamais jhésite Jrésiste, là-dessus Vous finirez pas déçu, jfinirai pas en-dessous Opération Dragon Ils ont tenté dnous éteindre, jsuis revenu comme Fifty et Lil Tjay Jsuis revenu sans cacher ma rancoeur, automatique jy vais Y avait pas de place pour les gens comme nous, daprès ce quils disaient Opération dragon, on repart à zéro ok You might also like Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Jojoo Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Silence comme Snake, je navigue</t>
+          <t>Jsuis passé par des étapes difficiles et tu le sais ça commence ici Je ne sais pas comment donner damour à mes frères pourtant jles aime Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Jojo Petit instant, mon frère la réussite jmen charge, tu sais très bien, dont panic Opération Dragon, bana Kin, jreprésente les tribunes qui sagitent Entre les cris, les bleus, remontada, la réussite fut magique Silence comme Snake, je navigue Opération Dragon Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Le reste est mitigé Jsais pas, jles sens pas, par précaution, obliger dinfliger La famille faut pas toucher Jvais tmontrer qutu peux finir cartouché Ressentir la pression ça fait ni chaud, ni froid Des fautes, mais finir en haut jy crois Jnai quune seule voix Jai quune seule cible qui touche plusieurs proies Jme dois dêtre meilleur que les autres, cest pas ma faute à moi Cest la compétition qui fait quon dirait quon persiste Face à mes ennemis jamais jhésite Jrésiste, là-dessus Vous finirez pas déçu, jfinirai pas en-dessous Opération Dragon Ils ont tenté dnous éteindre, jsuis revenu comme Fifty et Lil Tjay Jsuis revenu sans cacher ma rancoeur, automatique jy vais Y avait pas de place pour les gens comme nous, daprès ce quils disaient Opération dragon, on repart à zéro ok Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Jojoo Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Silence comme Snake, je navigue</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dinero, elle est là que pour mes dinero Billets mauves, elle twerk et je jette des billets mauves Mes OG veulent la vraiment gang bang bang bang Elle aime trop les dinero Touche aux miens gang bang bang bang, mon négro fait pas lhéros On fumait la weed, comme Flem tous les week-ends Jai taffé la week, jai charbonné comme Harry Kane Elle donne plus sa pussy, elle me reproche dêtre devenu distant ouais Elle donne plus sa pussy, elle dit que jai trop de DM sur Insta ouais Tu sais que la coke est exportée, donc toute la semaine faut bombarder Tu sais que ces batards nous regardent, donc tous les week-ends je refais mon dégradé Et recule dun cran ça va pas lfaire, un peu maniaque donc on touche pas à mes affaires Gros dans la street on peut pas perdre, donc on sest toujours promis de faire du papel, papel, papel papel, papel Depitcho Jrépond présent quand les bobo mappellent Jamais, belek on vous sort un Toka Regarde mon équipe cest pas des beaux gars c'est fort, Coco de Bezbar, Yoka Jai le flow qui tue, qui te donne coquard hein, poh La semaine je travaille beaucoup, le week-end je mélange le whisky et coca la semaine La semaine je travaille beaucoup, je cookin, je cookin, je vend vers le Troca Depitcho, Ronaldo de Bezbar, quand jsuis en pétard, personne sépare, quand ça part Okay You might also like Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dorée est la couleur de mes single Quand je met la boulette je fais tomber les diamants Dis-leur jai Desert Eagle, ça peut que chauffer ya que du fuego Dis-leur jai Desert Eagle, ça peut que chauffer, ya rien de marrant Ma routine cest pas dmâcher la vie comme un chameau Crois moi jsuis pareil quavant Desert Eagle dans les socquettes Lalcool cest de leau mais te voilà fini pompette Jarrive parfumé avec Coco Jojo Chanel commence à sinquiéter Je sors de lombre, te voilà embêté, yeah yeah yeah yeah, yeah</t>
+          <t>Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dinero, elle est là que pour mes dinero Billets mauves, elle twerk et je jette des billets mauves Mes OG veulent la vraiment gang bang bang bang Elle aime trop les dinero Touche aux miens gang bang bang bang, mon négro fait pas lhéros On fumait la weed, comme Flem tous les week-ends Jai taffé la week, jai charbonné comme Harry Kane Elle donne plus sa pussy, elle me reproche dêtre devenu distant ouais Elle donne plus sa pussy, elle dit que jai trop de DM sur Insta ouais Tu sais que la coke est exportée, donc toute la semaine faut bombarder Tu sais que ces batards nous regardent, donc tous les week-ends je refais mon dégradé Et recule dun cran ça va pas lfaire, un peu maniaque donc on touche pas à mes affaires Gros dans la street on peut pas perdre, donc on sest toujours promis de faire du papel, papel, papel papel, papel Depitcho Jrépond présent quand les bobo mappellent Jamais, belek on vous sort un Toka Regarde mon équipe cest pas des beaux gars c'est fort, Coco de Bezbar, Yoka Jai le flow qui tue, qui te donne coquard hein, poh La semaine je travaille beaucoup, le week-end je mélange le whisky et coca la semaine La semaine je travaille beaucoup, je cookin, je cookin, je vend vers le Troca Depitcho, Ronaldo de Bezbar, quand jsuis en pétard, personne sépare, quand ça part Okay Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dorée est la couleur de mes single Quand je met la boulette je fais tomber les diamants Dis-leur jai Desert Eagle, ça peut que chauffer ya que du fuego Dis-leur jai Desert Eagle, ça peut que chauffer, ya rien de marrant Ma routine cest pas dmâcher la vie comme un chameau Crois moi jsuis pareil quavant Desert Eagle dans les socquettes Lalcool cest de leau mais te voilà fini pompette Jarrive parfumé avec Coco Jojo Chanel commence à sinquiéter Je sors de lombre, te voilà embêté, yeah yeah yeah yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>...mets pas de cagoule pour pas presser d'détente Et si tu penses à finir menotté Paw C'est vrai c'était pas nous la la rue j'me suis révolté x2 Bouuuuuuh, ha-ah ha-ah ha-ah We laughing in thought x4 Yeah, west ...You might also like</t>
+          <t>...mets pas de cagoule pour pas presser d'détente Et si tu penses à finir menotté Paw C'est vrai c'était pas nous la la rue j'me suis révolté x2 Bouuuuuuh, ha-ah ha-ah ha-ah We laughing in thought x4 Yeah, west ...</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Hey, Y'a d'la dope en pagaille dans la zone pourtant ça sent le roussi tu t'grattes les veines On sera toujours sur le corner, gauche ou droite les schlags au centre même s'ils font passer le FN Trop vrai pour ce Game de merde Mes gars m'ont dit que je jouais mal Putain j'suis aigri des yencli ont cramé ma cons' tout est au grand journal L'argent ça nous a matrixé Les habitués sont foncedés Les dealeurs du coin on sait qui c'est Lice-po on s'tait Dans l'ghetto, accompagné de mes putains d'négro Alcoolique on boit dans des pots, y'a, y'a d'la dope On fait des kilos, On fait des kilos d'beuh Ici c'est le feu, juste fait la queue-leu-leu J'suis désolé, j'prends pas la fumée, que les billets T'as pas ton ticket, tu veux t'faire niquer, t'es un condé Le colis vient de loin, faut pas abuser Retournes au guichet, si tu veux fumer Le chiffre chiffre d'affaire, négro J'suis pas là pour te plaire Bip moi sur mon téléphone, le négro n'a pas le temps You might also like Baw! J'représente jungle et favelas On a weed puis d'la dope un peu trop tôt comme des narcos je sais hélas J'serais bientôt T'étonnes pas, partout on est en place Affamés, affamés, depuis tout ti-pe appelle nous les chiens d'la casse Dangereux nous sommes comme des mafias russes Pendant qu'tu bluffes nous on casse nos puces Y'a que dans l'carré que moi je m'amuse Si je vais trop loin dis moi Bez' t'abuses Assumé, assumé je le fais sans parler Ne parles pas de tes potes sur ma tête c'est des bluffeurs Foncedé, sous OG Kush tah la Bob Marley J'connais toute les réponses nique sa mère le buzzer Trop de produit vendus, dans les coins de ma rue, par ici la peufra poto fait la queue J'ai mon joujou si tu chicanes gros Ça fera bouh-bouh dans tout Chicagre Les baqueu sont vendus, le préfet s'est pendu et le terrain de dope c'est mon terrain d'jeu Oui je compte mes billets comme je roule un beuh La zone est verrouillée donc je roule ce bleu J'suis dans la gova sous lean, foncedé oui je le souligne Mes niagas oui pinent, calé dans le fond de la cuisine Entourés de putes et de djinns et des liasses dans mon jean Bienvenu dans mon secteur ? où ça charbonne pour devenir numéro uno Trop tendus sont les inspecteurs zinc surtout depuis que les ti-pe bibi de la poudre C'est la mafia tous les jours, assasssinat en plein jour J'deviens meilleur chaque jour et depuis ta pétasse me tourne autour On sort de taule avec plus de contacts On fait plus de fric, on vend des plus gros sacs Toute la ville connait l'squad, h24 j'suis dans la trap Des boloss dans la cour, des gâteaux dans le four Tout pour le tout, tu fais quoi dans la rue si tu fais pas des sous Pas besoin d'hiver pour que la neige tombe La concu jalouse, espère qu'on tombe Ça sonne toutes les 30 secondes Si tu tires faut pas qu'tu te trompes Si seulement tu savais tout ce qu'on vivait C'que j'ai fait pour toi venait du cur, bref Professions, profits ont gonflé le benef J'fais la cuisine comme un chef Couplet 6- Silek Ok y'a d'la dope Sur le taro tu veux blablater Sale enfoiré tu paieras plein pot C'est mort si t'espérais qu'on t'les booste Les quettes-pla ont des airs de Bob l'éponge Réveil midi, 4 appels Manqués j'suis encore raplapla J'suis l'captain d'la paix J'suis pas là pour faire ami-ami Dans ma te-tê j'suis pas seul tout la brigade anti émeute Grosse contrefaçon de Rihanna Sous les draps je lui met sa barre elle crie à mort Qu'est ce tu me ler-par de se rié-ma J'suis sous weed j'sais déjà plus comment te llama Y'a d'la dope, pour la piraterie La piraterie n'est jamais fini Mucho Dinero, caillou Medellin Coté passager, michto roule mon spliff Welcome to the sal, welcome à l'usine Tout est noir ici comme charbon à la mine Ghetto youth antillais Je fais l'argent, l'argent ne me fait pas Sombre individu, je n'te connais pas Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope</t>
+          <t>Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Hey, Y'a d'la dope en pagaille dans la zone pourtant ça sent le roussi tu t'grattes les veines On sera toujours sur le corner, gauche ou droite les schlags au centre même s'ils font passer le FN Trop vrai pour ce Game de merde Mes gars m'ont dit que je jouais mal Putain j'suis aigri des yencli ont cramé ma cons' tout est au grand journal L'argent ça nous a matrixé Les habitués sont foncedés Les dealeurs du coin on sait qui c'est Lice-po on s'tait Dans l'ghetto, accompagné de mes putains d'négro Alcoolique on boit dans des pots, y'a, y'a d'la dope On fait des kilos, On fait des kilos d'beuh Ici c'est le feu, juste fait la queue-leu-leu J'suis désolé, j'prends pas la fumée, que les billets T'as pas ton ticket, tu veux t'faire niquer, t'es un condé Le colis vient de loin, faut pas abuser Retournes au guichet, si tu veux fumer Le chiffre chiffre d'affaire, négro J'suis pas là pour te plaire Bip moi sur mon téléphone, le négro n'a pas le temps Baw! J'représente jungle et favelas On a weed puis d'la dope un peu trop tôt comme des narcos je sais hélas J'serais bientôt T'étonnes pas, partout on est en place Affamés, affamés, depuis tout ti-pe appelle nous les chiens d'la casse Dangereux nous sommes comme des mafias russes Pendant qu'tu bluffes nous on casse nos puces Y'a que dans l'carré que moi je m'amuse Si je vais trop loin dis moi Bez' t'abuses Assumé, assumé je le fais sans parler Ne parles pas de tes potes sur ma tête c'est des bluffeurs Foncedé, sous OG Kush tah la Bob Marley J'connais toute les réponses nique sa mère le buzzer Trop de produit vendus, dans les coins de ma rue, par ici la peufra poto fait la queue J'ai mon joujou si tu chicanes gros Ça fera bouh-bouh dans tout Chicagre Les baqueu sont vendus, le préfet s'est pendu et le terrain de dope c'est mon terrain d'jeu Oui je compte mes billets comme je roule un beuh La zone est verrouillée donc je roule ce bleu J'suis dans la gova sous lean, foncedé oui je le souligne Mes niagas oui pinent, calé dans le fond de la cuisine Entourés de putes et de djinns et des liasses dans mon jean Bienvenu dans mon secteur ? où ça charbonne pour devenir numéro uno Trop tendus sont les inspecteurs zinc surtout depuis que les ti-pe bibi de la poudre C'est la mafia tous les jours, assasssinat en plein jour J'deviens meilleur chaque jour et depuis ta pétasse me tourne autour On sort de taule avec plus de contacts On fait plus de fric, on vend des plus gros sacs Toute la ville connait l'squad, h24 j'suis dans la trap Des boloss dans la cour, des gâteaux dans le four Tout pour le tout, tu fais quoi dans la rue si tu fais pas des sous Pas besoin d'hiver pour que la neige tombe La concu jalouse, espère qu'on tombe Ça sonne toutes les 30 secondes Si tu tires faut pas qu'tu te trompes Si seulement tu savais tout ce qu'on vivait C'que j'ai fait pour toi venait du cur, bref Professions, profits ont gonflé le benef J'fais la cuisine comme un chef Couplet 6- Silek Ok y'a d'la dope Sur le taro tu veux blablater Sale enfoiré tu paieras plein pot C'est mort si t'espérais qu'on t'les booste Les quettes-pla ont des airs de Bob l'éponge Réveil midi, 4 appels Manqués j'suis encore raplapla J'suis l'captain d'la paix J'suis pas là pour faire ami-ami Dans ma te-tê j'suis pas seul tout la brigade anti émeute Grosse contrefaçon de Rihanna Sous les draps je lui met sa barre elle crie à mort Qu'est ce tu me ler-par de se rié-ma J'suis sous weed j'sais déjà plus comment te llama Y'a d'la dope, pour la piraterie La piraterie n'est jamais fini Mucho Dinero, caillou Medellin Coté passager, michto roule mon spliff Welcome to the sal, welcome à l'usine Tout est noir ici comme charbon à la mine Ghetto youth antillais Je fais l'argent, l'argent ne me fait pas Sombre individu, je n'te connais pas Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Yeah Jojo, opération dragon Coco C'est fort Let's get it Baby, viens là, oh-oh, j'ai la money, j'ai les finances Jump dans l'bolide, ne fais pas semblant J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Jump dans l'bolide, ne fais pas semblant J'vais changer ta vie, let's go Ça c'est pas bon les nyama Imbécile Là les gars, j'suis calé vers là-bas Allez voilà Viens pas faire le Tony Montana Nan Kishta, kishta sinon j'suis pas là C'est fort Ma chérie, faut pas s'fâcher Baby C'est la liberté que j'vais t'achetr I got you Les mauvais jours cachés dans l'allée On préfère agir, on n'aim pas trop parler Jamais Jo-Jo-Jo Ouh You might also like Baby, viens là, oh-oh, j'ai la money, j'ai les finances J'ai tout Jump dans l'bolide, ne fais pas semblant Skurt J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Allez voilà Jump dans l'bolide, ne fais pas semblantAllez voilà J'vais changer ta vie, let's get it Baby, j'suis pas Calimero Non, bébé, j'suis pas Calimero Jamais Baby, ton mec, il est zéro Ah, bébé, ton mec, il est zéro Il est zéro C'est les flingueurs donc mets ton numéro Là, c'est fort, donc mets ton numéro Ton mec, il est zéro Ah, bébé, ton mec, il est zéro Ton mec, il est zéro Viens chez les flingueurs, on fait les dineros On fait la monnaie Les James, j'les mets l'flinguer dans Bentley On ira chez Cartier, prends tout, tout c'qui te plaît Opération drago, Jojo, c'était Maï de Gravo Avec elle, t'as flopé, on répare les travaux Bow, bow J'connais mon karaté, Jojo depitcho, erataka té Baby, viens là, oh-oh, j'ai la money, j'ai les finances Bah oui Jump dans l'bolide, ne fais pas semblant Jamais J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Jojo Jump dans l'bolide, ne fais pas semblant Allez voilà J'vais changer ta vie, let's get it Baby, j'suis pas Calimero Non, bébé, j'suis pas Calimero Jamais Baby, ton mec, il est zéro Ah, bébé, ton mec, il est zéro Il est zéro C'est les flingueurs donc mets ton numéro Là, c'est fort, donc mets ton numéro Ton mec, il est zéro Ah, bébé, ton mec, il est zéro Hey, yo, Glitch Yes, sir I like Jack I got you Jojo, I got you Ah, ah, ah, ah, Tom, I got you Ah, ah, Jojo, I got you Yeah, yeah Let's get it</t>
+          <t>Yeah Jojo, opération dragon Coco C'est fort Let's get it Baby, viens là, oh-oh, j'ai la money, j'ai les finances Jump dans l'bolide, ne fais pas semblant J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Jump dans l'bolide, ne fais pas semblant J'vais changer ta vie, let's go Ça c'est pas bon les nyama Imbécile Là les gars, j'suis calé vers là-bas Allez voilà Viens pas faire le Tony Montana Nan Kishta, kishta sinon j'suis pas là C'est fort Ma chérie, faut pas s'fâcher Baby C'est la liberté que j'vais t'achetr I got you Les mauvais jours cachés dans l'allée On préfère agir, on n'aim pas trop parler Jamais Jo-Jo-Jo Ouh Baby, viens là, oh-oh, j'ai la money, j'ai les finances J'ai tout Jump dans l'bolide, ne fais pas semblant Skurt J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Allez voilà Jump dans l'bolide, ne fais pas semblantAllez voilà J'vais changer ta vie, let's get it Baby, j'suis pas Calimero Non, bébé, j'suis pas Calimero Jamais Baby, ton mec, il est zéro Ah, bébé, ton mec, il est zéro Il est zéro C'est les flingueurs donc mets ton numéro Là, c'est fort, donc mets ton numéro Ton mec, il est zéro Ah, bébé, ton mec, il est zéro Ton mec, il est zéro Viens chez les flingueurs, on fait les dineros On fait la monnaie Les James, j'les mets l'flinguer dans Bentley On ira chez Cartier, prends tout, tout c'qui te plaît Opération drago, Jojo, c'était Maï de Gravo Avec elle, t'as flopé, on répare les travaux Bow, bow J'connais mon karaté, Jojo depitcho, erataka té Baby, viens là, oh-oh, j'ai la money, j'ai les finances Bah oui Jump dans l'bolide, ne fais pas semblant Jamais J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Jojo Jump dans l'bolide, ne fais pas semblant Allez voilà J'vais changer ta vie, let's get it Baby, j'suis pas Calimero Non, bébé, j'suis pas Calimero Jamais Baby, ton mec, il est zéro Ah, bébé, ton mec, il est zéro Il est zéro C'est les flingueurs donc mets ton numéro Là, c'est fort, donc mets ton numéro Ton mec, il est zéro Ah, bébé, ton mec, il est zéro Hey, yo, Glitch Yes, sir I like Jack I got you Jojo, I got you Ah, ah, ah, ah, Tom, I got you Ah, ah, Jojo, I got you Yeah, yeah Let's get it</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Guy2Bezbar_songs.xlsx
+++ b/data/02_intermediate/cleaned_Guy2Bezbar_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>La France au rap français</t>
+          <t>Harlem</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Partie I Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Dans les rues d'Paris, t'achètes l'amour Dans les rues d'ma ville, t'achètes la mort J'me d'mande même plus si j'suis une bonne personne Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Partie II Yeah, yeah Potos prennent du cash, potos prennent du ferme J'te parle de bédo, j'te parle de zipette J'te parle de T-MAX, j'te parle de visière J'te parle de kichta, négro, t'es du-per Yeah, yeah, Ah, ah yeah, yeah C'est Coco Jojo, poh J'te parle de T-MAX, j'te parle de visière, eh, poto, dis-leur, que ce n'est plus gang J'te parle de kichta, négro, t'es du-per, eux, c'est les cartouches vides comme bouteilles C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo La Kalash' change ton destin Woh, ah, ah, on t'allume, mec, on t'éteint Woh, hein, hein La Kalash' change ton destin Woh, tchoa, on t'allume, mec, on t'éteint J'suis que dans l'biff' donc plavon, gent-ar Coco, hein, hein, Coco, hein, hein Toujours sse-cla même dans mon tier-quar Eux, c'est la Ligue 1, la voiture à 200, tchoa, tchoa Maintenant, je serre, elle m'appelle le matin, midi, soir, elle peut pas se passer de Coco Jo Jo Tu connais déjà la fin d'l'histoire Tchoa, t'inquiète, j'étais pas méchant Jeune et pétasse dans le carré Oui, j'ai le gamos dur à garer Oui J'ai le billet, j'ai le carré d'as, ils ont les guitares, on a les basses Piou, piou, piou On fait le cash, amigo Mmh, y a pas de matchs amicaux Mmh-mmh J'ai pas de pass Navigo Mmh-mmh, moi, j'ai le quatre sorties dpot Mon bébé veut monter dans l'Urus, veut monter dans lLambo' Mon bébé veut qu'j'la prenne dans les bras, j'ai trop d'couteaux dans l'dos Une puce Lebara, bara et ça crie akha, akha ! Ma pute vient d'Madrid quand elle rit, elle fait que jaja, jaja Elle sait qu'j'suis tressé comme Iverson, que je veux mmh-mmh, mi corazón Que j'ai le hm, hm comme Mike Jackson, que j'ai le mmh-mmh de Mike Tyson C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo Woh, ah, ah Woh, ah, ah, ah, ah, tchoa Woh, tchoa</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Harlem</t>
+          <t>La Calle 4 (Favelas de Paname)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Partie I Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Dans les rues d'Paris, t'achètes l'amour Dans les rues d'ma ville, t'achètes la mort J'me d'mande même plus si j'suis une bonne personne Vitesse, faudrait ralentir, ça va trop vite Vie d'stress, j'ai peur de mourir en voulant trop vivre Partie II Yeah, yeah Potos prennent du cash, potos prennent du ferme J'te parle de bédo, j'te parle de zipette J'te parle de T-MAX, j'te parle de visière J'te parle de kichta, négro, t'es du-per Yeah, yeah, Ah, ah yeah, yeah C'est Coco Jojo, poh J'te parle de T-MAX, j'te parle de visière, eh, poto, dis-leur, que ce n'est plus gang J'te parle de kichta, négro, t'es du-per, eux, c'est les cartouches vides comme bouteilles C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo La Kalash' change ton destin Woh, ah, ah, on t'allume, mec, on t'éteint Woh, hein, hein La Kalash' change ton destin Woh, tchoa, on t'allume, mec, on t'éteint J'suis que dans l'biff' donc plavon, gent-ar Coco, hein, hein, Coco, hein, hein Toujours sse-cla même dans mon tier-quar Eux, c'est la Ligue 1, la voiture à 200, tchoa, tchoa Maintenant, je serre, elle m'appelle le matin, midi, soir, elle peut pas se passer de Coco Jo Jo Tu connais déjà la fin d'l'histoire Tchoa, t'inquiète, j'étais pas méchant Jeune et pétasse dans le carré Oui, j'ai le gamos dur à garer Oui J'ai le billet, j'ai le carré d'as, ils ont les guitares, on a les basses Piou, piou, piou On fait le cash, amigo Mmh, y a pas de matchs amicaux Mmh-mmh J'ai pas de pass Navigo Mmh-mmh, moi, j'ai le quatre sorties dpot Mon bébé veut monter dans l'Urus, veut monter dans lLambo' Mon bébé veut qu'j'la prenne dans les bras, j'ai trop d'couteaux dans l'dos Une puce Lebara, bara et ça crie akha, akha ! Ma pute vient d'Madrid quand elle rit, elle fait que jaja, jaja Elle sait qu'j'suis tressé comme Iverson, que je veux mmh-mmh, mi corazón Que j'ai le hm, hm comme Mike Jackson, que j'ai le mmh-mmh de Mike Tyson C'est fort, c'est fort La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint Woh, poh La Kalash' change ton destin Woh, ouh, on t'allume, mec, on t'éteint C'est Coco Jojo Woh, ah, ah Woh, ah, ah, ah, ah, tchoa Woh, tchoa</t>
+          <t>Shabzbeats Le Coco Jojo depitcho R9, wow, wow Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Brrra Kichta balaise Kichta balaise, ah, jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie My G, my, my, my G Jai tllement cassé la lucarne, jsuis Adriano dans Pro Evolution Soccr 6 Numéro un dans le show biz, on retourne la capi', cest fort Tout le monde le voit, voit, voit Ah, ah, ah, la callé en cur comme les choristes Ça flingue, rahh Autrement dit, entre bandits comme Jimmy Deux Fois, je gère la contre-bande On mapplaudie Clap, clap, clap, là, cest les bandits, que des billets qui rentrent cest Mozart Capitaine Jackson Jsuis la frappe de CR7 Cristiano, quand on encaisse dans le hall, cest la fête La peuf Ça empeste le biff quand jarrive Bah oui, pétasse me suce dans le Range Rover Jviens de la cité, moi, jsuis pas un loveur, cest Mozart, Capitaine, Jackson Five Michael Ennemi, jélimine, y a pas dobstacle Toh, toh, badaboum, badaboum, cest le spectacle Badaboum Je la baise, je la baise, je suis bestial Je la baise comme un acteur porno Cest Mozart, Capitaine, Jackson Five Michael, ennemi, jélimine, y a pas dobstacle Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname, Double Bang Jsuis en bas, jsuis en place dans le cartel Cartel, elle écarte ses bes-j' devant Captaine Bah oui Opinel 12 dans ta gorge Charcle, mes cartouches qui ricochent et te couche Toh, toh Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Bloc Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Ça pue J'vais les taper comme papa qui est fâché Wouh, jfais le tour des cités mais ils se sont tous cachés Ouais Tu crois qucest fini, sale merde, cest Bezbar en vrai, comme dhab', on revient pour tout gâcher Cest fort Jveux retourner la Tour Eiffel Retourner la Tour Eiffel, j'envoie biacths dans le bendo G7 Cest toujours moi qui tire les pénos Ok, ouistiti, on fait la photo sous calibre Han han, han han, han han Billets jaunes, jantes chromées, tes pas dans un film babe, cest les parisiens au feu des Dipset Machette pour la recette, merci beaucoup pour l'écoute, cétait l'dix-huit et le dix-sept Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco JojoBrrra Kichta balaise Kichta balaise, ah jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>La Calle 4 (Favelas de Paname)</t>
+          <t>La callé Part. 2 (Remontada)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Shabzbeats Le Coco Jojo depitcho R9, wow, wow Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Brrra Kichta balaise Kichta balaise, ah, jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie My G, my, my, my G Jai tllement cassé la lucarne, jsuis Adriano dans Pro Evolution Soccr 6 Numéro un dans le show biz, on retourne la capi', cest fort Tout le monde le voit, voit, voit Ah, ah, ah, la callé en cur comme les choristes Ça flingue, rahh Autrement dit, entre bandits comme Jimmy Deux Fois, je gère la contre-bande On mapplaudie Clap, clap, clap, là, cest les bandits, que des billets qui rentrent cest Mozart Capitaine Jackson Jsuis la frappe de CR7 Cristiano, quand on encaisse dans le hall, cest la fête La peuf Ça empeste le biff quand jarrive Bah oui, pétasse me suce dans le Range Rover Jviens de la cité, moi, jsuis pas un loveur, cest Mozart, Capitaine, Jackson Five Michael Ennemi, jélimine, y a pas dobstacle Toh, toh, badaboum, badaboum, cest le spectacle Badaboum Je la baise, je la baise, je suis bestial Je la baise comme un acteur porno Cest Mozart, Capitaine, Jackson Five Michael, ennemi, jélimine, y a pas dobstacle Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname, Double Bang Jsuis en bas, jsuis en place dans le cartel Cartel, elle écarte ses bes-j' devant Captaine Bah oui Opinel 12 dans ta gorge Charcle, mes cartouches qui ricochent et te couche Toh, toh Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Que du cash, que du cash, cest le dicton Largent, Louis Vui', Louis Vuiton Gucci Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Bloc Favelas de Paname plein de rage, je vois rouge, y a les bleus qui ner-tour dans nos blocs Ça pue J'vais les taper comme papa qui est fâché Wouh, jfais le tour des cités mais ils se sont tous cachés Ouais Tu crois qucest fini, sale merde, cest Bezbar en vrai, comme dhab', on revient pour tout gâcher Cest fort Jveux retourner la Tour Eiffel Retourner la Tour Eiffel, j'envoie biacths dans le bendo G7 Cest toujours moi qui tire les pénos Ok, ouistiti, on fait la photo sous calibre Han han, han han, han han Billets jaunes, jantes chromées, tes pas dans un film babe, cest les parisiens au feu des Dipset Machette pour la recette, merci beaucoup pour l'écoute, cétait l'dix-huit et le dix-sept Cest fort, cest fort Quand je tiens le sac, je suis en attaque, jencaisse du papel Favelas de Paname Impliqué en haut, impliqué en bas comme Pablo Escobar Favelas de Paname Elle a senti limpact, senti le biff', elle est revenue direct Favelas de Paname Jsuis dans la rue, dans la rue, dans la rue, les Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Partout ça tire, partout ça tire, partout ça tire Favelas de Paname Boloss mattire, boloss mattire, boloss mattire Favelas de Paname Capitaine et Coco Jojo Double bang, Capitaine et Coco Jojo Ok, ok Capitaine et Coco Jojo Oh wow, Capitaine et Coco Jojo Ça flingue Capitaine et Coco Jojo Ça flingue, Capitaine et Coco Jojo Nous, cest la Ligue 1 Capitaine et Coco Jojo Double bang, Capitaine et Coco JojoBrrra Kichta balaise Kichta balaise, ah jsuis à laise Trop bien Moi, jsuis trop bon comme mon pilon Mon teh, moi, jsuis trop bon comme mon pilon Mon teh Kichta balaise Hun hun, hun hun, ah, jsuis à laise Que dla frappe Moi, jsuis trop bon comme mon pilon Ça flingue, moi, jsuis trop bon comme mon pilon Tchipie, tchipie</t>
+          <t>Hey, hey, hey, c'est Bebeto là Wah, wah, wah Hun, hun, hun, hun, hun, hun ah, ah, ah Hun, hun, hun, hun, hun, hun Hé G2, fais la un peu plus subtile, tu vois c'que j'veux dire ? Monte un peu l', tu vois ? Fais le hun, hun, hun, hun, hun, hun un peu plus calme, tu vois ? En mode Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Remontada comme l'Inter Milan, j'veux voir c'que tu rapportes, on s'en fout qu'tu vendes J'prête du she-ca, j'suis pas sûr qu'on m'rende, mais j'suis sûr d'allumer jusqu'au Pakistan 'stan Ranch han, han, j'm'écoute dans la caisse, j'ai des frissons oh J'suis l'négro qui ressort fuck J'donne de la force comme un bissap Et puisqu'ils m'ont pas tendu la main, pourquoi j'vais faire ami, amigo ? J'ai du style, ma tête fait mouiller les filles biens, j'peux même plus noter numb dans mon bigo Hun, hun, hun, hun, hun, hun, hun, hun Moi, c'est Bebeto wah, faut se lever tôt wah Là-bas, qu'il fait beau wah, jump dans le bateau le bateau Mon cas est , les yeux comme Sur Paris, les tits-pe me voient comme un héro Derrière le poteau, fais partir de l'héro' de l'héro' Hijo de puta toh, ou sors les joujoux mais on joue pas Et ça va pas commencer là-bas brr, viens, ça va commencer ici Et ça va péter péter, péter péter, on fait le taff avant de fêter Mais frime pas avec c'qu'on t'a prêté nan On achète des fringues, gros, des CD brr Hey, hey, hey, hey, hey, c'est Bebeto là rah, rah Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Comme l'Inter Milan Comme l'Inter Milan Jusqu'au Pakistan Comme l'Inter Milan On s'en fout qu'tu vendes J'suis pas sûr qu'on m'rende Jusqu'au Pakistan</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>La callé Part. 2 (Remontada)</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, c'est Bebeto là Wah, wah, wah Hun, hun, hun, hun, hun, hun ah, ah, ah Hun, hun, hun, hun, hun, hun Hé G2, fais la un peu plus subtile, tu vois c'que j'veux dire ? Monte un peu l', tu vois ? Fais le hun, hun, hun, hun, hun, hun un peu plus calme, tu vois ? En mode Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Remontada comme l'Inter Milan, j'veux voir c'que tu rapportes, on s'en fout qu'tu vendes J'prête du she-ca, j'suis pas sûr qu'on m'rende, mais j'suis sûr d'allumer jusqu'au Pakistan 'stan Ranch han, han, j'm'écoute dans la caisse, j'ai des frissons oh J'suis l'négro qui ressort fuck J'donne de la force comme un bissap Et puisqu'ils m'ont pas tendu la main, pourquoi j'vais faire ami, amigo ? J'ai du style, ma tête fait mouiller les filles biens, j'peux même plus noter numb dans mon bigo Hun, hun, hun, hun, hun, hun, hun, hun Moi, c'est Bebeto wah, faut se lever tôt wah Là-bas, qu'il fait beau wah, jump dans le bateau le bateau Mon cas est , les yeux comme Sur Paris, les tits-pe me voient comme un héro Derrière le poteau, fais partir de l'héro' de l'héro' Hijo de puta toh, ou sors les joujoux mais on joue pas Et ça va pas commencer là-bas brr, viens, ça va commencer ici Et ça va péter péter, péter péter, on fait le taff avant de fêter Mais frime pas avec c'qu'on t'a prêté nan On achète des fringues, gros, des CD brr Hey, hey, hey, hey, hey, c'est Bebeto là rah, rah Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Hun, hun, hun, hun, hun, hun, hun, hun Pendant tout l'hiver wah, pendant tout l'été wah Monnaie que l'on fait wah, j'suis pas endetté Comme l'Inter Milan Comme l'Inter Milan Jusqu'au Pakistan Comme l'Inter Milan On s'en fout qu'tu vendes J'suis pas sûr qu'on m'rende Jusqu'au Pakistan</t>
+          <t>Belek Track 2024, y a plus de papel, j'décroche de la vie, normal, j'décroche même plus les appels Elle m'attend au tel-hô, jambes écartées, habillée comme une putana du Cartel Manque de bol, guetteur a pas r'gardé, l'frérot tombe, il s'fait poucave par le tel J'suis avec Guydos, on barode comme des Vatos, appelle si tu veux l'matos La ppe-fra, elle tape plus vite que la muertada, ux ils pourraient dead pour la dose Dmande à mes assoc', on a des poignards, l'équipe est plus nia, on bosse Pour mettre bien la madre mia, qu'elle aille mieux, elle fait des phases Et rien qu'ça whipin' dans ma tête J'dois cogiter, y a la lumière au-dessus d'nous, faut qu'on l'a respecte, faut profiter Ouais Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant Tous les jours, tu t'demandes comment on fait, on félicite biff propre, illicite avec une En gros, j'ai tout coffré La réussite, , c'est mon dernier re-frè On est précis, vise bien, j'élimine poh, poh Deux-cents fils de mmh à taire à peu près Si j'en suis ravi ? Oui, ça me plaît, c'est comme baqueux, ça dezingue à la Play' J'finirai trahi comme Tupac Shakur, OPÉRATION DRAGON, AMBITION, ouais ça court Laisse, on s'en fout dis, c'est la folie C'est fort So Houdi, là, c'est le hoodie Faut du gaz et du pétrole, former les plus p'tits La mental' à Poutine, épargne-moi tes broutilles Là, c'est les cailles-ra t'façon, façon Brooklyn Jojo Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>18 MILES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Belek Track 2024, y a plus de papel, j'décroche de la vie, normal, j'décroche même plus les appels Elle m'attend au tel-hô, jambes écartées, habillée comme une putana du Cartel Manque de bol, guetteur a pas r'gardé, l'frérot tombe, il s'fait poucave par le tel J'suis avec Guydos, on barode comme des Vatos, appelle si tu veux l'matos La ppe-fra, elle tape plus vite que la muertada, ux ils pourraient dead pour la dose Dmande à mes assoc', on a des poignards, l'équipe est plus nia, on bosse Pour mettre bien la madre mia, qu'elle aille mieux, elle fait des phases Et rien qu'ça whipin' dans ma tête J'dois cogiter, y a la lumière au-dessus d'nous, faut qu'on l'a respecte, faut profiter Ouais Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant Tous les jours, tu t'demandes comment on fait, on félicite biff propre, illicite avec une En gros, j'ai tout coffré La réussite, , c'est mon dernier re-frè On est précis, vise bien, j'élimine poh, poh Deux-cents fils de mmh à taire à peu près Si j'en suis ravi ? Oui, ça me plaît, c'est comme baqueux, ça dezingue à la Play' J'finirai trahi comme Tupac Shakur, OPÉRATION DRAGON, AMBITION, ouais ça court Laisse, on s'en fout dis, c'est la folie C'est fort So Houdi, là, c'est le hoodie Faut du gaz et du pétrole, former les plus p'tits La mental' à Poutine, épargne-moi tes broutilles Là, c'est les cailles-ra t'façon, façon Brooklyn Jojo Y aura dégâts, dégâts si tu ramènes des gars d'ta team J'enfile un casque intégral, encore la même, c'est reparti Y aura dégâts, dégâts si tu ramènes des gars d'ta team Ici, y a rien à tter-gra, j'suis un bandolero, j'm'active 'ssant, 'ssant Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant 'ssant, 'ssant, 'ssant J'kiffe ma life, c'est très épanouissant 'ssant J'suis un caméléon comme Lupin, j'ai plusieurs déguisements Puis au sommet Puis au sommet, nous atterrissons 'ssons Ma liasse elle pique, pique, pique comme abeille, pique comme hérisson 'sson, 'sson Montagne de billets d'cent, ça m'parle, c'est très intéressant 'ssant J'monte, ils redescendent, chez eux, y a rien d'enrichissant</t>
+          <t>Han, Han Ouais Woah, wouah Jojo, Jojo, Jojo woah, woah Jojo, Jojo, woah, woah Sku Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo On roule sur le périphérique, magnifique est le cortege magnifiqu sont les rides, nigga Je sais qu'lle pourra jamais s'passer de moi comme Chanel sur l'avenue Montaigne ah ouais c'est moi qui rince, Jojo, Jojo Parisien comme bâtiment haussmannien, j'ai la pure Cocaine J'al la pure cocaine Tu es plombé par la rythme mais j'me sens mieux ailleurs, viens que je t'emmène fly Un simple regard, j'te fume dans l'encart, et non, ça ment pas Avant d'être star, on est dans la street, on vend la coca c'est fort, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigg Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Flingue dans la bijouterie, babe, j'te parfume avec de l'oseille j'te parfume avec ma money J'motive la team à frôler ce putain d'million, voir en grand comme Ricky Rosey Proche autant que tu le pourras, ne te perds pas dans cette sphère Prends tout ce qu'il y a à prendre Prends tout Tout n'est pas éternel Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18 MILES</t>
+          <t>1 à 10 (RedBull sur mesure)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Han, Han Ouais Woah, wouah Jojo, Jojo, Jojo woah, woah Jojo, Jojo, woah, woah Sku Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo On roule sur le périphérique, magnifique est le cortege magnifiqu sont les rides, nigga Je sais qu'lle pourra jamais s'passer de moi comme Chanel sur l'avenue Montaigne ah ouais c'est moi qui rince, Jojo, Jojo Parisien comme bâtiment haussmannien, j'ai la pure Cocaine J'al la pure cocaine Tu es plombé par la rythme mais j'me sens mieux ailleurs, viens que je t'emmène fly Un simple regard, j'te fume dans l'encart, et non, ça ment pas Avant d'être star, on est dans la street, on vend la coca c'est fort, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigg Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Flingue dans la bijouterie, babe, j'te parfume avec de l'oseille j'te parfume avec ma money J'motive la team à frôler ce putain d'million, voir en grand comme Ricky Rosey Proche autant que tu le pourras, ne te perds pas dans cette sphère Prends tout ce qu'il y a à prendre Prends tout Tout n'est pas éternel Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo Souhaite longue vie au gang, on se rajoute du champagne On se rajoute du champ' nigga Que les billets pleuvent de monday jusqu'à sunday Elle veut que je consacre plus de time, c'est le bordel fais ça fast babe, babe On vie cette putain d'vie, passionnante et mortelle Jojo, Jojo, Jojo, Jojo, Jojo</t>
+          <t>Papito cha' Hey On a la drogue, le cash et les armes Han Anakin Ouh J'ai un putain d'flow, un putain d'flingue Ouh, tu n'as qu'une seule vie, tu n'as aucune chance J'ai un putain d'flow, un putain d'flingue, tu n'as qu'une seule vie, tu n'as aucune chance Nan, nan, nan G2, G2, G2, on ira tous les chercher chez eux Ouh T'appelles 22, j'suis déjà dans les airs, comme Félix, j'benda en deux-deux Benda Boum, boum, boum, boum Boum, dans la voiture, on est trois Boum, boum On dirait qu'j'habite à Détroit, trois points, Jordan, numéro vingt-trois Switch, eh-eh La Cadi-Cadillac, 4x4 4x4, les aider ces bâtards ? J'préfère qu'on m'enterre Skrt, skrt, skrt Aller vers Rotterdam avec madame, j'fais cracher la bae Ouh, go, go C'est Jackson 5, dans mon moteur, des chevaux, y en a cinq-cents Rostah Des défenseurs, j'en mets cinq pour dégoûter ton dégoutter ton vieil attaquant Ah-ah Hey, maman qui voit Coco sur M6 Coco, toi, tu forces trop et rien qu't'insistes 'sistes Remballe ta mère, ta vieille dope et ton flow qui pue la pisse Qui pue Code 1.8.7, 1.7 mais pas les schmitts, ça vend du shit tous les sept mètres J'peux poser sept points sur ta tête Sept points sur ta tête Et tranquille, nous, c'est 18, 18, après le mauvais temps, viendra le caviar Okay Et sans doute, les huîtres Okay, sur Paris Okay, les balades en R8 Okay, han Sur Paris, les balades en RR Skrt, Rolex RR, j'les amende et y a R Vont tous rien faire, que des comédiens, j'les invite à prendre la fuite Merci Devant les buts, je suis R9 Neuf, tu sais que mon cur n'est plus tout neuf Baw On a grandi que dans les bad news Rostah, neuf meufs dans mon bedroom Neuf, han Porsche 911, t'es pas Fifty j'te mets neuf balles, t'es mort Tou-tou-tou-tou-tou-tou-touah T'entends ? Baw T'es pas Fifty Baw j'te mets neuf balles, t'es mort Baw Y a ceux qui font la guerre, ceux qui sont peace, y a ceux qui sur le corner vendent des dix Dix Solides et puissants, les chaînes, on les brise Han-han, han-han, han-han Tu sais bien, la calle porte numéro dix Baw 1.7 Un, 1.8 1.8, 1.7 Sept, 1.8 Ouais, va là-bas 1.7, 1.8 1.8, 1.7 Sept, 1.8 C'est fort, ouh-ouh 1.7 Ça flingue, 1.8 Uh-uh, 1.7, 1.8 Gra-gra-gra-grah 1.7, 1.8 Calle, calle là, 1.7 Brr, brr, 1.8 C'est Porte de Saint-Ouen, là</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1 à 10 (RedBull sur mesure)</t>
+          <t>3X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Papito cha' Hey On a la drogue, le cash et les armes Han Anakin Ouh J'ai un putain d'flow, un putain d'flingue Ouh, tu n'as qu'une seule vie, tu n'as aucune chance J'ai un putain d'flow, un putain d'flingue, tu n'as qu'une seule vie, tu n'as aucune chance Nan, nan, nan G2, G2, G2, on ira tous les chercher chez eux Ouh T'appelles 22, j'suis déjà dans les airs, comme Félix, j'benda en deux-deux Benda Boum, boum, boum, boum Boum, dans la voiture, on est trois Boum, boum On dirait qu'j'habite à Détroit, trois points, Jordan, numéro vingt-trois Switch, eh-eh La Cadi-Cadillac, 4x4 4x4, les aider ces bâtards ? J'préfère qu'on m'enterre Skrt, skrt, skrt Aller vers Rotterdam avec madame, j'fais cracher la bae Ouh, go, go C'est Jackson 5, dans mon moteur, des chevaux, y en a cinq-cents Rostah Des défenseurs, j'en mets cinq pour dégoûter ton dégoutter ton vieil attaquant Ah-ah Hey, maman qui voit Coco sur M6 Coco, toi, tu forces trop et rien qu't'insistes 'sistes Remballe ta mère, ta vieille dope et ton flow qui pue la pisse Qui pue Code 1.8.7, 1.7 mais pas les schmitts, ça vend du shit tous les sept mètres J'peux poser sept points sur ta tête Sept points sur ta tête Et tranquille, nous, c'est 18, 18, après le mauvais temps, viendra le caviar Okay Et sans doute, les huîtres Okay, sur Paris Okay, les balades en R8 Okay, han Sur Paris, les balades en RR Skrt, Rolex RR, j'les amende et y a R Vont tous rien faire, que des comédiens, j'les invite à prendre la fuite Merci Devant les buts, je suis R9 Neuf, tu sais que mon cur n'est plus tout neuf Baw On a grandi que dans les bad news Rostah, neuf meufs dans mon bedroom Neuf, han Porsche 911, t'es pas Fifty j'te mets neuf balles, t'es mort Tou-tou-tou-tou-tou-tou-touah T'entends ? Baw T'es pas Fifty Baw j'te mets neuf balles, t'es mort Baw Y a ceux qui font la guerre, ceux qui sont peace, y a ceux qui sur le corner vendent des dix Dix Solides et puissants, les chaînes, on les brise Han-han, han-han, han-han Tu sais bien, la calle porte numéro dix Baw 1.7 Un, 1.8 1.8, 1.7 Sept, 1.8 Ouais, va là-bas 1.7, 1.8 1.8, 1.7 Sept, 1.8 C'est fort, ouh-ouh 1.7 Ça flingue, 1.8 Uh-uh, 1.7, 1.8 Gra-gra-gra-grah 1.7, 1.8 Calle, calle là, 1.7 Brr, brr, 1.8 C'est Porte de Saint-Ouen, là</t>
+          <t>Le Coco Jojo On retourne la capi', tout l'monde le voit Jojo, voit, voit, voit Jojo, Jojo, ouais La pussy m'aime, j'suis dans le trafic, j'finis cul sec et puis, ça pique trop Oh Les liasses dansent la macarena Grr, le guetteur nous dit Arthéna Qu'est-ce qu'ils vont faire à part pénave ? C'est des ah Coco Jojo Bitchies, eh, cotana, Mazera'-ra' Arrête tes bêtises, han, j'bombarde à cent à l'heure, j'arrive vers Marais J'vais ramener le trophée comme Mahrez, ell pé-pom, elle pé-pom, ça m'apaise L cocon, le pe-pom est balaise, pas pitié, pour les suceurs, j'ai pas d'pitié Grr, rah Oh, elle suce, d'mande à Chief Keef Ah-ah, on t'a juste maladixius Pour les flinguer, c'est par là, toi t'as vert Venezuela Bâtard, bâtard, bâtard, bâtard, mets le pare-balles Pah Tu vois pas qu'c'est chaud ou quoi dehors ? Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh, hey gros J'ai fait des bébés dans l'rap jeu mais c'est pas ceux qu'j'ai placé chez la nourrice Opinel 12 et une arme à feu, au cas où ça vient me prendre pour un touriste Shoo, shoo, shoo J'effacerai sec ton prix, j'suis l'GOAT, téflon en militaire full, j'suis l'GOAT R.I.P Cookies, c'était un bon J'connais pourris comme Alpha Lima Pedro, Miguel Pauleta, la voiture est pée-ta, la tiper est gainée Tiper est gainée Nuebe quatro uno ocho, De Pitcho, R9, Ronaldinho, Gaúcho Elle m'a d'jà vu sous les projos, elle m'voit jamais sur les réseaux, elle m'dit Lima, t'es un baisé Ça débite, ça débite, ça débite, million d'euros suffit pas pour aider toute la famille Ça débite, ça débite, ça débite, j'les fait flipper, ça les arrange de dire qu'j'suis un crâneur Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3X</t>
+          <t>4Life</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Le Coco Jojo On retourne la capi', tout l'monde le voit Jojo, voit, voit, voit Jojo, Jojo, ouais La pussy m'aime, j'suis dans le trafic, j'finis cul sec et puis, ça pique trop Oh Les liasses dansent la macarena Grr, le guetteur nous dit Arthéna Qu'est-ce qu'ils vont faire à part pénave ? C'est des ah Coco Jojo Bitchies, eh, cotana, Mazera'-ra' Arrête tes bêtises, han, j'bombarde à cent à l'heure, j'arrive vers Marais J'vais ramener le trophée comme Mahrez, ell pé-pom, elle pé-pom, ça m'apaise L cocon, le pe-pom est balaise, pas pitié, pour les suceurs, j'ai pas d'pitié Grr, rah Oh, elle suce, d'mande à Chief Keef Ah-ah, on t'a juste maladixius Pour les flinguer, c'est par là, toi t'as vert Venezuela Bâtard, bâtard, bâtard, bâtard, mets le pare-balles Pah Tu vois pas qu'c'est chaud ou quoi dehors ? Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh, hey gros J'ai fait des bébés dans l'rap jeu mais c'est pas ceux qu'j'ai placé chez la nourrice Opinel 12 et une arme à feu, au cas où ça vient me prendre pour un touriste Shoo, shoo, shoo J'effacerai sec ton prix, j'suis l'GOAT, téflon en militaire full, j'suis l'GOAT R.I.P Cookies, c'était un bon J'connais pourris comme Alpha Lima Pedro, Miguel Pauleta, la voiture est pée-ta, la tiper est gainée Tiper est gainée Nuebe quatro uno ocho, De Pitcho, R9, Ronaldinho, Gaúcho Elle m'a d'jà vu sous les projos, elle m'voit jamais sur les réseaux, elle m'dit Lima, t'es un baisé Ça débite, ça débite, ça débite, million d'euros suffit pas pour aider toute la famille Ça débite, ça débite, ça débite, j'les fait flipper, ça les arrange de dire qu'j'suis un crâneur Mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh Dans la ville en gamos, pétard C'est Coco Jojo, mmh-mmh, mmh-mmh Trois fois filtré sur mon pétard Ça flingue, mmh-mmh, mmh-mmh, okay Suce-moi la bite, il fait tard MG, moteur full, mmh-mmh, mmh-mmh On est deux sur la bécane Mmh-mmh, mmh-mmh</t>
+          <t>Jo-Jojo AWA the mafia, my n J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie C'est fort J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus qu ça, my love Coco Je sais Je sais, qu tu sais Que tu sais, donc nous Nous savons, on se sait De Monday Lundi à Sunday Dimanche à fiesta Nous faisons, les 4 poches, bien pleines Balaise Toutes les toute la saisons ODF Prince Jojo Coco, anti fake et flocko Okay J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie You know, you know, you know J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh Tu restes sans arrêt dans ma tête Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh, Jojo Je sais même plus pourquoi je fête, mais fuck Tequila, j'en n'aurai pas marre d'cette vie-là Jamais Non-stop, juste moi et le gang on fait le job job, job Non-stop, juste moi et toi, baby, loin des opps non-stop J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Hahaha, on fait ça, my G C'est fort, c'est Kore Let's go, pour la vida Garde bien plus Garde-moi ça Billets billets violets violets, toute l'année</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4Life</t>
+          <t>77% (SOS)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jo-Jojo AWA the mafia, my n J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie C'est fort J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus qu ça, my love Coco Je sais Je sais, qu tu sais Que tu sais, donc nous Nous savons, on se sait De Monday Lundi à Sunday Dimanche à fiesta Nous faisons, les 4 poches, bien pleines Balaise Toutes les toute la saisons ODF Prince Jojo Coco, anti fake et flocko Okay J'envoie les billets billets violets, toute l'année J'm'arrête pas de compter J'pense à toi, tu sais quand nous c'est pour la vie You know, you know, you know J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh Tu restes sans arrêt dans ma tête Tu penses à moi quand tu danses avec lui, je pense à toi quand je danse avec elle Eh, eh, eh, eh, Jojo Je sais même plus pourquoi je fête, mais fuck Tequila, j'en n'aurai pas marre d'cette vie-là Jamais Non-stop, juste moi et le gang on fait le job job, job Non-stop, juste moi et toi, baby, loin des opps non-stop J'envoie les billets billets violets violets, toute l'année On fait ça J'm'arrête pas de compter, croquer toute la nuit toute la night J'pense à toi, tu sais quand nous c'est pour la vie On fait ça Plus qu'un moment de faire un live Bien plus, bien plus que ça, my love Hahaha, on fait ça, my G C'est fort, c'est Kore Let's go, pour la vida Garde bien plus Garde-moi ça Billets billets violets violets, toute l'année</t>
+          <t>Oh my god Ouh hein, hein, hein, hein hein, hein, c'est ton gars Coco Jojo, 404 J'sais qu'ils m'aiment pas mais j'me gare devant eux, ces fils de, flingueurs, sur Champs-Élysées qu'on s'coiffe flingue Depuis qu'on est là, pas de flop, flop nan, j'envoie texto fort, mange au resto han J'gare la Tesla frais, j'fume un joint, joint, joint, couleur pesto kush Et hop, hop, hop, majeur en l'air comme ses jambes ah, han, fuck les cops, cops, cops han En pétard, en pétard, en pétard, en pétard comme Ivar le Désossé violnt, avec que des OG's qu'on s'associ Hein-hein, hein-hein, hein ah, ah, hein-hein-hein, hein-hein-hein On va casser la bouteille sur ta tête, enfoiré pah, t'as l'air un peu trop costaud t'as l'air un peu trop costaud, ouh, ouh T'as l'air un peu trop costaud, tout l'monde sait bien que partout, j'ai riposté brrah J'en ai fait dormir à l'hosto pah, on faisait peur à tous ceux qu'tu détestais ah, ah, ah, ah Mythic ou my G, c'est ton gars Coco Jojo Jo et 404 quatre Grosse réunion flingueur ici pah, quand on tire, on vise pas les pattes mmh, mmh Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh On rêve de Rolls Royce, de VVS VVS, la peau d'leurs culs sous mes BBS ouh, ouh Tu dis qu'tu nous connais, on dit Qui est-ce ?, fais pas trop l'fan, j'suis pas BTS non, non On connaît pas l'bénévolat, G, c'est comment ? C'est comment my G ? J'arrive à Bezbar oui, on leur laisse aucun espoir hey, hey, Guy, c'est comment ? Flex comme Weezy ou Jeezy, marathonien comme Nipsey, oui, oui Moi, j'oublie rien, c'est physique, ici hey, on m'a fouetté dans l'Mississipi Vas-y, gare-toi d'vant eux, G vroum, vroum, j'encule les envieux, gros, j'encule les envieux j'encule les envieux, gros On encule les envieux on encule les envieux, hey, hey, hey, le bruit d'la mort sort d'un silencieux piou, piou, piou Et ça fait plaisir comme le sang d'un keuf eh, eh, elle veut l'resto, j'l'emmène au 129 fort Salope, choisis ton cheese choisis ton cheese, salope, choisis ton cheese ton cheese Je sais qu'le pain attire les mouettes hein, au studio, p'tite bouteille de Moët han, han On flingue, il n'y aura pas d'SOS non, non, on flingue, il n'y aura pas d'SOS non, non Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>77% (SOS)</t>
+          <t>ADN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Oh my god Ouh hein, hein, hein, hein hein, hein, c'est ton gars Coco Jojo, 404 J'sais qu'ils m'aiment pas mais j'me gare devant eux, ces fils de, flingueurs, sur Champs-Élysées qu'on s'coiffe flingue Depuis qu'on est là, pas de flop, flop nan, j'envoie texto fort, mange au resto han J'gare la Tesla frais, j'fume un joint, joint, joint, couleur pesto kush Et hop, hop, hop, majeur en l'air comme ses jambes ah, han, fuck les cops, cops, cops han En pétard, en pétard, en pétard, en pétard comme Ivar le Désossé violnt, avec que des OG's qu'on s'associ Hein-hein, hein-hein, hein ah, ah, hein-hein-hein, hein-hein-hein On va casser la bouteille sur ta tête, enfoiré pah, t'as l'air un peu trop costaud t'as l'air un peu trop costaud, ouh, ouh T'as l'air un peu trop costaud, tout l'monde sait bien que partout, j'ai riposté brrah J'en ai fait dormir à l'hosto pah, on faisait peur à tous ceux qu'tu détestais ah, ah, ah, ah Mythic ou my G, c'est ton gars Coco Jojo Jo et 404 quatre Grosse réunion flingueur ici pah, quand on tire, on vise pas les pattes mmh, mmh Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh On rêve de Rolls Royce, de VVS VVS, la peau d'leurs culs sous mes BBS ouh, ouh Tu dis qu'tu nous connais, on dit Qui est-ce ?, fais pas trop l'fan, j'suis pas BTS non, non On connaît pas l'bénévolat, G, c'est comment ? C'est comment my G ? J'arrive à Bezbar oui, on leur laisse aucun espoir hey, hey, Guy, c'est comment ? Flex comme Weezy ou Jeezy, marathonien comme Nipsey, oui, oui Moi, j'oublie rien, c'est physique, ici hey, on m'a fouetté dans l'Mississipi Vas-y, gare-toi d'vant eux, G vroum, vroum, j'encule les envieux, gros, j'encule les envieux j'encule les envieux, gros On encule les envieux on encule les envieux, hey, hey, hey, le bruit d'la mort sort d'un silencieux piou, piou, piou Et ça fait plaisir comme le sang d'un keuf eh, eh, elle veut l'resto, j'l'emmène au 129 fort Salope, choisis ton cheese choisis ton cheese, salope, choisis ton cheese ton cheese Je sais qu'le pain attire les mouettes hein, au studio, p'tite bouteille de Moët han, han On flingue, il n'y aura pas d'SOS non, non, on flingue, il n'y aura pas d'SOS non, non Quand j'aurais plus rien à gratter dans les rues, c'est que j'aurais fait le maximum d'oseille mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Si t'es réglo, tu finiras p't-être déçu, les soucis font que j'peux pas trouver le sommeil mmh, mmh, mmh, mmh, mmh, mmh, mmh, mmh Han, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Ah, tu cherches quoi ? Tu v'-esqui, t'attends quoi d'nous ? Mmh, mmh, mmh, mmh Elle té-ma l'attitude, elle veut que j'lui mette son coup mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh</t>
+          <t>Chek my G, t'es mort direct Wouh J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh J'ai flow américain, ils ont la boca J'ai hant' comme un pélican sans vie de délinquant Refait sa pédicure, pété dans la voiture J'écoute du Guapa à fond dans mes deux tympans Tu sais que j'ai du répondant Équipe de bâtards, j'sais pas c'que c'est d'être perdant C'est tout pour le gang, tout pour mon Wu-Tang Tu sais pour nous tout baigne quand j'envoie les bouteilles Le boss d'Avenue Montaigne, Coco c'est que d'la pure cocaine Le bras long de Dalsim est costaud comme Popeye Le retour des flingueurs, j'ai repris le totem Non ça va pas l'faire, eh poto là, ça va pas l'faire J'te menace, tu parles pas comme si j't'étais ton grand frère C'est comme ça qu'ça s'passe mais c'est tout J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Opération dragon c'est pas pour les minots J'représente les bavons, j'représente les bavons Man, c'est plié d'office Y'a que des fils mais reste 2-3 gravons Chek, nous c'est vraiment pas pareil qu'eux Ils passent leur time à sucer des queues On s'est fait tout seul, t'as trop l'seum Et ça fait plais' qu'on fasse plus la queue Partout on part, partout où j'mets les pieds Partout on flingue, on nous regarde j't'aime dans le car Eux c'est pas mérité en vrai ça schlingue J'propose des bâtards gros t'es malin Avant de décoller je suis dans le business lounge Han-han et jatterris, Range J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Ah-ah-ah, que pour les mecs stylés my g C'est ton gars Coco Jojo, papito charme On ramène la drogue, le cash et les armes Huh Huh Jojo, Jojo, Jojo</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ADN</t>
+          <t>AMBITION</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chek my G, t'es mort direct Wouh J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh J'ai flow américain, ils ont la boca J'ai hant' comme un pélican sans vie de délinquant Refait sa pédicure, pété dans la voiture J'écoute du Guapa à fond dans mes deux tympans Tu sais que j'ai du répondant Équipe de bâtards, j'sais pas c'que c'est d'être perdant C'est tout pour le gang, tout pour mon Wu-Tang Tu sais pour nous tout baigne quand j'envoie les bouteilles Le boss d'Avenue Montaigne, Coco c'est que d'la pure cocaine Le bras long de Dalsim est costaud comme Popeye Le retour des flingueurs, j'ai repris le totem Non ça va pas l'faire, eh poto là, ça va pas l'faire J'te menace, tu parles pas comme si j't'étais ton grand frère C'est comme ça qu'ça s'passe mais c'est tout J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Opération dragon c'est pas pour les minots J'représente les bavons, j'représente les bavons Man, c'est plié d'office Y'a que des fils mais reste 2-3 gravons Chek, nous c'est vraiment pas pareil qu'eux Ils passent leur time à sucer des queues On s'est fait tout seul, t'as trop l'seum Et ça fait plais' qu'on fasse plus la queue Partout on part, partout où j'mets les pieds Partout on flingue, on nous regarde j't'aime dans le car Eux c'est pas mérité en vrai ça schlingue J'propose des bâtards gros t'es malin Avant de décoller je suis dans le business lounge Han-han et jatterris, Range J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM J'ai du sang de vainqueur dans lADN J'ai du sang de flingueur dans lADN J'ai du sang de leader dans lADN Cocktail, liqueur dans la BM Touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Jai dit follow ma belle, jai kichta en balle eh J'ai dit touchdown, on leur attrape la balle Le monde est à nous, on s'en bas les- Follow ma belle, jai kichta en balle eh Ah-ah-ah, que pour les mecs stylés my g C'est ton gars Coco Jojo, papito charme On ramène la drogue, le cash et les armes Huh Huh Jojo, Jojo, Jojo</t>
+          <t>JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Je n'sait que faire apart wiping wiping wiping vi-ser la coca Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de lvel up J'ai souvent pris les mauvais dcision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider Rien qui parle pour rien, rien qui parle pour rien C que des vaus rien qui vale pas ........ Chui sur le terrain rien qu'on casse des rains Que j'encaisse les qu'un c la big league un On vas pas terra ca c dans t'es reve J vais courir sera sur tous qui m'ennerve On vas nique t'as race si jamais je pers la vus ton coeur on t' arache Je fait tous qui me plais je fait tout ce qui m'arrange Pas un bell homme si tu fait pas aun bell homme comme moi j'arrive ganter tout en quechua On est pas plus que dix dix pendent le convois JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMBITION</t>
+          <t>American Gangster</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Je n'sait que faire apart wiping wiping wiping vi-ser la coca Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de lvel up J'ai souvent pris les mauvais dcision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider Rien qui parle pour rien, rien qui parle pour rien C que des vaus rien qui vale pas ........ Chui sur le terrain rien qu'on casse des rains Que j'encaisse les qu'un c la big league un On vas pas terra ca c dans t'es reve J vais courir sera sur tous qui m'ennerve On vas nique t'as race si jamais je pers la vus ton coeur on t' arache Je fait tous qui me plais je fait tout ce qui m'arrange Pas un bell homme si tu fait pas aun bell homme comme moi j'arrive ganter tout en quechua On est pas plus que dix dix pendent le convois JOJOO Et tout les negr qui sont dans leur coco n'arret pas de level up On continue de ride ride ride on n'arret pas de level up J'ai souvent pris les mauvais decision je ne sait que faire apart viser la boca Bhen poto dit moi c que pour l'oseil qu'on fait ca fait ca Coco c la guitare de jhonny holliday O negr t'as pas idee Tout la cailer ma valider Ces pas les gens qui mon guider Personne pour moi n'a decider</t>
+          <t>Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vint Son booty fait vay vay vay Elle sait que j'ai la vibe, vib, vibes Avant qu'on minterpelle, j'suis déjà parti Renseigne-toi bien sur le gang On naime pas les playboy au quartier J'aurais pu m'en aller loin dici Mais bon, jsuis toujours au quartier J'aurais pu men aller loin d'ici Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Tu penses à quoi quand tu penses à moi? Faut que jrentre dans ton rêve et te prenne en doogie style Tu demandes comment on fait C'est le paquet d'oseille qui nous donne le smile Cinq étoiles, gamos étoilé la vie de Jojo On shine, on a toujours du style Donc elle a le booty qui fait vay vay vay, vay vay vay Eeeeh On presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, c'est rempli dimposteurs Woh, woh, woh, woh, woh American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Avant quon m'interpelle, jsuis déjà parti</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>American Gangster</t>
+          <t>A.P</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vint Son booty fait vay vay vay Elle sait que j'ai la vibe, vib, vibes Avant qu'on minterpelle, j'suis déjà parti Renseigne-toi bien sur le gang On naime pas les playboy au quartier J'aurais pu m'en aller loin dici Mais bon, jsuis toujours au quartier J'aurais pu men aller loin d'ici Presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, cest rempli d'imposteurs American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Tu penses à quoi quand tu penses à moi? Faut que jrentre dans ton rêve et te prenne en doogie style Tu demandes comment on fait C'est le paquet d'oseille qui nous donne le smile Cinq étoiles, gamos étoilé la vie de Jojo On shine, on a toujours du style Donc elle a le booty qui fait vay vay vay, vay vay vay Eeeeh On presse la détente en mode American Gangster Jai le charme du ghetto donc elle pense à moi tous les jours J'ai déjà fait le tour, c'est rempli dimposteurs Woh, woh, woh, woh, woh American Gangster Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Bye bye bye Ma money fait des va et va et vient Son booty fait vay vay vay Elle sait que j'ai la vibe, vibe, vibes Avant quon m'interpelle, jsuis déjà parti</t>
+          <t>De ma vie t'es fascinée J'ai pris les gun mais envoie les fleurs C'est pour ma dulciné Être le meilleur, affronter mes peurs C'est bien pour ça qu'j'suis né J'veux mon oseille en temps et en heure Sinon tu finis calciné Sinon tu finis calciné Attends, attends, attends, my G, pas si vite Écoute un peu la merveille que Ritchie m'a faite C'est ton putain d'boss à coco, Jojo Tu sais déjà comment ça s'passe, c'est toujours OTF Only the flingueurs, OTF Only the family, a vision, practice J'ai les flingueurs, pas de cinéma Louis Vuitton, Marni, Prada Dans le dressing, my G, j'sais pas c'que j'ai pas Shut the fuck up, j'ai déjà tout, tout Des barres à Harlem, bad boy KO porte flingue comme cow-boy Parce que portefeuille prend trop d'place de la guerre Moi j'ai jamais ras-le-bol Ah, ah, ah, only la big fa-fa Que ça bara bara, parking info, 3-4, fé-fé Ah, ah, ah, toujours dans les fa-fa Tu crois qu'j'ai intérêt Parce que j'compte finir, jéfé Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Let's go I need you, baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, j'vais sur les miens comme Jamie Qu'en penses-tu ma baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing Ouais, dans la tchème et les bâtards veulent que j'passe inaperçu comme Michael Owen Écoutez c'qu'ils racontent, j'préfère me fonce-der au champi et chanter la bohème C'est pas qu'j'suis égoïste mais d'où je sors, j'pourrais pas finir deuxième C'est comme si j'étais en altitude, quand je parle j'suis toujours un peu dans l'extrême Avec charisme et attitude que j'ai mes fins à tous les dilemmes C'est coco Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Oh ouais I need you, baby, baby Viens vers moi, l'heure est sur ma AP I want you, baby Mais j'suis dans la tess, j'mets sur les miens comme Jamie Propose-tu ma baby, baby Viens vers moi, l'heure est ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A.P</t>
+          <t>Baltimore</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>De ma vie t'es fascinée J'ai pris les gun mais envoie les fleurs C'est pour ma dulciné Être le meilleur, affronter mes peurs C'est bien pour ça qu'j'suis né J'veux mon oseille en temps et en heure Sinon tu finis calciné Sinon tu finis calciné Attends, attends, attends, my G, pas si vite Écoute un peu la merveille que Ritchie m'a faite C'est ton putain d'boss à coco, Jojo Tu sais déjà comment ça s'passe, c'est toujours OTF Only the flingueurs, OTF Only the family, a vision, practice J'ai les flingueurs, pas de cinéma Louis Vuitton, Marni, Prada Dans le dressing, my G, j'sais pas c'que j'ai pas Shut the fuck up, j'ai déjà tout, tout Des barres à Harlem, bad boy KO porte flingue comme cow-boy Parce que portefeuille prend trop d'place de la guerre Moi j'ai jamais ras-le-bol Ah, ah, ah, only la big fa-fa Que ça bara bara, parking info, 3-4, fé-fé Ah, ah, ah, toujours dans les fa-fa Tu crois qu'j'ai intérêt Parce que j'compte finir, jéfé Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Let's go I need you, baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, j'vais sur les miens comme Jamie Qu'en penses-tu ma baby, baby Viens vers moi, le reste sur ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing Ouais, dans la tchème et les bâtards veulent que j'passe inaperçu comme Michael Owen Écoutez c'qu'ils racontent, j'préfère me fonce-der au champi et chanter la bohème C'est pas qu'j'suis égoïste mais d'où je sors, j'pourrais pas finir deuxième C'est comme si j'étais en altitude, quand je parle j'suis toujours un peu dans l'extrême Avec charisme et attitude que j'ai mes fins à tous les dilemmes C'est coco Big money comme big mitch, on paye et on s'casse Assieds-toi sur ma dick bitch, je sais que ten rêve Big money comme big mitch, on paye et on s'casse On propose tout sous toute force, let's go Oh ouais I need you, baby, baby Viens vers moi, l'heure est sur ma AP I want you, baby Mais j'suis dans la tess, j'mets sur les miens comme Jamie Propose-tu ma baby, baby Viens vers moi, l'heure est ma AP I want you, baby Mais j'suis dans la tess, c'est violent comme dans Beijing</t>
+          <t>I-Icarios Ah, ah, ah, ah Make it again Éteignez tout mais vraiment tout, beaucoup d'ripoux qui nous écoutent Pour tout voyou, pour tous voyou, sous num d'écrou, ça part en couille, ça part en foule, perds pas tes couilles si il pleut des douilles, pah, pah Solo, j'les baise, Guy2bez', beaucoup d'gens derrière moi J'prends des t-oph', cramé dans l'RS3, j'ai pardonné mais c'est la dernière fois Ils me demandèrent Qui suis-je ? et ce qu'on a fait Comment on a fait mais j'ai rien dit, en effet Baltimore Rrr, binks On vit dans l'trafic de coca' et touts les pédales sont choquées, vins faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer des boca Baltimore Han, Baltimore Han, flingue, han, Jojo, han, Jojo On a repris les commandes depuis qu'les humains croyaient qu'on était rassasiés Han, c'est fort, awa Vroum, vroum, soulève la bécane, nous, c'est Paris Ouais, y a qu'aux vrais O.G qu'on rendra la pareille, eh J'm'arrête pas de compter, j'mets sur le côté qu'on finisse en beauté T'es-t'es qu'un sale bâtard, on prends pas tes patins, jeune incapable On m'appelle Mbata, nous, c'est la Ligue 1, la voiture à 200 J'm'arrête pas quand j'me laisse emporter, c'est que maintenant qu'ils viennent nous accoster On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle, pah, pah Ne dis jamais qu'c'est impossible, ne dis jamais qu'c'est impossible Té-ma les plugs Tiens ta go, on vise à la chance, tiens ta go, on vise à la gencive C'est important Ah, changer d'pourboire, en partant Ouais Si j'suis pas convié dans la party Hein ? Flinguage à bout portant Wouh Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Fuck un corps-à-corps Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Rrr, binks Baltimore, c'est chez nous, serein comme McGregor Serein comme McGregor Baltimore, c'est chez nous Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore Han, Baltimore J'vois les p'tits, en i sur l'allée comme à Balti' Tellement d'neige au tier-quar qu'on patine, transactions rapides dans un parking J'suis pas serein, c'matin, j'dors que d'un il comme tous les mardi Sur l'terrain, j'fais oublier l'titulaire, Mauro Icardi Rrr, binks Car cellulaire, serrés comme des sardines, moi qui m'voyais comme un requin J'f'rais des millions avec des centimes, ça, c'est mon côté marocain Liasse colorée comme Arlequin, j'enfile les gants pour déguster J'ai grave soif de vengeance, donc si tu m'vises, faut bien m'ajuster Rrr, binks Vainqueur solide car jeu musclé, tu fais qu'aboyer, sale chien muselé Elle était tellement flinguée, j'm'en rappelle même plus qui m'a dépucelé Ça t'soulève dès l'sbah, du N.V.R à Bezbar Depuis l'départ, on est déter', fais un écart, j'fais l'nécessaire Baltimore La calle, c'est risqué, y a celui qui s'noie, celui qui prend l'eau Toute la zone est pistée, les pes-tu' on l'barreau, ils vont s'branler J'suis rempli d'projets dans la tête, c'est pas l'moment Faut plus d'aliments dans l'assiette, tu vois comment ? Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore han, Baltimore</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Baltimore</t>
+          <t>Barrio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>I-Icarios Ah, ah, ah, ah Make it again Éteignez tout mais vraiment tout, beaucoup d'ripoux qui nous écoutent Pour tout voyou, pour tous voyou, sous num d'écrou, ça part en couille, ça part en foule, perds pas tes couilles si il pleut des douilles, pah, pah Solo, j'les baise, Guy2bez', beaucoup d'gens derrière moi J'prends des t-oph', cramé dans l'RS3, j'ai pardonné mais c'est la dernière fois Ils me demandèrent Qui suis-je ? et ce qu'on a fait Comment on a fait mais j'ai rien dit, en effet Baltimore Rrr, binks On vit dans l'trafic de coca' et touts les pédales sont choquées, vins faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer des boca Baltimore Han, Baltimore Han, flingue, han, Jojo, han, Jojo On a repris les commandes depuis qu'les humains croyaient qu'on était rassasiés Han, c'est fort, awa Vroum, vroum, soulève la bécane, nous, c'est Paris Ouais, y a qu'aux vrais O.G qu'on rendra la pareille, eh J'm'arrête pas de compter, j'mets sur le côté qu'on finisse en beauté T'es-t'es qu'un sale bâtard, on prends pas tes patins, jeune incapable On m'appelle Mbata, nous, c'est la Ligue 1, la voiture à 200 J'm'arrête pas quand j'me laisse emporter, c'est que maintenant qu'ils viennent nous accoster On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle, pah, pah Ne dis jamais qu'c'est impossible, ne dis jamais qu'c'est impossible Té-ma les plugs Tiens ta go, on vise à la chance, tiens ta go, on vise à la gencive C'est important Ah, changer d'pourboire, en partant Ouais Si j'suis pas convié dans la party Hein ? Flinguage à bout portant Wouh Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Fuck un corps-à-corps Une balle, t'es mort, impliqué des deux côtés, fuck un corps-à-corps Rrr, binks Baltimore, c'est chez nous, serein comme McGregor Serein comme McGregor Baltimore, c'est chez nous Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore Han, Baltimore J'vois les p'tits, en i sur l'allée comme à Balti' Tellement d'neige au tier-quar qu'on patine, transactions rapides dans un parking J'suis pas serein, c'matin, j'dors que d'un il comme tous les mardi Sur l'terrain, j'fais oublier l'titulaire, Mauro Icardi Rrr, binks Car cellulaire, serrés comme des sardines, moi qui m'voyais comme un requin J'f'rais des millions avec des centimes, ça, c'est mon côté marocain Liasse colorée comme Arlequin, j'enfile les gants pour déguster J'ai grave soif de vengeance, donc si tu m'vises, faut bien m'ajuster Rrr, binks Vainqueur solide car jeu musclé, tu fais qu'aboyer, sale chien muselé Elle était tellement flinguée, j'm'en rappelle même plus qui m'a dépucelé Ça t'soulève dès l'sbah, du N.V.R à Bezbar Depuis l'départ, on est déter', fais un écart, j'fais l'nécessaire Baltimore La calle, c'est risqué, y a celui qui s'noie, celui qui prend l'eau Toute la zone est pistée, les pes-tu' on l'barreau, ils vont s'branler J'suis rempli d'projets dans la tête, c'est pas l'moment Faut plus d'aliments dans l'assiette, tu vois comment ? Baltimore On vit dans l'trafic de coca' et toutes les pédales sont choquées, viens faire un tour, c'est la Calle Baltimore, Baltimore Baltimore On a fait fermer des boca, on a du pénétrer des foyers Tout ça s'est fait sans aboyer Pah, pah, pah, pah, pah, pah, pah, rrr, binks Baltimore, Baltimore, Baltimore, Baltimore Baltimore Baltimore, Baltimore, Baltimore On a fait fermer les boca Baltimore han, Baltimore</t>
+          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Barrio</t>
+          <t>Barrio (Favelas 2)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
+          <t>ft Graya Oh oh Oh oh yeah yeah yeah Oh oh Oh oh yeah yeah yeah Moi je lai vu passer, je lai regardé de haut alors quelle croyait que jétais blindé dans ma poche il ny avait pas un franc, mon ami ma dit cette femme te fera tomber de haut mais jai préféré ne pas lécouter elle ma fait gronder Cest réel je suis tombé dans son piège jai tout fait je me suis condamné, jai perdu la femme qui maimait pour moi elle aurait tout donné, elle était belle les choses sans même que je lui dise un mot Je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh Eh comment texpliquer une journée dans mon quartier, ya ceux qui Rage tu mignores,dune caisse, dune tasse et de bombarder, faudra sans doute quon se mettent daccord, calmer les choses ne men veut pas encore, regarde régner faudra péter le score encore et puis encore Elle voulait plus de toi tas pas su bien faire les choses bien faire les choses, tes revenu plusieurs fois, comme dirait sans diez quon régner des roses combien de vouv sont amoureux, combien de vouv cache bien leur jeu, et ceux qui parle cest des re-rageur, elle veulent ta go depuis tout ti-pe On est pas couronné On est pas couronné, mec on est grillé ah oui oui oui, mes frères sont condamnés mes frères sont condamnés, de Paname à la casté my nigga On est pas couronné On est pas couronné, mec on est grillé mec on est grillé , mes frères sont condamnés mes frères sont condamnés, de Paname à la casté de Paname à la casté Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Barrio (Favelas 2)</t>
+          <t>BBRY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ft Graya Oh oh Oh oh yeah yeah yeah Oh oh Oh oh yeah yeah yeah Moi je lai vu passer, je lai regardé de haut alors quelle croyait que jétais blindé dans ma poche il ny avait pas un franc, mon ami ma dit cette femme te fera tomber de haut mais jai préféré ne pas lécouter elle ma fait gronder Cest réel je suis tombé dans son piège jai tout fait je me suis condamné, jai perdu la femme qui maimait pour moi elle aurait tout donné, elle était belle les choses sans même que je lui dise un mot Je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur je sais que ça fait mal mais cest le retour des flammes tas joué avec son cur et tu as brisé son cur Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh Eh comment texpliquer une journée dans mon quartier, ya ceux qui Rage tu mignores,dune caisse, dune tasse et de bombarder, faudra sans doute quon se mettent daccord, calmer les choses ne men veut pas encore, regarde régner faudra péter le score encore et puis encore Elle voulait plus de toi tas pas su bien faire les choses bien faire les choses, tes revenu plusieurs fois, comme dirait sans diez quon régner des roses combien de vouv sont amoureux, combien de vouv cache bien leur jeu, et ceux qui parle cest des re-rageur, elle veulent ta go depuis tout ti-pe On est pas couronné On est pas couronné, mec on est grillé ah oui oui oui, mes frères sont condamnés mes frères sont condamnés, de Paname à la casté my nigga On est pas couronné On est pas couronné, mec on est grillé mec on est grillé , mes frères sont condamnés mes frères sont condamnés, de Paname à la casté de Paname à la casté Tas pas quitté le Barrio, seul dans ta gari oh, cupidon est maudit oh, mais tu penses à elle oh Tas pas quitté le Barrio le Barrio, seul dans ta gari oh gari oh , cupidon est maudit oh maudit oh, mais tu penses à elle oh elle oh</t>
+          <t>J'ai coupé le Montale avec du h-, on peut pas tout dire Je découpe après le showcase, elle me dit Garde mon keuss en souvenir J'me mets en 4-4-2 comme si les 22 voulaient m'interpelle pour un sac de beuh dans la caille pour finir au J'savoure, repos sur transat, cocktail saveur litchi-i-i Litchi On trinque à ceux qui m'en veulent Coco, Lujipeka, tchin tchin Demande à Fresh, c'est mon sept chevaux qui les agresse J'ai les quatre poches pleines de pesos, j't'ai dit, les quatre poches pleines de pesos Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle Mon p'tit cur, j'ai passé l'million d'auditeurs ah En bodega au Lidl C'est à notre table qu'à l'plus de liqueur C'est à notre table qu'à l'plus de liqueur Ça rappe depuis l'époque du Blackberry Curve J'ai perdu v'là les potes, mais j'm'en bats les couilles héhéhé J't'inviterai qu'au Chicken Waffles comme PnB Rock Ma vie est un long fleuve tranquille, laissez-moi seul sur ma pirogue T'aurais pas grand-chose à dire dans ta disstrack Avec tes larmes, je m'hydrate Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BBRY</t>
+          <t>Booska’Flingueurs</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J'ai coupé le Montale avec du h-, on peut pas tout dire Je découpe après le showcase, elle me dit Garde mon keuss en souvenir J'me mets en 4-4-2 comme si les 22 voulaient m'interpelle pour un sac de beuh dans la caille pour finir au J'savoure, repos sur transat, cocktail saveur litchi-i-i Litchi On trinque à ceux qui m'en veulent Coco, Lujipeka, tchin tchin Demande à Fresh, c'est mon sept chevaux qui les agresse J'ai les quatre poches pleines de pesos, j't'ai dit, les quatre poches pleines de pesos Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle Mon p'tit cur, j'ai passé l'million d'auditeurs ah En bodega au Lidl C'est à notre table qu'à l'plus de liqueur C'est à notre table qu'à l'plus de liqueur Ça rappe depuis l'époque du Blackberry Curve J'ai perdu v'là les potes, mais j'm'en bats les couilles héhéhé J't'inviterai qu'au Chicken Waffles comme PnB Rock Ma vie est un long fleuve tranquille, laissez-moi seul sur ma pirogue T'aurais pas grand-chose à dire dans ta disstrack Avec tes larmes, je m'hydrate Faut faire péter la Sacem, j'ai claqué toute mon avance Allongé sur la banquette, j'vous laisse la piste de danse Inarrêtable, avenue Montaigne, nos vies sont vides de sens Sans faire d'efforts, au calme, on grimpe comme le prix d'l'essence De toi, j'me sers comme chez BBRY J'ai marché sur ton cur, bébé, RIP J'cours après le papier été comme hiver Vu qu'tu m'cours après depuis qu'j'suis vérifié on s'casse direct Hey, hey hey hey, hey Si j'réponds pas, c'est sans doute que money m'appelle Si j'réponds pas, c'est sans doute pour un plan papel On ira partout où tu voudras, quand tu voudras ma belle À part si la money m'appelle</t>
+          <t>Ouais Flingue, flingue boh Ekomata, ekomata bien niquel Awa, awa Ekomata, ekomata bien ok Coco Jojo, ebandi Ebandi , c'est parti J't'assure qu'on fait ça bien en vrai, j'parfume mon cou dans l'Viano J't'assure qu'on fait ça bien ça flingue, j'lui pète le cul dans un an On en reparle, ça t'fait du bien ah, billets couleur Fiorentina tout ça Compte ça, j'ai beaucoup d'dinars, j'recompte ça, beaucoup d'dineros Si tu donnes ça bien, mmh, mmh tu montes dans Tesla tu restes jusqu'au matin Autour du cou, cou, sur les poignets, y a que du roro roro, roro J'remonte sur un coup, coup plavon parce qu'on m'dit qu'y en a beaucoup ébélé Trois fois filtré minimum, c'est la substance quand t'allumes le 'boro three On monte l'échelle en forme, là, tu sais qu'on monte l'échelle encore Qu'on s'fait courser par ces chiennes toujours et nos sapes ne viennent pas d'Chine, hein nan, nan Et nos sapes ne viennent pas d'Chine, hein nan, là, dans mes poches, y a l'prix d'ma chaîne 10K J'vois les humains, faire que d'aboyer, si c'est comme ça, j'préfère mon chien rrh Si c'est comme ça, chacun son pain c'est la life, sous crépuscule, j'savoure le vin J'aime prendre du recul pour mieux débouler car mon auto' n'a pas de frein Grosses pêches de Rocky boh, si c'est comme ça, chacun son ch'min c'est la vie T'as vu qu'on est tous partis de rien, chacun son mektoub, chacun ses biens orh J't'ai dis qu'j'achète, j'ai pas demandé c'est bien-com, proposer des options, c'est pas con ouh, ouh En plus de ça, j'te jette pourboir du fric, en plus de ça, montre les autres, juste pour voir mmh Ça, j'aime pas, ça, j'aime pas, j'aime pas j'aime pas, ramène tout c'qui flingue en taille M Ça m'gène pas, j'habite à ris-Pa, si c'est beau, j'la place dans l'Cayenne rrh, rrh Titi koti les cotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Titi koti les kotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Ça flingue même plus, ça fusille Dédicace FC Flingueurs Mmh, mmh, mmh, mmh, mmh Le Coco Jojo, ah, ah Titi koti ékoti, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bonsoir Paris (Mama No Cry)</t>
+          <t>Bouffon vert</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets vrts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'st Coco Jojo Everyday, j'fais du plata Eh, fais-moi un peu d'place, y a beaucoup d'monde dans le wagon ouais Nous, c'est fort, c'est la fumée du dragon ouh, ouh, crr, on frotte la bavette, sol est lisse comme du savon yes C'est des bavons mais dans ffaires-a, sont pas bons Découpe la prod' pour mes shabs et mes javons, être loyal premier truc que nous savons Depuis avant, j'reste lucide et pas con, pardon ? Ouh Moi, j'ai besoin de faire un carton, ah bon ? Ah bon ? C'est moi qu'on cherche ? J'arrive, j'défonce la porte avec FACOM baw, et fais pas comme nous Ceux qui ramassent les sommes, c'est nous, ceux qui tabassent pour sommes, c'est nous Qui grognent, c'est nous, qui cognent, c'est nous pa-paw On va contrôler l'bizi comme Sosa, j'mets la distance, hein, t'es pas mon sossa, eh J'perds du time là, déshabille-toi là, qu'on crache dans sa tte-ch' couleur rosa J'ouvre ma gueule même si je n'ai pas raison, on fait du fric sans arrêt, toutes les saisons J'sais qu'y a l'she-ca sous l'canap' d'la maison, rajoute volume dans la gov', faut qu'ça résonne rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata C'est pour tout les p'tits qu'on prend patins On propose un teum rempli d'putains, sors le pe-pom, y a un pépin, j'entends pim-pom, oh putain, eh J'suis encore là, c'est inquiétant, ça sent le milli' tant qu'on n'est pas distants J'ai de la prestance, je ne me présente plus, j'suis l'homme qui prend souvent des risques oh merde On fait la guerre, j'les prends par centaines, fils de chienne, on vise la tête G2B, Clark Kent paw, on fout tes grands par terre On fout les gants, c'est nous le big cartel, tu pisses le sang, on règle tout au tél', j'suis très puissant J'm'en fous d'ton gang, pendant qu'tu parles, j'roule un gros benga, gros benga Tu connais les codes, fais pas l'grand écart, venez chez nous, noir est le décor On agit pour toi, gros, c'est bon, t'as plus b'soin d'ler-par, plus d'marche arrière, mec, on fuck les porcs paw, paw, rrah On vous rejoint sans beaucoup tarder D'un avis extérieur, elles disent qu'on est beaucoup, qu'il faut pas nous répondre, on est tartés rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Booska’Flingueurs</t>
+          <t>Boum Boum</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ouais Flingue, flingue boh Ekomata, ekomata bien niquel Awa, awa Ekomata, ekomata bien ok Coco Jojo, ebandi Ebandi , c'est parti J't'assure qu'on fait ça bien en vrai, j'parfume mon cou dans l'Viano J't'assure qu'on fait ça bien ça flingue, j'lui pète le cul dans un an On en reparle, ça t'fait du bien ah, billets couleur Fiorentina tout ça Compte ça, j'ai beaucoup d'dinars, j'recompte ça, beaucoup d'dineros Si tu donnes ça bien, mmh, mmh tu montes dans Tesla tu restes jusqu'au matin Autour du cou, cou, sur les poignets, y a que du roro roro, roro J'remonte sur un coup, coup plavon parce qu'on m'dit qu'y en a beaucoup ébélé Trois fois filtré minimum, c'est la substance quand t'allumes le 'boro three On monte l'échelle en forme, là, tu sais qu'on monte l'échelle encore Qu'on s'fait courser par ces chiennes toujours et nos sapes ne viennent pas d'Chine, hein nan, nan Et nos sapes ne viennent pas d'Chine, hein nan, là, dans mes poches, y a l'prix d'ma chaîne 10K J'vois les humains, faire que d'aboyer, si c'est comme ça, j'préfère mon chien rrh Si c'est comme ça, chacun son pain c'est la life, sous crépuscule, j'savoure le vin J'aime prendre du recul pour mieux débouler car mon auto' n'a pas de frein Grosses pêches de Rocky boh, si c'est comme ça, chacun son ch'min c'est la vie T'as vu qu'on est tous partis de rien, chacun son mektoub, chacun ses biens orh J't'ai dis qu'j'achète, j'ai pas demandé c'est bien-com, proposer des options, c'est pas con ouh, ouh En plus de ça, j'te jette pourboir du fric, en plus de ça, montre les autres, juste pour voir mmh Ça, j'aime pas, ça, j'aime pas, j'aime pas j'aime pas, ramène tout c'qui flingue en taille M Ça m'gène pas, j'habite à ris-Pa, si c'est beau, j'la place dans l'Cayenne rrh, rrh Titi koti les cotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Titi koti les kotis, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh Ça flingue même plus, ça fusille Dédicace FC Flingueurs Mmh, mmh, mmh, mmh, mmh Le Coco Jojo, ah, ah Titi koti ékoti, tu t'doutes bien, c'est la calle à Bezbar Titi koti j'suis l'meilleur, tchiki tchiki tchiki tchiki tchiki mmh, mmh, mmh, titi koti ékoti Tu fais comme Mbappé comme Neymar, titi koti mmh, mmh, mmh</t>
+          <t>Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Jojo Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Han-han Posé dans l'4Matic Ouais, j'récupère le biff de la journée, tout est cello' J'm'amuse comme un tit-pe, j'fous le zbeul au Shangri-La Nan Ayo ma bella Eh, moi, j'ai tout pour moi, classe bizi, Marbella Fort Si t'as une fellation à faire, bitch, fais-la Fais-la, si t'as un truc à faire, négro, vite fais-le Brr Elle aime quand ça fait Boum, boum dans la carcasse Ah Quand le gamos fait vroum-vroum et puis, j'en passe Tequila, Champs-Élysées, viens qu'on visit en tac-tac Avec moi, tout est autorisé sauf l téléphone quand on fait crack-crack Pah, c'est Jojo Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Un peu folle Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Vie de bandit, loin de la Sorbonne Ah-ah-ah, au final, j'ai fini beaucoup plus près Ouh, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Mon chouchou Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo, ah-ah-ah-ah Ah ouais, ouais, ouais, moi, t'es mon chouchou Hun, moi, t'es ma vida Hun J'suis pas là que pour tchuku Nan, même si j'suis un peu busy Ouais J'm'occupe de mes business Fort avec mes potes, sans stress, c'est la mentale Barbès Pour toi, j'éteins la bougie, pour toi, je sors le joujou Boum Faut tirer sur le bout d'shit, elle m'a rendu te-bê À moi, Coco2B Ah, j'suis comme un p'tit bébé Ah Dans ses bras, t'imagines pas Ah Tequila, Champs-Élysées, viens qu'on visite en tac-tac On va swing Avec moi, tout est autorisé sauf le téléphone quand on fait crack-crack C'est fort Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Oui-hi Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Jojo Vie de bandit, loin de la Sorbonne, au final, j'ai fini beaucoup plus près C'est fort, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Je suis désolé Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bouffon vert</t>
+          <t>Boy</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets vrts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'st Coco Jojo Everyday, j'fais du plata Eh, fais-moi un peu d'place, y a beaucoup d'monde dans le wagon ouais Nous, c'est fort, c'est la fumée du dragon ouh, ouh, crr, on frotte la bavette, sol est lisse comme du savon yes C'est des bavons mais dans ffaires-a, sont pas bons Découpe la prod' pour mes shabs et mes javons, être loyal premier truc que nous savons Depuis avant, j'reste lucide et pas con, pardon ? Ouh Moi, j'ai besoin de faire un carton, ah bon ? Ah bon ? C'est moi qu'on cherche ? J'arrive, j'défonce la porte avec FACOM baw, et fais pas comme nous Ceux qui ramassent les sommes, c'est nous, ceux qui tabassent pour sommes, c'est nous Qui grognent, c'est nous, qui cognent, c'est nous pa-paw On va contrôler l'bizi comme Sosa, j'mets la distance, hein, t'es pas mon sossa, eh J'perds du time là, déshabille-toi là, qu'on crache dans sa tte-ch' couleur rosa J'ouvre ma gueule même si je n'ai pas raison, on fait du fric sans arrêt, toutes les saisons J'sais qu'y a l'she-ca sous l'canap' d'la maison, rajoute volume dans la gov', faut qu'ça résonne rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata C'est pour tout les p'tits qu'on prend patins On propose un teum rempli d'putains, sors le pe-pom, y a un pépin, j'entends pim-pom, oh putain, eh J'suis encore là, c'est inquiétant, ça sent le milli' tant qu'on n'est pas distants J'ai de la prestance, je ne me présente plus, j'suis l'homme qui prend souvent des risques oh merde On fait la guerre, j'les prends par centaines, fils de chienne, on vise la tête G2B, Clark Kent paw, on fout tes grands par terre On fout les gants, c'est nous le big cartel, tu pisses le sang, on règle tout au tél', j'suis très puissant J'm'en fous d'ton gang, pendant qu'tu parles, j'roule un gros benga, gros benga Tu connais les codes, fais pas l'grand écart, venez chez nous, noir est le décor On agit pour toi, gros, c'est bon, t'as plus b'soin d'ler-par, plus d'marche arrière, mec, on fuck les porcs paw, paw, rrah On vous rejoint sans beaucoup tarder D'un avis extérieur, elles disent qu'on est beaucoup, qu'il faut pas nous répondre, on est tartés rrah Ouh, ouh, ouh, c'est Coco Jojo Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis Ce que j'achète, celle que je serre, fuck l'industrie, ceux qui m'envient Ce que j'ai vu, ce que je sais, ce que je fais, ce que je vis c'est Coco Jojo Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw Sur sacs de billets verts, j'fais dodo, fais dodo, fais dodo wow Tu fumes ma verte, fais dodo, fais dodo, fais dodo paw, c'est Coco Jojo Everyday, j'fais du plata</t>
+          <t>Oh my god Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Everyday, j'fais du plata, plata, pourquoi donner ta chatta ? Chatta Full my nigga sont là-bas full my nigga sont là-bas, là-bas, là-bas Réel, toujours dans l'trap house trap house Défonce ta porte comme 36 pou-pouh, trop de frères, j'pense à Jackma brr Fuck la BAC mobile, dans le périph' à 200 dans le périph' à 200 Qui veut jouer aux billes ? Des balles, j'en ai plus d'300 ah non, non, non Flaque de sang, c'est comme si t'as pas tiré si t'as raté raté Flaque de sang, c'est comme si t'as pas tiré si t'as raté rrah, ouh Calibré qu'on s'fait masser masser, pendant qu'elle suce, j'me fais chasser chasser Le bigo j'l'ai déjà cassé han, han, han, han han, han Nouvelle géné', vécu d'an-ien-c' bleh C'est pas nous qu'tu vas voir en ien-ch' le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Tanins, tanins, c'est des tanins, tanins, son cavu, c'est la ligue uno uno C'est là, c'est là, c'est là, c'est là, j'suis dans la chambre, j'fais le boulot ah Jack au miel dans le Q7 Q7, Jack au miel dans le Q7 Q7 Jack au miel dans le Q7 Q7, si on casse, on la rachète wah, wah, wah On fume la moula, eh boy wah, wah, eh, boy, j'suis dans le bizi comme les Peaky Blinders Peaky Blinders Si j'suis dans le bizi, c'est pour finir blindé venir chiffrer J'suis dans le bizi, matte le coffre est blindé le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay le Coco Jojo, ah, ah</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Boum Boum</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Atchou-tchou-tchou Atchou-tchou-tchou Elle aime quand ça fait Aya-ya-ya-yah Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Jojo Elle aime quand ça fait Boum, boum Boum, boum Elle aime quand ça fait Aya-ya-ya-yah Han-han Posé dans l'4Matic Ouais, j'récupère le biff de la journée, tout est cello' J'm'amuse comme un tit-pe, j'fous le zbeul au Shangri-La Nan Ayo ma bella Eh, moi, j'ai tout pour moi, classe bizi, Marbella Fort Si t'as une fellation à faire, bitch, fais-la Fais-la, si t'as un truc à faire, négro, vite fais-le Brr Elle aime quand ça fait Boum, boum dans la carcasse Ah Quand le gamos fait vroum-vroum et puis, j'en passe Tequila, Champs-Élysées, viens qu'on visit en tac-tac Avec moi, tout est autorisé sauf l téléphone quand on fait crack-crack Pah, c'est Jojo Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Un peu folle Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Vie de bandit, loin de la Sorbonne Ah-ah-ah, au final, j'ai fini beaucoup plus près Ouh, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Mon chouchou Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo, ah-ah-ah-ah Ah ouais, ouais, ouais, moi, t'es mon chouchou Hun, moi, t'es ma vida Hun J'suis pas là que pour tchuku Nan, même si j'suis un peu busy Ouais J'm'occupe de mes business Fort avec mes potes, sans stress, c'est la mentale Barbès Pour toi, j'éteins la bougie, pour toi, je sors le joujou Boum Faut tirer sur le bout d'shit, elle m'a rendu te-bê À moi, Coco2B Ah, j'suis comme un p'tit bébé Ah Dans ses bras, t'imagines pas Ah Tequila, Champs-Élysées, viens qu'on visite en tac-tac On va swing Avec moi, tout est autorisé sauf le téléphone quand on fait crack-crack C'est fort Elle n'arrête pas les bonbonnes Han-han, elle a l'air d'être un peu folle Oui-hi Mais bon, j'en déduis qu'elle est trop bonne C'est trop, donc cinq étoiles, hôtel Hilton Direct Mes portos visser les bonbonnes Coca', dans la capitale, on est toujours frais Jojo Vie de bandit, loin de la Sorbonne, au final, j'ai fini beaucoup plus près C'est fort, ah-ah-ah-ah Atchou-tchou-tchou Atchou-tchou-tchou, ouais, ouais Elle aime quand ça fait Aya-ya-ya-yah Tu connais Atchou-tchou-tchou Je suis désolé Elle aime quand ça fait Aya-ya-ya-yah Jo, Jo, Jo</t>
+          <t>Le Coco Jojo, ah, ah, ah C'est fort, c'est fort, c'est Coco Jojo Là, c'est pas un hasard, regarde les bâtards ne sont plus bavards woh, woh Gère le re-fou comme un p'tit frère qui veut la paye à Pavard qui veut la paye à Pavard Junior Alaprod, zanmé Concessionnaire, on est frais de chaussette à la casquette à la casquette Que des sacs, Manny, que des sacs, Manny, que des sacs, Manny Minimum three baba Rempli de sappes, rempli de sappes, rempli de sappes, Manny ça flingue, ok On choque la primaire, j'envoie salaire aux pieds de Bebeto ouh, ouh, rah Et Bebeto mange des cookies ouh, pendant ce temps, j'fume un cône Mes gars sont cagoulés, tu connais, ça cooking c'est fort, c'est fort T'occupes pas d'ma réussite et d'ailleurs, fuck ton rendez-vous qui sert à rien, dis-leur que j'ai la grippe j'suis malade Très visionnaire, j'sais qu'il va tenter si jamais tu la quittes si jamais tu la quittes Mes potos font partir des cassettes, j'm'occupe de ramener le disque Et pour ceux qui tapent le vice, si tu m'connais bien, tu sais qu'j'ai d'jà brouiller les pistes Han, han T'as cru qu'j'étais con ou quoi là ? Là avant même que j'arrive, on m'a déjà dit Tombes pas là-bas c'est mort Donc on s'balade, ça m'arrange tant qu'c'est pas moi qui demande à faire la paix c'est fort Et d'ailleurs, j'ai mis quintuplés l'été , c'était moi, prends ton stylo J'rajoute des zéros, j'fais danser les bébés, tu captes la logique ? Donc faudrait qu'on parle milliers d'euros, et, j'peux l'refaire Si c'est ça qui t'effraie, c'est du pipi d'chat J't'en fais 10 000 et celui-là, c'est offert brrr J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto Ligue 1 C'est minimum three, baba, que tu kiffes ou pas three, three Même si t'as vu, on espère qu'tu diras pas, que tu diras pas que tu fermes ta gueule Le speaker qui crie mon blase comme si j'étais Douk Saga, j'jette les billets J'achète, j'achète et j'pars en full, j'achète, j'achète et j'pars en full Ma caisse, ma caisse, elle est flingue de ouf, ma caisse, ma caisse, elle flingue de ouf c'est Coco Jojo J'fais du cash, c'est une maladie ouais, mets-toi sur l'té-c' si t'es pas d'la partie Sous la cagoule -goule, c'est Coco Jojo qui t'allume ton boule Si tu veux pas qu'on t'en-, quand tu t'frottes à ma table, il faut rester cool J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto1</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>Ça flingue</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oh my god Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Everyday, j'fais du plata, plata, pourquoi donner ta chatta ? Chatta Full my nigga sont là-bas full my nigga sont là-bas, là-bas, là-bas Réel, toujours dans l'trap house trap house Défonce ta porte comme 36 pou-pouh, trop de frères, j'pense à Jackma brr Fuck la BAC mobile, dans le périph' à 200 dans le périph' à 200 Qui veut jouer aux billes ? Des balles, j'en ai plus d'300 ah non, non, non Flaque de sang, c'est comme si t'as pas tiré si t'as raté raté Flaque de sang, c'est comme si t'as pas tiré si t'as raté rrah, ouh Calibré qu'on s'fait masser masser, pendant qu'elle suce, j'me fais chasser chasser Le bigo j'l'ai déjà cassé han, han, han, han han, han Nouvelle géné', vécu d'an-ien-c' bleh C'est pas nous qu'tu vas voir en ien-ch' le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay Tanins, tanins, c'est des tanins, tanins, son cavu, c'est la ligue uno uno C'est là, c'est là, c'est là, c'est là, j'suis dans la chambre, j'fais le boulot ah Jack au miel dans le Q7 Q7, Jack au miel dans le Q7 Q7 Jack au miel dans le Q7 Q7, si on casse, on la rachète wah, wah, wah On fume la moula, eh boy wah, wah, eh, boy, j'suis dans le bizi comme les Peaky Blinders Peaky Blinders Si j'suis dans le bizi, c'est pour finir blindé venir chiffrer J'suis dans le bizi, matte le coffre est blindé le Coco Jojo, Depitcho R9, okay Han, han, hey ladies ouh, pourquoi t'es assisse là ? Sheesh Viens qu'on s'alcoolise viens qu'on s'alcoolise, ouh Nous, c'est co'-co', farine eh, le jour, on fournit la ch' pour les narines paw, paw, han, han Eh, boy wah, pourquoi t'es assis là ? Ah, ah Viens qu'on s'alcoolise viens qu'on s'alcoolise, woh, ouh Talons, pas de ballerines nan, nan, pour goûter ma ch', okay, okay ouh, ouh, grr, okay, okay le Coco Jojo, ah, ah</t>
+          <t>Perpète ou les îles 2, ça flingue C'est Coco Jojo Han han, han han, han han Han han, han han Depitcho R9 M'emmène pas là-bas, j'ai fait une kakala woah, percée du tur-fu à la Kaka Ma bitch a les mêmes yeux que Lala ça flingue ASB, Bezbar, machettes en l'air, ça découpe lagga, lagga Tu flingues pas, t'es flingué minimum, aubergine dans ses jambes écartées Écartées comme Tour Eiffel ou foot arqué skurt La zone est quadrillée, j'suis au milieu de l'équerre ah, ah, ah, paw Ça m'attire si t'as tous les critères han, han Parisien, dégaine de baisé, j'fais peur au commissaire Les fans s'accumulent, j'peux plus visser nan, nan, Ligue 1 Nan, écoute pas on dit dla D écoute, j'parle de bitchs et de ma débrouille C'est plus rentable quand les tits-pe gèrent tout C'est ma comptable qui m'fait placer mes sous oh, oh J'coupe au Coca pour pas finir très saoul, je sais qu'j'ai tué quand j'vérifie l'pouls pouh, pouh, pouh, woah, woah, woah Pour nous, j'récupère tout, tout pendant le coup Tout pour le crew okay, j'récupère tout, tout, j'laisse aucun sous Boom, boom, bas' dans le cou okay, le Coco Jojo, ah Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six ASB, Barbès gang, la concurrence, on la baise L'Ice'O Lator m'apaise ah, liasses ébènes épaisses C'est la calle, c'est la tess hey 9.3, 7.5.0.1.8, ça vend d'la coke, du crack et d'la weed Coup d'gyrophare, coup d'pêche, course poursuite Coups d'schlass, c'est l'coût d'la violence gratuite rrah C'est Goulag et l'Coco Jojo, 0.9 coupée au dilaudid Hermès, Chanel, Coco, Dior, Dior, sombre est la mélodie D'mande à Rapi Féchaux, féchaux, ça découpe comme Obi-Wan Kenobi Grrrah, j'te monte en l'air, hey, tu tombes de haut comme Kobe Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr, paw Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Le Coco Jojo, ah, ah, ah C'est fort, c'est fort, c'est Coco Jojo Là, c'est pas un hasard, regarde les bâtards ne sont plus bavards woh, woh Gère le re-fou comme un p'tit frère qui veut la paye à Pavard qui veut la paye à Pavard Junior Alaprod, zanmé Concessionnaire, on est frais de chaussette à la casquette à la casquette Que des sacs, Manny, que des sacs, Manny, que des sacs, Manny Minimum three baba Rempli de sappes, rempli de sappes, rempli de sappes, Manny ça flingue, ok On choque la primaire, j'envoie salaire aux pieds de Bebeto ouh, ouh, rah Et Bebeto mange des cookies ouh, pendant ce temps, j'fume un cône Mes gars sont cagoulés, tu connais, ça cooking c'est fort, c'est fort T'occupes pas d'ma réussite et d'ailleurs, fuck ton rendez-vous qui sert à rien, dis-leur que j'ai la grippe j'suis malade Très visionnaire, j'sais qu'il va tenter si jamais tu la quittes si jamais tu la quittes Mes potos font partir des cassettes, j'm'occupe de ramener le disque Et pour ceux qui tapent le vice, si tu m'connais bien, tu sais qu'j'ai d'jà brouiller les pistes Han, han T'as cru qu'j'étais con ou quoi là ? Là avant même que j'arrive, on m'a déjà dit Tombes pas là-bas c'est mort Donc on s'balade, ça m'arrange tant qu'c'est pas moi qui demande à faire la paix c'est fort Et d'ailleurs, j'ai mis quintuplés l'été , c'était moi, prends ton stylo J'rajoute des zéros, j'fais danser les bébés, tu captes la logique ? Donc faudrait qu'on parle milliers d'euros, et, j'peux l'refaire Si c'est ça qui t'effraie, c'est du pipi d'chat J't'en fais 10 000 et celui-là, c'est offert brrr J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto Ligue 1 C'est minimum three, baba, que tu kiffes ou pas three, three Même si t'as vu, on espère qu'tu diras pas, que tu diras pas que tu fermes ta gueule Le speaker qui crie mon blase comme si j'étais Douk Saga, j'jette les billets J'achète, j'achète et j'pars en full, j'achète, j'achète et j'pars en full Ma caisse, ma caisse, elle est flingue de ouf, ma caisse, ma caisse, elle flingue de ouf c'est Coco Jojo J'fais du cash, c'est une maladie ouais, mets-toi sur l'té-c' si t'es pas d'la partie Sous la cagoule -goule, c'est Coco Jojo qui t'allume ton boule Si tu veux pas qu'on t'en-, quand tu t'frottes à ma table, il faut rester cool J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est fort Ok, j't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto 'ness, 'ness, 'ness le Coco Jojo J'suis dans l'business, que j'voyage en classe business en classe business J'suis dans l'business, que j'voyage en classe business c'est Coco Jojo Ouais, ok J't'ai déjà dit on choque la primaire, j'envoie salaire aux pieds de Bebeto1</t>
+          <t>Jhabite à Paris Tout le monde est pressé Faut du cardio Minimum Dans ta bitches Je la fé-chaud I got you Elle est bonne avec tous ses tattoos Jhabite à Paris Tout le monde est pressé Faut du cardio Téléphone booking, téléphone uber Comme ça quon pecho Tous les jours J'suis dans les trafics Cest Coco Jojo E.T. Téléphone Maison Parce que c'est la meilleure Jhabite à Paris Tout le monde est pressé Faut du cardio cash cash cash cash quartier Cest nous la On fuck ta baby Cest nous les Vikings Mort aux pookies Mort aux pookies La main, la rétin Jai le calibre si il faut ready Et bin moi j'suis dans la party J'suis au milieu comme Verratti On fait la moula qui est certifiée Tu fumes de la moula qui est plastifiée Y'a que ton qui est plastifié Tes bon quà kouma, quà Plaquettes de shit et de beuh Une fois passées je rigole, jappelle baveux Je dépense chez qui je veux Jsais pas Prada, Louis Vuitton, Dior, Burbe Elle veut minimum maxi big ligue 1 Flingue automatique sur AA-7 flingue, flingue, flingue, flingue I got you c'est fort, hmm Jhabite à Paris Tout le monde est pressé Faut du cardio scam, scam, scam Ollo my nigg for real that shit Dis moi c'est combien le prix jachète C'est coco jojo depitcho R9 Hmm, cest fabuleux My G I got you My G I got you scam, scam, scam</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ça flingue</t>
+          <t>Ça va commencer ici</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Perpète ou les îles 2, ça flingue C'est Coco Jojo Han han, han han, han han Han han, han han Depitcho R9 M'emmène pas là-bas, j'ai fait une kakala woah, percée du tur-fu à la Kaka Ma bitch a les mêmes yeux que Lala ça flingue ASB, Bezbar, machettes en l'air, ça découpe lagga, lagga Tu flingues pas, t'es flingué minimum, aubergine dans ses jambes écartées Écartées comme Tour Eiffel ou foot arqué skurt La zone est quadrillée, j'suis au milieu de l'équerre ah, ah, ah, paw Ça m'attire si t'as tous les critères han, han Parisien, dégaine de baisé, j'fais peur au commissaire Les fans s'accumulent, j'peux plus visser nan, nan, Ligue 1 Nan, écoute pas on dit dla D écoute, j'parle de bitchs et de ma débrouille C'est plus rentable quand les tits-pe gèrent tout C'est ma comptable qui m'fait placer mes sous oh, oh J'coupe au Coca pour pas finir très saoul, je sais qu'j'ai tué quand j'vérifie l'pouls pouh, pouh, pouh, woah, woah, woah Pour nous, j'récupère tout, tout pendant le coup Tout pour le crew okay, j'récupère tout, tout, j'laisse aucun sous Boom, boom, bas' dans le cou okay, le Coco Jojo, ah Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six ASB, Barbès gang, la concurrence, on la baise L'Ice'O Lator m'apaise ah, liasses ébènes épaisses C'est la calle, c'est la tess hey 9.3, 7.5.0.1.8, ça vend d'la coke, du crack et d'la weed Coup d'gyrophare, coup d'pêche, course poursuite Coups d'schlass, c'est l'coût d'la violence gratuite rrah C'est Goulag et l'Coco Jojo, 0.9 coupée au dilaudid Hermès, Chanel, Coco, Dior, Dior, sombre est la mélodie D'mande à Rapi Féchaux, féchaux, ça découpe comme Obi-Wan Kenobi Grrrah, j'te monte en l'air, hey, tu tombes de haut comme Kobe Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr, paw Poto, dans la zone, on a faim, faim, faim Si j'sors le semi-auto' pour toi, c'est la fin, fin, fin grr Touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain, touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh Mon pain, pain, pain, tu veux manger mon pain, pain touh, pouh Tu veux mon pain, pain, flingue, tu vas respecter touh, pouh En cas d'pépin, 'pin, 'pin, grr, paw pouh, pouh Et ça les éteint, 'teint, 'teint ça flingue, wouh TPM si tu manges mon pain, pain, pain woah Nan, écoute pas on dit d'la D écoute, j'parle de bitchs et de ma débrouille Zone Six</t>
+          <t>Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char ça commence ici Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char c'est fort Et j'm'en bats les couilles moi Eh bellek, bellek, bellek, bellek, c'est chaud là-bas Ouais, ouais, ouais, ouais, ouais, ouais, ouais Ouais, ouais Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Et j'm'en bats les couilles moi Ça commence ici ça va commencer ici, ça va jusqu'à là-bas Flingu sur les Champs-Ély' sur les Champs-Ély', s'il y a, j'suis à deux pas Ta bitchs à quatre pattes trop chic, pour la gachette j'ai les gilets pare-balles De Paname, on tabasse, faut que la Ligue 1, des big ass Dans ton pire cauchemar, j'ai la fa-face, c'est la calle, des kilos dans l'trap house C'est la calle, des kilos dans l'trap house, c'est pas mon équipe que tu vois à la ramasse C'est pas mon équipe que tu vois à la ramasse, nous c'est la calle, des kilos dans l'trap house Jojo On t'appelait, tu dormais on t'appelait, tu dormais Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Arrête de jouer les gros bonnets arrête Dans tout Paname on nous connaît la capi' nous connaît Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Bah ouais laisse tomber poto, fréro ça fait longtemps il est là fréro Ah ouais, c'est là fréro tu flingues c't'année fréro Dans la capi', de retour frère et tout l'monde le voit La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison La capitale, ça flingue c'est fort, c'est fort La capitale, la capitale La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison Depitcho, R9, OK Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>CCMG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Jhabite à Paris Tout le monde est pressé Faut du cardio Minimum Dans ta bitches Je la fé-chaud I got you Elle est bonne avec tous ses tattoos Jhabite à Paris Tout le monde est pressé Faut du cardio Téléphone booking, téléphone uber Comme ça quon pecho Tous les jours J'suis dans les trafics Cest Coco Jojo E.T. Téléphone Maison Parce que c'est la meilleure Jhabite à Paris Tout le monde est pressé Faut du cardio cash cash cash cash quartier Cest nous la On fuck ta baby Cest nous les Vikings Mort aux pookies Mort aux pookies La main, la rétin Jai le calibre si il faut ready Et bin moi j'suis dans la party J'suis au milieu comme Verratti On fait la moula qui est certifiée Tu fumes de la moula qui est plastifiée Y'a que ton qui est plastifié Tes bon quà kouma, quà Plaquettes de shit et de beuh Une fois passées je rigole, jappelle baveux Je dépense chez qui je veux Jsais pas Prada, Louis Vuitton, Dior, Burbe Elle veut minimum maxi big ligue 1 Flingue automatique sur AA-7 flingue, flingue, flingue, flingue I got you c'est fort, hmm Jhabite à Paris Tout le monde est pressé Faut du cardio scam, scam, scam Ollo my nigg for real that shit Dis moi c'est combien le prix jachète C'est coco jojo depitcho R9 Hmm, cest fabuleux My G I got you My G I got you scam, scam, scam</t>
+          <t>G2Binks Skuuurt Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma mif parce que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Elle me fait des crises de jalousie quand je rép' pas au tél' Ça c'est ma gow Elle me dit va te faire enculer, va baiser toutes tes putes à lhôtel Ça c'est ma gow Je m'énerve on se prend la tête, c'est comme ça avec elle Ça c'est ma gow Elle me dit baratineur, tu dis à un million de meufs je t'aime Ça c'est ma gow Elle a du charisme, elle a du flow Ça c'est ma gow Quand je sors avec elle, paraît qu'on est beau Ça c'est ma gow L'argent est rentré, je me tire au resto, avec ma gow Le soir au téléphone je lui propose de se casser sous les tropicaux Bah ouais négro Quand je la vois sur snap, je me dis quel avion Ça c'est ma gow Je suis le roi c'est ma reine Quelle chance nous avons, moi et ma gow Ici, y a trop de haineux c'est pour ça que tous les jours nous prions, moi et ma gow Des fois je suis en tort, je range ma fierté je dis bébé pardon Ça c'est ma gow Elle aime les petits câlins, un vrai chaton Ça c'est ma gow Elle s'réveille le matin et c'est pas un tho Ça c'est ma gow Elle t'assume au chtar putain je pète un plomb Ça c'est ma gow Elle s'inquiète pour toi pire que ta famille, ta daronne et ton daron Ça c'est ma gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Quant à moi mon frère, avec un soce, ça c'est le bédo Je suis dans mon quartier, avec mes assoc' dans le bendo J'aime trop les filles, filles, filles, filles Ah ouais mon soce ? Putain t'es chaud Je les pique en plein dans le mille Ah ouais mon soce ? Putain t'es chaud Je l'emmène faire les magasins mais pas comme un canard J'suis un négro Quand je mate des meufs elle me crame, pire qu'un radar Putain c'est chaud Elle dit reste pas avec Torreto, il t'influence ce connard Ça c'est ma gow Mais jsuis un niggaz of Paris c'est clair, j'suis un fêtard Bah ouais ma gow Je suis avec Brams et sa meuf, on va boire un verre avec ma gow Quand elle sort dans ses teufs, ça me fout les nerfs Arrêtez les gow Elle parle avec sa pine-co, des barres sur oi-m Ça c'est ma gow Des une semaine sans se parler mais bon toujours c'est oim Arrêtez les gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Ça c'est ma gow Hey Ça c'est ma gow Hey Ça c'est ma gow</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ça va commencer ici</t>
+          <t>Célèbre</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char ça commence ici Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char c'est fort Et j'm'en bats les couilles moi Eh bellek, bellek, bellek, bellek, c'est chaud là-bas Ouais, ouais, ouais, ouais, ouais, ouais, ouais Ouais, ouais Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Ça bouge pas, j'me lève tôt, j'me couche tard, j'vais au bon-char Et j'm'en bats les couilles moi Ça commence ici ça va commencer ici, ça va jusqu'à là-bas Flingu sur les Champs-Ély' sur les Champs-Ély', s'il y a, j'suis à deux pas Ta bitchs à quatre pattes trop chic, pour la gachette j'ai les gilets pare-balles De Paname, on tabasse, faut que la Ligue 1, des big ass Dans ton pire cauchemar, j'ai la fa-face, c'est la calle, des kilos dans l'trap house C'est la calle, des kilos dans l'trap house, c'est pas mon équipe que tu vois à la ramasse C'est pas mon équipe que tu vois à la ramasse, nous c'est la calle, des kilos dans l'trap house Jojo On t'appelait, tu dormais on t'appelait, tu dormais Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Arrête de jouer les gros bonnets arrête Dans tout Paname on nous connaît la capi' nous connaît Cocaïne emballée dans l'sachet pour faire et refaire de la monnaie Bah ouais laisse tomber poto, fréro ça fait longtemps il est là fréro Ah ouais, c'est là fréro tu flingues c't'année fréro Dans la capi', de retour frère et tout l'monde le voit La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison La capitale, ça flingue c'est fort, c'est fort La capitale, la capitale La capitale est sous contrôle c'est ma maison La capitale est sous contrôle c'est ma maison On envoie que d'la coca dans leurs naseaux On envoie que d'la coca dans leurs naseaux La capitale est sous contrôle c'est ma maison Est sous contrôle c'est ma maison Depitcho, R9, OK Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça Salut, coucou, moi j'en veux beaucoup, du fric c'est pas la première fois qu'on fait ça Salut, coucou, encadrer les gens dans la street c'est pas la première fois qu'on fait ça</t>
+          <t>Jojo Papito joga bonito, ouais Tu baisses un peu ma voix s'te plaît my G ? Pour les mecs stylés là Le salaire de Neymar en Arabie Saou', on ramènera quand même la calle au cas où J'la fais monter, ciel étoilé dans le r, elle guette et dit j'avoue mais pour moi c'est pas lourd Pour ceux qui m'envient, sachez c'est que d'la zik, zik, zik, zik, et puis tenez ma dick, dick, dick, dick Méritent que ça, Coco Pitcho, bah ouais G my, j'les baise mec, ça fait dix ans qu'j'les mitraille On t'explique, rgarde le Prada mec, on t'xplique Amigo roule un stick, traîne avec nous man, c'est fantastique Eh yo Saamou, dis-leur nous c'est fort, en vrai eux, c'est pas nous Pourront parler sur nous fumant leur Kaloud, mais vont se taire aussi vite devant l'FAMAS On t'explique, regarde mes poches, elles sont remplies d'fric Baby j'en ai des briques et j'suis pas très romantique Go, go, go, go, go, go, Jojo c'est parti, go, beaucoup de DM sur le bigo Mais c'est les flingueurs, c'est pas Migos J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Avec G2 j'les fume comme un P2, Opération Dragon, personne pourra t'aider Sur l'chemin j'fais que de croiser des haineux, maman prie pour que j'finisse fortuné J'fais rentrer du cash enculé, range ton iPhone, j'prends des photos au drone Les pes-sa d'Italie, le pétard on chrome, tu sais qu'c'est ma bitches que si il est gros Remonte des affaires du Montenegro, comme Kolo Muani j'peux montrer mes crocs J'fais pas d'clash, j't'envoie mes shooters pro, pas d'clash, j't'envoie deux shooters pro J'veux couper l'gâteau que avec mes bros, j'me suis juré qu'maman n'prendra plus le métro Non, non, j'me suis juré qu'maman n'prendra plus le métro Ils ont pas d'loves donc ils sont jaloux d'c'qu'on achète J'ai cassé la porte maintenant il faut qu'j'les achève J'découpe la prod avec une machette, coffre fort en banque, le reste est dans ma cachette J'cherche mes opps, j'les vois pas, ils sont cachés Ils savent tous qu'la mort ça coûte pas cher J'fais que d'encaisser des cachets J'récupère des broliques en affaire x2 J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Opération Dragon Nous c'est la TH Nous c'est la calle Gang, gang, gang, gang</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CCMG</t>
+          <t>C’est normal</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G2Binks Skuuurt Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma mif parce que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Elle me fait des crises de jalousie quand je rép' pas au tél' Ça c'est ma gow Elle me dit va te faire enculer, va baiser toutes tes putes à lhôtel Ça c'est ma gow Je m'énerve on se prend la tête, c'est comme ça avec elle Ça c'est ma gow Elle me dit baratineur, tu dis à un million de meufs je t'aime Ça c'est ma gow Elle a du charisme, elle a du flow Ça c'est ma gow Quand je sors avec elle, paraît qu'on est beau Ça c'est ma gow L'argent est rentré, je me tire au resto, avec ma gow Le soir au téléphone je lui propose de se casser sous les tropicaux Bah ouais négro Quand je la vois sur snap, je me dis quel avion Ça c'est ma gow Je suis le roi c'est ma reine Quelle chance nous avons, moi et ma gow Ici, y a trop de haineux c'est pour ça que tous les jours nous prions, moi et ma gow Des fois je suis en tort, je range ma fierté je dis bébé pardon Ça c'est ma gow Elle aime les petits câlins, un vrai chaton Ça c'est ma gow Elle s'réveille le matin et c'est pas un tho Ça c'est ma gow Elle t'assume au chtar putain je pète un plomb Ça c'est ma gow Elle s'inquiète pour toi pire que ta famille, ta daronne et ton daron Ça c'est ma gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Sur Instagram-gram-gram-gram Je suis des frappes, frappes, frappes, frappes Mais quand elle me crame, crame, crame, crame Limite elle me frappe, frappe, frappe, frappe Mais nique sa mère comment c'est dar, dar, dar, dar Avec elle dans un gros fer normal je vesqui les motards Quant à moi mon frère, avec un soce, ça c'est le bédo Je suis dans mon quartier, avec mes assoc' dans le bendo J'aime trop les filles, filles, filles, filles Ah ouais mon soce ? Putain t'es chaud Je les pique en plein dans le mille Ah ouais mon soce ? Putain t'es chaud Je l'emmène faire les magasins mais pas comme un canard J'suis un négro Quand je mate des meufs elle me crame, pire qu'un radar Putain c'est chaud Elle dit reste pas avec Torreto, il t'influence ce connard Ça c'est ma gow Mais jsuis un niggaz of Paris c'est clair, j'suis un fêtard Bah ouais ma gow Je suis avec Brams et sa meuf, on va boire un verre avec ma gow Quand elle sort dans ses teufs, ça me fout les nerfs Arrêtez les gow Elle parle avec sa pine-co, des barres sur oi-m Ça c'est ma gow Des une semaine sans se parler mais bon toujours c'est oim Arrêtez les gow x2 Elle déboule elle fait la diff', tout le monde frissonne Ça c'est ma gow Putain qu'est-ce que je la kiffe, je m'en fous qu'elle soit bonne Ça c'est ma gow Elle connait toute ma miff, parce-que c'est la bonne Ça c'est ma gow Elle m'aime pas pour mon biff, elle dépend de personne Ça c'est ma gow Ça c'est ma gow Hey Ça c'est ma gow Hey Ça c'est ma gow</t>
+          <t>Passe à la reugé, DJ BELLEK Yoka ma mélodie, yoka ma yoka ma mélodie Passe à la reugé, Chily de dingue J'ai le jeu, j'ai le jeu Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Elle regarde mes peu-sa , ma pano Fumé nocive dans le Viano On viendra si elle sont toutes canons On dira pas non non non non J'arrive en floco comme djodjo Ils ferment la boca , ils savent qu'on est beaucoup Uno , rajoute un ocho c'est nous gros On viser la coco c'est tout gros boum Don'pé , gamos , Full Ya , Racli , Touka from Pays-Bas O.C.B feuille , j'ai fonsdée la racli des gens Sache qu'on est très méchant J'ai perdu la notion du temps mon négro Bezbar Chez nous la cailasse c'est réel Tu sais le calbar on le baisse pas Plus de billets couleur Purple On maîtrise le bail, on maîtrise le bail Au moindre détail, Au moindre détail T'es pas prêt, décale on est la pour les talles Chily ma dis que t'es con quoi la Veulent de mes nouvelles mais j'suis plus la Maintenant c'est nous les gros bonnets Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o La peu-stu n'est qu'un overdose , tu va canner Voyou de la calla, a du tant batailler Des fois le teu-shi , des fois la zipette Des fois les tass , many j'suis équipée J'fais partis des leaders de la troupe J'suis pas dans la bicrave j'suis dans l'oseille J'suis pas dans la bicrave , jsuis dans l'oseille moi,moi J'l'ai ai tapé , tapé , dans ma jeunesse Parlent de moi , sa prouve qu'ils me connaissent On n'fais pas de baston de regard Si t'as l'oseille viens on fais la re-geu On à de quoi te troué le brava Mon gava je t'en prie pas de bavure Face à la juge l'antidote c'est le baveux Sois pas distrait par un cavu Elle à vu les liasses du bénef de la dope Et depuis ce jour elle m'apporte le coke Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Tournage de beuh Ça c'est jeu de jeu Pépite c'est normal Tournage de jeu Ça c'est jeu de beuh Pépite c'est normal tokei zua</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Célèbre</t>
+          <t>C’est puissant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jojo Papito joga bonito, ouais Tu baisses un peu ma voix s'te plaît my G ? Pour les mecs stylés là Le salaire de Neymar en Arabie Saou', on ramènera quand même la calle au cas où J'la fais monter, ciel étoilé dans le r, elle guette et dit j'avoue mais pour moi c'est pas lourd Pour ceux qui m'envient, sachez c'est que d'la zik, zik, zik, zik, et puis tenez ma dick, dick, dick, dick Méritent que ça, Coco Pitcho, bah ouais G my, j'les baise mec, ça fait dix ans qu'j'les mitraille On t'explique, rgarde le Prada mec, on t'xplique Amigo roule un stick, traîne avec nous man, c'est fantastique Eh yo Saamou, dis-leur nous c'est fort, en vrai eux, c'est pas nous Pourront parler sur nous fumant leur Kaloud, mais vont se taire aussi vite devant l'FAMAS On t'explique, regarde mes poches, elles sont remplies d'fric Baby j'en ai des briques et j'suis pas très romantique Go, go, go, go, go, go, Jojo c'est parti, go, beaucoup de DM sur le bigo Mais c'est les flingueurs, c'est pas Migos J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Avec G2 j'les fume comme un P2, Opération Dragon, personne pourra t'aider Sur l'chemin j'fais que de croiser des haineux, maman prie pour que j'finisse fortuné J'fais rentrer du cash enculé, range ton iPhone, j'prends des photos au drone Les pes-sa d'Italie, le pétard on chrome, tu sais qu'c'est ma bitches que si il est gros Remonte des affaires du Montenegro, comme Kolo Muani j'peux montrer mes crocs J'fais pas d'clash, j't'envoie mes shooters pro, pas d'clash, j't'envoie deux shooters pro J'veux couper l'gâteau que avec mes bros, j'me suis juré qu'maman n'prendra plus le métro Non, non, j'me suis juré qu'maman n'prendra plus le métro Ils ont pas d'loves donc ils sont jaloux d'c'qu'on achète J'ai cassé la porte maintenant il faut qu'j'les achève J'découpe la prod avec une machette, coffre fort en banque, le reste est dans ma cachette J'cherche mes opps, j'les vois pas, ils sont cachés Ils savent tous qu'la mort ça coûte pas cher J'fais que d'encaisser des cachets J'récupère des broliques en affaire x2 J'savais que j'finirais célèbre Tequila, Dom Pé', on célèbre On ira flinguer chez Van Cleef Faut pas qu'la baby elle s'énerve J'savais que j'finirais célèbre Téquila, Dom Pé', on célèbre Dans la capi' toujours actif Faut pas finir sur la sellette Opération Dragon Nous c'est la TH Nous c'est la calle Gang, gang, gang, gang</t>
+          <t>Le Yoski de Yoski, Yoski Le Yoski de Yoski, Yoski Le Yoski de Yoski, eh Yoski 2.4.0. S C'est Coco Jojo Hun, hun, hun Hun, hun, hun Chacun son tour ah ahah, ahah, ahah, ahah Chacun, chacun, chac-chacun son tour ça va commencer ici Le matin j'me réveille, j'vais direct chez Christian Dior La vendeuse sait très bien qu'on flingue à mort Tu connais déjà ton gars Coco Souvent dans les para', matin, midi, soir j'fais mes affaires Et quand j'peux, j'vais claquer mon bénef' chez Prada Ah hun hun, ah hun hun Jojo oh, on vend la frappe, on vend la mort oh oh oh On fait monter biatch à mort oh oh oh, oh oh oh Tchak, tch-tchak, on prend des photos Le charme de 2Pac Amaru Shakur On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est pas le ghetto qui m'a tué, c'est juste la salope qui m'a eu Y'a que le guetteur qui crie pu, t'es venu, t'as vu, tu l'as su Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Hun hun, j'dois remonter de la coco, hun hun, avant d'le faire j'parle à Jojo J'ai fait tout ça pour le magot ça flingue, que des leaders sur la photo c'est fort Interdit d'avoir la boco, j'm'arrête pour mettre le coco J't'en ferais pas cadeau, on part lui casser son dos On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber Chaque semaine un nouveau bolide, on frime devant la police Mademoiselle traverse, est jolie, elle m'dit que j'suis impoli Avec on sort l'Audi black, m'envoie des mélodies noires J'ai calé le tarpé dans le tiroir, au cas où ça veut me faire chez moi Huhuhun, t'as touché, faut qu'tu l'payes Huhuhun, j't'avais prévenu tu sais Huhuhun, Gucci, Louis Vui pas de fake Huhuhun, la copine me dit que j'sens l'oseille On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est puissant, c'est puissant Yoski de Yoski Yoski de Yoski C'est puissant, c'est puissant</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C’est normal</t>
+          <t>Charger</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Passe à la reugé, DJ BELLEK Yoka ma mélodie, yoka ma yoka ma mélodie Passe à la reugé, Chily de dingue J'ai le jeu, j'ai le jeu Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Elle regarde mes peu-sa , ma pano Fumé nocive dans le Viano On viendra si elle sont toutes canons On dira pas non non non non J'arrive en floco comme djodjo Ils ferment la boca , ils savent qu'on est beaucoup Uno , rajoute un ocho c'est nous gros On viser la coco c'est tout gros boum Don'pé , gamos , Full Ya , Racli , Touka from Pays-Bas O.C.B feuille , j'ai fonsdée la racli des gens Sache qu'on est très méchant J'ai perdu la notion du temps mon négro Bezbar Chez nous la cailasse c'est réel Tu sais le calbar on le baisse pas Plus de billets couleur Purple On maîtrise le bail, on maîtrise le bail Au moindre détail, Au moindre détail T'es pas prêt, décale on est la pour les talles Chily ma dis que t'es con quoi la Veulent de mes nouvelles mais j'suis plus la Maintenant c'est nous les gros bonnets Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o La peu-stu n'est qu'un overdose , tu va canner Voyou de la calla, a du tant batailler Des fois le teu-shi , des fois la zipette Des fois les tass , many j'suis équipée J'fais partis des leaders de la troupe J'suis pas dans la bicrave j'suis dans l'oseille J'suis pas dans la bicrave , jsuis dans l'oseille moi,moi J'l'ai ai tapé , tapé , dans ma jeunesse Parlent de moi , sa prouve qu'ils me connaissent On n'fais pas de baston de regard Si t'as l'oseille viens on fais la re-geu On à de quoi te troué le brava Mon gava je t'en prie pas de bavure Face à la juge l'antidote c'est le baveux Sois pas distrait par un cavu Elle à vu les liasses du bénef de la dope Et depuis ce jour elle m'apporte le coke Chily de dingue, C'est toi la pépite c'est normal C'est normal Faut des billets dans les che-po Che-po Tout baisé c'est normal C'est normal J'ai calé la touka , elle est conserver dans un bocal Un bocal Poto on fais que du sale sale, on fais que du sale sale Maintenant c'est nous les gros bonnets maintenant c'est nous les gros bonnets Maintenant c'est toi qui reconnait Ah moi qu'on reconnait Maintenant c'est nous les gros bonnets Na Tshithé Boloya Maintenant c'est tout le monde qui reconnait Yo'oko pesa numéro n'o Tournage de beuh Ça c'est jeu de jeu Pépite c'est normal Tournage de jeu Ça c'est jeu de beuh Pépite c'est normal tokei zua</t>
+          <t>On fait monter la pression on fait monter la pression C'est pour la nation c'est pour la calle C'est Coco et Landy, on est dans l'Audi Eux c'est des maudits eux c'est des flokos Nous c'est les O.G ok Serein comme coach Ancelotti Au Réal de Madrid On arrive en full Hayabusa Tous armés comme des Yakuzas J'suis mal garé, le SUV est balèze Comme baleine sous Hennessy Cané sur les champs c'est Coco T'occupe et mets-toi à l'aise Nous c'est la calle, tiens goûte un échant' Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Elle veut un raclo qui fait d'l'espèce J'suis dans l'carré, j'prends tout l'espace C'est l'9-3, c'est pas les states Dix lourds, American Express Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Nique sa grand-mère l'officier J'ai rien vu, n'a rien bité Armes de l'est c'est Sarajevo, trop vénère j'vais lui casser l'dos Ba bang bang j'récupère la coupe En deux deux ça me coups du marteau Y a trop d'dineros, trop d'plata Elle m'a pris pour un franc maçon , j'crois bien que j'ai niqué la que-lo Faux vesqui les attaques à midi, j'ai disparu comme Feyaud Y a pas de sous-métiers, que des pirates sur la moto J'suis dedans avec les jefes, j'dois rester fort, devants ces gows Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C’est puissant</t>
+          <t>Chaud</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Le Yoski de Yoski, Yoski Le Yoski de Yoski, Yoski Le Yoski de Yoski, eh Yoski 2.4.0. S C'est Coco Jojo Hun, hun, hun Hun, hun, hun Chacun son tour ah ahah, ahah, ahah, ahah Chacun, chacun, chac-chacun son tour ça va commencer ici Le matin j'me réveille, j'vais direct chez Christian Dior La vendeuse sait très bien qu'on flingue à mort Tu connais déjà ton gars Coco Souvent dans les para', matin, midi, soir j'fais mes affaires Et quand j'peux, j'vais claquer mon bénef' chez Prada Ah hun hun, ah hun hun Jojo oh, on vend la frappe, on vend la mort oh oh oh On fait monter biatch à mort oh oh oh, oh oh oh Tchak, tch-tchak, on prend des photos Le charme de 2Pac Amaru Shakur On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est pas le ghetto qui m'a tué, c'est juste la salope qui m'a eu Y'a que le guetteur qui crie pu, t'es venu, t'as vu, tu l'as su Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Montré du doigt par monsieur l'agent, j'ai fait les affaires pour l'argent Hun hun, j'dois remonter de la coco, hun hun, avant d'le faire j'parle à Jojo J'ai fait tout ça pour le magot ça flingue, que des leaders sur la photo c'est fort Interdit d'avoir la boco, j'm'arrête pour mettre le coco J't'en ferais pas cadeau, on part lui casser son dos On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber Chaque semaine un nouveau bolide, on frime devant la police Mademoiselle traverse, est jolie, elle m'dit que j'suis impoli Avec on sort l'Audi black, m'envoie des mélodies noires J'ai calé le tarpé dans le tiroir, au cas où ça veut me faire chez moi Huhuhun, t'as touché, faut qu'tu l'payes Huhuhun, j't'avais prévenu tu sais Huhuhun, Gucci, Louis Vui pas de fake Huhuhun, la copine me dit que j'sens l'oseille On passe notre temps dans l'tieks à revendre tout c'qu'il ne faut pas c'est puissant, c'est puissant Calibré, tu m'embêtes, sur ton polo y'aura des tâches C'est R-Sko, Mayo, Coco Jojo, la copine en revient pas c'est puissant, c'est puissant Sape italienne j'achète, vu qu'maintenant j'ai l'pouvoir d'achat, na na na Laisse-moi la remonter, la clientèle l'a demandé c'est fort, c'est fort J'peux pas la fréquenter, la petite conne sait pas compter À six du mat' ça met des vésquis, hun, hun, c'est les condés Dans la baraque ça pue la peu-stu, si ça pète, ça va tomber C'est puissant, c'est puissant Yoski de Yoski Yoski de Yoski C'est puissant, c'est puissant</t>
+          <t>Jai dit belek à la dose Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callie Chaud Coco Jojo J'mets les billets dans l'c-sa J'mets les billets dans l'e-sa Survêtement neuf, paire d'Air Force One Faut du cardio, faut bosser Les faux négros, faut crossr Mes gars sont dans l'extrême, fum pas de hood Dans l'hood Beaucoup de verte, couleur Werder de Brême but la Ligue 1, but la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'l'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d'l'oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Jojo, Jojo, fuck les porcs, fuck la BAC Coco, Coco, Rico, c'qu'on propose c'est pro Même avec moi j'ai Tropico Mais c'est quoi ça? Huh, huh, que les questions que tu poses Mais c'est quoi ça? Huh, huh, que les cautions que j'explose Que les billets que j'expose, que les transacs pour du flouze Attends pause, cause Écoute le gang quand j'te cause Comment oses-tu? Comment oses-tu prendre de haut les quatres qui t'ont fait? C'est fort, c'est fort, c'est fort Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d''oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Hmm hmm, hmm hmm, hmm hmm Faut poser l'oseille Hmm hmm, hmm hmm, hmm hmm On veut que d'l'oseille Hmm hmm, hmm hmm, hmm hmm Poser Hmm hmm, hmm hmm, hmm hmm C'est cool la foule quand c'est pas toi qui sort d''oseille On veut que d''oseille Poser On veut que d''oseille Moi j'ai osé</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Charger</t>
+          <t>Chromé</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>On fait monter la pression on fait monter la pression C'est pour la nation c'est pour la calle C'est Coco et Landy, on est dans l'Audi Eux c'est des maudits eux c'est des flokos Nous c'est les O.G ok Serein comme coach Ancelotti Au Réal de Madrid On arrive en full Hayabusa Tous armés comme des Yakuzas J'suis mal garé, le SUV est balèze Comme baleine sous Hennessy Cané sur les champs c'est Coco T'occupe et mets-toi à l'aise Nous c'est la calle, tiens goûte un échant' Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Ils sont pas chauds, quand ça part en couilles Crois moi y a pas d'marche arrière, on est méchants c'est Coco Elle veut un raclo qui fait d'l'espèce J'suis dans l'carré, j'prends tout l'espace C'est l'9-3, c'est pas les states Dix lourds, American Express Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Nique sa grand-mère l'officier J'ai rien vu, n'a rien bité Armes de l'est c'est Sarajevo, trop vénère j'vais lui casser l'dos Ba bang bang j'récupère la coupe En deux deux ça me coups du marteau Y a trop d'dineros, trop d'plata Elle m'a pris pour un franc maçon , j'crois bien que j'ai niqué la que-lo Faux vesqui les attaques à midi, j'ai disparu comme Feyaud Y a pas de sous-métiers, que des pirates sur la moto J'suis dedans avec les jefes, j'dois rester fort, devants ces gows Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo J'finis la bouteille de rosé A 10 sur la yacht, t'inquiète même pas pour nous Que la mif et la santé J'suis sur un piédestal J'suis revenu guitarisé Tes bâtards ont pas voulu m'tendre la mano À quoi bon sert d'aboyer, tu vas finir au sol Le hazi, le réseau, la moula, j'suis dedans Ferrari ou Lambo, j'ai la brune, la de-blon Starfoullah, j'suis chargé J'passe devant les favo' Nique sa reum les tails-dé Faut des sous comme Chapo</t>
+          <t>Jsuis pas trop Audemars Piguet Cartier Santos sur le poignet Pas de répliqué, sous Versace Je viens tchercher, prépare le sachet ??? Sur ta ble-ta jai arrosé Jai du benef à dépenser Chez Saint-Laurent ou bien Dolce Dans tous les diez jsuis là Ou dans le 16e avec la moula Il y a du jaune, de la verte, de la coca Aussi blanche que le cul de Madonna Il y a plus dune ??? dans mon jean Balmain Élastique-ça je fais le même demain Jtaffe à mon compte pas besoin de coup de main Pas dtrahison quand tes seul dans le plan Louis Vuitton faut le monogramme Quatre poches plein de caisses il y a mes grammes Quatre cinq chiffres sur toutes ses sappes ??? dis-leur jpaye pas en card Saint-Laurent ou je porte pas djeans Sur écoute me parle pas ddeal Ballon cache tout dans les poches Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place Owh Owh comme un arc-en-ciel Mes billets ont beaucoup de couleur Avant de monter léchelle Jai connu léchec, trop senti la douleur Oh Oh Gamos quand jatterris Jmange la bouffe de ton pays cest pas terrible Avec les cops on joue à Tom et Jerry Fefe, Lamborghini, Paris, Saint-Gapour, Miami ??? Prada ??? Jveux le compte en banque à Xavi Ça va vite comme le ??? au frigo pour une famille nombreuse sa mère Tu crois nous parler au téléphone trop marrant en vrai on est juste derrière Free mes n en cellules gros Va faire pire que le 6 gros Vrai de vrai pas de film gros Vrai de vrai pas de bitch gros Pas de snitch gros, que du real gros Que du drip drip full au studio Pas de mytho Yeah Yoh Jfais chauffer la salle comme ma tise gros Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chaud</t>
+          <t>Coco</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jai dit belek à la dose Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callle Chaud, faut du cardio nous c'est la calle, calle, calle Calle, calle, calle, callie Chaud Coco Jojo J'mets les billets dans l'c-sa J'mets les billets dans l'e-sa Survêtement neuf, paire d'Air Force One Faut du cardio, faut bosser Les faux négros, faut crossr Mes gars sont dans l'extrême, fum pas de hood Dans l'hood Beaucoup de verte, couleur Werder de Brême but la Ligue 1, but la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'l'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d'l'oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Jojo, Jojo, fuck les porcs, fuck la BAC Coco, Coco, Rico, c'qu'on propose c'est pro Même avec moi j'ai Tropico Mais c'est quoi ça? Huh, huh, que les questions que tu poses Mais c'est quoi ça? Huh, huh, que les cautions que j'explose Que les billets que j'expose, que les transacs pour du flouze Attends pause, cause Écoute le gang quand j'te cause Comment oses-tu? Comment oses-tu prendre de haut les quatres qui t'ont fait? C'est fort, c'est fort, c'est fort Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui Paye Ah que ça vit, c'est cool la foule quand c'est pas toi qui paye nous c'est la Ligue 1 Ah que ça vit, c'est cool la foule quand c'est pas toi qui sort d'l'oseille nous c'est la Ligue 1 Okay Mesdames et Messieurs, rien n'est gratuit si vous voulez m'voir Faut poser l'oseille, hmm hmm, tu peux m'croire On veut que d'oseille, verre de punch, lunettes teintées T'es frais, j'suis posé, c'est cool la foule quand c'est pas toi qui sort d''oseille Hmm hmm, tu peux m'croire On veut que d''oseille, verre de punch, lunettes teintées T'es frais, j'suis posé Hmm hmm, tu peux m'croire On veut que d''oseille, hmm hmm, hmm hmm, hmm hmm Moi j'ai osé Hmm hmm, hmm hmm, hmm hmm Faut poser l'oseille Hmm hmm, hmm hmm, hmm hmm On veut que d'l'oseille Hmm hmm, hmm hmm, hmm hmm Poser Hmm hmm, hmm hmm, hmm hmm C'est cool la foule quand c'est pas toi qui sort d''oseille On veut que d''oseille Poser On veut que d''oseille Moi j'ai osé</t>
+          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chromé</t>
+          <t>Coco</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jsuis pas trop Audemars Piguet Cartier Santos sur le poignet Pas de répliqué, sous Versace Je viens tchercher, prépare le sachet ??? Sur ta ble-ta jai arrosé Jai du benef à dépenser Chez Saint-Laurent ou bien Dolce Dans tous les diez jsuis là Ou dans le 16e avec la moula Il y a du jaune, de la verte, de la coca Aussi blanche que le cul de Madonna Il y a plus dune ??? dans mon jean Balmain Élastique-ça je fais le même demain Jtaffe à mon compte pas besoin de coup de main Pas dtrahison quand tes seul dans le plan Louis Vuitton faut le monogramme Quatre poches plein de caisses il y a mes grammes Quatre cinq chiffres sur toutes ses sappes ??? dis-leur jpaye pas en card Saint-Laurent ou je porte pas djeans Sur écoute me parle pas ddeal Ballon cache tout dans les poches Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place Owh Owh comme un arc-en-ciel Mes billets ont beaucoup de couleur Avant de monter léchelle Jai connu léchec, trop senti la douleur Oh Oh Gamos quand jatterris Jmange la bouffe de ton pays cest pas terrible Avec les cops on joue à Tom et Jerry Fefe, Lamborghini, Paris, Saint-Gapour, Miami ??? Prada ??? Jveux le compte en banque à Xavi Ça va vite comme le ??? au frigo pour une famille nombreuse sa mère Tu crois nous parler au téléphone trop marrant en vrai on est juste derrière Free mes n en cellules gros Va faire pire que le 6 gros Vrai de vrai pas de film gros Vrai de vrai pas de bitch gros Pas de snitch gros, que du real gros Que du drip drip full au studio Pas de mytho Yeah Yoh Jfais chauffer la salle comme ma tise gros Liasse, très bien compressée ??? litron, farine de bonne qualité Audi R8, Spider, V10, mes jantes sont chromées Produit, bonbonne, iencli la fout dans ses cavités Pas besoin dun personnal shopper Toutes mes biatchs valident déjà On attaque on joue pas le stop On parle de nous dans tous les médias Je débite tu savais déjà La sse-lia pénave à ma place</t>
+          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>Coco Jojo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
+          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé jaugmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos Jai plus le temps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'est plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qujles déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, cest normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit dEspagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' Et rajoute d'la tise, j'suis en plein dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a zoom a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en leu mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>COCO JOJO 90's</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dom Pé', tout est bon sous les cocos, cocos, co' Awa, awa Tu co'-co'-co'-co'-co'-co' Ouh, ah, hahahaha C'est Coco Jojo et Tayc de Tayc my G Coco Jojo Est-ce que mes flingueurs sont présents Ouais ce soir ? Coco, coco, coco, coco Et mes flingueuses sont présentes ce soir ? Ouais, ouais, ok Allez coco, coco, coco, coco Tayc de Tayc de Tayc On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appell Tayc, elle m'appell Jojo, coco, coco, coco, coco C'est fort ! Awa Entre nous, c'est compliqué comme parisien qui veut la LDC Faut bosser, unh C'est Jojo c't'émail de flingueur, normal, je viens du RDC Et pendant qu'j'suis dans le cabriolet-let-let-let-let-let Loin de la caille Sur moi, ils s'arrêtent pas d'parler-ler-ler-ler-ler-ler Allez, laisse-nous faire la musique, y aura pas d'hakuna matata Eh, eh Moi, je suis bamiléké donc, je sais faire la platata Mami, je dois me dépêcher, en bas y a mon gars Depitcho R9 On compte plus les péchés, mais bon c'est léger, bisso na bisso Ah On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez Allez coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort ! Pouh, pouh, pouh, pouh, pouh Coco, coco, eh Pouh, pouh, pouh, pouh, pouh Coco, eh Allez coco, coco, eh Allez, laisse-nous faire la musique, y aura pas d'hakuna matata RDC 243, nous, on sait faire la platata Mami, je dois me dépêcher, oh, monter les échelles en crescendo Y a beaucoup de péchés, mais bon c'est léger, bisso na bisso On s'est battu pour voir autre chose que la caille Te-te-te-te J'arrive au pays, y a Samuel Eto'o, tout est calé Awa Coco, coco, coco, coco Allez lungua zoba Coco, coco, coco, coco Dom Pé' tout est bon sous les cocos, cocos, co' Dans le coupé sport, c'est nous, tu co'-co'-co'-co'-co'-co' Jojo Dom Pé' tout est bon sous les cocos, cocos, co' Jamais, jamais, jamais Elle m'appelle Tayc, elle m'appelle Jojo, coco, coco, coco, coco C'est fort !</t>
+          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé j'augmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos J'ai plus le tmps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'st plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qu'j'les déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, c'est normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit d'Espagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' Et rajoute d'la tise, j'suis en dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Coco Jojo</t>
+          <t>CORTÈGE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé jaugmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos Jai plus le temps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'est plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qujles déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, cest normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit dEspagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' Et rajoute d'la tise, j'suis en plein dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a zoom a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en leu mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
+          <t>Ouh-ouh C'est fort, Joco C'est Coco Jojo ouais Nga Coco ouais Jojo han, han, han Han-han, han-han, han-han Hermès me va si bien ah, ah Cortège la folie, c'est moi qui viens han, han Tant qu'on y est, reste aux Champs Ely' magnifique Partout où on passe, c'est la follie c'est fort Jojo stylé comme Fally Tokoos Mon mannequin vient de Napoli d'Italie Parait Kinshasa me connait Paris c'est Bandal Okay Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Aigle Allô, appelle-moi, bébé, quand tu veux c'est bon Nako trouver solution na ba problèmes na ba problèmes ya vie na yo Je suis comme ton ange gardien, je serai toujours là, là han Laisse tomber les faibles, ici il y a des sukali à gogo Quand je débarque, les gars, y a solution trop de charismes La foule acclame, Aigle silisa mpiaka Aigle Mwana Congo, trop d'avance Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COCO JOJO 90's</t>
+          <t>CRACKLANDERS - Part. II</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>On fait ça que pour être au top, man Oh, oh, faudrait se faire Michael Jojo, mon son à fond dans le Range Ro', affamé j'augmente les taros Oh, oh, oh, oh, que des bitchs, que des nymphos, que les snitchs donnent les infos, j'arrive sale gros en pleins phares Je pleures mes reufs partis trop tôt, que des strikes car je m'auto, que des transacs en auto, que les keufs prennent des photos J'ai plus le tmps, gros, j'ai plus le temps, gros, ça débite fort, gros, c'st plus marrant 1ère mi-temps, gros, 2ème mi-temps, j'suis à 100 pour monter d'un cran J'suis pas Peter Pan, ni Robin des Bois, je vois tout je prends, je vois tout je prends, est-ce-que tu comprends ? Faut qu'on finisse roi, parce que ceux qui m'aiment, bah ils comptent sur moi, faut pas qu'j'les déçoives, j'ai de vrais youvois Ils ont rien à savoir de ma vie, parce que ma vie, elle regarde que moi Elle est dans mon lit mais son mec le sait pas, villa à Cannes, c'est normal on fait ssé-pa, fais voir le Vespa, le ti-peu va s'cé-pla J'ai rêvé d'en faire passer tout droit d'Espagne, croise-moi dans les îles, bah ouais j'ai mon Visa Seleçao, l'équipe a la vista, dans l'équipe, gros, j'suis serein comme Nesta, L.M.A.O, t'en veux mais tu mises pas, elle est en haut, j'l'ai laissé sous les draps Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' Et rajoute d'la tise, j'suis en dans le sas, entouré de bitchs, gros la soirée se passe Fumée nocive, j'fume la beuh, comme un rasta, fumée nocive, elle a la pasta J'ai besoin d'être tranquille quand j'finis ma journée, tu sais qu'on est actif et qu'on est préparé Passe-moi en mais j't'en ramènerai deux, j'rentre dans le thème, préviens quand y'a les bleus Les mauvais payeurs voient la vie comme un jeu, calibré for real, écoute le bruit du feu Plus de cash, plus de cash, plus de billets, plus pesos, c'est nous on contrôle le réseau Que du sale que nous faisons, que du sale que nous faisons Me parle des autres que des timps, le bruit des balles il fait pah, pah, pah Sous le rainté j'mets des feintes, feintes, j'ai l'impression d'être à tous leurs parts, parts Junguyly tout comme Baltimore, on a pas changé depuis l'époque de G-Star J'regarde ma Role', voyou impoli, j'jettes un gros colis, jusqu'à Napoli J'fume la brocolis, dans mon gros bolide, côté passager, que mes acolytes L'équipe est solide, si ça part en couilles on est dans les temps, on est concentré, y'a pas d'alcooliques, tu sais qu'on liquides, tout pour le liquide On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco' On veut niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les cocotiers, niquer l'bénef sous les coco'</t>
+          <t>Ah-ah Papito charme, on ramène ladrogue, le cash et les armes Na-Na-Narcos Bou-bou-bou Hadouken Ah-ah-ah-ah, ah-ah, ah-ah-ah Brah Deux ans après, j'finis et j'ai Maison Château Maison Château, remontada, tout l'monde me dis Chapeau Y a pas qu'les bitchies qu'on comportement des Shattas Hum, hum, à dix, on champagne, on s'enfuit pas, pas d'El Chapo Bouh, pah Sa-sa-savages sont mes loups garou Savages sont mes loups ga', nous, c'est seven, cinco, zéro, dix-huit Zéro, dix-huit Jeunesse dorée, ticket gagnant, ah ouh, ah ouh, les p'tits de treize ans t'visser sur un Piwi Piwi Et si ça t'suffit pas, c'est sûremnt sans doutes qu't'as besoin d'nous voir Quoi ? On attends prsonne pour nous dire quoi faire, c'est ça le pouvoir Pah Jaloux parlent, ça m'dérange pas, dans tous les cas, c'est pas moi qui bave Pah, pah C'est pas moi qui rêve d'être dans mon Van Pah, c'est pas moi qu'est en chien, qui tombe en panne Pff J'pète une cigarette 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, ah-ah-ah Et si on t'aide, on attends rien en retour, pas b'soin d'big up Boh J'suis comme Tommy des Peaky, quand j'les cherche, je marche, j'ai pas b'soin Pick Up Boh Y a pas d'lean mais plutôt, du Hennessy au fond du red cup Buh Eh, oh, ma poule, j'me roule un dernier stick pendant qu'elle m'astique, eh Qu'ils ferment tous leurs bouches, si j'm'énèrve, j'dégaine tout d'suite l'automatique Brr J'suis sûr de tout baisé Pah, face à moi, tu sais très bien qu't'as la côte à dix, j'suis sûr de tout baisé Face à moi, tu sais très bien qu'c'est comme mes fils Comme mes p'tits frères Toujours autant savoureux de voir le coffre rempli d'gents-ar, liquides Buh, 2Pac J'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac Jus-Just me and my girlfriend</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CORTÈGE</t>
+          <t>Créatif</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ouh-ouh C'est fort, Joco C'est Coco Jojo ouais Nga Coco ouais Jojo han, han, han Han-han, han-han, han-han Hermès me va si bien ah, ah Cortège la folie, c'est moi qui viens han, han Tant qu'on y est, reste aux Champs Ely' magnifique Partout où on passe, c'est la follie c'est fort Jojo stylé comme Fally Tokoos Mon mannequin vient de Napoli d'Italie Parait Kinshasa me connait Paris c'est Bandal Okay Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Aigle Allô, appelle-moi, bébé, quand tu veux c'est bon Nako trouver solution na ba problèmes na ba problèmes ya vie na yo Je suis comme ton ange gardien, je serai toujours là, là han Laisse tomber les faibles, ici il y a des sukali à gogo Quand je débarque, les gars, y a solution trop de charismes La foule acclame, Aigle silisa mpiaka Aigle Mwana Congo, trop d'avance Oh-la-la-la-la la-la-la J'ai le style ya makila Oh-la-la-la-la la-la-la Je suis pas le nouveau Ma chérie me connait bien han-han La petite me connait bien Les jaloux me connaissent bien han-han Les jaloux me connaissent très bien Paris me connait bien han-han J'suis connu, Coco Jojo Kinshasa me connait bien han-han Yes, c'est fort c'est fort Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han Il faut jamais nous négliger, han Partout où on passe, c'est la folie, han-han</t>
+          <t>Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Jsuis dans le bloc gros cest carré on est toujours pépère Parle pas de rue sale enfoiré on soccupe qu des frères Cherch pas à connaître ta vie negro mêle toi de tes affaires B-Mafia empire sans dièse pour toi je vais me refaire Beaucoup mon cherla, beaucoup mon cherla Paraît-il que moi je suis créatif et quma réussite est là Junguily tuka ouais ouais ouais La rue ce nest pas un jouet, jouet, jouet Chicanos, chicanos, chicanos Il cherche toujours à nous cracher dessus Au lieu de kiffer la life, chaque jours des gens moi jsuis toujours déçu La chance je lai commandé mon negro mais je lai toujours pas reçu On déboule en cagoule tout le monde se chie dessus Ça parle, ça parle on met des coups de massue Lady dit moi quelle est ton jeu Je te dirais si je veux jouer Cesse découter tous les rageux Tu verras quon sera soudé Je pense à tous mes frères écroué Pour eux je vais casser la baraque Je te cache pas on va te trouver Jusquà monter dans ta baraque Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Verre de vodka pour mes gava tu connais Niggas of paris cest clair et certifié Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-me Ma lady, ma lady, ma lady mélodie Ma lady, ma lady, ma lady mélodie Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CRACKLANDERS - Part. II</t>
+          <t>Dans l’ombre</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ah-ah Papito charme, on ramène ladrogue, le cash et les armes Na-Na-Narcos Bou-bou-bou Hadouken Ah-ah-ah-ah, ah-ah, ah-ah-ah Brah Deux ans après, j'finis et j'ai Maison Château Maison Château, remontada, tout l'monde me dis Chapeau Y a pas qu'les bitchies qu'on comportement des Shattas Hum, hum, à dix, on champagne, on s'enfuit pas, pas d'El Chapo Bouh, pah Sa-sa-savages sont mes loups garou Savages sont mes loups ga', nous, c'est seven, cinco, zéro, dix-huit Zéro, dix-huit Jeunesse dorée, ticket gagnant, ah ouh, ah ouh, les p'tits de treize ans t'visser sur un Piwi Piwi Et si ça t'suffit pas, c'est sûremnt sans doutes qu't'as besoin d'nous voir Quoi ? On attends prsonne pour nous dire quoi faire, c'est ça le pouvoir Pah Jaloux parlent, ça m'dérange pas, dans tous les cas, c'est pas moi qui bave Pah, pah C'est pas moi qui rêve d'être dans mon Van Pah, c'est pas moi qu'est en chien, qui tombe en panne Pff J'pète une cigarette 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, ah-ah-ah Et si on t'aide, on attends rien en retour, pas b'soin d'big up Boh J'suis comme Tommy des Peaky, quand j'les cherche, je marche, j'ai pas b'soin Pick Up Boh Y a pas d'lean mais plutôt, du Hennessy au fond du red cup Buh Eh, oh, ma poule, j'me roule un dernier stick pendant qu'elle m'astique, eh Qu'ils ferment tous leurs bouches, si j'm'énèrve, j'dégaine tout d'suite l'automatique Brr J'suis sûr de tout baisé Pah, face à moi, tu sais très bien qu't'as la côte à dix, j'suis sûr de tout baisé Face à moi, tu sais très bien qu'c'est comme mes fils Comme mes p'tits frères Toujours autant savoureux de voir le coffre rempli d'gents-ar, liquides Buh, 2Pac J'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac, j'baisse mon jean et j'crache sur tout l'monde, j'monte dans l'carosse 2Pac On a des flingues, une putain d'grosse dalle, nous, c'est pas Jay Free' 2Pac C'est que du charisme, j'm'en fou d'être beau, envoi l'cash 2Pac, 2Pac Elle veut toute ma, ah mais j'ai d'jà ma Jada Pinkett 2Pac Jus-Just me and my girlfriend</t>
+          <t>Intro Jungle Jungle Guy2Bezbar C'est vrai ou pas ? C'est vrai ou pas ? Tu me cherche ? C'est vrai ou pas ? Haha Guy2, Guy2, Jungle Aaaah Couplet unique Simple et efficace, dans la rue négro, il faut pas fauter Jungle et 2k, maintenant qu'il y a haja, lesquels vont rester ? J'ai vu j'ai vécu, non j'fais pas l'ancien mais j'peux te raconter Vécu de PQ, j'raconte pas la suite ça va dégoûter Mais bande de p'tits PD, non vous m'avez lâcher Mon son donne la nausée, et à d'autre l'envie de kalasher J'ai jamais sucé de bite pour avoir du buzz, malgré j'suis fauché Sortez de vos blocs, j'suis venu entendre, parait que vous êtes caché B-Mafia Empire, tu peux pas trahir pour toi elle a compté Crois moi qu'on va agir on bosse comme des chinois et l'argent va rentrer Guy2Bezbar, il touche pas trop les 'tasses sont rap est trop vulgaire J'suis écouté de tout-par dans tout les tiers-quar et cités trop vénère C'est du rap de te-te-tess, message aux vrais négros Les vrais reconnai-nai-naissent, ceux qui racontent du mytho J'suis frais comme un prince, si c'est pas le cas, faudra pas forcer Les keufs te mettent des pinces, m'a dit l'OPJ faudra pas merder Les voyous de ma ville ont tous des problème, casse pas les ille-cou Mais ça part en vrille restez tous chez vous, vous risquez plein les coups Des coups et encore des coups, ce son c'est pas pour vous C'est quand qu'elle tourne la roue ? Tout le monde qui rit sur nous J'm'en bat les ille-cou tant que pète la forme mes re-frè au trou Lucarne dans ta mère, doublé dans ta race qu'est-ce tu m'parles de Giroud A JungiliSquad, tu trouves des chatons quand tu trouves des loups Le vrai des bonhommes c'est celui qui agit et qui fait moins le fou Bande de grosses salopes, je sors de l'ombre, j'viens pas du sixième Comment te le dire ? J'vais niquer ta race ton frère sera le deuxième J'pète mon Jack Daniels pas pour mon anniv' mais plûtot pour mes soucis Comment te le dire quand j'veux tout baisé quand je pense au monde d'Afrique Mais bande de p'tits PD, suceurs de grosses saucisses J'suis là ça sent le roussi et Abou est là aussi Tu sors un brolique, je sors le fusil veux-tu toujours jouer ? J'suis avec chicanos, équipe de chocs et ça va pas changer Bizarrement mon frère, quand c'est la de-mer il n'y a pas de grand frère Ici la vie coûte cher faut tous les faire taire et pas se laisser faire Je compte sur personne à part moi-même Je compte sur personne à part moi-même Je compte sur personne à part moi-même A part moi-même Ouais ouais Je compte sur personne à part moi-même A part moi-même Je compte sur personne à part moi-même Ouais ouais</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Créatif</t>
+          <t>D.C.B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Jsuis dans le bloc gros cest carré on est toujours pépère Parle pas de rue sale enfoiré on soccupe qu des frères Cherch pas à connaître ta vie negro mêle toi de tes affaires B-Mafia empire sans dièse pour toi je vais me refaire Beaucoup mon cherla, beaucoup mon cherla Paraît-il que moi je suis créatif et quma réussite est là Junguily tuka ouais ouais ouais La rue ce nest pas un jouet, jouet, jouet Chicanos, chicanos, chicanos Il cherche toujours à nous cracher dessus Au lieu de kiffer la life, chaque jours des gens moi jsuis toujours déçu La chance je lai commandé mon negro mais je lai toujours pas reçu On déboule en cagoule tout le monde se chie dessus Ça parle, ça parle on met des coups de massue Lady dit moi quelle est ton jeu Je te dirais si je veux jouer Cesse découter tous les rageux Tu verras quon sera soudé Je pense à tous mes frères écroué Pour eux je vais casser la baraque Je te cache pas on va te trouver Jusquà monter dans ta baraque Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Jaime trop les femmes, femmes, femmes Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament Il mfaut des loves Il mfaut des loves Il mfaut des loves 2LD love, 2LD love, 2LD love Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Tout le monde ma montré quici gros cest chacun sa demer Compte pas sur les gens enfoiré il faut qutu te demerde Verre de vodka pour mes gava tu connais Niggas of paris cest clair et certifié Sous toro mina jette en l'air toute la money Du baratinage et tu n'as plus ton ce-me Ma lady, ma lady, ma lady mélodie Ma lady, ma lady, ma lady mélodie Je visser de la cam, cam, cam Dernière moi ils rament, rament, rament Tous les jours jles crament, crament, crament</t>
+          <t>Ouh Ah, ah, ah, ah My nigga Coco Jojo, ah, ah, ah, ah Ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien pa-paw, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien grrah, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins ouh, ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah J'atterris direct dans sa pussy j'atterris dirct dans sa pussy, han J'appelle direct, ça snt le roussi j'appelle direct, ça sent le brr Tous les négros comme nous investissent envoie des cachets, envoie des cachets, han Ouvre la sacoche remplie d'N26 fais-le, pouah Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet brr, on est clean sheet Si tu donnes ça bien ouais, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien paw, tu restes jusqu'au matin brr Si tu donnes ça bien, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue regarde comment ça flingue, c'est fort, oh Regarde comment ça flingue brrah, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah Envoie des cassettes, envoie des cassettes, envoie des cassettes coupe à la machette J't'envoie ton G7 pah, j't'envoie ton G7, j't'envoie ton G7 appuie sur la gâchette, pah Petit trajet pour un paquet d'argent ouh, moteur allemand, c'est nous les méchants yah, yah Oh, vas-y, répète, oh, vas-y, répète, la calle, c'est fort, c'est fort ouh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet, on est clean sheet ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien c'est Coco Jojo, Coco Jojo R9, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok Bye Havana, regarde comment ça flingue1</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dans l’ombre</t>
+          <t>Décisions</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Intro Jungle Jungle Guy2Bezbar C'est vrai ou pas ? C'est vrai ou pas ? Tu me cherche ? C'est vrai ou pas ? Haha Guy2, Guy2, Jungle Aaaah Couplet unique Simple et efficace, dans la rue négro, il faut pas fauter Jungle et 2k, maintenant qu'il y a haja, lesquels vont rester ? J'ai vu j'ai vécu, non j'fais pas l'ancien mais j'peux te raconter Vécu de PQ, j'raconte pas la suite ça va dégoûter Mais bande de p'tits PD, non vous m'avez lâcher Mon son donne la nausée, et à d'autre l'envie de kalasher J'ai jamais sucé de bite pour avoir du buzz, malgré j'suis fauché Sortez de vos blocs, j'suis venu entendre, parait que vous êtes caché B-Mafia Empire, tu peux pas trahir pour toi elle a compté Crois moi qu'on va agir on bosse comme des chinois et l'argent va rentrer Guy2Bezbar, il touche pas trop les 'tasses sont rap est trop vulgaire J'suis écouté de tout-par dans tout les tiers-quar et cités trop vénère C'est du rap de te-te-tess, message aux vrais négros Les vrais reconnai-nai-naissent, ceux qui racontent du mytho J'suis frais comme un prince, si c'est pas le cas, faudra pas forcer Les keufs te mettent des pinces, m'a dit l'OPJ faudra pas merder Les voyous de ma ville ont tous des problème, casse pas les ille-cou Mais ça part en vrille restez tous chez vous, vous risquez plein les coups Des coups et encore des coups, ce son c'est pas pour vous C'est quand qu'elle tourne la roue ? Tout le monde qui rit sur nous J'm'en bat les ille-cou tant que pète la forme mes re-frè au trou Lucarne dans ta mère, doublé dans ta race qu'est-ce tu m'parles de Giroud A JungiliSquad, tu trouves des chatons quand tu trouves des loups Le vrai des bonhommes c'est celui qui agit et qui fait moins le fou Bande de grosses salopes, je sors de l'ombre, j'viens pas du sixième Comment te le dire ? J'vais niquer ta race ton frère sera le deuxième J'pète mon Jack Daniels pas pour mon anniv' mais plûtot pour mes soucis Comment te le dire quand j'veux tout baisé quand je pense au monde d'Afrique Mais bande de p'tits PD, suceurs de grosses saucisses J'suis là ça sent le roussi et Abou est là aussi Tu sors un brolique, je sors le fusil veux-tu toujours jouer ? J'suis avec chicanos, équipe de chocs et ça va pas changer Bizarrement mon frère, quand c'est la de-mer il n'y a pas de grand frère Ici la vie coûte cher faut tous les faire taire et pas se laisser faire Je compte sur personne à part moi-même Je compte sur personne à part moi-même Je compte sur personne à part moi-même A part moi-même Ouais ouais Je compte sur personne à part moi-même A part moi-même Je compte sur personne à part moi-même Ouais ouais</t>
+          <t>Hello Richie Oh my God Po-po-po-po-po-po-poh Tu sais qu'on fait l'nécessaire 'saire, y a les fakes et y a les gens sincères 'cères On protège nos surs Surs et les p'tits frères qui veulent faire comme nous Nous Grandi dans le Nord de ris-Pa Nord, dans les rixes, dans les Ça vient d'où là ? Ça vient d'où là ? C'est pire que j'pensais, j'sais même plus sur quel pied danser No C'est pas facile mais les choses se font dans la grâce de Dieu Pas facile Sauve qui peut, aucune adré' quand je tire sur eux Tou-tou-touh, tou-tou-touh Un tas, ils ont fait tout pour eux Tout, il en faut peu pour être heureux Eh, eh, eh, eh, eh Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-po-poh Mmh-mmh, mmh-mmh, mmh-mmh Celui qui m'test, je le té-ma, j'allume pas le mortier On va tout wa-tcha-tcha-tcha-tcha M'regardent différemment depuis qu'j'ai l'accès chez Cartier Eh J'vais te rouler d'ssus déjà, t'es pas d'mon quartier Nan Et prends les bonnes décisions car ça pourra t'suivre tout au long d'ta vie On demande la permission, dans sa tte-ch', j'fais en sorte que goûte mon avis Des bâtons dans les roues Han, t'en auras toujours tant qu'il y aura du seille-o Po-po-po-po-po-poh, te laisses pas distraire par une biatch au tel-hô Han-han, han-han, han-han, n'écoutes pas les autres, prends ta direction très vite Han-han, han-han, han-han, si tu peux rester, vite, penses à ta vie Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-poh</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D.C.B</t>
+          <t>Dégâts</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ouh Ah, ah, ah, ah My nigga Coco Jojo, ah, ah, ah, ah Ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien pa-paw, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien grrah, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins ouh, ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah J'atterris direct dans sa pussy j'atterris dirct dans sa pussy, han J'appelle direct, ça snt le roussi j'appelle direct, ça sent le brr Tous les négros comme nous investissent envoie des cachets, envoie des cachets, han Ouvre la sacoche remplie d'N26 fais-le, pouah Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet brr, on est clean sheet Si tu donnes ça bien ouais, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien paw, tu restes jusqu'au matin brr Si tu donnes ça bien, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue regarde comment ça flingue, c'est fort, oh Regarde comment ça flingue brrah, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok, grrah Envoie des cassettes, envoie des cassettes, envoie des cassettes coupe à la machette J't'envoie ton G7 pah, j't'envoie ton G7, j't'envoie ton G7 appuie sur la gâchette, pah Petit trajet pour un paquet d'argent ouh, moteur allemand, c'est nous les méchants yah, yah Oh, vas-y, répète, oh, vas-y, répète, la calle, c'est fort, c'est fort ouh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet sheet, sheet, on est clean sheet oh, oh Ils ont tirés sur l'équipe type, j'ai pris aucun but, j'suis un clean sheet, on est clean sheet, on est clean sheet ouh Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien, t'inquiète, j'prends tes patins t'inquiète, j'prends tes patins Si tu donnes ça bien, tu restes jusqu'au matin tu restes jusqu'au matin Si tu donnes ça bien c'est Coco Jojo, Coco Jojo R9, t'inquiète, j'prends tes patins ok, Coco Jojo Regarde comment ça flingue oh, oh, oh, c'est fort, oh, oh, oh Regarde comment ça flingue oh, oh, oh, ok, ok, oh, oh, oh Regarde comment ça flingue oh, oh, oh, c'est Coco Jojo, Coco R9, ok Bye Havana, regarde comment ça flingue1</t>
+          <t>N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks C'est fort Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Bébé na bébé, j'ai pas de temps devant moi Y a trop d'euros qui m'attendent Faut palper les billets comme Franklin Circulez Fort Des fois j'suis bipolaire, à gauche, à droite comme Dembélé Faut pas m'en vouloir si j'suis populaire, ah dégâts, dégâts Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Ça graille, c'est Bezbar, on dégaine les casques Arai On cherche et t'inquiète on trouve la maille Frappe demi-volée, on fait ça comme Zizou, pas là pour rigoler Poh 243 comme Wissa et Chancel Djodjo On est présent, quand c'est chaud dans la calle Écoute bien, on s'en fout que vous nous croyez ou pas C'est par-balles, on parle pas, tu vois ou pas Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks Junior Alaprod zanmi</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Décisions</t>
+          <t>+ de sous</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Hello Richie Oh my God Po-po-po-po-po-po-poh Tu sais qu'on fait l'nécessaire 'saire, y a les fakes et y a les gens sincères 'cères On protège nos surs Surs et les p'tits frères qui veulent faire comme nous Nous Grandi dans le Nord de ris-Pa Nord, dans les rixes, dans les Ça vient d'où là ? Ça vient d'où là ? C'est pire que j'pensais, j'sais même plus sur quel pied danser No C'est pas facile mais les choses se font dans la grâce de Dieu Pas facile Sauve qui peut, aucune adré' quand je tire sur eux Tou-tou-touh, tou-tou-touh Un tas, ils ont fait tout pour eux Tout, il en faut peu pour être heureux Eh, eh, eh, eh, eh Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-po-poh Mmh-mmh, mmh-mmh, mmh-mmh Celui qui m'test, je le té-ma, j'allume pas le mortier On va tout wa-tcha-tcha-tcha-tcha M'regardent différemment depuis qu'j'ai l'accès chez Cartier Eh J'vais te rouler d'ssus déjà, t'es pas d'mon quartier Nan Et prends les bonnes décisions car ça pourra t'suivre tout au long d'ta vie On demande la permission, dans sa tte-ch', j'fais en sorte que goûte mon avis Des bâtons dans les roues Han, t'en auras toujours tant qu'il y aura du seille-o Po-po-po-po-po-poh, te laisses pas distraire par une biatch au tel-hô Han-han, han-han, han-han, n'écoutes pas les autres, prends ta direction très vite Han-han, han-han, han-han, si tu peux rester, vite, penses à ta vie Mmh, t'as souvent pris les mauvaises décisions T'as souvent pris les mauvaises décisions Okay, va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Han, po-po-po-po-po-po-poh, t'as souvent pris les mauvais décisions Po-po-po-po-po-po-poh Okay, va de l'avant, faut pas qu'tu pètes les plombs T'as sûrement pris les mauvaises décisions T'as sûrement pris les mauvaises décisions, han-han Va de l'avant, faut pas qu'tu pètes les plombs Va de l'avant, faut pas qu'tu pètes les plombs Po-po-po-po-po-poh Jojo, Papito charme, han-han Po-po-po-po-po-poh</t>
+          <t>Bellek track C'est fort ! On va r'mettre tout en place, mes négros, toujours frais, toujours en place J'enlève ma Moncler, j'me mets prêt du chauffage direct au fond de la classe, direct au fond de la classe hein C.O.C.O Jojo, ouais Va faire un tour dans le parking, tu verras qu'il est beau mon classe A Faire du shopping, c'est mon passe-temps On rafale direct, j'ai plus 15 ans Dans le carré VIP, tu sais qu'on s'installe Mon cur est vide, tu sais bébé Bébé, bébé Donc, on évite de fréquentr tous les humains entêtés 'têté, 'têté Favé papito charme, c'st pour toutes les caillées, caillées, et faudra s'apprêter J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Tu peux l'faire aujourd'hui, tu l'remets à demain T'es un flemmard, négro, t'as des sous à perdre J'peux compter sur mes frères, compter sur mes deux mains J'sais qu'au moins ceux-là me laisseront pas à terre J'veux que ta baby m'attrape en sortant d'la te-boî Que j'lui montre un peu tout ce que Favé sait faire J'accélère, faut appuyer ce fer, quand on peut faut appuyer ses frères J'connais ces filles, j'connais les vices J'connais les G, j'connais les risques J'veux du Gucci, pas du Levis Les pe-ssa japprécie, que-mar en plus J'suis dans les sommes, les bénéfices Moi j'suis quun homme, gros, j'ai des fils Un peu focus, sommet je vise Négro, j'veux que ça, billet en plus J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dégâts</t>
+          <t>Dikidi</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks C'est fort Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Bébé na bébé, j'ai pas de temps devant moi Y a trop d'euros qui m'attendent Faut palper les billets comme Franklin Circulez Fort Des fois j'suis bipolaire, à gauche, à droite comme Dembélé Faut pas m'en vouloir si j'suis populaire, ah dégâts, dégâts Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort Ça graille, c'est Bezbar, on dégaine les casques Arai On cherche et t'inquiète on trouve la maille Frappe demi-volée, on fait ça comme Zizou, pas là pour rigoler Poh 243 comme Wissa et Chancel Djodjo On est présent, quand c'est chaud dans la calle Écoute bien, on s'en fout que vous nous croyez ou pas C'est par-balles, on parle pas, tu vois ou pas Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Attends, attends, attends ça va chauffer Elle a soif, on envoie bouteille de Dom Pé' Pour qui tu nous prends ? On maîtrise le mouvement Coco, Bolé', le flinguage on connaît Dégâts, dégâts, dégâts, dégâts, dégâts, dégâts On fait trop de dégâts On fait trop de dégâts Tous les jours quand j'me réveille, y a des nouveaux dossiers Té-ma, té-ma, té-ma, té-ma, té-ma, té-ma Ils font que de pénave Ils font que de kouma Mais ils vont rien faire, ils pourront que nous regarder C'est fort N26 j'suis dans coula, biff dans PCS J'veux pas finir au PMU donc j'suis dans sales affaires 18ème arrondissement, sept seven eight Opération dragon, Jungeli Touka S.A.N Tara G2 Binks Junior Alaprod zanmi</t>
+          <t>Woh, woh, ola C'est Coco Jojo Depitcho R9, mon gars C'est Coco Jojo, ah C'est fort, c'est fort, ouh DJ Babs Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel essentiel Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay 'sace, minimum trois bocks, d'la money, Netflix, quatre pattes Coco Jojo, tu vas plus en boîte mais Bebeto tourne en Pack 4 combo G2B tu tue ça, neuf balles, fifty, typé M, Kiki, ça c'est notre kiff, ça diki, diki, diki Tranquille, tu veux mon kiki ici, y a que des dicksa tu lahsa, casse-toi Ici, les flics, ici, les flics savent que la caille réplique on fire Mec on t'explique, c'est du plastique, on en veut pas d'tes piques que du no-fake, que du real, mec Briques, y a peut-être quinze mille, cest peut-être cinquante ou peut-être deux mille, petit imbécile ah, ah J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, j'allume comme Lucky woh, woh Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel c'est essentiel, ouh Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay Dikidi, dikidi, dikidi Diki, dikidi, dikidi, dikidi Dikidi, dikidi, dikidi, eh C'est DJ Babs et le Coco Jojo Dikidi, dikidi, dikidi, grr, paw Dikidi, dikidi, dikidi, ah, ah</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>+ de sous</t>
+          <t>Dior et de l’or</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bellek track C'est fort ! On va r'mettre tout en place, mes négros, toujours frais, toujours en place J'enlève ma Moncler, j'me mets prêt du chauffage direct au fond de la classe, direct au fond de la classe hein C.O.C.O Jojo, ouais Va faire un tour dans le parking, tu verras qu'il est beau mon classe A Faire du shopping, c'est mon passe-temps On rafale direct, j'ai plus 15 ans Dans le carré VIP, tu sais qu'on s'installe Mon cur est vide, tu sais bébé Bébé, bébé Donc, on évite de fréquentr tous les humains entêtés 'têté, 'têté Favé papito charme, c'st pour toutes les caillées, caillées, et faudra s'apprêter J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Tu peux l'faire aujourd'hui, tu l'remets à demain T'es un flemmard, négro, t'as des sous à perdre J'peux compter sur mes frères, compter sur mes deux mains J'sais qu'au moins ceux-là me laisseront pas à terre J'veux que ta baby m'attrape en sortant d'la te-boî Que j'lui montre un peu tout ce que Favé sait faire J'accélère, faut appuyer ce fer, quand on peut faut appuyer ses frères J'connais ces filles, j'connais les vices J'connais les G, j'connais les risques J'veux du Gucci, pas du Levis Les pe-ssa japprécie, que-mar en plus J'suis dans les sommes, les bénéfices Moi j'suis quun homme, gros, j'ai des fils Un peu focus, sommet je vise Négro, j'veux que ça, billet en plus J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies J'en fais beaucoup, donne-moi plus d'un, donne-moi plus d'un, j'en fais beaucoup J'vide ma te-car, chaque samedi soir faut plus de sous La misère C'est qu'une catin, tous les matins j'lui mets son coup Elle voulait plus qu'un soir, plus qu'une sortie Elle était pas là quand je comptais mes centimes J'voulais pas, mais j'crois que j'ai blessé cette fille 3 points comme les Celtics, elle veut qu'on prenne des selfies</t>
+          <t>Il y a un plavon, j'y vais, je le fais jcours, j'cours, j'cours, jcours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets Y a intérêt qu'on finisse R-O-I-S On va faire ça propre, t'as la finesse Tequila Bentley, état d'ivresse On est tous calme, mais ça roule en vitesse Fais la foule, vla quest le Jaguar dragon, dragon C'est plus la même cadence, tu vois très bin quon a plus rien à voir Qu'on a plus rien à avoir skeu, sku, skeu Y a trop de gars, on dirait c'est pas équilibré Et en vrai, on s'en balec, plus rien à perdre, on est calibré J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro C'est fort eh, prrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets On fait du fric, on est gang, on est célèbre, célèbre Y a que mes bro dans le fer y a que mes kho dans le Bentley C'est nous les boss dans le terre, terre Les princes d'la calle, les princes d'la calle On en a plus rien à faire, on fait nos affaires été comme hiver, hiver Tous ceux qui m'aiment pas sont par terre rien qu'ils sont tous éteints, c'est dur L'gang il est vrai, zéro fake OTF, only the flingueurs, only the family Toujours un métal sous le Nike Tech J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro Eh, prrrrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dikidi</t>
+          <t>DIS-MOI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Woh, woh, ola C'est Coco Jojo Depitcho R9, mon gars C'est Coco Jojo, ah C'est fort, c'est fort, ouh DJ Babs Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel essentiel Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay 'sace, minimum trois bocks, d'la money, Netflix, quatre pattes Coco Jojo, tu vas plus en boîte mais Bebeto tourne en Pack 4 combo G2B tu tue ça, neuf balles, fifty, typé M, Kiki, ça c'est notre kiff, ça diki, diki, diki Tranquille, tu veux mon kiki ici, y a que des dicksa tu lahsa, casse-toi Ici, les flics, ici, les flics savent que la caille réplique on fire Mec on t'explique, c'est du plastique, on en veut pas d'tes piques que du no-fake, que du real, mec Briques, y a peut-être quinze mille, cest peut-être cinquante ou peut-être deux mille, petit imbécile ah, ah J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, Lucky Luke, oui, hein J'allume comme Lucky, hein, j'allume comme Lucky woh, woh Essentiel woh, woh, woh, faire monter les gos dans la gova, c'est essentiel c'est essentiel, ouh Quand tu sors de la tess, dans la poche, il faut l'arc-en-ciel il faut l'arc-en-ciel, ah Le toit panoramique te fait surveiller le ciel woh, woh, c'est Coco Jojo Mais maintenant, j'fais trembler la capitale, sucez ma dikidi, dikidi, dikidi ouh, ouh On augmente le capital donc elle veut ma dikidi, dikidi, dikidi diki, diki C'est moi le capitaine donc ici, c'est moi qui dit, moi qui dit, moi qui dit moi qui dit Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, woh Dikidi, dikidi, dikidi dikidi, dikidi, wouh, wouh Dikidi, dikidi, dikidi paw, paw, dikidi, brr Dikidi, dikidi, dikidi dikidi, dikidi, dikidi Dikidi, dikidi, dikidi c'est Coco Jojo, Depitcho R9, okay Dikidi, dikidi, dikidi Diki, dikidi, dikidi, dikidi Dikidi, dikidi, dikidi, eh C'est DJ Babs et le Coco Jojo Dikidi, dikidi, dikidi, grr, paw Dikidi, dikidi, dikidi, ah, ah</t>
+          <t>Han-han-han-han, han-han-han-han Junior Alaprod, zanmi Han-han-han-han, han-han-han-han Nardey, c'est chaud, ça, ah-ah Han-han-han-han, han-han-han-han-han Han-han-han-han Jojo, han-han-han-han-han-han-han Ocho Han-han-han-han Ambition, han-han-han-han American Express, comme Air Force, ça passe partout J'fly, j'm'endors dans l'classe Business pendant qu'ils parlent encore de nous Rah D'vant le hanout sans stress, carte ou espèce, c'est moi l'patron La force, j't'la donne si t'es mon boug, on mendie pas un partage Dis-moi, dis-moi, dis-moi si j'sors guitare ou j'prends sur moi ? Quelques billets dans Rimowa Grr, j'distribue comme Robin des Bois Attends, dis-moi, dis-moi, dis-moi si t'as besoin, j'parle pas chinois J'pars de chez moi, j'descends chez eux, gros, maintenant, chez eux, c'est chez moi Ils ont pas un, c'est des menteurs, le pire, c'est qu'on les connaît C'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Ouh, ouh, ouh, ouh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Fin fond dans la caisse, pose tes fesses, bisous partout J'suis là pour embellir ta vie, j'suis pas tes ex en carton Eh-eh Envoie-moi ton adresse, j't'emmène loin et sans tabou Tu mérite mieux qu'ces mythos qui s'inventent des vies de voyous Dis-moi, dis-moi, dis-moi mon bébé si tu penses à moi ? J't'envoie un virement, prends sac-à-main, vingt-deux carats, donne-moi ta main, hey Mais dis-moi, dis-moi, dis-moi, j'ai pas l'air de parler chinois J'te rassure avec un calîn, j'veux tout tout d'suite et pas demain À deux cents-vingts, guette le compteur Guette le compteur, j'aime la vitesse, tu m'connais On m'mets sur l'côté mais pas d'sanction car le condé m'reconnaît À deux cents-vingts, guette le compteur Compteur, j'ai un faible pour le Cognac Ah-ah Dis-leur SD', bolide allemand, j'ai comme l'impression d'm'envoler Ils ont pas un, c'est des menteurs Putain, le pire, c'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs C'est des mythos, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Poh, poh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Okay Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Ambition Han-han-han-han-han-han Ah-ah-ah-ah, ah-ah-ah-ah</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dior et de l’or</t>
+          <t>Dix-huit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Il y a un plavon, j'y vais, je le fais jcours, j'cours, j'cours, jcours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets Y a intérêt qu'on finisse R-O-I-S On va faire ça propre, t'as la finesse Tequila Bentley, état d'ivresse On est tous calme, mais ça roule en vitesse Fais la foule, vla quest le Jaguar dragon, dragon C'est plus la même cadence, tu vois très bin quon a plus rien à voir Qu'on a plus rien à avoir skeu, sku, skeu Y a trop de gars, on dirait c'est pas équilibré Et en vrai, on s'en balec, plus rien à perdre, on est calibré J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du Dior et de l'or, mon negro C'est fort eh, prrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets On fait du fric, on est gang, on est célèbre, célèbre Y a que mes bro dans le fer y a que mes kho dans le Bentley C'est nous les boss dans le terre, terre Les princes d'la calle, les princes d'la calle On en a plus rien à faire, on fait nos affaires été comme hiver, hiver Tous ceux qui m'aiment pas sont par terre rien qu'ils sont tous éteints, c'est dur L'gang il est vrai, zéro fake OTF, only the flingueurs, only the family Toujours un métal sous le Nike Tech J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro J'te jure qu'ils sont morts, mon negro On met du dior et de l'or, mon negro Eh, prrrrrr Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel ma dick c'est la Tour Eiffel Mais la pire, tu me fais plus d'effets Il y a un plavon, j'y vais, je le fais j'cours, j'cours, j'cours, j'cours, j'cours La monnaie me fait de l'effet beaucoup de palpitation, palpitation Ma dick, c'est la Tour Eiffel mèche de Titeuf enfoiré Mais la pire, tu me fais plus d'effets</t>
+          <t>Zone six, smoke crescendo Bellek Track C'est fort J't'ai dit C'est chaud, coño Ah bon ?, j'y vais molo, crescendo Belle doudoune quand il fait pas beau, j'suis seul dans mon mal, frérot Frérot Au fond, tu sais, j'suis pas paro Quoi ? Ça fonce à l'épice' en piwi En piwi Dans le Range, j'écoute du Peewee Du Peewee Discret comme Ace dans Paid In On-on arrive en 4x4, elles finissent à quatre pattes J'ai pété la Black Card Aye, aye, aye, impossible qu'elle passe as-p Skuh J'suis trop dedans Dedans, c'est embêtant 'bêtant J'dois péter une sécu' en béton Ils disent qu'ils me cherchent, ils savent bien où j'habite J'habite là au bâtiment d'à coté, ça bute Elle s'accroche à mon stup', elle s'accroche à mon fut' J'me réveille le matin, j'en veux plus Ils veulent leur dose, ils veulent leur dose, ils m'prennent pour Pablo Escobar Let's go J'suis qu'un escroc, j'suis qu'un escroc Three, j'prends le cash et j'me barre J'viens d'Bezbar et j'rappe avec la barre All of J'écoute nos rivaux, j'me tape des barres Des barres J'écris mes textes dans l'square Dans l'square Look at my racks, ma squad, squad Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit, hey Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west Tout-tout pour l'dix-huit, j'ai une guitare qui chante Un conseil que j'te donne il faut pas que j'me gante MP40, un chargeur plus de trente Serein dans la ville, gros, c'est moi Lucas Frank Ils m'donnent la force à mon courage Pour l'rap, c'est du bonus, moi, j'suis concentré dans ma trap J'quadrille ma zone, ma gueule, rien ne m'échappe T'as de quoi m'refaire, j't'attacherai comme un shlague Pi-pi-pi-pi-pi Fuck le bendo, j'suis dans l'trap Cuisine le crack comme un super chef Oui J'sors de Bezbar, j'suis pas une star Tout ce succès leur monte à la tête Ah-ah, binks, bordel, j'suis dans l'périmètre SD, piwi, j'suis trop gang, gang Sur ces putas, j'vais faire bang, bang Que du seille-o, que du seille-o, que du seille-o, que du seille-o J'vends la mayo, tout est cello', qui est quoi ? Hum, hum On est règlo' Han-han, Coco Jojo, c'est le neuf comme Anelka On remonte de Rotter', j'ai tout en GLK On passe les rapports, ça pète, pa-pa-pa-pa-pa-pah Allô ? Maman, j'pense à toi de fou malade Quand j'regarde le ciel, j'pense à toi, toutes les balafres J'me sens comme Mitch pendant qu'on s'tape la balade Les dix-huit, les flingueurs qui vous passent le Salam Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west C'est Coco Jojo, Jojo Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou Han-han Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou Grr, paw</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DIS-MOI</t>
+          <t>Du Chiffre</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Han-han-han-han, han-han-han-han Junior Alaprod, zanmi Han-han-han-han, han-han-han-han Nardey, c'est chaud, ça, ah-ah Han-han-han-han, han-han-han-han-han Han-han-han-han Jojo, han-han-han-han-han-han-han Ocho Han-han-han-han Ambition, han-han-han-han American Express, comme Air Force, ça passe partout J'fly, j'm'endors dans l'classe Business pendant qu'ils parlent encore de nous Rah D'vant le hanout sans stress, carte ou espèce, c'est moi l'patron La force, j't'la donne si t'es mon boug, on mendie pas un partage Dis-moi, dis-moi, dis-moi si j'sors guitare ou j'prends sur moi ? Quelques billets dans Rimowa Grr, j'distribue comme Robin des Bois Attends, dis-moi, dis-moi, dis-moi si t'as besoin, j'parle pas chinois J'pars de chez moi, j'descends chez eux, gros, maintenant, chez eux, c'est chez moi Ils ont pas un, c'est des menteurs, le pire, c'est qu'on les connaît C'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Ouh, ouh, ouh, ouh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Fin fond dans la caisse, pose tes fesses, bisous partout J'suis là pour embellir ta vie, j'suis pas tes ex en carton Eh-eh Envoie-moi ton adresse, j't'emmène loin et sans tabou Tu mérite mieux qu'ces mythos qui s'inventent des vies de voyous Dis-moi, dis-moi, dis-moi mon bébé si tu penses à moi ? J't'envoie un virement, prends sac-à-main, vingt-deux carats, donne-moi ta main, hey Mais dis-moi, dis-moi, dis-moi, j'ai pas l'air de parler chinois J'te rassure avec un calîn, j'veux tout tout d'suite et pas demain À deux cents-vingts, guette le compteur Guette le compteur, j'aime la vitesse, tu m'connais On m'mets sur l'côté mais pas d'sanction car le condé m'reconnaît À deux cents-vingts, guette le compteur Compteur, j'ai un faible pour le Cognac Ah-ah Dis-leur SD', bolide allemand, j'ai comme l'impression d'm'envoler Ils ont pas un, c'est des menteurs Putain, le pire, c'est qu'on les connaît Pour leur défense, ils demandent des avocats commis Ils ont pas un, c'est des menteurs C'est des mythos, pourront jamais détrôner Eh, j'suis près d'l'arrivée, ils ont du mal à décoller, hey, hey Poh, poh Dis-moi, qui veut test ? On va faire les choses en grand, j'ai des mes-ar gigantesques Gros, j'ai foiré tout mes diplômes, j'ai réussi l'alcootest Faux rappeurs, eux, c'est des poucinets qui marchent que dans leurs tess, nous, on encaisse, 'caisse, 'caisse Okay Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Jojo, ocho Han-han-han-han, han-han-han-han Ambition Han-han-han-han-han-han Ah-ah-ah-ah, ah-ah-ah-ah</t>
+          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon rre-ve Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolique, j'te sors un fusil j'rafale avec insistance Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, cane-bé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ça va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste mignon petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrête, faut qu'tu m'enterres Qu'est-ce que tu vas faire-faire? Mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sûr, Ah bien sûr Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid1</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dix-huit</t>
+          <t>ENCORE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Zone six, smoke crescendo Bellek Track C'est fort J't'ai dit C'est chaud, coño Ah bon ?, j'y vais molo, crescendo Belle doudoune quand il fait pas beau, j'suis seul dans mon mal, frérot Frérot Au fond, tu sais, j'suis pas paro Quoi ? Ça fonce à l'épice' en piwi En piwi Dans le Range, j'écoute du Peewee Du Peewee Discret comme Ace dans Paid In On-on arrive en 4x4, elles finissent à quatre pattes J'ai pété la Black Card Aye, aye, aye, impossible qu'elle passe as-p Skuh J'suis trop dedans Dedans, c'est embêtant 'bêtant J'dois péter une sécu' en béton Ils disent qu'ils me cherchent, ils savent bien où j'habite J'habite là au bâtiment d'à coté, ça bute Elle s'accroche à mon stup', elle s'accroche à mon fut' J'me réveille le matin, j'en veux plus Ils veulent leur dose, ils veulent leur dose, ils m'prennent pour Pablo Escobar Let's go J'suis qu'un escroc, j'suis qu'un escroc Three, j'prends le cash et j'me barre J'viens d'Bezbar et j'rappe avec la barre All of J'écoute nos rivaux, j'me tape des barres Des barres J'écris mes textes dans l'square Dans l'square Look at my racks, ma squad, squad Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit, hey Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west Tout-tout pour l'dix-huit, j'ai une guitare qui chante Un conseil que j'te donne il faut pas que j'me gante MP40, un chargeur plus de trente Serein dans la ville, gros, c'est moi Lucas Frank Ils m'donnent la force à mon courage Pour l'rap, c'est du bonus, moi, j'suis concentré dans ma trap J'quadrille ma zone, ma gueule, rien ne m'échappe T'as de quoi m'refaire, j't'attacherai comme un shlague Pi-pi-pi-pi-pi Fuck le bendo, j'suis dans l'trap Cuisine le crack comme un super chef Oui J'sors de Bezbar, j'suis pas une star Tout ce succès leur monte à la tête Ah-ah, binks, bordel, j'suis dans l'périmètre SD, piwi, j'suis trop gang, gang Sur ces putas, j'vais faire bang, bang Que du seille-o, que du seille-o, que du seille-o, que du seille-o J'vends la mayo, tout est cello', qui est quoi ? Hum, hum On est règlo' Han-han, Coco Jojo, c'est le neuf comme Anelka On remonte de Rotter', j'ai tout en GLK On passe les rapports, ça pète, pa-pa-pa-pa-pa-pah Allô ? Maman, j'pense à toi de fou malade Quand j'regarde le ciel, j'pense à toi, toutes les balafres J'me sens comme Mitch pendant qu'on s'tape la balade Les dix-huit, les flingueurs qui vous passent le Salam Wild, wild west Three, three, wild, wild west J'sors du gamos ça m'épaule Wild, wild west All of my niggas for real that shit Wild, wild west, wild wild west J'sors du gamos ça m'épaule Wild, wild west C'est Coco Jojo, Jojo Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou C'est fort, c'est fort Bouh-bouh-bouh-bouh-bouh-bouh, j'ai ma liasse d'oseille et mon doudou Han-han Bouh-bouh-bouh-bouh-bouh-bouh, file l'adresse qu'on leur passe un coucou Grr, paw</t>
+          <t>Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo T'en fais pas pour ça, je gère le tempo Non, c'est pas tes faux negro qui rapportent que des blèmes-pro c'est fort, c'est fort Droit au but la quand j'enfile les tiempo J'ai parabellum qui vient tout droit d'Jamaique comme Sean Paul C'est Coco Jojo Jojo Tu dit quoi RS, elle boude, elle fait des caprices Fait la jumper dans l'RS Tu vas zapper tes soucis tout oublier La soirée même elle va m'donné sa pussy On va s'enjaillé toute la noche Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo J'kiffe quand elle m'appelle Sa voix m'apaise J'fais comme si j'avais pas besoin d'elle J'dois finir quelques adresses J'suis dans la tess j'recompte les mapess Me prend pas la tête monte dans la caisse Beaucoup de liasse rien qu'on encaisse c'est fort, c'est fort Rs Coco Jojo on fait pas d'cadeaux Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Du Chiffre</t>
+          <t>ENCORE NOUS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon rre-ve Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolique, j'te sors un fusil j'rafale avec insistance Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, cane-bé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ça va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste mignon petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrête, faut qu'tu m'enterres Qu'est-ce que tu vas faire-faire? Mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sûr, Ah bien sûr Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que busca problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid1</t>
+          <t>Même de loin, j'te fais d'l'effet comme un Urus qui roule à 220 dans les rues de Paris, oh Oh, mais juste avant, j'casse un tour dans mon barrio yes, yes J'me sens chez moi à plusieurs sous l'festa que près des Parigos On m'a fait trop d'manières étant jeune, ça m'a rendu plus mature ça m'a rendu plus ghetto Maintenant, c'est l'boss de leur grand frère qui s'tourne dans la rue parce qu'on a la même voiture Parce qu'on a la même voiture Mon avenir est sans doute dessiné J'aime fédérer, moi, j'aime donner des idées J'aime pas la police, j'suis qu'un jeune de cité Jojo J'connais qu'les casse-dalles, les cs-gre, les frites yes Là où j'habite, que ça débite fort T'-shi j'effrite, nous c'est la riche Revends la white comme le maillot du Réal snif Terrain push comme le monde à Châtelet-les-Halles ah, ah Belek au signal pow, pow Tout le monde à terre devant le casque intégral Tout le monde à terre devant le casque intégral Parle pas, gros, on va t'éteindre Parle pas, on va t'éteindre Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a osé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna C'est encore nous hey, hey, hey J'ai mangé, j'suis encore en pétard pow Un bouton, on démarre la bécane Logistique toujours impeccable Ça va commencer ici et ça va péter péter Le USAVG de enfer mom Coco J'suis en esprit, l'arrêt, tu m'embêtes T'as vu le charsime du monsieur en vrai ouh-ouh On fait les OG, elle fait la timp fait la timp Elle aime les voyages, les Chanel, vogues Celui qui donne, on lui rend l'respect Depuis l'arrêt de bus, c'est l'gros sac Eastpak ah, ah, ah J'ai la mental', j'défie l'aspect Quand j'arrive en full, des foules à la cité Ils veulent nous ressembler, on a du goût J'vais en Espagne pour me relaxer C'est l'argent d'la tontine, ils se sont trompés Eux c'est des mendiants eux c'est des mendiants T'as jamais palpé autant d'thunes, me fais pas la morale eh, eh, eh Eh, eh Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ENCORE</t>
+          <t>Fabuleux</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo T'en fais pas pour ça, je gère le tempo Non, c'est pas tes faux negro qui rapportent que des blèmes-pro c'est fort, c'est fort Droit au but la quand j'enfile les tiempo J'ai parabellum qui vient tout droit d'Jamaique comme Sean Paul C'est Coco Jojo Jojo Tu dit quoi RS, elle boude, elle fait des caprices Fait la jumper dans l'RS Tu vas zapper tes soucis tout oublier La soirée même elle va m'donné sa pussy On va s'enjaillé toute la noche Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo J'kiffe quand elle m'appelle Sa voix m'apaise J'fais comme si j'avais pas besoin d'elle J'dois finir quelques adresses J'suis dans la tess j'recompte les mapess Me prend pas la tête monte dans la caisse Beaucoup de liasse rien qu'on encaisse c'est fort, c'est fort Rs Coco Jojo on fait pas d'cadeaux Encore du cash, encore Jusqu'à c'que la vie nous sépare Que la vie nous sépare Du balai, j'ai pas besoin d'eux J'peux pas revenir au départ J'peux pas revenir au départ Dans la caille tout se sait Mais y a que toi qui sait pas Y a que toi qui sait pas Je l'ai dans la peau, c'est mon bébé Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo Elle en demande encore c'est fort, c'est fort C'est fort Elle en veut encore J'lui dis c'est mort Rsko, Jojo</t>
+          <t>Ouh ouh, ouh, ouh ouh, ouh, ouh ouh, ouh, ouh ouh Wouh, wouh Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds On encaisse et toi vide la caisse, tous les mecs j'agresse, c'est Guy de Barbès, gigot en finesse, et ma bitch, y a qu'moi qui l'a dresse y a qu'moi qui l'a dresse Faux keuf, faux keuf, gros sac de fric, on les effraie, té-ma le drip oh oh, on m'invite je dis pas no no no no En Jordan j'ai toutes les pannos wow, oh wow, oh oh oh, on les serre toutes comme Bowo, oh wow, oh oh oh T'es pas tout seul donc fais d'l'espace, t'es pas le seul qui vise l'espace, t'es pas le seul bébé de Coco Jojo, qui fume des splifs en terrasse Paquets d'argent, paquets d'argent, tout est frais comme le parquet flottant Hmm, c'est fabuleux, j'ai du flow comme Fabolous J'fais les boutiques et j'achète tout tout, tout, évidemment, j'en ai beaucoup beaucoup Guetter les yeux sont tirés sur nous, c'est qu'on est chauds, soyez sûrs de vous Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Oh Jojo On est bons qu'à ça, on est bons qu'à ça, on va tout casser oh Jojo J'ai besoin d'massa, on fume que d'la frappe, on roule en classe G, woah, woah Big ice, big brr, big ice, big brr oh Jojo On fait comme kassav, on réveille la foule pour les ambiancer oh Jojo Je veux Ciroc toutes les saveurs, toutes les couleurs pour commencer oh la Ligue 1 Fokev, fokev, oublie pas qui je suis, oublie pas qui me fuit Yeah, yeah Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Le Coco Jojo On est pas des mythos</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ENCORE NOUS</t>
+          <t>Fais de l’argent</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Même de loin, j'te fais d'l'effet comme un Urus qui roule à 220 dans les rues de Paris, oh Oh, mais juste avant, j'casse un tour dans mon barrio yes, yes J'me sens chez moi à plusieurs sous l'festa que près des Parigos On m'a fait trop d'manières étant jeune, ça m'a rendu plus mature ça m'a rendu plus ghetto Maintenant, c'est l'boss de leur grand frère qui s'tourne dans la rue parce qu'on a la même voiture Parce qu'on a la même voiture Mon avenir est sans doute dessiné J'aime fédérer, moi, j'aime donner des idées J'aime pas la police, j'suis qu'un jeune de cité Jojo J'connais qu'les casse-dalles, les cs-gre, les frites yes Là où j'habite, que ça débite fort T'-shi j'effrite, nous c'est la riche Revends la white comme le maillot du Réal snif Terrain push comme le monde à Châtelet-les-Halles ah, ah Belek au signal pow, pow Tout le monde à terre devant le casque intégral Tout le monde à terre devant le casque intégral Parle pas, gros, on va t'éteindre Parle pas, on va t'éteindre Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a osé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna C'est encore nous hey, hey, hey J'ai mangé, j'suis encore en pétard pow Un bouton, on démarre la bécane Logistique toujours impeccable Ça va commencer ici et ça va péter péter Le USAVG de enfer mom Coco J'suis en esprit, l'arrêt, tu m'embêtes T'as vu le charsime du monsieur en vrai ouh-ouh On fait les OG, elle fait la timp fait la timp Elle aime les voyages, les Chanel, vogues Celui qui donne, on lui rend l'respect Depuis l'arrêt de bus, c'est l'gros sac Eastpak ah, ah, ah J'ai la mental', j'défie l'aspect Quand j'arrive en full, des foules à la cité Ils veulent nous ressembler, on a du goût J'vais en Espagne pour me relaxer C'est l'argent d'la tontine, ils se sont trompés Eux c'est des mendiants eux c'est des mendiants T'as jamais palpé autant d'thunes, me fais pas la morale eh, eh, eh Eh, eh Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Coco Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton Qualité, quantité, oseille, papier Y a des gamos, des visières teintées On me transporte comme Jason Statham Y a des gens Michel Basir sur le quintet Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Riri Louis Vuitton, nouvelle Amiri On veut la moula, les lovés à Rihanna Quand tu dormais, nous, on allait bosser Jojo Grosse tension quand il faut causer hein, hein, hein Dès qu'on arrive, tu vas bouger tcho, tcho Y a des gros lovés, mais bon faut doser c'est fort Tout ce qu'on a fait, c'était osé Dans les deux sens du terme qu'on a rosé tout, tout, tout Y a des gens dehors qui peuvent pas hausser le ton Y a des gens dehors qui peuvent pas hausser le ton</t>
+          <t>Yo Joshy, Joshy Ah Ah-ah Comme un Blues Brothers, Blues Brothers j'bouge et le groove comme moi, t'en trouve pas, hein Bouge, loser, fuck suceur qui veulent que je shoote, donc j'mets coup de pouce, pouce Vrr Allez, ouste, mec Brr, j'fais le taff un peu normal qu'j'ai du flouze, mec Ouh Tu peux pas m'suivre, donc tu t'étouffe, mec, cent-cinquante paires de shoes que j'ai, mec Bang En concert, toujours full, c'est Dieu qui donne Ah, ah-ah-ah Écoute, écoute J'ai foutue Bebeto en l'air dans l'hélico', les jaloux bandent encore sur mes anciennes chicas Ah non, j'ordonne qu'ont leurs foute la loi RICO R9 en attaque, c'est toujours efficace et pas qu'au foot', j'arrive dans un pack M Eh Je regarde quand la petite ti-ssor, tout ça, c'est mon paquet Ouh, ah-ah-ah-ah, t'as trop la rage Elle fais du cash, nous, c'est mériter Ah J'finirais comme Damon Dash, t'as quand-même trop la rage Jojo Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Pour transporter mon flow, faut plus qu'un hélicoptère Faut plus qu'un hélico' On t'enterre si t'as sauté l'terr' On t'enterre Que Dieu me pardonne quand j'pêche Que Dieu me pardonne T'es dans l'froid, j'profite du soleil à Marrakech Han-han, han-han Tu vas m'supplier comme un ge-sh' Comme un ge-sh', j'préfère l'ange de droite mais j'écoute celui de gauche J'préfère l'ange de droite Trop d'éloquence, trop de groose quand j'pose, c'est en soum-soum, sous-marin qu'on fait les choses Boum, boum, okay Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique El Rico J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique José J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh1</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fabuleux</t>
+          <t>Faut bosser</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ouh ouh, ouh, ouh ouh, ouh, ouh ouh, ouh, ouh ouh Wouh, wouh Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds On encaisse et toi vide la caisse, tous les mecs j'agresse, c'est Guy de Barbès, gigot en finesse, et ma bitch, y a qu'moi qui l'a dresse y a qu'moi qui l'a dresse Faux keuf, faux keuf, gros sac de fric, on les effraie, té-ma le drip oh oh, on m'invite je dis pas no no no no En Jordan j'ai toutes les pannos wow, oh wow, oh oh oh, on les serre toutes comme Bowo, oh wow, oh oh oh T'es pas tout seul donc fais d'l'espace, t'es pas le seul qui vise l'espace, t'es pas le seul bébé de Coco Jojo, qui fume des splifs en terrasse Paquets d'argent, paquets d'argent, tout est frais comme le parquet flottant Hmm, c'est fabuleux, j'ai du flow comme Fabolous J'fais les boutiques et j'achète tout tout, tout, évidemment, j'en ai beaucoup beaucoup Guetter les yeux sont tirés sur nous, c'est qu'on est chauds, soyez sûrs de vous Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Oh Jojo On est bons qu'à ça, on est bons qu'à ça, on va tout casser oh Jojo J'ai besoin d'massa, on fume que d'la frappe, on roule en classe G, woah, woah Big ice, big brr, big ice, big brr oh Jojo On fait comme kassav, on réveille la foule pour les ambiancer oh Jojo Je veux Ciroc toutes les saveurs, toutes les couleurs pour commencer oh la Ligue 1 Fokev, fokev, oublie pas qui je suis, oublie pas qui me fuit Yeah, yeah Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Hey oh, par là-bas c'est comment ? c'est comment, tout pour le gang, tout pour maman mama Dès que j'me lève j'suis en forme c'est la Ligue 1, c'est maintenant qu'ils demandent le temps mort ça flingue Demande pas de mi-temps, même avec bâtons dans les roues, j'vais y arriver okay, j'ai la meilleure caisse On est pas des mythos, venez voir la tess', c'est la meilleure idée c'est Coco Jojo, on encaisse le plus de ronds Le Coco Jojo On est pas des mythos</t>
+          <t>Chily, Coco, c'est le retour de Chita comme R9 en 2002 Bellek Track Petit connard, petit connard C'est fort Chily, Coco, c'est le retour de Chita comme R9 en 2002 Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Dans ses chaussettes, j'appelle tit-pe, ramène tout la recette Ds palettes, en chaussette Un peu pompette, elle m'appelle en folie pour se faire ma sucette Pour se faire ma Chupa Chups J'ai même pas vraiment débuté Jo-Jojo qu'elle m'appelle midi, soir Midi, soir Tu nous parles de débiter, tu mens, tu mens, ta vie est triste, faut bosser Faut bosser Oh chicanos, Dom Pé' j'envoie tout dans son gosier C'es chaud, gros Oh chicanos C'est fort, à la base, on s'est demandé du temps, c'était c'que j't'ai dis C'était surtout qu't'en avais parler Donc, j'ai pris mon sac à dos, poignée d'oseille dans ma veste Teddy Ah-ah, ah-ah, ah-ah Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Eux, c'était tout pour la fame La fame, nous, c'était tout pour la famille Famille À pied, j'ai fait des kilomètres Pour manger, j'ai transporté des kilos moi-même S'en bat les couilles de qui la vend, c'est c'lui qui cuisine que l'on veut S'en bat les couilles de qui la vend Maintenant, faut manger, c'est c'lui qui cuisine que l'on veut Pour les los-ki qu'on a très tôt quitté l'école, beaucoup de bénéf' dans l'hall Maintenant, faut manger Parti pour revenir en forme, on te refroidira négro si tu fais l'malin Ah Parti pour revenir en forme, le ghetto m'a dit Continue, car c'est toi l'meilleur Chily, Coco, c'est le retour de Chita comme R9 en 2002 Petit connard, petit connard Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Faut bosser, hein Depitcho, Ronaldo, faut bosser Okay, partout, tu sais qu'on flingue, flingue La pépite, le génie, faut bosser C'est fort, c'est fort, okay, Jojo Depitcho, Ronaldo, faut bosser Umh-umh, umh-umh, umh-umh, umh-umh La pépite, le génie, faut bosser</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fais de l’argent</t>
+          <t>Febbraio</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Yo Joshy, Joshy Ah Ah-ah Comme un Blues Brothers, Blues Brothers j'bouge et le groove comme moi, t'en trouve pas, hein Bouge, loser, fuck suceur qui veulent que je shoote, donc j'mets coup de pouce, pouce Vrr Allez, ouste, mec Brr, j'fais le taff un peu normal qu'j'ai du flouze, mec Ouh Tu peux pas m'suivre, donc tu t'étouffe, mec, cent-cinquante paires de shoes que j'ai, mec Bang En concert, toujours full, c'est Dieu qui donne Ah, ah-ah-ah Écoute, écoute J'ai foutue Bebeto en l'air dans l'hélico', les jaloux bandent encore sur mes anciennes chicas Ah non, j'ordonne qu'ont leurs foute la loi RICO R9 en attaque, c'est toujours efficace et pas qu'au foot', j'arrive dans un pack M Eh Je regarde quand la petite ti-ssor, tout ça, c'est mon paquet Ouh, ah-ah-ah-ah, t'as trop la rage Elle fais du cash, nous, c'est mériter Ah J'finirais comme Damon Dash, t'as quand-même trop la rage Jojo Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Pour transporter mon flow, faut plus qu'un hélicoptère Faut plus qu'un hélico' On t'enterre si t'as sauté l'terr' On t'enterre Que Dieu me pardonne quand j'pêche Que Dieu me pardonne T'es dans l'froid, j'profite du soleil à Marrakech Han-han, han-han Tu vas m'supplier comme un ge-sh' Comme un ge-sh', j'préfère l'ange de droite mais j'écoute celui de gauche J'préfère l'ange de droite Trop d'éloquence, trop de groose quand j'pose, c'est en soum-soum, sous-marin qu'on fait les choses Boum, boum, okay Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique El Rico J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Elle est on fleek, j'pue l'fric comme un chicanos qui tiens un cartel au Mexique José J'vais t'faire danser comme Snoop Doggy-Doggy-Dogg, Snoop Doggy-Dogg, Snoop Doggy-Dogg West Side, West Side Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Coco Jojo, fais d'l'argent Mozart Jackson Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh Fais d'l'argent Ouh, ouh, ouh, fais d'l'argent Ouh, ouh, ouh1</t>
+          <t>Y'a pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, on devient pas millionnaire avec un seul taff, G2 cest calle, calle, mec on tire dans l'tas mec on tire dans l'tas, pow Ya pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, y'a pas de fumée sans feu, pas de shit sans cas c'est Coco Jojo, wow, on devient pas millionnaire avec un seul taff ok, ok, G2 c'est calle, calle, mec on tire dans l'tas flingue, hun hun, flingue Y'a pas de fumée sans feu, pas de shit sans cash C'est d'carré positif, perçois dès que jvise la tête jai le fugitif La réussite c'est la directive, jm'active j'suis patient j'ai mental de Rubin Carter ok, jconnais l'chez moi, j'ai tout appris par cur c'est fort, c'est fort Ça bouillonne dans tout mon corps c'est chaud, c'est nous la calle Blue Magic Corp calle, calle Jojo Coco, sac de tout cash, j'suis là d'puis longtemps, j'suis pas un rookie krr, paw, charges les tokas, j'donne le go, go, j'éteins la bougie ça flingue C'est fort fo-fo-fo fort, Bèsbar c'est Baltimore, po-po-po pow Je sais où je vais, j'suis pas duper, c'est juste que ton plan il nous sert à tchi hun, hun Au calme, c'qui m'arrive c'est super, cool, de la course, j'fais toujours partie wow, ok C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo Ça caillasse de baisé, ça caillasse de baisé, j'appelle bitchies dans suite hôtel pour m'apaiser, après couper cocaïna faut la peser faut la peser Pas de pression hun hun, pas de pression j'ai pas la pression, on veut même plus savoir si t'as raison pow, on sait juste que t'as quitté la maison Jojo Change de gamos, les condés me questionnent Merco, change de gamos et les condés m'espionnent Feinte de la gova, la pool party, t-shirt Prada sous le bombardier, en vrai de vrai j'suis jamais parti, c'est tout pour Paris, tout pour mon quartier C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Faut bosser</t>
+          <t>Fendi love</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Chily, Coco, c'est le retour de Chita comme R9 en 2002 Bellek Track Petit connard, petit connard C'est fort Chily, Coco, c'est le retour de Chita comme R9 en 2002 Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Dans ses chaussettes, j'appelle tit-pe, ramène tout la recette Ds palettes, en chaussette Un peu pompette, elle m'appelle en folie pour se faire ma sucette Pour se faire ma Chupa Chups J'ai même pas vraiment débuté Jo-Jojo qu'elle m'appelle midi, soir Midi, soir Tu nous parles de débiter, tu mens, tu mens, ta vie est triste, faut bosser Faut bosser Oh chicanos, Dom Pé' j'envoie tout dans son gosier C'es chaud, gros Oh chicanos C'est fort, à la base, on s'est demandé du temps, c'était c'que j't'ai dis C'était surtout qu't'en avais parler Donc, j'ai pris mon sac à dos, poignée d'oseille dans ma veste Teddy Ah-ah, ah-ah, ah-ah Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Eux, c'était tout pour la fame La fame, nous, c'était tout pour la famille Famille À pied, j'ai fait des kilomètres Pour manger, j'ai transporté des kilos moi-même S'en bat les couilles de qui la vend, c'est c'lui qui cuisine que l'on veut S'en bat les couilles de qui la vend Maintenant, faut manger, c'est c'lui qui cuisine que l'on veut Pour les los-ki qu'on a très tôt quitté l'école, beaucoup de bénéf' dans l'hall Maintenant, faut manger Parti pour revenir en forme, on te refroidira négro si tu fais l'malin Ah Parti pour revenir en forme, le ghetto m'a dit Continue, car c'est toi l'meilleur Chily, Coco, c'est le retour de Chita comme R9 en 2002 Petit connard, petit connard Champion, champion, mon frère Champion, champion, mon frère, champion Chily, Coco, c'est le retour de Chita comme R9 en 2002 Champion, champion, mon frère Champion, champion, mon frère, champion Pour qui te prends-tu ? Dis-moi tout, petit connard Petit connard, petit connard Pour qui te prends-tu ? Dis-moi tout, petit connard Awa, ça flingue, Jojo, Jojo J'aurais besoin d'plus de temps mais tu t'en vas Jojo J'aurais besoin de plus de temps mais tu t'en vas Ouh, ouh Awa, faut bosser Dans cité, dans calle, faut bosser Faut bosser Awa, faut bosser La pépite et le génie, faut bosser Van Bommel Awa, faut bosser Dans cité, dans calle, faut bosser C'est fort, c'est fort Awa, faut bosser Depitcho, Ronaldo, faut bosser C'est Coco Jojo Faut bosser, hein Depitcho, Ronaldo, faut bosser Okay, partout, tu sais qu'on flingue, flingue La pépite, le génie, faut bosser C'est fort, c'est fort, okay, Jojo Depitcho, Ronaldo, faut bosser Umh-umh, umh-umh, umh-umh, umh-umh La pépite, le génie, faut bosser</t>
+          <t>Saydiq Yeah Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, what you want Mais c'est impossible j'me déplace en gang, non, non, non Dix sept à la te-por , canons d'vant les windows, woah, woah Hier plavon, demain plavon, week-end plavon, woah, woah Mon dos tu peux l'rayer, tant qu'le gamos brille, oh, woah, woah J'lui ai donné des roses, elle m'a dit J'veux du Hennessy, woah, woah Elle veut du Fendi, uh, elle veut du Louis, uh Elle veut la Dolce, c'est qu'une groupie, uh oh non Elle veut du Fendi, uh elle veut du Fendi, elle veut du Louis, uh elle veut du Louis Elle veut la Dolce elle veut la dolce vita Jojo Jojo, Sauce God, deux cent guys dans l'binks Jojo Peu m'importe, t'as pas la taille d'mon bed Jojo Louis, Fendi, Comme des Garçons, babe On sait que tu mens, ouais, on sait que tu mens, ouais Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois Mais c'est impossible, j'me déplace en gang, non, non, non Wah, wah Elle veut un gars doux mais moi, c'est Jojo okay Elle veut un gars doux mais moi, c'est Sauce God c'est fort Elle veut un gars doux mais moi, c'est Jojo hahaha On sait que tu mens, ouais, bitch, on sait que tu mens ouh, ouh, ouh, Ligue 1 On éteint la bougie mm, mm, j'finis la fin comme un bout d'shit mm, mm Le crime paie, oh shit woah Dis moi juste un dernier mot qui pourrait m'caresser l'oreille droite Mom, I love you for life On bosse fort, j'suis le G.O.A.T., ha Ayo, babe, pas si vite, tu vas où là ? Moi, c'est Coco Jojo, toi t'es mon joujou, cul de sac, j'me présente Elle a b'soin d'mon message, juste avant d'se coucher, j'kiffe ça qu'elle se couche, ah le Coco Jojo, haha, wah Toi, moi, c'était pour un one night stand mais tu mens Jojo Tu sais qu'souvent j'ai les mains dans un dièse, doucement ayy, Jojo Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois ayy, Jojo Mais c'est impossible, j'me déplace en gang, non, non, non ayy, Jojo Elle veut un gars doux mais moi, c'est Jojo Elle veut un gars doux mais moi, c'est Sauce God Elle veut un gars doux mais moi, c'est Jojo On sait que tu mens, ouais, bitch, on sait que tu mens ayy, Jojo Coco Jojo, Sauce God, yeah, yeah, yeah Yeah, on sait qu'tu mens, eh On sait qu'tu mens, ouais On sait qu't'as jamais fait c'que tu dis, c'est qu'tu mens, ouais Coco Jojo, Sauce God</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Febbraio</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Y'a pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, on devient pas millionnaire avec un seul taff, G2 cest calle, calle, mec on tire dans l'tas mec on tire dans l'tas, pow Ya pas de fumée sans feu, pas de shit sans cash pas de beuh sans oseille, oseille, y'a pas de fumée sans feu, pas de shit sans cas c'est Coco Jojo, wow, on devient pas millionnaire avec un seul taff ok, ok, G2 c'est calle, calle, mec on tire dans l'tas flingue, hun hun, flingue Y'a pas de fumée sans feu, pas de shit sans cash C'est d'carré positif, perçois dès que jvise la tête jai le fugitif La réussite c'est la directive, jm'active j'suis patient j'ai mental de Rubin Carter ok, jconnais l'chez moi, j'ai tout appris par cur c'est fort, c'est fort Ça bouillonne dans tout mon corps c'est chaud, c'est nous la calle Blue Magic Corp calle, calle Jojo Coco, sac de tout cash, j'suis là d'puis longtemps, j'suis pas un rookie krr, paw, charges les tokas, j'donne le go, go, j'éteins la bougie ça flingue C'est fort fo-fo-fo fort, Bèsbar c'est Baltimore, po-po-po pow Je sais où je vais, j'suis pas duper, c'est juste que ton plan il nous sert à tchi hun, hun Au calme, c'qui m'arrive c'est super, cool, de la course, j'fais toujours partie wow, ok C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo Ça caillasse de baisé, ça caillasse de baisé, j'appelle bitchies dans suite hôtel pour m'apaiser, après couper cocaïna faut la peser faut la peser Pas de pression hun hun, pas de pression j'ai pas la pression, on veut même plus savoir si t'as raison pow, on sait juste que t'as quitté la maison Jojo Change de gamos, les condés me questionnent Merco, change de gamos et les condés m'espionnent Feinte de la gova, la pool party, t-shirt Prada sous le bombardier, en vrai de vrai j'suis jamais parti, c'est tout pour Paris, tout pour mon quartier C'est Coco Jojo, Depitcho R9 Et parles pas, on voulait de l'or t'étais même pas né c'est fort, c'est fort, et parles pas, on pétait le score t'étais même pas né ça flingue, flingue, parles pas, on voulait de l'or t'étais même pas né brrr, bow On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo On sait pas qui vend jojo, jojo, mais on sait qui prend jojo, jojo, on sait pas qui vend jojo, jojo, mais on sait qui prend</t>
+          <t>Ouh, ouh ! C'est Mozart, Capitaine Jackson C'est fort Five Unh, unh, unh, unh Papito charme Ramène la drogue, le cash et les armes Anakin On va choquer de Paname à Kin' Ouais Ils ont voulu nous la faire à l'envers, c'est dead C'est dead, c'est dead Tellement d'oseille que j'confonds la semaine et le week-end Unh Trop d'sentiments, on est comme Barbie et Ken Ah-ah Le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire ken Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique C'est fort, Papito charme, ouh Tous les soirs, j'suis dans une nouvelle tte-ch' Tte-ch', tous les soirs, j'rentre avec nouvelle kich' Kich', kich' Bouge de là, j'te vire à coup de punch', nous, c'est paquet d'oseille comme au Qatar I make money, j'ai dressing de bâtard, toi, t'as la trentaine, t'sais que parler bagarre T'as la trentaine, t'sais que parler, bagarre, ah-ah Nouveau jean, nouveau chèque, nouvelle collab' Ah-ah-ah, ah-ah-ah, pah Nouveau gamos pendant qu'toi, tu dors mal Ah-ah-ah, ah-ah-ah My G, j'encaisse, je fly, fly, tu parles, t'es pire qu'en hess T'es pire qu'en chien 10K dans poche droite, CC garde sans stress, pendant la rée-s' Pendant la rée-soi Tu bandes sur des mecs qui regardent mon flow, demande mes réfs' C'est Coco Jojo Remplir mes boîtes à chaussures d'billets violets, c'est même plus mon rêve Ça m'fait même plus bander, woh G.O.A.T, c'est nous les GOAT, tu sais qu'on est prêts Tu sais qu'on est prêts, ah-ah-ah Faut même pas les aider, c'est que des bandeurs, qu'ils crèvent Pah Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Barbie et Ken, ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique Que Dieu nous bénisse face aux épreuves de la vie, j'reste tenace J'reste fort Comme un lion, j'vais rugir, dans ma tête, mes pensées sont noires Umh J'écris dans grimoire, plus je m'enfume, plus je perds la mémoire Dans la sauce, j'suis l'piment, pendant la bagarre, j'sors l'Opinel Charcle, charcle Okay, côté obscur, Anakin Côté obscur, Anakin, Kin', c'est mes origines Kin', c'est mes origines Trop d'sentiments comme Barbie et Ken Comme Barbie et Ken Aucun scrupule, sale opps, j'jette ton corps dans la Seine Touh, touh, touh, touh, touh, touh, touh Tu vas vomir ta graille quand tu vas té-ma la scène Berk Okay Okay, j'empile les kich' J'empile les kich' J'suis Neymar sur l'flanc gauche Neymar sur l'flanc glauche À chaque fois qu't'ouvres ta gueule, petit négro, c'est pour dire de la merde T'es nul J'te tire dessus, la police me cherche, j'suis d'jà de l'autre côté d'la mer Poh Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fendi love</t>
+          <t>Freestyle Coco Jojo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Saydiq Yeah Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, what you want Mais c'est impossible j'me déplace en gang, non, non, non Dix sept à la te-por , canons d'vant les windows, woah, woah Hier plavon, demain plavon, week-end plavon, woah, woah Mon dos tu peux l'rayer, tant qu'le gamos brille, oh, woah, woah J'lui ai donné des roses, elle m'a dit J'veux du Hennessy, woah, woah Elle veut du Fendi, uh, elle veut du Louis, uh Elle veut la Dolce, c'est qu'une groupie, uh oh non Elle veut du Fendi, uh elle veut du Fendi, elle veut du Louis, uh elle veut du Louis Elle veut la Dolce elle veut la dolce vita Jojo Jojo, Sauce God, deux cent guys dans l'binks Jojo Peu m'importe, t'as pas la taille d'mon bed Jojo Louis, Fendi, Comme des Garçons, babe On sait que tu mens, ouais, on sait que tu mens, ouais Toi, moi, c'était pour un one night stand mais tu mens Tu sais qu'souvent j'ai les mains dans un dièse, doucement Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois Mais c'est impossible, j'me déplace en gang, non, non, non Wah, wah Elle veut un gars doux mais moi, c'est Jojo okay Elle veut un gars doux mais moi, c'est Sauce God c'est fort Elle veut un gars doux mais moi, c'est Jojo hahaha On sait que tu mens, ouais, bitch, on sait que tu mens ouh, ouh, ouh, Ligue 1 On éteint la bougie mm, mm, j'finis la fin comme un bout d'shit mm, mm Le crime paie, oh shit woah Dis moi juste un dernier mot qui pourrait m'caresser l'oreille droite Mom, I love you for life On bosse fort, j'suis le G.O.A.T., ha Ayo, babe, pas si vite, tu vas où là ? Moi, c'est Coco Jojo, toi t'es mon joujou, cul de sac, j'me présente Elle a b'soin d'mon message, juste avant d'se coucher, j'kiffe ça qu'elle se couche, ah le Coco Jojo, haha, wah Toi, moi, c'était pour un one night stand mais tu mens Jojo Tu sais qu'souvent j'ai les mains dans un dièse, doucement ayy, Jojo Pour toi, bébé, j'aurais tout, tout fait, ouais, tu vois ayy, Jojo Mais c'est impossible, j'me déplace en gang, non, non, non ayy, Jojo Elle veut un gars doux mais moi, c'est Jojo Elle veut un gars doux mais moi, c'est Sauce God Elle veut un gars doux mais moi, c'est Jojo On sait que tu mens, ouais, bitch, on sait que tu mens ayy, Jojo Coco Jojo, Sauce God, yeah, yeah, yeah Yeah, on sait qu'tu mens, eh On sait qu'tu mens, ouais On sait qu't'as jamais fait c'que tu dis, c'est qu'tu mens, ouais Coco Jojo, Sauce God</t>
+          <t>C'est Baltimore ici hein pour Coco Jojo Hahaha c'est Baltimore ici hein c'est Baltimore ici... hein ZK ZK, pour Coco Jojo depitcho R9 WOOOOOH Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse c'est fort! ah-ha-ah Ma jeunesse en Airness pas en Hermès tchwa Wesh, et quand j'freestyle la concu elle reste graw J'suis leur phobie comme le péage d'Arras bow A c'quip toi tu tires comme au Texas hein T'aurais pu jouer dans la série Dallas haha Et y'a trop d'habitudes qu'il faut que j'délaisse Dis-moi qui n'aime pas compter des liasses ? hein A la main ou à la compteuse wooh Tu suces trop t'auras pas mon deuz On l'fait pas d'une manière honteuse ou j'passerai plus la porte d'chez moi ah ah-ah Les balayettes lasers de mon père me font plus glisser que la patinoire wow On sait bien que tu ne veux pas d'histoires Des mots différents mais au fond j'ai toujours le même discours Clients fidèles, teh en kil', ristourne Les baqueux ces vissieux font 20 fois le tour J'ai fait 20 fois le tri, et mes erreurs j'les paye 20 fois l'prix Eh j'fume plus l'3 fois filtrés hehe Rien de tel que du bon beldi J'ai besoin de moins de stress le mardi et plus de piété le vendredi ça flingue Le vendredi... C'est Baltimore ici, y'a des shlags sur toute la superficie Y'a pas trop d'issues pour qu'on sorte d'ici... BALTIMORE! Ca bicrave des rêves et la mort aussi, aywa aywa G2B dis-leur c'est fort ici C'EST FORT! aha-ah ah-ah ZK ZK, pour Coco Jojo depitcho R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse nan! Wesh Ma jeunesse en Airness pas en Hermès WOOOOOH Wesh Et quand j'freestyle la concu elle reste ha-ah C'est Baltimore ici, toute la cité est écoutée, pistée Les numéros de clients rangés, listés Dès qu'il fait l'appel mets-lui une passe Dé' Avec la bonté j'fais un face-face bow J'te mens pas j'ai pas le cur à Nasdas han, tchwa J'te mens pas j'ai pas le cur à Nasdas bow ZK ZK, pour Coco Jojo depitcho R9R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse Wesh Ma jeunesse en Airness, pas en Hermès nan, nan, jamais! Et quand j'freestyle la concu elle reste aha-ah ZK ZK ouaaais Pour Coco Jojo depitcho R9, dégaine de chef d'orchestre fort! On côtoie pas les clowns de kermesse nan, nan, nan Ma jeunesse en Airness pas en Hermès c'est fort! Wesh Et quand j'freestyle la concu elle reste hahaha C'est Baltimore ici mon pote...</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Gangsta Luv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ouh, ouh ! C'est Mozart, Capitaine Jackson C'est fort Five Unh, unh, unh, unh Papito charme Ramène la drogue, le cash et les armes Anakin On va choquer de Paname à Kin' Ouais Ils ont voulu nous la faire à l'envers, c'est dead C'est dead, c'est dead Tellement d'oseille que j'confonds la semaine et le week-end Unh Trop d'sentiments, on est comme Barbie et Ken Ah-ah Le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire ken Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique C'est fort, Papito charme, ouh Tous les soirs, j'suis dans une nouvelle tte-ch' Tte-ch', tous les soirs, j'rentre avec nouvelle kich' Kich', kich' Bouge de là, j'te vire à coup de punch', nous, c'est paquet d'oseille comme au Qatar I make money, j'ai dressing de bâtard, toi, t'as la trentaine, t'sais que parler bagarre T'as la trentaine, t'sais que parler, bagarre, ah-ah Nouveau jean, nouveau chèque, nouvelle collab' Ah-ah-ah, ah-ah-ah, pah Nouveau gamos pendant qu'toi, tu dors mal Ah-ah-ah, ah-ah-ah My G, j'encaisse, je fly, fly, tu parles, t'es pire qu'en hess T'es pire qu'en chien 10K dans poche droite, CC garde sans stress, pendant la rée-s' Pendant la rée-soi Tu bandes sur des mecs qui regardent mon flow, demande mes réfs' C'est Coco Jojo Remplir mes boîtes à chaussures d'billets violets, c'est même plus mon rêve Ça m'fait même plus bander, woh G.O.A.T, c'est nous les GOAT, tu sais qu'on est prêts Tu sais qu'on est prêts, ah-ah-ah Faut même pas les aider, c'est que des bandeurs, qu'ils crèvent Pah Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Barbie et Ken, ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique Que Dieu nous bénisse face aux épreuves de la vie, j'reste tenace J'reste fort Comme un lion, j'vais rugir, dans ma tête, mes pensées sont noires Umh J'écris dans grimoire, plus je m'enfume, plus je perds la mémoire Dans la sauce, j'suis l'piment, pendant la bagarre, j'sors l'Opinel Charcle, charcle Okay, côté obscur, Anakin Côté obscur, Anakin, Kin', c'est mes origines Kin', c'est mes origines Trop d'sentiments comme Barbie et Ken Comme Barbie et Ken Aucun scrupule, sale opps, j'jette ton corps dans la Seine Touh, touh, touh, touh, touh, touh, touh Tu vas vomir ta graille quand tu vas té-ma la scène Berk Okay Okay, j'empile les kich' J'empile les kich' J'suis Neymar sur l'flanc gauche Neymar sur l'flanc glauche À chaque fois qu't'ouvres ta gueule, petit négro, c'est pour dire de la merde T'es nul J'te tire dessus, la police me cherche, j'suis d'jà de l'autre côté d'la mer Poh Ils ont voulu nous la faire à l'envers, c'est dead C'est mort, c'est dead, dead Tellement d'oseille que j'confonds la semaine et le week-end Le week-end Trop d'sentiments, on est comme Barbie et Ken Ah-ah Comme Barbie et Ken, le reste, j'les emmerde, nous, c'est pas la même, qu'ils aillent se faire ken Qu'ils aillent se faire mettre Pour la famille, j'suis cagoulé dans l'hazi Dans l'hazi Élevé aux pâtes et au riz, faire du blé, c'est ma théorie C'est ma théorie J'fly, j'fais que d'voler, Marrakech, j'fais que d'voler Los Angeles, j'fais que d'voler, okay, j'encaisse, j'fais que d'voler Paris, c'est magique</t>
+          <t>J'pull up dans un quatre roues motrices, tu me fais du bien car j'ai l'amour du risque À la gansta love, à la gangsta love, tes yeux reflètent le ciel de l'Île Maurice Alors on fait comment ? J'ai besoin de toi, on profite d'un instant, juste une fois J'ai comme le sentiment que tu t'en vas, j'ai comme le présentiment que tu t'en vas J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps n temps, en attendant Tout la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Tout va bene, hamdoullah, labess, chérie, mon amour, t'es ma femme, t'es ma fameuse Jamais j'te laisse tomber pour le reste, à la gangsta love, à la gangst à mort Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, ouh Ça fais longtemps, même si toi et moi, des fois, non c'est pas ça Tu veux combien d'enfants ? Jsuis tarpin sérieux quand j'te dis On va faire l'équipe du Barça Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, baw J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps en temps, en attendant Toute la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Freestyle Coco Jojo</t>
+          <t>Gangsta Paradise</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>C'est Baltimore ici hein pour Coco Jojo Hahaha c'est Baltimore ici hein c'est Baltimore ici... hein ZK ZK, pour Coco Jojo depitcho R9 WOOOOOH Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse c'est fort! ah-ha-ah Ma jeunesse en Airness pas en Hermès tchwa Wesh, et quand j'freestyle la concu elle reste graw J'suis leur phobie comme le péage d'Arras bow A c'quip toi tu tires comme au Texas hein T'aurais pu jouer dans la série Dallas haha Et y'a trop d'habitudes qu'il faut que j'délaisse Dis-moi qui n'aime pas compter des liasses ? hein A la main ou à la compteuse wooh Tu suces trop t'auras pas mon deuz On l'fait pas d'une manière honteuse ou j'passerai plus la porte d'chez moi ah ah-ah Les balayettes lasers de mon père me font plus glisser que la patinoire wow On sait bien que tu ne veux pas d'histoires Des mots différents mais au fond j'ai toujours le même discours Clients fidèles, teh en kil', ristourne Les baqueux ces vissieux font 20 fois le tour J'ai fait 20 fois le tri, et mes erreurs j'les paye 20 fois l'prix Eh j'fume plus l'3 fois filtrés hehe Rien de tel que du bon beldi J'ai besoin de moins de stress le mardi et plus de piété le vendredi ça flingue Le vendredi... C'est Baltimore ici, y'a des shlags sur toute la superficie Y'a pas trop d'issues pour qu'on sorte d'ici... BALTIMORE! Ca bicrave des rêves et la mort aussi, aywa aywa G2B dis-leur c'est fort ici C'EST FORT! aha-ah ah-ah ZK ZK, pour Coco Jojo depitcho R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse nan! Wesh Ma jeunesse en Airness pas en Hermès WOOOOOH Wesh Et quand j'freestyle la concu elle reste ha-ah C'est Baltimore ici, toute la cité est écoutée, pistée Les numéros de clients rangés, listés Dès qu'il fait l'appel mets-lui une passe Dé' Avec la bonté j'fais un face-face bow J'te mens pas j'ai pas le cur à Nasdas han, tchwa J'te mens pas j'ai pas le cur à Nasdas bow ZK ZK, pour Coco Jojo depitcho R9R9 Dégaine de chef d'orchestre, on côtoie pas les clowns de kermesse Wesh Ma jeunesse en Airness, pas en Hermès nan, nan, jamais! Et quand j'freestyle la concu elle reste aha-ah ZK ZK ouaaais Pour Coco Jojo depitcho R9, dégaine de chef d'orchestre fort! On côtoie pas les clowns de kermesse nan, nan, nan Ma jeunesse en Airness pas en Hermès c'est fort! Wesh Et quand j'freestyle la concu elle reste hahaha C'est Baltimore ici mon pote...</t>
+          <t>Junior Alaprod, zanmi Scar Nardey, c'est chaud ça, ah-ah Han-han Au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Moi, j'ai voyagé du Brésil au Mexique en passant par des soirées bien ambiancées, très festives À l'avenir, j'te préviens, les autres, c'est du plexi, de ma vie, n'sont plus là, on peut dire que j'les ai exclu J'répète au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Le temps fait que j'suis toujours bien sapé, de temps en temps, bisou à maman, c'est sacré Ne t'en fais pas, comme toi, j'peux plus m'les saquer, fais toujours attention, sûr de moi, très loin d'être septique Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Elle se demande c'que j'fais dans la vie Life, mon cur fait Boom, mon cur chavire Boom, boom, boom Grosse caisse, champagne, nos bitchs de luxe Mmh, avant ça, c'était petites coupures et la taule Boom, boom, boom Enfant du ghetto fait les pesos dans le hood Enfant du ghetto fait les pesos dans le hood Mmh Boom, boom, boom, en vrai, j'suis parti de rien comme vous Parti de rien comme vous Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Soleil Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Boom, boom, boom Ça flex, ah-ah-ah Han-han, han-han, t'en fais pas Enfant du ghetto Han-han, han-han, t'en fais pas Papito charme et Leto, han-han-han On a l'sunset de temps en temps, han-han-han On a l'sunset, plus rien à prouver mais tu veux aller où ? Han-han-han J't'explique</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Gangsta Luv</t>
+          <t>GÉ APPRIS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J'pull up dans un quatre roues motrices, tu me fais du bien car j'ai l'amour du risque À la gansta love, à la gangsta love, tes yeux reflètent le ciel de l'Île Maurice Alors on fait comment ? J'ai besoin de toi, on profite d'un instant, juste une fois J'ai comme le sentiment que tu t'en vas, j'ai comme le présentiment que tu t'en vas J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps n temps, en attendant Tout la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah Jamais je laisse tomber Tout va bene, hamdoullah, labess, chérie, mon amour, t'es ma femme, t'es ma fameuse Jamais j'te laisse tomber pour le reste, à la gangsta love, à la gangst à mort Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, ouh Ça fais longtemps, même si toi et moi, des fois, non c'est pas ça Tu veux combien d'enfants ? Jsuis tarpin sérieux quand j'te dis On va faire l'équipe du Barça Lunedi, martedi, tous les jours, tu rends fou, c'est pas bon la comédie, ouh Vendredi, samedi, peut-être qu'on va s'oublier comme un billet dans le jean, baw J'perds mon temps, là j'ai pas trop la tête à ça, peut-être de temps en temps, en attendant Toute la noche, toute la noche, comme une étoile, j'brille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Comme une étoile, jbrille Toute la noche, toute la noche, j'garde mon truc près de moi Juste à côté, jamais je laisse tomber Jamais je laisse tomber, yeah, yeah, yeah</t>
+          <t>Ouuuuh, Coco Jojo, Génézio Ouhhh Papito Charme c'est chaud, Touchdown J'suis rentré j'ai fait l'impossible comme cheval de Troie J'me rappelle avant ça disait que c'était pas pour moi Et en bas j'ai tourné, tourné pour trouver ma voie Oooh, j'crois que j'ai fait le bon choix Et laissez-moi dans ma vibe vibe, j'bosse au charbon seulement pour la famille Pourquoi elle veut savoir les quoi ? Ils étaient pas là dans la famine Ça n'aboutit pas quand tu pénaves, on s'en ballay des gens qui est balaise Balaise, malaisant, balaise, je perds du temps Bsoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile t puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens Regarde comment les temps changent, comment les gens changent, comment les gens pensent C'est à triste à dire mais bon, on leur donnera quand même raison Dehors je fais la guérilla pour ramener l'or à la maison Les même qui parlaient sur moi, téléchargent à peu près tous mes sons Jojo, Bouah J'finirai trahi comme Tupac, j'connais la fin du movie par coeur C'est fort J'vis comme si c'était la dernière fois, comme si sur Terre il m'restait qu'un quart d'heure Tchouah, Tchouah, Tchouah, Tchouah, Tchouah Allo allo allo allo, la vie c'est dur mais j'suis solide j'résiste A 2 quatre zéro dans l'bolide, on est pas loin d'la folie C'est fort Mais j'suis tout près du butin Jojo, Touchdown Touchdown, Touchdown Besoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile et puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens j'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Gangsta Paradise</t>
+          <t>Ghetto</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Junior Alaprod, zanmi Scar Nardey, c'est chaud ça, ah-ah Han-han Au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Moi, j'ai voyagé du Brésil au Mexique en passant par des soirées bien ambiancées, très festives À l'avenir, j'te préviens, les autres, c'est du plexi, de ma vie, n'sont plus là, on peut dire que j'les ai exclu J'répète au final, ça reste flexible, j'ai plus rien à prouver mais tu veux rêver donc j't'explique Le temps fait que j'suis toujours bien sapé, de temps en temps, bisou à maman, c'est sacré Ne t'en fais pas, comme toi, j'peux plus m'les saquer, fais toujours attention, sûr de moi, très loin d'être septique Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Elle se demande c'que j'fais dans la vie Life, mon cur fait Boom, mon cur chavire Boom, boom, boom Grosse caisse, champagne, nos bitchs de luxe Mmh, avant ça, c'était petites coupures et la taule Boom, boom, boom Enfant du ghetto fait les pesos dans le hood Enfant du ghetto fait les pesos dans le hood Mmh Boom, boom, boom, en vrai, j'suis parti de rien comme vous Parti de rien comme vous Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Soleil Mmh, j'crois qu't'es mon soleil Soleil, près de toi, mon cur chavire Mmh, mon cur qui fait Boom, j'suis dans l'hood, je survis Boom, boom, boom, boom, boom, boom À chaque fois qu'ils pensent me détruire, je reviens plus fort, mmh Je reviens plus fort Mon bébé, tellement t'as kiffé Tellement t'as kiffé J'aime ses qualités et ses défauts Boom, boom, boom, boom, boom, boom Jusqu'à la fin du ghetto mais les billets pleuvent, pleuvent dans la te-boî Boom, boom, boom Ça flex, ah-ah-ah Han-han, han-han, t'en fais pas Enfant du ghetto Han-han, han-han, t'en fais pas Papito charme et Leto, han-han-han On a l'sunset de temps en temps, han-han-han On a l'sunset, plus rien à prouver mais tu veux aller où ? Han-han-han J't'explique</t>
+          <t>Haha This some plus four shit Coco Jojo, Mozart Capitaine Jackson Coco Jojo, Mozart Capitaine Jackson C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto La guerre n'est bonne pour personne, mais pour le sang, je l'a ferai quand même Jojo sort du ghetto D'où je viens, on baissait la garde, n'est pas une solution pour faire régner la paix La nostalgie revient frais comment, te fais croire que c'était mieux avant Toutes les bonnes choses ont une fin Pepito, pepito C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous Elle pense que ses formes peuvent me rendre fou Mmh Coup de fil, gent-ar, faut qu'j'bouge Mmh, mmh, mmh Ghetto Mmh, mmh, mmh, ghetto J'ai même pas le temps d't'aimer Y aura que le seigneur pour m'aider Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Mmh Ghetto, ghetto, ghetto Mmh Ghetto, ghetto, ghetto Mmh Tu sais comment on fait nous, fait nous, fait nous C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Des sales idées, des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Tu sais pour te combler, pour te combler, pour te combler qui me viennent chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GÉ APPRIS</t>
+          <t>Gros billets</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ouuuuh, Coco Jojo, Génézio Ouhhh Papito Charme c'est chaud, Touchdown J'suis rentré j'ai fait l'impossible comme cheval de Troie J'me rappelle avant ça disait que c'était pas pour moi Et en bas j'ai tourné, tourné pour trouver ma voie Oooh, j'crois que j'ai fait le bon choix Et laissez-moi dans ma vibe vibe, j'bosse au charbon seulement pour la famille Pourquoi elle veut savoir les quoi ? Ils étaient pas là dans la famine Ça n'aboutit pas quand tu pénaves, on s'en ballay des gens qui est balaise Balaise, malaisant, balaise, je perds du temps Bsoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile t puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens Regarde comment les temps changent, comment les gens changent, comment les gens pensent C'est à triste à dire mais bon, on leur donnera quand même raison Dehors je fais la guérilla pour ramener l'or à la maison Les même qui parlaient sur moi, téléchargent à peu près tous mes sons Jojo, Bouah J'finirai trahi comme Tupac, j'connais la fin du movie par coeur C'est fort J'vis comme si c'était la dernière fois, comme si sur Terre il m'restait qu'un quart d'heure Tchouah, Tchouah, Tchouah, Tchouah, Tchouah Allo allo allo allo, la vie c'est dur mais j'suis solide j'résiste A 2 quatre zéro dans l'bolide, on est pas loin d'la folie C'est fort Mais j'suis tout près du butin Jojo, Touchdown Touchdown, Touchdown Besoin de savoir qui j'ai été pour savoir qui je suis J'vois mon passé qui défile et puis j'me rends compte J'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens j'ai perdu beaucoup d'temps À trop donner, j'ai finis déçu des gens j'ai perdu beaucoup d'temps À les entendre papoter, j'ai fini par leur donner raison j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout le temps du regard des gens j'ai perdu beaucoup d'temps J'suis à pas à méfier à chaque fois tout l'temps, des gens</t>
+          <t>Intro Paw c'est la rre-gue G2Binks HDS Couplet HDS Ouais il y'en a qui ont la belle vie D'autre qui essaie de l'atteindre Si on rapplique t'es mort Suis-je bien clair sale tain-pe Ça vend la verte c'est l'four Ouais dans le tiek's ça craint Pour nous la nuit c'est le jour J'sais pas ce que c'est le matin x2 J'sais pas ce que c'est le soir Dans mes XXX il reste un peu d'espoir Tu veux le platine mais tu patines Si je te donne ma conf' il faut pas décevoir On veut la vie de rêve demande à Guy2Binks Moi j'ai jamais pensé qu'un jour on les guiderait Si on pouvait tous se refaire sur un coup T'inquiète même pas il y'a plein de truc qu'on éviterait J'sortirai pas sans avoir fait du bruit J'ai charbonné non je ne compte pas m'arrêter ici Non je ne t'ai jamais dit que c'était fini x2 J'suis dans mes plans J'attends que ça pète J'suis dans les temps J'attends un chèque Bah oui je le mérite j'ai pas fait de l'intérim J'pense qu'à mes intérêts lorsque je vais atterrir Mais toi c'est dans tes rêves car sinon tu dérives T'as pris la mauvaise sortie comme sur le périph' Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff Couplet Guy2Bezbar Hier soir j'ai fait mon bénef, tout pour le business Jungili, 2k les vrais mecs de tess On veut des grosses fesses pas vrai mister Fresh J'rigole devant l'OPJ avec Youssef Tu roules en grosse caisse mais t'as pas de coco Tu veux mon espèce bah donne moi tes lolos Nique ta mère continue à faire le cocorico Mélange dans la cuisine fait moi de la coco Charbonne comme un fou malade bah ouais comme Rico Ces pd, ces pd sont derrière mon bigo Là faudrait quand même que vous libérez Bosko Mathusalem mais tu prends quand même le métro On travaille comme des oufs et on se plaint pas A la recherche de XXX dans tout ris-Pa Y'a rien d'offert mec on a sué J'reste dans le game tant qu'on ne m'a pas tué j'me suis fait tout seul Tout comme Nothorious mon équipe m'a aidé Y'a rien de fabulous à part que j'irai seul dans mon cercueil Parlons projet, parlons de quoi ramasser, parlons biff de quoi manger parce que là y'en a assez J'ai pas de bâtons dans les roues plutôt du ciment Tu parles de moi bien sûr qu'on te goume Leur bouches pique plus que du piment Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ghetto</t>
+          <t>Guapa</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Haha This some plus four shit Coco Jojo, Mozart Capitaine Jackson Coco Jojo, Mozart Capitaine Jackson C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto La guerre n'est bonne pour personne, mais pour le sang, je l'a ferai quand même Jojo sort du ghetto D'où je viens, on baissait la garde, n'est pas une solution pour faire régner la paix La nostalgie revient frais comment, te fais croire que c'était mieux avant Toutes les bonnes choses ont une fin Pepito, pepito C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous Elle pense que ses formes peuvent me rendre fou Mmh Coup de fil, gent-ar, faut qu'j'bouge Mmh, mmh, mmh Ghetto Mmh, mmh, mmh, ghetto J'ai même pas le temps d't'aimer Y aura que le seigneur pour m'aider Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai entendu crier mayday Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Wow, wow, wow, wow J't'ai fait du mal, mal mon bébé Mmh Ghetto, ghetto, ghetto Mmh Ghetto, ghetto, ghetto Mmh Tu sais comment on fait nous, fait nous, fait nous C'est ma destinée Mmh qui s'écrit chaque jour Mmh J'rentre pas chez moi tant qu'j'ai pas fait un tas d'sous T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow, wow, wow Ghetto, ghetto, ghetto Wow, wow, wow, wow, wow Ghetto, ghetto, ghetto T'es ma dulcinée, mon amour Je pense à toi tout en faisant l'oseille chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Et tu sais, pour te combler, j'ai des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Des sales idées, des sales idées, des sales idées qui me viennent chaque jours Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto Tu sais pour te combler, pour te combler, pour te combler qui me viennent chaque jour Ghetto, ghetto, ghetto, ghetto, ghetto, ghetto</t>
+          <t>La calle, calle, là, eh-eh Le quarterback, Papito Charme, c'est chaud Ouais, ouais, ouais, ouais, ouais Touchdown, on rattrape la balle Ah ouais, neuf-un Rajoute un verre de tchapal' dans mon vin Ferme ta gueule, là Jojo Envoie ton numéro, hein, hein, pourquoi pas Nan ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connu de fou comme El Chapo C'est fort, fort D fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah, brr Kodo dinna, il pense à clubber, on pense aux dinars, on pense à jobber Ouh J'ai pas fait beaucoup d'efforts pour en découdre, vers la fin du tche-ma, le gardien, j'ai lobé Lobe Une fois sur l'terrain, tu peux plus nous stopper Nan et jusqu'à présent, j'me suis jamais tromper Ah-ah, ah-ah, ah-ah J'assois ces bâtards à ma table, y a personne qui rappelle comme si c'était papa qui grondait Ah-ah Et c'est pas devant les p'tits qu'ils vont bomber Jamais, c'est pas vrai, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Nan, c'est pas vrai Mon avenir dans un coupé sport, Jojo, ah-ah, ah-ah, ah-ah Et c'est pas devant les p'tits qu'ils vont bomber, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Mon avenir dans un coupé sport, Jojo, Coco, ah-ah, ah-ah Envoie ton numéro, hein, hein, pourquoi pas Han ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah Wesh, my G, t'es sérieux ? Tu t'es enfermé avec la bitchies, là Ouh J'aime sa pussy, elle m'excite trop Elle m'excite trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro J'aime sa pussy, elle m'excite trop Trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro Woh, rien que ça drip, ça drip Ça drip, woh et pas que dans mes clips, mes clips Mes clips Mon équipe, c'est comme les Peaky, les Peaky, on a toute sorte de dick, dick, dick J'envoie les billets, n'a siliki, siliki, fini ton boulot et j'envoie mon milky Ah-ah-ah Elle nous coupe l'oxygène quand elle passe devant nous en bikini, j'la suis en Moonwalk, un peu pompette, j'danse le Billie Jeans Envoie ton numéro, hein, hein, pourquoi pas Pourquoi pas ? ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Brr Pour les mecs stylés, my G Merci</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gros billets</t>
+          <t>Héhé</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Intro Paw c'est la rre-gue G2Binks HDS Couplet HDS Ouais il y'en a qui ont la belle vie D'autre qui essaie de l'atteindre Si on rapplique t'es mort Suis-je bien clair sale tain-pe Ça vend la verte c'est l'four Ouais dans le tiek's ça craint Pour nous la nuit c'est le jour J'sais pas ce que c'est le matin x2 J'sais pas ce que c'est le soir Dans mes XXX il reste un peu d'espoir Tu veux le platine mais tu patines Si je te donne ma conf' il faut pas décevoir On veut la vie de rêve demande à Guy2Binks Moi j'ai jamais pensé qu'un jour on les guiderait Si on pouvait tous se refaire sur un coup T'inquiète même pas il y'a plein de truc qu'on éviterait J'sortirai pas sans avoir fait du bruit J'ai charbonné non je ne compte pas m'arrêter ici Non je ne t'ai jamais dit que c'était fini x2 J'suis dans mes plans J'attends que ça pète J'suis dans les temps J'attends un chèque Bah oui je le mérite j'ai pas fait de l'intérim J'pense qu'à mes intérêts lorsque je vais atterrir Mais toi c'est dans tes rêves car sinon tu dérives T'as pris la mauvaise sortie comme sur le périph' Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff Couplet Guy2Bezbar Hier soir j'ai fait mon bénef, tout pour le business Jungili, 2k les vrais mecs de tess On veut des grosses fesses pas vrai mister Fresh J'rigole devant l'OPJ avec Youssef Tu roules en grosse caisse mais t'as pas de coco Tu veux mon espèce bah donne moi tes lolos Nique ta mère continue à faire le cocorico Mélange dans la cuisine fait moi de la coco Charbonne comme un fou malade bah ouais comme Rico Ces pd, ces pd sont derrière mon bigo Là faudrait quand même que vous libérez Bosko Mathusalem mais tu prends quand même le métro On travaille comme des oufs et on se plaint pas A la recherche de XXX dans tout ris-Pa Y'a rien d'offert mec on a sué J'reste dans le game tant qu'on ne m'a pas tué j'me suis fait tout seul Tout comme Nothorious mon équipe m'a aidé Y'a rien de fabulous à part que j'irai seul dans mon cercueil Parlons projet, parlons de quoi ramasser, parlons biff de quoi manger parce que là y'en a assez J'ai pas de bâtons dans les roues plutôt du ciment Tu parles de moi bien sûr qu'on te goume Leur bouches pique plus que du piment Refrain x2 Jungle Gros billet Ah Tout plié Ah Quelque milliers Ah Et puis tout y est Ah J'ai besoin de mon sirop d'un XXX Si tu veux des kilos j'ai tout ce qu'il faut ma gueule Tu goûteras le pilon, tu goûteras le kush Rafale de balle si tu bluff</t>
+          <t>Takeshi-San Ah, Negrito, y a la flicaille, y a la flicaille là ah, ah, ah Y a du bon bédo, y a du bédo, y a du bon bédo, ah, ah C'est Coco Jojo, wah rah, brrah On sortait des gros sacs du sin-gam' pendant qu'tu mettais du eh, eh, eh, eh, eh, eh, eh, eh C'est moi l'jefe, j'sais m'habiller, j'ai des billets, canon scié ouais, tu veux goûter ? Ouais J'sais pas, on dirait woh J'vais m'en tirer hey devant l'officier ah, ah, j'vais m'en tirer ouais mais toi, t'as pas nié sku, sku On défonce ta porte comme le 36, ok brr, paw, paw, t'attends personne, allez, pétasse, jump, jump baw Collé serré, j'la frotte dans l teum-teum sku, tchiki, tchiki, tchiki, bang, bang tchiki Moi, c'est Pijo R9, c'st pas Giroud non, mon guetteur entend l'bruit des gyro' ah, ah, ah Han, han, han, han han, han, han, han, han, han han, han Negri, Coco Coco Jojo Jojo dans le hall dans le hall J'débite skrt, skrt du fric skrt, skrt, snowfall ah ouais ?, Franklin ah, ah Tu nous vois tous les jours dans la calle mais c'est qu'un tremplin le Coco Jojo de Pijo R9, woh, ok brr, rrah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Baby, j'veux qu'tu bouges ton boule sur ma bite ouh J'fume pas d'bédo mais j'aime la pipe brr, pah Les p'tits lâchent les stylos Bic, Bic eh, eh, dans l'hall, revendent la zip' okay Olalah, Johnny marque la poisse mais olalah Quand t'es dans la merde, t'es sololo brr, Negri, Coco Jojo, dans ta sonono eh, eh Tu prends ton 10, ton 20 mmh, mmh et tu hors de ma vue mmh, mmh L'amour, ça rend aveugle mmh, mmh, l'argent, ça rend la vue mmh, mmh Igo, j'ai trop la dalle mmh, mmh comme si j'sors d'garde à vue eh Elle m'envoie son cavu hey mais gros, j'la laisse en vue hey, hey G2B, Negrito, validés dans l'ghetto ouh, ouh Pour le blé, on s'lève tôt, ouais, pour le blé, on s'lève tôt hey G2B, Negrito okay, validés dans l'ghetto hey, okay Pour le blé, on s'lève tôt hey, ouais, pour le blé, on s'lève tôt brr, rah, rah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Ibra 50K Game Over Hey, Ibra 50K Game Over, pah, pah Ibra 50K, ah, ah, ah La calle, c'est fort, c'est fort Takeshi-San</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Guapa</t>
+          <t>HELLO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>La calle, calle, là, eh-eh Le quarterback, Papito Charme, c'est chaud Ouais, ouais, ouais, ouais, ouais Touchdown, on rattrape la balle Ah ouais, neuf-un Rajoute un verre de tchapal' dans mon vin Ferme ta gueule, là Jojo Envoie ton numéro, hein, hein, pourquoi pas Nan ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connu de fou comme El Chapo C'est fort, fort D fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah, brr Kodo dinna, il pense à clubber, on pense aux dinars, on pense à jobber Ouh J'ai pas fait beaucoup d'efforts pour en découdre, vers la fin du tche-ma, le gardien, j'ai lobé Lobe Une fois sur l'terrain, tu peux plus nous stopper Nan et jusqu'à présent, j'me suis jamais tromper Ah-ah, ah-ah, ah-ah J'assois ces bâtards à ma table, y a personne qui rappelle comme si c'était papa qui grondait Ah-ah Et c'est pas devant les p'tits qu'ils vont bomber Jamais, c'est pas vrai, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Nan, c'est pas vrai Mon avenir dans un coupé sport, Jojo, ah-ah, ah-ah, ah-ah Et c'est pas devant les p'tits qu'ils vont bomber, crois-moi, c'est pas d'vant ces chiens qu'on va tomber Mon avenir dans un coupé sport, Jojo, Coco, ah-ah, ah-ah Envoie ton numéro, hein, hein, pourquoi pas Han ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Ah-ah-ah Wesh, my G, t'es sérieux ? Tu t'es enfermé avec la bitchies, là Ouh J'aime sa pussy, elle m'excite trop Elle m'excite trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro J'aime sa pussy, elle m'excite trop Trop, j'envoie des billets comme un ssiste-gro Comme un ssiste-gro Woh, rien que ça drip, ça drip Ça drip, woh et pas que dans mes clips, mes clips Mes clips Mon équipe, c'est comme les Peaky, les Peaky, on a toute sorte de dick, dick, dick J'envoie les billets, n'a siliki, siliki, fini ton boulot et j'envoie mon milky Ah-ah-ah Elle nous coupe l'oxygène quand elle passe devant nous en bikini, j'la suis en Moonwalk, un peu pompette, j'danse le Billie Jeans Envoie ton numéro, hein, hein, pourquoi pas Pourquoi pas ? ? Mes négros sont stylés, tu vois pas Tu vois pas J'lui propose un verre, pourquoi pas, elle me répond Coco, moi, je ne bois pas Je bois pas, bois pas La biatch ne bois pas, tant pis pour elle si la biatch ne bois pas Quoi ? En même temps, c'est vrai qu'elle est guapa Ah-ah, j'lui dis j'suis connue de fou comme El Chapo C'est fort, fort De fou comme El Chapo, viens chez les flingueurs, c'est tequila, champagne Coco J'ai beaucoup de chakras une fois qu'mes idées sont perdues dans l'tchapal' Tchapalo D'ailleurs, j'ai fini mon tchapal', tellement c'est grand, j'me suis perdu dans l'château Château, ah-ah On pèse si tu sais pas, ton mec, ici vaut le prix de mon chapeau Brr Pour les mecs stylés, my G Merci</t>
+          <t>So le flem Junior Alaprod, zanmi C'est qui cette frappe de Rooney ? C'est qui cette frappe de Rooney ? J'la fais monter dans l'bolide Téquila Sunrise tous les jours, tous les jours, tous les jours Petit shot dans la foulée, c'est comme ça qu'j'passe l'enroulée Téquila Sunrise tous les jours Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramèn avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hllo Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah Quand je la vois ma tête fait ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa J'la garde près de moi comme un glock ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa Le temps me paraît comme sans limite En toi, j'ai percé le mystère On se reverra sans doute Je crois qu'elle a capté le mood Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah La frappe de Samuel Eto'o La frappe de Samuel Eto'o J'voulais le monde j'me suis levé très tôt J'ai encore des reufs dans le ghetto Le roro, les précieux métaux métaux La plata, le réseau Elle veut la belle vie les cadeaux cadeaux Bébé veut goûter le gâteau Elle parle anglais j'lui réponds Hello hello Bisous bisous dans le tel-ho tel-ho Petit dej au lit sur le plateau Puis j'rallume la gelato J'm'introduit dans tes souvenirs Tes sourires et tes soupirs Toi et moi sur le bateau La cerise sur le gâteau Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah J'crois qu'elle a capté le mood oh yeah</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Héhé</t>
+          <t>HENNY BU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Takeshi-San Ah, Negrito, y a la flicaille, y a la flicaille là ah, ah, ah Y a du bon bédo, y a du bédo, y a du bon bédo, ah, ah C'est Coco Jojo, wah rah, brrah On sortait des gros sacs du sin-gam' pendant qu'tu mettais du eh, eh, eh, eh, eh, eh, eh, eh C'est moi l'jefe, j'sais m'habiller, j'ai des billets, canon scié ouais, tu veux goûter ? Ouais J'sais pas, on dirait woh J'vais m'en tirer hey devant l'officier ah, ah, j'vais m'en tirer ouais mais toi, t'as pas nié sku, sku On défonce ta porte comme le 36, ok brr, paw, paw, t'attends personne, allez, pétasse, jump, jump baw Collé serré, j'la frotte dans l teum-teum sku, tchiki, tchiki, tchiki, bang, bang tchiki Moi, c'est Pijo R9, c'st pas Giroud non, mon guetteur entend l'bruit des gyro' ah, ah, ah Han, han, han, han han, han, han, han, han, han han, han Negri, Coco Coco Jojo Jojo dans le hall dans le hall J'débite skrt, skrt du fric skrt, skrt, snowfall ah ouais ?, Franklin ah, ah Tu nous vois tous les jours dans la calle mais c'est qu'un tremplin le Coco Jojo de Pijo R9, woh, ok brr, rrah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Baby, j'veux qu'tu bouges ton boule sur ma bite ouh J'fume pas d'bédo mais j'aime la pipe brr, pah Les p'tits lâchent les stylos Bic, Bic eh, eh, dans l'hall, revendent la zip' okay Olalah, Johnny marque la poisse mais olalah Quand t'es dans la merde, t'es sololo brr, Negri, Coco Jojo, dans ta sonono eh, eh Tu prends ton 10, ton 20 mmh, mmh et tu hors de ma vue mmh, mmh L'amour, ça rend aveugle mmh, mmh, l'argent, ça rend la vue mmh, mmh Igo, j'ai trop la dalle mmh, mmh comme si j'sors d'garde à vue eh Elle m'envoie son cavu hey mais gros, j'la laisse en vue hey, hey G2B, Negrito, validés dans l'ghetto ouh, ouh Pour le blé, on s'lève tôt, ouais, pour le blé, on s'lève tôt hey G2B, Negrito okay, validés dans l'ghetto hey, okay Pour le blé, on s'lève tôt hey, ouais, pour le blé, on s'lève tôt brr, rah, rah Des fois, j'ai envie d'crier juste comme ça hey, hey Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey La calle, c'est fort, c'est fort okay Y a du bédo, y a du bon bédo, y a du bédo, y a du bon bédo hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey Mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey, hey, mmh, mmh hey Ibra 50K Game Over Hey, Ibra 50K Game Over, pah, pah Ibra 50K, ah, ah, ah La calle, c'est fort, c'est fort Takeshi-San</t>
+          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HELLO</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>So le flem Junior Alaprod, zanmi C'est qui cette frappe de Rooney ? C'est qui cette frappe de Rooney ? J'la fais monter dans l'bolide Téquila Sunrise tous les jours, tous les jours, tous les jours Petit shot dans la foulée, c'est comme ça qu'j'passe l'enroulée Téquila Sunrise tous les jours Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramèn avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hllo Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah Quand je la vois ma tête fait ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa J'la garde près de moi comme un glock ra-pa-pa-pa-pa J'ai des billets violets qui font ra-pa-pa-pa-pa Le temps me paraît comme sans limite En toi, j'ai percé le mystère On se reverra sans doute Je crois qu'elle a capté le mood Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah La frappe de Samuel Eto'o La frappe de Samuel Eto'o J'voulais le monde j'me suis levé très tôt J'ai encore des reufs dans le ghetto Le roro, les précieux métaux métaux La plata, le réseau Elle veut la belle vie les cadeaux cadeaux Bébé veut goûter le gâteau Elle parle anglais j'lui réponds Hello hello Bisous bisous dans le tel-ho tel-ho Petit dej au lit sur le plateau Puis j'rallume la gelato J'm'introduit dans tes souvenirs Tes sourires et tes soupirs Toi et moi sur le bateau La cerise sur le gâteau Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis Elle parle anglais, j'lui réponds Hello Sur moi j'ai des billets yellow Elle me dit qu'elle s'appelle Élodie J'la ramène avec moi dans l'pilotis On dirait qu'elle est dans le mood, oh yeah J'crois qu'elle a capté le mood, oh yeah On dirait qu'elle est dans le mood, oh yeah Je crois qu'elle a capté le mood, oh yeah J'crois qu'elle a capté le mood oh yeah</t>
+          <t>Han, han, han, han, han, han Brr, pah, pah Fucked up dans le bendo, j'suis fucked up dans le bendo Gang Fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Han, han, han, han, han, han Grr, R9, RK J'suis comme toi, j'ai des blèmes-pro, dis-leur qu'j'ai un Glock nine sous le manteau J'ai le .44, 4x4 noir mat, flippe pas, tic-tac, hun-hun J'ai le chargeur qui fait des trous Ça flingue T'es mauvais dans ta putain d'vie et quand ça pète, tu dis qu'le bon Dieu t'éprouves Putain, aujourd'hui, le ciel est gris, j'suis en bas, je sais compter, je sais écrire, hun Ah-ah-ah Bien sûr que les temps ont changé, mes contrats, je laisse le baveux les lire Brr, oh Automatique, click-clack, p'tite dédi', j'ai des munitions sous l'clic-clac Paw, paw, paw Y a des p'tits d'la tess à la gare Bâtard, ça ravitaille les ges-sh' de Pâques Les ges-sh' Écarte-toi vite de nous si tu veux pas qu'les balles traversent ton corps On a tellement découpe l'shit Ouh, numéro dix, on débite des ballons d'or Ouh J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Paris, c'est magique ou bien c'est tragique, demande à Guy, gros, moi, c'est la banlieue Ça revend partout Gang, ça piétine ta mère Gang pour moins d'un salaire ou bien d'un salam, hassoul Rah On est dans ça depuis tout jeune Tout jeune, sur le hazi, j'étais tout seul Tout seul Et au tard-mi, j'étais tout seul, la même paire que quand j'étais bosseur, la putain d'vos surs Grr, pah, pah, pah MIG Moula, RK du 77 et Guy2Bezbar, t'inquiète pas, mon pote, on va t'remonter Gang si t'es une poucave ou si tu hasba Grr J'traîne dans la calle comme tous mes semblables, on fait pas semblant, y a pas d'balles à blanc Pah, pah, pah, rah Gros, c'est pas comme ça, tu veux pas payer cash, tu veux qu'on t'arrange Gang, gang, gang, ouh-ouh, pah, pah J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Attends, attends, attends, ça va partir en couille Ouais, cousin, que des coups d'couteau Hun-hun, Jojo Picho, Ronaldo Hun-hun, Jojo, toujours en attaque, mon gars Hun-hun, Jojo Dis-leur Coco C'est fort boy J'suis pas ccord-d'a, t'as la touche pas potable, bref, j'remets tout au clair, cartes sur table, fin des blagues J'suis en pétard, j'allume portable, ça va plus loin qu'tu l'crois, pas de blocage Ouh-ouh Envoie la foudre, que du sabotageT'entends pas ou quoi ? C'est pas gens qui nous disent quoi faire la calle, on maîtrise direct La zone est sous contrôle, on remet tout l'monde à sa place comme si c'était Tetris Hun-hun, hun-hun, eh-eh-eh Papito charme, on ramène la drogue, le cash et les armes Brr</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HENNY BU</t>
+          <t>Je me lève, je me lave</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
+          <t>Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Cartier Précis comme my G, j'te passe Tu le veux ton dix, passe L'argent tout d'suite pas d'plus tard J'avance comme Cartier, chez moi je brasse Musicien, j'écris, j'ramasse J'suis , pas b'soin d'khalass J'sais nager, j'bois pas trop d'tasse Maman est rentrée, j'vois plus trop d'tass' maman est rentrée, j'vois plus trop d'tass' Attaquant, j'loupe pas l'occaz J'cours à pattes, pas besoin d'locations Pas besoin d'prouvr qu'j'entasse pas besoin d'prouvr qu'j'entasse Quand j'dépense, j'vais chez l'comptable J'fais des sons et c'est rentable J'tise au boulot même quand j'vais mal Bien trop précis pour eux, j'loupe pas Trop bien sorti quand j'mords la poche Drink avec les potos le soir C'est Roshi le noir donc hors-la-loi Fais ber-tom, j'ramasse J'gratte, pour l'inspi pas b'soin d'molly Parle de sous ou héro, j'cogite Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave ho ho Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora Dans une plage, j'préfère qu'on bouffe d'la gambas Elle m'dit je t'aime, casse-toi et j'en passe J'en passe, mais j'l'embrasse pas C'est Coco, j'suis là, j'ramasse J'te prends pas au sérieux, on parle de reprendre la ville Mais vous comprenez pas, pas, pas, pas quoi ? Le compte en banque d'Azpilicueta César Si j'bé-tom, j'me lève, j'me lave Parce que par terre c'est sale de geudin Comme la plupart d'mon cash papel Comme la moitié d'tes meufs pétasse Comme la plupart des autres, j'me suis pas fait entièrement tout seul On frappe, on défend comme Luigi Buffon On baise la brigade et tout ses koufars On t'baise, mon gang c'est pas des bouffons C'est les compet' contre les motards Puis tu sais, puis tu sais J'vais te raconter J'achète ici, j'achète là-bas Tout, tout, tout, tout sans compter chez Fendi J'étais sur eux, moi préfère die die comme eux Moi, rafale, bye, bye, bye Moi, mon style c'est fort, ça flingue Mon fort c'est calle, calle, calle, calle Jojo J'suis très précis, yah Dans la cabine, j'chante pour les miens J'conte mes récits, yah J'compte sur mon Dieu, fuck tes reliques Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave ho, ho Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora1</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Je prends</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Han, han, han, han, han, han Brr, pah, pah Fucked up dans le bendo, j'suis fucked up dans le bendo Gang Fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Han, han, han, han, han, han Grr, R9, RK J'suis comme toi, j'ai des blèmes-pro, dis-leur qu'j'ai un Glock nine sous le manteau J'ai le .44, 4x4 noir mat, flippe pas, tic-tac, hun-hun J'ai le chargeur qui fait des trous Ça flingue T'es mauvais dans ta putain d'vie et quand ça pète, tu dis qu'le bon Dieu t'éprouves Putain, aujourd'hui, le ciel est gris, j'suis en bas, je sais compter, je sais écrire, hun Ah-ah-ah Bien sûr que les temps ont changé, mes contrats, je laisse le baveux les lire Brr, oh Automatique, click-clack, p'tite dédi', j'ai des munitions sous l'clic-clac Paw, paw, paw Y a des p'tits d'la tess à la gare Bâtard, ça ravitaille les ges-sh' de Pâques Les ges-sh' Écarte-toi vite de nous si tu veux pas qu'les balles traversent ton corps On a tellement découpe l'shit Ouh, numéro dix, on débite des ballons d'or Ouh J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Paris, c'est magique ou bien c'est tragique, demande à Guy, gros, moi, c'est la banlieue Ça revend partout Gang, ça piétine ta mère Gang pour moins d'un salaire ou bien d'un salam, hassoul Rah On est dans ça depuis tout jeune Tout jeune, sur le hazi, j'étais tout seul Tout seul Et au tard-mi, j'étais tout seul, la même paire que quand j'étais bosseur, la putain d'vos surs Grr, pah, pah, pah MIG Moula, RK du 77 et Guy2Bezbar, t'inquiète pas, mon pote, on va t'remonter Gang si t'es une poucave ou si tu hasba Grr J'traîne dans la calle comme tous mes semblables, on fait pas semblant, y a pas d'balles à blanc Pah, pah, pah, rah Gros, c'est pas comme ça, tu veux pas payer cash, tu veux qu'on t'arrange Gang, gang, gang, ouh-ouh, pah, pah J'suis fucked up dans le bendo, j'crois qu'c'est la calle qui nous aime trop Calle qui nous aime trop J'suis comme toi, j'ai des blèmes-pro Brr, dis-leur qu'j'ai un Glock nine sous le manteau Pah, pah, pah, boum J'suis comme toi, j'ai des blèmes-pro, la calle on aime trop Gang, on n'a pas les mêmes crocs Sa mère, gang Ça fait longtemps qu'on est dans ça Dans ça, rah, ça fait longtemps qu'on est dans l'sale Zipette Han, drive-by Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Zipette Han, rafale Han, go-fast Han, on est dans ça Business, trap house, business rentable, j'mets les gaz, vitesse On éteint ça Han, han, han, han, han, han T'es fou, c'est fort, on est dans ça Maintenant qu'j'fais d'l'oseille Quoi ?, tu veux jumper dans l'vaisseau, c'est pas comme ça Brr Attends, attends, attends, ça va partir en couille Ouais, cousin, que des coups d'couteau Hun-hun, Jojo Picho, Ronaldo Hun-hun, Jojo, toujours en attaque, mon gars Hun-hun, Jojo Dis-leur Coco C'est fort boy J'suis pas ccord-d'a, t'as la touche pas potable, bref, j'remets tout au clair, cartes sur table, fin des blagues J'suis en pétard, j'allume portable, ça va plus loin qu'tu l'crois, pas de blocage Ouh-ouh Envoie la foudre, que du sabotageT'entends pas ou quoi ? C'est pas gens qui nous disent quoi faire la calle, on maîtrise direct La zone est sous contrôle, on remet tout l'monde à sa place comme si c'était Tetris Hun-hun, hun-hun, eh-eh-eh Papito charme, on ramène la drogue, le cash et les armes Brr</t>
+          <t>Han, c'est pour la call, call' là ? j'ai fait les bails là Faut pousser les shoes avant d'sortir d'la maison Lunettes sur le terrain, paire de quatre saisons jai ma paire de quatre saisons J'ai mon café sugar, café sugar, café sugar Mets moi plus de sucre, de sugar eh, sugar eh, sugar eh Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Y a d'la eh, bon calibre pour les fachots dans le 4Matic J'ai ma kichta au frais dans le 4Matic Que des putains de gros pétards, j'allume mon pétou en ? dans le 4Matic ?, j'fais l'terrain comme Magic Johnson J'ai du fric, c'est là que j'la cartonne Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Oh les bâtards, oh les gamins J'suis dans coaltar, tous les matins Ma caisse est devant, elle est mal garée C'est pour ?, Lacrim et Dingaré On va t'virer du crew car t'es pas carré On règle le problème et personne ne crie Devant ta nana, on va te faire danser le founana 'ser le founana Tu vas danser le founana, tu vas danser le founana devant ta nana Rien qu'on envoit que des ? des zipettes Coco Jojo, R9, 17 c'est le sport ? gang, on est prêt pour la guerre sur la tête du gang Oh les bâtards, oh les gamins Allez, y a d'la hit Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Big up my G, impli' ? y a d'la hit Guy2Bezbar, Coco Jojo</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Je me lève, je me lave</t>
+          <t>Jeunes et ambitieux</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Est-ce que t'as capté, j'suis avec Cartier pas chez Cartier Cartier Précis comme my G, j'te passe Tu le veux ton dix, passe L'argent tout d'suite pas d'plus tard J'avance comme Cartier, chez moi je brasse Musicien, j'écris, j'ramasse J'suis , pas b'soin d'khalass J'sais nager, j'bois pas trop d'tasse Maman est rentrée, j'vois plus trop d'tass' maman est rentrée, j'vois plus trop d'tass' Attaquant, j'loupe pas l'occaz J'cours à pattes, pas besoin d'locations Pas besoin d'prouvr qu'j'entasse pas besoin d'prouvr qu'j'entasse Quand j'dépense, j'vais chez l'comptable J'fais des sons et c'est rentable J'tise au boulot même quand j'vais mal Bien trop précis pour eux, j'loupe pas Trop bien sorti quand j'mords la poche Drink avec les potos le soir C'est Roshi le noir donc hors-la-loi Fais ber-tom, j'ramasse J'gratte, pour l'inspi pas b'soin d'molly Parle de sous ou héro, j'cogite Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave ho ho Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora Dans une plage, j'préfère qu'on bouffe d'la gambas Elle m'dit je t'aime, casse-toi et j'en passe J'en passe, mais j'l'embrasse pas C'est Coco, j'suis là, j'ramasse J'te prends pas au sérieux, on parle de reprendre la ville Mais vous comprenez pas, pas, pas, pas quoi ? Le compte en banque d'Azpilicueta César Si j'bé-tom, j'me lève, j'me lave Parce que par terre c'est sale de geudin Comme la plupart d'mon cash papel Comme la moitié d'tes meufs pétasse Comme la plupart des autres, j'me suis pas fait entièrement tout seul On frappe, on défend comme Luigi Buffon On baise la brigade et tout ses koufars On t'baise, mon gang c'est pas des bouffons C'est les compet' contre les motards Puis tu sais, puis tu sais J'vais te raconter J'achète ici, j'achète là-bas Tout, tout, tout, tout sans compter chez Fendi J'étais sur eux, moi préfère die die comme eux Moi, rafale, bye, bye, bye Moi, mon style c'est fort, ça flingue Mon fort c'est calle, calle, calle, calle Jojo J'suis très précis, yah Dans la cabine, j'chante pour les miens J'conte mes récits, yah J'compte sur mon Dieu, fuck tes reliques Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ça fait hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave nan Si j'béton, j'me lève, j'me lave bow Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hahahaha Si j'béton, j'me lève, j'me lave bow, bow, bow Si j'béton, j'me lève, j'me lave sora, sora Si j'béton, j'me lève, j'me lave Jo' Si j'béton, j'me lève, j'me lave ho, ho Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave ouais c'est fort Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave hun, hun, hun, hun Si j'béton, j'me lève, j'me lave Sora1</t>
+          <t>Prie dieu pour rester fort tous les jours En vrai t'as même pas idée Sont remplis de jalousie Sont remplis de jalousie Je l'ai fait grâce à dieu Je l'ai fait grâce à dieu Tu peux le faire aussi Hum La musique m'enrichie mais t'imagines pas c'que j'ai enduré T'imagines pas C'est une bénédiction d'm'avoir connu faire ? du tiekson C'est une bénédiction C'est une bénédiction d'm'avoir connu faire ? du tiekson Merci J'allume un joint j'me sers un cup Et j'me rappelle quand tout était sombre Nooo Les suicides, les expulsions Oh-ohh Adrénaline pendant la mission Oh-ohh Tu sais pas c'que j'vis Tu ne sais pas ce que je vis, eh eh Tu sais pas c'que j'vis As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p't-être que j'suis qu'un chanceux P't-être que j'suis qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, j'suo Tu ne sais pas c'que j'vis J'aime trop mes habits, ce matin mais j'suis ko J'ai bédave la patate hier jusqu'à pas d'heure Pah Rien n'est prévu cette aprem, c'est pas nouveau Donc ma nouvelle pétasse va passer vers 15h Dès le mat n, j'me trouve bg devant la glace Dès le matu, tu, tu ne sais qu'on est les buteurs Les flingueurs Demain tu m'feras la tête si j'pars comme un voleur T'façon c'est devant, t'façon c'est tout droit, d'vant les restaurants pas loin dl'opéra Eh, eh As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p'que j'vaist-être suis qu'un chnceux P't-être que j'su qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, jo Tu ne sais pas c'que j'v</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Je prends</t>
+          <t>Judas (freestyle)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Han, c'est pour la call, call' là ? j'ai fait les bails là Faut pousser les shoes avant d'sortir d'la maison Lunettes sur le terrain, paire de quatre saisons jai ma paire de quatre saisons J'ai mon café sugar, café sugar, café sugar Mets moi plus de sucre, de sugar eh, sugar eh, sugar eh Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Elle m'astique quand j'finis de bosser, faut du fric, j'ai besoin d'tout ça Y a d'la eh, bon calibre pour les fachots dans le 4Matic J'ai ma kichta au frais dans le 4Matic Que des putains de gros pétards, j'allume mon pétou en ? dans le 4Matic ?, j'fais l'terrain comme Magic Johnson J'ai du fric, c'est là que j'la cartonne Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Oh les bâtards, oh les gamins J'suis dans coaltar, tous les matins Ma caisse est devant, elle est mal garée C'est pour ?, Lacrim et Dingaré On va t'virer du crew car t'es pas carré On règle le problème et personne ne crie Devant ta nana, on va te faire danser le founana 'ser le founana Tu vas danser le founana, tu vas danser le founana devant ta nana Rien qu'on envoit que des ? des zipettes Coco Jojo, R9, 17 c'est le sport ? gang, on est prêt pour la guerre sur la tête du gang Oh les bâtards, oh les gamins Allez, y a d'la hit Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends bow, bow j'suis impliqué bow C'est Coco Jojo, okay Je prends, je prends du fric je prends du flouze que des billets J'attends j'attends j'attends j'attends ennemi, j'ai mon gilet Je prends, je prends, j'suis impliqué Big up my G, impli' ? y a d'la hit Guy2Bezbar, Coco Jojo</t>
+          <t>Dimanche 3 décembre j'fête pas mon anniv J'écrit mes bangers au labo J'suis plutôt comme Chili mais c'est que l'année La concurrence m'a rendu carbo Sors le hanout même si le temps n'est pas beau J'ai voulu ton coeur je t'ai dit monte dans le bateau Si je suis mauvais ne me fais pas de cadeau Si je suis vrai dis moi longue vie mon frérot Bouyaka bouyaka bouyaka En cas de heja on compte sur le A.K Le vert est baqué Ricardo Kaka Le biff m'a rendu parano mon gars Qui me fait un coup de pute ? Qui me fait un coup de pute ? Wallay je lui pourri sa vie Donc sois avec moi pour la vie On fera la guerre toute notre vie Des braques braques braques braques J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme J'les braque braque braque braque J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme Que de la cam j'fais un plan j'détruis la cam J'ai trop de fierté pour demander Ton son est lourd donc on met Shazam J'ai rien à prouver frérot j'leur baise leur mère un par un Là j'suis en Ze Pequeño, tu m'as trahi t'inquiète pas y'a rien J'suis pas en chien je m'en sors bien J'pense tout les jours à demain, que des vaut rien J'vois les humains s'endetter pour du Balmain Hijo de puta me sert pas la main On sucera jamais personne pour vivre notre vie à l'oeil On sucera jamais personne pour vivre notre vie à l'oeil</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jeunes et ambitieux</t>
+          <t>Jungle</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Prie dieu pour rester fort tous les jours En vrai t'as même pas idée Sont remplis de jalousie Sont remplis de jalousie Je l'ai fait grâce à dieu Je l'ai fait grâce à dieu Tu peux le faire aussi Hum La musique m'enrichie mais t'imagines pas c'que j'ai enduré T'imagines pas C'est une bénédiction d'm'avoir connu faire ? du tiekson C'est une bénédiction C'est une bénédiction d'm'avoir connu faire ? du tiekson Merci J'allume un joint j'me sers un cup Et j'me rappelle quand tout était sombre Nooo Les suicides, les expulsions Oh-ohh Adrénaline pendant la mission Oh-ohh Tu sais pas c'que j'vis Tu ne sais pas ce que je vis, eh eh Tu sais pas c'que j'vis As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p't-être que j'suis qu'un chanceux P't-être que j'suis qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, j'suo Tu ne sais pas c'que j'vis J'aime trop mes habits, ce matin mais j'suis ko J'ai bédave la patate hier jusqu'à pas d'heure Pah Rien n'est prévu cette aprem, c'est pas nouveau Donc ma nouvelle pétasse va passer vers 15h Dès le mat n, j'me trouve bg devant la glace Dès le matu, tu, tu ne sais qu'on est les buteurs Les flingueurs Demain tu m'feras la tête si j'pars comme un voleur T'façon c'est devant, t'façon c'est tout droit, d'vant les restaurants pas loin dl'opéra Eh, eh As-tu vu la flamme qu'il y a dans nos yeux Oh-oh Ah, ah, ah p'que j'vaist-être suis qu'un chnceux P't-être que j'su qu'un chanceux Fais les choses, fais les choses tel un jeune ambitieux Jo, jo Tu ne sais pas c'que j'v</t>
+          <t>Bitchies si t'as une fellation à faire, vas-y fait la fait la, Les keufs m'ont mis les pinces monsieur l'agent j'ai rien fait là fait là C'est ma chienne lâcher là cher là Verre de Jack à se-lai se-lai Gros llet-bi Marbella bella Là-bas j'vais m'isoler zoler Y'a qu'les putes qui jouent les bellas, J'te dis vrai désolé solé Vie de chien pas hella hella On t'allume pour de money money Jungle Squad on est là n'est là Les p'tits lèvent en ter-scoo volé Dialel va s'occuper d'toi là, Il va pas rigoler goler Bitchies si t'as une fellation à faire vas-y fait là fait là I-cli à gauche les bleus guettent à droite c'est che-la XXXXX Matin midi soir je pense qu'au fric que j'ai à gratter gratter Bande de suceur de bite j'crois bien qu'on vous a trop gâté gâté Tir mais faut pas rater rater Racli passe faut mater mater Ient-cli passe faut placer placer On en aura jamais assez Tout pour lbusiness rien pour tes ptites fesses et jveux pas dbisous bisous Arrête personnes peut nous test on a prit Zizou</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Judas (freestyle)</t>
+          <t>Jungle #4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dimanche 3 décembre j'fête pas mon anniv J'écrit mes bangers au labo J'suis plutôt comme Chili mais c'est que l'année La concurrence m'a rendu carbo Sors le hanout même si le temps n'est pas beau J'ai voulu ton coeur je t'ai dit monte dans le bateau Si je suis mauvais ne me fais pas de cadeau Si je suis vrai dis moi longue vie mon frérot Bouyaka bouyaka bouyaka En cas de heja on compte sur le A.K Le vert est baqué Ricardo Kaka Le biff m'a rendu parano mon gars Qui me fait un coup de pute ? Qui me fait un coup de pute ? Wallay je lui pourri sa vie Donc sois avec moi pour la vie On fera la guerre toute notre vie Des braques braques braques braques J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme J'les braque braque braque braque J'mets des strikes strikes Tout ça tiens je remplis le coffre de kilogramme gramme Que de la cam j'fais un plan j'détruis la cam J'ai trop de fierté pour demander Ton son est lourd donc on met Shazam J'ai rien à prouver frérot j'leur baise leur mère un par un Là j'suis en Ze Pequeño, tu m'as trahi t'inquiète pas y'a rien J'suis pas en chien je m'en sors bien J'pense tout les jours à demain, que des vaut rien J'vois les humains s'endetter pour du Balmain Hijo de puta me sert pas la main On sucera jamais personne pour vivre notre vie à l'oeil On sucera jamais personne pour vivre notre vie à l'oeil</t>
+          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon re-vé Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolic, j'te sors un fusil j'rafale avec XXX Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, canebé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ca va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste de mignion petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrete, faut qu'tu m'enterres XXX mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sur, Ah bien sur Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jungle</t>
+          <t>Jungle #6</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bitchies si t'as une fellation à faire, vas-y fait la fait la, Les keufs m'ont mis les pinces monsieur l'agent j'ai rien fait là fait là C'est ma chienne lâcher là cher là Verre de Jack à se-lai se-lai Gros llet-bi Marbella bella Là-bas j'vais m'isoler zoler Y'a qu'les putes qui jouent les bellas, J'te dis vrai désolé solé Vie de chien pas hella hella On t'allume pour de money money Jungle Squad on est là n'est là Les p'tits lèvent en ter-scoo volé Dialel va s'occuper d'toi là, Il va pas rigoler goler Bitchies si t'as une fellation à faire vas-y fait là fait là I-cli à gauche les bleus guettent à droite c'est che-la XXXXX Matin midi soir je pense qu'au fric que j'ai à gratter gratter Bande de suceur de bite j'crois bien qu'on vous a trop gâté gâté Tir mais faut pas rater rater Racli passe faut mater mater Ient-cli passe faut placer placer On en aura jamais assez Tout pour lbusiness rien pour tes ptites fesses et jveux pas dbisous bisous Arrête personnes peut nous test on a prit Zizou</t>
+          <t>Mes reufs de bezbar me disent G2 faut plier lgame Mes reufs de Marca me disent G2 faut plier lgame Et libérez mes frères Et libérez mes frères pour eux jvais plier lgame Pour ceux qui croyaient pas Pour ceux qui croyaient pas, wAllah jvais plier lgame Par où commencer Par où commencer Jsuis rentré fonce-dé Jai encore perdu les clés Jai laissé le rosé Va voir dans le fer Elle dit quelle est en couple Pourtant elle coopère Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Hé mec cest pas la fête Ramène la recette Tu vas pas mla faire Jai le jeu facile et la gâchette Ramène cque tas, on lachète Parait que jai plusieurs facettes Ils ont tous le mort jles ai wet Jles ramasse avec une brouette Jai mit du feu pour pas quil passe la ligne Ils dépassent wAllah que jles efface binks Moi jveux pas laisser de traces Ils mont fait coups de tass Ils méritent pas de passes Plus rien à perdre Donc on brasse Jsuis monté dans ltrain Et sans mettre de de coup de pass Jai trop la lle-da frère Quand jrentre dans la cabine binks Quel est le judas qui va trahir moi et mes amis Tu sais mes ennemis tu sais mes ennemis Ils aiment trop la vie ils aiment trop la vie Mais comment leur dire Quils devront bientôt la perdre Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Et on fait du fric on sen bat les reins Parle pas chinois Laisse passer tous mes pèlerins Laissez les croire quils sont devant Pendant quon charbonne comme des noirs Sur le terrain Parle nous de kilos Sinon nique ta race Depuis tout minot Jleur mets des balafres Guy2bezbar cest pas pour les gamins Mais tous ceux qui accumulent Le bif et les cadavres Ça pour les M-ZO les SP Très loin dceux qui font les tasse-pé Comment voulez-vous le respect Jusquau bout de la guerre on est restés De la ce-for à ceux qui ont cru en moi Ecoutez bien quand je parle Jsuis très sûr de moi Les refrés, les coups derrière les barreaux Le mental dacier on restera toujours vrais youvois Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jungle #4</t>
+          <t>Jungle#7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pont J'suis dans le bendo en sérieux Ah j'te dit vrai y a pas d'mytho A part chiffrer gros y a pas mieux L'argent sur la table, pas de chipo' Equipé d'mes négros, c'est tout pour le business et rien pour des petites fesses Vrai mec de te-te-tess, Jungili 2k, on bombarde en grosse caisse Couplet 1 Rainté miné les gars quittons la zone rapide Jungle c'est trop les favous pas Karaté Kid J'arrive dans le game j'suis le patron Joue pas le véner' pour dire pardon J'arrive dans l'game frère je kalash J'arrache ta tête sous conseil d'Caméléon Ah bien sur, Ah bien sur Equipés comme dans GTA Toi tu vas faire quoi, c'est dans l'tas que nous visons Jungle, Pah! Rah rah rah rah ! Moi j'ai fini la mission Pah pah pah pah ! Tu vas payer ma rançon Faut pas qu'j'rafale si tu dis qu'j'ai pas raison Pah pah pah pah ! J'suis planqué dans ta maison Ey! Est-ce-que les meufs savent à quoi j'pense ? Ey! Ca part en couille dans tous les sens Ey! On finit ton corps avec d'l'essence Ey! Jungili pah suit la cadence Ey! Toi j't'ai raté t'as trop d'la chatte Ey! J'rêve de gamos couleur noir mat Ey! De Kim Kardashian khey à 4 pattes Ey! De tous les niquer à coups de batte Ey! J'm'arrete plus c'est bon j'y vais Ey! Vodka Redbull dans mon re-vé Ey! Te cache pas, on va te trouver Ey! J'mangeais du pain les poches trouées Ey!Ah bien sur, Ah bien sur! Et j'en ai pleins des dossiers, mec c'est pas une blague Jungle, Jungle Ils jouent les Montana devant les go, mais t'inquiète pas fréro, nous on voit tout en flag' Ah bien sur, Ah bien sur! Mec je vois tout en flag' Ah bien sur, Ah bien sur! Mec nan c'est pas une blague Jungle, Jungle Tu sors un brolic, j'te sors un fusil j'rafale avec XXX Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Couplet 2 Wesh, wesh, wesh, wesh ! Là c'est trop la dèche-dèche ! Lève-lève, en i, canebé volée dans le tieks-tieks Oinj' de beu-her, Kak's et Liban's roulent un gros teh ! Mon frère, Naza dans la tchiop et tu n'as plus de nerfs Ey, Ey! B-Mafia Empire t'inquiète ca va le faire En gros fer ! Toi pendant qu'tu ken moi j'rafale ton frère G2B, G2B, j'fais mon retour et j'suis chaud comme un T-Max Personne va jouer, j'vous baise tous vos mères, même si vous êtes un max Reste de mignion petit frère, reste mignon petit frère, car c'est la guerre J'tire dans le tas j'ai pas d'frères, si tu veux bien que j'arrete, faut qu'tu m'enterres XXX mental de vipère, moi, j'me laisse pas faire Guy2bezbar-bezbar, on est tout-par tout-par, on fait crier l'XXX On veut du chiffre encore du chiffre négro Pah, Paaaah! Kilos-kilos d'grammes, kilos-kilos d'came ! Jungle, Jungle On veut du chiffre encore du chiffre négro Ah bien sur, Ah bien sur Au bigo-bigo calme, ils sont chauds sur oim' ! Refrain x2 Amigo, Amigo, Amigo Amigo, Amigo, Amigo Amigo, Amigo, Cual es el hijo de puta que buscar problemos ? Outro Rainté miné les gars quittons la zone rapide Rain-rainté miné les gars quittons la zone rapide Jungle c'est trop les fav's c'est pas Karaté Kid</t>
+          <t>Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Et faut pas nous emmerder Les vitres sont teintées On rafale et sans pitié De les voir seul ça nous fait bander Je n'perds pas de temps, t'as rien à dire devant le gun tu t'tait J'marche solo, dernier des combattants J'ai placé la bombe pour les faire sauter Porter ses couilles et démerder tout seul c'est question d'autonomie Bloquer ses thunes et pas les toucher c'est question juste d'économie Mais quelle folie ! Tu parles du passé que j'ai démoli Ma vie s'est embelli, quand je regarde derrière c'était pas joli Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Oh merde, parait que j'arriverai jamais au sommet Tenez, niquez vos mères Dis-leurs qu'on arrive et que l'équipe est XXX Où tu vas t'échapper ? Désolé je ne pourrais pas faire la paix J'avance la route est barré, j'défonce cette putain d'barrière On arrive en warrior On arrive en warrior J'arrive éteindre des carrières Assurez bien vos arrières Ils disent que j'suis pas invité, parce-que j'suis trop agité Ma place ils l'ont pas merité Avec eux, moi, je n'aurai jamais d'affinité Vu qu'il y'aura pas d'charité Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jungle #6</t>
+          <t>Jusqu’aux étoiles</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mes reufs de bezbar me disent G2 faut plier lgame Mes reufs de Marca me disent G2 faut plier lgame Et libérez mes frères Et libérez mes frères pour eux jvais plier lgame Pour ceux qui croyaient pas Pour ceux qui croyaient pas, wAllah jvais plier lgame Par où commencer Par où commencer Jsuis rentré fonce-dé Jai encore perdu les clés Jai laissé le rosé Va voir dans le fer Elle dit quelle est en couple Pourtant elle coopère Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Hé mec cest pas la fête Ramène la recette Tu vas pas mla faire Jai le jeu facile et la gâchette Ramène cque tas, on lachète Parait que jai plusieurs facettes Ils ont tous le mort jles ai wet Jles ramasse avec une brouette Jai mit du feu pour pas quil passe la ligne Ils dépassent wAllah que jles efface binks Moi jveux pas laisser de traces Ils mont fait coups de tass Ils méritent pas de passes Plus rien à perdre Donc on brasse Jsuis monté dans ltrain Et sans mettre de de coup de pass Jai trop la lle-da frère Quand jrentre dans la cabine binks Quel est le judas qui va trahir moi et mes amis Tu sais mes ennemis tu sais mes ennemis Ils aiment trop la vie ils aiment trop la vie Mais comment leur dire Quils devront bientôt la perdre Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Et on fait du fric on sen bat les reins Parle pas chinois Laisse passer tous mes pèlerins Laissez les croire quils sont devant Pendant quon charbonne comme des noirs Sur le terrain Parle nous de kilos Sinon nique ta race Depuis tout minot Jleur mets des balafres Guy2bezbar cest pas pour les gamins Mais tous ceux qui accumulent Le bif et les cadavres Ça pour les M-ZO les SP Très loin dceux qui font les tasse-pé Comment voulez-vous le respect Jusquau bout de la guerre on est restés De la ce-for à ceux qui ont cru en moi Ecoutez bien quand je parle Jsuis très sûr de moi Les refrés, les coups derrière les barreaux Le mental dacier on restera toujours vrais youvois Combien jai signé Ça tregarde pas nique ta mère Jveux des billets Pour avoir la vue sur la mer Tu seras mal heureux Si tu calcule les commères Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien Si taimerais tout savoir sur moi, mon amigo Moi jsuis parti de rien On est pas de ceux qui se vantent au bigo Jsais très bien quils ont rien</t>
+          <t>Oh-ah, oh-ah, oh-ah Oh-ah, oh-ah, oh-oh Okay, faut avoir une mentalité de ouf pour assumer nos vies Pour assumer nos vies Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh Nous on a grandi sans rien, normal qu'on veuille tout Normal qu'on veuille tout Malgré tous les coups durs de la vie tu sais qu'on tient l'coupTu sais qu'on tient l'coup Notre destin est tracé faut juste un peu d'couragejuste un peu d'courage J'ai perdu le chemin d'la maison à la recherche du gent-arrecherche du gent-ar Faut avoir une mentalité de ouf pour assumer nos viespour assumer nos lifes Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Bali, c'est noir c'qu'il se passe dans nos tiekson, mais te-tê comme Bali Leur faire la guerre pour nous protéger, se résume ma vie Souffre mais ne pleure pas baby, oh j'vais t'embellir Je les ai porté dans mon cur comme mes frères mais mon blase ils l'ont sali Moi, j'ai décidé d'tout prendre si t'es comme moi viens là qu'on s'allie Ils ont tout fait pour nous voir au sol on peut dire qu'ils ont failli Et je ne louperais pas l'occas' non non, j'peux plus être en faillite Souffre mais ne pleure pas jojo, même si c'est pénible Souffre mais ne pleure pas baby, même si c'est pénible Papito charme j'ai pas encore le pouvoir donc j'me sens pas libre Anga des picho, j'suis encore dans traquenard qui parle en kalib Ouh-ouh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet Jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jungle#7</t>
+          <t>La Callé</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Pas là pour plaisanter À la recherche du gain Pas là pour m'lamenter, on fera pire qu'une guerre sans fin Et faut pas nous emmerder Les vitres sont teintées On rafale et sans pitié De les voir seul ça nous fait bander Je n'perds pas de temps, t'as rien à dire devant le gun tu t'tait J'marche solo, dernier des combattants J'ai placé la bombe pour les faire sauter Porter ses couilles et démerder tout seul c'est question d'autonomie Bloquer ses thunes et pas les toucher c'est question juste d'économie Mais quelle folie ! Tu parles du passé que j'ai démoli Ma vie s'est embelli, quand je regarde derrière c'était pas joli Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Oh merde, parait que j'arriverai jamais au sommet Tenez, niquez vos mères Dis-leurs qu'on arrive et que l'équipe est XXX Où tu vas t'échapper ? Désolé je ne pourrais pas faire la paix J'avance la route est barré, j'défonce cette putain d'barrière On arrive en warrior On arrive en warrior J'arrive éteindre des carrières Assurez bien vos arrières Ils disent que j'suis pas invité, parce-que j'suis trop agité Ma place ils l'ont pas merité Avec eux, moi, je n'aurai jamais d'affinité Vu qu'il y'aura pas d'charité Tu n'auras jamais rien si tu tentes rien Tu verras rien si tu restes dans ton coin Tu veux pas de problèmes ? Bah tu touches à rien Tu pourras nous suivre si seulement t'as peur de rien Pas là pour plaisanter Pas là pour plaisanter J'suis là pour les hanter, si t'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt Moi j'suis pas là pour plaisanter T'as déjà peur tu laisses tomber Pas là pour plaisanter Pas là pour plaisanter Pas là pour m'présenter J'suis là pour tous les violenter Skurt, skurt, skurt</t>
+          <t>Aveuglés, leur gent-ar part en vacances avec des escorts Vivement que tous ces petits connards s'arrêtent là La balle que mon poto a tiré, c'était pas pour lui mais pour toi x3 Ok, c'est Coco Jojo qu'on appelle le sous-côté On s'la pète, on s'la pète, comme des négros qui avaient déjà tout Ils ont entendu paw paw, mais c'est calme, on y va, on dit pas tout Y'a ceux qui jactent pour rien, qui n'ont rien et qui sont vraiment par terre Et puis y'a nous, jeunes négros affamés, on est gang et prêts à tout J'suis dans le tchop négro, j'suis dans chatte négro, gros j'suis partout J'remplis les sacs négro, je veux tout négro, donc je fais tout J'suis dans la compo en pointe, mais je vois que les autres sont pas d'accord On surine, on décore J'me réveille black dans une ville noire, comme un chat ou mes Vapor Poto c'est hardcore la manière qu'on t'endort Les temps évoluent mais je n'sais toujours quoi dire A part qu'on vaut de l'or et qu'on veut de l'or Y'a du fric, on le prend sans vous mentir Arrête de gigoter tout-par comme si t'allais mourir Et c'est qu'une balle sa mère, ça fait mal, on te l'as mis dans la partie qui t'fait le moins souffrir La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool Que tous les mecs de la callé se lèvent, tous unis contre tous, ok merci c'est cool yah Tu m'connais à 6h du matin, j'rentrerais pas tout seul, j'remercie la foule yah Je sais qui m'a dérangé, pendant ma carrière ils m'ont dérangé Bébé mon cur on me l'a arraché, bébé mon cur on me l'a arraché Bebeto, Bebeto, ah Bebeto, Bebeto On gère le toss, on gère le toss Des fois j'ai envie de crier juste comme ça Moi j'ai pas choisi, gros c'est comme ça 13 ans on t'apprend à mélanger comme ça Mais y'a rien à tté-gra, y'a rien à tté-gra, y'a rien à tté-gra La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Tu peux reprendre, la callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' La callé, la call'-call' x41</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jusqu’aux étoiles</t>
+          <t>La Calle 5</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Oh-ah, oh-ah, oh-ah Oh-ah, oh-ah, oh-oh Okay, faut avoir une mentalité de ouf pour assumer nos vies Pour assumer nos vies Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh Nous on a grandi sans rien, normal qu'on veuille tout Normal qu'on veuille tout Malgré tous les coups durs de la vie tu sais qu'on tient l'coupTu sais qu'on tient l'coup Notre destin est tracé faut juste un peu d'couragejuste un peu d'courage J'ai perdu le chemin d'la maison à la recherche du gent-arrecherche du gent-ar Faut avoir une mentalité de ouf pour assumer nos viespour assumer nos lifes Le quartier, le rap, ma famille, j'sais plus où j'en suis J'sais plus où j'en suis Faut qu'j'm'éloigne un peu d'tout ça mais D'tout ça mais j'suis trempé d'dans J'suis trempé d'dans Tellement trempé d'dans, j'suis même pas à l'abri d'un coup de couteau Ouh-oh-oh-oh-oh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Bali, c'est noir c'qu'il se passe dans nos tiekson, mais te-tê comme Bali Leur faire la guerre pour nous protéger, se résume ma vie Souffre mais ne pleure pas baby, oh j'vais t'embellir Je les ai porté dans mon cur comme mes frères mais mon blase ils l'ont sali Moi, j'ai décidé d'tout prendre si t'es comme moi viens là qu'on s'allie Ils ont tout fait pour nous voir au sol on peut dire qu'ils ont failli Et je ne louperais pas l'occas' non non, j'peux plus être en faillite Souffre mais ne pleure pas jojo, même si c'est pénible Souffre mais ne pleure pas baby, même si c'est pénible Papito charme j'ai pas encore le pouvoir donc j'me sens pas libre Anga des picho, j'suis encore dans traquenard qui parle en kalib Ouh-ouh On s'est promis jusqu'au bout, on s'est promis jusqu'au sommet Jusqu'au sommet On s'est promis d'aller tout en haut jusqu'aux étoiles, oh-ah, oh-ah, oh-ah, oh-ah On s'est promis malgré tout Tout, d'aller décrocher la Lune Lune On s'est promis d'aller tout en haut jusqu'aux étoiles, et c'est dans les yeux qu'on s'regarde Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah On ira jusqu'aux étoiles, jusqu'aux étoiles, jusqu'aux étoiles Ouh-ah-ouh-ah-ouh-ah-ouh-ah</t>
+          <t>J'peux t'rafaler des deux mains comme Dembélé, droitier, gaucher brr Junior Alaprod, zammi Ah, Jojo, Coco Ça va faire rire à la fin, hein ? Sale Flingue et prends ton flouze, flingue et prends ton flouze Flingue et prends ton flouze, pendant qu'ils regardent nos shoes Flingue et prends ton flouze Regard derrière ma blouse, le dos est criblé d'poissons rouges De base on regarde même pas tout ce qu'ils racontent mais j'vais m'pencher personne Moi, j'traîne avec la calle, les mecs stylés, les mecs branchés Ils oublient tout ce que t'as fait d'bien, ils sont bons qu'à t'reprocher Mais à quoi bon sert de converser avec des envieux fauchés ? J'ai connu l'hiver au tier-quar, jamais d'la vie j'pourrais flancher Nous, c'est 243, 240, j'm'en bats les couilles de m'faire flasher Sur moi, 244, 240 billets violets, le double dans l'sachet Je sens toujours pas l'danger, je finirais bien par trancher J'mérite, j'finirais bien pas manger graille Baratinent que des bitches et ces bâtards disent qu'on a changé jaloux En vérité, encore heureux, si j'peux passer d'la merde au Classe G Ah, des Bicho, les Matty, les bandits, c'est parti J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep , j'suis en 240, c'est une tuerie À 240 dans l'Jeep , j'suis en 240, c'est une tuerie J'dois passer comme Curry, Chanel au pied d'ma chérie Louis Vuitton, Jean Amiri, dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep, j'suis en 240, c'est une tuerie À 240 dans l'Jeep, j'suis en 240, c'est une tuerie</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>La Callé</t>
+          <t>La Calle 5 [French]</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Aveuglés, leur gent-ar part en vacances avec des escorts Vivement que tous ces petits connards s'arrêtent là La balle que mon poto a tiré, c'était pas pour lui mais pour toi x3 Ok, c'est Coco Jojo qu'on appelle le sous-côté On s'la pète, on s'la pète, comme des négros qui avaient déjà tout Ils ont entendu paw paw, mais c'est calme, on y va, on dit pas tout Y'a ceux qui jactent pour rien, qui n'ont rien et qui sont vraiment par terre Et puis y'a nous, jeunes négros affamés, on est gang et prêts à tout J'suis dans le tchop négro, j'suis dans chatte négro, gros j'suis partout J'remplis les sacs négro, je veux tout négro, donc je fais tout J'suis dans la compo en pointe, mais je vois que les autres sont pas d'accord On surine, on décore J'me réveille black dans une ville noire, comme un chat ou mes Vapor Poto c'est hardcore la manière qu'on t'endort Les temps évoluent mais je n'sais toujours quoi dire A part qu'on vaut de l'or et qu'on veut de l'or Y'a du fric, on le prend sans vous mentir Arrête de gigoter tout-par comme si t'allais mourir Et c'est qu'une balle sa mère, ça fait mal, on te l'as mis dans la partie qui t'fait le moins souffrir La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool Que tous les mecs de la callé se lèvent, tous unis contre tous, ok merci c'est cool yah Tu m'connais à 6h du matin, j'rentrerais pas tout seul, j'remercie la foule yah Je sais qui m'a dérangé, pendant ma carrière ils m'ont dérangé Bébé mon cur on me l'a arraché, bébé mon cur on me l'a arraché Bebeto, Bebeto, ah Bebeto, Bebeto On gère le toss, on gère le toss Des fois j'ai envie de crier juste comme ça Moi j'ai pas choisi, gros c'est comme ça 13 ans on t'apprend à mélanger comme ça Mais y'a rien à tté-gra, y'a rien à tté-gra, y'a rien à tté-gra La callé, la call'-call' x2 Attend, assez de parler sur moi comme si j'étais le centre de la Terre, ok merci c'est cool yah La callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' Tu peux reprendre, la callé, la call'-call' G2, ouah La callé, la call'-call' x2 J'suis dans la callé, la call'-call' On vit dans la callé, la call'-call' On meurt dans la callé, la call'-call' La callé, la call'-call' La callé, la call'-call' x41</t>
+          <t>J'peux te rafaler des deux mains comme Dembélé droitier, gaucher Eh yo, eh yo, eh yo Ah Jojo Eh yo Coco Ça va faire rire à la fin Flingue et prends ton flouze Flingue et prends ton flouze Flingue et prends ton flouze bien nos shoes Flingue et prends ton flouze Regarde derrière ma blouse le dos est regarde même pas Tout ce qu'ils racontnt mais j'vais me pencher Moi j'train avec la calle les mecs stylés les mecs branchés Ils oublient tout ce que t'as fait de bien ils sont bons qu'à te reprocher Mais à quoi bon sert de converser avec des envieux fauchés J'ai connu l'hiver au tier-quar jamais de la vie je pourrais flancher Nous c'est 243, 240 j'm'en bats les couilles de me faire flasher Sur moi 244, 240 billets violets le double dans le sachet Je sens toujours pas le danger, je finirais bien par trancher Je mérite, je finirais bien par manger Baratinent que des bêtises Et ces bâtards disent qu'on a changé En vérité encore heureux Si j'peux passer de la merde au Class G les bandits c'est parti J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie Shoot un peu c'est comme Curry, Chanel au pied de ma chérie Louis Vuitton, Jean Améry Dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>La Calle 5</t>
+          <t>La capitale est sous contrôle</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J'peux t'rafaler des deux mains comme Dembélé, droitier, gaucher brr Junior Alaprod, zammi Ah, Jojo, Coco Ça va faire rire à la fin, hein ? Sale Flingue et prends ton flouze, flingue et prends ton flouze Flingue et prends ton flouze, pendant qu'ils regardent nos shoes Flingue et prends ton flouze Regard derrière ma blouse, le dos est criblé d'poissons rouges De base on regarde même pas tout ce qu'ils racontent mais j'vais m'pencher personne Moi, j'traîne avec la calle, les mecs stylés, les mecs branchés Ils oublient tout ce que t'as fait d'bien, ils sont bons qu'à t'reprocher Mais à quoi bon sert de converser avec des envieux fauchés ? J'ai connu l'hiver au tier-quar, jamais d'la vie j'pourrais flancher Nous, c'est 243, 240, j'm'en bats les couilles de m'faire flasher Sur moi, 244, 240 billets violets, le double dans l'sachet Je sens toujours pas l'danger, je finirais bien par trancher J'mérite, j'finirais bien pas manger graille Baratinent que des bitches et ces bâtards disent qu'on a changé jaloux En vérité, encore heureux, si j'peux passer d'la merde au Classe G Ah, des Bicho, les Matty, les bandits, c'est parti J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep , j'suis en 240, c'est une tuerie À 240 dans l'Jeep , j'suis en 240, c'est une tuerie J'dois passer comme Curry, Chanel au pied d'ma chérie Louis Vuitton, Jean Amiri, dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bondal, 240 dans l'jean, 243 l'kill À 240 dans l'Jeep, j'suis en 240, c'est une tuerie À 240 dans l'Jeep, j'suis en 240, c'est une tuerie</t>
+          <t>La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle Brr La capitale est sous contrôle Ouais, dans la street, toujours été droit Droit Numéro neuf, toujours eu l'bon rôle Neuf J'pourrais pas couler, toujours en pétard, tout droit et mes frères m'épaulent Toujours Que personne s'invente de life Ah-ah, on sait qui a fait quoi, qui possède le trône Pousse pas la fonte, bâtard, deux-trois coup d'fil, ta cité s'écroule Pah Toujours été dans les traquenards, dehors, toujours été dans la débrouille Peur de Dieu, moi, j'ai pas peur des gens Non mes sales gueules savent bien visées les jambes Pour plavon, j'suis très intelligent, c'est toujours Bezbar, rien n'a gé-chan, c'est toujours Bezbar, rien n'a gé-chan Stringer, The Wire, Franklin Snowfall Pah, nous, la caille-caille, on vient d'en bas Et là, zeb', gros joints bloqués dans l'hall, concerts, showcases, c'est toujours full Touche pas, hun, c'est Dieu qui m'a béni Ouais Cinq étoiles est mon hôtel, cinq étoiles dans ma te-stree Brrah, binks Blue Magic Corp, pure sang, bâtard, Winterfell, c'est l'industrie T'es mort J'irais vers les étoiles, chaud devant, bon courage à ceux qui m'ont trahi Bon courage Bon courage à ceux qui m'ont trahi, grosse force à ceux qui m'ont haït Dans tous les cas, man, c'est fort, prêt pour la guerre comme un vikings Jojo La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Let's go Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Dans nos ghettos, couteaux, sors ta lame, une nouvelle daronne sèche ses larmes Que Dieu nous pardonne, que Dieu nous guide, Winterfell Mafia, Blue Magic Chaque semaines, faut j'casse ma SIM car le chasseur peut devenir une cible Bouh, bouh Chaque jours, c'est mon cur qui s'abîme car l'humain me déçoit dans cette vie Tou-tou-tou-touh Adrénaline quand j'enfile la cagoule, j'm'introduis J'y vais En vrai, c'est peut-être l'intro du projet de Leto et Guy' Comme ça, comme ça C'est la u-re qu'on retranscris, la fin n'est pas bonne dans ton script Katana, j'fait pas d'escrime et éloquance quand je m'exprime La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Hun-hun Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Double bang, c'est fort La capitale est sous contrôle, La capitale est sous contrôle Okay La capitale est sous contrôle C'est Coco Jojo, les flingueurs, ouh-ouh La capitale est sous contrôle, La capitale est sous contrôle Brr, rah La capitale est sous contrôle Ça a commencer ici, baw</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>La Calle 5 [French]</t>
+          <t>Lala</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>J'peux te rafaler des deux mains comme Dembélé droitier, gaucher Eh yo, eh yo, eh yo Ah Jojo Eh yo Coco Ça va faire rire à la fin Flingue et prends ton flouze Flingue et prends ton flouze Flingue et prends ton flouze bien nos shoes Flingue et prends ton flouze Regarde derrière ma blouse le dos est regarde même pas Tout ce qu'ils racontnt mais j'vais me pencher Moi j'train avec la calle les mecs stylés les mecs branchés Ils oublient tout ce que t'as fait de bien ils sont bons qu'à te reprocher Mais à quoi bon sert de converser avec des envieux fauchés J'ai connu l'hiver au tier-quar jamais de la vie je pourrais flancher Nous c'est 243, 240 j'm'en bats les couilles de me faire flasher Sur moi 244, 240 billets violets le double dans le sachet Je sens toujours pas le danger, je finirais bien par trancher Je mérite, je finirais bien par manger Baratinent que des bêtises Et ces bâtards disent qu'on a changé En vérité encore heureux Si j'peux passer de la merde au Class G les bandits c'est parti J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie Shoot un peu c'est comme Curry, Chanel au pied de ma chérie Louis Vuitton, Jean Améry Dans ma calle que la blanche atterrit Dans ma calle que la blanche atterrit Dans ta cité que les balles atterrissent On fait ça mieux qu'en Amérique J'mange à Bandal pas chez tiep 240 dans l'jean, 243 À 240 dans l'Jeep, j'suis en 240 c'est une tuerie À 240 dans l'Jeep, j'suis en 240 c'est une tuerie</t>
+          <t>Ouais, c'est comment ? En léger Ouais G2, ouais G2, ouais G2 Ouais, Coco Jojo, wesh bien ou quoi ? Yo Joshy Joshy Ah, ah, ah, ah, ah, woh Moi, je viens d'la calle, Paris, Barbès, toi tu viens d'ailleurs fort, Coco Jojo, skurt, woh, flingue On dit qu'il faut surmonter toutes épreuves Jojo, Jojo pour être le meilleur Jojo, woh, ah, ah, ah Partout quoi qu'il arrive, quoi qu'ils fassent, on sait garder nos valeurs dans la calle, ouais Souvent, le ciel est gris, les pensées noires, pourtant, mes frères sont d'toutes les couleurs han, han, han, han Le soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Et puis, j'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes tout donné J'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes j'ai déjà tout donné Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme ma paire de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh On va faire sauter ta place woh, ça vient des fédéraux flingue On parle de gourous, tu peux pas jouer les superhéros c'est fort Hein, hein, hein, hein, ça pouvait pas s'terminer comme a-ç nan, hein, hein, hein, hein J'le fais pour ma calle woh, ma mifa, mon tier-quar, ma cité, mes potos, mes fêtards oh, oh Ma chérie coco coco, coco, coco, ah, ah, ah, oh les bâtards c'est nous, oh les gamins c'est nous C'est la calle ou c'est pas la calle ? C'est la calle C'est la calle ou c'est pas la calle ? C'est nous la calle, ah, ah Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme mes paires de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh1</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>La capitale est sous contrôle</t>
+          <t>La main de Dieu</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle La capitale est sous contrôle Brr La capitale est sous contrôle Ouais, dans la street, toujours été droit Droit Numéro neuf, toujours eu l'bon rôle Neuf J'pourrais pas couler, toujours en pétard, tout droit et mes frères m'épaulent Toujours Que personne s'invente de life Ah-ah, on sait qui a fait quoi, qui possède le trône Pousse pas la fonte, bâtard, deux-trois coup d'fil, ta cité s'écroule Pah Toujours été dans les traquenards, dehors, toujours été dans la débrouille Peur de Dieu, moi, j'ai pas peur des gens Non mes sales gueules savent bien visées les jambes Pour plavon, j'suis très intelligent, c'est toujours Bezbar, rien n'a gé-chan, c'est toujours Bezbar, rien n'a gé-chan Stringer, The Wire, Franklin Snowfall Pah, nous, la caille-caille, on vient d'en bas Et là, zeb', gros joints bloqués dans l'hall, concerts, showcases, c'est toujours full Touche pas, hun, c'est Dieu qui m'a béni Ouais Cinq étoiles est mon hôtel, cinq étoiles dans ma te-stree Brrah, binks Blue Magic Corp, pure sang, bâtard, Winterfell, c'est l'industrie T'es mort J'irais vers les étoiles, chaud devant, bon courage à ceux qui m'ont trahi Bon courage Bon courage à ceux qui m'ont trahi, grosse force à ceux qui m'ont haït Dans tous les cas, man, c'est fort, prêt pour la guerre comme un vikings Jojo La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Let's go Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Dans nos ghettos, couteaux, sors ta lame, une nouvelle daronne sèche ses larmes Que Dieu nous pardonne, que Dieu nous guide, Winterfell Mafia, Blue Magic Chaque semaines, faut j'casse ma SIM car le chasseur peut devenir une cible Bouh, bouh Chaque jours, c'est mon cur qui s'abîme car l'humain me déçoit dans cette vie Tou-tou-tou-touh Adrénaline quand j'enfile la cagoule, j'm'introduis J'y vais En vrai, c'est peut-être l'intro du projet de Leto et Guy' Comme ça, comme ça C'est la u-re qu'on retranscris, la fin n'est pas bonne dans ton script Katana, j'fait pas d'escrime et éloquance quand je m'exprime La capitale est sous contrôle, j'la met au fond des filets sans contrôle Comme ça Tous les jours, la mort, je frôle, océan d'billets je nage le crawl Merci Au début du film, tu meurs direct, là, c'est ma haine que j'crache quand j'rec' Hun-hun Je suis Néo dans la matrice, eux Ouh, c'est les bitchies qui les matrixent Double bang, c'est fort La capitale est sous contrôle, La capitale est sous contrôle Okay La capitale est sous contrôle C'est Coco Jojo, les flingueurs, ouh-ouh La capitale est sous contrôle, La capitale est sous contrôle Brr, rah La capitale est sous contrôle Ça a commencer ici, baw</t>
+          <t>La vie m'a fait comprendre très vite que je ne suis plus un baby Tous les soirs je suis dans la street parce que j'ai besoin d'un illet-bi Je traîne avec Gibson et Medi, on est devenu alcoolo Flash sur flash, je rentre khapta avec du sang sur l'polo Les grands ils jouent au tiercé, j'écris mes premiers versets Ils disent tout ce que j'vais percer, mais moi j'm'en bats les couilles Je prnds mon RER C, j'veux m'en mettr plein les fouilles, moi Pas tourner dans la cour, gagner la fin du tournoi Cousin j'ai v'là les tourments, j'ai pris le mauvais tournant Mais j'l'avais même pas vu venir, pourtant maman m'a prévenu Je veux pas finir en prévenu, ou comme mon pote qu'a serré A force d'être incarcéré, mais c'est la vie du tiekson Mais c'est la vie du quartier, on aurait dû s'écarter Pas s'laisser tomber par terre, couper la dobe en quartier Jouer à la cité Carter Mais putain qu'est-ce que j'ai fait ? Mais putain qu'est-ce que j'ai fait ? Malgré maman, ses efforts J'suis devenu capitaliste et c'est la rue qui m'a eu Des fois j'transporte des valises, des 400 grammes de chichons Mon cur a besoin d'une dialyse, mon corps a besoin d'un nichon Il est au nord, au Denis, j'rêve d'empiler les devis, j'ai un trop plein d'ambition Rêve Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey hey, mais j'suis toujours bloqué dans la calle Des fois j'me pointe au lycée, mais de 9 heures à 10 heures J'ai le million dans le viseur, les bleus dans l'rétroviseur Avoir le stress du ghetto, attendre le prochain métro Enchaîner les entraînements, j'croyais que j'finirais pro Surveiller la boîte aux lettres, pour les lettres d'avertissement J'ai des bonnes notes, mais j'aime pas trop les établissements Scolaire, depuis l'collège, j'ai d'la colère J'fais des collages histoire de voyager C'que j'ai voulu imager a fait de moi une machine À diminuer des vrais hommes, j'entends des balles qui résonnent Dans mes cauchemars, j'préfère finir au chtar, que finir clochard Numéro 10 sur l'dossard, certains me courtisent, veulent m'empêcher d'aller tout droit La putain d'sa mère, suis-je vraiment devenu un you-voi ? Ah-ah, ah-ah J'aime le biff, j'trouve pas les mots, mais vraiment j'aime le biff Tu vois, c'est dans ma nature, moi j'la joue comme papa En vrai j'suis pas la que pour t'faire la bise C'est fort Ki-ki-ki-ki-kick Faut pas t'laisser marcher dessus par les gens d'la caille Ah-ah, ah-ah Les écoute pas là, racontent que d'la pisse, leurs légendes c'est que d'la calle Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la caille C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey, hey, mais j'suis toujours bloqué dans la calle Y a plus personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle Ah ah ah</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lala</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ouais, c'est comment ? En léger Ouais G2, ouais G2, ouais G2 Ouais, Coco Jojo, wesh bien ou quoi ? Yo Joshy Joshy Ah, ah, ah, ah, ah, woh Moi, je viens d'la calle, Paris, Barbès, toi tu viens d'ailleurs fort, Coco Jojo, skurt, woh, flingue On dit qu'il faut surmonter toutes épreuves Jojo, Jojo pour être le meilleur Jojo, woh, ah, ah, ah Partout quoi qu'il arrive, quoi qu'ils fassent, on sait garder nos valeurs dans la calle, ouais Souvent, le ciel est gris, les pensées noires, pourtant, mes frères sont d'toutes les couleurs han, han, han, han Le soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Soleil est revenu comme Benzema, j'fais mon oseille, j'suis dans ma Benzo Et puis, j'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes tout donné J'ai déjà tout donné j'ai déjà tout donné, on brille encore donc j'enfile mes lunettes j'ai déjà tout donné Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme ma paire de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh On va faire sauter ta place woh, ça vient des fédéraux flingue On parle de gourous, tu peux pas jouer les superhéros c'est fort Hein, hein, hein, hein, ça pouvait pas s'terminer comme a-ç nan, hein, hein, hein, hein J'le fais pour ma calle woh, ma mifa, mon tier-quar, ma cité, mes potos, mes fêtards oh, oh Ma chérie coco coco, coco, coco, ah, ah, ah, oh les bâtards c'est nous, oh les gamins c'est nous C'est la calle ou c'est pas la calle ? C'est la calle C'est la calle ou c'est pas la calle ? C'est nous la calle, ah, ah Mesdames et messieurs, moi, mon nom c'est Jojo alalalalalah Maman ne sait pas que ces fils vendent du ne-jau alalalalalah En caisse, on se casse quand c'est calme dans la ne-zo alalalalalah J'encaisse, je reste clean comme mes paires de Jojo alalalalalah Alalah c'est fort, alalalalah woh, alalalah ça flingue Alalalalah, alalalah oh, Jojo Alalalalah, alalalah Alalalalah, alalalah paw Alalalalah, alalalah Jojo Alalalalah, alalalah Alalalalah, alalalah c'est Coco Jojo Depitcho R9, woh1</t>
+          <t>Eh, c'est rien, cest la rue, mon pote Oh, oh Laissez-moi m'installer, j'pourrais tout faire péter, jai la mentale à Rosa Parks rrah La bitchies en a dans la te-tê, j'l'envoie faire le checking paw, j'ai faim mais les chickens Cherchent a nous coffrer parce qu'on cuisine dans la kitchen, et le week-end oui, et le week-end, on ti-sor le ver-la rrah Ah non, tu sais, le confort nous rend pénard, et c'est fantastique, c'est trop magique Que c'est profond, cest gore ce que jimagine ouais et yah, et yah, et yah Tu veux nous prouver, work, work, si t'envoies des boîtes, tu sais quj'en ai rien à foutre Mais c'est lourd si c'est toi qui gère, gère, pa-paw Et jreviendrais vers toi, j'reviendrais vers toi si y a un truc à faire Rah ouais, poto, rah ouais, poto, les mbilas, si ça marche pas, ils m'verront gérer les tits-pe C'est sur la moto qu'on te fait voir du feu baw, c'est bon signe si mon équipe t'a kiffée rrah C'est bon signe si mon équipe t'a kiffée ouais Igo, igo, allô ? Ils passent, Wiko, Wiko, G2 écrit comme Victor Hugo ouais, je n'parle pas de Boss Hugo P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Eux c'est des fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser le Coco Jojo de Pijo R9, ok, oh Ils ont des paquets, on a la patate, on aura la Patek, le bénéf' du kamas On fait le taf on v'-esqui le Passat ouh, ouh Eux, c'est des faux types, ils sont pas fautifs grah, grah Trop dans la smokance, j'te rodave depuis yeah J'te demande une massa, j'te laisse mon produit On t'a pas banni ouh, t'en vaux pas la peine Le bigo est balourd, la sse-lia est balaise woh Et y a bien longtemps, très longtemps qu'on n'est plus petit go Les petits ont rêvé en grand bouh, c'est pas la taille qui fait l'petit À qui la faute si ils veulent dormir ? Yeah Les baiser, c'est promis Y a que des bâtards, y a que des vermines, c'est appels de phares ou bien l'anonyme Bien lisse, Bien lisse, Bien lisse Le terrain, c'est pas pour tout l'monde, connard, y a l'intérim boum, yeah, ok, ok Tu sais qu'j'te vois faire le débile 'bile, faire le débile Trop parano, en moi, j'ai un peu d'amour parano, moi, j'ai un peu d'amour Parano, du coup, j'ai très peu d'amis rrah, yeah J'reviens à mains nues yeah, tu vaux pas un 6.35 J'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' yeah Tu vaux pas un 6.35, j'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Tous ces fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser , oh</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>La main de Dieu</t>
+          <t>LOGAN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>La vie m'a fait comprendre très vite que je ne suis plus un baby Tous les soirs je suis dans la street parce que j'ai besoin d'un illet-bi Je traîne avec Gibson et Medi, on est devenu alcoolo Flash sur flash, je rentre khapta avec du sang sur l'polo Les grands ils jouent au tiercé, j'écris mes premiers versets Ils disent tout ce que j'vais percer, mais moi j'm'en bats les couilles Je prnds mon RER C, j'veux m'en mettr plein les fouilles, moi Pas tourner dans la cour, gagner la fin du tournoi Cousin j'ai v'là les tourments, j'ai pris le mauvais tournant Mais j'l'avais même pas vu venir, pourtant maman m'a prévenu Je veux pas finir en prévenu, ou comme mon pote qu'a serré A force d'être incarcéré, mais c'est la vie du tiekson Mais c'est la vie du quartier, on aurait dû s'écarter Pas s'laisser tomber par terre, couper la dobe en quartier Jouer à la cité Carter Mais putain qu'est-ce que j'ai fait ? Mais putain qu'est-ce que j'ai fait ? Malgré maman, ses efforts J'suis devenu capitaliste et c'est la rue qui m'a eu Des fois j'transporte des valises, des 400 grammes de chichons Mon cur a besoin d'une dialyse, mon corps a besoin d'un nichon Il est au nord, au Denis, j'rêve d'empiler les devis, j'ai un trop plein d'ambition Rêve Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey hey, mais j'suis toujours bloqué dans la calle Des fois j'me pointe au lycée, mais de 9 heures à 10 heures J'ai le million dans le viseur, les bleus dans l'rétroviseur Avoir le stress du ghetto, attendre le prochain métro Enchaîner les entraînements, j'croyais que j'finirais pro Surveiller la boîte aux lettres, pour les lettres d'avertissement J'ai des bonnes notes, mais j'aime pas trop les établissements Scolaire, depuis l'collège, j'ai d'la colère J'fais des collages histoire de voyager C'que j'ai voulu imager a fait de moi une machine À diminuer des vrais hommes, j'entends des balles qui résonnent Dans mes cauchemars, j'préfère finir au chtar, que finir clochard Numéro 10 sur l'dossard, certains me courtisent, veulent m'empêcher d'aller tout droit La putain d'sa mère, suis-je vraiment devenu un you-voi ? Ah-ah, ah-ah J'aime le biff, j'trouve pas les mots, mais vraiment j'aime le biff Tu vois, c'est dans ma nature, moi j'la joue comme papa En vrai j'suis pas la que pour t'faire la bise C'est fort Ki-ki-ki-ki-kick Faut pas t'laisser marcher dessus par les gens d'la caille Ah-ah, ah-ah Les écoute pas là, racontent que d'la pisse, leurs légendes c'est que d'la calle Hey, hey, hey C'est fort Y avait personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la caille C'est fort Ki-ki-ki-ki-kick Hey, hey, mais j'suis toujours bloqué dans la calle Hey, hey, mais j'suis toujours bloqué dans la calle Y a plus personne pour m'épauler, j'ai fait avec ce que Dieu m'a donné J'veux faire le tour du monde, avec une jolie blonde mais j'suis toujours bloqué dans la calle Ah ah ah</t>
+          <t>Rayane on the beat Le quarterback, c'est moi Papito charme pou-pou-pouh SHK C'est pour les mecs stylé là my G' awah J'récup' deux-trois sacs vers Avenue Montaigne, suis moi parce que dehors y a que des schmeta flocko, dehors y a que des schmeta à mort De l'or au platine, j'm'affole pas, j'investis juste avant de faire la fiesta la fête Au pays des bosseurs, tu bé-tom, on t'relève, c'est parti, on t'demande pas qu'est c't'as Coco J'donnerais plus l'heure au moins cher, qui valent même pas le prix d'une presta' flingueur Tu veux qu'j'te parle en ... ? en quoi ? Tu veux qu'j'te parle en quelle langue ? en quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Et j'me voile la face en vrai même, j'recale les miettes et prendre les restes J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Tu veux qu'j'te parle en quelle langue ? Coco, Tu veux qu'j'te parle en quelle langue ? quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Depitcho, Ronaldo, Bezbar, quand j'suis en pétard, personne sépare, quand ca part, okay Hein, y a rien à craindre, en face ca tient pas c'est que tu plexiglass c'est que tu plexiglass J'recule pas meme devant King Kong OG, devant personne qu'on recule J'fais des phrases mec, on parle francais french, et ca devant quiconque J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Ah-, Oh-oh-oh Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>Lové</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Eh, c'est rien, cest la rue, mon pote Oh, oh Laissez-moi m'installer, j'pourrais tout faire péter, jai la mentale à Rosa Parks rrah La bitchies en a dans la te-tê, j'l'envoie faire le checking paw, j'ai faim mais les chickens Cherchent a nous coffrer parce qu'on cuisine dans la kitchen, et le week-end oui, et le week-end, on ti-sor le ver-la rrah Ah non, tu sais, le confort nous rend pénard, et c'est fantastique, c'est trop magique Que c'est profond, cest gore ce que jimagine ouais et yah, et yah, et yah Tu veux nous prouver, work, work, si t'envoies des boîtes, tu sais quj'en ai rien à foutre Mais c'est lourd si c'est toi qui gère, gère, pa-paw Et jreviendrais vers toi, j'reviendrais vers toi si y a un truc à faire Rah ouais, poto, rah ouais, poto, les mbilas, si ça marche pas, ils m'verront gérer les tits-pe C'est sur la moto qu'on te fait voir du feu baw, c'est bon signe si mon équipe t'a kiffée rrah C'est bon signe si mon équipe t'a kiffée ouais Igo, igo, allô ? Ils passent, Wiko, Wiko, G2 écrit comme Victor Hugo ouais, je n'parle pas de Boss Hugo P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Eux c'est des fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser le Coco Jojo de Pijo R9, ok, oh Ils ont des paquets, on a la patate, on aura la Patek, le bénéf' du kamas On fait le taf on v'-esqui le Passat ouh, ouh Eux, c'est des faux types, ils sont pas fautifs grah, grah Trop dans la smokance, j'te rodave depuis yeah J'te demande une massa, j'te laisse mon produit On t'a pas banni ouh, t'en vaux pas la peine Le bigo est balourd, la sse-lia est balaise woh Et y a bien longtemps, très longtemps qu'on n'est plus petit go Les petits ont rêvé en grand bouh, c'est pas la taille qui fait l'petit À qui la faute si ils veulent dormir ? Yeah Les baiser, c'est promis Y a que des bâtards, y a que des vermines, c'est appels de phares ou bien l'anonyme Bien lisse, Bien lisse, Bien lisse Le terrain, c'est pas pour tout l'monde, connard, y a l'intérim boum, yeah, ok, ok Tu sais qu'j'te vois faire le débile 'bile, faire le débile Trop parano, en moi, j'ai un peu d'amour parano, moi, j'ai un peu d'amour Parano, du coup, j'ai très peu d'amis rrah, yeah J'reviens à mains nues yeah, tu vaux pas un 6.35 J'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' yeah Tu vaux pas un 6.35, j'arrive en 6 en fond d'cinq, ça sort des trippes, mon sin-c' P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant P'tit à petit, le level augmente et c'est flippant ok, ok Il suffit de s'appliquer, il suffit de s'impliquer, il suffit de répliquer, oh Tous ces fatigués, nous c'est la qualité, pas la même mentalité, il suffit de maîtriser , oh</t>
+          <t>The Danger The Danger Jojo, Jojo, Jojo, Jojo Mmh, mmh Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo Bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover okay, t'as qu'à piger, les terrains sont ouverts rrah Depuis tit-pe, jentends les histoires du terrain d mon quartier Jvoulais juste avoir lunetts Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures Jojo, Jojo, Jojo, Jojo, Jojo Que des kil' de cocaïne, j't'envoie les tits-pe si t'as les bras de Popeye Jojo, Jojo, Jojo J'dois m'en aller dans un quart d'heure Jojo, Jojo, Jojo J'ai mes lunettes Cartier, j'suis pas fan du pollen dans le Space Montain, allons voir le soleil Quattro Remplis le sac de Vuitton et Fendi, j'envoie tout ça, la vendeuse me sourit yes Deux-trois kichtas, j'envoie paire de Céline max, deux-trois kichtas, elle perd tous ses principes Tu sais que jamais je baisserai ma culotte, portes tes couilles, négro, fait tout au culot Rêve de très vite d'importer tous ces kilos, peu s'dirigent vers la fortune grâce au pilon Quattro Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay, la vitesse Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Marlo Bueno J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse brr Minimum three, maximum quattro, quattro le Don, la fusion Coco Jojo Remplis d'finesse donc t'as senti le mojo, double contact, c'est R9 et Robinho, eh paw, paw Lovés, j'pense qu'à faire des lovés, Maybach aux jantes chromés, trois points, j'peux pas louper switch, switch, switch Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures La finesse, la finesse La finesse, la finesse La finesse, la finesse La finesse, la finesse</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LOGAN</t>
+          <t>Mafia Noire*</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rayane on the beat Le quarterback, c'est moi Papito charme pou-pou-pouh SHK C'est pour les mecs stylé là my G' awah J'récup' deux-trois sacs vers Avenue Montaigne, suis moi parce que dehors y a que des schmeta flocko, dehors y a que des schmeta à mort De l'or au platine, j'm'affole pas, j'investis juste avant de faire la fiesta la fête Au pays des bosseurs, tu bé-tom, on t'relève, c'est parti, on t'demande pas qu'est c't'as Coco J'donnerais plus l'heure au moins cher, qui valent même pas le prix d'une presta' flingueur Tu veux qu'j'te parle en ... ? en quoi ? Tu veux qu'j'te parle en quelle langue ? en quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Et j'me voile la face en vrai même, j'recale les miettes et prendre les restes J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Tu veux qu'j'te parle en quelle langue ? Coco, Tu veux qu'j'te parle en quelle langue ? quoi ? Tu veux qu'j'te parle en quelle langue ? quoi ?, poto la monnaie répond déjà Quadrillé, mon équipe est briefé depuis, tu peux tenter ca peut pas d'jà juste confiné Depitcho, Ronaldo, Bezbar, quand j'suis en pétard, personne sépare, quand ca part, okay Hein, y a rien à craindre, en face ca tient pas c'est que tu plexiglass c'est que tu plexiglass J'recule pas meme devant King Kong OG, devant personne qu'on recule J'fais des phrases mec, on parle francais french, et ca devant quiconque J'suis devenu une espèce rare comme le panda comme les panda Et putain, Jojo n'sait pas qu's'habiller en Prada Jojo n'sait pas qu's'habiller en Prada J'suis bon qu'à protéger mon avenir, riposter pour éviter que maman ne pleure des rivières J'éviterais l'égoïsme, j'éviterais qu'on me reproche, un jour j'finirais bien par m'y faire m'y faire, Coco Yea-yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Yea-yea-yeah, et pour eux j'ai fournis tant d'efforts J'ai fournis tant d'efforts, mais personne n'est reconnaissant Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir eh Ah-, Oh-oh-oh Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir Mais fuck, il m'faut mon enveloppe enveloppe Dans la caille tous les jours, bon qu'à trainer tard le soir</t>
+          <t>Paroles issues d'un extrait Ekip, sans Cartier, Santos Marathon, sans pause Rapi Sati, Blacky Jacky, Corleone, Coco Jojo Ekip J'vois en slow-mo, so Ocho Lin J'les vois comme des Coco Jojo Mafia noire comme B.S.F Dans l'usine on a la sauce comme Ils vont disparaître comme le B.S.F</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lové</t>
+          <t>Mais ça va</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>The Danger The Danger Jojo, Jojo, Jojo, Jojo Mmh, mmh Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo Bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover okay, t'as qu'à piger, les terrains sont ouverts rrah Depuis tit-pe, jentends les histoires du terrain d mon quartier Jvoulais juste avoir lunetts Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures Jojo, Jojo, Jojo, Jojo, Jojo Que des kil' de cocaïne, j't'envoie les tits-pe si t'as les bras de Popeye Jojo, Jojo, Jojo J'dois m'en aller dans un quart d'heure Jojo, Jojo, Jojo J'ai mes lunettes Cartier, j'suis pas fan du pollen dans le Space Montain, allons voir le soleil Quattro Remplis le sac de Vuitton et Fendi, j'envoie tout ça, la vendeuse me sourit yes Deux-trois kichtas, j'envoie paire de Céline max, deux-trois kichtas, elle perd tous ses principes Tu sais que jamais je baisserai ma culotte, portes tes couilles, négro, fait tout au culot Rêve de très vite d'importer tous ces kilos, peu s'dirigent vers la fortune grâce au pilon Quattro Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay, la vitesse Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Marlo Bueno J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse Mister Fresh J'suis pas dans le love, c'est les billets mauves, tous les jours, que j'ramasse brr Minimum three, maximum quattro, quattro le Don, la fusion Coco Jojo Remplis d'finesse donc t'as senti le mojo, double contact, c'est R9 et Robinho, eh paw, paw Lovés, j'pense qu'à faire des lovés, Maybach aux jantes chromés, trois points, j'peux pas louper switch, switch, switch Coco Jojo, jfais monter la plus bonne des bitches dans l'Quattro Ça m'intéresse pas d'les larguer même si là-bas, j'les aime pas trop j'suis en classe business Avant de penser love, demande à Marlo, bueno, j'fais des lovés c'est fort On gère le bloc comme Larry Hoover wow, t'as qu'à piger, les terrains sont ouverts okay Depuis tit-pe, jentends les histoires du terrain de mon quartier Jvoulais juste avoir lunettes Cartier mais j'ai pas vu l'temps passer Avant de penser love, la machine à billets compte les lovés On gère la puce comme des Rockefeller han, pour faire des lovés, il n'y a pas d'heures La finesse, la finesse La finesse, la finesse La finesse, la finesse La finesse, la finesse</t>
+          <t>On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Si j'avais su, j'aurai rien donné Mais avec du recul, on finit par pardonner Si j'avais bu, j'aurai laissé mes émotions prendre le dessus Mais j'aurai tout perdu, j'aurai fini déçu Ah mon bébé j'y vais car j'ai pas le choix Pas le choix Coller la tête, je reviendrai sûrement dès l'aube Oh oh oh Tous mes problèmes dans le dos J'lui fais bisou dans le cou, c'est le parfum du ghetto On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Mozart Capitaine Jackson J'imaginais pas ma vie putain d'vie sans toi J'imaginais pas ma putain d'vie comme ça Quand tu sors dans le tier-quar ne prends pas ton cur avec toi Quand tu sors dans le tier-quar Ne fais pas le ouf nous quand on shoot on laisse sans voix Tu sors dans le tier-quar J'ai dû batailler tous les jours malgré les coups poto je tiens le coup Dans tous les cas on pense qu'à la tour Dans tous les cas il faut garder le cap Le mal rode ici, chanter comme Roddy Ricch dans les rues de ma ville Ça vend la mort pour survivre On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mafia Noire*</t>
+          <t>Ma Jungle #3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Ekip, sans Cartier, Santos Marathon, sans pause Rapi Sati, Blacky Jacky, Corleone, Coco Jojo Ekip J'vois en slow-mo, so Ocho Lin J'les vois comme des Coco Jojo Mafia noire comme B.S.F Dans l'usine on a la sauce comme Ils vont disparaître comme le B.S.F</t>
+          <t>En 31 En 31 G2Binks Jungle, passez la rre-guè Cocaina Ah bien sûr, ah bien sûr Mes negros sont déter sur le rain-té gros même s'il pleut Y a de la place pour postuler sur le rain-té gros si tu veux Comme Piccolo j'suis vert, rampez tous bande de vers de terre Joues-la comme Beckham, ou comme moi si tu sais le faire La caution tu laisses ta mère, la potion c'est Belvédère AK-47 planqué dans l'bâtiment on sait tous à quoi ça sert Ici les you-vois ne sont pas loveurs Tu tombes amoureux gros c'est game over Joues pas les Tony elle m'a dit que t'es trop mignon et que t'en as du coeur Niggas of Paris le samedi, flow bicraveur toute la semaine Dimanche je dors en Versace, aux côtés d'une biatch colombienne Y a qu'en gardav' qu'ils t'aiment, alors faut la détester Entouré de mes frères y a que eux que je kiffe en cas de haja vont rester Négro j'arrive je suis méchant je ne côtoie aucun perdant Diplôme de bandit réputé formation pour casser toutes tes dents Elles kiffent les soleils pleins, voyous de ma ville préfèrent le soir J'ai le sourire de joker mais je prépare un gros coup de bâtard là tu vas voir Guy2, Guy2Binks, il était dans le labo il dormait pas J'sors une grosse sse-cai grosse liasse de billet même les grands de chez toi comprennent pas Guy2, Guy2Binks, il était dans le labo il ronflait pas Mes gavas m'ont dit faut les baiser tout en montrant qu'on ne se mélange pas D'Phuket ils fument la beuh, le biff est rentré mais j'ai pas grossi Boulette si y a les bleus, et si les vils-ci sont là cours aussi J'mets les coups de tête donc ferme ta gueule Moi j'suis Zizou t'es Materazzi Tu suces pas de bites t'es pas le seul Allumes ces suceurs Jacques à dit m'a dit Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage1</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mais ça va</t>
+          <t>MAMY CHULA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Si j'avais su, j'aurai rien donné Mais avec du recul, on finit par pardonner Si j'avais bu, j'aurai laissé mes émotions prendre le dessus Mais j'aurai tout perdu, j'aurai fini déçu Ah mon bébé j'y vais car j'ai pas le choix Pas le choix Coller la tête, je reviendrai sûrement dès l'aube Oh oh oh Tous mes problèmes dans le dos J'lui fais bisou dans le cou, c'est le parfum du ghetto On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo Mozart Capitaine Jackson J'imaginais pas ma vie putain d'vie sans toi J'imaginais pas ma putain d'vie comme ça Quand tu sors dans le tier-quar ne prends pas ton cur avec toi Quand tu sors dans le tier-quar Ne fais pas le ouf nous quand on shoot on laisse sans voix Tu sors dans le tier-quar J'ai dû batailler tous les jours malgré les coups poto je tiens le coup Dans tous les cas on pense qu'à la tour Dans tous les cas il faut garder le cap Le mal rode ici, chanter comme Roddy Ricch dans les rues de ma ville Ça vend la mort pour survivre On a perdu du temps, d'l'oseille, mais ça va Mais ça va On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, j'me barre loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi On a perdu du temps, d'l'oseille, mais ça va Jojo On m'a fait du mal donc j'ai fait du mal Mal En fait, j'avais pas compris, je pars loin d'ici Plus de ffe-bi, plus d'ennemis, pour moi Jojo</t>
+          <t>Finvy, N-N-N, Hadouken Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelquun A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Ouais-ouais cho-cho-cho-cho, ouais-ouais cho-cho-cho-cho C'est la jet-tweet, les jaloux coucou, ca va on fait que bombarder Et ouais c'est festif, mais sur nous que tu bavardes tu fais qu bavarder En plus on dit qu'il aime beaucoup ls palabres faut pas les regarder Et ta vie de fatigué t'as rendu faya faut pas les regarder Nous cest la ligue 1, vie dartiste on fire faut pas les regarder Paris, Dubai, L-A, on leur a fait des frayeurs faut pas les regarder Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, cest mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Elle est fraiche, elle est potable, on arrose, un fer décapotable, on propose C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui c'est mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ma Jungle #3</t>
+          <t>Maradona 10</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>En 31 En 31 G2Binks Jungle, passez la rre-guè Cocaina Ah bien sûr, ah bien sûr Mes negros sont déter sur le rain-té gros même s'il pleut Y a de la place pour postuler sur le rain-té gros si tu veux Comme Piccolo j'suis vert, rampez tous bande de vers de terre Joues-la comme Beckham, ou comme moi si tu sais le faire La caution tu laisses ta mère, la potion c'est Belvédère AK-47 planqué dans l'bâtiment on sait tous à quoi ça sert Ici les you-vois ne sont pas loveurs Tu tombes amoureux gros c'est game over Joues pas les Tony elle m'a dit que t'es trop mignon et que t'en as du coeur Niggas of Paris le samedi, flow bicraveur toute la semaine Dimanche je dors en Versace, aux côtés d'une biatch colombienne Y a qu'en gardav' qu'ils t'aiment, alors faut la détester Entouré de mes frères y a que eux que je kiffe en cas de haja vont rester Négro j'arrive je suis méchant je ne côtoie aucun perdant Diplôme de bandit réputé formation pour casser toutes tes dents Elles kiffent les soleils pleins, voyous de ma ville préfèrent le soir J'ai le sourire de joker mais je prépare un gros coup de bâtard là tu vas voir Guy2, Guy2Binks, il était dans le labo il dormait pas J'sors une grosse sse-cai grosse liasse de billet même les grands de chez toi comprennent pas Guy2, Guy2Binks, il était dans le labo il ronflait pas Mes gavas m'ont dit faut les baiser tout en montrant qu'on ne se mélange pas D'Phuket ils fument la beuh, le biff est rentré mais j'ai pas grossi Boulette si y a les bleus, et si les vils-ci sont là cours aussi J'mets les coups de tête donc ferme ta gueule Moi j'suis Zizou t'es Materazzi Tu suces pas de bites t'es pas le seul Allumes ces suceurs Jacques à dit m'a dit Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Diego Maradona Diego Maradona Diego Maradona Diego Maradona J'suis dans l'te-foo, j'suis dans la drogue dure Cocaina On est vêtu que de grosses coutures, pas made in China Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage Joue les cow-boy on va te faire, ici Lucky Luke fais le ménage C'est les merco qui gèrent les meufs, XXX Pattaya c'est dommage1</t>
+          <t>Ha ha ha ha Ah ouais frérot Ouais c'est vrai poto Laisse tomber poto, il m'a dit il a fait Même moi on m'a dit il a ait ça frérot oh my gooood ? Même moi j'lai entendu, dinguerie sa mère J'étais branché j'étais sur la 4 Ah poto, arrête il va venir facher, il va pas rigoler W'Allah C'est une galère le coco, w'Allah c'est une galère, t'as capté tu connais son dièse, lui en plus, lui dès qu'il fait les refrains il ambiance toutes les ? qui sont dans la salle x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Les potos vont monter chez toi pour une tentative naantoi-même tu sais Ne t'en fais pas pour moi, pépère, je m'endors aux Maldives oklm Matin midi soir j'suis pas dans la paresse Money je récupère, money je ramasse On roule en gros bolide, les feu-me on caresse Et j'fais rentrer toutes les ti-per dans le palace ?, dis-moi, c'est Coco qui te ? Mon équipe passe sur le corner, on caillasse Que des shooters, que des dealers dans la 'tess Canons sciés fait ce tour dans ta fa-face Si vous êtes les meilleurs, soyez les meilleurs ! Même, on est là comme on est là Personne ici m'a rien donné 22 cocaine pour Money Brassard, numéro 10 Maradonna c'est moi Nous on est là comme on est c'est fort Traine qu'avec des gros bonnets Demande à tes potes ils nous connaissent bien On n'a plus b'soin d'parler d'nous x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Peperos, vas-y molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Que des billets dans la calle Devant comme Di Natale On fait du biff dans la calle Devant comme Di Natale Que des billets dans la calle Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAMY CHULA</t>
+          <t>Mastic</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Finvy, N-N-N, Hadouken Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelquun A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Ouais-ouais cho-cho-cho-cho, ouais-ouais cho-cho-cho-cho C'est la jet-tweet, les jaloux coucou, ca va on fait que bombarder Et ouais c'est festif, mais sur nous que tu bavardes tu fais qu bavarder En plus on dit qu'il aime beaucoup ls palabres faut pas les regarder Et ta vie de fatigué t'as rendu faya faut pas les regarder Nous cest la ligue 1, vie dartiste on fire faut pas les regarder Paris, Dubai, L-A, on leur a fait des frayeurs faut pas les regarder Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui cest mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, cest mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Papito, Joga Bonito, hein-hein-hein kudjo, kudjo Elle est fraiche, elle est potable, on arrose, un fer décapotable, on propose C'est des trucs, c'est des choses, c'est des trucs, c'est des choses Chacun, chacun son tour, on va bombarder, hein-hein-hein Aujourd'hui c'est mon jour, les jaloux regardez, à la bien Elle me rejoint aussi vite, se dessape, t'as capté ? J'suis quelqu'un A mon chouchou, pas touche, aucune paluche, c'est mon mannequin Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein Vas-y molo Papi Chulo, ou-ou-ouh Après ne t'en fait pas Mami Chula, hein-hein-hein</t>
+          <t>Le Coco Jojo Ouh, eh, eh, eh Avec un, avec un flingue, flingue, avec un flingue, hey No soft, bitch Avec un flingue, flingue, avec un flingue Coco Jojo, Sauce God Jojo, hey, Sauce, Jojo, hey, okay Mon ice, c'est comme à l'Alaska, han, elle aime les bandits, les lascars, han J'fume la beuh comme un rasta, han, j'veux juste ma money et basta, han Basta, han, et basta, han Jojo, j'suis dans le nord comme Bamba, han Jojo Ma bitch sort tout droit dun manga Jojo, la zone est minée comme Atlanta Cnt bitchies à la casa blow, j'suis en jet privé, pas Lufthansa oh Ic, ice, Holy Water pow, j'suis toujours chaud si y a une dahba Hey, puta madre, c'est du Henny, pas un latté mmh T'as ramené ta biatch dans l'club, ça fait deux heures qu'elle fait qu'me mater hey, wow, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, let's get it Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique C'est fameux, fame, c'est fabuleux, fantastique wow TPM, bitchies, no, Julo, ah, ah Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi ah, ah Que des briques, et des briques, et des briques, à la P. Diddy tout ça, tout ça Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi tout ça, tout ça J'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Que des briques, et des briques, et des briques, à la P. Diddy Yeah, wow, le gang est actif à différentes échelles, hey On parle peu mais si y a un beef ou un plavon, on dégaine hey Elle veut qu'on link up, link up, link up link up J'suis en mode online-offline, quand j'suis sous les effets d'une liqueur hey, boom Yeah, tu connais le mendem qui tient les ficelles mmh J'suis dans une bad bitch, j'crois qu'c'est la millieme, han Demande à Bebeto, Bebeto à Bebeto On fait chanter les métaux, les métaux les métaux Hey, hey, hey, Heness' j'bois cul sec hey, hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps hey Que ça pète, j'ai mon péc-ule hey, hey, kiki, kiki hey, hey, kiki hey Heness' j'bois cul sec hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps, kiki Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Kiki, kiki, j'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Yeah, les formes à Nicki, ma Becky, eh, comme ça, j'l'emmène dans l'espace hey, wow, wow Sauce God, Sauce God, Sauce God hey, wow Bebeto, Bebeto, wo-wow B.O.B.O.X, Barbès1</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Maradona 10</t>
+          <t>Message reçu</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ha ha ha ha Ah ouais frérot Ouais c'est vrai poto Laisse tomber poto, il m'a dit il a fait Même moi on m'a dit il a ait ça frérot oh my gooood ? Même moi j'lai entendu, dinguerie sa mère J'étais branché j'étais sur la 4 Ah poto, arrête il va venir facher, il va pas rigoler W'Allah C'est une galère le coco, w'Allah c'est une galère, t'as capté tu connais son dièse, lui en plus, lui dès qu'il fait les refrains il ambiance toutes les ? qui sont dans la salle x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Les potos vont monter chez toi pour une tentative naantoi-même tu sais Ne t'en fais pas pour moi, pépère, je m'endors aux Maldives oklm Matin midi soir j'suis pas dans la paresse Money je récupère, money je ramasse On roule en gros bolide, les feu-me on caresse Et j'fais rentrer toutes les ti-per dans le palace ?, dis-moi, c'est Coco qui te ? Mon équipe passe sur le corner, on caillasse Que des shooters, que des dealers dans la 'tess Canons sciés fait ce tour dans ta fa-face Si vous êtes les meilleurs, soyez les meilleurs ! Même, on est là comme on est là Personne ici m'a rien donné 22 cocaine pour Money Brassard, numéro 10 Maradonna c'est moi Nous on est là comme on est c'est fort Traine qu'avec des gros bonnets Demande à tes potes ils nous connaissent bien On n'a plus b'soin d'parler d'nous x2 Toi-même tu sais tu peux pas, peux pas Sors les pe-pom dès qu'y a un pépin Toi-même tu sais personne sépare Peperos, vas-y molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Que des billets dans la calle Devant comme Di Natale On fait du biff dans la calle Devant comme Di Natale Que des billets dans la calle Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos Peperos, sasy molo-lo Si t'aimes bien, tu kiffes, ohlolo Les patrons d'la ville ohlolo Et j'm'endors sur des gros lolos</t>
+          <t>Son de la crème C'est G le G G2B Oui c'est le G Plata o Plomo J'ai le geste C'est le G Pah pah pah message reçu G2, l'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu J'ai cru que j'allais finir si vite plein les poches J'ai cru que tout était beau mais non c'était moche Wallah j'suis prêt j'peux pas louper le coche On restera toujours tant qu'on les sacoches Et tu me sers à rien si tu bouges pas comme un plan Poto tu t'ahchem c'est un diez t'es pas réglo Faut bien capter mon tel écouter les mélos Au casse tête ou dans la surface je cherche le péno Tire sur la touka t'es dans mon affaire tu le sais faut pas poukave J'ai mis le paquet pour de vrai mon rebeu Lâche un mot de travers on enverra le bazooka Mais pourquoi ? Mais pourquoi ? Parler pour rien faire tu sais que ça sert pas Regardes ces faux you-voi, des saletés qu'on nettoie T'es pas Robien des bois, ici tu fais pas le poids G2 L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu Tu crois peut-être que c'est la fête ? Tu vas tout payer si t'as des dettes Chez nous facile est la gachette-chette-chette Tu te mangeras une balle dans la tête Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mastic</t>
+          <t>Mick Jagger</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Le Coco Jojo Ouh, eh, eh, eh Avec un, avec un flingue, flingue, avec un flingue, hey No soft, bitch Avec un flingue, flingue, avec un flingue Coco Jojo, Sauce God Jojo, hey, Sauce, Jojo, hey, okay Mon ice, c'est comme à l'Alaska, han, elle aime les bandits, les lascars, han J'fume la beuh comme un rasta, han, j'veux juste ma money et basta, han Basta, han, et basta, han Jojo, j'suis dans le nord comme Bamba, han Jojo Ma bitch sort tout droit dun manga Jojo, la zone est minée comme Atlanta Cnt bitchies à la casa blow, j'suis en jet privé, pas Lufthansa oh Ic, ice, Holy Water pow, j'suis toujours chaud si y a une dahba Hey, puta madre, c'est du Henny, pas un latté mmh T'as ramené ta biatch dans l'club, ça fait deux heures qu'elle fait qu'me mater hey, wow, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, wow C'est R9, c'est Jojo, c'est Barbès, c'est Bo-Bocks', c'est GG, c'est Louis, Fendi, c'est Amiri, let's get it Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique C'est fameux, fame, c'est fabuleux, fantastique wow TPM, bitchies, no, Julo, ah, ah Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi ah, ah Que des briques, et des briques, et des briques, à la P. Diddy tout ça, tout ça Elle veut ma dikidi, dikidi, dikidi, dikidi, dikidi tout ça, tout ça J'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Que des briques, et des briques, et des briques, à la P. Diddy Yeah, wow, le gang est actif à différentes échelles, hey On parle peu mais si y a un beef ou un plavon, on dégaine hey Elle veut qu'on link up, link up, link up link up J'suis en mode online-offline, quand j'suis sous les effets d'une liqueur hey, boom Yeah, tu connais le mendem qui tient les ficelles mmh J'suis dans une bad bitch, j'crois qu'c'est la millieme, han Demande à Bebeto, Bebeto à Bebeto On fait chanter les métaux, les métaux les métaux Hey, hey, hey, Heness' j'bois cul sec hey, hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps hey Que ça pète, j'ai mon péc-ule hey, hey, kiki, kiki hey, hey, kiki hey Heness' j'bois cul sec hey, j'les baise, pas b'soin d'pec' hey, j'les baise pas b'soin d'peps, kiki Liasse emballée dans l'élastique, j'la fais sucer dans le Magic eh, eh Ché-cra dans ses fesses en plastique, Magic, Blue Magic dégun Elle m'astique wow, elle m'astique ça flingue, elle m'astique boss, elle m'astique mmh C'est fameux, fame, c'est fabuleux, fantastique Endorphine, amphétamine, codéine, prométhazine Cocaïne, snif-snif, mélange Sprite avec la lean Elle mastique, elle mastique, elle mastique, elle mastique ouh, oui C'est fameux, fame, c'est fabuleux, fantastique Kiki, kiki, j'fais le tour de Paris, tout seul, dans l'van, y a grave de l'espace Yeah, les formes à Nicki, ma Becky, eh, comme ça, j'l'emmène dans l'espace hey, wow, wow Sauce God, Sauce God, Sauce God hey, wow Bebeto, Bebeto, wo-wow B.O.B.O.X, Barbès1</t>
+          <t>Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Viens parmi nous, tu verras ma foi c'est tellement paisible oui J'ai l'air au premier regard, mais je n'suis pas très accessible On brille de mille feux, les jaloux d'à coté n'peuvent que tchiper Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm J'veux tout avec toi, promets moi seulement de rester loyal J'veux tout avec toi, promets moi d'pas t'enfuir à chaque salade J'veux tout avec toi, promets moi dans le pire dans nos balades Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm Papito Charme Papito Charme, han Papito Charme, les gars j'oublie pas tout ce qu'on s'est dit Verre de Ciroc, p'tit regard, j'suis pas très bavard Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil, eh N'parle pas beaucoup, dis moi qu'tu m'aimes beaucoup J'te mets ton coup, tout en te serrant le cou Tu sais déjà qui j'suis j'ai pas besoin d'me présenter Kra-kra-kra, j'suis pas là pour plaisanter Toi c'est ta wife, moi c'est ma bitch Quand t'es au boulot, c'est moi dans ton lit Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture J'me ressers un verre Roc-Ci, la soirée continue ok J'suis en feu ok, j'suis en feu J'suis en feu ok, j'suis en feu Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture j'suis en feu J'me ressers un verre Roc-Ci j'suis en feu, la soirée continue ok Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Message reçu</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Son de la crème C'est G le G G2B Oui c'est le G Plata o Plomo J'ai le geste C'est le G Pah pah pah message reçu G2, l'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu J'ai cru que j'allais finir si vite plein les poches J'ai cru que tout était beau mais non c'était moche Wallah j'suis prêt j'peux pas louper le coche On restera toujours tant qu'on les sacoches Et tu me sers à rien si tu bouges pas comme un plan Poto tu t'ahchem c'est un diez t'es pas réglo Faut bien capter mon tel écouter les mélos Au casse tête ou dans la surface je cherche le péno Tire sur la touka t'es dans mon affaire tu le sais faut pas poukave J'ai mis le paquet pour de vrai mon rebeu Lâche un mot de travers on enverra le bazooka Mais pourquoi ? Mais pourquoi ? Parler pour rien faire tu sais que ça sert pas Regardes ces faux you-voi, des saletés qu'on nettoie T'es pas Robien des bois, ici tu fais pas le poids G2 L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu Tu crois peut-être que c'est la fête ? Tu vas tout payer si t'as des dettes Chez nous facile est la gachette-chette-chette Tu te mangeras une balle dans la tête Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G Prends-en de la graine C'est G le G Oui c'est le G J'ai le G yeye C'est G le G L'avenir t'appartiens si tu sors du lot Tu nous verras jamais comme ces salopes Frérot regardes moi ces rigolos Malheur à ceux qui m'ont déçu J'te tire dans un plan faut pas s'chier dessus Mes potos m'ont dis finis les Mets des pah pah pah message reçu</t>
+          <t>Elle veut son Chanel bag, j'lui dis viens voir Coco Viens voir Coco Tu m'as reconnu au feu rouge, briganté dans le Merco Si tu nous invites, bien sûr on vient, ramène ta clique T'inquiète, on tient, on bloque tout le VIP c'est fort On leur laisse rien, on taille pas d'pipe, tu le sais bien Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Jojo Parle-moi d'oseille, y a que ça qui tourne dans ma tête c'est fort, c'est fort Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la C'est Coco La-la-la-la-la-la, la-la-la-la-la-la yes, c'est fort La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Jojo Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Yes Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Parle-moi d'oseille, y a que ça qui tourne dans ma tête Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la yes, yes</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mick Jagger</t>
+          <t>Monnaie Respect Pouvoir</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Viens parmi nous, tu verras ma foi c'est tellement paisible oui J'ai l'air au premier regard, mais je n'suis pas très accessible On brille de mille feux, les jaloux d'à coté n'peuvent que tchiper Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm J'veux tout avec toi, promets moi seulement de rester loyal J'veux tout avec toi, promets moi d'pas t'enfuir à chaque salade J'veux tout avec toi, promets moi dans le pire dans nos balades Eh-eh-eh hmm-mm, eh-eh-eh hmm-mm Papito Charme Papito Charme, han Papito Charme, les gars j'oublie pas tout ce qu'on s'est dit Verre de Ciroc, p'tit regard, j'suis pas très bavard Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil, eh N'parle pas beaucoup, dis moi qu'tu m'aimes beaucoup J'te mets ton coup, tout en te serrant le cou Tu sais déjà qui j'suis j'ai pas besoin d'me présenter Kra-kra-kra, j'suis pas là pour plaisanter Toi c'est ta wife, moi c'est ma bitch Quand t'es au boulot, c'est moi dans ton lit Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture J'me ressers un verre Roc-Ci, la soirée continue ok J'suis en feu ok, j'suis en feu J'suis en feu ok, j'suis en feu Fallait qu't'entendes ses gémissements quand on l'faisait dans la voiture j'suis en feu J'me ressers un verre Roc-Ci j'suis en feu, la soirée continue ok Verre de Ciroc, p'tit regard, j'suis pas très bavard non, non, non, non Ne t'inquiète pas j'suis pas de ceux qui finissent méconnaissable ah ouais Quand je la vois je sens, je sais qu'entre nous deux c'est faisable faisable On fire comme Mick Jagger, nan j'lui laisserais pas l'choix j'lui laisserais pas l'choix Les autres et nous ne compare pas c'est Papito Charme Ne confond pas nan, nan, nan, nan, nan Les regardes pas et tout est dit On est pas pa-reil</t>
+          <t>Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses C'est comme ça qu'on fait les choses Toi tu t'grattais, bah j't'ai vi-sser une bonne dose J't'ai vi-sser une bonne dose sale chien Paris nord c'est noir, ici la vie n'est pas rose Mes amis vont t'faire devant chez toi pendant que j'guette les Simpson pepelo C'est fort C'est pas rose, on vend du jaune, on fume la verte Brra pour nous tout va bien tout baign C'est fort Tout va bien tout baigne, ux et nous c'est pas pareil J'arrive sappé Dior tout en abeille, quand j'arrive je brille té-ma mes shoes Et c'est comme ça qu'on fait les choses Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir En face y'a rien d'intéressant ou plutôt moi j'ai peur de personne Ça pète de , man de pitcho Dehors on peut pas perdre, on les fouette comme Yuri Boyka Boh On va tous crever pour notre dignité et notre honneur nous suit jusqu'à la tombe Les flingueurs Dans les diez depuis l'époque d'la Nintendo, pour mon anniv j'me suis acheté l'extendo Sku, sku La monnaie, le respect, le pouvoir, tu bé-tom, tu sors, tu rebé-tom Parisien comme Jay-Jay Okocha, c'est dans les mauvais coins d'la ville que nous vivons Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Moula</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Elle veut son Chanel bag, j'lui dis viens voir Coco Viens voir Coco Tu m'as reconnu au feu rouge, briganté dans le Merco Si tu nous invites, bien sûr on vient, ramène ta clique T'inquiète, on tient, on bloque tout le VIP c'est fort On leur laisse rien, on taille pas d'pipe, tu le sais bien Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Jojo Parle-moi d'oseille, y a que ça qui tourne dans ma tête c'est fort, c'est fort Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la C'est Coco La-la-la-la-la-la, la-la-la-la-la-la yes, c'est fort La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Jojo Monaco, sapé full Saint Lau' Bitches jump dans le bateau Mais pour nous, c'est de l'eau Yes Vaux mieux tu nous compares pas Nous c'est pas, c'est pas eux C'est pas, c'est pas eux On agit direct, my G, on va pas trop parler Ah, ça va péter Nous c'est les flingueurs, baby C'est les flingueurs En pétard, hiver, été C'est fort Tequila, Don Julio, classe Azul, Casamigos Parle-moi d'oseille, y a que ça qui tourne dans ma tête Parle-moi d'oseille, y a que ça qui tourne dans ma tête Coco Chanel, on va foutre le bordel Coco Chanel, on va foutre le bordel La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la La-la-la-la-la-la, la-la-la-la-la-la Coco Jojo La-la-la-la-la-la, la-la-la-la-la-la yes, yes</t>
+          <t>Dans le nez dans le nez de tout les profs de français Tu connais tu connais mes negros sont déclassé Biatch je ne connais pas l'echec ah non Mon frere je m'allonge tranquillement a puerto rico Money sur le teco fais pas cramer le bigo J'ai 2 beinks avec tout ces sales migo Cocaina la farine dans tes narine la tout de droit de mexico Ta copine la je la bz dans le lilas si ton marie passe Je lui pete tout ces chico Nigga's off paris c'est clair Partout nous on fais la guerre Coca moula fouilla avec mon gars y'a kotchi nr Ramene les meuf pas les keufs Je pete le champagne dans ta teuf Je revais de gros mili neuf pdt que toi tu regardais titeuf Et j'arrache et j'arrache la piste tu kiffe ma zic Demande a mon grand frelon nitro Ah bien sur x2 moi je fais la diff te diront mes ennemie Dans le metro Pas le meme delire en tout cas</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Monnaie Respect Pouvoir</t>
+          <t>Mouvement*</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses C'est comme ça qu'on fait les choses Toi tu t'grattais, bah j't'ai vi-sser une bonne dose J't'ai vi-sser une bonne dose sale chien Paris nord c'est noir, ici la vie n'est pas rose Mes amis vont t'faire devant chez toi pendant que j'guette les Simpson pepelo C'est fort C'est pas rose, on vend du jaune, on fume la verte Brra pour nous tout va bien tout baign C'est fort Tout va bien tout baigne, ux et nous c'est pas pareil J'arrive sappé Dior tout en abeille, quand j'arrive je brille té-ma mes shoes Et c'est comme ça qu'on fait les choses Nous, nous, nous, nous, nous Nous c'est comme ça qu'on fait les choses Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir En face y'a rien d'intéressant ou plutôt moi j'ai peur de personne Ça pète de , man de pitcho Dehors on peut pas perdre, on les fouette comme Yuri Boyka Boh On va tous crever pour notre dignité et notre honneur nous suit jusqu'à la tombe Les flingueurs Dans les diez depuis l'époque d'la Nintendo, pour mon anniv j'me suis acheté l'extendo Sku, sku La monnaie, le respect, le pouvoir, tu bé-tom, tu sors, tu rebé-tom Parisien comme Jay-Jay Okocha, c'est dans les mauvais coins d'la ville que nous vivons Tu peux pas savoir l'effet que j'ressens dans Batmobile Money J'ressens comme un délire en moi qui m'a transformé La monnaie, le respect, le pouvoir C'est toujours la même merde, les keufs à six heures La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir J'ai dû faire des choix, j'ai perdu des proches La monnaie, le respect, le pouvoir, la monnaie, le respect, le pouvoir</t>
+          <t>Paroles issues d'un extrait J'ai toujours le mouvement, Soixante a le mouvement AK-47, doucement, tu vas t'faire allumer par mes gars Dis à tes copines que j'suis occupé, que je dois compter, qu'à midi, j'me lève Cortège de</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Moula</t>
+          <t>MPIAKA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dans le nez dans le nez de tout les profs de français Tu connais tu connais mes negros sont déclassé Biatch je ne connais pas l'echec ah non Mon frere je m'allonge tranquillement a puerto rico Money sur le teco fais pas cramer le bigo J'ai 2 beinks avec tout ces sales migo Cocaina la farine dans tes narine la tout de droit de mexico Ta copine la je la bz dans le lilas si ton marie passe Je lui pete tout ces chico Nigga's off paris c'est clair Partout nous on fais la guerre Coca moula fouilla avec mon gars y'a kotchi nr Ramene les meuf pas les keufs Je pete le champagne dans ta teuf Je revais de gros mili neuf pdt que toi tu regardais titeuf Et j'arrache et j'arrache la piste tu kiffe ma zic Demande a mon grand frelon nitro Ah bien sur x2 moi je fais la diff te diront mes ennemie Dans le metro Pas le meme delire en tout cas</t>
+          <t>Ah-ah-ah Oh, oh, oh, oh, oh Le Coco Jojo Ah-ah-ah J'arrive en Bottega, r'tire tes gars sinon j'vais les faire galope Chez nous, c'est Beretta bien gé-char comme le cul d'la salope Poh Coco, Green Monta', on passe un cap et le cash fait que d'monter Ah Cousin et j'suis dans l'Viano Sprinter, ah Prada, Milano Grr, grr, pah, elle voudrait l'anneau Pendant qu'moi, visser en bas d'la came, sirène de po'-po' déjà, fuis Déjà, fuis On parle en kilogrammes, appelle mes potes, c'est toujours fluide Pas très fêtard, pas très bavard, coutau, guitare, roule sans mis-per Voitur, pétard, ganté, trois quart, j'prends tout, j'me coffre chez ta tiper Donne le départ, aucun retard, voisin regarde, y a les p'tits, pète un câble Pah, c'est Coco Jojo Visser en bas d'la came, sirène de po'-po' déjà, fuis Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah Ces flockos parlent mais n'ont pas d'thune, elle me parle d'affiner ma plume Mmh Nique ta mère j'te le dis à l'avance, fils de pute, rien à m'apprendre Tu dis qu'tu pèses mais qui t'as cru ? Même en vitres teintées, elle m'a vu J'peux plus faire confiance à une tain-p', les baiser, bitch, ça m'paraît simple J'passe pas les rapports dans l'Brabus Brabus S-Mode toujours à fond, j'casse son cul mais j'casse pas ma puce La foule acclame, pourtant, c'est sombre, prends ce flingue et dis-lui À plus Brr Direct dans la bouche, elle veut qu'j'la défonce sous la douche Y a les keufs qui veulent prendre ma paie, hey Négro, j'suis toujours disponible quand l'argent m'appelle, yah NMR Je sens qu't'es faux, Greenzer, Coco Jojo, te baisent Yeah, yeah Nan, sois pas stressée, bébé, j'passe la plupart de mon temps à encaisser Sois pas choquée, deux-trois showcases et j'passe mon temps à encaisser Yeah, yeah, oh Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mouvement*</t>
+          <t>MTV</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait J'ai toujours le mouvement, Soixante a le mouvement AK-47, doucement, tu vas t'faire allumer par mes gars Dis à tes copines que j'suis occupé, que je dois compter, qu'à midi, j'me lève Cortège de</t>
+          <t>Junior à la prod zanmi Jai porté mes cojones J'ai déjà mis la daronne à l'abri, maintenant j'dois juste trouver ma Dolores J'ai sorti le gamos, ta khamen parce que c'était pas des plaques polonaises Ils font la prière tous les jours mais j'connais leur cur, ils sont trop mauvais, oh ils sont trop mauvais Des automobiles y en a Des automatiques y en a Jaloux saboteurs y en a Mais la justice de Dieu y en a Des automobiles y en a, coco Des automatiques y en a, c'est faux Jaloux saboteurs y en a, Mais la justice de Dieu y en a Oh, ces fils de pute sont jaloux Mais téma comment on brille Ces fils de putes sont jaloux, oh Ces fils de putes sont jaloux Sont jaloux, jaloux, jaloux, jaloux Yeah, yeah, yes, yeah, yeah Je suis dans limport export, et les parions sports On na pas le temps de charger le T-Roc On fait la guerre, on est forts et on forme On fait les efforts, cest nous les pirates Envoie le sirop que jai pas fini de siroter Je veux de lor partout, est-ce que cest noté? J'vais te donner Jvais te donner une vraie raison de me haïr Jvais te donner une vraie raison d'me haïr Jvais te, attends, attends, ah sur la vie de ma mère, c'est Coco et Nosdi, c'est faux! Jvais te donner une vraie raison de me haïr Élastiques sur les billets d'cent, j'm'en bats les couilles d'aller au ciel Élastiques sur le billet d'cent Quoi qu'ils disent, on laisse plein de sang Téma nos vies, ils ont R, ils sont jaloux Téma les, ça s'voit qu'ils sont pas comme nous R9, Coco, Nosdi Dinos tout en black dans le rooftop c'est faux! T'es en bas, j'te vois tout petit, c'est les flingueurs que je vois Balenciaga et Prada, ça va pas ensemble, arrêtez d'faire les rappeurs d'la fashion week Confiance qu'au métal comme si j'étais John Wick Carlo Ancelotti, j'veux la Champions League J'arrive comme A-Conne L'époque de Lonely, l'époque de Lottape, l'époque de Convict Ils ont pas un gros, c'est que de bullshit, ils sont pas un gros, c'est que d'conneries L'époque des Dips, c'est l'époque de Max B Il m'faut un Max, bro, il m'faut un Max bro J'regardais Fifty la Kier sur MTV Et j'ai dit, Putain, il m'faut la même, gros Pour nous y a rien qu'y est interdit, j'ramène les bitches, le dîner est servi Petit suis-nous tu vas gerber, ça joue à fond comme si cétait un derby NGolo, fais pas l'parano, les bolos, na-ma-ma-na-yo Frappe de Bergkampf, j'te connais ni d'Adam, ni dEve, ni du Serpent Téma le 4 sortie d'pôt J'réponds pas sur X gros Paris baise pas avec Gizzy, qui c'est, noci-pi-ti On tire ça à des kilomètres, zéro tolérance, Glock dans la Boca Regarde, dis-leur c'est qui le maître, et d'ailleurs, qu'est-ce que j'm'en bats les steaks Ils veulent pas dnous bah j'arrive en snake, opération OP On connaît la deux, on s'est jamais trompé, on est les chi-tous que t'as peur de croiser</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MPIAKA</t>
+          <t>My block</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ah-ah-ah Oh, oh, oh, oh, oh Le Coco Jojo Ah-ah-ah J'arrive en Bottega, r'tire tes gars sinon j'vais les faire galope Chez nous, c'est Beretta bien gé-char comme le cul d'la salope Poh Coco, Green Monta', on passe un cap et le cash fait que d'monter Ah Cousin et j'suis dans l'Viano Sprinter, ah Prada, Milano Grr, grr, pah, elle voudrait l'anneau Pendant qu'moi, visser en bas d'la came, sirène de po'-po' déjà, fuis Déjà, fuis On parle en kilogrammes, appelle mes potes, c'est toujours fluide Pas très fêtard, pas très bavard, coutau, guitare, roule sans mis-per Voitur, pétard, ganté, trois quart, j'prends tout, j'me coffre chez ta tiper Donne le départ, aucun retard, voisin regarde, y a les p'tits, pète un câble Pah, c'est Coco Jojo Visser en bas d'la came, sirène de po'-po' déjà, fuis Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah Ces flockos parlent mais n'ont pas d'thune, elle me parle d'affiner ma plume Mmh Nique ta mère j'te le dis à l'avance, fils de pute, rien à m'apprendre Tu dis qu'tu pèses mais qui t'as cru ? Même en vitres teintées, elle m'a vu J'peux plus faire confiance à une tain-p', les baiser, bitch, ça m'paraît simple J'passe pas les rapports dans l'Brabus Brabus S-Mode toujours à fond, j'casse son cul mais j'casse pas ma puce La foule acclame, pourtant, c'est sombre, prends ce flingue et dis-lui À plus Brr Direct dans la bouche, elle veut qu'j'la défonce sous la douche Y a les keufs qui veulent prendre ma paie, hey Négro, j'suis toujours disponible quand l'argent m'appelle, yah NMR Je sens qu't'es faux, Greenzer, Coco Jojo, te baisent Yeah, yeah Nan, sois pas stressée, bébé, j'passe la plupart de mon temps à encaisser Sois pas choquée, deux-trois showcases et j'passe mon temps à encaisser Yeah, yeah, oh Ah-ah-ah-ah Ils font que d'aboyer, n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Hey, uh, ces flockos parlent, ils ont pas d'thune, hey NMR, Greenzer Ils font qu'aboyer, ils ont pas d'thune, yeah Yeah, yeah, yeah Ils font que d'aboyer, n'ont pas d'thune Fuck them Ces flockos parlent mais n'ont pas d'thune Yeah</t>
+          <t>Et moi le problème que j'avais Cest que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks Jme sens au dessus sur ça j'vais pas m'attarder Moi le problème que j'avais C'est que j'écoutais pas quand papa parlais Couplet 1 Je sais bien qu'ils aimeraient avoir ma life Je sais bien qu'ils aimeraient se faire ma life Pourtant ya rien dintéressant je ne dors pas la nuit Et le jour comme charo je taff Sur le terrain faut que ça becte plus M ballade partout gars j'me crois au five Jla sntais plus trop, j'ai cassé ma puce Activé le plan B j'ai pas demandé de pass Ma chérie se plein tous les jours Et me dit c'est pas sur moi quil faut rejeter ses nerfs C'est pas ma faute si les gens m'énervent Ma tête est de la couleur de mon billet vert L'autre il me dit c'est pas bien la guerre Mais tu sais même pas pourquoi j'suis en train de la faire Allez, casse toi d'ici Tu veux pas mon bien, toi t'es qu'un chien J'suis la dans ma te-ci Si tu m'cherche vraiment, demain tu viens Maman ne pleure pa Moi je m'en sortirais, bientôt on s'en ira T'inquiète ça va pas durer Quand toi et moi ça ira, j'envois d'la grosse purée Guy2Bezbar tu pourras le retrouver sur les champs Pas loin de chez monsieur Ladurée Quand j'sors la Kalashnikov J'entend ces pédales qui commence à murmurer J'suis dans la rentable Bientôt tu pourras plus me loca' Fuck les motards J'bombarde j'fume un locale Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block Alors écoute, constitué pour faire mouiller ta femelle C'est triste mais réel on le sait tous sale pute Tu t'es prostitué pour du sang sous ta semelle Pas du tout les mêmes tu le vois bien Regarde t'as des dettes dans ta vie J'augmente chiffre et le level cash, money Pirates me dit faudrait laisser des séquelles Boy, boy, quoi ? Y a quoi ? Ramène mon cash Au plus vite, là tu m'racontes quoi J'les termine comme Chuck Norris J'préfère être seul je n'ai pas d'nourrice Faudrait que j'me canalise J'y vais trop fort faut que je temporise Le passé est mort et je n'y vais pas pour déposer des fleurs Ils m'ont jeté le sort j'ai cherché qui c'était j'ai vu j'ai eu peur J'me suis retrouvé tout seul, t'étais pas là J'écoute plus les consignes on m'prend pour un malade J'veux même plus savoir quand le temps nous sourira J'écoute ce qu'ils racontent c'est rien que des salades Ils ferment les barrières car ils savent que j'suis la bête J'reviens calibré si je perds mon tête à tête Il est bipolaire Guy2Bez' Des fois c'est la bringue des fois c'est fini la fête Eh yo, Fresh, ils savent où on va venir gros Plata o plomo, pur sang, c'est plus que réel Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MTV</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Junior à la prod zanmi Jai porté mes cojones J'ai déjà mis la daronne à l'abri, maintenant j'dois juste trouver ma Dolores J'ai sorti le gamos, ta khamen parce que c'était pas des plaques polonaises Ils font la prière tous les jours mais j'connais leur cur, ils sont trop mauvais, oh ils sont trop mauvais Des automobiles y en a Des automatiques y en a Jaloux saboteurs y en a Mais la justice de Dieu y en a Des automobiles y en a, coco Des automatiques y en a, c'est faux Jaloux saboteurs y en a, Mais la justice de Dieu y en a Oh, ces fils de pute sont jaloux Mais téma comment on brille Ces fils de putes sont jaloux, oh Ces fils de putes sont jaloux Sont jaloux, jaloux, jaloux, jaloux Yeah, yeah, yes, yeah, yeah Je suis dans limport export, et les parions sports On na pas le temps de charger le T-Roc On fait la guerre, on est forts et on forme On fait les efforts, cest nous les pirates Envoie le sirop que jai pas fini de siroter Je veux de lor partout, est-ce que cest noté? J'vais te donner Jvais te donner une vraie raison de me haïr Jvais te donner une vraie raison d'me haïr Jvais te, attends, attends, ah sur la vie de ma mère, c'est Coco et Nosdi, c'est faux! Jvais te donner une vraie raison de me haïr Élastiques sur les billets d'cent, j'm'en bats les couilles d'aller au ciel Élastiques sur le billet d'cent Quoi qu'ils disent, on laisse plein de sang Téma nos vies, ils ont R, ils sont jaloux Téma les, ça s'voit qu'ils sont pas comme nous R9, Coco, Nosdi Dinos tout en black dans le rooftop c'est faux! T'es en bas, j'te vois tout petit, c'est les flingueurs que je vois Balenciaga et Prada, ça va pas ensemble, arrêtez d'faire les rappeurs d'la fashion week Confiance qu'au métal comme si j'étais John Wick Carlo Ancelotti, j'veux la Champions League J'arrive comme A-Conne L'époque de Lonely, l'époque de Lottape, l'époque de Convict Ils ont pas un gros, c'est que de bullshit, ils sont pas un gros, c'est que d'conneries L'époque des Dips, c'est l'époque de Max B Il m'faut un Max, bro, il m'faut un Max bro J'regardais Fifty la Kier sur MTV Et j'ai dit, Putain, il m'faut la même, gros Pour nous y a rien qu'y est interdit, j'ramène les bitches, le dîner est servi Petit suis-nous tu vas gerber, ça joue à fond comme si cétait un derby NGolo, fais pas l'parano, les bolos, na-ma-ma-na-yo Frappe de Bergkampf, j'te connais ni d'Adam, ni dEve, ni du Serpent Téma le 4 sortie d'pôt J'réponds pas sur X gros Paris baise pas avec Gizzy, qui c'est, noci-pi-ti On tire ça à des kilomètres, zéro tolérance, Glock dans la Boca Regarde, dis-leur c'est qui le maître, et d'ailleurs, qu'est-ce que j'm'en bats les steaks Ils veulent pas dnous bah j'arrive en snake, opération OP On connaît la deux, on s'est jamais trompé, on est les chi-tous que t'as peur de croiser</t>
+          <t>Hajima et Majima Boumidjal Haha, ha, haha Ooh, na, nana, na, ooh, na, nana, na Ooh, yeah-yeah, yeah-yeah Mesdames et Messieurs, moi mon nom c'est Jojo Hahaha, ha, woo Si c'est pas pour le cash, alors laisse tomber laisse, laisse J'préfère tourner la page, non, non laisse tomber laisse tomber Si c'est pas pour le cash, alors laisse tomber no way J'préfère tourner la page woo J'ai perdu l'contrôle du navire non J'ai perdu l'chemin d'la maison baow-baow, baow-baow, Coco Jojo Je sais pas où je vais, mais tout me revient quand tu marches près d moi quand tu marches près de moi, quand tu marches près d moi J'ai promis de revenir en forme, peu importe les saisons peu importe Eh, yo, c'est Tayc et Coco Jojo wah, wah, wah, wah On sort les fleurs, les guns sont rangés wah, wah, wah, wah On dépose casque Araï et moto baow, baow-baow, hahaha, Jojo, Jojo, Jojo Eh, yo, c'est Tayc et Coco Jojo eh, yo, c'est Tayc et Coco Jojo, yeah, yeah, yeah, yeah Appelle nous si y a un plan meuf ou plan fric, yeah J'ai mis le succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah J'ai mis mon succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Yeah, yeah, na, nana, na, yeah, j'dois faire du na, nana Yeah, yeah, na, nana, na, j'dois faire du na, nana Yeah, yeah, yeah Plus y a d'she-ca, j'peux pas le laver c'est Coco Jojo J'dois faire du nana, na c'est Coco Jojo Plus y a d'she-ca, j'peux pas le laver J'lui donnerai ce dont elle a envie Le ciel est rose, comme ton coeur, levée du matin J'vais dans la fosse, j'ai pas peur, je prends tes patins na, nana, na, nana Jojo, Jojo, Jojo, yeah, yeah, yeah-yeah Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Appelle nous si y a un plan meuf ou plan fric, yeah ooh, yeah J'ai mis le succès en repeat oh nana, na Ma femme je dois la combler J'dois faire du na, nana, na, yeah ooh, nana J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah yeah, yeah-yeah J'ai mis mon succès en repeat yeah Ma femme je dois la combler J'dois faire du na, nana, na, yeah j'J'dois faire du na, nana, na J'dois faire du na, nana, na na, nana, na Yeah, yeah, na, nana, na na, nana, na, yeah, j'dois faire du na, nana oh, Jojo Yeah, yeah, na, nana, na ooh, ooh, j'dois faire du na, nana ooh, ooh Yeah, yeah, yeah Haha, ha, haha, ha le Coco Jojo, ooh, ooh-ooh, ooh-ooh Oh, Jojo Ooh, woah, oh Ooh, ooh-ooh, ooh-ooh Yeah, yeah, yeah oh, woah, oh, woah Yeah, yeah, nana, na, nana, nana Nana, na, nana, nana</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>My block</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Et moi le problème que j'avais Cest que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks Jme sens au dessus sur ça j'vais pas m'attarder Moi le problème que j'avais C'est que j'écoutais pas quand papa parlais Couplet 1 Je sais bien qu'ils aimeraient avoir ma life Je sais bien qu'ils aimeraient se faire ma life Pourtant ya rien dintéressant je ne dors pas la nuit Et le jour comme charo je taff Sur le terrain faut que ça becte plus M ballade partout gars j'me crois au five Jla sntais plus trop, j'ai cassé ma puce Activé le plan B j'ai pas demandé de pass Ma chérie se plein tous les jours Et me dit c'est pas sur moi quil faut rejeter ses nerfs C'est pas ma faute si les gens m'énervent Ma tête est de la couleur de mon billet vert L'autre il me dit c'est pas bien la guerre Mais tu sais même pas pourquoi j'suis en train de la faire Allez, casse toi d'ici Tu veux pas mon bien, toi t'es qu'un chien J'suis la dans ma te-ci Si tu m'cherche vraiment, demain tu viens Maman ne pleure pa Moi je m'en sortirais, bientôt on s'en ira T'inquiète ça va pas durer Quand toi et moi ça ira, j'envois d'la grosse purée Guy2Bezbar tu pourras le retrouver sur les champs Pas loin de chez monsieur Ladurée Quand j'sors la Kalashnikov J'entend ces pédales qui commence à murmurer J'suis dans la rentable Bientôt tu pourras plus me loca' Fuck les motards J'bombarde j'fume un locale Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block Alors écoute, constitué pour faire mouiller ta femelle C'est triste mais réel on le sait tous sale pute Tu t'es prostitué pour du sang sous ta semelle Pas du tout les mêmes tu le vois bien Regarde t'as des dettes dans ta vie J'augmente chiffre et le level cash, money Pirates me dit faudrait laisser des séquelles Boy, boy, quoi ? Y a quoi ? Ramène mon cash Au plus vite, là tu m'racontes quoi J'les termine comme Chuck Norris J'préfère être seul je n'ai pas d'nourrice Faudrait que j'me canalise J'y vais trop fort faut que je temporise Le passé est mort et je n'y vais pas pour déposer des fleurs Ils m'ont jeté le sort j'ai cherché qui c'était j'ai vu j'ai eu peur J'me suis retrouvé tout seul, t'étais pas là J'écoute plus les consignes on m'prend pour un malade J'veux même plus savoir quand le temps nous sourira J'écoute ce qu'ils racontent c'est rien que des salades Ils ferment les barrières car ils savent que j'suis la bête J'reviens calibré si je perds mon tête à tête Il est bipolaire Guy2Bez' Des fois c'est la bringue des fois c'est fini la fête Eh yo, Fresh, ils savent où on va venir gros Plata o plomo, pur sang, c'est plus que réel Et moi le problème que j'avais C'est que j'écoutais pas quand papa parlais J'entends jacter sur G2Binks J'me sens au dessus sur ça j'vais pas m'attarder J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block J'ai finis dans l'block j'ai finis dans l'Trap House, négro J'ai finis dans l'block</t>
+          <t>Lyrics</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>No Cap</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hajima et Majima Boumidjal Haha, ha, haha Ooh, na, nana, na, ooh, na, nana, na Ooh, yeah-yeah, yeah-yeah Mesdames et Messieurs, moi mon nom c'est Jojo Hahaha, ha, woo Si c'est pas pour le cash, alors laisse tomber laisse, laisse J'préfère tourner la page, non, non laisse tomber laisse tomber Si c'est pas pour le cash, alors laisse tomber no way J'préfère tourner la page woo J'ai perdu l'contrôle du navire non J'ai perdu l'chemin d'la maison baow-baow, baow-baow, Coco Jojo Je sais pas où je vais, mais tout me revient quand tu marches près d moi quand tu marches près de moi, quand tu marches près d moi J'ai promis de revenir en forme, peu importe les saisons peu importe Eh, yo, c'est Tayc et Coco Jojo wah, wah, wah, wah On sort les fleurs, les guns sont rangés wah, wah, wah, wah On dépose casque Araï et moto baow, baow-baow, hahaha, Jojo, Jojo, Jojo Eh, yo, c'est Tayc et Coco Jojo eh, yo, c'est Tayc et Coco Jojo, yeah, yeah, yeah, yeah Appelle nous si y a un plan meuf ou plan fric, yeah J'ai mis le succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah J'ai mis mon succès en repeat Ma femme je dois la combler J'dois faire du na, nana, na, yeah J'dois faire du na, nana, na Yeah, yeah, na, nana, na, yeah, j'dois faire du na, nana Yeah, yeah, na, nana, na, j'dois faire du na, nana Yeah, yeah, yeah Plus y a d'she-ca, j'peux pas le laver c'est Coco Jojo J'dois faire du nana, na c'est Coco Jojo Plus y a d'she-ca, j'peux pas le laver J'lui donnerai ce dont elle a envie Le ciel est rose, comme ton coeur, levée du matin J'vais dans la fosse, j'ai pas peur, je prends tes patins na, nana, na, nana Jojo, Jojo, Jojo, yeah, yeah, yeah-yeah Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Ne t'en fais pas jour et nuit, je veille sur toi ooh, Jojo Appelle nous si y a un plan meuf ou plan fric, yeah ooh, yeah J'ai mis le succès en repeat oh nana, na Ma femme je dois la combler J'dois faire du na, nana, na, yeah ooh, nana J'dois faire du na, nana, na Appelle nous si y a un plan neuf ou plan fric, yeah yeah, yeah-yeah J'ai mis mon succès en repeat yeah Ma femme je dois la combler J'dois faire du na, nana, na, yeah j'J'dois faire du na, nana, na J'dois faire du na, nana, na na, nana, na Yeah, yeah, na, nana, na na, nana, na, yeah, j'dois faire du na, nana oh, Jojo Yeah, yeah, na, nana, na ooh, ooh, j'dois faire du na, nana ooh, ooh Yeah, yeah, yeah Haha, ha, haha, ha le Coco Jojo, ooh, ooh-ooh, ooh-ooh Oh, Jojo Ooh, woah, oh Ooh, ooh-ooh, ooh-ooh Yeah, yeah, yeah oh, woah, oh, woah Yeah, yeah, nana, na, nana, nana Nana, na, nana, nana</t>
+          <t>Coco Jojo, R.9., que des liasses de malades d'mandes à Norsacce, c'est fort Depuis tout p'tit, qu'on baigne dans toutes les salades Et reste tranquille ou tu danses le Billie Jean Envoie les p'tits chez l'contact en Martinique c'est fort, c'est fort J'ai ma p'tite, comme j'ai mon calibre c'est ton gars coco J'fais que du cash, mais les keufs font qu'j'me sens pas libre Jojo, Jojo, Jojo À la fin il n'en restera plus qu'un, j'fais du le week-end et ça m'apaise On peut tous les couler comme le Titanic Non, ce n'est pas ta bitch, c'est les liasses qui m'animent oh, oui Partout où on passe, sème la zizanie, c'est fort On les fouette, mais sans trop d'effort, la prod j'agresse, c'est gore Du sale et je m'arrache, tu peux m'trouver comme Obama dans les baraques J'ai dû casser, cacher la Lebara, gars, tu sais qu'on l'fait pour durer comme les balafres Prod assassine, on est trop bouillants, augmente la clim Vrai négro, fait pas l'casting, là pour les choquer tah l'car-jacking Du coup, og donc nous décidons c'est fort Pour quelques jetons, pète un par terre, t'laisse sur l'béton Équipe en béton, j'augmente pendant qu'tu bouffes des tongs Og, jacquet Louis Vuitton, og donc nous décidons Évitons ces ptits cons, y a que Dieu qui sait c'que nous méritons La sacoche a planqué le bifton, on a tout mis les grands, les petits ponts Sacce, Coco Jojo, pas b'soin des six chiffres du loto À fond comme dans l'auto, j'vais l'faire pour moi, pour ceux partis trop tôt No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l'</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Nous</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lyrics</t>
+          <t>J'suis dans l'bat j'fais relances à té-co y'a loco y'a n y'a le Coco de Jojo D'la puta d'la vovo, la revendre c'est pas mal, Amiri et Prada wallaye qu'j'm'embourgeoise J'suis tenté, j'suis focus, la bitch a un gros cul je lui laisse 10 minutes Elle m'a vu sur insta, elle m'a vu dans l'brabus, elle veut faire la grosse pute Ca pue la mort, j'suis encore bourré, j'lui dis que j'l'adore Elle c'est une grosse pute qui niquerait sa vie Pour du Versace ou du Christian Dior Hoodbaby comme au state, j'n rallume un balais, j'le fume comm si j'cannais demain J'prends ta pute à une main comme un club relégable là je joue le putain d'maintien C'est facile de faire du fe-bi il faut juste s'impliquer Regarde les dégaines que des négros des têtes fâchées Si tu nous cherches c'est ok, est-ce que t'es prêt pour la rre-gue, ouais mon ami ça coutera cher On a la moula et les cachets, revends la dope en cachette, nique la bac de proximité Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Tu fais quoi là sale imbécile, vire ton Absolute, tout l'monde sait que j'bois du ciroc pomme pomme pomme En pleine opération, cash money, tout en black j'ai mon pom-pom-pom Quand ça tire ça fait wa papaw C'est des merdes ceux qui m'aideront pas C'est des merdes ceux qui m'aideront pas Tu tâches ma panoplie c'est pas grave on rachète On remet mais gros ça nous éteint pas Faut du cardio comme Kenya aux Olympiques J'aime quand les pétasses me disent que j'suis authentique Donc on m'invite, j'ai des mails pour assister à des défilées C'est la beuh-tance mon avenir est dessiné Ouais j'sais comment Coyote là faudrait les faire ça fait longtemps qu'ils boycottent Le cercle est mé-fer j'veux pas d'autres potes hop J'reviens par derrière toc toc C'est moi j'finis l'fe-ta en chap chap J'finis ma clope top J'préfère marcher Médaille autour du cou C'est pas du toc toc Changé j'fais du shop C'est rien mais j'les choque choque Les vigiles sucent fort quand ils tema les sacs sacs Ok Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>No Cap</t>
+          <t>OG Kush</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Coco Jojo, R.9., que des liasses de malades d'mandes à Norsacce, c'est fort Depuis tout p'tit, qu'on baigne dans toutes les salades Et reste tranquille ou tu danses le Billie Jean Envoie les p'tits chez l'contact en Martinique c'est fort, c'est fort J'ai ma p'tite, comme j'ai mon calibre c'est ton gars coco J'fais que du cash, mais les keufs font qu'j'me sens pas libre Jojo, Jojo, Jojo À la fin il n'en restera plus qu'un, j'fais du le week-end et ça m'apaise On peut tous les couler comme le Titanic Non, ce n'est pas ta bitch, c'est les liasses qui m'animent oh, oui Partout où on passe, sème la zizanie, c'est fort On les fouette, mais sans trop d'effort, la prod j'agresse, c'est gore Du sale et je m'arrache, tu peux m'trouver comme Obama dans les baraques J'ai dû casser, cacher la Lebara, gars, tu sais qu'on l'fait pour durer comme les balafres Prod assassine, on est trop bouillants, augmente la clim Vrai négro, fait pas l'casting, là pour les choquer tah l'car-jacking Du coup, og donc nous décidons c'est fort Pour quelques jetons, pète un par terre, t'laisse sur l'béton Équipe en béton, j'augmente pendant qu'tu bouffes des tongs Og, jacquet Louis Vuitton, og donc nous décidons Évitons ces ptits cons, y a que Dieu qui sait c'que nous méritons La sacoche a planqué le bifton, on a tout mis les grands, les petits ponts Sacce, Coco Jojo, pas b'soin des six chiffres du loto À fond comme dans l'auto, j'vais l'faire pour moi, pour ceux partis trop tôt No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l' Et la bitch sait porter l' Et comme ta station, fils, on ravitaille, total Style, style, only killer, only drug dealer Style, style, only killer, only drug dealer No cap, no biff, no biz', no bail On a beaucoup trop d'flow sur nous, sûr qu'on rempli l'</t>
+          <t>Big mafia Squa OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush Ra, ramène-moi des putains d'lle-fo Belles avec un p'tis teins claire Bien-sur que moi j'connait B-mafia équipe de you-voi c'est claire On fou la merde même en soirée Gros c'est la guerre reste carré Jungili squad j'fais d'la moula Ramène la tisse-mé avec les yeux bridés OG Kush fume la comme un keuf J'suis Daddy Puff dans mon lit y a que d'la meuf Ah non je rêve que de villa, le salaire à David Villa Putain d'sa race là j'ai le mes reufs en taule Mais qu'elle est vraiment cette fille la ? OG Kush libérez Marlo JNR Sur mon I touch y a des insta avec des meufs trop vé-ner Moulala B-mafia y a que des bg Rohlala je vais chercher ta go en gros AMG Money, money, monney, money On se rejoint sur Jupiter Ma vie, ma vie, ma vie, ma vie Péter des grosses mathusalem Mais oui, mais oui, mais oui, mais oui Dites à mes ennemis que je les aimes Ah non ils sont vraiment stupides Je te baratine mais je veux te ken x2 OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nous</t>
+          <t>ON DÉGAINE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>J'suis dans l'bat j'fais relances à té-co y'a loco y'a n y'a le Coco de Jojo D'la puta d'la vovo, la revendre c'est pas mal, Amiri et Prada wallaye qu'j'm'embourgeoise J'suis tenté, j'suis focus, la bitch a un gros cul je lui laisse 10 minutes Elle m'a vu sur insta, elle m'a vu dans l'brabus, elle veut faire la grosse pute Ca pue la mort, j'suis encore bourré, j'lui dis que j'l'adore Elle c'est une grosse pute qui niquerait sa vie Pour du Versace ou du Christian Dior Hoodbaby comme au state, j'n rallume un balais, j'le fume comm si j'cannais demain J'prends ta pute à une main comme un club relégable là je joue le putain d'maintien C'est facile de faire du fe-bi il faut juste s'impliquer Regarde les dégaines que des négros des têtes fâchées Si tu nous cherches c'est ok, est-ce que t'es prêt pour la rre-gue, ouais mon ami ça coutera cher On a la moula et les cachets, revends la dope en cachette, nique la bac de proximité Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Tu fais quoi là sale imbécile, vire ton Absolute, tout l'monde sait que j'bois du ciroc pomme pomme pomme En pleine opération, cash money, tout en black j'ai mon pom-pom-pom Quand ça tire ça fait wa papaw C'est des merdes ceux qui m'aideront pas C'est des merdes ceux qui m'aideront pas Tu tâches ma panoplie c'est pas grave on rachète On remet mais gros ça nous éteint pas Faut du cardio comme Kenya aux Olympiques J'aime quand les pétasses me disent que j'suis authentique Donc on m'invite, j'ai des mails pour assister à des défilées C'est la beuh-tance mon avenir est dessiné Ouais j'sais comment Coyote là faudrait les faire ça fait longtemps qu'ils boycottent Le cercle est mé-fer j'veux pas d'autres potes hop J'reviens par derrière toc toc C'est moi j'finis l'fe-ta en chap chap J'finis ma clope top J'préfère marcher Médaille autour du cou C'est pas du toc toc Changé j'fais du shop C'est rien mais j'les choque choque Les vigiles sucent fort quand ils tema les sacs sacs Ok Salut c'est nous les plus relous, les têtes cramées from the hood baby Regarde nos têtes dans le Golf 7R, mes gavas derrière ouais sont trop déters Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous Salut c'est nous C'est encore nous</t>
+          <t>Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération Attends, attends, attends, coupe le son, coupe le son, fait rentrer tous mes flingueurs Jojo, c'est fort Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Opération, opé-, opération dragon, appelle moi, j'suis opé, la guerre, je dis pas non Les gars m'ont dit Okay, faut charger les canons, j'continue d'chapoter, étoile sur l'médaillon C'est l'Attaque des Titans, j'contrôle le bataillon, sombre est la mélodie, bre-som le piano Tu dégaines, on dégaine, on remonte dans Viano, appelle moi G2B l'pétard d'Adriano Appelle moi G2B l'pétard d'Adriano, pour tous les vrais OG, full black est la pano' Rappelle toi quand j'avais pas ma place dans l'va-go, j'suis revenu plus fort en opération dragon Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Tu dégaines, On dégaine, tu dégaines, On dégaine Ils voulaient pas de nous, ils jugeaient nos dégaines Toute ma vie qu'ils m'ont dit travaille la prochaine Je n'sais pas gérer mes émotions comme Eren Ma haine s'amplifie, mes larmes coulent en fontaine Ambition, j'arrête pas, jour et nuit j'm'entraîne Bosser pour réussir, viens donc qu'on s'entraide Même au sommet, jamais j'verrais ma retraite Même au sommet, jamais j'verrais ma retraite J'assume mes propos pendant qu'beaucoup regrette Ça flingue Découper la tête, sans peine, à la machette Impacter le monde, appuyer sur la gâchette Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-o'</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>OG Kush</t>
+          <t>OPÉRATION DRAGON #1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Big mafia Squa OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush Ra, ramène-moi des putains d'lle-fo Belles avec un p'tis teins claire Bien-sur que moi j'connait B-mafia équipe de you-voi c'est claire On fou la merde même en soirée Gros c'est la guerre reste carré Jungili squad j'fais d'la moula Ramène la tisse-mé avec les yeux bridés OG Kush fume la comme un keuf J'suis Daddy Puff dans mon lit y a que d'la meuf Ah non je rêve que de villa, le salaire à David Villa Putain d'sa race là j'ai le mes reufs en taule Mais qu'elle est vraiment cette fille la ? OG Kush libérez Marlo JNR Sur mon I touch y a des insta avec des meufs trop vé-ner Moulala B-mafia y a que des bg Rohlala je vais chercher ta go en gros AMG Money, money, monney, money On se rejoint sur Jupiter Ma vie, ma vie, ma vie, ma vie Péter des grosses mathusalem Mais oui, mais oui, mais oui, mais oui Dites à mes ennemis que je les aimes Ah non ils sont vraiment stupides Je te baratine mais je veux te ken x2 OG Kush, OG, OG kush OG kush, OG, OG kush OG kush, OG kush, OG kush OG, OG, OG kush</t>
+          <t>Ouh, ouh Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Ouh Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Brr, brr, brr, brr, brr Ouh, ouh, opération dragon Okay, okay C'est fort Ah-ah, ah-ah-ah Touchdown Chaud, chaud, chaud On est fâchés et méchants, comme si pour nous, c'était fichu, pare-balle est le gilet On fait plus d'descentes, maintenant, les crânes, on les fissure, code 1.8.7 On parle en codé À la Beydin Bieber sur le côté, la prochaine fois, parle-moi en face, ça m'évitera d'venir dans ta tess, j'espère que c'est noté Portez l'il ou pas, on porte des black glass', dans l'avion de chasse, j'ai toujours ma place assise Pour les mecs stylés J'suis un dragon Un dragon, j'suis un dragon en pétard, regarde, rien qu'ils palissent Okay, la vie va vite donc on bombarde dans l'game Boum, on prend d'la place comme Big Poppa On est resté beaux car ils sont remplis d'cocards, j'les baise, ils méritent pas qu'on leur sortent un Toka' J'les baise, ils méritent pas qu'on leur sortent un Toka', dans l'Fe'-Fe', on prend les p'tites routes vers la boca J'm'arrête sur la croisette, pose 10K chez LV mais bébé, j'ai billets qui fusent comme TGV Mon bébé, j'ai billets qui fusent comme TGV, faire plus qu'la veille, tous les jours, c'est mon défi Touchdown J'sais qu'j'suis leur hantise, ils reconnaissent les OG's, ils reconnaissent les bandits Mec, on a grandi, j'suis l'contraire de Gandhi Ouais, dix-huit est floqué sur l'maillot comme Ghandri Toujours On peut plus recommencer, les dés sont d'jà lancés Jamais, une fois sur l'ring qu'il faut tous les faire danser Jojo 80 BPM comme Gervonta Davis Ah, j'suis là pour apporter l'danger Coco Eh, lunette cannelée sur la Rollie Jojo, j'leur ai mis coup d'rein comme si j'étais Ronnie Trop fort J'me suis pas calmé, j'suis encore en roue libre C'est fort, ces bâtards méritent juste qu'on soit grave impoli C'est pour ça On travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille Focus, ambition, tu m'vois jamais déraille mais si tu m'pousses à bout, tu verras qu'des Arai Coco Je n'prends pas de repos, j'ai mis que des cracks affamés dans la compo' Brr Ça finit en Benz, attends, j't'explique le topo, fidèle aux plavons, flingueur le logo Jojo 2.4.3, Congo, j'ai commencé bercé par Franco, quelques années plus tard, j'ai tous pris dans l'ffre-co Ouh Tressé comme Bow Wow, la bécane fait ouin-ouin, tu demandes si c'est fort, on répond tous Ouais, ouais Mais t'es con, c'est pas vrai, ils s'croient dans une série, on l'fait pour de vrai, man, dans pussy j'atterris Coco Big, big rock swing comme Jackson Ouh, j'ai tout pour toi, mi corazón Ouh, ouh Parle pas sur l'Jojo Sur le Coco, même si tu demandes Pardon, on t'assomme Pah J'sais qu'ma vie de cain-ri les fascinent, j'viens d'en bas, pour moi, c'était pas facile Maintenant On fait du fric, on est gang, on est célèbres Okay Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres On est célèbres, célèbres Han-han, han-han Opération dragon</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ON DÉGAINE</t>
+          <t>OPÉRATION DRAGON #2</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération Attends, attends, attends, coupe le son, coupe le son, fait rentrer tous mes flingueurs Jojo, c'est fort Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Opération, opé-, opération dragon, appelle moi, j'suis opé, la guerre, je dis pas non Les gars m'ont dit Okay, faut charger les canons, j'continue d'chapoter, étoile sur l'médaillon C'est l'Attaque des Titans, j'contrôle le bataillon, sombre est la mélodie, bre-som le piano Tu dégaines, on dégaine, on remonte dans Viano, appelle moi G2B l'pétard d'Adriano Appelle moi G2B l'pétard d'Adriano, pour tous les vrais OG, full black est la pano' Rappelle toi quand j'avais pas ma place dans l'va-go, j'suis revenu plus fort en opération dragon Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine Tu dégaines, on dégaine C'est fort, c'est fort Tu dégaines, on dégaine Okay, okay Tu dégaines, on dégaine Jojo Tu dégaines, on dégaine Tu dégaines, on dégaine Ouh Tu dégaines, On dégaine, tu dégaines, On dégaine Ils voulaient pas de nous, ils jugeaient nos dégaines Toute ma vie qu'ils m'ont dit travaille la prochaine Je n'sais pas gérer mes émotions comme Eren Ma haine s'amplifie, mes larmes coulent en fontaine Ambition, j'arrête pas, jour et nuit j'm'entraîne Bosser pour réussir, viens donc qu'on s'entraide Même au sommet, jamais j'verrais ma retraite Même au sommet, jamais j'verrais ma retraite J'assume mes propos pendant qu'beaucoup regrette Ça flingue Découper la tête, sans peine, à la machette Impacter le monde, appuyer sur la gâchette Opération, opé-opération, opé-opération, opé-opération Opé-opération, opé-opération, opé-opération, opé-opération Opé-o'</t>
+          <t>Ouais cest les flingueurs, cest les flingueurs là Pour les mecs stylés ouais Cest Coco Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Jojo, c'est haut, cest haut Jojo Je nettoie mes shoes un peu de patience On est àl à dix heures tapantes Et en vrai jai rien à tapprendre Kouma pour R ils sont bons quà papoter Kouma pour R ils sont bons quà papoter Crois pas que mon blaze ils lont saboté Le R.R. je suis en train de décapoter Jaime quand les bitches me disent quils sont baux tes gars Ah-ah Que du full drip survêtemnt Bottega Ah-ah Jai du cash donc tu baises maintenant Javais le seum mais je suis bien maintenant Maintenant cest fort tu reviens tu reviens Au calme ya rien cest balourd Papito charme opération dragon Ouais cest fort Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo Ha ha Ya que du cash dans la voiture, ayo Jojo Les poches sont enceintes gros je tassure Mama mia, mama mia Je lui achète son Birkin cest comme ça quelle ferme sa gueule Faut toujours des trucs à dire À la fin vous nous portez lil Rien de perso je te rassure Rien de perso je te rassure On tallume fuck ta carrure Au calme ya rien cest balourd Je pousse des bénefs vers musée du Louvre On ta déjà dit cest nous les poids lourds 62 Charles Aznavour Cest, cest fort On savoure, hôtel collectionneur je séjourne Pompette je fais chier le voiturier toute la soirée Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Cest fort Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Guy2Bezbar le Coco Jojo Pour les mecs stylés hein My G Cest ton gars Coco Jojo Papito charme</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>OPÉRATION DRAGON #1</t>
+          <t>Opps</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ouh, ouh Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Ouh Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Brr, brr, brr, brr, brr Ouh, ouh, opération dragon Okay, okay C'est fort Ah-ah, ah-ah-ah Touchdown Chaud, chaud, chaud On est fâchés et méchants, comme si pour nous, c'était fichu, pare-balle est le gilet On fait plus d'descentes, maintenant, les crânes, on les fissure, code 1.8.7 On parle en codé À la Beydin Bieber sur le côté, la prochaine fois, parle-moi en face, ça m'évitera d'venir dans ta tess, j'espère que c'est noté Portez l'il ou pas, on porte des black glass', dans l'avion de chasse, j'ai toujours ma place assise Pour les mecs stylés J'suis un dragon Un dragon, j'suis un dragon en pétard, regarde, rien qu'ils palissent Okay, la vie va vite donc on bombarde dans l'game Boum, on prend d'la place comme Big Poppa On est resté beaux car ils sont remplis d'cocards, j'les baise, ils méritent pas qu'on leur sortent un Toka' J'les baise, ils méritent pas qu'on leur sortent un Toka', dans l'Fe'-Fe', on prend les p'tites routes vers la boca J'm'arrête sur la croisette, pose 10K chez LV mais bébé, j'ai billets qui fusent comme TGV Mon bébé, j'ai billets qui fusent comme TGV, faire plus qu'la veille, tous les jours, c'est mon défi Touchdown J'sais qu'j'suis leur hantise, ils reconnaissent les OG's, ils reconnaissent les bandits Mec, on a grandi, j'suis l'contraire de Gandhi Ouais, dix-huit est floqué sur l'maillot comme Ghandri Toujours On peut plus recommencer, les dés sont d'jà lancés Jamais, une fois sur l'ring qu'il faut tous les faire danser Jojo 80 BPM comme Gervonta Davis Ah, j'suis là pour apporter l'danger Coco Eh, lunette cannelée sur la Rollie Jojo, j'leur ai mis coup d'rein comme si j'étais Ronnie Trop fort J'me suis pas calmé, j'suis encore en roue libre C'est fort, ces bâtards méritent juste qu'on soit grave impoli C'est pour ça On travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille, on travaille Focus, ambition, tu m'vois jamais déraille mais si tu m'pousses à bout, tu verras qu'des Arai Coco Je n'prends pas de repos, j'ai mis que des cracks affamés dans la compo' Brr Ça finit en Benz, attends, j't'explique le topo, fidèle aux plavons, flingueur le logo Jojo 2.4.3, Congo, j'ai commencé bercé par Franco, quelques années plus tard, j'ai tous pris dans l'ffre-co Ouh Tressé comme Bow Wow, la bécane fait ouin-ouin, tu demandes si c'est fort, on répond tous Ouais, ouais Mais t'es con, c'est pas vrai, ils s'croient dans une série, on l'fait pour de vrai, man, dans pussy j'atterris Coco Big, big rock swing comme Jackson Ouh, j'ai tout pour toi, mi corazón Ouh, ouh Parle pas sur l'Jojo Sur le Coco, même si tu demandes Pardon, on t'assomme Pah J'sais qu'ma vie de cain-ri les fascinent, j'viens d'en bas, pour moi, c'était pas facile Maintenant On fait du fric, on est gang, on est célèbres Okay Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres Jojo Ferrari, bouton, j'accélère, on fait du fric, on est gang, on est célèbres Billets dans sac-à-dos Vuitton, têtes vénères, on fait du fric, on est gang, on est célèbres On est célèbres, célèbres Han-han, han-han Opération dragon</t>
+          <t>Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Enfant de bringue Flingue, igo tu connais Tu vas pas nous revoir demain Non, non, tu vas pas nous revoir demain On est sur le terrain de le-lendemain Igo jai failli, tomber, aïe igo Ils ont voulu mbaiser me die, igo Envoie le coca, le light, igo Wesh, igo Qui ta dit qujtire à larc, beleck Ça tire à larme goose gros, tire la lame avant quça tpénètre Ça bicrave sous un arbre, ça tamène sous un abri dbus Pousse toi dlà igo, ça mvénère wesh Oh, oh, oh, oh Jcrois quelle est oh, oh, oh, oh On va les oh, oh, oh, oh todos Fck les oh, oh, oh, oh claquos Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Mérite quon les attache tous Quon les mette à poil avec gros calibre 12 Cette année jai tellement fait de fausses Braquer lindustrie la prenne en partouze Oh, oh, oh, oh, oh, oh Mec on les shoot on se cache tous en chap-chap Avenue grande armée qua ché-cou mon champ Tinquiète pas moi jsuis jamais seul dans ma chambre Tinquiète pas moi jsuis jamais seul dans mon penthouse Jreste attaché, jamais très loin du bendo Oh, oh, oh, oh, oh, oh Juste histoire de voir quon nest pas loin sur lté-co Sinon wesh my G ça dit quoi ? Toujours à parler des gens, mais tes fou toi oh Moi jai préféré suivre un autre convoi La seule chose quon sait faire écoper, dire au revoir Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh brr</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>OPÉRATION DRAGON #2</t>
+          <t>Paix</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ouais cest les flingueurs, cest les flingueurs là Pour les mecs stylés ouais Cest Coco Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Jojo, c'est haut, cest haut Jojo Je nettoie mes shoes un peu de patience On est àl à dix heures tapantes Et en vrai jai rien à tapprendre Kouma pour R ils sont bons quà papoter Kouma pour R ils sont bons quà papoter Crois pas que mon blaze ils lont saboté Le R.R. je suis en train de décapoter Jaime quand les bitches me disent quils sont baux tes gars Ah-ah Que du full drip survêtemnt Bottega Ah-ah Jai du cash donc tu baises maintenant Javais le seum mais je suis bien maintenant Maintenant cest fort tu reviens tu reviens Au calme ya rien cest balourd Papito charme opération dragon Ouais cest fort Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo Ha ha Ya que du cash dans la voiture, ayo Jojo Les poches sont enceintes gros je tassure Mama mia, mama mia Je lui achète son Birkin cest comme ça quelle ferme sa gueule Faut toujours des trucs à dire À la fin vous nous portez lil Rien de perso je te rassure Rien de perso je te rassure On tallume fuck ta carrure Au calme ya rien cest balourd Je pousse des bénefs vers musée du Louvre On ta déjà dit cest nous les poids lourds 62 Charles Aznavour Cest, cest fort On savoure, hôtel collectionneur je séjourne Pompette je fais chier le voiturier toute la soirée Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo Cest fort Ayo, ayo, ayo, ayo Ayo, ayo, ayo, ayo ayo Ayo, ayo, ayo, ayo Guy2Bezbar le Coco Jojo Pour les mecs stylés hein My G Cest ton gars Coco Jojo Papito charme</t>
+          <t>Écoute et tu fermes ta gueule paix Plata Plata, place à la re-gué G2Binks ya quoi, dehors rien à dire tu vas te taire, jouvre la dégaine de mes reuf sur le rai-té ya quoi je vois ceux qui parler mal finir par terre Mec on était là toi tétais où, Mec on a fait le travail jusquau bout, jétais pas le bon exemple pour le collier, je regardais le prof je voulais lui choir à son collier Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Jai pris de lavance en répétant pendant quil bronzer, comment bien rentabilisé Jy penser, quand les bleus fer font des chaus, je retourne la maison tout façon dit zartek ciné yen à plus assez, me dit tinquiète pas ça va passer, on sauve dargent nous les miettes on ramasser, bezbar nest pas touristique on va rasser Gros merco classais, je veux les dépasser, on ma ouvert les deux portes je suis passé, mec on va brasser il men faut assez jétais tout nouveau jai fini sur classe A Yah on est chaud bouillant gros pour tout casser, je ne vois toujours pas cette concurrence que je déguste comme des crustacés La vécu est réel, va dire à tout ta famille que je la piste matin midi soir, on prend des risques, tas parlé sur moi tu nes donc un fils de, jamais faire confiance et sur ça jinsiste, je suis pas comme eux jattends rien en retour, big up si tu mécoute en bas de la tour regarde autour beaucoup me soutient beaucoup me veulent pas que ça devient au tour Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix, pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras les pieds chez les bleus il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Opps</t>
+          <t>Parisien magicien</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Enfant de bringue Flingue, igo tu connais Tu vas pas nous revoir demain Non, non, tu vas pas nous revoir demain On est sur le terrain de le-lendemain Igo jai failli, tomber, aïe igo Ils ont voulu mbaiser me die, igo Envoie le coca, le light, igo Wesh, igo Qui ta dit qujtire à larc, beleck Ça tire à larme goose gros, tire la lame avant quça tpénètre Ça bicrave sous un arbre, ça tamène sous un abri dbus Pousse toi dlà igo, ça mvénère wesh Oh, oh, oh, oh Jcrois quelle est oh, oh, oh, oh On va les oh, oh, oh, oh todos Fck les oh, oh, oh, oh claquos Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Mérite quon les attache tous Quon les mette à poil avec gros calibre 12 Cette année jai tellement fait de fausses Braquer lindustrie la prenne en partouze Oh, oh, oh, oh, oh, oh Mec on les shoot on se cache tous en chap-chap Avenue grande armée qua ché-cou mon champ Tinquiète pas moi jsuis jamais seul dans ma chambre Tinquiète pas moi jsuis jamais seul dans mon penthouse Jreste attaché, jamais très loin du bendo Oh, oh, oh, oh, oh, oh Juste histoire de voir quon nest pas loin sur lté-co Sinon wesh my G ça dit quoi ? Toujours à parler des gens, mais tes fou toi oh Moi jai préféré suivre un autre convoi La seule chose quon sait faire écoper, dire au revoir Ah, ah Accroche -toi vraiment ça va vite On peut pas taider si tes tous les jours cheaté Oh, oh, oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh, oh, oh Envoie la coca coca, coca On fck les cops cops, cops Jsuis contre les opps opps, opps Oh, oh, oh, oh brr</t>
+          <t>Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Mes frères le savent, c'que j'fais c'est très très très lourd Ton fessier, ça moi je tape que si c'est très très très lourd La propagande arrive négro, car vous êtes très très très mous Feat de malade, toi t'es pas là, car t'es très très très nul Négro très très content quand je vois que les traîtres, traîtres périssent Oui, très très tentant toutes ces femmes aux beaux p'tits leggings Quand le biz tourne, oui, j'ai l'sourire J'ai du mal à comprendre ces thos-my Guette, la mala est bien sur le milli' Joli garçon, yes, c'est terrible Me comparer à eux c'est comme si tu compares le guetteur au trafiquant Guette j'suis dans les temps, parisien gros, oui c'est évident Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Magicien Houdini, parisien pour la vie Transforme résine en bif', comme si j'fumais un spliff Pas de chichi, pas de na na ni, j'suis en compét' sur l'avenue, breliqué J'avoue, j'suis un peu pompet' mais t'occupe pas d'mon avenir Je porte que du seille-o, pas de produits dérivés Trouer ton pull c'est sûr, j'vais y arriver Allume le feu comme Johnny Halliday J'te vois courir et ton cur palpiter En live de périscope Même dans l'froid, mon teh il s'tord On rentre chez toi quand ton père il dort Et j'ai raison même quand j'ai tort Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien On est pas là pour faire du cinéma, c'est moi le Guy qui mène la danse Ici c'est Paris quoi qu'ils disent, numéro uno quand j'y pense Tu visites la Tour Eiffel, on localise ton appareil photo Non mais de quoi j'me mêle? Parle pas de moi et mes potos Chenguili, chenguili, sois pas trop nerveux Fusille-les, fusille-les tous ces p'tits merdeux Milli-li, milli-li, j'le veux en sérieux Laisse-les parler gros, dans cinq ans, ils sont tous vieux Paname est magique mais les rues sont salaces Toi t'as cassé mon fer mais tinquiètes tu vas khalass J'ai rêvé d'une frappe qui me sert dans le palace Parisien magicien, Guy2Bezbar a trop la classe Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien C'est Bava qui contrôle, ma langue un Berreta J'suis dans la neuvième zone, le flow est véritable La haine c'est mon défaut, parisien irritable On contrôle la Ligue 1, l'illégal, l'élégance, les dégâts, y'en a trop, la dégaine parigo fait débat mais déboîte Et les go rêvent de nous le week-end, oui car elles ont du goût, tous nos MC's découpent On visera toutes les coupes, la France est à l'écoute, d'ailleurs, j'te dédicace Parisien magicien, on a mis au chômage tous les bouts-mara Si on rentre sur le terrain, 3-0 minimum, t'es dans l'embarras Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien4</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Paix</t>
+          <t>Par Mille</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Écoute et tu fermes ta gueule paix Plata Plata, place à la re-gué G2Binks ya quoi, dehors rien à dire tu vas te taire, jouvre la dégaine de mes reuf sur le rai-té ya quoi je vois ceux qui parler mal finir par terre Mec on était là toi tétais où, Mec on a fait le travail jusquau bout, jétais pas le bon exemple pour le collier, je regardais le prof je voulais lui choir à son collier Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Jai pris de lavance en répétant pendant quil bronzer, comment bien rentabilisé Jy penser, quand les bleus fer font des chaus, je retourne la maison tout façon dit zartek ciné yen à plus assez, me dit tinquiète pas ça va passer, on sauve dargent nous les miettes on ramasser, bezbar nest pas touristique on va rasser Gros merco classais, je veux les dépasser, on ma ouvert les deux portes je suis passé, mec on va brasser il men faut assez jétais tout nouveau jai fini sur classe A Yah on est chaud bouillant gros pour tout casser, je ne vois toujours pas cette concurrence que je déguste comme des crustacés La vécu est réel, va dire à tout ta famille que je la piste matin midi soir, on prend des risques, tas parlé sur moi tu nes donc un fils de, jamais faire confiance et sur ça jinsiste, je suis pas comme eux jattends rien en retour, big up si tu mécoute en bas de la tour regarde autour beaucoup me soutient beaucoup me veulent pas que ça devient au tour Regarde ma vida jai pas eux de chance moi jai tout mérité, jai pas besoin daide moi jai pas besoin eux ni de charité, je serai dans le bendo même si demain je deviens une célébrité et si nous voit cagoules dans un fer tu peux paniquer Haut les mains, belek on est calibré, je veux partir en guerre moi jai voulu men aller en paix, pour les miens oui genre tu pilote tu le sais, chaque fois que tu poseras les pieds chez les bleus il faut nié les faits Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business Je veux pas faire la paix Je veux pas faire la paix Pour le business, Je veux pas faire la paix Je veux pas faire la paix Pour le business</t>
+          <t>Eh, eh 6.9.1, mon pote La Champions League, mon pote C'est Coco Jojo, wow, wow La fusée, la fusée La fumée, la fumée Eh, eh Rrah, rrah La frappe, la frappe, la frappe Coco Jojo, rrah, rrah, rrah Okay Gum-gum, remballe ton pétard en gum-gum, phone, phone, tonne, tonne, mets tout chez la bonne Bu-buteur d'la saison Brr, j'suis pas perso, j'fais toujours des passes Bullet Représente les chiens d'la casse Bullet, nous on t'nique ta mère Bullet, que des piafs La F, F, F, j'ai ramené la coupe comme la F.F.F J'suis l'numéro dix de ma tess, tess, tess J'me dis F, F, nique le bénéf', ces bâtards demandent tous la réf' Grr, pah, pah, pah Et, et puis, y a les mecs qu'j'dois cash-out, qu'j'dois pull up, sortir avec le glavock Dans la rue, cherche que des plavons, 6.9.1 doit aller de l'avant Brr So la calle, c'est les bavons, 6.9.1, tu connais, que des braves C'qu'on subit nous, c'est pas marrant, toujours actifs et on nique des mamans Mamans Grosse, grosse 'teille de Rui' Rui', rempli de biatchs, on chill Oui Tu sais quand ça parle en kil', j'suis là même avant midi pile Brr Et puis, c'est la merde en bas d'chez moi, ça recommence pour le kil' Brr Tu sais qu'on est des vrais yous-voi, Tokarev planqué sous le jean Et puis, les kho parlent de bon-char, savent que chez nous, c'est la mine Ouais la mif', c'est les thunes qui donnent la bonne mine Brr, rrah, rrah Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah J'suis dans les para', c'est nous les parrains, c'est nous les parrains, j'suis sur le terrain Appuie sur R1, brr, brr, ah, ça sonne, on va t'niquer ta mère, y aura personne Personne J'fais trembler le game et ça résonne Résonne remballe ta bitch, elle est pas bonne Ah, ah Billets jaunes couleur cheesy, j'sors du lot, j'ai le trophée Trophée Rare est la paire de Yeezy, suite d'hôtel après bouffer C'est de l'eau, on l'a trop fait Pah, pah, mais c'est de l'eau, on l'a trop fait Plus d'un lourd pour me refaire, plus d'un lourd pour me refaire Mon-mon-mon pote fait vingt ans d'prison, j'suis parti pour vingt ans d'mandat Brr Villeurbanne, c'est gunshot season pour tous ceux qui sont partis d'en bas Ces bâtards veulent goûter la fumée, 9 milli', j'parle pas d'Amsterdam Bullet Les taros sont beaucoup plus bas Bullet, j'vais récup' dans l'sud de l'Espagne Bullet, bullet J'veux v'là les thunes, j'veux v'là les sous pour tous mes khos Air Maxé et T-Maxé, pour l'argent, on est beaucoup trop chauds Faut d'la monnaie, j'le répète, tous les jours, que des pépètes Brr Y a des mecs qui sont zehef, on récup' tout leur bénéf' Brr, brr Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Parisien magicien</t>
+          <t>Pas le même délire</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Mes frères le savent, c'que j'fais c'est très très très lourd Ton fessier, ça moi je tape que si c'est très très très lourd La propagande arrive négro, car vous êtes très très très mous Feat de malade, toi t'es pas là, car t'es très très très nul Négro très très content quand je vois que les traîtres, traîtres périssent Oui, très très tentant toutes ces femmes aux beaux p'tits leggings Quand le biz tourne, oui, j'ai l'sourire J'ai du mal à comprendre ces thos-my Guette, la mala est bien sur le milli' Joli garçon, yes, c'est terrible Me comparer à eux c'est comme si tu compares le guetteur au trafiquant Guette j'suis dans les temps, parisien gros, oui c'est évident Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Magicien Houdini, parisien pour la vie Transforme résine en bif', comme si j'fumais un spliff Pas de chichi, pas de na na ni, j'suis en compét' sur l'avenue, breliqué J'avoue, j'suis un peu pompet' mais t'occupe pas d'mon avenir Je porte que du seille-o, pas de produits dérivés Trouer ton pull c'est sûr, j'vais y arriver Allume le feu comme Johnny Halliday J'te vois courir et ton cur palpiter En live de périscope Même dans l'froid, mon teh il s'tord On rentre chez toi quand ton père il dort Et j'ai raison même quand j'ai tort Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien On est pas là pour faire du cinéma, c'est moi le Guy qui mène la danse Ici c'est Paris quoi qu'ils disent, numéro uno quand j'y pense Tu visites la Tour Eiffel, on localise ton appareil photo Non mais de quoi j'me mêle? Parle pas de moi et mes potos Chenguili, chenguili, sois pas trop nerveux Fusille-les, fusille-les tous ces p'tits merdeux Milli-li, milli-li, j'le veux en sérieux Laisse-les parler gros, dans cinq ans, ils sont tous vieux Paname est magique mais les rues sont salaces Toi t'as cassé mon fer mais tinquiètes tu vas khalass J'ai rêvé d'une frappe qui me sert dans le palace Parisien magicien, Guy2Bezbar a trop la classe Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien C'est Bava qui contrôle, ma langue un Berreta J'suis dans la neuvième zone, le flow est véritable La haine c'est mon défaut, parisien irritable On contrôle la Ligue 1, l'illégal, l'élégance, les dégâts, y'en a trop, la dégaine parigo fait débat mais déboîte Et les go rêvent de nous le week-end, oui car elles ont du goût, tous nos MC's découpent On visera toutes les coupes, la France est à l'écoute, d'ailleurs, j'te dédicace Parisien magicien, on a mis au chômage tous les bouts-mara Si on rentre sur le terrain, 3-0 minimum, t'es dans l'embarras Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien Parisien magicien, parisien magicien J'transforme tout en or moi, parisien magicien4</t>
+          <t>Ah bien sur , ah bien sur ! Les voyous de ma ville barodent en caisse à la recheche du sheca Les voyous de ma ville t'arrosent en cas de haja dans le veca Jungle pah c'est la regué Plus tard j'sais qu'jv'ais regretter Je sais bien qu'ils me tegué Armé jusqu'au dent demande a Connard la frappe que tu kiff vient du Rocma ! Tôt ou tard pour l'argent je n'aurais pas de retard Comme d'hab' c'est Guy2Bezbar Ouais le p'tit fétard, deuspee comme Pedro et Neymar Au millimètre près je t'arrose et puis s'est trop tard Toi ta meuf elle kiff sur notre style et notre chemar Bang Bang! On frappe à la porte Shit , cagoule , et Glock Ces batards de shmits y en trop ! Ramène de la meuf oui des putins de peuf' qu'ont puisse faire le teuf et niker toutes les soirées Y a du sang neuf là préviens tous tes reuf On vous sort tous un oeuf si vous etes pas trop carré Nous c'est a la haine qu'on est marié ! Mani mani , toi tu suces des bites je peux parier ! Bandits bandits vrais me félicitent Ouais ma biche fait ressortir la street de son nid à ce qui parait Avec toi je parle de monnaie avec elle ce n'est pas le même délire On préfère la rue, les tarpé, gros t'a capté on aime ce qui empire Pétard dans ta putin de gueule et ta vie oui crois moi qu'j'vais la détruire Tu vas tellement puer le 18 que ta soeur elle va vomir Bandit faut se lever tôt Bonchar meme en Mes ennemis sont sur le rétro Ou bien serré dans le métro Faut faire d'l'a mula oulala oulala d'l'a cheblan du Pablo Escobar Bande de p'tit pd la 3chouma les youvoi de chez nous racontent pas de bobar On reste ensemble toute la journée mais le soir gros c'est pas le même délire Ton mec a toi joue les jnouné avec nous khey c'est pas le même délire Quand on fais la regué contrairement à vous khey c'est pas le même délire B-Mafia vous tegué de près et c'est pas le meme délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le mal délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le même délire JUNGLE, JUNGLE, JUNGLE, JUNGLE !!1</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Par Mille</t>
+          <t>Pépettes</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Eh, eh 6.9.1, mon pote La Champions League, mon pote C'est Coco Jojo, wow, wow La fusée, la fusée La fumée, la fumée Eh, eh Rrah, rrah La frappe, la frappe, la frappe Coco Jojo, rrah, rrah, rrah Okay Gum-gum, remballe ton pétard en gum-gum, phone, phone, tonne, tonne, mets tout chez la bonne Bu-buteur d'la saison Brr, j'suis pas perso, j'fais toujours des passes Bullet Représente les chiens d'la casse Bullet, nous on t'nique ta mère Bullet, que des piafs La F, F, F, j'ai ramené la coupe comme la F.F.F J'suis l'numéro dix de ma tess, tess, tess J'me dis F, F, nique le bénéf', ces bâtards demandent tous la réf' Grr, pah, pah, pah Et, et puis, y a les mecs qu'j'dois cash-out, qu'j'dois pull up, sortir avec le glavock Dans la rue, cherche que des plavons, 6.9.1 doit aller de l'avant Brr So la calle, c'est les bavons, 6.9.1, tu connais, que des braves C'qu'on subit nous, c'est pas marrant, toujours actifs et on nique des mamans Mamans Grosse, grosse 'teille de Rui' Rui', rempli de biatchs, on chill Oui Tu sais quand ça parle en kil', j'suis là même avant midi pile Brr Et puis, c'est la merde en bas d'chez moi, ça recommence pour le kil' Brr Tu sais qu'on est des vrais yous-voi, Tokarev planqué sous le jean Et puis, les kho parlent de bon-char, savent que chez nous, c'est la mine Ouais la mif', c'est les thunes qui donnent la bonne mine Brr, rrah, rrah Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah J'suis dans les para', c'est nous les parrains, c'est nous les parrains, j'suis sur le terrain Appuie sur R1, brr, brr, ah, ça sonne, on va t'niquer ta mère, y aura personne Personne J'fais trembler le game et ça résonne Résonne remballe ta bitch, elle est pas bonne Ah, ah Billets jaunes couleur cheesy, j'sors du lot, j'ai le trophée Trophée Rare est la paire de Yeezy, suite d'hôtel après bouffer C'est de l'eau, on l'a trop fait Pah, pah, mais c'est de l'eau, on l'a trop fait Plus d'un lourd pour me refaire, plus d'un lourd pour me refaire Mon-mon-mon pote fait vingt ans d'prison, j'suis parti pour vingt ans d'mandat Brr Villeurbanne, c'est gunshot season pour tous ceux qui sont partis d'en bas Ces bâtards veulent goûter la fumée, 9 milli', j'parle pas d'Amsterdam Bullet Les taros sont beaucoup plus bas Bullet, j'vais récup' dans l'sud de l'Espagne Bullet, bullet J'veux v'là les thunes, j'veux v'là les sous pour tous mes khos Air Maxé et T-Maxé, pour l'argent, on est beaucoup trop chauds Faut d'la monnaie, j'le répète, tous les jours, que des pépètes Brr Y a des mecs qui sont zehef, on récup' tout leur bénéf' Brr, brr Cent-dix bonbonnes, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Sla-sla-slalome Cent-dix bonbonnes Bullet, on les prend par mille, bouffonne Bullet On parle pas de dix, au phone Bullet, j'suis sur la A10, j'slalome Bullet, bullet, bullet, bullet Villeur-Villeurbanne la cité, Bezbar, la frappe Frappe, brr On est tous impliqués quand ça parle de crack Grr, pah</t>
+          <t>Wow wow, c'est Coco Jojo, Depitcho R9 Wow, c'est fort On fait de l'oseille tu sais bien, que de l'oseille On est pas là pour perdre du temps On fait de l'oseille, appelle on arrive fort On est pas là pour perdre du temps, appelle on arrive fort C'est la calle, c'est fort, c'est fort ok On fait de l'oseille et ça va péter C'est Coco Jojo, ouais on fait de l'oseille C'est ton gars Coco Jojo On st pas là pour perdre du temps, on fait d l'oseille Que j'voyage en classe business On est pas là pour perdre du temps, appelle on arrive fort Chargé, ça flingue, flingue, on fait de l'oseille Le Coco Jojo, c'est fort, c'est fort Nous c'est la qualité, tu peux pas hésiter My G, Cool G, c'est pour l'éternité My G, Cool G, personne va paniquer J'ai ma kichta, ma caisse et mon feu Personne va m'bé-bar, Jojo Jojo C'est bouillant, c'est uno ocho Tous les p'tits couillons vont finir couchés Pop-pop, tou-tou, pop-pop Automatique toute mon auto Beaucoup de flics dans sac à dos Flingues, on en veut plein parce qu'on est plein Posé dans l'trap house window C'est qu'on est bien, on baise ces chiens On dans l'trap house, ok oh oh oh Suck my dick en vrai, y a personne que t'effraies Y a personne que t'impressionnes Toute la mif' au frais, c'est Blue Magic mon frère c'est Blue Magic mon frère Ouais Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Les pépettes, dans ma tête c'est que les pépettes, accélère, t'arrêtes pas Fais-moi la passe, tu verras c'est Coco Jojo On va casser la lucarne comme Adriano Les pépettes, dans ma tête c'est que les pépettes on pète le brassard C'est magique comme Zidane et Ronaldinho Les pépettes, dans ma tête c'est que les pépettes Tout mon passé derrière moi, maintenant j'pense à tout niquer Mes potes sont derrière moi, quoique j'fasse ils vont s'impliquer Là c'est fort, j'ai sorti la tête de l'eau Le temps passe, on améliore le flow On est tous unis, comme la BMF Et le meilleur reste à venir Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort, ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Accélère, t'arrêtes pas</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pas le même délire</t>
+          <t>Pilotes</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ah bien sur , ah bien sur ! Les voyous de ma ville barodent en caisse à la recheche du sheca Les voyous de ma ville t'arrosent en cas de haja dans le veca Jungle pah c'est la regué Plus tard j'sais qu'jv'ais regretter Je sais bien qu'ils me tegué Armé jusqu'au dent demande a Connard la frappe que tu kiff vient du Rocma ! Tôt ou tard pour l'argent je n'aurais pas de retard Comme d'hab' c'est Guy2Bezbar Ouais le p'tit fétard, deuspee comme Pedro et Neymar Au millimètre près je t'arrose et puis s'est trop tard Toi ta meuf elle kiff sur notre style et notre chemar Bang Bang! On frappe à la porte Shit , cagoule , et Glock Ces batards de shmits y en trop ! Ramène de la meuf oui des putins de peuf' qu'ont puisse faire le teuf et niker toutes les soirées Y a du sang neuf là préviens tous tes reuf On vous sort tous un oeuf si vous etes pas trop carré Nous c'est a la haine qu'on est marié ! Mani mani , toi tu suces des bites je peux parier ! Bandits bandits vrais me félicitent Ouais ma biche fait ressortir la street de son nid à ce qui parait Avec toi je parle de monnaie avec elle ce n'est pas le même délire On préfère la rue, les tarpé, gros t'a capté on aime ce qui empire Pétard dans ta putin de gueule et ta vie oui crois moi qu'j'vais la détruire Tu vas tellement puer le 18 que ta soeur elle va vomir Bandit faut se lever tôt Bonchar meme en Mes ennemis sont sur le rétro Ou bien serré dans le métro Faut faire d'l'a mula oulala oulala d'l'a cheblan du Pablo Escobar Bande de p'tit pd la 3chouma les youvoi de chez nous racontent pas de bobar On reste ensemble toute la journée mais le soir gros c'est pas le même délire Ton mec a toi joue les jnouné avec nous khey c'est pas le même délire Quand on fais la regué contrairement à vous khey c'est pas le même délire B-Mafia vous tegué de près et c'est pas le meme délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le mal délire Pas le même délire , pas le même délire Pas le même délire , c'est pas le même délire JUNGLE, JUNGLE, JUNGLE, JUNGLE !!1</t>
+          <t>C'est fort ! Hey yo, hey yo, c'est les flingueurs là, my G Zamdane, tu dis quoi ? Bellek track Ahaha Opération dragon, c'est la maison blanche là Let's go Yes Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Donne-moi ton cur j'vais le piloter Han, toi et moi solo dans pilotis Woh Toujours en caillera même menotté Toujours, chante au commissariat tout en Berluti Full Ouais mon G, j'fais des billets, bébé, j'suis pas romantique Nan, nan Fuck la BAC on empile les sacs, faut la que-pla diplomatique J'répète c'est Coco en Berluti Coco, gère la caillé comme Pape et Ancelotti Fort On est gang et tu sais qu'on le sait qu'ils le savent, que vous êtes bons qu'à ramasser le savon Envoie le yo-yo en lancé de javelot, j'récupère Okay, okay J'fais kiffer la street à la bien pour les javons Tranquille Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Elle m'fait confiance Yes donc elle m'laisse piloter C'est moi qui conduis Le ciel est grand mais moi j'me sens menotté J'me sens toujours pas free Frérot, c'est une dinguerie, comment j'ai changé d'train de vie Mmh, ils ont la haine, mmh, ils ont la haine, j'fume, j'perds des kilogrammes Parce que j'ai qu'une vie, j'cours après mon time Enfant d'Afrique, notre souffrance est continentale À force des décès, du manque et des ratatatas j'deviens sentimental J'deviens sentimental J'deviens sentimental J'deviens sentimental Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pépettes</t>
+          <t>P.I.M.P.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wow wow, c'est Coco Jojo, Depitcho R9 Wow, c'est fort On fait de l'oseille tu sais bien, que de l'oseille On est pas là pour perdre du temps On fait de l'oseille, appelle on arrive fort On est pas là pour perdre du temps, appelle on arrive fort C'est la calle, c'est fort, c'est fort ok On fait de l'oseille et ça va péter C'est Coco Jojo, ouais on fait de l'oseille C'est ton gars Coco Jojo On st pas là pour perdre du temps, on fait d l'oseille Que j'voyage en classe business On est pas là pour perdre du temps, appelle on arrive fort Chargé, ça flingue, flingue, on fait de l'oseille Le Coco Jojo, c'est fort, c'est fort Nous c'est la qualité, tu peux pas hésiter My G, Cool G, c'est pour l'éternité My G, Cool G, personne va paniquer J'ai ma kichta, ma caisse et mon feu Personne va m'bé-bar, Jojo Jojo C'est bouillant, c'est uno ocho Tous les p'tits couillons vont finir couchés Pop-pop, tou-tou, pop-pop Automatique toute mon auto Beaucoup de flics dans sac à dos Flingues, on en veut plein parce qu'on est plein Posé dans l'trap house window C'est qu'on est bien, on baise ces chiens On dans l'trap house, ok oh oh oh Suck my dick en vrai, y a personne que t'effraies Y a personne que t'impressionnes Toute la mif' au frais, c'est Blue Magic mon frère c'est Blue Magic mon frère Ouais Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Les pépettes, dans ma tête c'est que les pépettes, accélère, t'arrêtes pas Fais-moi la passe, tu verras c'est Coco Jojo On va casser la lucarne comme Adriano Les pépettes, dans ma tête c'est que les pépettes on pète le brassard C'est magique comme Zidane et Ronaldinho Les pépettes, dans ma tête c'est que les pépettes Tout mon passé derrière moi, maintenant j'pense à tout niquer Mes potes sont derrière moi, quoique j'fasse ils vont s'impliquer Là c'est fort, j'ai sorti la tête de l'eau Le temps passe, on améliore le flow On est tous unis, comme la BMF Et le meilleur reste à venir Et ça va péter, oh oh oh, péter Oh oh oh, c'est Coco Jojo, Depitcho R9 Le passé derrière moi, c'est fort, c'est fort, ok Maintenant j'pense à tout niquer J'vais vite, en ville, le style, oh no no c'est fort, c'est fort ok J'pense à la money, money, money, oh no no no Le Coco Jojo, Depitcho R9 Jusqu'à c'que la mort nous sépare, accélère t'arrête pas La calle calle, accélère t'arrête pas, la calle calle J'vais vite, en ville, le style, oh no no no Accélère, t'arrêtes pas</t>
+          <t>Enfant du block est devenu un big boss et même ma bitch, c'est une putain d'gangsta Bah Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Bah, oh Pou-pou-pouh Eh, yo, eh, yo, Papito Charme Han-han-han-han-han Pa-pa-pa-pah, c'est fort Jojo Ah, C.O.C.O Ouh J'reste gang mais toujours aussi fashion, dans un Lambo' sur la croisette, on peut pas s'fâcher Nan Ils sont bons qu'a rayer l'parechoc, pendant qu'je ramène billet en banque dans sachet J'me sens comme Jay-Z quand j'écoute Bonny and Clyde, Clyde Et nos vies, c'est pas la PlayStation Nan, devant la station, gros, fait partir en taille-dé, taille-dé Ah-ah Tout Tout pour le Trap House, tout, tout pour la calle, calle Touah Ta vie, c'est d'la merde, t'es bloqué dans l'plis, ta meuf, elle s'ennuie, elle passe son temps à bailler Ah Singapour, Saint-Tropez, Las Vegas, Dubaï, petit Dom Pé', sous chicas, du bateau j'dis Bye, bye Ouh J'suis tellement chaud dans ma vie, j'sais même plus ça fait quoi d'être sous un degré 'gré C'est toujours moi la putain d'Ligue 1, j'regarde les autres, j'vois aucuns progrès Ouais, gang, ah-ah-ah et c'est tout, tout, tout à fait normal Tout On a mis la barre très haute Haute, j'sais qu'ils sont tous, tous dans l'mal Ligue 1, Papito charme, on ramène la drogue, le cash et les armes Enfant du block Gang, gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P Hey, j'suis dans un strip club à Miami Ouh, j'jette des billets sur ses fesses comme Lil Baby Jackson Elle est guedine, elle m'dit Baby Baby, est-ce que tu peux m'aimer toute la vie ? Non Tu vois pas que ma vie, c'est un film X X, Bumpy Johnson, Malcolm X Ouais D'vant le mic', j'ai la rage d'un pit', on va v'nir te pêcher jusque là où t'habite Là-bas J'ai l'impression qu'on est plusieurs comme Kanye West, t'es à l'ouest, j'suis à l'aise Ah-ah On s'connait pas, j'suis froid comme de la glace Ouh, c'est la u-re avec beaucoup de classe J'suis sur un yacht avec trente-trois chaudasses Combien ?, chemise en soie, comme ça, elle m'trouve beau gosse Donc elle bouge comme ça Comme ça, j'te mets un coup, j'me casse comme ça J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy, Jackson Five J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy Enfant du block Gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P, baw</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pilotes</t>
+          <t>Popo</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C'est fort ! Hey yo, hey yo, c'est les flingueurs là, my G Zamdane, tu dis quoi ? Bellek track Ahaha Opération dragon, c'est la maison blanche là Let's go Yes Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Donne-moi ton cur j'vais le piloter Han, toi et moi solo dans pilotis Woh Toujours en caillera même menotté Toujours, chante au commissariat tout en Berluti Full Ouais mon G, j'fais des billets, bébé, j'suis pas romantique Nan, nan Fuck la BAC on empile les sacs, faut la que-pla diplomatique J'répète c'est Coco en Berluti Coco, gère la caillé comme Pape et Ancelotti Fort On est gang et tu sais qu'on le sait qu'ils le savent, que vous êtes bons qu'à ramasser le savon Envoie le yo-yo en lancé de javelot, j'récupère Okay, okay J'fais kiffer la street à la bien pour les javons Tranquille Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo Elle m'fait confiance Yes donc elle m'laisse piloter C'est moi qui conduis Le ciel est grand mais moi j'me sens menotté J'me sens toujours pas free Frérot, c'est une dinguerie, comment j'ai changé d'train de vie Mmh, ils ont la haine, mmh, ils ont la haine, j'fume, j'perds des kilogrammes Parce que j'ai qu'une vie, j'cours après mon time Enfant d'Afrique, notre souffrance est continentale À force des décès, du manque et des ratatatas j'deviens sentimental J'deviens sentimental J'deviens sentimental J'deviens sentimental Elle veut savoir j'fais quoi dans ma vie C'est fort !, j'ai des plans en tête Wow Vu la quantité qu'j'mets dans mon pét', j'finirais sûrement bête Et j'regrette c'que j'ai fait le soir mais Dieu m'en est témoin, j'avais pas le choix Ce monde est méchant, regarde c'qu'il a fait de moi Si j'devais répéter j'leur ferais again, 'gain, 'gain, 'gain, 'gain, 'gain, 'gain 'gain, 'gain, 'gain, 'gain Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Il est gang, gang, gang, gang On est cramé jusqu'à nos dégaines-gaines-gaines-gaines-gaines-gaines-gaines Tu dégaines, on dégaine Mama, tout mon crew est gang, gang, gang, gang, gang, gang, gang Jojo</t>
+          <t>Noxious Noxious Hun, hun, hun , corps pur, cocaine Flingue, Lyca, minimum three baba Appelle plus tard j'suis overbooké Derrière maillot y'a Jojo floqué J'roule en FeFe, j'suis pas un momar Coco Encore, encore my G, G Fais rentrer l'oseille même quand je dors J'fais mouiller la vendeuse de chez Dior J'fais la diff c'est fort Manger nos couilles, tout c'qu'ils méritent Yeah, nous c'est la Ligue 1 Uber Eats Ligue 1 Yeah, j'pars au charbon prends ma paie ça flingue Y'a les ienclis à la pell wouh hun hun, hun hun, hun hun J'arrive en chef à la fêt, liasse de cinq cents sous la s'melle, 450e la paire Fais du sale, j'fais du sale, chez nous c'est pas l'même Minimum syndical, on te nique ta mère Tu nous freines, que tu rages c'est le même Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue yema, yema, yema, yema Popo, popo yeah, yeah, yeah, yeah Popo, popo flingue gra, gra, gra, gra L'atmosphère est sanglante, ambiance comme Douk Saga popo Balance ton père, j'balance ma paire d'Balenciaga J'viens des bidonvilles personne pour nous guider C'est la vida loca, j'suis avec Guy2 La teille est vidée, j'la casse sur l'videur Point rouge sur ton front, le game dans le viseur Ma caisse est débridée, ma sacoche est blindée Pour le choix d'mes tenues j'me suis jamais trompé Bouteille de Dom P', j'fais que d'recompter, j'fais pas d'pompes Même la popo, peut rien faire j'ai ma compo popo Vire ta gueule, on sip ton flash de popo Sam's et Coco Jojo Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort, okay Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue Popo, popo woh, woh Popo, popo flingue</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>P.I.M.P.</t>
+          <t>Prada</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Enfant du block est devenu un big boss et même ma bitch, c'est une putain d'gangsta Bah Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Bah, oh Pou-pou-pouh Eh, yo, eh, yo, Papito Charme Han-han-han-han-han Pa-pa-pa-pah, c'est fort Jojo Ah, C.O.C.O Ouh J'reste gang mais toujours aussi fashion, dans un Lambo' sur la croisette, on peut pas s'fâcher Nan Ils sont bons qu'a rayer l'parechoc, pendant qu'je ramène billet en banque dans sachet J'me sens comme Jay-Z quand j'écoute Bonny and Clyde, Clyde Et nos vies, c'est pas la PlayStation Nan, devant la station, gros, fait partir en taille-dé, taille-dé Ah-ah Tout Tout pour le Trap House, tout, tout pour la calle, calle Touah Ta vie, c'est d'la merde, t'es bloqué dans l'plis, ta meuf, elle s'ennuie, elle passe son temps à bailler Ah Singapour, Saint-Tropez, Las Vegas, Dubaï, petit Dom Pé', sous chicas, du bateau j'dis Bye, bye Ouh J'suis tellement chaud dans ma vie, j'sais même plus ça fait quoi d'être sous un degré 'gré C'est toujours moi la putain d'Ligue 1, j'regarde les autres, j'vois aucuns progrès Ouais, gang, ah-ah-ah et c'est tout, tout, tout à fait normal Tout On a mis la barre très haute Haute, j'sais qu'ils sont tous, tous dans l'mal Ligue 1, Papito charme, on ramène la drogue, le cash et les armes Enfant du block Gang, gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P Hey, j'suis dans un strip club à Miami Ouh, j'jette des billets sur ses fesses comme Lil Baby Jackson Elle est guedine, elle m'dit Baby Baby, est-ce que tu peux m'aimer toute la vie ? Non Tu vois pas que ma vie, c'est un film X X, Bumpy Johnson, Malcolm X Ouais D'vant le mic', j'ai la rage d'un pit', on va v'nir te pêcher jusque là où t'habite Là-bas J'ai l'impression qu'on est plusieurs comme Kanye West, t'es à l'ouest, j'suis à l'aise Ah-ah On s'connait pas, j'suis froid comme de la glace Ouh, c'est la u-re avec beaucoup de classe J'suis sur un yacht avec trente-trois chaudasses Combien ?, chemise en soie, comme ça, elle m'trouve beau gosse Donc elle bouge comme ça Comme ça, j'te mets un coup, j'me casse comme ça J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy, Jackson Five J'suis un bad boy comme Puff Daddy J'suis un bad boy comme Puff Daddy Enfant du block Gang est devenu un big boss Let's go et même ma bitch, c'est une putain d'gangsta Baw Loin de l'époque où ça bicravais des doses et je pimpe ma life avec du seille-o Baw, oh Fuckin' P.M, P.M P.I.M.P, P.M, P.M P.I.M.P, shoota, shoota PI.M.P, baw, baw P.I.M.P Fuck P.F, P.F P.I.M.P, P.F, P.F P.I.M.P, shoota, shoota P.I.M.P, baw, baw P.I.M.P, baw</t>
+          <t>Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo Blue Magic Corp que je représente que je représente, my neg' voit les choses comme moi, tous les plans nous tentent tous les plans nous tentent, dégage si t'es pas contente si t'es pas contente J'm'attache pas aux biatchs, ça peut pas matcher matcher, matcher, matcher, et j'vois qu'un voyou prêt à mitrailler quand j'regarde le miroir paw Des flingues, des bastos, ds fringues de partout, des liasss dans le tiroir liasses dans le tiroir Après G.AV, j'remets lacets d'mes Pradas ftt, ftt, ftt, ftt, tu le sais hiver, automne, été, printemps, j'fais du plata A.W.A Avant tu faisais des manies, maintenant tu cours, ok, maintenant tu sais qu'on joue pas dans la même cour, ok J'suis dans ma suite, elle veut qu'j'lui mette, tu mérites même pas d'bouffer mes couilles Coco Jojo ahahaha Jojo s'habille en Prada c'est fabuleux, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada J'utilise 50 en guise de bavoir en guise de bavoir, jamais d'la vie tu t'inventes d'avoir, on sait qu't'as rien mon frère Essaie pas d'tout savoir, pour nous fréquenter faut du savoir, sur le trône du king que je m'assois, j'suis tellement haut, on peut pas s'voir On m'appelle pour faire une belle fête, j'ai liasse de pépettes j'ai liasse de pépettes, on m'appelle pour fermer des becs, shooter les gros pecs paw, aha J'ai la classe hein, même ma biatch, roule en classe A classe A, classe A, classe A, j'ai ma place hein, je ne crains rien, j'suis comme Ragnar j'suis déclassé Allez casse-toi, elle est passée partout, j'la casse pas casse pas, on t'cause pas, t'es pas comme nous tous donc parle pas parle pas, parle pas, parle pas Jojo s'habille en Prada s'habille en Prada, mh mh, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Popo</t>
+          <t>Prince de Paris</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Noxious Noxious Hun, hun, hun , corps pur, cocaine Flingue, Lyca, minimum three baba Appelle plus tard j'suis overbooké Derrière maillot y'a Jojo floqué J'roule en FeFe, j'suis pas un momar Coco Encore, encore my G, G Fais rentrer l'oseille même quand je dors J'fais mouiller la vendeuse de chez Dior J'fais la diff c'est fort Manger nos couilles, tout c'qu'ils méritent Yeah, nous c'est la Ligue 1 Uber Eats Ligue 1 Yeah, j'pars au charbon prends ma paie ça flingue Y'a les ienclis à la pell wouh hun hun, hun hun, hun hun J'arrive en chef à la fêt, liasse de cinq cents sous la s'melle, 450e la paire Fais du sale, j'fais du sale, chez nous c'est pas l'même Minimum syndical, on te nique ta mère Tu nous freines, que tu rages c'est le même Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue yema, yema, yema, yema Popo, popo yeah, yeah, yeah, yeah Popo, popo flingue gra, gra, gra, gra L'atmosphère est sanglante, ambiance comme Douk Saga popo Balance ton père, j'balance ma paire d'Balenciaga J'viens des bidonvilles personne pour nous guider C'est la vida loca, j'suis avec Guy2 La teille est vidée, j'la casse sur l'videur Point rouge sur ton front, le game dans le viseur Ma caisse est débridée, ma sacoche est blindée Pour le choix d'mes tenues j'me suis jamais trompé Bouteille de Dom P', j'fais que d'recompter, j'fais pas d'pompes Même la popo, peut rien faire j'ai ma compo popo Vire ta gueule, on sip ton flash de popo Sam's et Coco Jojo Popo, popo, popo, yeah Même la popo, peut rien faire j'ai ma compo c'est fort, c'est fort, okay Vends la coco, pour remplir les deux ches-po woh, woh Même la popo, peut rien faire j'ai ma compo le Coco Jojo Vends la coco, pour remplir les deux ches-po wouhouh j'prends tout même virement Paypal Popo, popo flingue Popo, popo woh, woh Popo, popo flingue</t>
+          <t>C'est Coco Jojo, c'est fort Faut l'faire en force, faut l'faire en force gros Depitcho R9 Faut l'faire en force, faut l'faire en force gros Jojo Faut qu'ça déborde gros, my G, j'défonce la porte gros Peu importe tant qu'j'suis au top gros J'récupère virement PayPal, dans la street j'ai mon pare-balle Donc les tiens finissent par-terre, faut qu'les tiens finissent par s'taire To my niggas et Barksdale, ouais Ils veulent manger mon pain, croquer, s'incruster dans tous mes plans Ils vulent manger mon pain, croquer, s'incrustr dans tous mes plans Ouais ça, ouais ça, ouais ça flingue Nous c'est Blue Magic, depuis toujours, frais j'reste authentique C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Le Coco Jojo Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Ouais, si tu veux qu'on compatisse, qu'on compatisse T'attends, y a du monde qu'est sur la liste Zone à risque, zone à risque, le temps s'écoule j'peux pas tout faire en même temps, donc on fait le travail à plein temps C'est logique que j'ai besoin d'tout maintenant C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout faut l'faire en force, faut l'faire en force gros C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ boss On a fait l'tour en viano, prince de Paris depuis l'bercail boss C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros C'est la Ligue 1, Ligue 1, Ligue 1, Ligue 1 Han, Ligue 1, Ligue 1, Ligue 1, Ligue 1 Slide, slide, wow wow wow wow Coco Jojo, Coco Jojo, Coco Jojo</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Prada</t>
+          <t>Pump L Up</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo, jojo Blue Magic Corp que je représente que je représente, my neg' voit les choses comme moi, tous les plans nous tentent tous les plans nous tentent, dégage si t'es pas contente si t'es pas contente J'm'attache pas aux biatchs, ça peut pas matcher matcher, matcher, matcher, et j'vois qu'un voyou prêt à mitrailler quand j'regarde le miroir paw Des flingues, des bastos, ds fringues de partout, des liasss dans le tiroir liasses dans le tiroir Après G.AV, j'remets lacets d'mes Pradas ftt, ftt, ftt, ftt, tu le sais hiver, automne, été, printemps, j'fais du plata A.W.A Avant tu faisais des manies, maintenant tu cours, ok, maintenant tu sais qu'on joue pas dans la même cour, ok J'suis dans ma suite, elle veut qu'j'lui mette, tu mérites même pas d'bouffer mes couilles Coco Jojo ahahaha Jojo s'habille en Prada c'est fabuleux, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada J'utilise 50 en guise de bavoir en guise de bavoir, jamais d'la vie tu t'inventes d'avoir, on sait qu't'as rien mon frère Essaie pas d'tout savoir, pour nous fréquenter faut du savoir, sur le trône du king que je m'assois, j'suis tellement haut, on peut pas s'voir On m'appelle pour faire une belle fête, j'ai liasse de pépettes j'ai liasse de pépettes, on m'appelle pour fermer des becs, shooter les gros pecs paw, aha J'ai la classe hein, même ma biatch, roule en classe A classe A, classe A, classe A, j'ai ma place hein, je ne crains rien, j'suis comme Ragnar j'suis déclassé Allez casse-toi, elle est passée partout, j'la casse pas casse pas, on t'cause pas, t'es pas comme nous tous donc parle pas parle pas, parle pas, parle pas Jojo s'habille en Prada s'habille en Prada, mh mh, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada jojo, jojo, jojo, jojo, jojo Jojo s'habille en Prada jojo, jojo, jojo, jojo, jojo, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada s'habille en, s'habille en, s'habille en Jojo s'habille en Prada s'habille en, s'habille en, s'habille en, donc les flingueurs s'habillent en Prada</t>
+          <t>Hey Jo', Jo', Jo', Jo', ouais Han-han, han-han, han-han Le Coco Jojo Jo', Jo', Jo', Jo' C'est fort, c'est fort La muerte Han-han, baw Ça va commencer ici Moi, c'est Papito ou Depitcho Ouais, ah-ah Baw, baw C.O.C.O Jojo C.O.C.O, Ronaldo, ouais Paw, paw C'est la Pépite, c'est normal Van Bommel Les ennemis dorment Oh oui, le gilets, double bang Yo Ignore-la, la nuit Mais t'es con, wallaye, ouh, la la T'inquiète, ma copine, j'ai le permis, sais-tu le kilo que j'ai dû porter ? Tout va bien, la bonbonne est rechargée, tout va bien, le shooter est pétardé J'ai tout bien fait, qui les a rncardés ? Dis-le moi, j'arrive sans plus tarder La go d chez moi, elle est bazardé et moi, j'ai envie de jouer Joint d'olive dès que j'me réveille J'me réveille, tout est levé le matin au réveil Matin au réveil Caroline, toi, quand tu chenef Toi, quand tu chenef Tu t'arrêtes pas, j'ai servi toute la veille Servi toute la veille J'étais dans le bend' du lundi au lundi, ils disent que c'était foutu pour nous Envoi les clés du Audi, j'suis dedans, j'rigole, j'prie pour lui Prends du fric, on prends du ferme, c'est les risques, tant pis pour nous J'suis comme Guy, moi, j'sors le Beretta si j'me sens couillé Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Papito charmant, ramène la drogue, le cash et les armes Drugs, ça débite Villa tout en marbre, ramène tous tes chicas, y a pas de lézard Demande à La Pépite J'suis tellement en bolide, ça fait longtemps, j'ai plus traversé Sur un coup d'folie, j'peux vider tout l'rayon, j'suis wersé Juste avant d'm'enfuir dans l'New Jersey, c'est Cîroc pêche dans le GLB J'ai tout pour te faire plaisir, mon bébé Birkin ou Kelly Han ouais Choisis, c'est pour moi, cadeau, tout à mes frais, eh Eux, c'est des moches, c'est pas mes frères Quand je me mire, j'me dis C'est qui ce mignon ? Tout beau, rempli de bitchs et pognon A-t-il vraiment tout fait sans filon ? Je sais pas, je sais pas, je sais pas, ah-ah Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Laisse un peu, OCB, roule dans les deux sens du terme, chaud les gars C'est fort Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Prince de Paris</t>
+          <t>Quaterback*</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>C'est Coco Jojo, c'est fort Faut l'faire en force, faut l'faire en force gros Depitcho R9 Faut l'faire en force, faut l'faire en force gros Jojo Faut qu'ça déborde gros, my G, j'défonce la porte gros Peu importe tant qu'j'suis au top gros J'récupère virement PayPal, dans la street j'ai mon pare-balle Donc les tiens finissent par-terre, faut qu'les tiens finissent par s'taire To my niggas et Barksdale, ouais Ils veulent manger mon pain, croquer, s'incruster dans tous mes plans Ils vulent manger mon pain, croquer, s'incrustr dans tous mes plans Ouais ça, ouais ça, ouais ça flingue Nous c'est Blue Magic, depuis toujours, frais j'reste authentique C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Le Coco Jojo Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Money maker pour de vrai, dans The Wire on parle en tonnes On négocie qu'avec le Grec Ouais, si tu veux qu'on compatisse, qu'on compatisse T'attends, y a du monde qu'est sur la liste Zone à risque, zone à risque, le temps s'écoule j'peux pas tout faire en même temps, donc on fait le travail à plein temps C'est logique que j'ai besoin d'tout maintenant C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout faut l'faire en force, faut l'faire en force gros C'est l'oseille qui a fait qu'on s'réveille tôt C'est l'oseille qui fait qu'j'ai besoin de tout Mec on a fait l'tour en viano, prince de Paris depuis l'départ On a fait l'tour en viano, prince de Paris depuis l'bercail C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros Mec on a fait l'tour en viano, prince de Paris depuis l'départ boss On a fait l'tour en viano, prince de Paris depuis l'bercail boss C'est fort, c'est fort Faut l'faire en force, faut l'faire en force gros Faut qu'ça déborde gros C'est la Ligue 1, Ligue 1, Ligue 1, Ligue 1 Han, Ligue 1, Ligue 1, Ligue 1, Ligue 1 Slide, slide, wow wow wow wow Coco Jojo, Coco Jojo, Coco Jojo</t>
+          <t>J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pump L Up</t>
+          <t>Rentre dans le Cercle - #TangoLeague #1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Hey Jo', Jo', Jo', Jo', ouais Han-han, han-han, han-han Le Coco Jojo Jo', Jo', Jo', Jo' C'est fort, c'est fort La muerte Han-han, baw Ça va commencer ici Moi, c'est Papito ou Depitcho Ouais, ah-ah Baw, baw C.O.C.O Jojo C.O.C.O, Ronaldo, ouais Paw, paw C'est la Pépite, c'est normal Van Bommel Les ennemis dorment Oh oui, le gilets, double bang Yo Ignore-la, la nuit Mais t'es con, wallaye, ouh, la la T'inquiète, ma copine, j'ai le permis, sais-tu le kilo que j'ai dû porter ? Tout va bien, la bonbonne est rechargée, tout va bien, le shooter est pétardé J'ai tout bien fait, qui les a rncardés ? Dis-le moi, j'arrive sans plus tarder La go d chez moi, elle est bazardé et moi, j'ai envie de jouer Joint d'olive dès que j'me réveille J'me réveille, tout est levé le matin au réveil Matin au réveil Caroline, toi, quand tu chenef Toi, quand tu chenef Tu t'arrêtes pas, j'ai servi toute la veille Servi toute la veille J'étais dans le bend' du lundi au lundi, ils disent que c'était foutu pour nous Envoi les clés du Audi, j'suis dedans, j'rigole, j'prie pour lui Prends du fric, on prends du ferme, c'est les risques, tant pis pour nous J'suis comme Guy, moi, j'sors le Beretta si j'me sens couillé Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Papito charmant, ramène la drogue, le cash et les armes Drugs, ça débite Villa tout en marbre, ramène tous tes chicas, y a pas de lézard Demande à La Pépite J'suis tellement en bolide, ça fait longtemps, j'ai plus traversé Sur un coup d'folie, j'peux vider tout l'rayon, j'suis wersé Juste avant d'm'enfuir dans l'New Jersey, c'est Cîroc pêche dans le GLB J'ai tout pour te faire plaisir, mon bébé Birkin ou Kelly Han ouais Choisis, c'est pour moi, cadeau, tout à mes frais, eh Eux, c'est des moches, c'est pas mes frères Quand je me mire, j'me dis C'est qui ce mignon ? Tout beau, rempli de bitchs et pognon A-t-il vraiment tout fait sans filon ? Je sais pas, je sais pas, je sais pas, ah-ah Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Laisse un peu, OCB, roule dans les deux sens du terme, chaud les gars C'est fort Ils sont là que pour les infos, on sait quoi, feuille de blunt, OG Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça pump it up Quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Oh lo lo, mon bébé, j'aime quand ça pump it up Arrêtez de me pomper l'air Bouteille de Dom Pé', bébé, mon bébé, j'aime quand ça pump it up Moi, j'aime quand ça pump it up Tu peux compter sur moi, mon bébé, tu sais que j'aime quand ça Oh lo lo, mon bébé, j'aime quand ça pump it up Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh Ramène ta copine Oh, oh, oh, oh, oh Y a d'la tise, ramène ta copine Oh, oh, oh, oh, oh</t>
+          <t>Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks, jai venu tout prendre sans tour de magie Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks Eh eh Jsuis dans le seven comme à la maison Police on t'encule même si tes pas content</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Quaterback*</t>
+          <t>Rich Porter (Freestyle)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la J'ai l'rôle du quaterback -back et j'fume la vie dans un putain d'pack Gros Quintus, gamos full black, y a tout qui va vite à la</t>
+          <t>C'est fort ouh, ouh, Blue Magic J'prépare un album de bâtard, j'veux bien faire écouter okay Mais j'ai plus d'batterie donc j'allume le FeFe quoi ? J'ai juste à m'brancher, t'inquiète, ça va vite T'inquiète, ça va vite, t'inquiète, ça va vite, t'inquiète, ça va vite Jeune et mignon, Coco, G2, ça fait bientôt neuf ans qu'on attend P2 maintenant, il faut tirer Le réconfort c'est bien, quand tu le mérites c'est mieux, jusqu'ici tout va bien, donc on remercie Dieu c'est fort Demain, j'y serais, big up Fresh et P2, mes premiers freestyles en Clio 2 ouh, ouh Oh mama cita, aucun blase j'ai cité, aucune honte à avoir, j'suis passé par Ligue 2 paw, paw, paw Tue ça, tue ça, tu sais depuis l'époque, c'est l'sang métissé, ma vie, c'est pas flocko ah, ah, Rich Porter Faites attention, ça va très, très vite, hein, on pourra vous recroiser, en montant, pendant votre descente à vous Donc je reste clean et persistant, très autonomes sans assistants ça flingue Chaque arrêt d'jeu, faut qu'j'mette un ciseau, j'vais tout droit comme sanglier, c'est fort, c'est puissant paw Et puis, j'fais du jet-ski, pendant qu'dans ton parking, tu t'demandes, combien j'fais rentrer ah, ah Cherche pas à savoir, tu vas tellement compter, t'oublieras d'te marier, ah, ah On est supposés faire couler G2 parce qu'il a fait ci, parce qu'il a fait ça On est supposés faire couler 2B, je sens, je sais tous ceux qui m'maudissent qui m'envient Fais passer l'message paw, j'fais du gent-ar, t'as peur, j'ai la plus bonne des saucisses Paris, c'est chez moi, Bezbar, c'est chez moi, dans cités d'mes frérots, j'suis très bien accueilli niquel, Rich Porter, ça va commencer ici Oublie pas, la calle supporte que la calle, oublie pas, la calle supporte que la famille Oublie pas, la calle, c'est fait que pour mailler ah, ah, avoir des valeurs et beaucoup d'principes hein, hein, hein, hein Dis-leurs, ZK, faudra s'y faire hein, hein, hein, hein, Jo', Jo', Jo' Big up mes potos du 9.3 9.4, 9.2 9.1, 9.5 7.7, 7.8, 5.9, 6.9, 1.3 paw Mes flingueurs paw, mes flingueuses, Lausanne, Genève, BX ouh, ouh Jo', Jo', Jo', c'est fort mmh, mmh, mmh, han, han Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh - Fais pas des conneries, man, celui qui m'ont pas regardé de travers... Le Coco Jojo qui me doit du fric. Le premier gars jaloux qui fait sa loi de pute avec moi, je lui plombe sa race. T'entends Ace ? Sur la vie d'ma mère, j'te jure, que je lui plombe sa race à c'bâtard. J'en ai rien à foutre de c'qui s'passera après.</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Rentre dans le Cercle - #TangoLeague #1</t>
+          <t>Rockstar</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks, jai venu tout prendre sans tour de magie Jsuis avec Fianso dans le cercle Fuck les Illuminatis La pépite du seven binks Eh eh Jsuis dans le seven comme à la maison Police on t'encule même si tes pas content</t>
+          <t>Tu vois l'délire ou pas ? Anakin, t'as vu ? Okay C'est des tes-traî, j'me méfie d'ces bâtards, han, paquet d'oseille comme au Qatar, han Ma caisse est devant elle et mon carré, prépare l'équipe, on va pas tarder J'arrive, c'est mon flow qui éclabousse, han, t'es pas frais, normal qu'elle te repousse, han Ils sont bons qu'à kouma, qu'à bavarder, pendant qu'dans la street, on est au haut-gradé Elle est sauvage, t'as cru qu'elle était douce, han, j't'ai niqué, t'as cru qu'on était douze, han Papito charme, le leader des leaders, j'ai le plus chant-mé des dégradés C'est la ola, j'arrive sur la pelouse, han, il paraît qu'vers chez toi, c'est la lose, han On a tellement fait partir la coca' à toute heure qu'on pourrait finir sans doute extradés Okay, okay, okay, eh J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh Tu voulais t'sauver mais c'est trop tard, j'éclate ta mâchoire sur le trottoir, han Ouh Celui qui veut m'abattre, il est même pas né Han, j'les attends toujours, fume un joint d'amné' Han Tant de res-frè qui sont condamnés, nous, c'est l'agent qui nous contamine Ouh On vend la frappe à Sadio Mané, mets-toi sur le té-c', on va tout t'amener Okay J'ai, j'ai Okay, j'ai Okay même pas l'temps pour tes conneries là Eh Oh, ta ganache est trop cramée comme contrôle sous billets cellophanés Ouh Billets cellophanés jusqu'au plafond, j'espère que t'as capté Au cas où je finirai condamné, ma famille a tout, pas b'soin d'dépanner Okay, okay, okay J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rich Porter (Freestyle)</t>
+          <t>Rumba</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>C'est fort ouh, ouh, Blue Magic J'prépare un album de bâtard, j'veux bien faire écouter okay Mais j'ai plus d'batterie donc j'allume le FeFe quoi ? J'ai juste à m'brancher, t'inquiète, ça va vite T'inquiète, ça va vite, t'inquiète, ça va vite, t'inquiète, ça va vite Jeune et mignon, Coco, G2, ça fait bientôt neuf ans qu'on attend P2 maintenant, il faut tirer Le réconfort c'est bien, quand tu le mérites c'est mieux, jusqu'ici tout va bien, donc on remercie Dieu c'est fort Demain, j'y serais, big up Fresh et P2, mes premiers freestyles en Clio 2 ouh, ouh Oh mama cita, aucun blase j'ai cité, aucune honte à avoir, j'suis passé par Ligue 2 paw, paw, paw Tue ça, tue ça, tu sais depuis l'époque, c'est l'sang métissé, ma vie, c'est pas flocko ah, ah, Rich Porter Faites attention, ça va très, très vite, hein, on pourra vous recroiser, en montant, pendant votre descente à vous Donc je reste clean et persistant, très autonomes sans assistants ça flingue Chaque arrêt d'jeu, faut qu'j'mette un ciseau, j'vais tout droit comme sanglier, c'est fort, c'est puissant paw Et puis, j'fais du jet-ski, pendant qu'dans ton parking, tu t'demandes, combien j'fais rentrer ah, ah Cherche pas à savoir, tu vas tellement compter, t'oublieras d'te marier, ah, ah On est supposés faire couler G2 parce qu'il a fait ci, parce qu'il a fait ça On est supposés faire couler 2B, je sens, je sais tous ceux qui m'maudissent qui m'envient Fais passer l'message paw, j'fais du gent-ar, t'as peur, j'ai la plus bonne des saucisses Paris, c'est chez moi, Bezbar, c'est chez moi, dans cités d'mes frérots, j'suis très bien accueilli niquel, Rich Porter, ça va commencer ici Oublie pas, la calle supporte que la calle, oublie pas, la calle supporte que la famille Oublie pas, la calle, c'est fait que pour mailler ah, ah, avoir des valeurs et beaucoup d'principes hein, hein, hein, hein Dis-leurs, ZK, faudra s'y faire hein, hein, hein, hein, Jo', Jo', Jo' Big up mes potos du 9.3 9.4, 9.2 9.1, 9.5 7.7, 7.8, 5.9, 6.9, 1.3 paw Mes flingueurs paw, mes flingueuses, Lausanne, Genève, BX ouh, ouh Jo', Jo', Jo', c'est fort mmh, mmh, mmh, han, han Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh Au tier-quar, on m'appelle 2B mmh, mmh, mmh, mmh C'est le surnom que l'équipe m'a donné mmh, mmh, mmh, mmh - Fais pas des conneries, man, celui qui m'ont pas regardé de travers... Le Coco Jojo qui me doit du fric. Le premier gars jaloux qui fait sa loi de pute avec moi, je lui plombe sa race. T'entends Ace ? Sur la vie d'ma mère, j'te jure, que je lui plombe sa race à c'bâtard. J'en ai rien à foutre de c'qui s'passera après.</t>
+          <t>C'est fort Le coco Jojo C'est fort G maille Hein hein G maille Paw paw paw Hein hein Hein hein Hein hein Oh Jojo Hein hein Hein hein Hein hein Quand c'est les keufs ça flingue flingue tshoua Flingue flingue flingue flingue flingue Rolex présidentielle sur le bras gauche, avant de déguster mon gigot j'remercie le ciel C'est mon gigot, ouais c'est mon gigot Playboy coco Jojo toutes les madames sont agitées Kichta balèse Tshoua, Prada Milano, tshoua tshoua Carpaccio resto, Hennessy Viano A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort Y luego bailamos bien Acércate bailamos bien Me gusta como bailamos bien Me gusta me gusta me gusta yeah yeah Heeee hooo, ma chérie coco veut rencontrer mes conquêtes Heeee hooo, mais c'est pas possible déjà que j'suis un peu pompette A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Yeah, Coco Jojo na yoki yo This is Serge Ibaka aka Mafuzzy Man 100 pure from the motherland Mr. Avec Classe I do Art Keba keba keba Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rockstar</t>
+          <t>Shooters</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Tu vois l'délire ou pas ? Anakin, t'as vu ? Okay C'est des tes-traî, j'me méfie d'ces bâtards, han, paquet d'oseille comme au Qatar, han Ma caisse est devant elle et mon carré, prépare l'équipe, on va pas tarder J'arrive, c'est mon flow qui éclabousse, han, t'es pas frais, normal qu'elle te repousse, han Ils sont bons qu'à kouma, qu'à bavarder, pendant qu'dans la street, on est au haut-gradé Elle est sauvage, t'as cru qu'elle était douce, han, j't'ai niqué, t'as cru qu'on était douze, han Papito charme, le leader des leaders, j'ai le plus chant-mé des dégradés C'est la ola, j'arrive sur la pelouse, han, il paraît qu'vers chez toi, c'est la lose, han On a tellement fait partir la coca' à toute heure qu'on pourrait finir sans doute extradés Okay, okay, okay, eh J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh Tu voulais t'sauver mais c'est trop tard, j'éclate ta mâchoire sur le trottoir, han Ouh Celui qui veut m'abattre, il est même pas né Han, j'les attends toujours, fume un joint d'amné' Han Tant de res-frè qui sont condamnés, nous, c'est l'agent qui nous contamine Ouh On vend la frappe à Sadio Mané, mets-toi sur le té-c', on va tout t'amener Okay J'ai, j'ai Okay, j'ai Okay même pas l'temps pour tes conneries là Eh Oh, ta ganache est trop cramée comme contrôle sous billets cellophanés Ouh Billets cellophanés jusqu'au plafond, j'espère que t'as capté Au cas où je finirai condamné, ma famille a tout, pas b'soin d'dépanner Okay, okay, okay J'suis une putain d'rockstar Okay, elle me dit C'est toi, mon gangster Ouh Il est déjà trop tard, écoute la sonorité du ter'-ter' Han, ouh J'suis une putain d'rockstar, dans la chambre de ta meuf, ma tête en poster Ouh C'est nous les méchants sous costard, on liquide, on liquide, quand j'arrive, faut s'taire Beh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, on liquide, on liquide, quand j'arrive, faut s'taire Ouh J'suis une putain d'rockstar Beh, beh, j'suis une putain d'rockstar Ouh J'suis une putain d'rockstar, elle me dit C'est toi, mon gangster Ouh</t>
+          <t>Oh My God Rouge et bleu, que j'change, je mets violet, Lakers ah, ah, ah Mes négros sont des shooters wouh Trap, trap, hum, hum, trap, hum Trap, trap, hum, hum, hum, hum Flingue Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shootrs Pendant qu'j'recompte mon osille, j'écoute ma playlist de O.G J'oublie pas qu'tu sors en condi' vrais, poto sors balèze comme Popey Et mes négros fument la O.G kush, à bord du Audi N'écoute pas tout c'qui t'on dit, sur la table, que j'pose les condi' J'habite à Paris, tout l'monde est pressée, faut du cardio faut du cardio Minimum trois balles, y a des kilos si tu cherche quelque chose viens nous voir Mais je grandis fort, pas d'ceux qu'tu verras mendier hum, hum Sous calibre, tout c'que j'répandis, réveiller comme tout les mardi O.G, c'est nous l'quartier Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters J'ai pas trop d'amigos poto, ma biatch me donne la migraine Pour le coup, j'ai plusieurs bigo tél', pour le coucou, c'est moi qui règne, c'est toi qui gène fort Thug, quoi qui fasse, faut rester thug gang Nous, les vacances, c'est Las Vegas ouais, là-bas, c'est pas tout l'monde qu'on croise ah, ah, ah, y a qu'des plugs J'utilise brosse à dents pour nettoyer mes Force 1 Nike Quand tu rêves, au moins, pense comme nous, vises number one De la à wana, route 66, dans la boîte à gants, toujours ma bricks toujours du fric Toujours un Glock pour flocko qui s'prends pour oi-m Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters La Coco Jojo, ah, ah</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rumba</t>
+          <t>SORRY</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C'est fort Le coco Jojo C'est fort G maille Hein hein G maille Paw paw paw Hein hein Hein hein Hein hein Oh Jojo Hein hein Hein hein Hein hein Quand c'est les keufs ça flingue flingue tshoua Flingue flingue flingue flingue flingue Rolex présidentielle sur le bras gauche, avant de déguster mon gigot j'remercie le ciel C'est mon gigot, ouais c'est mon gigot Playboy coco Jojo toutes les madames sont agitées Kichta balèse Tshoua, Prada Milano, tshoua tshoua Carpaccio resto, Hennessy Viano A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort Y luego bailamos bien Acércate bailamos bien Me gusta como bailamos bien Me gusta me gusta me gusta yeah yeah Heeee hooo, ma chérie coco veut rencontrer mes conquêtes Heeee hooo, mais c'est pas possible déjà que j'suis un peu pompette A mí me encanta como bailas A mí me encanta como ries A mí me encanta como hablas A mí me encanta como miras Esta rumba se prende así Mueve tu cadera no para baby Esta rumba se prende así Mueve tu cadera no para baby Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Bébé jump jump jump dans la gov' Bébé jump jump jump dans la gova Yeah, Coco Jojo na yoki yo This is Serge Ibaka aka Mafuzzy Man 100 pure from the motherland Mr. Avec Classe I do Art Keba keba keba Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein Tshoua hein hein tshoua tshoua hein hein C'est fort</t>
+          <t>FREAKEY FREAKEY J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Il m'reste des souvenirs de l'appart' oh, il m'reste des souvenirs, t'en n'as pas idée Le jeune est de taille, il vendra le gramme et f'ra la transac' sans même baliser On a charbonné pour l'avoir oh, oh, pas charbonné pour la palme Jamais Dans la rue, t'y laisses des plumes ou soit t'y laisses des tales J'sais pas comment t'dire tout mon ressenti T'es une maladie, han, t'es une maladie Sidi J'suis là pour un temps, faudra bien t'y faire Bien t'y faire Demain, c'est trop loin, j'me souviens pas d'hier Souviens pas, Sidi T'sais d'jà comment ça s'passe, renoi T'sais d'jà comment ça s'passe Grandi à la dure et on parle pas, renoi J'connais la BAC avant l'bac, renoi J'suis avec G2 et Sauce God, on prend les tales, connasse J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Okay, on va faire ça en Didi, on va faire ça en Diddy J'ai le flow de Prodigy, j'passe les vitesses, j'appuie sur les palettes Coco, le H et le big 'pee, c'est de la bonne qu'on bi'-bi' Si t'es comme moi, viens tchin-tchin, si t'es comme moi, viens tchin-tchin Si c'est comme ça, j'préfère qu'on arrête de s'checker d'vant les gens pour faire genre J'ai dû pardonner pour la culture mais, au fond, on sait tous que c'est mort On sait tous que c'est mort Et pendant que j'suis dehors, pendant que je m'endors Rien ne s'arrête pour nous, mon frère, ma monnaie tourne encore Ma monnaie tourne encore, tout dans sac à dos Dior Bracelet Fred, lunettes Cartier, chaîne au cou, tout en or Sièges chauffants, Merco Be-Be-Benz, jeune négro dans l'confort Toute l'année qu'on les bai-bai-baise Coco J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Shatta</t>
+          <t>Space Mountain</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Bellek Track Et sur l'banc, hum, hum Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain Ça aurait fait des coups en douce, ça s'que-bra même en boubou, hum La go est tellement bonne qu'elle m'demande de la mougou Hun, hun, hun, hun, woah Faut pas qu'tu t'inquiètes, même si c'est chez chère, bae, dis-moi c'est combien, hun, hun Tout les prix, j'achète, c'est ça qui t'effraie mais pour nous, c'est rien Grr, rraah Fais-moi un bisou Fais-moi un bisou, coup d'boule à Zizou Allez, coup d'boule à Zizou Fais-moi un bisou Bisou, bisou, coup d'boule à Zizou Coup d'boule à Zizou Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain C'est que des fils à papa, des fils à papa c'est fort, pah, moi, j'lai sent pas, pah-pah, pah-pah Ça part en chasse, comme Chapo gang ah, ah, on se rends pas nous, c'est la Ligue 1 Beaucoup de cocaïne trouvée dans la combine, hi, hi J'vais cramer, sa mère, donc appelle-moi d'la cabine, hi On peut dire que ça pue la beuh, veulent tirer, veulent tirer sur l'Cactus Jack Toka' Pour me défier, tu faits la queue, me parle pas d'eux, j'envoie d'la frappe Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi wouh J'récup' deux-trois sacs vers Avenue Montaigne c'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain ça flingue, wouh Le fait qu'on flingue, c'est évident brr, woah, c'est fort C'est fabuleux okay, hum, jump dans le Space Mountain Hi, hi Jojo Tout comme le prix qu'ça coûtait c'est Coco Jojo Tout comme le prix qu'ça coûtait c'est fort Je ne sais pas tout et je m'en foutais okay Hum, hum, tout comme le prix qu'ça coûtait, hi wouh, woah</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Shooters</t>
+          <t>Sugar Daddy</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oh My God Rouge et bleu, que j'change, je mets violet, Lakers ah, ah, ah Mes négros sont des shooters wouh Trap, trap, hum, hum, trap, hum Trap, trap, hum, hum, hum, hum Flingue Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shootrs Pendant qu'j'recompte mon osille, j'écoute ma playlist de O.G J'oublie pas qu'tu sors en condi' vrais, poto sors balèze comme Popey Et mes négros fument la O.G kush, à bord du Audi N'écoute pas tout c'qui t'on dit, sur la table, que j'pose les condi' J'habite à Paris, tout l'monde est pressée, faut du cardio faut du cardio Minimum trois balles, y a des kilos si tu cherche quelque chose viens nous voir Mais je grandis fort, pas d'ceux qu'tu verras mendier hum, hum Sous calibre, tout c'que j'répandis, réveiller comme tout les mardi O.G, c'est nous l'quartier Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters J'ai pas trop d'amigos poto, ma biatch me donne la migraine Pour le coup, j'ai plusieurs bigo tél', pour le coucou, c'est moi qui règne, c'est toi qui gène fort Thug, quoi qui fasse, faut rester thug gang Nous, les vacances, c'est Las Vegas ouais, là-bas, c'est pas tout l'monde qu'on croise ah, ah, ah, y a qu'des plugs J'utilise brosse à dents pour nettoyer mes Force 1 Nike Quand tu rêves, au moins, pense comme nous, vises number one De la à wana, route 66, dans la boîte à gants, toujours ma bricks toujours du fric Toujours un Glock pour flocko qui s'prends pour oi-m Rouge et bleu, que j'change, je mets violet, Lakers Mes négros sont des shooters J'ai pas trop dormi, j'ai trop compter mon seille-o Ma chambre est décoré, couleurs champagne à Milano Cercle fermée comme Corée, pas tout l'monde qui monte dans l'Viano J'ai b'soin que d'mes shooters La Coco Jojo, ah, ah</t>
+          <t>Mozart, Capitaine Jackson Five Aigle, han Hmh, hmh Ouh, ouh, ouh, ouh, ouh Han C'est Coco Jojo, Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Bofenda Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto C'est Mozart, Capitaine Jackson, elle vut qu'j'l'a monte en l'air comme un compèt', c'st sûr qu'j'finis pompette Dans sa ck-schne, faut que je change d'hôtel Woh Elle a un keum mais trouve que j'ai beaucoup plus de chattes Ah bon ? C'est par derrière qu'on s'échappe avec les magots dans le sac Vas là-bas Bouge ton boule, pour les gangsters, vas-y, fait-moi kiffer Avec Oggy et les Cafards, entasser dans un p'tit appart' Tu veux d'l'amour mais j'cours après l'argent, tu veux d'l'amour mais j'cours après l'argent Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto Jojo, my love, j'pourrais vraiment, tout perdre à force detrop penser au lovés Guy2Bezbar Quand j'sors de chez Dior, j'pense à tout les moments où j'étais éprouvé J'roule vers Avenue Montaigne C'est fort, j'lui prends deux-trois sacs, pour que l'atmosphère se détende Détende, détende On fait les choses, histoire qu'ils s'en souviennent Mais c'est une trace, ils pourront seulement dire qu'on gue-flin Encore du cash, du cash, encore Me dis l'AK-40 Encore du cash, du cash, du cash, encore Elle veut connaître mes sentiments, elle veut savoir c'que je ressens J'suis gentleman, c'est dans le sang C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy C'est fort Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Sang Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Han, han1</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SORRY</t>
+          <t>TAPIE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FREAKEY FREAKEY J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Il m'reste des souvenirs de l'appart' oh, il m'reste des souvenirs, t'en n'as pas idée Le jeune est de taille, il vendra le gramme et f'ra la transac' sans même baliser On a charbonné pour l'avoir oh, oh, pas charbonné pour la palme Jamais Dans la rue, t'y laisses des plumes ou soit t'y laisses des tales J'sais pas comment t'dire tout mon ressenti T'es une maladie, han, t'es une maladie Sidi J'suis là pour un temps, faudra bien t'y faire Bien t'y faire Demain, c'est trop loin, j'me souviens pas d'hier Souviens pas, Sidi T'sais d'jà comment ça s'passe, renoi T'sais d'jà comment ça s'passe Grandi à la dure et on parle pas, renoi J'connais la BAC avant l'bac, renoi J'suis avec G2 et Sauce God, on prend les tales, connasse J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire Okay, on va faire ça en Didi, on va faire ça en Diddy J'ai le flow de Prodigy, j'passe les vitesses, j'appuie sur les palettes Coco, le H et le big 'pee, c'est de la bonne qu'on bi'-bi' Si t'es comme moi, viens tchin-tchin, si t'es comme moi, viens tchin-tchin Si c'est comme ça, j'préfère qu'on arrête de s'checker d'vant les gens pour faire genre J'ai dû pardonner pour la culture mais, au fond, on sait tous que c'est mort On sait tous que c'est mort Et pendant que j'suis dehors, pendant que je m'endors Rien ne s'arrête pour nous, mon frère, ma monnaie tourne encore Ma monnaie tourne encore, tout dans sac à dos Dior Bracelet Fred, lunettes Cartier, chaîne au cou, tout en or Sièges chauffants, Merco Be-Be-Benz, jeune négro dans l'confort Toute l'année qu'on les bai-bai-baise Coco J'ai passé ma putain d'vie à boucher les putains d'VIP J'vide la bouteille, j'kicke fort au nom d'ma team Si y a un plavon, appelle-moi, j'viens et j'te fais ça clean, tu connais mes limites Ça finira comme ce deal que j'ai jamais su finir uh, uh J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire J'ai les épaules bien solides dans l'fond du Mansory Si j't'ai fait du mal, sorry, car j'ai du mal à l'dire</t>
+          <t>J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi J'habite à Paris à Paris à Paris Toujours dans l'bario bario bario Chargé le barillet barillet Tu vas sauter comme Mario Mario Mario On sait que fumé le fff fff Flingue de Miami elle est à baidu Envoie les billets les billets j'ai pas l'time À nous de briller là faut qu'on soit partout On fait la money de Shaquille O'Neal Dans la bleuta que des shakira On fait que signer le contrat à 100 kil C'st fort et puissant comme Shakiri Tu vas pas t'en rmettre sale imbécile Torse-nu armé comme tipeu au Brésil Que l'benef sous les cocotiers Tequila tequila Maurice Philippe restaurant 5 étoiles Hôtel bitches Louis Vuitton Ferrari Patek Philippe Visé le mili le mili le mili c'est tout J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi là J'habite à Paris à Paris à Paris</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Space Mountain</t>
+          <t>Tchapalo</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bellek Track Et sur l'banc, hum, hum Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain Ça aurait fait des coups en douce, ça s'que-bra même en boubou, hum La go est tellement bonne qu'elle m'demande de la mougou Hun, hun, hun, hun, woah Faut pas qu'tu t'inquiètes, même si c'est chez chère, bae, dis-moi c'est combien, hun, hun Tout les prix, j'achète, c'est ça qui t'effraie mais pour nous, c'est rien Grr, rraah Fais-moi un bisou Fais-moi un bisou, coup d'boule à Zizou Allez, coup d'boule à Zizou Fais-moi un bisou Bisou, bisou, coup d'boule à Zizou Coup d'boule à Zizou Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi Wouh J'récup' deux-trois sacs vers Avenue Montaigne C'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain Ça flingue, wouh Le fait qu'on flingue, c'est évident Brr, woah, c'est fort C'est fabuleux Okay, hum, jump dans le Space Mountain C'est que des fils à papa, des fils à papa c'est fort, pah, moi, j'lai sent pas, pah-pah, pah-pah Ça part en chasse, comme Chapo gang ah, ah, on se rends pas nous, c'est la Ligue 1 Beaucoup de cocaïne trouvée dans la combine, hi, hi J'vais cramer, sa mère, donc appelle-moi d'la cabine, hi On peut dire que ça pue la beuh, veulent tirer, veulent tirer sur l'Cactus Jack Toka' Pour me défier, tu faits la queue, me parle pas d'eux, j'envoie d'la frappe Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait Me dis pas d'où t'es, moi, je m'en foutais, tout comme le prix qu'ça coûtait Je ne sais pas tout et je m'en foutais, tout comme le prix qu'ça coûtait, hum, hum Tout comme le prix qu'ça coûtait, hi, hi wouh J'récup' deux-trois sacs vers Avenue Montaigne c'est Coco Jojo, Jojo J'les fais toutes jumper dans le Space Mountain ça flingue, wouh Le fait qu'on flingue, c'est évident brr, woah, c'est fort C'est fabuleux okay, hum, jump dans le Space Mountain Hi, hi Jojo Tout comme le prix qu'ça coûtait c'est Coco Jojo Tout comme le prix qu'ça coûtait c'est fort Je ne sais pas tout et je m'en foutais okay Hum, hum, tout comme le prix qu'ça coûtait, hi wouh, woah</t>
+          <t>MCL Tu ressens la force ou pas ? Junior Alaprod, zanmi Ouais, t'as senti la patate, coño ? Ça va commencer ici Anakin Quand j'mélange mon tchapalo, tchapalo, j'suis dans un monde parallèle Quand j'mélange mon tchapalo J'te sors le parabellum devant ton bloc pour t'enlever la life To-to-toh L'instru fait catchou-catchou, j'peux te catch-up pour une kichta Liasse de billets Ton booty-shake, booty-shake, shake, shake, shake pour moi, okay J'la prends en levrette sur du Shatta, j'suis ganté quand j'm'introduis chez toi Han Winterfell Mafia, j'attends les eu' couleurs t-shi quand j'déchire mon couplet Hey Pas bsoin que tu m'dises que tu m'aimes beaucoup Pas besoin, pas besoin, pas besoin, pas besoin Pour que j'sache que t'es un vrai, pas un fake nigga Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Eh, faut cracher du feu, fais pas l'che-ri, t'achètes que du faux Du fake Elle s'demande c'que je fais à la tess en train d'compter mon fric Bien soigné Freezer est en colère, ils envoient des 'teilles, endettés ces enculés Gros, c'est réel Leurs carrières au goulag, ils veulent test, le bateau pirate va pas couler Ouais, ouais Dans leurs personnages, à la tess, entrain d'rouler un personnel Ouh Mets l'son, t'es en train d'saigner, t'as une bite dans la bouche, t'es entrain d'signer Ouais, gros, c'est réel J'ai des billets violets, tu reçois carrés violets sur Snapchat Bébé, on va passer la douane, cale moi un ze-dou dans ta grosse chatte Ah-ah-ah-ah-ah Gros la tess, c'est nous, appelle-moi pour du cash, pour un chrome, c'est mort Ouais, ouais, ouais Le président tape dans la blanche, histoire de fou ici-bas, gros, tout est noir Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Un pack M, paquet d'papel Han-han, ça ramène la violence Yah J't'ai dit, Écoute, j'arrive Pépère, on dirait On dirait Mitch Dans Paid In De Paname à dives-Mal, tu sais très bien qu'elle m'appellera quoi qu'il, tous les jours pour tchouku tchouku Elle m'appelle toute Papito charm, dans les poches j'ai beaucoup, beaucoup Recule d'un pas pour mieux quitter, ces bâtards ta life elle est nulle a chier Pour la rre-gue, j'ai la même armée qu'Ragnar On va t'viser les jambes, tu vas plus marcher Tu connais, toujours dans tout c'qui rapporte Eux c'est pas vrai, ces flockos, ça crapote Eux c'est pas vrai, ces flockos, ça crapote Faut les laisser, gros, c'est que d'la papote Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sugar Daddy</t>
+          <t>The Exchange</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mozart, Capitaine Jackson Five Aigle, han Hmh, hmh Ouh, ouh, ouh, ouh, ouh Han C'est Coco Jojo, Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Bofenda Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto C'est Mozart, Capitaine Jackson, elle vut qu'j'l'a monte en l'air comme un compèt', c'st sûr qu'j'finis pompette Dans sa ck-schne, faut que je change d'hôtel Woh Elle a un keum mais trouve que j'ai beaucoup plus de chattes Ah bon ? C'est par derrière qu'on s'échappe avec les magots dans le sac Vas là-bas Bouge ton boule, pour les gangsters, vas-y, fait-moi kiffer Avec Oggy et les Cafards, entasser dans un p'tit appart' Tu veux d'l'amour mais j'cours après l'argent, tu veux d'l'amour mais j'cours après l'argent Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy Leto Jojo, my love, j'pourrais vraiment, tout perdre à force detrop penser au lovés Guy2Bezbar Quand j'sors de chez Dior, j'pense à tout les moments où j'étais éprouvé J'roule vers Avenue Montaigne C'est fort, j'lui prends deux-trois sacs, pour que l'atmosphère se détende Détende, détende On fait les choses, histoire qu'ils s'en souviennent Mais c'est une trace, ils pourront seulement dire qu'on gue-flin Encore du cash, du cash, encore Me dis l'AK-40 Encore du cash, du cash, du cash, encore Elle veut connaître mes sentiments, elle veut savoir c'que je ressens J'suis gentleman, c'est dans le sang C'est Coco Jojo, Jojo Elle me dis qu'elle veut changer sa vie C'est fort, du Fendi dans sa penderie Tu sais qu'on flingue à mort, baby Ça flingue, woh, woh, ma vie remplie d'ennemis Comme des Sugar Daddy Comme des Sugar Daddy, on bosse comme des Sugar Daddy Ouh, ouh Comme des Sugar Daddy Tu sais pas faire l'amour, baby, on bosse comme des Sugar Daddy C'est fort Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Sang Elle veut connaître mes sentiments, han, elle veut savoir c'que je ressens, han J'suis gentleman, c'est dans le sang, han Han, han1</t>
+          <t>Hey Keys, whats up? Ayo, what's up Migo? L-F Keys G got the ice, baby Estoy en la Champion' y tu equipo no pudo clasificar Brr Vamos en manada, me llaman líder, como yo Tony Stark Fuck que me quieren parar, bop lo que suelo tirar Yo como puedo acabar, lo que quiere e' demostrar Porque estoy sonando dentro 'e menciones y tiran los lambone' De frente no hay cojone', pleito' se hacen subir tensione' El Beny contra bocones y yo quemando en Ámstrdam Se atreven a amnazar pero solo si es por Instagram Fuck the opps Okay, Zzala Brr Hula hoop Pew-pew, mi girano i soldi intorno Uh Una thot farà finire a puttane il mondo Thot Fanno i boss, sì, però fuori dal web mai visti Mai Sembrano troie dentro una vetrina, Red Light District Ehi, ehi, ehi, ehi Dimelo, mami Dimelo, mami Dammeli giusti o libero i cani Mille di oggi, mille domani Ehi, ehi Ehi, ehi Così poi tolgo il disturbo Mio flow G8, distruggo AMG V8 biturbo Esco col disco, è la fine del mondo Fra', chi se ne fotte dei Maya Quando apro la fotocamera interna dell'iPhone C'è il rapper più forte d'Italia Uh Ti rispondo con una risata Ah Se mi dici il parere degli altri Eh Io e i miei soldi stiamo per sposarci Vissero per sempre felici e contanti Ehi, ehi Pas d'bizz avec eux j'les sens pas Deux fois qu'eux, c'est puissant comme taureau, j'viens gé-char, les humains c'est mieux tu t'écartes C'est toujours marrant en TP mais j'ai pas l'temps, j'fais C'est Paris, c'est 2B, t'attaches pas à nous si t'aimes vraiment ta meuf c'est combien ta putain Les sapeurs, les flingueurs, on vend du ne-jau couleur mèche de Titeuf c'est fort, hun hun Pas d'bizz avec eux jamais d'la vida, pas d'bizz avec eux j'les sens pas J'ai l'air mais j'suis pas très sympa J'donne l'heure, j'suis toujours bien sapé hun, hun, hun, hun Moi c'est Coco Jojo, nickel, nickel, envoie ton adresse, Viano, hôtel Yuh, ayy, dollar, dollar bill, your Wu-Tang Cocaine-white mein Shoe Game Nein, Bro, ich häng' nicht mit dir Weil wenn ich dich seh', kann es sein, dass mein Mood changed Sie will mich mit Ring'n und Suites seh'n Immer Straight T, Baby, Blue Flame Glaub' mir, ich catch' kein COVID Aber wenn, komm' ich zurück so wie Jordan im Flu Game Nichts ist für immer, deshalb bleib' ich chilled und relaxed Handle Business am iPhone iPhone Niggas sagen Elias so fly, switched er sein Fit, switched auch die Time Zone Time Zone Alles, was ich dropp', ist mind blowin' Mind blowin' Jeder Step von mir ein Milestone Milestone Keine Competition, du bist mein Clone Fuß aufn Tisch, als wär es mein Home Hol' up Ey, die woll'n Smoke, also roll up Pants sind am saggen wie bei O-Dog Ich hab' keine Feelings wie ein Robot Dropp' paar Bars, denn die meinten zu mir, die woll'n ein Feature seh'n Money-Talks, nein, wir werden uns nie versteh'n Gib dir schon die Hand, ich kann nicht tiefer geh'n Bin im Album-Mode, das heißt, Speed aufdreh'n, let's go Ayy, ja, ayy Geen tijd voor een paigan, race 'm, dit is how we workin', neef, no hype Alles Off-White Off-White And I love bad bitches, ik zweer, I ain't got no type Vijftien K op een slow night, met haar, ga ik all night, gyal on sight Yeah, Blueface Rolly, die flow is holy, ben turned als Yke Free up the mandem, link up with gyaldem, we gon' take flight Forever my guys, forever Feis, wij zijn niet alike Ik ghost die ho's en ik hop in die Ghost, that's my poltergeist Ik doe de most en we shoppen nu groot in de mall, ik swipe, ey Je doet 't voor likes, ik doe 't voor de nice omdat ik honger had thuis Mami, fluisterd die dingen in m'n oor Give me some more, want je bent al op huid Je weet wat ik rook, allerlei smoke, we zijn niet op gruis, yeah Gyal is op motion, zij en ik werken als lean met die Sprite In m'n crippers in de pijn, na vijftien jaar glow, is a hell of a life Ik ben op betable's hime, met die flex ben ik ook levels te high Day ones, nog steeds met dezelfde guys Money is clean en m'n hands sanitized, yeah Bank account is maximized, yellow mami mesmerized Bank account is maximized, yellow mami mesmerized</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TAPIE</t>
+          <t>Ticket gagnant</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi J'habite à Paris à Paris à Paris Toujours dans l'bario bario bario Chargé le barillet barillet Tu vas sauter comme Mario Mario Mario On sait que fumé le fff fff Flingue de Miami elle est à baidu Envoie les billets les billets j'ai pas l'time À nous de briller là faut qu'on soit partout On fait la money de Shaquille O'Neal Dans la bleuta que des shakira On fait que signer le contrat à 100 kil C'st fort et puissant comme Shakiri Tu vas pas t'en rmettre sale imbécile Torse-nu armé comme tipeu au Brésil Que l'benef sous les cocotiers Tequila tequila Maurice Philippe restaurant 5 étoiles Hôtel bitches Louis Vuitton Ferrari Patek Philippe Visé le mili le mili le mili c'est tout J'suis dans la gova la gova la gova la On fait le tour de la capi la capi la On a mis tapie on arrive en président Un peu comme Tapie fait péter le champi là J'habite à Paris à Paris à Paris</t>
+          <t>Ah eh, elle a vraiment cru que j'aurais pu tomber dans son putain d'lait chaud Haha, tu connais pas Coco Jojo toi, tu sais qu'ça flingue chez nous Ligue 1, obligé Hahahaha Jojo heyo, ça dit quoi, ça dit quoi bro? En forme ? Vas-y j't'appelle t'à l'heure, reste branché Y a peut-être une foule vers là-bas, okay? Encore un peu ivre de la nuit dernière c'est fort De base elles connaissent rien d'ma ie-v mais bon Vu qu'on médiatise, les yeux sont tirés vers moi Dépense trois, quatr balles, ça m'arrive fort Mais qu'ell essaie d'me distraire pour qu'j'lui mette encore Mais regarde-toi, t'as mis tous ces voyous dans ton Vider leur sang en boite, en vac', en sac et même au resto Il fait chaud, une fois qu'j'suis dedans Donc j'essaie de tenir pour pas lâcher d'temps On peut pas m'avoir même la calle le sait J'suis le mec réveillé qui te rappelle que t'es personne flingue S'ils ont tous échoué, tous perdu, impossible avec moi J'ai le ticket gagnant Jojo, Jojo, woh j'ai le ticket gagnant, ticket gagnant Jojo, Jojo, c'est fort okay, j'ai le ticket gagnant Impossible avec moi, j'ai le ticket gagnant Parce qu'on est où là? J'sais pas moi, j'ai pas l'impression d'être à ma place Repartir à la base des bases, j'suis pas une star mais qu'un négro Qui vient d'un quartier chaud de Paris nord du genre Crenshaw Si ça propose, on pousse-pousse fort dans la mêlée Si y a quelque chose en bien ou en mal, on va s'en mêler Eh eh eh eh, eh eh eh eh T'en fais pas c'est pour moi, c'est Ligue 1, j'ai l'butin Oh oh, oh oh J'ai le ticket gagnant, j'ai le ticket gagnant Oh oh, oh oh c'est fort Ici y a que des brigands, que des brigands Jojo, Jojo, woh j'ai le ticket gagnant okay, ticket gagnant Jojo, Jojo, c'est fort okay okay j'ai le ticket gagnant ticket gagnant, bébé Impossible avec moi, j'ai le ticket gagnant c'est quoi? Coco Jojo Jojo Coco Jojo han-han, han-han, han-han Coco Jojo Ça flingue en vrai, flingue en vrai Ça flingue, flingue, flingue c'est fort Coco Jojo Fresh Coco Jojo Ça flingue Jojo, Jojo, Jojo</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tchapalo</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MCL Tu ressens la force ou pas ? Junior Alaprod, zanmi Ouais, t'as senti la patate, coño ? Ça va commencer ici Anakin Quand j'mélange mon tchapalo, tchapalo, j'suis dans un monde parallèle Quand j'mélange mon tchapalo J'te sors le parabellum devant ton bloc pour t'enlever la life To-to-toh L'instru fait catchou-catchou, j'peux te catch-up pour une kichta Liasse de billets Ton booty-shake, booty-shake, shake, shake, shake pour moi, okay J'la prends en levrette sur du Shatta, j'suis ganté quand j'm'introduis chez toi Han Winterfell Mafia, j'attends les eu' couleurs t-shi quand j'déchire mon couplet Hey Pas bsoin que tu m'dises que tu m'aimes beaucoup Pas besoin, pas besoin, pas besoin, pas besoin Pour que j'sache que t'es un vrai, pas un fake nigga Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Eh, faut cracher du feu, fais pas l'che-ri, t'achètes que du faux Du fake Elle s'demande c'que je fais à la tess en train d'compter mon fric Bien soigné Freezer est en colère, ils envoient des 'teilles, endettés ces enculés Gros, c'est réel Leurs carrières au goulag, ils veulent test, le bateau pirate va pas couler Ouais, ouais Dans leurs personnages, à la tess, entrain d'rouler un personnel Ouh Mets l'son, t'es en train d'saigner, t'as une bite dans la bouche, t'es entrain d'signer Ouais, gros, c'est réel J'ai des billets violets, tu reçois carrés violets sur Snapchat Bébé, on va passer la douane, cale moi un ze-dou dans ta grosse chatte Ah-ah-ah-ah-ah Gros la tess, c'est nous, appelle-moi pour du cash, pour un chrome, c'est mort Ouais, ouais, ouais Le président tape dans la blanche, histoire de fou ici-bas, gros, tout est noir Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous Un pack M, paquet d'papel Han-han, ça ramène la violence Yah J't'ai dit, Écoute, j'arrive Pépère, on dirait On dirait Mitch Dans Paid In De Paname à dives-Mal, tu sais très bien qu'elle m'appellera quoi qu'il, tous les jours pour tchouku tchouku Elle m'appelle toute Papito charm, dans les poches j'ai beaucoup, beaucoup Recule d'un pas pour mieux quitter, ces bâtards ta life elle est nulle a chier Pour la rre-gue, j'ai la même armée qu'Ragnar On va t'viser les jambes, tu vas plus marcher Tu connais, toujours dans tout c'qui rapporte Eux c'est pas vrai, ces flockos, ça crapote Eux c'est pas vrai, ces flockos, ça crapote Faut les laisser, gros, c'est que d'la papote Elle me dit de la rejoindre à la maison Ah oui, ah oui, ah oui, c'est fort Occupé jusqu'à minuit dans la ne-zo Ah oui, ah oui, ah oui Le charbon fait mal au dos, fais-moi un bisou Ah oui, ah oui, ah oui Peu d'amour, y a que des loves dont j'ai besoin Ah oui, ah oui, ah oui Pas besoin que tu m'dises que tu m'aimes beaucoup Tout c'qu'on a vécu en bas d'nos tours Tout c'qu'on a vécu en bas d'nos tours Regarde-nous briller, regarde-nous Regarde-nous briller, regarde-nous</t>
+          <t>Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit, je tire car jaime pas mes ennemis toi tas rien à voir dedans ma meilleure amie paw paw Je temmènerai vers Bali si tu mérites mais pour ça je dois faire partir vers Calì Prendre des risque et les condé moi jévite, mais tas rien à voir dedans ma meilleure amie Si le temps est compté il faut quon taille vite, jsuis quun Thug est tu sais bien jsuis magique Ma meilleure amie, ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Cest bientôt notre tour jai besoin de mes potes, ma miff et toi ma meilleure amie, smash smash smash Cest vrai je dois quitter le four mais jai besoin de mes potes, ma miff et toi ma meilleure amie paw paw Cest vrai je comptais rester dans le TrapHouse cest vrai je comptais rester dans le Bando Investir pour nous dans une big House paw paw Jélimine les rajeux comme au Pantball brrr Je suis pas fort en amour je sais pas joué le rôle Ma meilleure amie, ma meilleure amie Moi jai dautres problèmes mon négro tu sais my nigga for real Mais comment le dire et le dire à ma meilleure amie paw paw On sest promis des choses mon négro je sais... my nigga for real Investir pour de vrais viser une belle Ferrari grriiing Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit nuit , je tire car jaime pas mes ennemis mais tas rien à voir dedans ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Je suis quun Thug et je ne veux pas mourir dans le Trap Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun Thug et je ne veux pas mourir dans le Trap... woow Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun thug je ne veux pas mourir dans le Trap Je temmènerai vers Bali si tu le mérites Mais pour ça je dois faire partir à Calì prendre des risques et les Condé moi jévite mais tas rien à voir dedans ma meilleure amie si le temps est compté faut quon taille vite Je suis quun Thug et tu sais bien que je suis magique Ma meilleure amie, ma meilleure amie ma meilleure amie ma meilleure amie ,ma meilleure amie, ma meilleure amie PAW PAW</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>The Exchange</t>
+          <t>Totti</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Hey Keys, whats up? Ayo, what's up Migo? L-F Keys G got the ice, baby Estoy en la Champion' y tu equipo no pudo clasificar Brr Vamos en manada, me llaman líder, como yo Tony Stark Fuck que me quieren parar, bop lo que suelo tirar Yo como puedo acabar, lo que quiere e' demostrar Porque estoy sonando dentro 'e menciones y tiran los lambone' De frente no hay cojone', pleito' se hacen subir tensione' El Beny contra bocones y yo quemando en Ámstrdam Se atreven a amnazar pero solo si es por Instagram Fuck the opps Okay, Zzala Brr Hula hoop Pew-pew, mi girano i soldi intorno Uh Una thot farà finire a puttane il mondo Thot Fanno i boss, sì, però fuori dal web mai visti Mai Sembrano troie dentro una vetrina, Red Light District Ehi, ehi, ehi, ehi Dimelo, mami Dimelo, mami Dammeli giusti o libero i cani Mille di oggi, mille domani Ehi, ehi Ehi, ehi Così poi tolgo il disturbo Mio flow G8, distruggo AMG V8 biturbo Esco col disco, è la fine del mondo Fra', chi se ne fotte dei Maya Quando apro la fotocamera interna dell'iPhone C'è il rapper più forte d'Italia Uh Ti rispondo con una risata Ah Se mi dici il parere degli altri Eh Io e i miei soldi stiamo per sposarci Vissero per sempre felici e contanti Ehi, ehi Pas d'bizz avec eux j'les sens pas Deux fois qu'eux, c'est puissant comme taureau, j'viens gé-char, les humains c'est mieux tu t'écartes C'est toujours marrant en TP mais j'ai pas l'temps, j'fais C'est Paris, c'est 2B, t'attaches pas à nous si t'aimes vraiment ta meuf c'est combien ta putain Les sapeurs, les flingueurs, on vend du ne-jau couleur mèche de Titeuf c'est fort, hun hun Pas d'bizz avec eux jamais d'la vida, pas d'bizz avec eux j'les sens pas J'ai l'air mais j'suis pas très sympa J'donne l'heure, j'suis toujours bien sapé hun, hun, hun, hun Moi c'est Coco Jojo, nickel, nickel, envoie ton adresse, Viano, hôtel Yuh, ayy, dollar, dollar bill, your Wu-Tang Cocaine-white mein Shoe Game Nein, Bro, ich häng' nicht mit dir Weil wenn ich dich seh', kann es sein, dass mein Mood changed Sie will mich mit Ring'n und Suites seh'n Immer Straight T, Baby, Blue Flame Glaub' mir, ich catch' kein COVID Aber wenn, komm' ich zurück so wie Jordan im Flu Game Nichts ist für immer, deshalb bleib' ich chilled und relaxed Handle Business am iPhone iPhone Niggas sagen Elias so fly, switched er sein Fit, switched auch die Time Zone Time Zone Alles, was ich dropp', ist mind blowin' Mind blowin' Jeder Step von mir ein Milestone Milestone Keine Competition, du bist mein Clone Fuß aufn Tisch, als wär es mein Home Hol' up Ey, die woll'n Smoke, also roll up Pants sind am saggen wie bei O-Dog Ich hab' keine Feelings wie ein Robot Dropp' paar Bars, denn die meinten zu mir, die woll'n ein Feature seh'n Money-Talks, nein, wir werden uns nie versteh'n Gib dir schon die Hand, ich kann nicht tiefer geh'n Bin im Album-Mode, das heißt, Speed aufdreh'n, let's go Ayy, ja, ayy Geen tijd voor een paigan, race 'm, dit is how we workin', neef, no hype Alles Off-White Off-White And I love bad bitches, ik zweer, I ain't got no type Vijftien K op een slow night, met haar, ga ik all night, gyal on sight Yeah, Blueface Rolly, die flow is holy, ben turned als Yke Free up the mandem, link up with gyaldem, we gon' take flight Forever my guys, forever Feis, wij zijn niet alike Ik ghost die ho's en ik hop in die Ghost, that's my poltergeist Ik doe de most en we shoppen nu groot in de mall, ik swipe, ey Je doet 't voor likes, ik doe 't voor de nice omdat ik honger had thuis Mami, fluisterd die dingen in m'n oor Give me some more, want je bent al op huid Je weet wat ik rook, allerlei smoke, we zijn niet op gruis, yeah Gyal is op motion, zij en ik werken als lean met die Sprite In m'n crippers in de pijn, na vijftien jaar glow, is a hell of a life Ik ben op betable's hime, met die flex ben ik ook levels te high Day ones, nog steeds met dezelfde guys Money is clean en m'n hands sanitized, yeah Bank account is maximized, yellow mami mesmerized Bank account is maximized, yellow mami mesmerized</t>
+          <t>C'est Coco Jojo, popopopopo Ça va commencer ici, popopopopo Numéro 9 c'est moi dans le tiekson R9, dès que j'arrive les tits-pe me check ça ça flingue Fais péter les basses faut que ça résonne wou, bitches envoie, donc je lui donne ça bien donc je lui donne ça bien Barre ta bagnole là, ta carcasse tchop, celui qui veut test on le fracasse bow, sous les cocos de mon quartier je fume kamas du filtré Moi c'est Coco Guy de Barbès Bezbar, moi c'est Coco Guy de Barbès lajan Dans les che-po toujours balaise oseille, je fais du re-spo ça m'apaise histoire de C'est comment khoya labess, c'est la calle c'est fort, big up toutes les tess big up toutes les tess, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la caille faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh Tranquille c'est pour moi champagne han, j'tartine j'oublie que j'ai le mis-per 10 000 boite à gants han, 10 000 dans boite à gants, été comme hiver ouh ouh C'est qui ? C'est Coco Jojo, j'encaisse liquide, j'vends la coca hein hein Mhh, ah, mhh, ah, mhh, AWA, faut bosser En ce qui concerne les autres, moi j'ai rien à ajouter, dans l'équipe j'ai le même rôle que Diogo Jota Casses-toi avec nous y'a rien à mijoter, y'a que si ça flingue que j'appelle ma comptable ahahah J'ai ma liasse d'oseille mon toutou, et pour moi weekend c'est tous les jours popopopopo, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Jojo Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ticket gagnant</t>
+          <t>TOUT L’ÉTÉ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ah eh, elle a vraiment cru que j'aurais pu tomber dans son putain d'lait chaud Haha, tu connais pas Coco Jojo toi, tu sais qu'ça flingue chez nous Ligue 1, obligé Hahahaha Jojo heyo, ça dit quoi, ça dit quoi bro? En forme ? Vas-y j't'appelle t'à l'heure, reste branché Y a peut-être une foule vers là-bas, okay? Encore un peu ivre de la nuit dernière c'est fort De base elles connaissent rien d'ma ie-v mais bon Vu qu'on médiatise, les yeux sont tirés vers moi Dépense trois, quatr balles, ça m'arrive fort Mais qu'ell essaie d'me distraire pour qu'j'lui mette encore Mais regarde-toi, t'as mis tous ces voyous dans ton Vider leur sang en boite, en vac', en sac et même au resto Il fait chaud, une fois qu'j'suis dedans Donc j'essaie de tenir pour pas lâcher d'temps On peut pas m'avoir même la calle le sait J'suis le mec réveillé qui te rappelle que t'es personne flingue S'ils ont tous échoué, tous perdu, impossible avec moi J'ai le ticket gagnant Jojo, Jojo, woh j'ai le ticket gagnant, ticket gagnant Jojo, Jojo, c'est fort okay, j'ai le ticket gagnant Impossible avec moi, j'ai le ticket gagnant Parce qu'on est où là? J'sais pas moi, j'ai pas l'impression d'être à ma place Repartir à la base des bases, j'suis pas une star mais qu'un négro Qui vient d'un quartier chaud de Paris nord du genre Crenshaw Si ça propose, on pousse-pousse fort dans la mêlée Si y a quelque chose en bien ou en mal, on va s'en mêler Eh eh eh eh, eh eh eh eh T'en fais pas c'est pour moi, c'est Ligue 1, j'ai l'butin Oh oh, oh oh J'ai le ticket gagnant, j'ai le ticket gagnant Oh oh, oh oh c'est fort Ici y a que des brigands, que des brigands Jojo, Jojo, woh j'ai le ticket gagnant okay, ticket gagnant Jojo, Jojo, c'est fort okay okay j'ai le ticket gagnant ticket gagnant, bébé Impossible avec moi, j'ai le ticket gagnant c'est quoi? Coco Jojo Jojo Coco Jojo han-han, han-han, han-han Coco Jojo Ça flingue en vrai, flingue en vrai Ça flingue, flingue, flingue c'est fort Coco Jojo Fresh Coco Jojo Ça flingue Jojo, Jojo, Jojo</t>
+          <t>Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps On met la cagoule quand y'a les soucis Diamants VVS pour cacher la tristesse J'ai grandi dans le piège, ils t'poursuivent Ici, il t'faut un Uzi Pour tuer l'temps et les soucis, ou pour l'papel J'avais trop d're-frè avant qu'ça rentre Mais la rue n't'aime pas, la rue aime l'argent J'connais trop d'putes qu'ont baisé trop d'genres Et des bons gars qu'ont perdu trop d'sang Un peu parano, j'dviens agressif J'ai fait des millirs, j'rentre à la té-ci J'ai pris des vagues pendant la tempête Seul dans l'bateau, j'pars à la dérive VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Faut qu'j'reste très loin d'eux Hier encore, j'avais vingt-deux Hier au moins, j'rêvais un peu Là j'chauchemarde dans un GLE À eux j'la mets, tempête Derrière mon sourire, tant d'peine Prendre des sous, ça n'arrange R Problème est revenu quand même En classe business, j'pense à elle avant d'atterrir Mais sous le Prada, j'ai des cicatrices qui vont pas guérir À part le cash, j'ai pas d'attaches avec ces gens Mon argent, c'est mon remontant Mon argent, c'est mon remontant VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>TP1G</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit, je tire car jaime pas mes ennemis toi tas rien à voir dedans ma meilleure amie paw paw Je temmènerai vers Bali si tu mérites mais pour ça je dois faire partir vers Calì Prendre des risque et les condé moi jévite, mais tas rien à voir dedans ma meilleure amie Si le temps est compté il faut quon taille vite, jsuis quun Thug est tu sais bien jsuis magique Ma meilleure amie, ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Cest bientôt notre tour jai besoin de mes potes, ma miff et toi ma meilleure amie, smash smash smash Cest vrai je dois quitter le four mais jai besoin de mes potes, ma miff et toi ma meilleure amie paw paw Cest vrai je comptais rester dans le TrapHouse cest vrai je comptais rester dans le Bando Investir pour nous dans une big House paw paw Jélimine les rajeux comme au Pantball brrr Je suis pas fort en amour je sais pas joué le rôle Ma meilleure amie, ma meilleure amie Moi jai dautres problèmes mon négro tu sais my nigga for real Mais comment le dire et le dire à ma meilleure amie paw paw On sest promis des choses mon négro je sais... my nigga for real Investir pour de vrais viser une belle Ferrari grriiing Je pourrai pas vesqui cette fille rempli detap et dennuis toi tas rien à voir dedans ma meilleure amie, paw paw Je vois plus le jour et la nuit nuit , je tire car jaime pas mes ennemis mais tas rien à voir dedans ma meilleure amie Encore du cash encore et encore Si mon heure sonne je veux pas que tu sois triste ma meilleure amie Je ressortirai beaucoup plus fort Je reste un guerrier tu le sais bien ma meilleure amie.. paw paw Je suis quun Thug et je ne veux pas mourir dans le Trap Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun Thug et je ne veux pas mourir dans le Trap... woow Je suis quun Thug et je ne veux pas que les Condé Matrap Je suis quun thug je ne veux pas mourir dans le Trap Je temmènerai vers Bali si tu le mérites Mais pour ça je dois faire partir à Calì prendre des risques et les Condé moi jévite mais tas rien à voir dedans ma meilleure amie si le temps est compté faut quon taille vite Je suis quun Thug et tu sais bien que je suis magique Ma meilleure amie, ma meilleure amie ma meilleure amie ma meilleure amie ,ma meilleure amie, ma meilleure amie PAW PAW</t>
+          <t>Wesh Rudyovski Mmh Ouh-ouh Han-han, han-han, han-han Ah-ah-ah S-V4GE made this shit Go, go, go Grr, grr Papito charme On ramène la drogue, le cash et les armes Ah-ah-ah Anakin On va chanter de Paname à Kin' Hey Je la baise, je la baise, je la baise, c'est ma tchakala Ouh, elle trouve que j'ai le même goût que le chocolat han, han J'la mets dans le panier comme Shaquille O'Neal Han, han, switch, toi, quand tu rappes, on dirait qu'c'est un canular T'es nul C'est une calomnie, tu fais perdre du temps à l'ingé' son quand tu rec' ton vieux son Gang J'ai la barre quand tu m'parles de plan sous Woah, j'dois finir au-dessus vu qu'on vient d'en-dessous En haut Avant, j'me lavais avec un seau d'eau, maintenant, je tape les prod' et j'y vais pas cement-dou J'les fuck Tu vas abdiquer même si t'es costaud, quand ça fait Rostoh, il m'supplie d'arrêter Rostoh J'suis le méchant à la fin du movie, j'suis Thanos, Voldemort et toi, t'es qu'une brebis Ah-ah-ah Elle voulait le faire dans mon 4x4, je l'ai mise bien, j'suis avec good pussy Skrt, skrt, skrt J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Thug, tou-tou-tou-tou-tou-tou-touh C'est les fakes négros qu'il faut chasser, je suis sur la chaussée, j'fais partir du machin Bah Je tiens le volant, j'suis dans l'engin, la rue, c'est le parfum, c'est pour ça qu'elle revient Baby 7.5.0.17 Papito charm, 7.5.0.18 J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh, poh-poh, poh-poh Très loin des accolades Accolades, c'est qu'avec le gang avec qui je ride Quand je picole, j'coupe le Jack au Coca-Cola Cola, ah-ah Brrkté, brrkté, brrkté, j'récupère un nouveau cachet à chaque collab' Flouz Personne me conteste quand j'me place pour tirer le pénalty Boh Et je sais que tu kiffes mon arrogance, j'arrive en Audi, les gars suivent en Maserati Jeune ambitieux respecte que la puissance, jeune ambitieux respecte que la puissance J'peux parler dans ta barbe, poto, c'est la puissance Ouais, ouais Filet Mignon comme Tiakola Ouais, la plus fraîche de toutes, j'lui ai sorti ma dick, elle a kiffé, tout l'monde m'a fait chapeau bas Hum Blague à part, si jamais ça s'arrête, j'me barre à la retraite, j'revends pas les barrettes J'revends pas les barrettes, ton corps dans une charrette, ton corps dans une brouette, j'suis allongé en Crète Papito Charm J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Chanson, boh Toi, t'as fumé ma moula, t'as toussé, y a personne que j'épargne quand ça parle en rançon Brr, brr, brr, brr J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Totti</t>
+          <t>Trap House</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>C'est Coco Jojo, popopopopo Ça va commencer ici, popopopopo Numéro 9 c'est moi dans le tiekson R9, dès que j'arrive les tits-pe me check ça ça flingue Fais péter les basses faut que ça résonne wou, bitches envoie, donc je lui donne ça bien donc je lui donne ça bien Barre ta bagnole là, ta carcasse tchop, celui qui veut test on le fracasse bow, sous les cocos de mon quartier je fume kamas du filtré Moi c'est Coco Guy de Barbès Bezbar, moi c'est Coco Guy de Barbès lajan Dans les che-po toujours balaise oseille, je fais du re-spo ça m'apaise histoire de C'est comment khoya labess, c'est la calle c'est fort, big up toutes les tess big up toutes les tess, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la caille faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh Tranquille c'est pour moi champagne han, j'tartine j'oublie que j'ai le mis-per 10 000 boite à gants han, 10 000 dans boite à gants, été comme hiver ouh ouh C'est qui ? C'est Coco Jojo, j'encaisse liquide, j'vends la coca hein hein Mhh, ah, mhh, ah, mhh, AWA, faut bosser En ce qui concerne les autres, moi j'ai rien à ajouter, dans l'équipe j'ai le même rôle que Diogo Jota Casses-toi avec nous y'a rien à mijoter, y'a que si ça flingue que j'appelle ma comptable ahahah J'ai ma liasse d'oseille mon toutou, et pour moi weekend c'est tous les jours popopopopo, ok On emporte que le butin, moi c'est Coco Ligue 1 c'est fort, c'est fo-fort, fort On emporte que le butin chaud, moi c'est Coco Jojo Ligue 1 Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio Toujours sur le terrain comme Francesco Totti chaud, toujours dans la calle faut du cardio A part ça j'suis là, sur un plavon monnaie bien sur j'y vais oh</t>
+          <t>Haha, yeah, yeah Haha, this is some plus four shit Coco Jojo, pah-pah-pah, pouh-pouh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Eh yo, eh yo Ah-ah-ah, elle me dit Calme ton cur, Lucky Luke vas-y molo Eh yo, eh yo, y a que des chiens sur terre donc j'finirais solo Eh yo Eh yo, eh yo, j'appelle ma bitches, rejoins, Maldives, j'enfile polo Eh yo, eh yo, tu sais qu'on réplique Pan, pan, pan Qu'on baise les flics Pan, pan, pan, qu'on fait du biff en pagaille Bah ouais Bah ouais, j'combats toujours pour mon pécule Remballe ta merde, personne t'écoute Nous, on est tout permis, nous parle pas d'sécu Nous, on est tout permis, nous parle pas d'sécu Sec, sec, sec, on boit cul sec, sec, sec Donc écoute ma sono qui te pète les tympans Malgré la musique, j'suis encore sous pleins d'plans Ah, ah, ah Les petits reufs sont encore sous TP, font temps plein Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house On a le fer coffré dans la trap house Mmh, ouh Sexe, drogue, monnaie, trap house Sexe, drogue, monnaie, trap house Faire du le-sa j'ai pas fini, c'est sous vodka je vis Mmh-mmh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, han-han, han-han Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Donne-moi de l'amour, j'suis dans le hood tous les jours On a vécu des drames et on a tenu le coup J'suis pas comme tout tes bougs sans fric J'suis dans le top stream, ta copine monte à bord du bolide Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, ouh, ouh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TOUT L’ÉTÉ</t>
+          <t>Trop frais</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps On met la cagoule quand y'a les soucis Diamants VVS pour cacher la tristesse J'ai grandi dans le piège, ils t'poursuivent Ici, il t'faut un Uzi Pour tuer l'temps et les soucis, ou pour l'papel J'avais trop d're-frè avant qu'ça rentre Mais la rue n't'aime pas, la rue aime l'argent J'connais trop d'putes qu'ont baisé trop d'genres Et des bons gars qu'ont perdu trop d'sang Un peu parano, j'dviens agressif J'ai fait des millirs, j'rentre à la té-ci J'ai pris des vagues pendant la tempête Seul dans l'bateau, j'pars à la dérive VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Faut qu'j'reste très loin d'eux Hier encore, j'avais vingt-deux Hier au moins, j'rêvais un peu Là j'chauchemarde dans un GLE À eux j'la mets, tempête Derrière mon sourire, tant d'peine Prendre des sous, ça n'arrange R Problème est revenu quand même En classe business, j'pense à elle avant d'atterrir Mais sous le Prada, j'ai des cicatrices qui vont pas guérir À part le cash, j'ai pas d'attaches avec ces gens Mon argent, c'est mon remontant Mon argent, c'est mon remontant VVS comme Vatos, j'suis dans l'SLS sur la voie d'gauche Eux là-bas, ils ont pas d'coeur J'ai quelques frères, mais j'ai pas d'sauce VVS comme Vatos, c'est dans l'coffre, j'ai l'matos Tu m'as trahi pour des pesos, j'te les aurais donnés gratos Skrrt Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps Le paradis n'est pas sous mes pieds J'sors le bulletproof, j'sens qu'il va pleuvoir tout l'été Quand j'étais en bas, t'étais pas là pour m'aider Parano, quand j'croise un pote, j'sais même plus qui sont mes opps</t>
+          <t>Ok Ok Ok, ok Ah, ah, ah, ah, ah, hum Ok C'est fort, j'aime trop Ok, ok Oh, va là-bas Ok Ça va commencer ici, let's go Ok, ok Touah, touah, touah, touah Ok C'est Port de Saint-Ouen, là Ok, ok Wouh, wouh Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok Jojo, Jojo, c'est la cité qui m'a appris à chiffrer, moi, j'connais rien au reste Depuis tout p'tit, toujours été frais, c'est Louis Vuitton pointée sur ma veste Assieds-toi bien, bébé, j'te mets l'siège chauffant dans le Tesla Assieds-toi bien, bébé, pas de trou d'boulettes dans l'intérieur cuir, c'est fort Méchant, y en a plus d'un, j'réponds certif', buzz, hein Ah, ah Bande de bâtards Touah, Leto, Coco Jojo, c'est imbattable J'fais Dubaï-Miami, t'es toujours dans palabre T'es toujours J'ai plus de deux-cents bitchies dans mes contacts, j'ai la même Rolex que portait Tupac Ok On t'avait dit Ok, ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Tchikita veut plus d'moi, j'ai brisé son corazón Ma tchikita J'ai passé ma jeunesse à donner mon temps pour la zone C'est Porte de Saint-Ouen là La jalousie, ça peut tuer, ah Ah, Parisien comme Mbappé, ah Ah C'est moi, derrière son tigné, là Han, han, han, han mais je me barre dès le tin-ma Oh, wouah Capitaine Jackson Jackson Five et Coco Jojo Normal, merci On dirait des cains-ri Wouah, Offset et Quavo Migos En vrai, c'est pour ça qu'ils portent l'il Nan, on peut mettre ta famille en deuil T'es mort Madame est toujours belle gosse, donc le négro est toujours beau gosse On t'avait dit Ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TP1G</t>
+          <t>VICTORY</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wesh Rudyovski Mmh Ouh-ouh Han-han, han-han, han-han Ah-ah-ah S-V4GE made this shit Go, go, go Grr, grr Papito charme On ramène la drogue, le cash et les armes Ah-ah-ah Anakin On va chanter de Paname à Kin' Hey Je la baise, je la baise, je la baise, c'est ma tchakala Ouh, elle trouve que j'ai le même goût que le chocolat han, han J'la mets dans le panier comme Shaquille O'Neal Han, han, switch, toi, quand tu rappes, on dirait qu'c'est un canular T'es nul C'est une calomnie, tu fais perdre du temps à l'ingé' son quand tu rec' ton vieux son Gang J'ai la barre quand tu m'parles de plan sous Woah, j'dois finir au-dessus vu qu'on vient d'en-dessous En haut Avant, j'me lavais avec un seau d'eau, maintenant, je tape les prod' et j'y vais pas cement-dou J'les fuck Tu vas abdiquer même si t'es costaud, quand ça fait Rostoh, il m'supplie d'arrêter Rostoh J'suis le méchant à la fin du movie, j'suis Thanos, Voldemort et toi, t'es qu'une brebis Ah-ah-ah Elle voulait le faire dans mon 4x4, je l'ai mise bien, j'suis avec good pussy Skrt, skrt, skrt J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Thug, tou-tou-tou-tou-tou-tou-touh C'est les fakes négros qu'il faut chasser, je suis sur la chaussée, j'fais partir du machin Bah Je tiens le volant, j'suis dans l'engin, la rue, c'est le parfum, c'est pour ça qu'elle revient Baby 7.5.0.17 Papito charm, 7.5.0.18 J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh, poh-poh, poh-poh Très loin des accolades Accolades, c'est qu'avec le gang avec qui je ride Quand je picole, j'coupe le Jack au Coca-Cola Cola, ah-ah Brrkté, brrkté, brrkté, j'récupère un nouveau cachet à chaque collab' Flouz Personne me conteste quand j'me place pour tirer le pénalty Boh Et je sais que tu kiffes mon arrogance, j'arrive en Audi, les gars suivent en Maserati Jeune ambitieux respecte que la puissance, jeune ambitieux respecte que la puissance J'peux parler dans ta barbe, poto, c'est la puissance Ouais, ouais Filet Mignon comme Tiakola Ouais, la plus fraîche de toutes, j'lui ai sorti ma dick, elle a kiffé, tout l'monde m'a fait chapeau bas Hum Blague à part, si jamais ça s'arrête, j'me barre à la retraite, j'revends pas les barrettes J'revends pas les barrettes, ton corps dans une charrette, ton corps dans une brouette, j'suis allongé en Crète Papito Charm J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Chanson, boh Toi, t'as fumé ma moula, t'as toussé, y a personne que j'épargne quand ça parle en rançon Brr, brr, brr, brr J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson Boom J'suis armé, j'ai pas besoin d'pousser, Hennessy la potion et j'commence la chanson T'es pas un G, t'as même pas d'fric Ouh, t'as rien dans l'froc Chopes les, chope les, chope les, ouh Dans la party, y a toute les babys qui veulent fuck Chopes les, chope les, chope les, ouh</t>
+          <t>Jsuis passé par des étapes difficiles et tu le sais ça commence ici Je ne sais pas comment donner damour à mes frères pourtant jles aime Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Jojo Petit instant, mon frère la réussite jmen charge, tu sais très bien, dont panic Opération Dragon, bana Kin, jreprésente les tribunes qui sagitent Entre les cris, les bleus, remontada, la réussite fut magique Silence comme Snake, je navigue Opération Dragon Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Le reste est mitigé Jsais pas, jles sens pas, par précaution, obliger dinfliger La famille faut pas toucher Jvais tmontrer qutu peux finir cartouché Ressentir la pression ça fait ni chaud, ni froid Des fautes, mais finir en haut jy crois Jnai quune seule voix Jai quune seule cible qui touche plusieurs proies Jme dois dêtre meilleur que les autres, cest pas ma faute à moi Cest la compétition qui fait quon dirait quon persiste Face à mes ennemis jamais jhésite Jrésiste, là-dessus Vous finirez pas déçu, jfinirai pas en-dessous Opération Dragon Ils ont tenté dnous éteindre, jsuis revenu comme Fifty et Lil Tjay Jsuis revenu sans cacher ma rancoeur, automatique jy vais Y avait pas de place pour les gens comme nous, daprès ce quils disaient Opération dragon, on repart à zéro ok Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Jojoo Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Silence comme Snake, je navigue</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Trap House</t>
+          <t>Week-end</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Haha, yeah, yeah Haha, this is some plus four shit Coco Jojo, pah-pah-pah, pouh-pouh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Eh yo, eh yo Ah-ah-ah, elle me dit Calme ton cur, Lucky Luke vas-y molo Eh yo, eh yo, y a que des chiens sur terre donc j'finirais solo Eh yo Eh yo, eh yo, j'appelle ma bitches, rejoins, Maldives, j'enfile polo Eh yo, eh yo, tu sais qu'on réplique Pan, pan, pan Qu'on baise les flics Pan, pan, pan, qu'on fait du biff en pagaille Bah ouais Bah ouais, j'combats toujours pour mon pécule Remballe ta merde, personne t'écoute Nous, on est tout permis, nous parle pas d'sécu Nous, on est tout permis, nous parle pas d'sécu Sec, sec, sec, on boit cul sec, sec, sec Donc écoute ma sono qui te pète les tympans Malgré la musique, j'suis encore sous pleins d'plans Ah, ah, ah Les petits reufs sont encore sous TP, font temps plein Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house On a le fer coffré dans la trap house Mmh, ouh Sexe, drogue, monnaie, trap house Sexe, drogue, monnaie, trap house Faire du le-sa j'ai pas fini, c'est sous vodka je vis Mmh-mmh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, han-han, han-han Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Donne-moi de l'amour, j'suis dans le hood tous les jours On a vécu des drames et on a tenu le coup J'suis pas comme tout tes bougs sans fric J'suis dans le top stream, ta copine monte à bord du bolide Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh, ouh, ouh Yeah, yeah, yeah, yeah, yeah, yeah, yeah Mmh-mmh Han, oh, trap house, tu sais qu'on fait du biff dans le trap house Han, oh, trap house, dans tous les cas, on kiffe que le trap house Han, oh, trap house, tu sais qu'on fait du bus' dans le trap house Han, oh, trap house, et puis y a pas de snitch dans le trap house Hmm-hmm, trap house, hmm-hmm, trap house Hmm-hmm, trap house, hmm-hmm, trap house</t>
+          <t>Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dinero, elle est là que pour mes dinero Billets mauves, elle twerk et je jette des billets mauves Mes OG veulent la vraiment gang bang bang bang Elle aime trop les dinero Touche aux miens gang bang bang bang, mon négro fait pas lhéros On fumait la weed, comme Flem tous les week-ends Jai taffé la week, jai charbonné comme Harry Kane Elle donne plus sa pussy, elle me reproche dêtre devenu distant ouais Elle donne plus sa pussy, elle dit que jai trop de DM sur Insta ouais Tu sais que la coke est exportée, donc toute la semaine faut bombarder Tu sais que ces batards nous regardent, donc tous les week-ends je refais mon dégradé Et recule dun cran ça va pas lfaire, un peu maniaque donc on touche pas à mes affaires Gros dans la street on peut pas perdre, donc on sest toujours promis de faire du papel, papel, papel papel, papel Depitcho Jrépond présent quand les bobo mappellent Jamais, belek on vous sort un Toka Regarde mon équipe cest pas des beaux gars c'est fort, Coco de Bezbar, Yoka Jai le flow qui tue, qui te donne coquard hein, poh La semaine je travaille beaucoup, le week-end je mélange le whisky et coca la semaine La semaine je travaille beaucoup, je cookin, je cookin, je vend vers le Troca Depitcho, Ronaldo de Bezbar, quand jsuis en pétard, personne sépare, quand ça part Okay Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dorée est la couleur de mes single Quand je met la boulette je fais tomber les diamants Dis-leur jai Desert Eagle, ça peut que chauffer ya que du fuego Dis-leur jai Desert Eagle, ça peut que chauffer, ya rien de marrant Ma routine cest pas dmâcher la vie comme un chameau Crois moi jsuis pareil quavant Desert Eagle dans les socquettes Lalcool cest de leau mais te voilà fini pompette Jarrive parfumé avec Coco Jojo Chanel commence à sinquiéter Je sors de lombre, te voilà embêté, yeah yeah yeah yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Trop frais</t>
+          <t>WE LAUGHING*</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ok Ok Ok, ok Ah, ah, ah, ah, ah, hum Ok C'est fort, j'aime trop Ok, ok Oh, va là-bas Ok Ça va commencer ici, let's go Ok, ok Touah, touah, touah, touah Ok C'est Port de Saint-Ouen, là Ok, ok Wouh, wouh Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok Jojo, Jojo, c'est la cité qui m'a appris à chiffrer, moi, j'connais rien au reste Depuis tout p'tit, toujours été frais, c'est Louis Vuitton pointée sur ma veste Assieds-toi bien, bébé, j'te mets l'siège chauffant dans le Tesla Assieds-toi bien, bébé, pas de trou d'boulettes dans l'intérieur cuir, c'est fort Méchant, y en a plus d'un, j'réponds certif', buzz, hein Ah, ah Bande de bâtards Touah, Leto, Coco Jojo, c'est imbattable J'fais Dubaï-Miami, t'es toujours dans palabre T'es toujours J'ai plus de deux-cents bitchies dans mes contacts, j'ai la même Rolex que portait Tupac Ok On t'avait dit Ok, ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Tchikita veut plus d'moi, j'ai brisé son corazón Ma tchikita J'ai passé ma jeunesse à donner mon temps pour la zone C'est Porte de Saint-Ouen là La jalousie, ça peut tuer, ah Ah, Parisien comme Mbappé, ah Ah C'est moi, derrière son tigné, là Han, han, han, han mais je me barre dès le tin-ma Oh, wouah Capitaine Jackson Jackson Five et Coco Jojo Normal, merci On dirait des cains-ri Wouah, Offset et Quavo Migos En vrai, c'est pour ça qu'ils portent l'il Nan, on peut mettre ta famille en deuil T'es mort Madame est toujours belle gosse, donc le négro est toujours beau gosse On t'avait dit Ok, ah, on t'avait dit Ok Les vitres sont teintées Ok, ok, donc elle est tentée Ok J'évite d'la séduire Ok, ok et m'barrer d'ici Ok On t'avait dit Ok, ok, ah, on t'avait dit Wouh, wouh C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent C'est sa copine que j'préfère, donc la petite est jalouse Shopping, Avenue Montaigne C'est bien pour ça qu'ils m'jalousent On est trop frais Han, c'est vrai qu'on est trop frais C'est bien pour ça qu'ils m'jalousent On n'est pas nées pour souffrir mais l'argent fait pas l'bonheur Petite jalouse La jalousie, ça peut tuer, ah, Parisien comme Mbappé C'est bien pour ça qu'ils m'jalousent, ah Trop frais, c'est vrai qu'on est trop frais Petite jalouse, Jackson Five Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok et Coco Jojo Ok Ok, Capitaine Jackson Ok, ok</t>
+          <t>...mets pas de cagoule pour pas presser d'détente Et si tu penses à finir menotté Paw C'est vrai c'était pas nous la la rue j'me suis révolté x2 Bouuuuuuh, ha-ah ha-ah ha-ah We laughing in thought x4 Yeah, west ...</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>VICTORY</t>
+          <t>Y’a de la dope (Remix)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Jsuis passé par des étapes difficiles et tu le sais ça commence ici Je ne sais pas comment donner damour à mes frères pourtant jles aime Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Jojo Petit instant, mon frère la réussite jmen charge, tu sais très bien, dont panic Opération Dragon, bana Kin, jreprésente les tribunes qui sagitent Entre les cris, les bleus, remontada, la réussite fut magique Silence comme Snake, je navigue Opération Dragon Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Le reste est mitigé Jsais pas, jles sens pas, par précaution, obliger dinfliger La famille faut pas toucher Jvais tmontrer qutu peux finir cartouché Ressentir la pression ça fait ni chaud, ni froid Des fautes, mais finir en haut jy crois Jnai quune seule voix Jai quune seule cible qui touche plusieurs proies Jme dois dêtre meilleur que les autres, cest pas ma faute à moi Cest la compétition qui fait quon dirait quon persiste Face à mes ennemis jamais jhésite Jrésiste, là-dessus Vous finirez pas déçu, jfinirai pas en-dessous Opération Dragon Ils ont tenté dnous éteindre, jsuis revenu comme Fifty et Lil Tjay Jsuis revenu sans cacher ma rancoeur, automatique jy vais Y avait pas de place pour les gens comme nous, daprès ce quils disaient Opération dragon, on repart à zéro ok Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Impacter le monde que ça bouge, woh Les faire tomber comme un domino Ma voix une bécane qui réveille les cités quand jpasse sur lallée en I, woh Jojoo Faîtes couler G2B jressortirais dlà avec un bateau plus grand qule Titanic Silence comme Snake, je navigue</t>
+          <t>Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Hey, Y'a d'la dope en pagaille dans la zone pourtant ça sent le roussi tu t'grattes les veines On sera toujours sur le corner, gauche ou droite les schlags au centre même s'ils font passer le FN Trop vrai pour ce Game de merde Mes gars m'ont dit que je jouais mal Putain j'suis aigri des yencli ont cramé ma cons' tout est au grand journal L'argent ça nous a matrixé Les habitués sont foncedés Les dealeurs du coin on sait qui c'est Lice-po on s'tait Dans l'ghetto, accompagné de mes putains d'négro Alcoolique on boit dans des pots, y'a, y'a d'la dope On fait des kilos, On fait des kilos d'beuh Ici c'est le feu, juste fait la queue-leu-leu J'suis désolé, j'prends pas la fumée, que les billets T'as pas ton ticket, tu veux t'faire niquer, t'es un condé Le colis vient de loin, faut pas abuser Retournes au guichet, si tu veux fumer Le chiffre chiffre d'affaire, négro J'suis pas là pour te plaire Bip moi sur mon téléphone, le négro n'a pas le temps Baw! J'représente jungle et favelas On a weed puis d'la dope un peu trop tôt comme des narcos je sais hélas J'serais bientôt T'étonnes pas, partout on est en place Affamés, affamés, depuis tout ti-pe appelle nous les chiens d'la casse Dangereux nous sommes comme des mafias russes Pendant qu'tu bluffes nous on casse nos puces Y'a que dans l'carré que moi je m'amuse Si je vais trop loin dis moi Bez' t'abuses Assumé, assumé je le fais sans parler Ne parles pas de tes potes sur ma tête c'est des bluffeurs Foncedé, sous OG Kush tah la Bob Marley J'connais toute les réponses nique sa mère le buzzer Trop de produit vendus, dans les coins de ma rue, par ici la peufra poto fait la queue J'ai mon joujou si tu chicanes gros Ça fera bouh-bouh dans tout Chicagre Les baqueu sont vendus, le préfet s'est pendu et le terrain de dope c'est mon terrain d'jeu Oui je compte mes billets comme je roule un beuh La zone est verrouillée donc je roule ce bleu J'suis dans la gova sous lean, foncedé oui je le souligne Mes niagas oui pinent, calé dans le fond de la cuisine Entourés de putes et de djinns et des liasses dans mon jean Bienvenu dans mon secteur ? où ça charbonne pour devenir numéro uno Trop tendus sont les inspecteurs zinc surtout depuis que les ti-pe bibi de la poudre C'est la mafia tous les jours, assasssinat en plein jour J'deviens meilleur chaque jour et depuis ta pétasse me tourne autour On sort de taule avec plus de contacts On fait plus de fric, on vend des plus gros sacs Toute la ville connait l'squad, h24 j'suis dans la trap Des boloss dans la cour, des gâteaux dans le four Tout pour le tout, tu fais quoi dans la rue si tu fais pas des sous Pas besoin d'hiver pour que la neige tombe La concu jalouse, espère qu'on tombe Ça sonne toutes les 30 secondes Si tu tires faut pas qu'tu te trompes Si seulement tu savais tout ce qu'on vivait C'que j'ai fait pour toi venait du cur, bref Professions, profits ont gonflé le benef J'fais la cuisine comme un chef Couplet 6- Silek Ok y'a d'la dope Sur le taro tu veux blablater Sale enfoiré tu paieras plein pot C'est mort si t'espérais qu'on t'les booste Les quettes-pla ont des airs de Bob l'éponge Réveil midi, 4 appels Manqués j'suis encore raplapla J'suis l'captain d'la paix J'suis pas là pour faire ami-ami Dans ma te-tê j'suis pas seul tout la brigade anti émeute Grosse contrefaçon de Rihanna Sous les draps je lui met sa barre elle crie à mort Qu'est ce tu me ler-par de se rié-ma J'suis sous weed j'sais déjà plus comment te llama Y'a d'la dope, pour la piraterie La piraterie n'est jamais fini Mucho Dinero, caillou Medellin Coté passager, michto roule mon spliff Welcome to the sal, welcome à l'usine Tout est noir ici comme charbon à la mine Ghetto youth antillais Je fais l'argent, l'argent ne me fait pas Sombre individu, je n'te connais pas Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope</t>
         </is>
       </c>
     </row>
@@ -3229,61 +3229,10 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Week-end</t>
+          <t>ZERO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
-        <is>
-          <t>Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dinero, elle est là que pour mes dinero Billets mauves, elle twerk et je jette des billets mauves Mes OG veulent la vraiment gang bang bang bang Elle aime trop les dinero Touche aux miens gang bang bang bang, mon négro fait pas lhéros On fumait la weed, comme Flem tous les week-ends Jai taffé la week, jai charbonné comme Harry Kane Elle donne plus sa pussy, elle me reproche dêtre devenu distant ouais Elle donne plus sa pussy, elle dit que jai trop de DM sur Insta ouais Tu sais que la coke est exportée, donc toute la semaine faut bombarder Tu sais que ces batards nous regardent, donc tous les week-ends je refais mon dégradé Et recule dun cran ça va pas lfaire, un peu maniaque donc on touche pas à mes affaires Gros dans la street on peut pas perdre, donc on sest toujours promis de faire du papel, papel, papel papel, papel Depitcho Jrépond présent quand les bobo mappellent Jamais, belek on vous sort un Toka Regarde mon équipe cest pas des beaux gars c'est fort, Coco de Bezbar, Yoka Jai le flow qui tue, qui te donne coquard hein, poh La semaine je travaille beaucoup, le week-end je mélange le whisky et coca la semaine La semaine je travaille beaucoup, je cookin, je cookin, je vend vers le Troca Depitcho, Ronaldo de Bezbar, quand jsuis en pétard, personne sépare, quand ça part Okay Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes qui ressemblent à des ricaines Jai taffé la week, laisse moi frimer le week-end Ya que quand jsuis avec mes OG quon soulève des frappes à la beauté africaine Dorée est la couleur de mes single Quand je met la boulette je fais tomber les diamants Dis-leur jai Desert Eagle, ça peut que chauffer ya que du fuego Dis-leur jai Desert Eagle, ça peut que chauffer, ya rien de marrant Ma routine cest pas dmâcher la vie comme un chameau Crois moi jsuis pareil quavant Desert Eagle dans les socquettes Lalcool cest de leau mais te voilà fini pompette Jarrive parfumé avec Coco Jojo Chanel commence à sinquiéter Je sors de lombre, te voilà embêté, yeah yeah yeah yeah, yeah</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Guy2Bezbar</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>WE LAUGHING*</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>...mets pas de cagoule pour pas presser d'détente Et si tu penses à finir menotté Paw C'est vrai c'était pas nous la la rue j'me suis révolté x2 Bouuuuuuh, ha-ah ha-ah ha-ah We laughing in thought x4 Yeah, west ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Guy2Bezbar</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Y’a de la dope (Remix)</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Hey, Y'a d'la dope en pagaille dans la zone pourtant ça sent le roussi tu t'grattes les veines On sera toujours sur le corner, gauche ou droite les schlags au centre même s'ils font passer le FN Trop vrai pour ce Game de merde Mes gars m'ont dit que je jouais mal Putain j'suis aigri des yencli ont cramé ma cons' tout est au grand journal L'argent ça nous a matrixé Les habitués sont foncedés Les dealeurs du coin on sait qui c'est Lice-po on s'tait Dans l'ghetto, accompagné de mes putains d'négro Alcoolique on boit dans des pots, y'a, y'a d'la dope On fait des kilos, On fait des kilos d'beuh Ici c'est le feu, juste fait la queue-leu-leu J'suis désolé, j'prends pas la fumée, que les billets T'as pas ton ticket, tu veux t'faire niquer, t'es un condé Le colis vient de loin, faut pas abuser Retournes au guichet, si tu veux fumer Le chiffre chiffre d'affaire, négro J'suis pas là pour te plaire Bip moi sur mon téléphone, le négro n'a pas le temps Baw! J'représente jungle et favelas On a weed puis d'la dope un peu trop tôt comme des narcos je sais hélas J'serais bientôt T'étonnes pas, partout on est en place Affamés, affamés, depuis tout ti-pe appelle nous les chiens d'la casse Dangereux nous sommes comme des mafias russes Pendant qu'tu bluffes nous on casse nos puces Y'a que dans l'carré que moi je m'amuse Si je vais trop loin dis moi Bez' t'abuses Assumé, assumé je le fais sans parler Ne parles pas de tes potes sur ma tête c'est des bluffeurs Foncedé, sous OG Kush tah la Bob Marley J'connais toute les réponses nique sa mère le buzzer Trop de produit vendus, dans les coins de ma rue, par ici la peufra poto fait la queue J'ai mon joujou si tu chicanes gros Ça fera bouh-bouh dans tout Chicagre Les baqueu sont vendus, le préfet s'est pendu et le terrain de dope c'est mon terrain d'jeu Oui je compte mes billets comme je roule un beuh La zone est verrouillée donc je roule ce bleu J'suis dans la gova sous lean, foncedé oui je le souligne Mes niagas oui pinent, calé dans le fond de la cuisine Entourés de putes et de djinns et des liasses dans mon jean Bienvenu dans mon secteur ? où ça charbonne pour devenir numéro uno Trop tendus sont les inspecteurs zinc surtout depuis que les ti-pe bibi de la poudre C'est la mafia tous les jours, assasssinat en plein jour J'deviens meilleur chaque jour et depuis ta pétasse me tourne autour On sort de taule avec plus de contacts On fait plus de fric, on vend des plus gros sacs Toute la ville connait l'squad, h24 j'suis dans la trap Des boloss dans la cour, des gâteaux dans le four Tout pour le tout, tu fais quoi dans la rue si tu fais pas des sous Pas besoin d'hiver pour que la neige tombe La concu jalouse, espère qu'on tombe Ça sonne toutes les 30 secondes Si tu tires faut pas qu'tu te trompes Si seulement tu savais tout ce qu'on vivait C'que j'ai fait pour toi venait du cur, bref Professions, profits ont gonflé le benef J'fais la cuisine comme un chef Couplet 6- Silek Ok y'a d'la dope Sur le taro tu veux blablater Sale enfoiré tu paieras plein pot C'est mort si t'espérais qu'on t'les booste Les quettes-pla ont des airs de Bob l'éponge Réveil midi, 4 appels Manqués j'suis encore raplapla J'suis l'captain d'la paix J'suis pas là pour faire ami-ami Dans ma te-tê j'suis pas seul tout la brigade anti émeute Grosse contrefaçon de Rihanna Sous les draps je lui met sa barre elle crie à mort Qu'est ce tu me ler-par de se rié-ma J'suis sous weed j'sais déjà plus comment te llama Y'a d'la dope, pour la piraterie La piraterie n'est jamais fini Mucho Dinero, caillou Medellin Coté passager, michto roule mon spliff Welcome to the sal, welcome à l'usine Tout est noir ici comme charbon à la mine Ghetto youth antillais Je fais l'argent, l'argent ne me fait pas Sombre individu, je n'te connais pas Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope Y'a d'la dope J'bois pas d'eau Tout le monde est stone Y'a d'la dope</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Guy2Bezbar</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ZERO</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
         <is>
           <t>Yeah Jojo, opération dragon Coco C'est fort Let's get it Baby, viens là, oh-oh, j'ai la money, j'ai les finances Jump dans l'bolide, ne fais pas semblant J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Jump dans l'bolide, ne fais pas semblant J'vais changer ta vie, let's go Ça c'est pas bon les nyama Imbécile Là les gars, j'suis calé vers là-bas Allez voilà Viens pas faire le Tony Montana Nan Kishta, kishta sinon j'suis pas là C'est fort Ma chérie, faut pas s'fâcher Baby C'est la liberté que j'vais t'achetr I got you Les mauvais jours cachés dans l'allée On préfère agir, on n'aim pas trop parler Jamais Jo-Jo-Jo Ouh Baby, viens là, oh-oh, j'ai la money, j'ai les finances J'ai tout Jump dans l'bolide, ne fais pas semblant Skurt J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Allez voilà Jump dans l'bolide, ne fais pas semblantAllez voilà J'vais changer ta vie, let's get it Baby, j'suis pas Calimero Non, bébé, j'suis pas Calimero Jamais Baby, ton mec, il est zéro Ah, bébé, ton mec, il est zéro Il est zéro C'est les flingueurs donc mets ton numéro Là, c'est fort, donc mets ton numéro Ton mec, il est zéro Ah, bébé, ton mec, il est zéro Ton mec, il est zéro Viens chez les flingueurs, on fait les dineros On fait la monnaie Les James, j'les mets l'flinguer dans Bentley On ira chez Cartier, prends tout, tout c'qui te plaît Opération drago, Jojo, c'était Maï de Gravo Avec elle, t'as flopé, on répare les travaux Bow, bow J'connais mon karaté, Jojo depitcho, erataka té Baby, viens là, oh-oh, j'ai la money, j'ai les finances Bah oui Jump dans l'bolide, ne fais pas semblant Jamais J'vais changer ta vie, rentre dans la voiture, oh ouais Fais-moi confiance, j'ai la money, j'ai les finances Jojo Jump dans l'bolide, ne fais pas semblant Allez voilà J'vais changer ta vie, let's get it Baby, j'suis pas Calimero Non, bébé, j'suis pas Calimero Jamais Baby, ton mec, il est zéro Ah, bébé, ton mec, il est zéro Il est zéro C'est les flingueurs donc mets ton numéro Là, c'est fort, donc mets ton numéro Ton mec, il est zéro Ah, bébé, ton mec, il est zéro Hey, yo, Glitch Yes, sir I like Jack I got you Jojo, I got you Ah, ah, ah, ah, Tom, I got you Ah, ah, Jojo, I got you Yeah, yeah Let's get it</t>
         </is>
